--- a/F1.xlsx
+++ b/F1.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="101" documentId="11_7EFD02DFBB89078A07B1F854B77B5195153BA9AF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BECFF2BF-5517-CD4D-8406-C7902C4A5557}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19260" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19260" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="1" r:id="rId1"/>
@@ -14227,7 +14227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -19513,8 +19513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3307e3c88395b6d/CSProjects/PythonProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="11_7EFD02DFBB89078A07B1F854B77B5195153BA9AF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BECFF2BF-5517-CD4D-8406-C7902C4A5557}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="11_7EFD02DFBB89078A07B1F854B77B5195153BA9AF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{084FB832-07D1-B64B-AF21-2DEC85B9CD06}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19260" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19260" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="643">
   <si>
     <t>Constructor</t>
   </si>
@@ -2617,7 +2617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3485,15 +3485,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3557,6 +3548,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7660,61 +7675,61 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:24" ht="17" customHeight="1" thickBot="1">
-      <c r="B2" s="312" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="312" t="s">
+      <c r="B2" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="312" t="s">
+      <c r="D2" s="309" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="312" t="s">
+      <c r="E2" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="312" t="s">
+      <c r="F2" s="309" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="312" t="s">
+      <c r="I2" s="309" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="312" t="s">
+      <c r="J2" s="309" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="312" t="s">
+      <c r="K2" s="309" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="312" t="s">
+      <c r="L2" s="309" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="312" t="s">
+      <c r="M2" s="309" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="315" t="s">
+      <c r="N2" s="312" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="315" t="s">
+      <c r="O2" s="312" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="315" t="s">
+      <c r="P2" s="312" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="315" t="s">
+      <c r="Q2" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="315" t="s">
+      <c r="R2" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="313" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="312" t="s">
+      <c r="T2" s="310" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="309" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7755,7 +7770,7 @@
       </c>
       <c r="K3" s="292">
         <f>+VLOOKUP($C3,'R8'!$C$3:$H$22,6,)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L3" s="292"/>
       <c r="M3" s="292"/>
@@ -7764,18 +7779,18 @@
       <c r="P3" s="37"/>
       <c r="Q3" s="37">
         <f t="shared" ref="Q3:Q22" si="0">SUM(D3:P3)</f>
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="R3" s="232">
         <f t="shared" ref="R3:R22" si="1">SUM(E3:P3)+AVERAGE(E3:P3)</f>
-        <v>165.71428571428572</v>
+        <v>173.71428571428572</v>
       </c>
       <c r="T3" s="38" t="s">
         <v>18</v>
       </c>
       <c r="U3" s="83">
         <f ca="1">SUMIF($B$3:$Q$22,T3,$Q$3:$Q$22)</f>
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="2:24">
@@ -7833,7 +7848,7 @@
       <c r="T4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="298">
+      <c r="U4" s="295">
         <f ca="1">SUMIF($B$3:$Q$22,T4,$Q$3:$Q$22)</f>
         <v>158</v>
       </c>
@@ -7875,7 +7890,7 @@
       </c>
       <c r="K5" s="118">
         <f>+VLOOKUP($C5,'R8'!$C$3:$H$22,6,)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L5" s="118"/>
       <c r="M5" s="118"/>
@@ -7884,18 +7899,18 @@
       <c r="P5" s="27"/>
       <c r="Q5" s="27">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="R5" s="233">
         <f t="shared" si="1"/>
-        <v>93.714285714285708</v>
+        <v>105.14285714285714</v>
       </c>
       <c r="T5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="U5" s="298">
+      <c r="U5" s="295">
         <f ca="1">SUMIF($B$3:$Q$22,T5,$Q$3:$Q$22)</f>
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:24">
@@ -7953,9 +7968,9 @@
       <c r="T6" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="U6" s="298">
+      <c r="U6" s="295">
         <f ca="1">SUMIF($B$3:$Q$22,T6,$Q$3:$Q$22)-15+$X$16</f>
-        <v>66</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:24">
@@ -7995,7 +8010,7 @@
       </c>
       <c r="K7" s="101">
         <f>+VLOOKUP($C7,'R8'!$C$3:$H$22,6,)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L7" s="101"/>
       <c r="M7" s="101"/>
@@ -8004,16 +8019,16 @@
       <c r="P7" s="30"/>
       <c r="Q7" s="30">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="R7" s="235">
         <f t="shared" si="1"/>
-        <v>33.142857142857146</v>
+        <v>46.857142857142854</v>
       </c>
       <c r="T7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="298">
+      <c r="U7" s="295">
         <f t="shared" ref="U7:U12" ca="1" si="2">SUMIF($B$3:$Q$22,T7,$Q$3:$Q$22)</f>
         <v>61</v>
       </c>
@@ -8073,9 +8088,9 @@
       <c r="T8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="U8" s="298">
+      <c r="U8" s="295">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:24">
@@ -8115,7 +8130,7 @@
       </c>
       <c r="K9" s="105">
         <f>+VLOOKUP($C9,'R8'!$C$3:$H$22,6,)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" s="105"/>
       <c r="M9" s="105"/>
@@ -8124,18 +8139,18 @@
       <c r="P9" s="31"/>
       <c r="Q9" s="31">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="R9" s="236">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>65.142857142857139</v>
       </c>
       <c r="T9" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="298">
+      <c r="U9" s="295">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:24">
@@ -8169,13 +8184,13 @@
         <f>+VLOOKUP($C10,'R6'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="J10" s="301">
+      <c r="J10" s="298">
         <f>+VLOOKUP($C10,'R7'!$C$3:$H$22,6,)</f>
         <v>13</v>
       </c>
       <c r="K10" s="109">
         <f>+VLOOKUP($C10,'R8'!$C$3:$H$22,6,)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L10" s="109"/>
       <c r="M10" s="109"/>
@@ -8184,16 +8199,16 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="32">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="R10" s="240">
         <f t="shared" si="1"/>
-        <v>37.714285714285715</v>
+        <v>46.857142857142854</v>
       </c>
       <c r="T10" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="298">
+      <c r="U10" s="295">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
@@ -8229,7 +8244,7 @@
       </c>
       <c r="K11" s="105">
         <f>+VLOOKUP($C11,'R8'!$C$3:$H$22,6,)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="105"/>
       <c r="M11" s="105"/>
@@ -8238,16 +8253,16 @@
       <c r="P11" s="31"/>
       <c r="Q11" s="31">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R11" s="236">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>31.2</v>
       </c>
       <c r="T11" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="U11" s="298">
+      <c r="U11" s="295">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
@@ -8289,7 +8304,7 @@
       </c>
       <c r="K12" s="109">
         <f>+VLOOKUP($C12,'R8'!$C$3:$H$22,6,)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L12" s="109"/>
       <c r="M12" s="109"/>
@@ -8298,11 +8313,11 @@
       <c r="P12" s="32"/>
       <c r="Q12" s="32">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R12" s="240">
         <f t="shared" si="1"/>
-        <v>25.142857142857142</v>
+        <v>29.714285714285715</v>
       </c>
       <c r="T12" s="46" t="s">
         <v>37</v>
@@ -8349,7 +8364,7 @@
       </c>
       <c r="K13" s="101">
         <f>+VLOOKUP($C13,'R8'!$C$3:$H$22,6,)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L13" s="101"/>
       <c r="M13" s="101"/>
@@ -8358,11 +8373,11 @@
       <c r="P13" s="30"/>
       <c r="Q13" s="30">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="R13" s="235">
         <f t="shared" si="1"/>
-        <v>14.857142857142858</v>
+        <v>35.428571428571431</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="17" customHeight="1" thickBot="1">
@@ -8402,7 +8417,7 @@
       </c>
       <c r="K14" s="111">
         <f>+VLOOKUP($C14,'R8'!$C$3:$H$22,6,)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L14" s="111"/>
       <c r="M14" s="111"/>
@@ -8411,11 +8426,11 @@
       <c r="P14" s="82"/>
       <c r="Q14" s="82">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="R14" s="238">
         <f t="shared" si="1"/>
-        <v>13.714285714285714</v>
+        <v>42.285714285714285</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="17" customHeight="1" thickBot="1">
@@ -8470,19 +8485,19 @@
         <f t="shared" si="1"/>
         <v>17.142857142857142</v>
       </c>
-      <c r="T15" s="312" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="312" t="s">
+      <c r="T15" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="V15" s="312" t="s">
+      <c r="V15" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="W15" s="312" t="s">
+      <c r="W15" s="309" t="s">
         <v>6</v>
       </c>
-      <c r="X15" s="312" t="s">
+      <c r="X15" s="309" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8523,7 +8538,7 @@
       </c>
       <c r="K16" s="111">
         <f>+VLOOKUP($C16,'R8'!$C$3:$H$22,6,)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" s="111"/>
       <c r="M16" s="111"/>
@@ -8532,11 +8547,11 @@
       <c r="P16" s="82"/>
       <c r="Q16" s="82">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R16" s="238">
         <f t="shared" si="1"/>
-        <v>2.2857142857142856</v>
+        <v>4.5714285714285712</v>
       </c>
       <c r="T16" s="52" t="s">
         <v>25</v>
@@ -8932,13 +8947,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -8950,19 +8965,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="314" t="s">
+      <c r="I2" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="312" t="s">
+      <c r="J2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="312" t="s">
+      <c r="K2" s="309" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9655,31 +9670,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="312" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="312" t="s">
+      <c r="D2" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="309" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="312" t="s">
+      <c r="F2" s="309" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="315" t="s">
+      <c r="I2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10260,13 +10275,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -10278,19 +10293,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="314" t="s">
+      <c r="I2" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="312" t="s">
+      <c r="J2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="312" t="s">
+      <c r="K2" s="309" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10984,31 +10999,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="312" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="312" t="s">
+      <c r="D2" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="309" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="312" t="s">
+      <c r="F2" s="309" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="315" t="s">
+      <c r="I2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11597,13 +11612,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -11615,19 +11630,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="314" t="s">
+      <c r="I2" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="312" t="s">
+      <c r="J2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="312" t="s">
+      <c r="K2" s="309" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12319,31 +12334,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="312" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="312" t="s">
+      <c r="D2" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="309" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="312" t="s">
+      <c r="F2" s="309" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="315" t="s">
+      <c r="I2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12918,13 +12933,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -12936,19 +12951,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="314" t="s">
+      <c r="I2" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="312" t="s">
+      <c r="J2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="312" t="s">
+      <c r="K2" s="309" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13638,31 +13653,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="312" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="312" t="s">
+      <c r="D2" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="309" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="312" t="s">
+      <c r="F2" s="309" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="315" t="s">
+      <c r="I2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -14238,13 +14253,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -14256,19 +14271,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="314" t="s">
+      <c r="I2" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="312" t="s">
+      <c r="J2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="312" t="s">
+      <c r="K2" s="309" t="s">
         <v>127</v>
       </c>
     </row>
@@ -14959,31 +14974,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="312" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="312" t="s">
+      <c r="D2" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="309" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="312" t="s">
+      <c r="F2" s="309" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="315" t="s">
+      <c r="I2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -15544,14 +15559,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AK69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="6" width="10.83203125" style="287" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="287" customWidth="1"/>
+    <col min="4" max="8" width="10.83203125" style="287" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="287" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="287" customWidth="1"/>
     <col min="12" max="12" width="11" style="287" customWidth="1"/>
     <col min="13" max="16" width="13" style="287" hidden="1" customWidth="1"/>
@@ -15564,184 +15580,184 @@
   <sheetData>
     <row r="1" spans="2:37" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:37" ht="17" customHeight="1" thickBot="1">
-      <c r="B2" s="316" t="s">
+      <c r="B2" s="313" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="317"/>
-      <c r="D2" s="317"/>
-      <c r="E2" s="317"/>
-      <c r="F2" s="317"/>
-      <c r="G2" s="317"/>
-      <c r="H2" s="317"/>
-      <c r="I2" s="317"/>
-      <c r="J2" s="317"/>
-      <c r="K2" s="317"/>
-      <c r="L2" s="317"/>
-      <c r="M2" s="317"/>
-      <c r="N2" s="317"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="317"/>
-      <c r="Q2" s="317"/>
-      <c r="R2" s="318"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="314"/>
+      <c r="F2" s="314"/>
+      <c r="G2" s="314"/>
+      <c r="H2" s="314"/>
+      <c r="I2" s="314"/>
+      <c r="J2" s="314"/>
+      <c r="K2" s="314"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="314"/>
+      <c r="N2" s="314"/>
+      <c r="O2" s="314"/>
+      <c r="P2" s="314"/>
+      <c r="Q2" s="314"/>
+      <c r="R2" s="315"/>
     </row>
     <row r="3" spans="2:37" ht="17" customHeight="1" thickBot="1">
       <c r="B3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="312" t="s">
+      <c r="C3" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="315" t="s">
+      <c r="D3" s="312" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="315" t="s">
+      <c r="E3" s="312" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="315" t="s">
+      <c r="F3" s="312" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="315" t="s">
+      <c r="G3" s="312" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="315" t="s">
+      <c r="H3" s="312" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="315" t="s">
+      <c r="I3" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="315" t="s">
+      <c r="J3" s="312" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="315" t="s">
+      <c r="K3" s="312" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="315" t="s">
+      <c r="L3" s="312" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="315" t="s">
+      <c r="M3" s="312" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="315" t="s">
+      <c r="N3" s="312" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="315" t="s">
+      <c r="O3" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="315" t="s">
+      <c r="P3" s="312" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="315" t="s">
+      <c r="Q3" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="315" t="s">
+      <c r="R3" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="312" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="315" t="s">
+      <c r="T3" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="312" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="315" t="s">
+      <c r="V3" s="312" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="315" t="s">
+      <c r="W3" s="312" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="315" t="s">
+      <c r="X3" s="312" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="315" t="s">
+      <c r="Y3" s="312" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="315" t="s">
+      <c r="Z3" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="315" t="s">
+      <c r="AA3" s="312" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="315" t="s">
+      <c r="AB3" s="312" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="315" t="s">
+      <c r="AC3" s="312" t="s">
         <v>59</v>
       </c>
-      <c r="AD3" s="315" t="s">
+      <c r="AD3" s="312" t="s">
         <v>60</v>
       </c>
-      <c r="AE3" s="315" t="s">
+      <c r="AE3" s="312" t="s">
         <v>61</v>
       </c>
-      <c r="AF3" s="315" t="s">
+      <c r="AF3" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="AG3" s="315" t="s">
+      <c r="AG3" s="312" t="s">
         <v>63</v>
       </c>
-      <c r="AH3" s="315" t="s">
+      <c r="AH3" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="AI3" s="315" t="s">
+      <c r="AI3" s="312" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="315" t="s">
+      <c r="AJ3" s="312" t="s">
         <v>64</v>
       </c>
-      <c r="AK3" s="315" t="s">
+      <c r="AK3" s="312" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="2:37">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="316" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="320">
+        <f>+VLOOKUP($C4,'R1'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q1'!$B$3:$J$22,9,)</f>
+        <v>24</v>
+      </c>
+      <c r="E4" s="320">
+        <f>+VLOOKUP($C4,'R2'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q2'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="F4" s="320">
+        <f>+VLOOKUP($C4,'R3'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q3'!$B$3:$J$22,9,)</f>
+        <v>-9</v>
+      </c>
+      <c r="G4" s="320">
+        <f>+VLOOKUP($C4,'R4'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q4'!$B$3:$J$22,9,)</f>
+        <v>22</v>
+      </c>
+      <c r="H4" s="320">
+        <f>+VLOOKUP($C4,'R5'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q5'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="I4" s="320">
+        <f>+VLOOKUP($C4,'R6'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q6'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="J4" s="320">
+        <f>+VLOOKUP($C4,'R7'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q7'!$B$3:$J$22,9,)</f>
         <v>18</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="37">
-        <f>+VLOOKUP($C4,'R1'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q1'!$B$3:$J$22,9,)</f>
-        <v>27</v>
-      </c>
-      <c r="E4" s="37">
-        <f>+VLOOKUP($C4,'R2'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q2'!$B$3:$J$22,9,)</f>
-        <v>44</v>
-      </c>
-      <c r="F4" s="37">
-        <f>+VLOOKUP($C4,'R3'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q3'!$B$3:$J$22,9,)</f>
-        <v>49</v>
-      </c>
-      <c r="G4" s="37">
-        <f>+VLOOKUP($C4,'R4'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q4'!$B$3:$J$22,9,)</f>
-        <v>44</v>
-      </c>
-      <c r="H4" s="37">
-        <f>+VLOOKUP($C4,'R5'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q5'!$B$3:$J$22,9,)</f>
-        <v>54</v>
-      </c>
-      <c r="I4" s="37">
-        <f>+VLOOKUP($C4,'R6'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q6'!$B$3:$J$22,9,)</f>
-        <v>44</v>
-      </c>
-      <c r="J4" s="37">
-        <f>+VLOOKUP($C4,'R7'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q7'!$B$3:$J$22,9,)</f>
-        <v>44</v>
-      </c>
-      <c r="K4" s="37">
+      <c r="K4" s="320">
         <f>+VLOOKUP($C4,'R8'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q8'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37">
+        <v>45</v>
+      </c>
+      <c r="L4" s="320"/>
+      <c r="M4" s="320"/>
+      <c r="N4" s="320"/>
+      <c r="O4" s="320"/>
+      <c r="P4" s="320"/>
+      <c r="Q4" s="320">
         <f>SUM(D4:M4)</f>
-        <v>321</v>
-      </c>
-      <c r="R4" s="232">
+        <v>115</v>
+      </c>
+      <c r="R4" s="322">
         <f>SUM(E4:P4)+AVERAGE(E4:P4)</f>
-        <v>336</v>
+        <v>104</v>
       </c>
       <c r="T4" s="38" t="s">
         <v>18</v>
@@ -15791,56 +15807,56 @@
       </c>
     </row>
     <row r="5" spans="2:37">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="31">
+        <f>+VLOOKUP($C5,'R1'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q1'!$B$3:$J$22,9,)</f>
+        <v>-10</v>
+      </c>
+      <c r="E5" s="31">
+        <f>+VLOOKUP($C5,'R2'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q2'!$B$3:$J$22,9,)</f>
+        <v>21</v>
+      </c>
+      <c r="F5" s="31">
+        <f>+VLOOKUP($C5,'R3'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q3'!$B$3:$J$22,9,)</f>
+        <v>27</v>
+      </c>
+      <c r="G5" s="31">
+        <f>+VLOOKUP($C5,'R4'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q4'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="31">
+        <f>+VLOOKUP($C5,'R5'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q5'!$B$3:$J$22,9,)</f>
         <v>20</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="29">
-        <f>+VLOOKUP($C5,'R1'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-2</v>
-      </c>
-      <c r="E5" s="29">
-        <f>+VLOOKUP($C5,'R2'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q2'!$B$3:$J$22,9,)</f>
-        <v>31</v>
-      </c>
-      <c r="F5" s="29">
-        <f>+VLOOKUP($C5,'R3'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q3'!$B$3:$J$22,9,)</f>
-        <v>41</v>
-      </c>
-      <c r="G5" s="29">
-        <f>+VLOOKUP($C5,'R4'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q4'!$B$3:$J$22,9,)</f>
-        <v>43</v>
-      </c>
-      <c r="H5" s="29">
-        <f>+VLOOKUP($C5,'R5'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q5'!$B$3:$J$22,9,)</f>
-        <v>52</v>
-      </c>
-      <c r="I5" s="29">
+      <c r="I5" s="31">
         <f>+VLOOKUP($C5,'R6'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q6'!$B$3:$J$22,9,)</f>
-        <v>47</v>
-      </c>
-      <c r="J5" s="29">
+        <v>37</v>
+      </c>
+      <c r="J5" s="31">
         <f>+VLOOKUP($C5,'R7'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q7'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="K5" s="29">
+        <v>16</v>
+      </c>
+      <c r="K5" s="31">
         <f>+VLOOKUP($C5,'R8'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q8'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29">
+        <v>35</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31">
         <f>SUM(D5:M5)</f>
-        <v>255</v>
-      </c>
-      <c r="R5" s="234">
+        <v>156</v>
+      </c>
+      <c r="R5" s="236">
         <f>SUM(E5:P5)+AVERAGE(E5:P5)</f>
-        <v>293.71428571428572</v>
+        <v>189.71428571428572</v>
       </c>
       <c r="T5" s="44" t="s">
         <v>20</v>
@@ -15890,56 +15906,56 @@
       </c>
     </row>
     <row r="6" spans="2:37">
-      <c r="B6" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="B6" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="30">
         <f>+VLOOKUP($C6,'R1'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q1'!$B$3:$J$22,9,)</f>
-        <v>44</v>
-      </c>
-      <c r="E6" s="27">
+        <v>23</v>
+      </c>
+      <c r="E6" s="30">
         <f>+VLOOKUP($C6,'R2'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q2'!$B$3:$J$22,9,)</f>
-        <v>33</v>
-      </c>
-      <c r="F6" s="27">
+        <v>11</v>
+      </c>
+      <c r="F6" s="30">
         <f>+VLOOKUP($C6,'R3'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q3'!$B$3:$J$22,9,)</f>
-        <v>26</v>
-      </c>
-      <c r="G6" s="27">
+        <v>11</v>
+      </c>
+      <c r="G6" s="30">
         <f>+VLOOKUP($C6,'R4'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q4'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="H6" s="27">
+        <v>-2</v>
+      </c>
+      <c r="H6" s="30">
         <f>+VLOOKUP($C6,'R5'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q5'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="I6" s="27">
+        <v>2</v>
+      </c>
+      <c r="I6" s="30">
         <f>+VLOOKUP($C6,'R6'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q6'!$B$3:$J$22,9,)</f>
-        <v>31</v>
-      </c>
-      <c r="J6" s="27">
+        <v>20</v>
+      </c>
+      <c r="J6" s="30">
         <f>+VLOOKUP($C6,'R7'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q7'!$B$3:$J$22,9,)</f>
-        <v>31</v>
-      </c>
-      <c r="K6" s="27">
+        <v>-6</v>
+      </c>
+      <c r="K6" s="30">
         <f>+VLOOKUP($C6,'R8'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q8'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27">
+        <v>37</v>
+      </c>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30">
         <f>SUM(D6:M6)</f>
-        <v>212</v>
-      </c>
-      <c r="R6" s="233">
+        <v>96</v>
+      </c>
+      <c r="R6" s="235">
         <f>SUM(E6:P6)+AVERAGE(E6:P6)</f>
-        <v>192</v>
+        <v>83.428571428571431</v>
       </c>
       <c r="T6" s="41" t="s">
         <v>25</v>
@@ -16025,7 +16041,7 @@
       </c>
       <c r="K7" s="30">
         <f>+VLOOKUP($C7,'R8'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q8'!$B$3:$J$22,9,)</f>
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
@@ -16034,11 +16050,11 @@
       <c r="P7" s="30"/>
       <c r="Q7" s="30">
         <f>SUM(D7:M7)</f>
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="R7" s="235">
         <f>SUM(E7:P7)+AVERAGE(E7:P7)</f>
-        <v>120</v>
+        <v>150.85714285714286</v>
       </c>
       <c r="T7" s="39" t="s">
         <v>23</v>
@@ -16088,56 +16104,56 @@
       </c>
     </row>
     <row r="8" spans="2:37">
-      <c r="B8" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="29">
+      <c r="B8" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="32">
         <f>+VLOOKUP($C8,'R1'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q1'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="E8" s="29">
+        <v>-9</v>
+      </c>
+      <c r="E8" s="32">
         <f>+VLOOKUP($C8,'R2'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q2'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="F8" s="29">
+        <v>13</v>
+      </c>
+      <c r="F8" s="32">
         <f>+VLOOKUP($C8,'R3'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q3'!$B$3:$J$22,9,)</f>
+        <v>18</v>
+      </c>
+      <c r="G8" s="32">
+        <f>+VLOOKUP($C8,'R4'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q4'!$B$3:$J$22,9,)</f>
+        <v>32</v>
+      </c>
+      <c r="H8" s="32">
+        <f>+VLOOKUP($C8,'R5'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q5'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="I8" s="32">
+        <f>+VLOOKUP($C8,'R6'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q6'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="J8" s="32">
+        <f>+VLOOKUP($C8,'R7'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q7'!$B$3:$J$22,9,)</f>
+        <v>33</v>
+      </c>
+      <c r="K8" s="32">
+        <f>+VLOOKUP($C8,'R8'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q8'!$B$3:$J$22,9,)</f>
         <v>23</v>
       </c>
-      <c r="G8" s="29">
-        <f>+VLOOKUP($C8,'R4'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q4'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="H8" s="29">
-        <f>+VLOOKUP($C8,'R5'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q5'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="I8" s="29">
-        <f>+VLOOKUP($C8,'R6'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q6'!$B$3:$J$22,9,)</f>
-        <v>19</v>
-      </c>
-      <c r="J8" s="29">
-        <f>+VLOOKUP($C8,'R7'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q7'!$B$3:$J$22,9,)</f>
-        <v>26</v>
-      </c>
-      <c r="K8" s="29">
-        <f>+VLOOKUP($C8,'R8'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q8'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29">
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32">
         <f>SUM(D8:M8)</f>
-        <v>139</v>
-      </c>
-      <c r="R8" s="234">
+        <v>124</v>
+      </c>
+      <c r="R8" s="240">
         <f>SUM(E8:P8)+AVERAGE(E8:P8)</f>
-        <v>155.42857142857142</v>
+        <v>152</v>
       </c>
       <c r="T8" s="40" t="s">
         <v>27</v>
@@ -16187,56 +16203,56 @@
       </c>
     </row>
     <row r="9" spans="2:37">
-      <c r="B9" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="31">
+      <c r="B9" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="27">
         <f>+VLOOKUP($C9,'R1'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-10</v>
-      </c>
-      <c r="E9" s="31">
+        <v>44</v>
+      </c>
+      <c r="E9" s="27">
         <f>+VLOOKUP($C9,'R2'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q2'!$B$3:$J$22,9,)</f>
-        <v>21</v>
-      </c>
-      <c r="F9" s="31">
+        <v>33</v>
+      </c>
+      <c r="F9" s="27">
         <f>+VLOOKUP($C9,'R3'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q3'!$B$3:$J$22,9,)</f>
-        <v>27</v>
-      </c>
-      <c r="G9" s="31">
+        <v>26</v>
+      </c>
+      <c r="G9" s="27">
         <f>+VLOOKUP($C9,'R4'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q4'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="H9" s="31">
+        <v>3</v>
+      </c>
+      <c r="H9" s="27">
         <f>+VLOOKUP($C9,'R5'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q5'!$B$3:$J$22,9,)</f>
+        <v>32</v>
+      </c>
+      <c r="I9" s="27">
+        <f>+VLOOKUP($C9,'R6'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q6'!$B$3:$J$22,9,)</f>
+        <v>31</v>
+      </c>
+      <c r="J9" s="27">
+        <f>+VLOOKUP($C9,'R7'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q7'!$B$3:$J$22,9,)</f>
+        <v>31</v>
+      </c>
+      <c r="K9" s="27">
+        <f>+VLOOKUP($C9,'R8'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q8'!$B$3:$J$22,9,)</f>
         <v>20</v>
       </c>
-      <c r="I9" s="31">
-        <f>+VLOOKUP($C9,'R6'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q6'!$B$3:$J$22,9,)</f>
-        <v>37</v>
-      </c>
-      <c r="J9" s="31">
-        <f>+VLOOKUP($C9,'R7'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q7'!$B$3:$J$22,9,)</f>
-        <v>16</v>
-      </c>
-      <c r="K9" s="31">
-        <f>+VLOOKUP($C9,'R8'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q8'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31">
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27">
         <f>SUM(D9:M9)</f>
-        <v>127</v>
-      </c>
-      <c r="R9" s="236">
+        <v>220</v>
+      </c>
+      <c r="R9" s="233">
         <f>SUM(E9:P9)+AVERAGE(E9:P9)</f>
-        <v>156.57142857142858</v>
+        <v>201.14285714285714</v>
       </c>
       <c r="T9" s="42" t="s">
         <v>29</v>
@@ -16286,56 +16302,56 @@
       </c>
     </row>
     <row r="10" spans="2:37">
-      <c r="B10" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="32">
+      <c r="B10" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="27">
         <f>+VLOOKUP($C10,'R1'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-9</v>
-      </c>
-      <c r="E10" s="32">
+        <v>27</v>
+      </c>
+      <c r="E10" s="27">
         <f>+VLOOKUP($C10,'R2'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q2'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="F10" s="32">
+        <v>44</v>
+      </c>
+      <c r="F10" s="27">
         <f>+VLOOKUP($C10,'R3'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q3'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="G10" s="32">
+        <v>49</v>
+      </c>
+      <c r="G10" s="27">
         <f>+VLOOKUP($C10,'R4'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q4'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="H10" s="32">
+        <v>44</v>
+      </c>
+      <c r="H10" s="27">
         <f>+VLOOKUP($C10,'R5'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I10" s="32">
+        <v>54</v>
+      </c>
+      <c r="I10" s="27">
         <f>+VLOOKUP($C10,'R6'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q6'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="J10" s="32">
+        <v>44</v>
+      </c>
+      <c r="J10" s="27">
         <f>+VLOOKUP($C10,'R7'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q7'!$B$3:$J$22,9,)</f>
-        <v>33</v>
-      </c>
-      <c r="K10" s="32">
+        <v>44</v>
+      </c>
+      <c r="K10" s="27">
         <f>+VLOOKUP($C10,'R8'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q8'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32">
+        <v>17</v>
+      </c>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27">
         <f>SUM(D10:M10)</f>
-        <v>110</v>
-      </c>
-      <c r="R10" s="240">
+        <v>323</v>
+      </c>
+      <c r="R10" s="233">
         <f>SUM(E10:P10)+AVERAGE(E10:P10)</f>
-        <v>136</v>
+        <v>338.28571428571428</v>
       </c>
       <c r="T10" s="43" t="s">
         <v>33</v>
@@ -16385,50 +16401,56 @@
       </c>
     </row>
     <row r="11" spans="2:37">
-      <c r="B11" s="87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="31">
+      <c r="B11" s="89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="32">
         <f>+VLOOKUP($C11,'R1'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q1'!$B$3:$J$22,9,)</f>
-        <v>22</v>
-      </c>
-      <c r="E11" s="31">
+        <v>20</v>
+      </c>
+      <c r="E11" s="32">
         <f>+VLOOKUP($C11,'R2'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q2'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="F11" s="31">
+        <v>-4</v>
+      </c>
+      <c r="F11" s="32">
         <f>+VLOOKUP($C11,'R3'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q3'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31">
+        <v>3</v>
+      </c>
+      <c r="G11" s="32">
+        <f>+VLOOKUP($C11,'R4'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q4'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="H11" s="32">
+        <f>+VLOOKUP($C11,'R5'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q5'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="I11" s="32">
         <f>+VLOOKUP($C11,'R6'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q6'!$B$3:$J$22,9,)</f>
-        <v>21</v>
-      </c>
-      <c r="J11" s="31">
+        <v>7</v>
+      </c>
+      <c r="J11" s="32">
         <f>+VLOOKUP($C11,'R7'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q7'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="K11" s="31">
+        <v>20</v>
+      </c>
+      <c r="K11" s="32">
         <f>+VLOOKUP($C11,'R8'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q8'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31">
+        <v>15</v>
+      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32">
         <f>SUM(D11:M11)</f>
-        <v>95</v>
-      </c>
-      <c r="R11" s="236">
+        <v>101</v>
+      </c>
+      <c r="R11" s="240">
         <f>SUM(E11:P11)+AVERAGE(E11:P11)</f>
-        <v>87.6</v>
+        <v>92.571428571428569</v>
       </c>
       <c r="T11" s="81" t="s">
         <v>31</v>
@@ -16478,56 +16500,56 @@
       </c>
     </row>
     <row r="12" spans="2:37">
-      <c r="B12" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="28">
+      <c r="B12" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="35">
         <f>+VLOOKUP($C12,'R1'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q1'!$B$3:$J$22,9,)</f>
-        <v>41</v>
-      </c>
-      <c r="E12" s="28">
+        <v>15</v>
+      </c>
+      <c r="E12" s="35">
         <f>+VLOOKUP($C12,'R2'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-13</v>
-      </c>
-      <c r="F12" s="28">
+        <v>4</v>
+      </c>
+      <c r="F12" s="35">
         <f>+VLOOKUP($C12,'R3'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q3'!$B$3:$J$22,9,)</f>
         <v>-1</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="35">
         <f>+VLOOKUP($C12,'R4'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q4'!$B$3:$J$22,9,)</f>
-        <v>33</v>
-      </c>
-      <c r="H12" s="28">
+        <v>8</v>
+      </c>
+      <c r="H12" s="35">
         <f>+VLOOKUP($C12,'R5'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q5'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="I12" s="28">
+        <v>1</v>
+      </c>
+      <c r="I12" s="35">
         <f>+VLOOKUP($C12,'R6'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q6'!$B$3:$J$22,9,)</f>
-        <v>-8</v>
-      </c>
-      <c r="J12" s="28">
+        <v>4</v>
+      </c>
+      <c r="J12" s="35">
         <f>+VLOOKUP($C12,'R7'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q7'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="K12" s="28">
+        <v>11</v>
+      </c>
+      <c r="K12" s="35">
         <f>+VLOOKUP($C12,'R8'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q8'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28">
+        <v>15</v>
+      </c>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35">
         <f>SUM(D12:M12)</f>
-        <v>92</v>
-      </c>
-      <c r="R12" s="239">
+        <v>57</v>
+      </c>
+      <c r="R12" s="242">
         <f>SUM(E12:P12)+AVERAGE(E12:P12)</f>
-        <v>58.285714285714285</v>
+        <v>48</v>
       </c>
       <c r="T12" s="45" t="s">
         <v>35</v>
@@ -16577,56 +16599,56 @@
       </c>
     </row>
     <row r="13" spans="2:37" ht="17" customHeight="1" thickBot="1">
-      <c r="B13" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="32">
+      <c r="B13" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="35">
         <f>+VLOOKUP($C13,'R1'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q1'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="E13" s="32">
+        <v>-12</v>
+      </c>
+      <c r="E13" s="35">
         <f>+VLOOKUP($C13,'R2'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-4</v>
-      </c>
-      <c r="F13" s="32">
+        <v>3</v>
+      </c>
+      <c r="F13" s="35">
         <f>+VLOOKUP($C13,'R3'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q3'!$B$3:$J$22,9,)</f>
         <v>3</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="35">
         <f>+VLOOKUP($C13,'R4'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q4'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="H13" s="32">
+        <v>18</v>
+      </c>
+      <c r="H13" s="35">
         <f>+VLOOKUP($C13,'R5'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q5'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="I13" s="32">
+        <v>5</v>
+      </c>
+      <c r="I13" s="35">
         <f>+VLOOKUP($C13,'R6'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q6'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="J13" s="32">
+        <v>9</v>
+      </c>
+      <c r="J13" s="35">
         <f>+VLOOKUP($C13,'R7'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q7'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="K13" s="32">
+        <v>-11</v>
+      </c>
+      <c r="K13" s="35">
         <f>+VLOOKUP($C13,'R8'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q8'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32">
+        <v>14</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35">
         <f>SUM(D13:M13)</f>
-        <v>88</v>
-      </c>
-      <c r="R13" s="240">
+        <v>29</v>
+      </c>
+      <c r="R13" s="242">
         <f>SUM(E13:P13)+AVERAGE(E13:P13)</f>
-        <v>77.714285714285708</v>
+        <v>46.857142857142854</v>
       </c>
       <c r="T13" s="46" t="s">
         <v>37</v>
@@ -16676,109 +16698,109 @@
       </c>
     </row>
     <row r="14" spans="2:37" ht="17" customHeight="1" thickBot="1">
-      <c r="B14" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="82">
+      <c r="B14" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="34">
         <f>+VLOOKUP($C14,'R1'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q1'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="E14" s="82">
+        <v>-11</v>
+      </c>
+      <c r="E14" s="34">
         <f>+VLOOKUP($C14,'R2'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="F14" s="82">
+        <v>12</v>
+      </c>
+      <c r="F14" s="34">
         <f>+VLOOKUP($C14,'R3'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-9</v>
-      </c>
-      <c r="G14" s="82">
+        <v>6</v>
+      </c>
+      <c r="G14" s="34">
         <f>+VLOOKUP($C14,'R4'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q4'!$B$3:$J$22,9,)</f>
-        <v>22</v>
-      </c>
-      <c r="H14" s="82">
+        <v>7</v>
+      </c>
+      <c r="H14" s="34">
         <f>+VLOOKUP($C14,'R5'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I14" s="82">
+        <v>5</v>
+      </c>
+      <c r="I14" s="34">
         <f>+VLOOKUP($C14,'R6'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q6'!$B$3:$J$22,9,)</f>
-        <v>14</v>
-      </c>
-      <c r="J14" s="82">
+        <v>0</v>
+      </c>
+      <c r="J14" s="34">
         <f>+VLOOKUP($C14,'R7'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q7'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="K14" s="82">
+        <v>11</v>
+      </c>
+      <c r="K14" s="34">
         <f>+VLOOKUP($C14,'R8'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q8'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82">
+        <v>13</v>
+      </c>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34">
         <f>SUM(D14:M14)</f>
-        <v>76</v>
-      </c>
-      <c r="R14" s="238">
+        <v>43</v>
+      </c>
+      <c r="R14" s="241">
         <f>SUM(E14:P14)+AVERAGE(E14:P14)</f>
-        <v>59.428571428571431</v>
+        <v>61.714285714285715</v>
       </c>
     </row>
     <row r="15" spans="2:37" ht="17" customHeight="1" thickBot="1">
-      <c r="B15" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="30">
+      <c r="B15" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="33">
         <f>+VLOOKUP($C15,'R1'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q1'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="E15" s="30">
+        <v>-14</v>
+      </c>
+      <c r="E15" s="33">
         <f>+VLOOKUP($C15,'R2'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q2'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="F15" s="30">
+        <v>17</v>
+      </c>
+      <c r="F15" s="33">
         <f>+VLOOKUP($C15,'R3'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q3'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="G15" s="30">
+        <v>15</v>
+      </c>
+      <c r="G15" s="33">
         <f>+VLOOKUP($C15,'R4'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q4'!$B$3:$J$22,9,)</f>
-        <v>-2</v>
-      </c>
-      <c r="H15" s="30">
+        <v>1</v>
+      </c>
+      <c r="H15" s="33">
         <f>+VLOOKUP($C15,'R5'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I15" s="30">
+        <v>15</v>
+      </c>
+      <c r="I15" s="33">
         <f>+VLOOKUP($C15,'R6'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q6'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="J15" s="30">
+        <v>8</v>
+      </c>
+      <c r="J15" s="33">
         <f>+VLOOKUP($C15,'R7'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q7'!$B$3:$J$22,9,)</f>
-        <v>-6</v>
-      </c>
-      <c r="K15" s="30">
+        <v>15</v>
+      </c>
+      <c r="K15" s="33">
         <f>+VLOOKUP($C15,'R8'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q8'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30">
+        <v>10</v>
+      </c>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33">
         <f>SUM(D15:M15)</f>
-        <v>72</v>
-      </c>
-      <c r="R15" s="235">
+        <v>67</v>
+      </c>
+      <c r="R15" s="237">
         <f>SUM(E15:P15)+AVERAGE(E15:P15)</f>
-        <v>56</v>
+        <v>92.571428571428569</v>
       </c>
       <c r="Y15" s="262" t="s">
         <v>0</v>
@@ -16797,56 +16819,56 @@
       </c>
     </row>
     <row r="16" spans="2:37" ht="17" customHeight="1">
-      <c r="B16" s="90" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="33">
+      <c r="B16" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="82">
         <f>+VLOOKUP($C16,'R1'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="E16" s="33">
+        <v>5</v>
+      </c>
+      <c r="E16" s="82">
         <f>+VLOOKUP($C16,'R2'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q2'!$B$3:$J$22,9,)</f>
-        <v>17</v>
-      </c>
-      <c r="F16" s="33">
+        <v>13</v>
+      </c>
+      <c r="F16" s="82">
         <f>+VLOOKUP($C16,'R3'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q3'!$B$3:$J$22,9,)</f>
         <v>15</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="82">
         <f>+VLOOKUP($C16,'R4'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q4'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="33">
+        <v>-13</v>
+      </c>
+      <c r="H16" s="82">
         <f>+VLOOKUP($C16,'R5'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q5'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="I16" s="33">
+        <v>16</v>
+      </c>
+      <c r="I16" s="82">
         <f>+VLOOKUP($C16,'R6'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q6'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="J16" s="33">
+        <v>3</v>
+      </c>
+      <c r="J16" s="82">
         <f>+VLOOKUP($C16,'R7'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q7'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="K16" s="33">
+        <v>5</v>
+      </c>
+      <c r="K16" s="82">
         <f>+VLOOKUP($C16,'R8'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q8'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33">
+        <v>9</v>
+      </c>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82">
         <f>SUM(D16:M16)</f>
-        <v>61</v>
-      </c>
-      <c r="R16" s="237">
+        <v>53</v>
+      </c>
+      <c r="R16" s="238">
         <f>SUM(E16:P16)+AVERAGE(E16:P16)</f>
-        <v>85.714285714285708</v>
+        <v>54.857142857142854</v>
       </c>
       <c r="Y16" s="264" t="s">
         <v>25</v>
@@ -16865,448 +16887,442 @@
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="33">
+        <f>+VLOOKUP($C17,'R1'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q1'!$B$3:$J$22,9,)</f>
+        <v>19</v>
+      </c>
+      <c r="E17" s="33">
+        <f>+VLOOKUP($C17,'R2'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q2'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="F17" s="33">
+        <f>+VLOOKUP($C17,'R3'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q3'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="33">
+        <f>+VLOOKUP($C17,'R4'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q4'!$B$3:$J$22,9,)</f>
+        <v>9</v>
+      </c>
+      <c r="H17" s="33">
+        <f>+VLOOKUP($C17,'R5'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q5'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="I17" s="33">
+        <f>+VLOOKUP($C17,'R6'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q6'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="J17" s="33">
+        <f>+VLOOKUP($C17,'R7'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q7'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="K17" s="33">
+        <f>+VLOOKUP($C17,'R8'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q8'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33">
+        <f>SUM(D17:M17)</f>
+        <v>58</v>
+      </c>
+      <c r="R17" s="237">
+        <f>SUM(E17:P17)+AVERAGE(E17:P17)</f>
+        <v>44.571428571428569</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="31">
+        <f>+VLOOKUP($C18,'R1'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q1'!$B$3:$J$22,9,)</f>
+        <v>22</v>
+      </c>
+      <c r="E18" s="31">
+        <f>+VLOOKUP($C18,'R2'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q2'!$B$3:$J$22,9,)</f>
+        <v>23</v>
+      </c>
+      <c r="F18" s="31">
+        <f>+VLOOKUP($C18,'R3'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q3'!$B$3:$J$22,9,)</f>
+        <v>11</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31">
+        <f>+VLOOKUP($C18,'R6'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q6'!$B$3:$J$22,9,)</f>
+        <v>21</v>
+      </c>
+      <c r="J18" s="31">
+        <f>+VLOOKUP($C18,'R7'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q7'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="K18" s="31">
+        <f>+VLOOKUP($C18,'R8'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q8'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31">
+        <f>SUM(D18:M18)</f>
+        <v>87</v>
+      </c>
+      <c r="R18" s="236">
+        <f>SUM(E18:P18)+AVERAGE(E18:P18)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="29">
+        <f>+VLOOKUP($C19,'R1'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q1'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="29">
+        <f>+VLOOKUP($C19,'R2'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q2'!$B$3:$J$22,9,)</f>
+        <v>24</v>
+      </c>
+      <c r="F19" s="29">
+        <f>+VLOOKUP($C19,'R3'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q3'!$B$3:$J$22,9,)</f>
+        <v>23</v>
+      </c>
+      <c r="G19" s="29">
+        <f>+VLOOKUP($C19,'R4'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q4'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="H19" s="29">
+        <f>+VLOOKUP($C19,'R5'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q5'!$B$3:$J$22,9,)</f>
+        <v>24</v>
+      </c>
+      <c r="I19" s="29">
+        <f>+VLOOKUP($C19,'R6'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q6'!$B$3:$J$22,9,)</f>
+        <v>19</v>
+      </c>
+      <c r="J19" s="29">
+        <f>+VLOOKUP($C19,'R7'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q7'!$B$3:$J$22,9,)</f>
+        <v>26</v>
+      </c>
+      <c r="K19" s="29">
+        <f>+VLOOKUP($C19,'R8'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q8'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29">
+        <f>SUM(D19:M19)</f>
+        <v>133</v>
+      </c>
+      <c r="R19" s="234">
+        <f>SUM(E19:P19)+AVERAGE(E19:P19)</f>
+        <v>148.57142857142858</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="29">
+        <f>+VLOOKUP($C20,'R1'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q1'!$B$3:$J$22,9,)</f>
+        <v>-2</v>
+      </c>
+      <c r="E20" s="29">
+        <f>+VLOOKUP($C20,'R2'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q2'!$B$3:$J$22,9,)</f>
+        <v>31</v>
+      </c>
+      <c r="F20" s="29">
+        <f>+VLOOKUP($C20,'R3'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q3'!$B$3:$J$22,9,)</f>
+        <v>41</v>
+      </c>
+      <c r="G20" s="29">
+        <f>+VLOOKUP($C20,'R4'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q4'!$B$3:$J$22,9,)</f>
+        <v>43</v>
+      </c>
+      <c r="H20" s="29">
+        <f>+VLOOKUP($C20,'R5'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q5'!$B$3:$J$22,9,)</f>
+        <v>52</v>
+      </c>
+      <c r="I20" s="29">
+        <f>+VLOOKUP($C20,'R6'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q6'!$B$3:$J$22,9,)</f>
+        <v>47</v>
+      </c>
+      <c r="J20" s="29">
+        <f>+VLOOKUP($C20,'R7'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q7'!$B$3:$J$22,9,)</f>
+        <v>32</v>
+      </c>
+      <c r="K20" s="29">
+        <f>+VLOOKUP($C20,'R8'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q8'!$B$3:$J$22,9,)</f>
+        <v>-4</v>
+      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29">
+        <f>SUM(D20:M20)</f>
+        <v>240</v>
+      </c>
+      <c r="R20" s="234">
+        <f>SUM(E20:P20)+AVERAGE(E20:P20)</f>
+        <v>276.57142857142856</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="28">
-        <f>+VLOOKUP($C17,'R1'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q1'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="E17" s="28">
-        <f>+VLOOKUP($C17,'R2'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-9</v>
-      </c>
-      <c r="F17" s="28">
-        <f>+VLOOKUP($C17,'R3'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q3'!$B$3:$J$22,9,)</f>
-        <v>21</v>
-      </c>
-      <c r="G17" s="28">
-        <f>+VLOOKUP($C17,'R4'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q4'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="H17" s="28">
-        <f>+VLOOKUP($C17,'R5'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I17" s="28">
-        <f>+VLOOKUP($C17,'R6'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q6'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="J17" s="28">
-        <f>+VLOOKUP($C17,'R7'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q7'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="K17" s="28">
-        <f>+VLOOKUP($C17,'R8'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q8'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28">
-        <f>SUM(D17:M17)</f>
-        <v>55</v>
-      </c>
-      <c r="R17" s="239">
-        <f>SUM(E17:P17)+AVERAGE(E17:P17)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18">
-      <c r="B18" s="90" t="s">
+      <c r="C21" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="28">
+        <f>+VLOOKUP($C21,'R1'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q1'!$B$3:$J$22,9,)</f>
+        <v>41</v>
+      </c>
+      <c r="E21" s="28">
+        <f>+VLOOKUP($C21,'R2'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q2'!$B$3:$J$22,9,)</f>
+        <v>-13</v>
+      </c>
+      <c r="F21" s="28">
+        <f>+VLOOKUP($C21,'R3'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q3'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="G21" s="28">
+        <f>+VLOOKUP($C21,'R4'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q4'!$B$3:$J$22,9,)</f>
         <v>33</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="33">
-        <f>+VLOOKUP($C18,'R1'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q1'!$B$3:$J$22,9,)</f>
-        <v>19</v>
-      </c>
-      <c r="E18" s="33">
-        <f>+VLOOKUP($C18,'R2'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q2'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="F18" s="33">
-        <f>+VLOOKUP($C18,'R3'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q3'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="G18" s="33">
-        <f>+VLOOKUP($C18,'R4'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q4'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="H18" s="33">
-        <f>+VLOOKUP($C18,'R5'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q5'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="I18" s="33">
-        <f>+VLOOKUP($C18,'R6'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q6'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="J18" s="33">
-        <f>+VLOOKUP($C18,'R7'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q7'!$B$3:$J$22,9,)</f>
+      <c r="H21" s="28">
+        <f>+VLOOKUP($C21,'R5'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q5'!$B$3:$J$22,9,)</f>
+        <v>32</v>
+      </c>
+      <c r="I21" s="28">
+        <f>+VLOOKUP($C21,'R6'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q6'!$B$3:$J$22,9,)</f>
+        <v>-8</v>
+      </c>
+      <c r="J21" s="28">
+        <f>+VLOOKUP($C21,'R7'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q7'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="K21" s="28">
+        <f>+VLOOKUP($C21,'R8'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q8'!$B$3:$J$22,9,)</f>
+        <v>-11</v>
+      </c>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28">
+        <f>SUM(D21:M21)</f>
+        <v>77</v>
+      </c>
+      <c r="R21" s="239">
+        <f>SUM(E21:P21)+AVERAGE(E21:P21)</f>
+        <v>41.142857142857146</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="34">
+        <f>+VLOOKUP($C22,'R1'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q1'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="K18" s="33">
-        <f>+VLOOKUP($C18,'R8'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q8'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33">
-        <f>SUM(D18:M18)</f>
-        <v>53</v>
-      </c>
-      <c r="R18" s="237">
-        <f>SUM(E18:P18)+AVERAGE(E18:P18)</f>
-        <v>38.857142857142854</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18">
-      <c r="B19" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="82">
-        <f>+VLOOKUP($C19,'R1'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q1'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="E19" s="82">
-        <f>+VLOOKUP($C19,'R2'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q2'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="F19" s="82">
-        <f>+VLOOKUP($C19,'R3'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q3'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="G19" s="82">
-        <f>+VLOOKUP($C19,'R4'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q4'!$B$3:$J$22,9,)</f>
-        <v>-13</v>
-      </c>
-      <c r="H19" s="82">
-        <f>+VLOOKUP($C19,'R5'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q5'!$B$3:$J$22,9,)</f>
-        <v>16</v>
-      </c>
-      <c r="I19" s="82">
-        <f>+VLOOKUP($C19,'R6'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q6'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="J19" s="82">
-        <f>+VLOOKUP($C19,'R7'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q7'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="K19" s="82">
-        <f>+VLOOKUP($C19,'R8'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q8'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82">
-        <f>SUM(D19:M19)</f>
-        <v>46</v>
-      </c>
-      <c r="R19" s="238">
-        <f>SUM(E19:P19)+AVERAGE(E19:P19)</f>
-        <v>46.857142857142854</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18">
-      <c r="B20" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="35">
-        <f>+VLOOKUP($C20,'R1'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q1'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="E20" s="35">
-        <f>+VLOOKUP($C20,'R2'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q2'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="F20" s="35">
-        <f>+VLOOKUP($C20,'R3'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="G20" s="35">
-        <f>+VLOOKUP($C20,'R4'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q4'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="H20" s="35">
-        <f>+VLOOKUP($C20,'R5'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q5'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="35">
-        <f>+VLOOKUP($C20,'R6'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q6'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="J20" s="35">
-        <f>+VLOOKUP($C20,'R7'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q7'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="K20" s="35">
-        <f>+VLOOKUP($C20,'R8'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q8'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35">
-        <f>SUM(D20:M20)</f>
-        <v>43</v>
-      </c>
-      <c r="R20" s="242">
-        <f>SUM(E20:P20)+AVERAGE(E20:P20)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18">
-      <c r="B21" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="34">
-        <f>+VLOOKUP($C21,'R1'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
-      </c>
-      <c r="E21" s="34">
-        <f>+VLOOKUP($C21,'R2'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q2'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="F21" s="34">
-        <f>+VLOOKUP($C21,'R3'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q3'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="G21" s="34">
-        <f>+VLOOKUP($C21,'R4'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q4'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="H21" s="34">
-        <f>+VLOOKUP($C21,'R5'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q5'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="I21" s="34">
-        <f>+VLOOKUP($C21,'R6'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q6'!$B$3:$J$22,9,)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="34">
-        <f>+VLOOKUP($C21,'R7'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q7'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="K21" s="34">
-        <f>+VLOOKUP($C21,'R8'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q8'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34">
-        <f>SUM(D21:M21)</f>
-        <v>31</v>
-      </c>
-      <c r="R21" s="241">
-        <f>SUM(E21:P21)+AVERAGE(E21:P21)</f>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18">
-      <c r="B22" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="35">
-        <f>+VLOOKUP($C22,'R1'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q1'!$B$3:$J$22,9,)</f>
+      <c r="E22" s="34">
+        <f>+VLOOKUP($C22,'R2'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q2'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="F22" s="34">
+        <f>+VLOOKUP($C22,'R3'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q3'!$B$3:$J$22,9,)</f>
+        <v>18</v>
+      </c>
+      <c r="G22" s="34">
+        <f>+VLOOKUP($C22,'R4'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q4'!$B$3:$J$22,9,)</f>
         <v>-12</v>
       </c>
-      <c r="E22" s="35">
-        <f>+VLOOKUP($C22,'R2'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q2'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="F22" s="35">
-        <f>+VLOOKUP($C22,'R3'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q3'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="G22" s="35">
-        <f>+VLOOKUP($C22,'R4'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q4'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="H22" s="35">
+      <c r="H22" s="34">
         <f>+VLOOKUP($C22,'R5'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q5'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="I22" s="35">
+        <v>-14</v>
+      </c>
+      <c r="I22" s="34">
         <f>+VLOOKUP($C22,'R6'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q6'!$B$3:$J$22,9,)</f>
         <v>9</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="34">
         <f>+VLOOKUP($C22,'R7'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q7'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="K22" s="34">
+        <f>+VLOOKUP($C22,'R8'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q8'!$B$3:$J$22,9,)</f>
         <v>-11</v>
       </c>
-      <c r="K22" s="35">
-        <f>+VLOOKUP($C22,'R8'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q8'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35">
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34">
         <f>SUM(D22:M22)</f>
-        <v>18</v>
-      </c>
-      <c r="R22" s="242">
+        <v>-2</v>
+      </c>
+      <c r="R22" s="241">
         <f>SUM(E22:P22)+AVERAGE(E22:P22)</f>
-        <v>34.285714285714285</v>
+        <v>13.714285714285714</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="17" customHeight="1" thickBot="1">
-      <c r="B23" s="293" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="294">
+      <c r="B23" s="319" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="170" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="321">
         <f>+VLOOKUP($C23,'R1'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="E23" s="294">
+        <v>6</v>
+      </c>
+      <c r="E23" s="321">
         <f>+VLOOKUP($C23,'R2'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q2'!$B$3:$J$22,9,)</f>
-        <v>14</v>
-      </c>
-      <c r="F23" s="294">
+        <v>-9</v>
+      </c>
+      <c r="F23" s="321">
         <f>+VLOOKUP($C23,'R3'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q3'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="G23" s="294">
+        <v>21</v>
+      </c>
+      <c r="G23" s="321">
         <f>+VLOOKUP($C23,'R4'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q4'!$B$3:$J$22,9,)</f>
-        <v>-12</v>
-      </c>
-      <c r="H23" s="294">
+        <v>6</v>
+      </c>
+      <c r="H23" s="321">
         <f>+VLOOKUP($C23,'R5'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q5'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="I23" s="294">
+        <v>2</v>
+      </c>
+      <c r="I23" s="321">
         <f>+VLOOKUP($C23,'R6'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q6'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="J23" s="294">
+        <v>20</v>
+      </c>
+      <c r="J23" s="321">
         <f>+VLOOKUP($C23,'R7'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q7'!$B$3:$J$22,9,)</f>
         <v>8</v>
       </c>
-      <c r="K23" s="294">
+      <c r="K23" s="321">
         <f>+VLOOKUP($C23,'R8'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q8'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="L23" s="294"/>
-      <c r="M23" s="294"/>
-      <c r="N23" s="294"/>
-      <c r="O23" s="294"/>
-      <c r="P23" s="294"/>
-      <c r="Q23" s="294">
+        <v>-14</v>
+      </c>
+      <c r="L23" s="321"/>
+      <c r="M23" s="321"/>
+      <c r="N23" s="321"/>
+      <c r="O23" s="321"/>
+      <c r="P23" s="321"/>
+      <c r="Q23" s="321">
         <f>SUM(D23:M23)</f>
-        <v>13</v>
-      </c>
-      <c r="R23" s="295">
+        <v>40</v>
+      </c>
+      <c r="R23" s="323">
         <f>SUM(E23:P23)+AVERAGE(E23:P23)</f>
-        <v>30.857142857142858</v>
+        <v>38.857142857142854</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="17" customHeight="1" thickBot="1"/>
     <row r="25" spans="2:18" ht="17" customHeight="1" thickBot="1">
-      <c r="B25" s="316" t="s">
+      <c r="B25" s="313" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="317"/>
-      <c r="D25" s="317"/>
-      <c r="E25" s="317"/>
-      <c r="F25" s="317"/>
-      <c r="G25" s="317"/>
-      <c r="H25" s="317"/>
-      <c r="I25" s="317"/>
-      <c r="J25" s="317"/>
-      <c r="K25" s="317"/>
-      <c r="L25" s="317"/>
-      <c r="M25" s="317"/>
-      <c r="N25" s="317"/>
-      <c r="O25" s="317"/>
-      <c r="P25" s="317"/>
-      <c r="Q25" s="317"/>
-      <c r="R25" s="318"/>
+      <c r="C25" s="314"/>
+      <c r="D25" s="314"/>
+      <c r="E25" s="314"/>
+      <c r="F25" s="314"/>
+      <c r="G25" s="314"/>
+      <c r="H25" s="314"/>
+      <c r="I25" s="314"/>
+      <c r="J25" s="314"/>
+      <c r="K25" s="314"/>
+      <c r="L25" s="314"/>
+      <c r="M25" s="314"/>
+      <c r="N25" s="314"/>
+      <c r="O25" s="314"/>
+      <c r="P25" s="314"/>
+      <c r="Q25" s="314"/>
+      <c r="R25" s="315"/>
     </row>
     <row r="26" spans="2:18" ht="17" customHeight="1" thickBot="1">
       <c r="B26" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="312" t="s">
+      <c r="C26" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="315" t="s">
+      <c r="D26" s="312" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="315" t="s">
+      <c r="E26" s="312" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="315" t="s">
+      <c r="F26" s="312" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="315" t="s">
+      <c r="G26" s="312" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="315" t="s">
+      <c r="H26" s="312" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="315" t="s">
+      <c r="I26" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="315" t="s">
+      <c r="J26" s="312" t="s">
         <v>57</v>
       </c>
-      <c r="K26" s="315" t="s">
+      <c r="K26" s="312" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="315" t="s">
+      <c r="L26" s="312" t="s">
         <v>59</v>
       </c>
-      <c r="M26" s="315" t="s">
+      <c r="M26" s="312" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="315" t="s">
+      <c r="N26" s="312" t="s">
         <v>61</v>
       </c>
-      <c r="O26" s="315" t="s">
+      <c r="O26" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="315" t="s">
+      <c r="P26" s="312" t="s">
         <v>63</v>
       </c>
-      <c r="Q26" s="315" t="s">
+      <c r="Q26" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="315" t="s">
+      <c r="R26" s="312" t="s">
         <v>16</v>
       </c>
     </row>
@@ -18366,76 +18382,76 @@
     </row>
     <row r="47" spans="2:18" ht="17" customHeight="1" thickBot="1"/>
     <row r="48" spans="2:18" ht="17" customHeight="1" thickBot="1">
-      <c r="B48" s="316" t="s">
+      <c r="B48" s="313" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="317"/>
-      <c r="D48" s="317"/>
-      <c r="E48" s="317"/>
-      <c r="F48" s="317"/>
-      <c r="G48" s="317"/>
-      <c r="H48" s="317"/>
-      <c r="I48" s="317"/>
-      <c r="J48" s="317"/>
-      <c r="K48" s="317"/>
-      <c r="L48" s="317"/>
-      <c r="M48" s="317"/>
-      <c r="N48" s="317"/>
-      <c r="O48" s="317"/>
-      <c r="P48" s="317"/>
-      <c r="Q48" s="317"/>
-      <c r="R48" s="318"/>
+      <c r="C48" s="314"/>
+      <c r="D48" s="314"/>
+      <c r="E48" s="314"/>
+      <c r="F48" s="314"/>
+      <c r="G48" s="314"/>
+      <c r="H48" s="314"/>
+      <c r="I48" s="314"/>
+      <c r="J48" s="314"/>
+      <c r="K48" s="314"/>
+      <c r="L48" s="314"/>
+      <c r="M48" s="314"/>
+      <c r="N48" s="314"/>
+      <c r="O48" s="314"/>
+      <c r="P48" s="314"/>
+      <c r="Q48" s="314"/>
+      <c r="R48" s="315"/>
     </row>
     <row r="49" spans="2:18" ht="17" customHeight="1" thickBot="1">
       <c r="B49" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="312" t="s">
+      <c r="C49" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="315" t="s">
+      <c r="D49" s="312" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="315" t="s">
+      <c r="E49" s="312" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="315" t="s">
+      <c r="F49" s="312" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="315" t="s">
+      <c r="G49" s="312" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="315" t="s">
+      <c r="H49" s="312" t="s">
         <v>55</v>
       </c>
-      <c r="I49" s="315" t="s">
+      <c r="I49" s="312" t="s">
         <v>56</v>
       </c>
-      <c r="J49" s="315" t="s">
+      <c r="J49" s="312" t="s">
         <v>57</v>
       </c>
-      <c r="K49" s="315" t="s">
+      <c r="K49" s="312" t="s">
         <v>58</v>
       </c>
-      <c r="L49" s="315" t="s">
+      <c r="L49" s="312" t="s">
         <v>59</v>
       </c>
-      <c r="M49" s="315" t="s">
+      <c r="M49" s="312" t="s">
         <v>60</v>
       </c>
-      <c r="N49" s="315" t="s">
+      <c r="N49" s="312" t="s">
         <v>61</v>
       </c>
-      <c r="O49" s="315" t="s">
+      <c r="O49" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="P49" s="315" t="s">
+      <c r="P49" s="312" t="s">
         <v>63</v>
       </c>
-      <c r="Q49" s="315" t="s">
+      <c r="Q49" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="R49" s="315" t="s">
+      <c r="R49" s="312" t="s">
         <v>16</v>
       </c>
     </row>
@@ -18476,7 +18492,7 @@
       </c>
       <c r="K50" s="37">
         <f>+VLOOKUP($C50,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L50" s="37"/>
       <c r="M50" s="37"/>
@@ -18485,11 +18501,11 @@
       <c r="P50" s="37"/>
       <c r="Q50" s="37">
         <f t="shared" ref="Q50:Q69" si="6">SUM(C50:M50)</f>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R50" s="232">
         <f t="shared" ref="R50:R69" si="7">SUM(E50:M50)+AVERAGE(E50:M50)</f>
-        <v>213.71428571428572</v>
+        <v>216</v>
       </c>
     </row>
     <row r="51" spans="2:18">
@@ -18529,7 +18545,7 @@
       </c>
       <c r="K51" s="29">
         <f>+VLOOKUP($C51,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
@@ -18538,11 +18554,11 @@
       <c r="P51" s="29"/>
       <c r="Q51" s="29">
         <f t="shared" si="6"/>
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="R51" s="234">
         <f t="shared" si="7"/>
-        <v>190.85714285714286</v>
+        <v>173.71428571428572</v>
       </c>
     </row>
     <row r="52" spans="2:18">
@@ -18582,7 +18598,7 @@
       </c>
       <c r="K52" s="27">
         <f>+VLOOKUP($C52,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L52" s="27"/>
       <c r="M52" s="27"/>
@@ -18591,11 +18607,11 @@
       <c r="P52" s="27"/>
       <c r="Q52" s="27">
         <f t="shared" si="6"/>
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="R52" s="233">
         <f t="shared" si="7"/>
-        <v>89.142857142857139</v>
+        <v>98.285714285714292</v>
       </c>
     </row>
     <row r="53" spans="2:18">
@@ -18635,7 +18651,7 @@
       </c>
       <c r="K53" s="29">
         <f>+VLOOKUP($C53,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="L53" s="29"/>
       <c r="M53" s="29"/>
@@ -18644,11 +18660,11 @@
       <c r="P53" s="29"/>
       <c r="Q53" s="29">
         <f t="shared" si="6"/>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="R53" s="234">
         <f t="shared" si="7"/>
-        <v>112</v>
+        <v>105.14285714285714</v>
       </c>
     </row>
     <row r="54" spans="2:18">
@@ -18688,7 +18704,7 @@
       </c>
       <c r="K54" s="30">
         <f>+VLOOKUP($C54,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L54" s="30"/>
       <c r="M54" s="30"/>
@@ -18697,11 +18713,11 @@
       <c r="P54" s="30"/>
       <c r="Q54" s="30">
         <f t="shared" si="6"/>
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="R54" s="235">
         <f t="shared" si="7"/>
-        <v>56</v>
+        <v>86.857142857142861</v>
       </c>
     </row>
     <row r="55" spans="2:18">
@@ -18741,7 +18757,7 @@
       </c>
       <c r="K55" s="31">
         <f>+VLOOKUP($C55,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L55" s="31"/>
       <c r="M55" s="31"/>
@@ -18750,11 +18766,11 @@
       <c r="P55" s="31"/>
       <c r="Q55" s="31">
         <f t="shared" si="6"/>
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="R55" s="236">
         <f t="shared" si="7"/>
-        <v>88</v>
+        <v>121.14285714285714</v>
       </c>
     </row>
     <row r="56" spans="2:18">
@@ -18794,7 +18810,7 @@
       </c>
       <c r="K56" s="32">
         <f>+VLOOKUP($C56,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L56" s="32"/>
       <c r="M56" s="32"/>
@@ -18803,11 +18819,11 @@
       <c r="P56" s="32"/>
       <c r="Q56" s="32">
         <f t="shared" si="6"/>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="R56" s="240">
         <f t="shared" si="7"/>
-        <v>42.285714285714285</v>
+        <v>57.142857142857146</v>
       </c>
     </row>
     <row r="57" spans="2:18">
@@ -18847,7 +18863,7 @@
       </c>
       <c r="K57" s="32">
         <f>+VLOOKUP($C57,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L57" s="32"/>
       <c r="M57" s="32"/>
@@ -18856,11 +18872,11 @@
       <c r="P57" s="32"/>
       <c r="Q57" s="32">
         <f t="shared" si="6"/>
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="R57" s="240">
         <f t="shared" si="7"/>
-        <v>75.428571428571431</v>
+        <v>91.428571428571431</v>
       </c>
     </row>
     <row r="58" spans="2:18">
@@ -18900,7 +18916,7 @@
       </c>
       <c r="K58" s="33">
         <f>+VLOOKUP($C58,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L58" s="33"/>
       <c r="M58" s="33"/>
@@ -18909,11 +18925,11 @@
       <c r="P58" s="33"/>
       <c r="Q58" s="33">
         <f t="shared" si="6"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="R58" s="237">
         <f t="shared" si="7"/>
-        <v>66.285714285714292</v>
+        <v>73.142857142857139</v>
       </c>
     </row>
     <row r="59" spans="2:18" ht="17" customHeight="1">
@@ -18947,7 +18963,7 @@
       </c>
       <c r="K59" s="31">
         <f>+VLOOKUP($C59,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="L59" s="31"/>
       <c r="M59" s="31"/>
@@ -18956,11 +18972,11 @@
       <c r="P59" s="31"/>
       <c r="Q59" s="31">
         <f t="shared" si="6"/>
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="R59" s="236">
         <f t="shared" si="7"/>
-        <v>36</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="60" spans="2:18">
@@ -19000,7 +19016,7 @@
       </c>
       <c r="K60" s="28">
         <f>+VLOOKUP($C60,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="L60" s="28"/>
       <c r="M60" s="28"/>
@@ -19009,11 +19025,11 @@
       <c r="P60" s="28"/>
       <c r="Q60" s="28">
         <f t="shared" si="6"/>
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="R60" s="239">
         <f t="shared" si="7"/>
-        <v>6.8571428571428568</v>
+        <v>-10.285714285714286</v>
       </c>
     </row>
     <row r="61" spans="2:18">
@@ -19053,7 +19069,7 @@
       </c>
       <c r="K61" s="33">
         <f>+VLOOKUP($C61,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L61" s="33"/>
       <c r="M61" s="33"/>
@@ -19062,11 +19078,11 @@
       <c r="P61" s="33"/>
       <c r="Q61" s="33">
         <f t="shared" si="6"/>
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="R61" s="237">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>29.714285714285715</v>
       </c>
     </row>
     <row r="62" spans="2:18">
@@ -19106,7 +19122,7 @@
       </c>
       <c r="K62" s="35">
         <f>+VLOOKUP($C62,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L62" s="35"/>
       <c r="M62" s="35"/>
@@ -19115,11 +19131,11 @@
       <c r="P62" s="35"/>
       <c r="Q62" s="35">
         <f t="shared" si="6"/>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="R62" s="242">
         <f t="shared" si="7"/>
-        <v>22.857142857142858</v>
+        <v>38.857142857142854</v>
       </c>
     </row>
     <row r="63" spans="2:18">
@@ -19159,7 +19175,7 @@
       </c>
       <c r="K63" s="82">
         <f>+VLOOKUP($C63,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L63" s="82"/>
       <c r="M63" s="82"/>
@@ -19168,11 +19184,11 @@
       <c r="P63" s="82"/>
       <c r="Q63" s="82">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="R63" s="238">
         <f t="shared" si="7"/>
-        <v>12.571428571428571</v>
+        <v>57.142857142857146</v>
       </c>
     </row>
     <row r="64" spans="2:18">
@@ -19212,7 +19228,7 @@
       </c>
       <c r="K64" s="82">
         <f>+VLOOKUP($C64,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L64" s="82"/>
       <c r="M64" s="82"/>
@@ -19221,11 +19237,11 @@
       <c r="P64" s="82"/>
       <c r="Q64" s="82">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="R64" s="238">
         <f t="shared" si="7"/>
-        <v>30.857142857142858</v>
+        <v>38.857142857142854</v>
       </c>
     </row>
     <row r="65" spans="2:18">
@@ -19265,7 +19281,7 @@
       </c>
       <c r="K65" s="28">
         <f>+VLOOKUP($C65,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="L65" s="28"/>
       <c r="M65" s="28"/>
@@ -19274,11 +19290,11 @@
       <c r="P65" s="28"/>
       <c r="Q65" s="28">
         <f t="shared" si="6"/>
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="R65" s="239">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>6.8571428571428568</v>
       </c>
     </row>
     <row r="66" spans="2:18">
@@ -19318,7 +19334,7 @@
       </c>
       <c r="K66" s="34">
         <f>+VLOOKUP($C66,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L66" s="34"/>
       <c r="M66" s="34"/>
@@ -19327,11 +19343,11 @@
       <c r="P66" s="34"/>
       <c r="Q66" s="34">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="R66" s="241">
         <f t="shared" si="7"/>
-        <v>34.285714285714285</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="2:18">
@@ -19371,7 +19387,7 @@
       </c>
       <c r="K67" s="30">
         <f>+VLOOKUP($C67,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="L67" s="30"/>
       <c r="M67" s="30"/>
@@ -19380,11 +19396,11 @@
       <c r="P67" s="30"/>
       <c r="Q67" s="30">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="R67" s="235">
         <f t="shared" si="7"/>
-        <v>-10.285714285714286</v>
+        <v>17.142857142857142</v>
       </c>
     </row>
     <row r="68" spans="2:18">
@@ -19424,7 +19440,7 @@
       </c>
       <c r="K68" s="34">
         <f>+VLOOKUP($C68,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="L68" s="34"/>
       <c r="M68" s="34"/>
@@ -19433,11 +19449,11 @@
       <c r="P68" s="34"/>
       <c r="Q68" s="34">
         <f t="shared" si="6"/>
-        <v>-7</v>
+        <v>-22</v>
       </c>
       <c r="R68" s="241">
         <f t="shared" si="7"/>
-        <v>9.1428571428571423</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="69" spans="2:18" ht="17" customHeight="1" thickBot="1">
@@ -19477,7 +19493,7 @@
       </c>
       <c r="K69" s="36">
         <f>+VLOOKUP($C69,'R8'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L69" s="36"/>
       <c r="M69" s="36"/>
@@ -19486,17 +19502,17 @@
       <c r="P69" s="36"/>
       <c r="Q69" s="36">
         <f t="shared" si="6"/>
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="R69" s="243">
         <f t="shared" si="7"/>
-        <v>4.5714285714285712</v>
+        <v>17.142857142857142</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B3:R23" xr:uid="{66C89C25-EC29-2946-8843-7EB6435D7508}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:R23">
-      <sortCondition descending="1" ref="Q3:Q23"/>
+      <sortCondition descending="1" ref="K3:K23"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
@@ -19513,7 +19529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
@@ -19524,13 +19540,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -19542,19 +19558,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="314" t="s">
+      <c r="I2" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="312" t="s">
+      <c r="J2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="312" t="s">
+      <c r="K2" s="309" t="s">
         <v>127</v>
       </c>
     </row>
@@ -20113,389 +20129,489 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="312" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="312" t="s">
+      <c r="D2" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="309" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="312" t="s">
+      <c r="F2" s="309" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="315" t="s">
+      <c r="I2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="302">
-        <v>3</v>
-      </c>
-      <c r="B3" s="302"/>
-      <c r="C3" s="302" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="302" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="309"/>
-      <c r="F3" s="308"/>
-      <c r="G3" s="308"/>
-      <c r="H3" s="308"/>
-      <c r="I3" s="308"/>
+      <c r="A3" s="316">
+        <v>10</v>
+      </c>
+      <c r="B3" s="316">
+        <v>1</v>
+      </c>
+      <c r="C3" s="316" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="316" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="317"/>
+      <c r="F3" s="318"/>
+      <c r="G3" s="318">
+        <v>39</v>
+      </c>
+      <c r="H3" s="318">
+        <v>25</v>
+      </c>
+      <c r="I3" s="318"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="51">
-        <v>4</v>
-      </c>
-      <c r="B4" s="51"/>
+        <v>55</v>
+      </c>
+      <c r="B4" s="51">
+        <v>2</v>
+      </c>
       <c r="C4" s="51" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="61"/>
       <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
+      <c r="G4" s="101">
+        <v>24</v>
+      </c>
+      <c r="H4" s="101">
+        <v>18</v>
+      </c>
       <c r="I4" s="101"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="49">
+      <c r="A5" s="52">
+        <v>18</v>
+      </c>
+      <c r="B5" s="52">
+        <v>3</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105">
+        <v>29</v>
+      </c>
+      <c r="H5" s="105">
+        <v>15</v>
+      </c>
+      <c r="I5" s="105"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="51">
+        <v>4</v>
+      </c>
+      <c r="B6" s="51">
+        <v>4</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="61"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101">
+        <v>27</v>
+      </c>
+      <c r="H6" s="101">
+        <v>12</v>
+      </c>
+      <c r="I6" s="101"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="48">
+        <v>77</v>
+      </c>
+      <c r="B7" s="48">
         <v>5</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="56">
+      <c r="C7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118">
+        <v>8</v>
+      </c>
+      <c r="H7" s="118">
+        <v>10</v>
+      </c>
+      <c r="I7" s="118"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="53">
+        <v>3</v>
+      </c>
+      <c r="B8" s="53">
         <v>6</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="54">
+      <c r="C8" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109">
+        <v>14</v>
+      </c>
+      <c r="H8" s="109">
+        <v>8</v>
+      </c>
+      <c r="I8" s="109"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="48">
+        <v>44</v>
+      </c>
+      <c r="B9" s="48">
         <v>7</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="55">
+      <c r="C9" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118">
+        <v>2</v>
+      </c>
+      <c r="H9" s="118">
+        <v>7</v>
+      </c>
+      <c r="I9" s="118"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="53">
+        <v>31</v>
+      </c>
+      <c r="B10" s="53">
         <v>8</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="77">
-        <v>10</v>
-      </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="77" t="s">
+      <c r="C10" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109">
+        <v>13</v>
+      </c>
+      <c r="H10" s="109">
+        <v>4</v>
+      </c>
+      <c r="I10" s="109"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="77">
+        <v>23</v>
+      </c>
+      <c r="B11" s="77">
+        <v>9</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="111"/>
-      <c r="I9" s="111"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="52">
-        <v>11</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="49">
-        <v>16</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111">
+        <v>7</v>
+      </c>
+      <c r="H11" s="111">
+        <v>2</v>
+      </c>
+      <c r="I11" s="111"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="52">
-        <v>18</v>
-      </c>
-      <c r="B12" s="52"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="52">
+        <v>10</v>
+      </c>
       <c r="C12" s="52" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="62"/>
       <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
+      <c r="G12" s="105">
+        <v>-8</v>
+      </c>
+      <c r="H12" s="105">
+        <v>1</v>
+      </c>
       <c r="I12" s="105"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="55">
-        <v>20</v>
-      </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="55" t="s">
+      <c r="A13" s="56">
+        <v>6</v>
+      </c>
+      <c r="B13" s="56">
+        <v>11</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="66"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119">
+        <v>14</v>
+      </c>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="55">
+        <v>8</v>
+      </c>
+      <c r="B14" s="55">
+        <v>12</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="50">
-        <v>23</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115">
+        <v>12</v>
+      </c>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="77">
-        <v>23</v>
-      </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
+      <c r="A15" s="54">
+        <v>7</v>
+      </c>
+      <c r="B15" s="54">
+        <v>13</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113">
+        <v>6</v>
+      </c>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="53">
-        <v>31</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
+      <c r="A16" s="56">
+        <v>63</v>
+      </c>
+      <c r="B16" s="56">
+        <v>14</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="66"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119">
+        <v>11</v>
+      </c>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="50">
-        <v>33</v>
-      </c>
-      <c r="B17" s="50"/>
+        <v>23</v>
+      </c>
+      <c r="B17" s="50">
+        <v>15</v>
+      </c>
       <c r="C17" s="50" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="60"/>
       <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
+      <c r="G17" s="103">
+        <v>-6</v>
+      </c>
       <c r="H17" s="103"/>
       <c r="I17" s="103"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="48">
+      <c r="A18" s="54">
+        <v>99</v>
+      </c>
+      <c r="B18" s="54">
+        <v>16</v>
+      </c>
+      <c r="C18" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="118"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
+      <c r="D18" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113">
+        <v>5</v>
+      </c>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="51">
-        <v>55</v>
-      </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="101"/>
+      <c r="A19" s="49">
+        <v>5</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="63"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107">
+        <v>-15</v>
+      </c>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="56">
-        <v>63</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="119"/>
+      <c r="A20" s="49">
+        <v>16</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="63"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107">
+        <v>-15</v>
+      </c>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="48">
-        <v>77</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
+      <c r="A21" s="55">
+        <v>20</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="65"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115">
+        <v>-15</v>
+      </c>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A22" s="165">
-        <v>99</v>
-      </c>
-      <c r="B22" s="165"/>
-      <c r="C22" s="165" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="165" t="s">
+      <c r="A22" s="68">
         <v>33</v>
       </c>
-      <c r="E22" s="310"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
+      <c r="B22" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70">
+        <v>-15</v>
+      </c>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="C28" s="311"/>
+      <c r="C28" s="308"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000014000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
-      <sortCondition ref="A2:A22"/>
+      <sortCondition ref="B2:B22"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20515,13 +20631,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -20533,40 +20649,40 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="314" t="s">
+      <c r="I2" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="312" t="s">
+      <c r="J2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="312" t="s">
+      <c r="K2" s="309" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="302">
+      <c r="A3" s="299">
         <v>3</v>
       </c>
-      <c r="B3" s="302" t="s">
+      <c r="B3" s="299" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="302" t="s">
+      <c r="C3" s="299" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="303"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="306"/>
-      <c r="H3" s="306"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="308"/>
-      <c r="K3" s="306"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="303"/>
+      <c r="H3" s="303"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="305"/>
+      <c r="K3" s="303"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="51">
@@ -20951,50 +21067,50 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="312" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="312" t="s">
+      <c r="D2" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="309" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="312" t="s">
+      <c r="F2" s="309" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="315" t="s">
+      <c r="I2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="302">
+      <c r="A3" s="299">
         <v>3</v>
       </c>
-      <c r="B3" s="302"/>
-      <c r="C3" s="302" t="s">
+      <c r="B3" s="299"/>
+      <c r="C3" s="299" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="302" t="s">
+      <c r="D3" s="299" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="309"/>
-      <c r="F3" s="308"/>
-      <c r="G3" s="308"/>
-      <c r="H3" s="308"/>
-      <c r="I3" s="308"/>
+      <c r="E3" s="306"/>
+      <c r="F3" s="305"/>
+      <c r="G3" s="305"/>
+      <c r="H3" s="305"/>
+      <c r="I3" s="305"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="51">
@@ -21313,7 +21429,7 @@
       <c r="D22" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="310"/>
+      <c r="E22" s="307"/>
       <c r="F22" s="168"/>
       <c r="G22" s="168"/>
       <c r="H22" s="168"/>
@@ -21334,27 +21450,27 @@
   <dimension ref="B2:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="2:13" ht="17" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:13" ht="17" customHeight="1" thickBot="1">
-      <c r="B3" s="316" t="s">
+      <c r="B3" s="313" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
-      <c r="G3" s="318"/>
-      <c r="J3" s="316" t="s">
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="314"/>
+      <c r="F3" s="314"/>
+      <c r="G3" s="315"/>
+      <c r="J3" s="313" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="317"/>
-      <c r="L3" s="317"/>
-      <c r="M3" s="318"/>
+      <c r="K3" s="314"/>
+      <c r="L3" s="314"/>
+      <c r="M3" s="315"/>
     </row>
     <row r="4" spans="2:13" ht="17" customHeight="1" thickBot="1">
       <c r="B4" s="275" t="s">
@@ -21375,16 +21491,16 @@
       <c r="G4" s="276" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="312" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="315" t="s">
+      <c r="J4" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="312" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="315" t="s">
+      <c r="L4" s="312" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="312" t="s">
+      <c r="M4" s="309" t="s">
         <v>71</v>
       </c>
     </row>
@@ -21400,8 +21516,8 @@
       <c r="J5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="299"/>
-      <c r="L5" s="299"/>
+      <c r="K5" s="296"/>
+      <c r="L5" s="296"/>
       <c r="M5" s="279"/>
     </row>
     <row r="6" spans="2:13">
@@ -21411,62 +21527,62 @@
       <c r="C6" s="283"/>
       <c r="D6" s="283"/>
       <c r="E6" s="283"/>
-      <c r="F6" s="296"/>
-      <c r="G6" s="296"/>
+      <c r="F6" s="293"/>
+      <c r="G6" s="293"/>
       <c r="J6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="297"/>
-      <c r="L6" s="297"/>
-      <c r="M6" s="298"/>
+      <c r="K6" s="294"/>
+      <c r="L6" s="294"/>
+      <c r="M6" s="295"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="50" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="283"/>
-      <c r="D7" s="296"/>
-      <c r="E7" s="296"/>
-      <c r="F7" s="296"/>
-      <c r="G7" s="296"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="293"/>
+      <c r="G7" s="293"/>
       <c r="J7" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="297"/>
-      <c r="L7" s="297"/>
-      <c r="M7" s="298"/>
+      <c r="K7" s="294"/>
+      <c r="L7" s="294"/>
+      <c r="M7" s="295"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="50" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="283"/>
-      <c r="D8" s="296"/>
-      <c r="E8" s="296"/>
-      <c r="F8" s="296"/>
-      <c r="G8" s="296"/>
+      <c r="D8" s="293"/>
+      <c r="E8" s="293"/>
+      <c r="F8" s="293"/>
+      <c r="G8" s="293"/>
       <c r="J8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="297"/>
-      <c r="L8" s="297"/>
-      <c r="M8" s="298"/>
+      <c r="K8" s="294"/>
+      <c r="L8" s="294"/>
+      <c r="M8" s="295"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="52" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="283"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="296"/>
-      <c r="F9" s="296"/>
-      <c r="G9" s="296"/>
+      <c r="D9" s="293"/>
+      <c r="E9" s="293"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="293"/>
       <c r="J9" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="297"/>
-      <c r="L9" s="297"/>
-      <c r="M9" s="298"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="294"/>
+      <c r="M9" s="295"/>
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="52" t="s">
@@ -21475,14 +21591,14 @@
       <c r="C10" s="283"/>
       <c r="D10" s="283"/>
       <c r="E10" s="283"/>
-      <c r="F10" s="296"/>
-      <c r="G10" s="296"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="293"/>
       <c r="J10" s="42" t="s">
         <v>29</v>
       </c>
       <c r="K10" s="285"/>
-      <c r="L10" s="297"/>
-      <c r="M10" s="298"/>
+      <c r="L10" s="294"/>
+      <c r="M10" s="295"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="51" t="s">
@@ -21491,56 +21607,56 @@
       <c r="C11" s="283"/>
       <c r="D11" s="283"/>
       <c r="E11" s="283"/>
-      <c r="F11" s="300"/>
-      <c r="G11" s="296"/>
+      <c r="F11" s="297"/>
+      <c r="G11" s="293"/>
       <c r="J11" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="297"/>
-      <c r="L11" s="297"/>
-      <c r="M11" s="298"/>
+      <c r="K11" s="294"/>
+      <c r="L11" s="294"/>
+      <c r="M11" s="295"/>
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="296"/>
-      <c r="D12" s="296"/>
-      <c r="E12" s="296"/>
-      <c r="F12" s="296"/>
-      <c r="G12" s="296"/>
+      <c r="C12" s="293"/>
+      <c r="D12" s="293"/>
+      <c r="E12" s="293"/>
+      <c r="F12" s="293"/>
+      <c r="G12" s="293"/>
       <c r="J12" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="297"/>
-      <c r="L12" s="297"/>
-      <c r="M12" s="298"/>
+      <c r="K12" s="294"/>
+      <c r="L12" s="294"/>
+      <c r="M12" s="295"/>
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="296"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="296"/>
-      <c r="F13" s="296"/>
-      <c r="G13" s="296"/>
+      <c r="C13" s="293"/>
+      <c r="D13" s="293"/>
+      <c r="E13" s="293"/>
+      <c r="F13" s="293"/>
+      <c r="G13" s="293"/>
       <c r="J13" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="297"/>
-      <c r="L13" s="297"/>
-      <c r="M13" s="298"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="294"/>
+      <c r="M13" s="295"/>
     </row>
     <row r="14" spans="2:13" ht="17" customHeight="1" thickBot="1">
       <c r="B14" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="296"/>
-      <c r="D14" s="296"/>
-      <c r="E14" s="296"/>
-      <c r="F14" s="296"/>
-      <c r="G14" s="296"/>
+      <c r="C14" s="293"/>
+      <c r="D14" s="293"/>
+      <c r="E14" s="293"/>
+      <c r="F14" s="293"/>
+      <c r="G14" s="293"/>
       <c r="J14" s="46" t="s">
         <v>37</v>
       </c>
@@ -21553,40 +21669,40 @@
         <v>32</v>
       </c>
       <c r="C15" s="283"/>
-      <c r="D15" s="296"/>
-      <c r="E15" s="296"/>
-      <c r="F15" s="296"/>
-      <c r="G15" s="296"/>
+      <c r="D15" s="293"/>
+      <c r="E15" s="293"/>
+      <c r="F15" s="293"/>
+      <c r="G15" s="293"/>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="53" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="283"/>
-      <c r="D16" s="296"/>
-      <c r="E16" s="296"/>
-      <c r="F16" s="296"/>
-      <c r="G16" s="296"/>
+      <c r="D16" s="293"/>
+      <c r="E16" s="293"/>
+      <c r="F16" s="293"/>
+      <c r="G16" s="293"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="296"/>
-      <c r="D17" s="296"/>
-      <c r="E17" s="296"/>
-      <c r="F17" s="296"/>
-      <c r="G17" s="296"/>
+      <c r="C17" s="293"/>
+      <c r="D17" s="293"/>
+      <c r="E17" s="293"/>
+      <c r="F17" s="293"/>
+      <c r="G17" s="293"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="296"/>
-      <c r="D18" s="296"/>
-      <c r="E18" s="296"/>
-      <c r="F18" s="296"/>
-      <c r="G18" s="296"/>
+      <c r="C18" s="293"/>
+      <c r="D18" s="293"/>
+      <c r="E18" s="293"/>
+      <c r="F18" s="293"/>
+      <c r="G18" s="293"/>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="77" t="s">
@@ -21594,49 +21710,49 @@
       </c>
       <c r="C19" s="283"/>
       <c r="D19" s="283"/>
-      <c r="E19" s="296"/>
-      <c r="F19" s="296"/>
-      <c r="G19" s="296"/>
+      <c r="E19" s="293"/>
+      <c r="F19" s="293"/>
+      <c r="G19" s="293"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="296"/>
-      <c r="D20" s="296"/>
-      <c r="E20" s="296"/>
-      <c r="F20" s="296"/>
-      <c r="G20" s="296"/>
+      <c r="C20" s="293"/>
+      <c r="D20" s="293"/>
+      <c r="E20" s="293"/>
+      <c r="F20" s="293"/>
+      <c r="G20" s="293"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="296"/>
-      <c r="D21" s="296"/>
-      <c r="E21" s="296"/>
-      <c r="F21" s="296"/>
-      <c r="G21" s="296"/>
+      <c r="C21" s="293"/>
+      <c r="D21" s="293"/>
+      <c r="E21" s="293"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="293"/>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="296"/>
-      <c r="D22" s="296"/>
-      <c r="E22" s="296"/>
-      <c r="F22" s="296"/>
-      <c r="G22" s="296"/>
+      <c r="C22" s="293"/>
+      <c r="D22" s="293"/>
+      <c r="E22" s="293"/>
+      <c r="F22" s="293"/>
+      <c r="G22" s="293"/>
     </row>
     <row r="23" spans="2:13">
       <c r="B23" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="296"/>
-      <c r="D23" s="296"/>
-      <c r="E23" s="296"/>
-      <c r="F23" s="296"/>
-      <c r="G23" s="296"/>
+      <c r="C23" s="293"/>
+      <c r="D23" s="293"/>
+      <c r="E23" s="293"/>
+      <c r="F23" s="293"/>
+      <c r="G23" s="293"/>
     </row>
     <row r="24" spans="2:13" ht="17" customHeight="1" thickBot="1">
       <c r="B24" s="57" t="s">
@@ -21650,20 +21766,20 @@
     </row>
     <row r="25" spans="2:13" ht="17" customHeight="1" thickBot="1"/>
     <row r="26" spans="2:13" ht="17" customHeight="1" thickBot="1">
-      <c r="B26" s="316" t="s">
+      <c r="B26" s="313" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="317"/>
-      <c r="D26" s="317"/>
-      <c r="E26" s="317"/>
-      <c r="F26" s="317"/>
-      <c r="G26" s="318"/>
-      <c r="J26" s="316" t="s">
+      <c r="C26" s="314"/>
+      <c r="D26" s="314"/>
+      <c r="E26" s="314"/>
+      <c r="F26" s="314"/>
+      <c r="G26" s="315"/>
+      <c r="J26" s="313" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="317"/>
-      <c r="L26" s="317"/>
-      <c r="M26" s="318"/>
+      <c r="K26" s="314"/>
+      <c r="L26" s="314"/>
+      <c r="M26" s="315"/>
     </row>
     <row r="27" spans="2:13" ht="17" customHeight="1" thickBot="1">
       <c r="B27" s="275" t="s">
@@ -21684,16 +21800,16 @@
       <c r="G27" s="276" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="312" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="315" t="s">
+      <c r="J27" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="312" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="315" t="s">
+      <c r="L27" s="312" t="s">
         <v>70</v>
       </c>
-      <c r="M27" s="312" t="s">
+      <c r="M27" s="309" t="s">
         <v>71</v>
       </c>
     </row>
@@ -21710,7 +21826,7 @@
         <v>18</v>
       </c>
       <c r="K28" s="284"/>
-      <c r="L28" s="299"/>
+      <c r="L28" s="296"/>
       <c r="M28" s="279"/>
     </row>
     <row r="29" spans="2:13">
@@ -21719,15 +21835,15 @@
       </c>
       <c r="C29" s="283"/>
       <c r="D29" s="283"/>
-      <c r="E29" s="296"/>
-      <c r="F29" s="296"/>
-      <c r="G29" s="296"/>
+      <c r="E29" s="293"/>
+      <c r="F29" s="293"/>
+      <c r="G29" s="293"/>
       <c r="J29" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="297"/>
-      <c r="L29" s="297"/>
-      <c r="M29" s="298"/>
+      <c r="K29" s="294"/>
+      <c r="L29" s="294"/>
+      <c r="M29" s="295"/>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="50" t="s">
@@ -21735,15 +21851,15 @@
       </c>
       <c r="C30" s="283"/>
       <c r="D30" s="283"/>
-      <c r="E30" s="296"/>
-      <c r="F30" s="296"/>
-      <c r="G30" s="296"/>
+      <c r="E30" s="293"/>
+      <c r="F30" s="293"/>
+      <c r="G30" s="293"/>
       <c r="J30" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="K30" s="297"/>
-      <c r="L30" s="297"/>
-      <c r="M30" s="298"/>
+      <c r="K30" s="294"/>
+      <c r="L30" s="294"/>
+      <c r="M30" s="295"/>
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="50" t="s">
@@ -21752,30 +21868,30 @@
       <c r="C31" s="283"/>
       <c r="D31" s="283"/>
       <c r="E31" s="283"/>
-      <c r="F31" s="296"/>
-      <c r="G31" s="296"/>
+      <c r="F31" s="293"/>
+      <c r="G31" s="293"/>
       <c r="J31" s="39" t="s">
         <v>23</v>
       </c>
       <c r="K31" s="285"/>
       <c r="L31" s="285"/>
-      <c r="M31" s="298"/>
+      <c r="M31" s="295"/>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="296"/>
-      <c r="D32" s="296"/>
-      <c r="E32" s="296"/>
-      <c r="F32" s="296"/>
-      <c r="G32" s="296"/>
+      <c r="C32" s="293"/>
+      <c r="D32" s="293"/>
+      <c r="E32" s="293"/>
+      <c r="F32" s="293"/>
+      <c r="G32" s="293"/>
       <c r="J32" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="297"/>
-      <c r="L32" s="297"/>
-      <c r="M32" s="298"/>
+      <c r="K32" s="294"/>
+      <c r="L32" s="294"/>
+      <c r="M32" s="295"/>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="52" t="s">
@@ -21784,14 +21900,14 @@
       <c r="C33" s="283"/>
       <c r="D33" s="283"/>
       <c r="E33" s="283"/>
-      <c r="F33" s="296"/>
-      <c r="G33" s="296"/>
+      <c r="F33" s="293"/>
+      <c r="G33" s="293"/>
       <c r="J33" s="42" t="s">
         <v>29</v>
       </c>
       <c r="K33" s="285"/>
-      <c r="L33" s="297"/>
-      <c r="M33" s="298"/>
+      <c r="L33" s="294"/>
+      <c r="M33" s="295"/>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="51" t="s">
@@ -21799,15 +21915,15 @@
       </c>
       <c r="C34" s="283"/>
       <c r="D34" s="283"/>
-      <c r="E34" s="296"/>
-      <c r="F34" s="296"/>
-      <c r="G34" s="296"/>
+      <c r="E34" s="293"/>
+      <c r="F34" s="293"/>
+      <c r="G34" s="293"/>
       <c r="J34" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="K34" s="297"/>
-      <c r="L34" s="297"/>
-      <c r="M34" s="298"/>
+      <c r="K34" s="294"/>
+      <c r="L34" s="294"/>
+      <c r="M34" s="295"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="51" t="s">
@@ -21815,41 +21931,41 @@
       </c>
       <c r="C35" s="283"/>
       <c r="D35" s="283"/>
-      <c r="E35" s="296"/>
-      <c r="F35" s="296"/>
-      <c r="G35" s="296"/>
+      <c r="E35" s="293"/>
+      <c r="F35" s="293"/>
+      <c r="G35" s="293"/>
       <c r="J35" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="K35" s="297"/>
-      <c r="L35" s="297"/>
-      <c r="M35" s="298"/>
+      <c r="K35" s="294"/>
+      <c r="L35" s="294"/>
+      <c r="M35" s="295"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="296"/>
-      <c r="D36" s="296"/>
-      <c r="E36" s="296"/>
-      <c r="F36" s="296"/>
-      <c r="G36" s="296"/>
+      <c r="C36" s="293"/>
+      <c r="D36" s="293"/>
+      <c r="E36" s="293"/>
+      <c r="F36" s="293"/>
+      <c r="G36" s="293"/>
       <c r="J36" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="K36" s="297"/>
-      <c r="L36" s="297"/>
-      <c r="M36" s="298"/>
+      <c r="K36" s="294"/>
+      <c r="L36" s="294"/>
+      <c r="M36" s="295"/>
     </row>
     <row r="37" spans="2:13" ht="17" customHeight="1" thickBot="1">
       <c r="B37" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="296"/>
-      <c r="D37" s="296"/>
-      <c r="E37" s="296"/>
-      <c r="F37" s="296"/>
-      <c r="G37" s="296"/>
+      <c r="C37" s="293"/>
+      <c r="D37" s="293"/>
+      <c r="E37" s="293"/>
+      <c r="F37" s="293"/>
+      <c r="G37" s="293"/>
       <c r="J37" s="46" t="s">
         <v>37</v>
       </c>
@@ -21862,90 +21978,90 @@
         <v>32</v>
       </c>
       <c r="C38" s="283"/>
-      <c r="D38" s="296"/>
-      <c r="E38" s="296"/>
-      <c r="F38" s="296"/>
-      <c r="G38" s="296"/>
+      <c r="D38" s="293"/>
+      <c r="E38" s="293"/>
+      <c r="F38" s="293"/>
+      <c r="G38" s="293"/>
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="53" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="283"/>
-      <c r="D39" s="296"/>
-      <c r="E39" s="296"/>
-      <c r="F39" s="296"/>
-      <c r="G39" s="296"/>
+      <c r="D39" s="293"/>
+      <c r="E39" s="293"/>
+      <c r="F39" s="293"/>
+      <c r="G39" s="293"/>
     </row>
     <row r="40" spans="2:13">
       <c r="B40" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="296"/>
-      <c r="D40" s="296"/>
-      <c r="E40" s="296"/>
-      <c r="F40" s="296"/>
-      <c r="G40" s="296"/>
+      <c r="C40" s="293"/>
+      <c r="D40" s="293"/>
+      <c r="E40" s="293"/>
+      <c r="F40" s="293"/>
+      <c r="G40" s="293"/>
     </row>
     <row r="41" spans="2:13">
       <c r="B41" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="296"/>
-      <c r="D41" s="296"/>
-      <c r="E41" s="296"/>
-      <c r="F41" s="296"/>
-      <c r="G41" s="296"/>
+      <c r="C41" s="293"/>
+      <c r="D41" s="293"/>
+      <c r="E41" s="293"/>
+      <c r="F41" s="293"/>
+      <c r="G41" s="293"/>
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="296"/>
-      <c r="D42" s="296"/>
-      <c r="E42" s="296"/>
-      <c r="F42" s="296"/>
-      <c r="G42" s="296"/>
+      <c r="C42" s="293"/>
+      <c r="D42" s="293"/>
+      <c r="E42" s="293"/>
+      <c r="F42" s="293"/>
+      <c r="G42" s="293"/>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="296"/>
-      <c r="D43" s="296"/>
-      <c r="E43" s="296"/>
-      <c r="F43" s="296"/>
-      <c r="G43" s="296"/>
+      <c r="C43" s="293"/>
+      <c r="D43" s="293"/>
+      <c r="E43" s="293"/>
+      <c r="F43" s="293"/>
+      <c r="G43" s="293"/>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="296"/>
-      <c r="D44" s="296"/>
-      <c r="E44" s="296"/>
-      <c r="F44" s="296"/>
-      <c r="G44" s="296"/>
+      <c r="C44" s="293"/>
+      <c r="D44" s="293"/>
+      <c r="E44" s="293"/>
+      <c r="F44" s="293"/>
+      <c r="G44" s="293"/>
     </row>
     <row r="45" spans="2:13">
       <c r="B45" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="296"/>
-      <c r="D45" s="296"/>
-      <c r="E45" s="296"/>
-      <c r="F45" s="296"/>
-      <c r="G45" s="296"/>
+      <c r="C45" s="293"/>
+      <c r="D45" s="293"/>
+      <c r="E45" s="293"/>
+      <c r="F45" s="293"/>
+      <c r="G45" s="293"/>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="296"/>
-      <c r="D46" s="296"/>
-      <c r="E46" s="296"/>
-      <c r="F46" s="296"/>
-      <c r="G46" s="296"/>
+      <c r="C46" s="293"/>
+      <c r="D46" s="293"/>
+      <c r="E46" s="293"/>
+      <c r="F46" s="293"/>
+      <c r="G46" s="293"/>
     </row>
     <row r="47" spans="2:13" ht="17" customHeight="1" thickBot="1">
       <c r="B47" s="57" t="s">
@@ -21990,61 +22106,61 @@
   <sheetData>
     <row r="1" spans="2:20" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:20" ht="17" customHeight="1" thickBot="1">
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="312" t="s">
+      <c r="D2" s="309" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="312" t="s">
+      <c r="E2" s="309" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="312" t="s">
+      <c r="F2" s="309" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="312" t="s">
+      <c r="I2" s="309" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="312" t="s">
+      <c r="J2" s="309" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="312" t="s">
+      <c r="K2" s="309" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="312" t="s">
+      <c r="L2" s="309" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="312" t="s">
+      <c r="M2" s="309" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="312" t="s">
+      <c r="N2" s="309" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="312" t="s">
+      <c r="O2" s="309" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="312" t="s">
+      <c r="P2" s="309" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="312" t="s">
+      <c r="Q2" s="309" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="312" t="s">
+      <c r="R2" s="309" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="312" t="s">
+      <c r="S2" s="309" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="312" t="s">
+      <c r="T2" s="309" t="s">
         <v>93</v>
       </c>
     </row>
@@ -22088,15 +22204,15 @@
       </c>
       <c r="R3" s="267">
         <f>+VLOOKUP($B3,F!$C$4:$Q$23,15,)/Q3</f>
-        <v>10.222929936305732</v>
+        <v>10.286624203821656</v>
       </c>
       <c r="S3" s="267">
         <f>+VLOOKUP($B3,F!$C$4:$R$23,16,)/Q3</f>
-        <v>10.70063694267516</v>
+        <v>10.773430391264787</v>
       </c>
       <c r="T3" s="267">
         <f t="shared" ref="T3:T22" si="1">S3-R3</f>
-        <v>0.4777070063694282</v>
+        <v>0.48680618744313087</v>
       </c>
     </row>
     <row r="4" spans="2:20">
@@ -22139,15 +22255,15 @@
       </c>
       <c r="R4" s="173">
         <f>+VLOOKUP($B4,F!$C$4:$Q$23,15,)/Q4</f>
-        <v>7.1864406779661021</v>
+        <v>7.4576271186440675</v>
       </c>
       <c r="S4" s="173">
         <f>+VLOOKUP($B4,F!$C$4:$R$23,16,)/Q4</f>
-        <v>6.5084745762711869</v>
+        <v>6.8184019370460049</v>
       </c>
       <c r="T4" s="173">
         <f t="shared" si="1"/>
-        <v>-0.67796610169491522</v>
+        <v>-0.63922518159806252</v>
       </c>
     </row>
     <row r="5" spans="2:20">
@@ -22190,15 +22306,15 @@
       </c>
       <c r="R5" s="120">
         <f>+VLOOKUP($B5,F!$C$4:$Q$23,15,)/Q5</f>
-        <v>9.7701149425287355</v>
+        <v>9.1954022988505741</v>
       </c>
       <c r="S5" s="120">
         <f>+VLOOKUP($B5,F!$C$4:$R$23,16,)/Q5</f>
-        <v>11.253420908593322</v>
+        <v>10.596606458675423</v>
       </c>
       <c r="T5" s="120">
         <f t="shared" si="1"/>
-        <v>1.4833059660645862</v>
+        <v>1.4012041598248484</v>
       </c>
     </row>
     <row r="6" spans="2:20">
@@ -22241,15 +22357,15 @@
       </c>
       <c r="R6" s="210">
         <f>+VLOOKUP($B6,F!$C$4:$Q$23,15,)/Q6</f>
-        <v>3.9148936170212765</v>
+        <v>3.2765957446808511</v>
       </c>
       <c r="S6" s="210">
         <f>+VLOOKUP($B6,F!$C$4:$R$23,16,)/Q6</f>
-        <v>2.4802431610942248</v>
+        <v>1.7507598784194529</v>
       </c>
       <c r="T6" s="210">
         <f t="shared" si="1"/>
-        <v>-1.4346504559270516</v>
+        <v>-1.5258358662613982</v>
       </c>
     </row>
     <row r="7" spans="2:20">
@@ -22292,15 +22408,15 @@
       </c>
       <c r="R7" s="120">
         <f>+VLOOKUP($B7,F!$C$4:$Q$23,15,)/Q7</f>
-        <v>6.7149758454106268</v>
+        <v>6.4251207729468591</v>
       </c>
       <c r="S7" s="120">
         <f>+VLOOKUP($B7,F!$C$4:$R$23,16,)/Q7</f>
-        <v>7.5086266390614202</v>
+        <v>7.1773636991028296</v>
       </c>
       <c r="T7" s="120">
         <f t="shared" si="1"/>
-        <v>0.7936507936507935</v>
+        <v>0.75224292615597044</v>
       </c>
     </row>
     <row r="8" spans="2:20">
@@ -22343,15 +22459,15 @@
       </c>
       <c r="R8" s="210">
         <f>+VLOOKUP($B8,F!$C$4:$Q$23,15,)/Q8</f>
-        <v>2.6699029126213589</v>
+        <v>1.9417475728155338</v>
       </c>
       <c r="S8" s="210">
         <f>+VLOOKUP($B8,F!$C$4:$R$23,16,)/Q8</f>
-        <v>2.7184466019417473</v>
+        <v>1.88626907073509</v>
       </c>
       <c r="T8" s="210">
         <f t="shared" si="1"/>
-        <v>4.8543689320388328E-2</v>
+        <v>-5.5478502080443803E-2</v>
       </c>
     </row>
     <row r="9" spans="2:20">
@@ -22394,15 +22510,15 @@
       </c>
       <c r="R9" s="125">
         <f>+VLOOKUP($B9,F!$C$4:$Q$23,15,)/Q9</f>
-        <v>4.7058823529411766</v>
+        <v>6.2745098039215685</v>
       </c>
       <c r="S9" s="125">
         <f>+VLOOKUP($B9,F!$C$4:$R$23,16,)/Q9</f>
-        <v>3.6601307189542482</v>
+        <v>5.4528478057889824</v>
       </c>
       <c r="T9" s="125">
         <f t="shared" si="1"/>
-        <v>-1.0457516339869284</v>
+        <v>-0.82166199813258611</v>
       </c>
     </row>
     <row r="10" spans="2:20">
@@ -22445,15 +22561,15 @@
       </c>
       <c r="R10" s="123">
         <f>+VLOOKUP($B10,F!$C$4:$Q$23,15,)/Q10</f>
-        <v>7.9710144927536231</v>
+        <v>8.9855072463768106</v>
       </c>
       <c r="S10" s="123">
         <f>+VLOOKUP($B10,F!$C$4:$R$23,16,)/Q10</f>
-        <v>9.8550724637681153</v>
+        <v>11.014492753623188</v>
       </c>
       <c r="T10" s="123">
         <f t="shared" si="1"/>
-        <v>1.8840579710144922</v>
+        <v>2.0289855072463769</v>
       </c>
     </row>
     <row r="11" spans="2:20">
@@ -22496,15 +22612,15 @@
       </c>
       <c r="R11" s="125">
         <f>+VLOOKUP($B11,F!$C$4:$Q$23,15,)/Q11</f>
-        <v>10.846153846153847</v>
+        <v>12.923076923076923</v>
       </c>
       <c r="S11" s="125">
         <f>+VLOOKUP($B11,F!$C$4:$R$23,16,)/Q11</f>
-        <v>9.2307692307692299</v>
+        <v>11.604395604395604</v>
       </c>
       <c r="T11" s="125">
         <f t="shared" si="1"/>
-        <v>-1.6153846153846168</v>
+        <v>-1.3186813186813193</v>
       </c>
     </row>
     <row r="12" spans="2:20">
@@ -22547,15 +22663,15 @@
       </c>
       <c r="R12" s="123">
         <f>+VLOOKUP($B12,F!$C$4:$Q$23,15,)/Q12</f>
-        <v>7.2727272727272716</v>
+        <v>8.3471074380165273</v>
       </c>
       <c r="S12" s="123">
         <f>+VLOOKUP($B12,F!$C$4:$R$23,16,)/Q12</f>
-        <v>6.4226682408500579</v>
+        <v>7.650531286894922</v>
       </c>
       <c r="T12" s="123">
         <f t="shared" si="1"/>
-        <v>-0.85005903187721366</v>
+        <v>-0.69657615112160531</v>
       </c>
     </row>
     <row r="13" spans="2:20">
@@ -22598,15 +22714,15 @@
       </c>
       <c r="R13" s="209">
         <f>+VLOOKUP($B13,F!$C$4:$Q$23,15,)/Q13</f>
-        <v>11.981132075471699</v>
+        <v>14.716981132075473</v>
       </c>
       <c r="S13" s="209">
         <f>+VLOOKUP($B13,F!$C$4:$R$23,16,)/Q13</f>
-        <v>14.770889487870621</v>
+        <v>17.897574123989219</v>
       </c>
       <c r="T13" s="209">
         <f t="shared" si="1"/>
-        <v>2.7897574123989219</v>
+        <v>3.1805929919137466</v>
       </c>
     </row>
     <row r="14" spans="2:20">
@@ -22649,15 +22765,15 @@
       </c>
       <c r="R14" s="122">
         <f>+VLOOKUP($B14,F!$C$4:$Q$23,15,)/Q14</f>
-        <v>7.3076923076923075</v>
+        <v>11.057692307692307</v>
       </c>
       <c r="S14" s="122">
         <f>+VLOOKUP($B14,F!$C$4:$R$23,16,)/Q14</f>
-        <v>5.7142857142857144</v>
+        <v>10</v>
       </c>
       <c r="T14" s="122">
         <f t="shared" si="1"/>
-        <v>-1.5934065934065931</v>
+        <v>-1.0576923076923066</v>
       </c>
     </row>
     <row r="15" spans="2:20">
@@ -22700,15 +22816,15 @@
       </c>
       <c r="R15" s="209">
         <f>+VLOOKUP($B15,F!$C$4:$Q$23,15,)/Q15</f>
-        <v>9.5959595959595951</v>
+        <v>8.7878787878787872</v>
       </c>
       <c r="S15" s="209">
         <f>+VLOOKUP($B15,F!$C$4:$R$23,16,)/Q15</f>
-        <v>8.8484848484848477</v>
+        <v>7.8787878787878789</v>
       </c>
       <c r="T15" s="209">
         <f t="shared" si="1"/>
-        <v>-0.7474747474747474</v>
+        <v>-0.90909090909090828</v>
       </c>
     </row>
     <row r="16" spans="2:20">
@@ -22751,15 +22867,15 @@
       </c>
       <c r="R16" s="124">
         <f>+VLOOKUP($B16,F!$C$4:$Q$23,15,)/Q16</f>
-        <v>6.4210526315789478</v>
+        <v>7.0526315789473681</v>
       </c>
       <c r="S16" s="124">
         <f>+VLOOKUP($B16,F!$C$4:$R$23,16,)/Q16</f>
-        <v>9.0225563909774422</v>
+        <v>9.7443609022556394</v>
       </c>
       <c r="T16" s="124">
         <f t="shared" si="1"/>
-        <v>2.6015037593984944</v>
+        <v>2.6917293233082713</v>
       </c>
     </row>
     <row r="17" spans="2:20">
@@ -22802,15 +22918,15 @@
       </c>
       <c r="R17" s="122">
         <f>+VLOOKUP($B17,F!$C$4:$Q$23,15,)/Q17</f>
-        <v>4.8421052631578947</v>
+        <v>5.5789473684210522</v>
       </c>
       <c r="S17" s="122">
         <f>+VLOOKUP($B17,F!$C$4:$R$23,16,)/Q17</f>
-        <v>4.9323308270676689</v>
+        <v>5.7744360902255636</v>
       </c>
       <c r="T17" s="122">
         <f t="shared" si="1"/>
-        <v>9.0225563909774209E-2</v>
+        <v>0.19548872180451138</v>
       </c>
     </row>
     <row r="18" spans="2:20">
@@ -22853,15 +22969,15 @@
       </c>
       <c r="R18" s="124">
         <f>+VLOOKUP($B18,F!$C$4:$Q$23,15,)/Q18</f>
-        <v>5.9550561797752808</v>
+        <v>6.5168539325842696</v>
       </c>
       <c r="S18" s="124">
         <f>+VLOOKUP($B18,F!$C$4:$R$23,16,)/Q18</f>
-        <v>4.3659711075441408</v>
+        <v>5.0080256821829847</v>
       </c>
       <c r="T18" s="124">
         <f t="shared" si="1"/>
-        <v>-1.58908507223114</v>
+        <v>-1.5088282504012849</v>
       </c>
     </row>
     <row r="19" spans="2:20">
@@ -22904,15 +23020,15 @@
       </c>
       <c r="R19" s="121">
         <f>+VLOOKUP($B19,F!$C$4:$Q$23,15,)/Q19</f>
-        <v>1.6883116883116882</v>
+        <v>-0.25974025974025972</v>
       </c>
       <c r="S19" s="121">
         <f>+VLOOKUP($B19,F!$C$4:$R$23,16,)/Q19</f>
-        <v>4.0074211502782928</v>
+        <v>1.7810760667903525</v>
       </c>
       <c r="T19" s="121">
         <f t="shared" si="1"/>
-        <v>2.3191094619666046</v>
+        <v>2.0408163265306123</v>
       </c>
     </row>
     <row r="20" spans="2:20">
@@ -22955,15 +23071,15 @@
       </c>
       <c r="R20" s="174">
         <f>+VLOOKUP($B20,F!$C$4:$Q$23,15,)/Q20</f>
-        <v>6.4179104477611943</v>
+        <v>8.5074626865671643</v>
       </c>
       <c r="S20" s="174">
         <f>+VLOOKUP($B20,F!$C$4:$R$23,16,)/Q20</f>
-        <v>4.7761194029850751</v>
+        <v>7.1641791044776131</v>
       </c>
       <c r="T20" s="174">
         <f t="shared" si="1"/>
-        <v>-1.6417910447761193</v>
+        <v>-1.3432835820895512</v>
       </c>
     </row>
     <row r="21" spans="2:20">
@@ -23006,15 +23122,15 @@
       </c>
       <c r="R21" s="174">
         <f>+VLOOKUP($B21,F!$C$4:$Q$23,15,)/Q21</f>
-        <v>3.0508474576271185</v>
+        <v>4.9152542372881349</v>
       </c>
       <c r="S21" s="174">
         <f>+VLOOKUP($B21,F!$C$4:$R$23,16,)/Q21</f>
-        <v>5.8111380145278444</v>
+        <v>7.9418886198547209</v>
       </c>
       <c r="T21" s="174">
         <f t="shared" si="1"/>
-        <v>2.7602905569007259</v>
+        <v>3.026634382566586</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="17" customHeight="1" thickBot="1">
@@ -23057,74 +23173,74 @@
       </c>
       <c r="R22" s="268">
         <f>+VLOOKUP($B22,F!$C$4:$Q$23,15,)/Q22</f>
-        <v>5.4385964912280693</v>
+        <v>7.5438596491228056</v>
       </c>
       <c r="S22" s="268">
         <f>+VLOOKUP($B22,F!$C$4:$R$23,16,)/Q22</f>
-        <v>8.4210526315789451</v>
+        <v>10.82706766917293</v>
       </c>
       <c r="T22" s="268">
         <f t="shared" si="1"/>
-        <v>2.9824561403508758</v>
+        <v>3.2832080200501244</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="17" customHeight="1" thickBot="1"/>
     <row r="24" spans="2:20" ht="17" customHeight="1" thickBot="1">
-      <c r="B24" s="312" t="s">
+      <c r="B24" s="309" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="312" t="s">
+      <c r="C24" s="309" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="315" t="s">
+      <c r="D24" s="312" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="315" t="s">
+      <c r="E24" s="312" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="315" t="s">
+      <c r="F24" s="312" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="315" t="s">
+      <c r="G24" s="312" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="315" t="s">
+      <c r="H24" s="312" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="315" t="s">
+      <c r="I24" s="312" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="315" t="s">
+      <c r="J24" s="312" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="315" t="s">
+      <c r="K24" s="312" t="s">
         <v>84</v>
       </c>
-      <c r="L24" s="315" t="s">
+      <c r="L24" s="312" t="s">
         <v>85</v>
       </c>
-      <c r="M24" s="312" t="s">
+      <c r="M24" s="309" t="s">
         <v>86</v>
       </c>
-      <c r="N24" s="312" t="s">
+      <c r="N24" s="309" t="s">
         <v>87</v>
       </c>
-      <c r="O24" s="312" t="s">
+      <c r="O24" s="309" t="s">
         <v>88</v>
       </c>
-      <c r="P24" s="312" t="s">
+      <c r="P24" s="309" t="s">
         <v>89</v>
       </c>
-      <c r="Q24" s="312" t="s">
+      <c r="Q24" s="309" t="s">
         <v>90</v>
       </c>
-      <c r="R24" s="312" t="s">
+      <c r="R24" s="309" t="s">
         <v>91</v>
       </c>
-      <c r="S24" s="312" t="s">
+      <c r="S24" s="309" t="s">
         <v>92</v>
       </c>
-      <c r="T24" s="312" t="s">
+      <c r="T24" s="309" t="s">
         <v>94</v>
       </c>
     </row>
@@ -23675,95 +23791,95 @@
     <row r="1" spans="2:34" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:34" ht="17" customHeight="1" thickBot="1">
       <c r="B2" s="208"/>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="312" t="s">
+      <c r="D2" s="309" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="312" t="s">
+      <c r="E2" s="309" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="312" t="s">
+      <c r="F2" s="309" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="312" t="s">
+      <c r="I2" s="309" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="312" t="s">
+      <c r="J2" s="309" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="312" t="s">
+      <c r="K2" s="309" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="312" t="s">
+      <c r="L2" s="309" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="312" t="s">
+      <c r="M2" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="N2" s="312" t="s">
+      <c r="N2" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="312" t="s">
+      <c r="O2" s="309" t="s">
         <v>107</v>
       </c>
       <c r="Q2" s="208"/>
-      <c r="R2" s="312" t="s">
+      <c r="R2" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="S2" s="312" t="s">
+      <c r="S2" s="309" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="312" t="s">
+      <c r="T2" s="309" t="s">
         <v>97</v>
       </c>
-      <c r="U2" s="312" t="s">
+      <c r="U2" s="309" t="s">
         <v>98</v>
       </c>
-      <c r="V2" s="312" t="s">
+      <c r="V2" s="309" t="s">
         <v>99</v>
       </c>
-      <c r="W2" s="312" t="s">
+      <c r="W2" s="309" t="s">
         <v>100</v>
       </c>
-      <c r="X2" s="312" t="s">
+      <c r="X2" s="309" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" s="312" t="s">
+      <c r="Y2" s="309" t="s">
         <v>102</v>
       </c>
-      <c r="Z2" s="312" t="s">
+      <c r="Z2" s="309" t="s">
         <v>103</v>
       </c>
-      <c r="AA2" s="312" t="s">
+      <c r="AA2" s="309" t="s">
         <v>104</v>
       </c>
-      <c r="AB2" s="312" t="s">
+      <c r="AB2" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="AC2" s="312" t="s">
+      <c r="AC2" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="AD2" s="312" t="s">
+      <c r="AD2" s="309" t="s">
         <v>107</v>
       </c>
-      <c r="AE2" s="312" t="s">
+      <c r="AE2" s="309" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" s="312" t="s">
+      <c r="AF2" s="309" t="s">
         <v>108</v>
       </c>
-      <c r="AG2" s="312" t="s">
+      <c r="AG2" s="309" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" s="312" t="s">
+      <c r="AH2" s="309" t="s">
         <v>110</v>
       </c>
     </row>
@@ -23851,66 +23967,66 @@
       <c r="B4" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="298">
+      <c r="C4" s="295">
         <v>324</v>
       </c>
-      <c r="D4" s="298">
+      <c r="D4" s="295">
         <v>638</v>
       </c>
-      <c r="E4" s="298">
+      <c r="E4" s="295">
         <v>904</v>
       </c>
-      <c r="F4" s="298">
+      <c r="F4" s="295">
         <v>1088</v>
       </c>
-      <c r="G4" s="298">
+      <c r="G4" s="295">
         <v>1509</v>
       </c>
-      <c r="H4" s="298">
+      <c r="H4" s="295">
         <v>1877</v>
       </c>
-      <c r="I4" s="298">
+      <c r="I4" s="295">
         <v>2225</v>
       </c>
-      <c r="J4" s="298"/>
-      <c r="K4" s="298"/>
-      <c r="L4" s="298"/>
-      <c r="M4" s="298"/>
-      <c r="N4" s="298"/>
-      <c r="O4" s="298"/>
+      <c r="J4" s="295"/>
+      <c r="K4" s="295"/>
+      <c r="L4" s="295"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="295"/>
+      <c r="O4" s="295"/>
       <c r="Q4" s="95" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="298">
+      <c r="R4" s="295">
         <v>324</v>
       </c>
-      <c r="S4" s="298">
+      <c r="S4" s="295">
         <v>314</v>
       </c>
-      <c r="T4" s="298">
+      <c r="T4" s="295">
         <v>266</v>
       </c>
-      <c r="U4" s="298">
+      <c r="U4" s="295">
         <v>184</v>
       </c>
-      <c r="V4" s="298">
+      <c r="V4" s="295">
         <v>421</v>
       </c>
-      <c r="W4" s="298">
+      <c r="W4" s="295">
         <v>368</v>
       </c>
-      <c r="X4" s="298">
+      <c r="X4" s="295">
         <v>348</v>
       </c>
-      <c r="Y4" s="298">
+      <c r="Y4" s="295">
         <v>151</v>
       </c>
-      <c r="Z4" s="298"/>
-      <c r="AA4" s="298"/>
-      <c r="AB4" s="298"/>
-      <c r="AC4" s="298"/>
-      <c r="AD4" s="298"/>
-      <c r="AE4" s="298">
+      <c r="Z4" s="295"/>
+      <c r="AA4" s="295"/>
+      <c r="AB4" s="295"/>
+      <c r="AC4" s="295"/>
+      <c r="AD4" s="295"/>
+      <c r="AE4" s="295">
         <f t="shared" si="0"/>
         <v>2376</v>
       </c>
@@ -23931,66 +24047,66 @@
       <c r="B5" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="298">
+      <c r="C5" s="295">
         <v>232</v>
       </c>
-      <c r="D5" s="298">
+      <c r="D5" s="295">
         <v>566</v>
       </c>
-      <c r="E5" s="298">
+      <c r="E5" s="295">
         <v>851</v>
       </c>
-      <c r="F5" s="298">
+      <c r="F5" s="295">
         <v>1136</v>
       </c>
-      <c r="G5" s="298">
+      <c r="G5" s="295">
         <v>1423</v>
       </c>
-      <c r="H5" s="298">
+      <c r="H5" s="295">
         <v>1817</v>
       </c>
-      <c r="I5" s="298">
+      <c r="I5" s="295">
         <v>2129</v>
       </c>
-      <c r="J5" s="298"/>
-      <c r="K5" s="298"/>
-      <c r="L5" s="298"/>
-      <c r="M5" s="298"/>
-      <c r="N5" s="298"/>
-      <c r="O5" s="298"/>
+      <c r="J5" s="295"/>
+      <c r="K5" s="295"/>
+      <c r="L5" s="295"/>
+      <c r="M5" s="295"/>
+      <c r="N5" s="295"/>
+      <c r="O5" s="295"/>
       <c r="Q5" s="95" t="s">
         <v>113</v>
       </c>
-      <c r="R5" s="298">
+      <c r="R5" s="295">
         <v>232</v>
       </c>
-      <c r="S5" s="298">
+      <c r="S5" s="295">
         <v>334</v>
       </c>
-      <c r="T5" s="298">
+      <c r="T5" s="295">
         <v>285</v>
       </c>
-      <c r="U5" s="298">
+      <c r="U5" s="295">
         <v>285</v>
       </c>
-      <c r="V5" s="298">
+      <c r="V5" s="295">
         <v>287</v>
       </c>
-      <c r="W5" s="298">
+      <c r="W5" s="295">
         <v>394</v>
       </c>
-      <c r="X5" s="298">
+      <c r="X5" s="295">
         <v>312</v>
       </c>
-      <c r="Y5" s="298">
+      <c r="Y5" s="295">
         <v>145</v>
       </c>
-      <c r="Z5" s="298"/>
-      <c r="AA5" s="298"/>
-      <c r="AB5" s="298"/>
-      <c r="AC5" s="298"/>
-      <c r="AD5" s="298"/>
-      <c r="AE5" s="298">
+      <c r="Z5" s="295"/>
+      <c r="AA5" s="295"/>
+      <c r="AB5" s="295"/>
+      <c r="AC5" s="295"/>
+      <c r="AD5" s="295"/>
+      <c r="AE5" s="295">
         <f t="shared" si="0"/>
         <v>2274</v>
       </c>
@@ -24011,66 +24127,66 @@
       <c r="B6" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="298">
+      <c r="C6" s="295">
         <v>192</v>
       </c>
-      <c r="D6" s="298">
+      <c r="D6" s="295">
         <v>499</v>
       </c>
-      <c r="E6" s="298">
+      <c r="E6" s="295">
         <v>759</v>
       </c>
-      <c r="F6" s="298">
+      <c r="F6" s="295">
         <v>1086</v>
       </c>
-      <c r="G6" s="298">
+      <c r="G6" s="295">
         <v>1409</v>
       </c>
-      <c r="H6" s="298">
+      <c r="H6" s="295">
         <v>1775</v>
       </c>
-      <c r="I6" s="298">
+      <c r="I6" s="295">
         <v>2110</v>
       </c>
-      <c r="J6" s="298"/>
-      <c r="K6" s="298"/>
-      <c r="L6" s="298"/>
-      <c r="M6" s="298"/>
-      <c r="N6" s="298"/>
-      <c r="O6" s="298"/>
+      <c r="J6" s="295"/>
+      <c r="K6" s="295"/>
+      <c r="L6" s="295"/>
+      <c r="M6" s="295"/>
+      <c r="N6" s="295"/>
+      <c r="O6" s="295"/>
       <c r="Q6" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="R6" s="298">
+      <c r="R6" s="295">
         <v>192</v>
       </c>
-      <c r="S6" s="298">
+      <c r="S6" s="295">
         <v>307</v>
       </c>
-      <c r="T6" s="298">
+      <c r="T6" s="295">
         <v>260</v>
       </c>
-      <c r="U6" s="298">
+      <c r="U6" s="295">
         <v>327</v>
       </c>
-      <c r="V6" s="298">
+      <c r="V6" s="295">
         <v>323</v>
       </c>
-      <c r="W6" s="298">
+      <c r="W6" s="295">
         <v>366</v>
       </c>
-      <c r="X6" s="298">
+      <c r="X6" s="295">
         <v>335</v>
       </c>
-      <c r="Y6" s="298">
+      <c r="Y6" s="295">
         <v>146</v>
       </c>
-      <c r="Z6" s="298"/>
-      <c r="AA6" s="298"/>
-      <c r="AB6" s="298"/>
-      <c r="AC6" s="298"/>
-      <c r="AD6" s="298"/>
-      <c r="AE6" s="298">
+      <c r="Z6" s="295"/>
+      <c r="AA6" s="295"/>
+      <c r="AB6" s="295"/>
+      <c r="AC6" s="295"/>
+      <c r="AD6" s="295"/>
+      <c r="AE6" s="295">
         <f t="shared" si="0"/>
         <v>2256</v>
       </c>
@@ -24091,66 +24207,66 @@
       <c r="B7" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="298">
+      <c r="C7" s="295">
         <v>182</v>
       </c>
-      <c r="D7" s="298">
+      <c r="D7" s="295">
         <v>469</v>
       </c>
-      <c r="E7" s="298">
+      <c r="E7" s="295">
         <v>682</v>
       </c>
-      <c r="F7" s="298">
+      <c r="F7" s="295">
         <v>823</v>
       </c>
-      <c r="G7" s="298">
+      <c r="G7" s="295">
         <v>1092</v>
       </c>
-      <c r="H7" s="298">
+      <c r="H7" s="295">
         <v>1488</v>
       </c>
-      <c r="I7" s="298">
+      <c r="I7" s="295">
         <v>1785</v>
       </c>
-      <c r="J7" s="298"/>
-      <c r="K7" s="298"/>
-      <c r="L7" s="298"/>
-      <c r="M7" s="298"/>
-      <c r="N7" s="298"/>
-      <c r="O7" s="298"/>
+      <c r="J7" s="295"/>
+      <c r="K7" s="295"/>
+      <c r="L7" s="295"/>
+      <c r="M7" s="295"/>
+      <c r="N7" s="295"/>
+      <c r="O7" s="295"/>
       <c r="Q7" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="R7" s="298">
+      <c r="R7" s="295">
         <v>182</v>
       </c>
-      <c r="S7" s="298">
+      <c r="S7" s="295">
         <v>287</v>
       </c>
-      <c r="T7" s="298">
+      <c r="T7" s="295">
         <v>213</v>
       </c>
-      <c r="U7" s="298">
+      <c r="U7" s="295">
         <v>141</v>
       </c>
-      <c r="V7" s="298">
+      <c r="V7" s="295">
         <v>269</v>
       </c>
-      <c r="W7" s="298">
+      <c r="W7" s="295">
         <v>396</v>
       </c>
-      <c r="X7" s="298">
+      <c r="X7" s="295">
         <v>297</v>
       </c>
-      <c r="Y7" s="298">
+      <c r="Y7" s="295">
         <v>139</v>
       </c>
-      <c r="Z7" s="298"/>
-      <c r="AA7" s="298"/>
-      <c r="AB7" s="298"/>
-      <c r="AC7" s="298"/>
-      <c r="AD7" s="298"/>
-      <c r="AE7" s="298">
+      <c r="Z7" s="295"/>
+      <c r="AA7" s="295"/>
+      <c r="AB7" s="295"/>
+      <c r="AC7" s="295"/>
+      <c r="AD7" s="295"/>
+      <c r="AE7" s="295">
         <f t="shared" si="0"/>
         <v>1924</v>
       </c>
@@ -24171,62 +24287,62 @@
       <c r="B8" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="298"/>
-      <c r="D8" s="298">
+      <c r="C8" s="295"/>
+      <c r="D8" s="295">
         <v>256</v>
       </c>
-      <c r="E8" s="298">
+      <c r="E8" s="295">
         <v>493</v>
       </c>
-      <c r="F8" s="298">
+      <c r="F8" s="295">
         <v>688</v>
       </c>
-      <c r="G8" s="298">
+      <c r="G8" s="295">
         <v>930</v>
       </c>
-      <c r="H8" s="298">
+      <c r="H8" s="295">
         <v>1208</v>
       </c>
-      <c r="I8" s="298">
+      <c r="I8" s="295">
         <v>1533</v>
       </c>
-      <c r="J8" s="298"/>
-      <c r="K8" s="298"/>
-      <c r="L8" s="298"/>
-      <c r="M8" s="298"/>
-      <c r="N8" s="298"/>
-      <c r="O8" s="298"/>
+      <c r="J8" s="295"/>
+      <c r="K8" s="295"/>
+      <c r="L8" s="295"/>
+      <c r="M8" s="295"/>
+      <c r="N8" s="295"/>
+      <c r="O8" s="295"/>
       <c r="Q8" s="95" t="s">
         <v>116</v>
       </c>
-      <c r="R8" s="298"/>
-      <c r="S8" s="298">
+      <c r="R8" s="295"/>
+      <c r="S8" s="295">
         <v>256</v>
       </c>
-      <c r="T8" s="298">
+      <c r="T8" s="295">
         <v>237</v>
       </c>
-      <c r="U8" s="298">
+      <c r="U8" s="295">
         <v>195</v>
       </c>
-      <c r="V8" s="298">
+      <c r="V8" s="295">
         <v>242</v>
       </c>
-      <c r="W8" s="298">
+      <c r="W8" s="295">
         <v>278</v>
       </c>
-      <c r="X8" s="298">
+      <c r="X8" s="295">
         <v>325</v>
       </c>
-      <c r="Y8" s="298">
+      <c r="Y8" s="295">
         <v>130</v>
       </c>
-      <c r="Z8" s="298"/>
-      <c r="AA8" s="298"/>
-      <c r="AB8" s="298"/>
-      <c r="AC8" s="298"/>
-      <c r="AD8" s="298"/>
-      <c r="AE8" s="298">
+      <c r="Z8" s="295"/>
+      <c r="AA8" s="295"/>
+      <c r="AB8" s="295"/>
+      <c r="AC8" s="295"/>
+      <c r="AD8" s="295"/>
+      <c r="AE8" s="295">
         <f t="shared" si="0"/>
         <v>1663</v>
       </c>
@@ -24326,95 +24442,95 @@
     <row r="27" spans="2:34" ht="17" customHeight="1" thickBot="1"/>
     <row r="28" spans="2:34" ht="17" customHeight="1" thickBot="1">
       <c r="B28" s="208"/>
-      <c r="C28" s="312" t="s">
+      <c r="C28" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="312" t="s">
+      <c r="D28" s="309" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="312" t="s">
+      <c r="E28" s="309" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="312" t="s">
+      <c r="F28" s="309" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="309" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="312" t="s">
+      <c r="H28" s="309" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="312" t="s">
+      <c r="I28" s="309" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="312" t="s">
+      <c r="J28" s="309" t="s">
         <v>102</v>
       </c>
-      <c r="K28" s="312" t="s">
+      <c r="K28" s="309" t="s">
         <v>103</v>
       </c>
-      <c r="L28" s="312" t="s">
+      <c r="L28" s="309" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="312" t="s">
+      <c r="M28" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="N28" s="312" t="s">
+      <c r="N28" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="O28" s="312" t="s">
+      <c r="O28" s="309" t="s">
         <v>107</v>
       </c>
       <c r="Q28" s="208"/>
-      <c r="R28" s="312" t="s">
+      <c r="R28" s="309" t="s">
         <v>95</v>
       </c>
-      <c r="S28" s="312" t="s">
+      <c r="S28" s="309" t="s">
         <v>96</v>
       </c>
-      <c r="T28" s="312" t="s">
+      <c r="T28" s="309" t="s">
         <v>97</v>
       </c>
-      <c r="U28" s="312" t="s">
+      <c r="U28" s="309" t="s">
         <v>98</v>
       </c>
-      <c r="V28" s="312" t="s">
+      <c r="V28" s="309" t="s">
         <v>99</v>
       </c>
-      <c r="W28" s="312" t="s">
+      <c r="W28" s="309" t="s">
         <v>100</v>
       </c>
-      <c r="X28" s="312" t="s">
+      <c r="X28" s="309" t="s">
         <v>101</v>
       </c>
-      <c r="Y28" s="312" t="s">
+      <c r="Y28" s="309" t="s">
         <v>102</v>
       </c>
-      <c r="Z28" s="312" t="s">
+      <c r="Z28" s="309" t="s">
         <v>103</v>
       </c>
-      <c r="AA28" s="312" t="s">
+      <c r="AA28" s="309" t="s">
         <v>104</v>
       </c>
-      <c r="AB28" s="312" t="s">
+      <c r="AB28" s="309" t="s">
         <v>105</v>
       </c>
-      <c r="AC28" s="312" t="s">
+      <c r="AC28" s="309" t="s">
         <v>106</v>
       </c>
-      <c r="AD28" s="312" t="s">
+      <c r="AD28" s="309" t="s">
         <v>107</v>
       </c>
-      <c r="AE28" s="312" t="s">
+      <c r="AE28" s="309" t="s">
         <v>41</v>
       </c>
-      <c r="AF28" s="312" t="s">
+      <c r="AF28" s="309" t="s">
         <v>108</v>
       </c>
-      <c r="AG28" s="312" t="s">
+      <c r="AG28" s="309" t="s">
         <v>109</v>
       </c>
-      <c r="AH28" s="312" t="s">
+      <c r="AH28" s="309" t="s">
         <v>110</v>
       </c>
     </row>
@@ -24500,64 +24616,64 @@
       <c r="B30" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="C30" s="298">
+      <c r="C30" s="295">
         <v>309</v>
       </c>
-      <c r="D30" s="298">
+      <c r="D30" s="295">
         <v>743</v>
       </c>
-      <c r="E30" s="298">
+      <c r="E30" s="295">
         <v>1095</v>
       </c>
-      <c r="F30" s="298">
+      <c r="F30" s="295">
         <v>1679</v>
       </c>
-      <c r="G30" s="298">
+      <c r="G30" s="295">
         <v>2185</v>
       </c>
-      <c r="H30" s="298">
+      <c r="H30" s="295">
         <v>2708</v>
       </c>
-      <c r="I30" s="298">
+      <c r="I30" s="295">
         <v>3208</v>
       </c>
-      <c r="J30" s="298"/>
-      <c r="K30" s="298"/>
-      <c r="L30" s="298"/>
-      <c r="M30" s="298"/>
-      <c r="N30" s="298"/>
-      <c r="O30" s="298"/>
+      <c r="J30" s="295"/>
+      <c r="K30" s="295"/>
+      <c r="L30" s="295"/>
+      <c r="M30" s="295"/>
+      <c r="N30" s="295"/>
+      <c r="O30" s="295"/>
       <c r="Q30" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="R30" s="298">
+      <c r="R30" s="295">
         <v>309</v>
       </c>
-      <c r="S30" s="298">
+      <c r="S30" s="295">
         <v>434</v>
       </c>
-      <c r="T30" s="298">
+      <c r="T30" s="295">
         <v>352</v>
       </c>
-      <c r="U30" s="298">
+      <c r="U30" s="295">
         <v>584</v>
       </c>
-      <c r="V30" s="298">
+      <c r="V30" s="295">
         <v>506</v>
       </c>
-      <c r="W30" s="298">
+      <c r="W30" s="295">
         <v>523</v>
       </c>
-      <c r="X30" s="298">
+      <c r="X30" s="295">
         <v>500</v>
       </c>
-      <c r="Y30" s="298"/>
-      <c r="Z30" s="298"/>
-      <c r="AA30" s="298"/>
-      <c r="AB30" s="298"/>
-      <c r="AC30" s="298"/>
-      <c r="AD30" s="298"/>
-      <c r="AE30" s="298">
+      <c r="Y30" s="295"/>
+      <c r="Z30" s="295"/>
+      <c r="AA30" s="295"/>
+      <c r="AB30" s="295"/>
+      <c r="AC30" s="295"/>
+      <c r="AD30" s="295"/>
+      <c r="AE30" s="295">
         <f>SUM(R30:AD30)</f>
         <v>3208</v>
       </c>
@@ -24578,64 +24694,64 @@
       <c r="B31" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="298">
+      <c r="C31" s="295">
         <v>397</v>
       </c>
-      <c r="D31" s="298">
+      <c r="D31" s="295">
         <v>802</v>
       </c>
-      <c r="E31" s="298">
+      <c r="E31" s="295">
         <v>1089</v>
       </c>
-      <c r="F31" s="298">
+      <c r="F31" s="295">
         <v>1425</v>
       </c>
-      <c r="G31" s="298">
+      <c r="G31" s="295">
         <v>1845</v>
       </c>
-      <c r="H31" s="298">
+      <c r="H31" s="295">
         <v>2305</v>
       </c>
-      <c r="I31" s="298">
+      <c r="I31" s="295">
         <v>2947</v>
       </c>
-      <c r="J31" s="298"/>
-      <c r="K31" s="298"/>
-      <c r="L31" s="298"/>
-      <c r="M31" s="298"/>
-      <c r="N31" s="298"/>
-      <c r="O31" s="298"/>
+      <c r="J31" s="295"/>
+      <c r="K31" s="295"/>
+      <c r="L31" s="295"/>
+      <c r="M31" s="295"/>
+      <c r="N31" s="295"/>
+      <c r="O31" s="295"/>
       <c r="Q31" s="95" t="s">
         <v>118</v>
       </c>
-      <c r="R31" s="298">
+      <c r="R31" s="295">
         <v>397</v>
       </c>
-      <c r="S31" s="298">
+      <c r="S31" s="295">
         <v>405</v>
       </c>
-      <c r="T31" s="298">
+      <c r="T31" s="295">
         <v>287</v>
       </c>
-      <c r="U31" s="298">
+      <c r="U31" s="295">
         <v>330</v>
       </c>
-      <c r="V31" s="298">
+      <c r="V31" s="295">
         <v>426</v>
       </c>
-      <c r="W31" s="298">
+      <c r="W31" s="295">
         <v>460</v>
       </c>
-      <c r="X31" s="298">
+      <c r="X31" s="295">
         <v>642</v>
       </c>
-      <c r="Y31" s="298"/>
-      <c r="Z31" s="298"/>
-      <c r="AA31" s="298"/>
-      <c r="AB31" s="298"/>
-      <c r="AC31" s="298"/>
-      <c r="AD31" s="298"/>
-      <c r="AE31" s="298">
+      <c r="Y31" s="295"/>
+      <c r="Z31" s="295"/>
+      <c r="AA31" s="295"/>
+      <c r="AB31" s="295"/>
+      <c r="AC31" s="295"/>
+      <c r="AD31" s="295"/>
+      <c r="AE31" s="295">
         <f>SUM(R31:AD31)</f>
         <v>2947</v>
       </c>
@@ -24683,13 +24799,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -24701,19 +24817,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="314" t="s">
+      <c r="I2" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="312" t="s">
+      <c r="J2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="312" t="s">
+      <c r="K2" s="309" t="s">
         <v>127</v>
       </c>
     </row>
@@ -25409,31 +25525,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="312" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="312" t="s">
+      <c r="D2" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="309" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="312" t="s">
+      <c r="F2" s="309" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="315" t="s">
+      <c r="I2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -26032,13 +26148,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -26050,19 +26166,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="314" t="s">
+      <c r="I2" s="311" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="312" t="s">
+      <c r="J2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="312" t="s">
+      <c r="K2" s="309" t="s">
         <v>127</v>
       </c>
     </row>
@@ -26761,31 +26877,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="309" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="312" t="s">
+      <c r="B2" s="309" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="312" t="s">
+      <c r="C2" s="309" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="312" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="312" t="s">
+      <c r="D2" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="309" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="312" t="s">
+      <c r="F2" s="309" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="312" t="s">
+      <c r="G2" s="309" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="312" t="s">
+      <c r="H2" s="309" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="315" t="s">
+      <c r="I2" s="312" t="s">
         <v>127</v>
       </c>
       <c r="J2" s="71"/>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3307e3c88395b6d/CSProjects/PythonProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="11_7EFD02DFBB89078A07B1F854B77B5195153BA9AF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{084FB832-07D1-B64B-AF21-2DEC85B9CD06}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_978C19D9B5F55B978B5D5A0B5100DC379A0AB90A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{33D93065-D3C1-2848-9ACD-5AE5748844A8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19260" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19260" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="663">
   <si>
     <t>Constructor</t>
   </si>
@@ -138,66 +138,66 @@
     <t>HAM</t>
   </si>
   <si>
+    <t>BOT</t>
+  </si>
+  <si>
     <t>RBR</t>
   </si>
   <si>
     <t>VER</t>
   </si>
   <si>
-    <t>BOT</t>
-  </si>
-  <si>
     <t>MCL</t>
   </si>
   <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>REN</t>
+  </si>
+  <si>
     <t>ALB</t>
   </si>
   <si>
-    <t>RP</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
     <t>FER</t>
   </si>
   <si>
     <t>LEC</t>
   </si>
   <si>
-    <t>REN</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
     <t>ALT</t>
   </si>
   <si>
+    <t>GAS</t>
+  </si>
+  <si>
+    <t>ARR</t>
+  </si>
+  <si>
     <t>RIC</t>
   </si>
   <si>
-    <t>ARR</t>
+    <t>HAA</t>
+  </si>
+  <si>
+    <t>SAI</t>
+  </si>
+  <si>
+    <t>WIL</t>
   </si>
   <si>
     <t>PER</t>
   </si>
   <si>
-    <t>HAA</t>
-  </si>
-  <si>
     <t>OCO</t>
   </si>
   <si>
-    <t>WIL</t>
-  </si>
-  <si>
-    <t>SAI</t>
-  </si>
-  <si>
-    <t>GAS</t>
-  </si>
-  <si>
     <t>VET</t>
   </si>
   <si>
@@ -1881,6 +1881,15 @@
     <t>1:18.887</t>
   </si>
   <si>
+    <t>1:19.786</t>
+  </si>
+  <si>
+    <t>1:18.952</t>
+  </si>
+  <si>
+    <t>1:18.956</t>
+  </si>
+  <si>
     <t>1:20.099</t>
   </si>
   <si>
@@ -1899,15 +1908,6 @@
     <t>1:19.720</t>
   </si>
   <si>
-    <t>1:19.786</t>
-  </si>
-  <si>
-    <t>1:18.952</t>
-  </si>
-  <si>
-    <t>1:18.956</t>
-  </si>
-  <si>
     <t>1:20.193</t>
   </si>
   <si>
@@ -1917,6 +1917,15 @@
     <t>1:19.795</t>
   </si>
   <si>
+    <t>1:20.344</t>
+  </si>
+  <si>
+    <t>1:19.962</t>
+  </si>
+  <si>
+    <t>1:19.820</t>
+  </si>
+  <si>
     <t>1:20.548</t>
   </si>
   <si>
@@ -1926,13 +1935,22 @@
     <t>1:19.864</t>
   </si>
   <si>
-    <t>1:20.344</t>
-  </si>
-  <si>
-    <t>1:19.962</t>
-  </si>
-  <si>
-    <t>1:19.820</t>
+    <t>1:20.400</t>
+  </si>
+  <si>
+    <t>1:19.924</t>
+  </si>
+  <si>
+    <t>1:20.049</t>
+  </si>
+  <si>
+    <t>1:21.104</t>
+  </si>
+  <si>
+    <t>1:20.064</t>
+  </si>
+  <si>
+    <t>1:20.090</t>
   </si>
   <si>
     <t>1:20.145</t>
@@ -1944,22 +1962,22 @@
     <t>1:20.177</t>
   </si>
   <si>
-    <t>1:20.400</t>
-  </si>
-  <si>
-    <t>1:19.924</t>
-  </si>
-  <si>
-    <t>1:20.049</t>
-  </si>
-  <si>
-    <t>1:21.104</t>
-  </si>
-  <si>
-    <t>1:20.064</t>
-  </si>
-  <si>
-    <t>1:20.090</t>
+    <t>1:20.307</t>
+  </si>
+  <si>
+    <t>1:20.169</t>
+  </si>
+  <si>
+    <t>1:20.747</t>
+  </si>
+  <si>
+    <t>1:20.234</t>
+  </si>
+  <si>
+    <t>1:20.443</t>
+  </si>
+  <si>
+    <t>1:20.273</t>
   </si>
   <si>
     <t>1:21.010</t>
@@ -1968,43 +1986,85 @@
     <t>1:20.926</t>
   </si>
   <si>
-    <t>1:20.443</t>
-  </si>
-  <si>
-    <t>1:20.273</t>
-  </si>
-  <si>
     <t>1:20.869</t>
   </si>
   <si>
     <t>1:21.573</t>
   </si>
   <si>
+    <t>1:21.139</t>
+  </si>
+  <si>
+    <t>1:21.151</t>
+  </si>
+  <si>
+    <t>1:21.206</t>
+  </si>
+  <si>
     <t>1:21.587</t>
   </si>
   <si>
-    <t>1:20.307</t>
-  </si>
-  <si>
-    <t>1:20.169</t>
-  </si>
-  <si>
-    <t>1:20.747</t>
-  </si>
-  <si>
-    <t>1:20.234</t>
-  </si>
-  <si>
-    <t>1:21.151</t>
-  </si>
-  <si>
     <t>1:21.717</t>
   </si>
   <si>
-    <t>1:21.139</t>
-  </si>
-  <si>
-    <t>1:21.206</t>
+    <t>1:47:06.056</t>
+  </si>
+  <si>
+    <t>1:47:06.471</t>
+  </si>
+  <si>
+    <t>1:47:09.414</t>
+  </si>
+  <si>
+    <t>1:47:12.056</t>
+  </si>
+  <si>
+    <t>1:47:13.164</t>
+  </si>
+  <si>
+    <t>1:47:14.447</t>
+  </si>
+  <si>
+    <t>1:47:23.301</t>
+  </si>
+  <si>
+    <t>1:47:24.747</t>
+  </si>
+  <si>
+    <t>1:47:28.264</t>
+  </si>
+  <si>
+    <t>1:47:29.280</t>
+  </si>
+  <si>
+    <t>1:47:38.932</t>
+  </si>
+  <si>
+    <t>1:47:41.220</t>
+  </si>
+  <si>
+    <t>1:47:42.368</t>
+  </si>
+  <si>
+    <t>1:47:42.649</t>
+  </si>
+  <si>
+    <t>1:47:43.589</t>
+  </si>
+  <si>
+    <t>1:48:01.255</t>
+  </si>
+  <si>
+    <t>1:14:59.415</t>
+  </si>
+  <si>
+    <t>35:27.678</t>
+  </si>
+  <si>
+    <t>25:15.852</t>
+  </si>
+  <si>
+    <t>9:48.850</t>
   </si>
 </sst>
 </file>
@@ -2617,7 +2677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="324">
+  <cellXfs count="325">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3531,16 +3591,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3548,28 +3632,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3732,7 +3795,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F591-684B-847F-CA5CA107C96B}"/>
+              <c16:uniqueId val="{00000000-B2DF-B24B-B08E-643C8B06960F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3824,7 +3887,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F591-684B-847F-CA5CA107C96B}"/>
+              <c16:uniqueId val="{00000001-B2DF-B24B-B08E-643C8B06960F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3916,7 +3979,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F591-684B-847F-CA5CA107C96B}"/>
+              <c16:uniqueId val="{00000002-B2DF-B24B-B08E-643C8B06960F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4232,7 +4295,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F2C9-2449-BC6A-4E8B59621A43}"/>
+              <c16:uniqueId val="{00000000-0D55-EA41-B207-AA80F2A06B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4327,7 +4390,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F2C9-2449-BC6A-4E8B59621A43}"/>
+              <c16:uniqueId val="{00000001-0D55-EA41-B207-AA80F2A06B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4422,7 +4485,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F2C9-2449-BC6A-4E8B59621A43}"/>
+              <c16:uniqueId val="{00000002-0D55-EA41-B207-AA80F2A06B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4517,7 +4580,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F2C9-2449-BC6A-4E8B59621A43}"/>
+              <c16:uniqueId val="{00000003-0D55-EA41-B207-AA80F2A06B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4612,7 +4675,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F2C9-2449-BC6A-4E8B59621A43}"/>
+              <c16:uniqueId val="{00000004-0D55-EA41-B207-AA80F2A06B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4707,7 +4770,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F2C9-2449-BC6A-4E8B59621A43}"/>
+              <c16:uniqueId val="{00000005-0D55-EA41-B207-AA80F2A06B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4808,7 +4871,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F2C9-2449-BC6A-4E8B59621A43}"/>
+              <c16:uniqueId val="{00000006-0D55-EA41-B207-AA80F2A06B42}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5121,7 +5184,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-81EE-1147-92AD-BC1E444C4BD8}"/>
+              <c16:uniqueId val="{00000000-1A64-7C48-915B-A8439B03D366}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5213,7 +5276,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-81EE-1147-92AD-BC1E444C4BD8}"/>
+              <c16:uniqueId val="{00000001-1A64-7C48-915B-A8439B03D366}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5305,7 +5368,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-81EE-1147-92AD-BC1E444C4BD8}"/>
+              <c16:uniqueId val="{00000002-1A64-7C48-915B-A8439B03D366}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5617,7 +5680,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E5F7-D44A-BD20-908DE2BAAAC5}"/>
+              <c16:uniqueId val="{00000000-1970-0C49-91E4-6B555398C53F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5709,7 +5772,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E5F7-D44A-BD20-908DE2BAAAC5}"/>
+              <c16:uniqueId val="{00000001-1970-0C49-91E4-6B555398C53F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5801,7 +5864,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E5F7-D44A-BD20-908DE2BAAAC5}"/>
+              <c16:uniqueId val="{00000002-1970-0C49-91E4-6B555398C53F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5893,7 +5956,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E5F7-D44A-BD20-908DE2BAAAC5}"/>
+              <c16:uniqueId val="{00000003-1970-0C49-91E4-6B555398C53F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5985,7 +6048,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E5F7-D44A-BD20-908DE2BAAAC5}"/>
+              <c16:uniqueId val="{00000004-1970-0C49-91E4-6B555398C53F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6077,7 +6140,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E5F7-D44A-BD20-908DE2BAAAC5}"/>
+              <c16:uniqueId val="{00000005-1970-0C49-91E4-6B555398C53F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6175,7 +6238,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E5F7-D44A-BD20-908DE2BAAAC5}"/>
+              <c16:uniqueId val="{00000006-1970-0C49-91E4-6B555398C53F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7659,7 +7722,7 @@
   <dimension ref="B1:X57"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7675,61 +7738,61 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:24" ht="17" customHeight="1" thickBot="1">
-      <c r="B2" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="309" t="s">
+      <c r="B2" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="309" t="s">
+      <c r="D2" s="312" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="309" t="s">
+      <c r="E2" s="312" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="309" t="s">
+      <c r="F2" s="312" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="309" t="s">
+      <c r="I2" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="309" t="s">
+      <c r="J2" s="312" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="309" t="s">
+      <c r="K2" s="312" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="309" t="s">
+      <c r="L2" s="312" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="309" t="s">
+      <c r="M2" s="312" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="312" t="s">
+      <c r="N2" s="311" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="312" t="s">
+      <c r="O2" s="311" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="312" t="s">
+      <c r="P2" s="311" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="312" t="s">
+      <c r="Q2" s="311" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="312" t="s">
+      <c r="R2" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="310" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="309" t="s">
+      <c r="T2" s="309" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="312" t="s">
         <v>17</v>
       </c>
     </row>
@@ -7794,59 +7857,59 @@
       </c>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="D4" s="118">
+        <f>+VLOOKUP($C4,'R1'!$C$3:$H$22,6,)</f>
+        <v>25</v>
+      </c>
+      <c r="E4" s="118">
+        <f>+VLOOKUP($C4,'R2'!$C$3:$H$22,6,)</f>
+        <v>18</v>
+      </c>
+      <c r="F4" s="118">
+        <f>+VLOOKUP($C4,'R3'!$C$3:$H$22,6,)</f>
+        <v>15</v>
+      </c>
+      <c r="G4" s="118">
+        <f>+VLOOKUP($C4,'R4'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="118">
+        <f>+VLOOKUP($C4,'R5'!$C$3:$H$22,6,)</f>
+        <v>15</v>
+      </c>
+      <c r="I4" s="291">
+        <f>+VLOOKUP($C4,'R6'!$C$3:$H$22,6,)</f>
+        <v>16</v>
+      </c>
+      <c r="J4" s="118">
+        <f>+VLOOKUP($C4,'R7'!$C$3:$H$22,6,)</f>
+        <v>18</v>
+      </c>
+      <c r="K4" s="118">
+        <f>+VLOOKUP($C4,'R8'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="R4" s="233">
+        <f t="shared" si="1"/>
+        <v>105.14285714285714</v>
+      </c>
+      <c r="T4" s="44" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="103">
-        <f>+VLOOKUP($C4,'R1'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="103">
-        <f>+VLOOKUP($C4,'R2'!$C$3:$H$22,6,)</f>
-        <v>15</v>
-      </c>
-      <c r="F4" s="103">
-        <f>+VLOOKUP($C4,'R3'!$C$3:$H$22,6,)</f>
-        <v>18</v>
-      </c>
-      <c r="G4" s="269">
-        <f>+VLOOKUP($C4,'R4'!$C$3:$H$22,6,)</f>
-        <v>19</v>
-      </c>
-      <c r="H4" s="103">
-        <f>+VLOOKUP($C4,'R5'!$C$3:$H$22,6,)</f>
-        <v>25</v>
-      </c>
-      <c r="I4" s="103">
-        <f>+VLOOKUP($C4,'R6'!$C$3:$H$22,6,)</f>
-        <v>18</v>
-      </c>
-      <c r="J4" s="103">
-        <f>+VLOOKUP($C4,'R7'!$C$3:$H$22,6,)</f>
-        <v>15</v>
-      </c>
-      <c r="K4" s="103">
-        <f>+VLOOKUP($C4,'R8'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="R4" s="234">
-        <f t="shared" si="1"/>
-        <v>125.71428571428571</v>
-      </c>
-      <c r="T4" s="44" t="s">
-        <v>20</v>
       </c>
       <c r="U4" s="295">
         <f ca="1">SUMIF($B$3:$Q$22,T4,$Q$3:$Q$22)</f>
@@ -7854,56 +7917,56 @@
       </c>
     </row>
     <row r="5" spans="2:24">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="103">
+        <f>+VLOOKUP($C5,'R1'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="103">
+        <f>+VLOOKUP($C5,'R2'!$C$3:$H$22,6,)</f>
+        <v>15</v>
+      </c>
+      <c r="F5" s="103">
+        <f>+VLOOKUP($C5,'R3'!$C$3:$H$22,6,)</f>
         <v>18</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="118">
-        <f>+VLOOKUP($C5,'R1'!$C$3:$H$22,6,)</f>
+      <c r="G5" s="269">
+        <f>+VLOOKUP($C5,'R4'!$C$3:$H$22,6,)</f>
+        <v>19</v>
+      </c>
+      <c r="H5" s="103">
+        <f>+VLOOKUP($C5,'R5'!$C$3:$H$22,6,)</f>
         <v>25</v>
       </c>
-      <c r="E5" s="118">
-        <f>+VLOOKUP($C5,'R2'!$C$3:$H$22,6,)</f>
+      <c r="I5" s="103">
+        <f>+VLOOKUP($C5,'R6'!$C$3:$H$22,6,)</f>
         <v>18</v>
       </c>
-      <c r="F5" s="118">
-        <f>+VLOOKUP($C5,'R3'!$C$3:$H$22,6,)</f>
+      <c r="J5" s="103">
+        <f>+VLOOKUP($C5,'R7'!$C$3:$H$22,6,)</f>
         <v>15</v>
       </c>
-      <c r="G5" s="118">
-        <f>+VLOOKUP($C5,'R4'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="118">
-        <f>+VLOOKUP($C5,'R5'!$C$3:$H$22,6,)</f>
-        <v>15</v>
-      </c>
-      <c r="I5" s="291">
-        <f>+VLOOKUP($C5,'R6'!$C$3:$H$22,6,)</f>
-        <v>16</v>
-      </c>
-      <c r="J5" s="118">
-        <f>+VLOOKUP($C5,'R7'!$C$3:$H$22,6,)</f>
-        <v>18</v>
-      </c>
-      <c r="K5" s="118">
+      <c r="K5" s="103">
         <f>+VLOOKUP($C5,'R8'!$C$3:$H$22,6,)</f>
-        <v>10</v>
-      </c>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27">
+        <v>0</v>
+      </c>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29">
         <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="R5" s="233">
+        <v>110</v>
+      </c>
+      <c r="R5" s="234">
         <f t="shared" si="1"/>
-        <v>105.14285714285714</v>
+        <v>125.71428571428571</v>
       </c>
       <c r="T5" s="39" t="s">
         <v>23</v>
@@ -7914,56 +7977,56 @@
       </c>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="50" t="s">
+      <c r="B6" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="103">
+      <c r="D6" s="225">
         <f>+VLOOKUP($C6,'R1'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="103">
+        <v>16</v>
+      </c>
+      <c r="E6" s="101">
         <f>+VLOOKUP($C6,'R2'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="101">
+        <f>+VLOOKUP($C6,'R3'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="101">
+        <f>+VLOOKUP($C6,'R4'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
+      <c r="H6" s="101">
+        <f>+VLOOKUP($C6,'R5'!$C$3:$H$22,6,)</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="101">
+        <f>+VLOOKUP($C6,'R6'!$C$3:$H$22,6,)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="101">
+        <f>+VLOOKUP($C6,'R7'!$C$3:$H$22,6,)</f>
+        <v>6</v>
+      </c>
+      <c r="K6" s="101">
+        <f>+VLOOKUP($C6,'R8'!$C$3:$H$22,6,)</f>
         <v>12</v>
       </c>
-      <c r="F6" s="103">
-        <f>+VLOOKUP($C6,'R3'!$C$3:$H$22,6,)</f>
-        <v>10</v>
-      </c>
-      <c r="G6" s="103">
-        <f>+VLOOKUP($C6,'R4'!$C$3:$H$22,6,)</f>
-        <v>4</v>
-      </c>
-      <c r="H6" s="103">
-        <f>+VLOOKUP($C6,'R5'!$C$3:$H$22,6,)</f>
-        <v>10</v>
-      </c>
-      <c r="I6" s="103">
-        <f>+VLOOKUP($C6,'R6'!$C$3:$H$22,6,)</f>
-        <v>4</v>
-      </c>
-      <c r="J6" s="103">
-        <f>+VLOOKUP($C6,'R7'!$C$3:$H$22,6,)</f>
-        <v>8</v>
-      </c>
-      <c r="K6" s="103">
-        <f>+VLOOKUP($C6,'R8'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29">
+      <c r="L6" s="101"/>
+      <c r="M6" s="101"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30">
         <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="R6" s="234">
+        <v>57</v>
+      </c>
+      <c r="R6" s="235">
         <f t="shared" si="1"/>
-        <v>54.857142857142854</v>
+        <v>46.857142857142854</v>
       </c>
       <c r="T6" s="41" t="s">
         <v>25</v>
@@ -7974,176 +8037,176 @@
       </c>
     </row>
     <row r="7" spans="2:24">
-      <c r="B7" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="51" t="s">
+      <c r="B7" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="225">
+      <c r="D7" s="105">
         <f>+VLOOKUP($C7,'R1'!$C$3:$H$22,6,)</f>
-        <v>16</v>
-      </c>
-      <c r="E7" s="101">
+        <v>0</v>
+      </c>
+      <c r="E7" s="105">
         <f>+VLOOKUP($C7,'R2'!$C$3:$H$22,6,)</f>
-        <v>10</v>
-      </c>
-      <c r="F7" s="101">
+        <v>6</v>
+      </c>
+      <c r="F7" s="105">
         <f>+VLOOKUP($C7,'R3'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="101">
+        <v>12</v>
+      </c>
+      <c r="G7" s="105">
         <f>+VLOOKUP($C7,'R4'!$C$3:$H$22,6,)</f>
-        <v>10</v>
-      </c>
-      <c r="H7" s="101">
+        <v>2</v>
+      </c>
+      <c r="H7" s="105">
         <f>+VLOOKUP($C7,'R5'!$C$3:$H$22,6,)</f>
+        <v>8</v>
+      </c>
+      <c r="I7" s="105">
+        <f>+VLOOKUP($C7,'R6'!$C$3:$H$22,6,)</f>
+        <v>12</v>
+      </c>
+      <c r="J7" s="105">
+        <f>+VLOOKUP($C7,'R7'!$C$3:$H$22,6,)</f>
         <v>2</v>
       </c>
-      <c r="I7" s="101">
-        <f>+VLOOKUP($C7,'R6'!$C$3:$H$22,6,)</f>
-        <v>1</v>
-      </c>
-      <c r="J7" s="101">
-        <f>+VLOOKUP($C7,'R7'!$C$3:$H$22,6,)</f>
-        <v>6</v>
-      </c>
-      <c r="K7" s="101">
+      <c r="K7" s="105">
         <f>+VLOOKUP($C7,'R8'!$C$3:$H$22,6,)</f>
-        <v>12</v>
-      </c>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30">
+        <v>15</v>
+      </c>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="R7" s="235">
+      <c r="R7" s="236">
         <f t="shared" si="1"/>
-        <v>46.857142857142854</v>
-      </c>
-      <c r="T7" s="40" t="s">
+        <v>65.142857142857139</v>
+      </c>
+      <c r="T7" s="42" t="s">
         <v>27</v>
       </c>
       <c r="U7" s="295">
         <f t="shared" ref="U7:U12" ca="1" si="2">SUMIF($B$3:$Q$22,T7,$Q$3:$Q$22)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24">
+      <c r="B8" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="103">
+        <f>+VLOOKUP($C8,'R1'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="103">
+        <f>+VLOOKUP($C8,'R2'!$C$3:$H$22,6,)</f>
+        <v>12</v>
+      </c>
+      <c r="F8" s="103">
+        <f>+VLOOKUP($C8,'R3'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
+      <c r="G8" s="103">
+        <f>+VLOOKUP($C8,'R4'!$C$3:$H$22,6,)</f>
+        <v>4</v>
+      </c>
+      <c r="H8" s="103">
+        <f>+VLOOKUP($C8,'R5'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
+      <c r="I8" s="103">
+        <f>+VLOOKUP($C8,'R6'!$C$3:$H$22,6,)</f>
+        <v>4</v>
+      </c>
+      <c r="J8" s="103">
+        <f>+VLOOKUP($C8,'R7'!$C$3:$H$22,6,)</f>
+        <v>8</v>
+      </c>
+      <c r="K8" s="103">
+        <f>+VLOOKUP($C8,'R8'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="R8" s="234">
+        <f t="shared" si="1"/>
+        <v>54.857142857142854</v>
+      </c>
+      <c r="T8" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="295">
+        <f t="shared" ca="1" si="2"/>
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:24">
-      <c r="B8" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="107">
-        <f>+VLOOKUP($C8,'R1'!$C$3:$H$22,6,)</f>
+    <row r="9" spans="2:24">
+      <c r="B9" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="107">
+        <f>+VLOOKUP($C9,'R1'!$C$3:$H$22,6,)</f>
         <v>18</v>
       </c>
-      <c r="E8" s="107">
-        <f>+VLOOKUP($C8,'R2'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="107">
-        <f>+VLOOKUP($C8,'R3'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="107">
-        <f>+VLOOKUP($C8,'R4'!$C$3:$H$22,6,)</f>
+      <c r="E9" s="107">
+        <f>+VLOOKUP($C9,'R2'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="107">
+        <f>+VLOOKUP($C9,'R3'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="107">
+        <f>+VLOOKUP($C9,'R4'!$C$3:$H$22,6,)</f>
         <v>15</v>
       </c>
-      <c r="H8" s="107">
-        <f>+VLOOKUP($C8,'R5'!$C$3:$H$22,6,)</f>
+      <c r="H9" s="107">
+        <f>+VLOOKUP($C9,'R5'!$C$3:$H$22,6,)</f>
         <v>12</v>
       </c>
-      <c r="I8" s="107">
-        <f>+VLOOKUP($C8,'R6'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="107">
-        <f>+VLOOKUP($C8,'R7'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="107">
-        <f>+VLOOKUP($C8,'R8'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28">
+      <c r="I9" s="107">
+        <f>+VLOOKUP($C9,'R6'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="107">
+        <f>+VLOOKUP($C9,'R7'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="107">
+        <f>+VLOOKUP($C9,'R8'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="R8" s="239">
+      <c r="R9" s="239">
         <f t="shared" si="1"/>
         <v>30.857142857142858</v>
-      </c>
-      <c r="T8" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="U8" s="295">
-        <f t="shared" ca="1" si="2"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24">
-      <c r="B9" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="105">
-        <f>+VLOOKUP($C9,'R1'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="105">
-        <f>+VLOOKUP($C9,'R2'!$C$3:$H$22,6,)</f>
-        <v>6</v>
-      </c>
-      <c r="F9" s="105">
-        <f>+VLOOKUP($C9,'R3'!$C$3:$H$22,6,)</f>
-        <v>12</v>
-      </c>
-      <c r="G9" s="105">
-        <f>+VLOOKUP($C9,'R4'!$C$3:$H$22,6,)</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="105">
-        <f>+VLOOKUP($C9,'R5'!$C$3:$H$22,6,)</f>
-        <v>8</v>
-      </c>
-      <c r="I9" s="105">
-        <f>+VLOOKUP($C9,'R6'!$C$3:$H$22,6,)</f>
-        <v>12</v>
-      </c>
-      <c r="J9" s="105">
-        <f>+VLOOKUP($C9,'R7'!$C$3:$H$22,6,)</f>
-        <v>2</v>
-      </c>
-      <c r="K9" s="105">
-        <f>+VLOOKUP($C9,'R8'!$C$3:$H$22,6,)</f>
-        <v>15</v>
-      </c>
-      <c r="L9" s="105"/>
-      <c r="M9" s="105"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="R9" s="236">
-        <f t="shared" si="1"/>
-        <v>65.142857142857139</v>
       </c>
       <c r="T9" s="81" t="s">
         <v>31</v>
@@ -8154,56 +8217,56 @@
       </c>
     </row>
     <row r="10" spans="2:24">
-      <c r="B10" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="53" t="s">
+      <c r="B10" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="109">
+      <c r="D10" s="111">
         <f>+VLOOKUP($C10,'R1'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="109">
+        <v>6</v>
+      </c>
+      <c r="E10" s="111">
         <f>+VLOOKUP($C10,'R2'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="111">
+        <f>+VLOOKUP($C10,'R3'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="111">
+        <f>+VLOOKUP($C10,'R4'!$C$3:$H$22,6,)</f>
+        <v>6</v>
+      </c>
+      <c r="H10" s="111">
+        <f>+VLOOKUP($C10,'R5'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="111">
+        <f>+VLOOKUP($C10,'R6'!$C$3:$H$22,6,)</f>
+        <v>2</v>
+      </c>
+      <c r="J10" s="111">
+        <f>+VLOOKUP($C10,'R7'!$C$3:$H$22,6,)</f>
         <v>4</v>
       </c>
-      <c r="F10" s="109">
-        <f>+VLOOKUP($C10,'R3'!$C$3:$H$22,6,)</f>
-        <v>4</v>
-      </c>
-      <c r="G10" s="109">
-        <f>+VLOOKUP($C10,'R4'!$C$3:$H$22,6,)</f>
-        <v>12</v>
-      </c>
-      <c r="H10" s="109">
-        <f>+VLOOKUP($C10,'R5'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="109">
-        <f>+VLOOKUP($C10,'R6'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="298">
-        <f>+VLOOKUP($C10,'R7'!$C$3:$H$22,6,)</f>
-        <v>13</v>
-      </c>
-      <c r="K10" s="109">
+      <c r="K10" s="111">
         <f>+VLOOKUP($C10,'R8'!$C$3:$H$22,6,)</f>
-        <v>8</v>
-      </c>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32">
+        <v>25</v>
+      </c>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82">
         <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="R10" s="240">
+        <v>43</v>
+      </c>
+      <c r="R10" s="238">
         <f t="shared" si="1"/>
-        <v>46.857142857142854</v>
+        <v>42.285714285714285</v>
       </c>
       <c r="T10" s="43" t="s">
         <v>33</v>
@@ -8214,50 +8277,56 @@
       </c>
     </row>
     <row r="11" spans="2:24">
-      <c r="B11" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="52" t="s">
+      <c r="B11" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="105">
+      <c r="D11" s="109">
         <f>+VLOOKUP($C11,'R1'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="109">
+        <f>+VLOOKUP($C11,'R2'!$C$3:$H$22,6,)</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="109">
+        <f>+VLOOKUP($C11,'R3'!$C$3:$H$22,6,)</f>
+        <v>4</v>
+      </c>
+      <c r="G11" s="109">
+        <f>+VLOOKUP($C11,'R4'!$C$3:$H$22,6,)</f>
+        <v>12</v>
+      </c>
+      <c r="H11" s="109">
+        <f>+VLOOKUP($C11,'R5'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="109">
+        <f>+VLOOKUP($C11,'R6'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="298">
+        <f>+VLOOKUP($C11,'R7'!$C$3:$H$22,6,)</f>
+        <v>13</v>
+      </c>
+      <c r="K11" s="109">
+        <f>+VLOOKUP($C11,'R8'!$C$3:$H$22,6,)</f>
         <v>8</v>
       </c>
-      <c r="E11" s="105">
-        <f>+VLOOKUP($C11,'R2'!$C$3:$H$22,6,)</f>
-        <v>8</v>
-      </c>
-      <c r="F11" s="105">
-        <f>+VLOOKUP($C11,'R3'!$C$3:$H$22,6,)</f>
-        <v>6</v>
-      </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105">
-        <f>+VLOOKUP($C11,'R6'!$C$3:$H$22,6,)</f>
-        <v>10</v>
-      </c>
-      <c r="J11" s="105">
-        <f>+VLOOKUP($C11,'R7'!$C$3:$H$22,6,)</f>
-        <v>1</v>
-      </c>
-      <c r="K11" s="105">
-        <f>+VLOOKUP($C11,'R8'!$C$3:$H$22,6,)</f>
-        <v>1</v>
-      </c>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31">
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="R11" s="236">
+        <v>41</v>
+      </c>
+      <c r="R11" s="240">
         <f t="shared" si="1"/>
-        <v>31.2</v>
+        <v>46.857142857142854</v>
       </c>
       <c r="T11" s="45" t="s">
         <v>35</v>
@@ -8268,174 +8337,168 @@
       </c>
     </row>
     <row r="12" spans="2:24" ht="17" customHeight="1" thickBot="1">
-      <c r="B12" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="53" t="s">
+      <c r="B12" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="109">
+      <c r="D12" s="101">
         <f>+VLOOKUP($C12,'R1'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
+      <c r="E12" s="225">
+        <f>+VLOOKUP($C12,'R2'!$C$3:$H$22,6,)</f>
+        <v>3</v>
+      </c>
+      <c r="F12" s="101">
+        <f>+VLOOKUP($C12,'R3'!$C$3:$H$22,6,)</f>
+        <v>2</v>
+      </c>
+      <c r="G12" s="101">
+        <f>+VLOOKUP($C12,'R4'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="101">
+        <f>+VLOOKUP($C12,'R5'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="101">
+        <f>+VLOOKUP($C12,'R6'!$C$3:$H$22,6,)</f>
+        <v>8</v>
+      </c>
+      <c r="J12" s="101">
+        <f>+VLOOKUP($C12,'R7'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="101">
+        <f>+VLOOKUP($C12,'R8'!$C$3:$H$22,6,)</f>
+        <v>18</v>
+      </c>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="R12" s="235">
+        <f t="shared" si="1"/>
+        <v>35.428571428571431</v>
+      </c>
+      <c r="T12" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="281">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="17" customHeight="1">
+      <c r="B13" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="105">
+        <f>+VLOOKUP($C13,'R1'!$C$3:$H$22,6,)</f>
+        <v>8</v>
+      </c>
+      <c r="E13" s="105">
+        <f>+VLOOKUP($C13,'R2'!$C$3:$H$22,6,)</f>
+        <v>8</v>
+      </c>
+      <c r="F13" s="105">
+        <f>+VLOOKUP($C13,'R3'!$C$3:$H$22,6,)</f>
+        <v>6</v>
+      </c>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105">
+        <f>+VLOOKUP($C13,'R6'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
+      <c r="J13" s="105">
+        <f>+VLOOKUP($C13,'R7'!$C$3:$H$22,6,)</f>
+        <v>1</v>
+      </c>
+      <c r="K13" s="105">
+        <f>+VLOOKUP($C13,'R8'!$C$3:$H$22,6,)</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="105"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="R13" s="236">
+        <f t="shared" si="1"/>
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="17" customHeight="1" thickBot="1">
+      <c r="B14" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="109">
+        <f>+VLOOKUP($C14,'R1'!$C$3:$H$22,6,)</f>
         <v>4</v>
       </c>
-      <c r="E12" s="109">
-        <f>+VLOOKUP($C12,'R2'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="109">
-        <f>+VLOOKUP($C12,'R3'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="109">
-        <f>+VLOOKUP($C12,'R4'!$C$3:$H$22,6,)</f>
+      <c r="E14" s="109">
+        <f>+VLOOKUP($C14,'R2'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="109">
+        <f>+VLOOKUP($C14,'R3'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="109">
+        <f>+VLOOKUP($C14,'R4'!$C$3:$H$22,6,)</f>
         <v>8</v>
       </c>
-      <c r="H12" s="109">
-        <f>+VLOOKUP($C12,'R5'!$C$3:$H$22,6,)</f>
+      <c r="H14" s="109">
+        <f>+VLOOKUP($C14,'R5'!$C$3:$H$22,6,)</f>
         <v>4</v>
       </c>
-      <c r="I12" s="109">
-        <f>+VLOOKUP($C12,'R6'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="109">
-        <f>+VLOOKUP($C12,'R7'!$C$3:$H$22,6,)</f>
+      <c r="I14" s="109">
+        <f>+VLOOKUP($C14,'R6'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="109">
+        <f>+VLOOKUP($C14,'R7'!$C$3:$H$22,6,)</f>
         <v>10</v>
       </c>
-      <c r="K12" s="109">
-        <f>+VLOOKUP($C12,'R8'!$C$3:$H$22,6,)</f>
+      <c r="K14" s="109">
+        <f>+VLOOKUP($C14,'R8'!$C$3:$H$22,6,)</f>
         <v>4</v>
       </c>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32">
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="R12" s="240">
+      <c r="R14" s="240">
         <f t="shared" si="1"/>
         <v>29.714285714285715</v>
       </c>
-      <c r="T12" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="U12" s="281">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" ht="17" customHeight="1">
-      <c r="B13" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="101">
-        <f>+VLOOKUP($C13,'R1'!$C$3:$H$22,6,)</f>
-        <v>10</v>
-      </c>
-      <c r="E13" s="225">
-        <f>+VLOOKUP($C13,'R2'!$C$3:$H$22,6,)</f>
-        <v>3</v>
-      </c>
-      <c r="F13" s="101">
-        <f>+VLOOKUP($C13,'R3'!$C$3:$H$22,6,)</f>
-        <v>2</v>
-      </c>
-      <c r="G13" s="101">
-        <f>+VLOOKUP($C13,'R4'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="101">
-        <f>+VLOOKUP($C13,'R5'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="101">
-        <f>+VLOOKUP($C13,'R6'!$C$3:$H$22,6,)</f>
-        <v>8</v>
-      </c>
-      <c r="J13" s="101">
-        <f>+VLOOKUP($C13,'R7'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="101">
-        <f>+VLOOKUP($C13,'R8'!$C$3:$H$22,6,)</f>
-        <v>18</v>
-      </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="R13" s="235">
-        <f t="shared" si="1"/>
-        <v>35.428571428571431</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" ht="17" customHeight="1" thickBot="1">
-      <c r="B14" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="111">
-        <f>+VLOOKUP($C14,'R1'!$C$3:$H$22,6,)</f>
-        <v>6</v>
-      </c>
-      <c r="E14" s="111">
-        <f>+VLOOKUP($C14,'R2'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="111">
-        <f>+VLOOKUP($C14,'R3'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="111">
-        <f>+VLOOKUP($C14,'R4'!$C$3:$H$22,6,)</f>
-        <v>6</v>
-      </c>
-      <c r="H14" s="111">
-        <f>+VLOOKUP($C14,'R5'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="111">
-        <f>+VLOOKUP($C14,'R6'!$C$3:$H$22,6,)</f>
-        <v>2</v>
-      </c>
-      <c r="J14" s="111">
-        <f>+VLOOKUP($C14,'R7'!$C$3:$H$22,6,)</f>
-        <v>4</v>
-      </c>
-      <c r="K14" s="111">
-        <f>+VLOOKUP($C14,'R8'!$C$3:$H$22,6,)</f>
-        <v>25</v>
-      </c>
-      <c r="L14" s="111"/>
-      <c r="M14" s="111"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="R14" s="238">
-        <f t="shared" si="1"/>
-        <v>42.285714285714285</v>
-      </c>
     </row>
     <row r="15" spans="2:24" ht="17" customHeight="1" thickBot="1">
       <c r="B15" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="49" t="s">
         <v>40</v>
@@ -8485,19 +8548,19 @@
         <f t="shared" si="1"/>
         <v>17.142857142857142</v>
       </c>
-      <c r="T15" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="309" t="s">
+      <c r="T15" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="V15" s="309" t="s">
+      <c r="V15" s="312" t="s">
         <v>5</v>
       </c>
-      <c r="W15" s="309" t="s">
+      <c r="W15" s="312" t="s">
         <v>6</v>
       </c>
-      <c r="X15" s="309" t="s">
+      <c r="X15" s="312" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8947,13 +9010,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -8965,19 +9028,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="311" t="s">
+      <c r="I2" s="310" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="309" t="s">
+      <c r="J2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="309" t="s">
+      <c r="K2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9019,7 +9082,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>18</v>
@@ -9052,7 +9115,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>25</v>
@@ -9085,7 +9148,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>25</v>
@@ -9121,7 +9184,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="141">
         <v>27.443000000000001</v>
@@ -9151,10 +9214,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="141">
         <v>27.388999999999999</v>
@@ -9184,10 +9247,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="132">
         <v>27.262</v>
@@ -9217,7 +9280,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>23</v>
@@ -9250,7 +9313,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>23</v>
@@ -9283,7 +9346,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C12" s="77" t="s">
         <v>31</v>
@@ -9318,10 +9381,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="144">
         <v>27.606999999999999</v>
@@ -9384,10 +9447,10 @@
         <v>23</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" s="132">
         <v>27.585999999999999</v>
@@ -9417,10 +9480,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="144">
         <v>27.648</v>
@@ -9670,31 +9733,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="309" t="s">
+      <c r="D2" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="312" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="309" t="s">
+      <c r="F2" s="312" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="312" t="s">
+      <c r="I2" s="311" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9735,10 +9798,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="60" t="s">
         <v>307</v>
@@ -9762,7 +9825,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="48" t="s">
         <v>18</v>
@@ -9789,7 +9852,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>25</v>
@@ -9816,10 +9879,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="60" t="s">
         <v>310</v>
@@ -9846,7 +9909,7 @@
         <v>40</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="63" t="s">
         <v>311</v>
@@ -9870,7 +9933,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>25</v>
@@ -9897,10 +9960,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="64" t="s">
         <v>313</v>
@@ -9924,7 +9987,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>23</v>
@@ -9980,10 +10043,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D13" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>317</v>
@@ -10034,7 +10097,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>23</v>
@@ -10061,10 +10124,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="64" t="s">
         <v>320</v>
@@ -10227,7 +10290,7 @@
         <v>195</v>
       </c>
       <c r="C22" s="212" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D22" s="212" t="s">
         <v>31</v>
@@ -10275,13 +10338,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -10293,19 +10356,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="311" t="s">
+      <c r="I2" s="310" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="309" t="s">
+      <c r="J2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="309" t="s">
+      <c r="K2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10347,7 +10410,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>18</v>
@@ -10380,10 +10443,10 @@
         <v>33</v>
       </c>
       <c r="B5" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="132">
         <v>27.321000000000002</v>
@@ -10413,10 +10476,10 @@
         <v>16</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" s="141">
         <v>27.41</v>
@@ -10446,7 +10509,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>23</v>
@@ -10479,7 +10542,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>25</v>
@@ -10512,7 +10575,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>23</v>
@@ -10545,10 +10608,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="144">
         <v>27.597000000000001</v>
@@ -10578,10 +10641,10 @@
         <v>31</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="144">
         <v>27.643999999999998</v>
@@ -10614,7 +10677,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="141">
         <v>27.474</v>
@@ -10644,7 +10707,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C13" s="77" t="s">
         <v>31</v>
@@ -10677,10 +10740,10 @@
         <v>23</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="132">
         <v>27.718</v>
@@ -10999,31 +11062,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="309" t="s">
+      <c r="D2" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="312" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="309" t="s">
+      <c r="F2" s="312" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="312" t="s">
+      <c r="I2" s="311" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11064,10 +11127,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="60" t="s">
         <v>376</v>
@@ -11093,10 +11156,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>377</v>
@@ -11120,10 +11183,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="64" t="s">
         <v>378</v>
@@ -11147,7 +11210,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>23</v>
@@ -11174,10 +11237,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="64" t="s">
         <v>380</v>
@@ -11201,7 +11264,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" s="77" t="s">
         <v>31</v>
@@ -11228,10 +11291,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="60" t="s">
         <v>382</v>
@@ -11257,7 +11320,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>25</v>
@@ -11287,7 +11350,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>385</v>
@@ -11311,7 +11374,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13" s="48" t="s">
         <v>18</v>
@@ -11367,7 +11430,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>23</v>
@@ -11612,13 +11675,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -11630,19 +11693,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="311" t="s">
+      <c r="I2" s="310" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="309" t="s">
+      <c r="J2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="309" t="s">
+      <c r="K2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11651,7 +11714,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>18</v>
@@ -11750,10 +11813,10 @@
         <v>33</v>
       </c>
       <c r="B6" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="132">
         <v>27.44</v>
@@ -11783,10 +11846,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="144">
         <v>27.515000000000001</v>
@@ -11816,7 +11879,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>25</v>
@@ -11849,7 +11912,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" s="77" t="s">
         <v>31</v>
@@ -11882,10 +11945,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" s="141">
         <v>27.486999999999998</v>
@@ -11915,10 +11978,10 @@
         <v>23</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="132">
         <v>27.693999999999999</v>
@@ -11948,7 +12011,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>23</v>
@@ -11981,10 +12044,10 @@
         <v>31</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="144">
         <v>27.919</v>
@@ -12019,7 +12082,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="141">
         <v>27.728000000000002</v>
@@ -12049,7 +12112,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>23</v>
@@ -12334,31 +12397,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:10" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="309" t="s">
+      <c r="D2" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="312" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="309" t="s">
+      <c r="F2" s="312" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="312" t="s">
+      <c r="I2" s="311" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12370,10 +12433,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="270" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="270" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="270" t="s">
-        <v>20</v>
       </c>
       <c r="E3" s="271" t="s">
         <v>447</v>
@@ -12427,7 +12490,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="48" t="s">
         <v>18</v>
@@ -12454,10 +12517,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" s="63" t="s">
         <v>450</v>
@@ -12481,10 +12544,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="60" t="s">
         <v>451</v>
@@ -12508,7 +12571,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>25</v>
@@ -12562,10 +12625,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="64" t="s">
         <v>454</v>
@@ -12589,7 +12652,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>23</v>
@@ -12643,7 +12706,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D13" s="77" t="s">
         <v>31</v>
@@ -12673,7 +12736,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>458</v>
@@ -12697,7 +12760,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>23</v>
@@ -12724,10 +12787,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="64" t="s">
         <v>460</v>
@@ -12933,13 +12996,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -12951,19 +13014,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="311" t="s">
+      <c r="I2" s="310" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="309" t="s">
+      <c r="J2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="309" t="s">
+      <c r="K2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13005,7 +13068,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>18</v>
@@ -13038,10 +13101,10 @@
         <v>33</v>
       </c>
       <c r="B5" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="132">
         <v>21.565000000000001</v>
@@ -13071,7 +13134,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>25</v>
@@ -13104,7 +13167,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>25</v>
@@ -13137,10 +13200,10 @@
         <v>23</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="132">
         <v>21.675000000000001</v>
@@ -13170,7 +13233,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>23</v>
@@ -13203,7 +13266,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>23</v>
@@ -13236,10 +13299,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="141">
         <v>21.777999999999999</v>
@@ -13269,7 +13332,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C12" s="77" t="s">
         <v>31</v>
@@ -13305,7 +13368,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="141">
         <v>21.646000000000001</v>
@@ -13368,10 +13431,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="144">
         <v>21.696999999999999</v>
@@ -13434,10 +13497,10 @@
         <v>31</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="144">
         <v>21.852</v>
@@ -13653,31 +13716,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="309" t="s">
+      <c r="D2" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="312" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="309" t="s">
+      <c r="F2" s="312" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="312" t="s">
+      <c r="I2" s="311" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13716,10 +13779,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="60" t="s">
         <v>513</v>
@@ -13743,7 +13806,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="48" t="s">
         <v>18</v>
@@ -13770,7 +13833,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>25</v>
@@ -13799,7 +13862,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>25</v>
@@ -13826,7 +13889,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>23</v>
@@ -13856,7 +13919,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="63" t="s">
         <v>519</v>
@@ -13880,10 +13943,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="60" t="s">
         <v>520</v>
@@ -13907,7 +13970,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D11" s="77" t="s">
         <v>31</v>
@@ -13934,7 +13997,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="51" t="s">
         <v>23</v>
@@ -13961,10 +14024,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="64" t="s">
         <v>523</v>
@@ -14017,10 +14080,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D15" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" s="64" t="s">
         <v>525</v>
@@ -14206,10 +14269,10 @@
         <v>195</v>
       </c>
       <c r="C22" s="170" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D22" s="170" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="171" t="s">
         <v>532</v>
@@ -14253,13 +14316,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -14271,19 +14334,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="311" t="s">
+      <c r="I2" s="310" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="309" t="s">
+      <c r="J2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="309" t="s">
+      <c r="K2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -14325,7 +14388,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>18</v>
@@ -14358,10 +14421,10 @@
         <v>33</v>
       </c>
       <c r="B5" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="132">
         <v>30.419</v>
@@ -14391,10 +14454,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="144">
         <v>30.251999999999999</v>
@@ -14424,10 +14487,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="132">
         <v>30.312999999999999</v>
@@ -14457,10 +14520,10 @@
         <v>31</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="144">
         <v>30.161999999999999</v>
@@ -14490,7 +14553,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>23</v>
@@ -14523,7 +14586,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="52" t="s">
         <v>25</v>
@@ -14556,7 +14619,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>25</v>
@@ -14589,7 +14652,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="51" t="s">
         <v>23</v>
@@ -14655,7 +14718,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>31</v>
@@ -14688,10 +14751,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="141">
         <v>30.45</v>
@@ -14724,7 +14787,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16" s="141">
         <v>30.533000000000001</v>
@@ -14974,31 +15037,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="309" t="s">
+      <c r="D2" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="312" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="309" t="s">
+      <c r="F2" s="312" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="312" t="s">
+      <c r="I2" s="311" t="s">
         <v>127</v>
       </c>
     </row>
@@ -15037,7 +15100,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="48" t="s">
         <v>18</v>
@@ -15064,10 +15127,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="60" t="s">
         <v>579</v>
@@ -15091,10 +15154,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="64" t="s">
         <v>580</v>
@@ -15118,10 +15181,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" s="64" t="s">
         <v>581</v>
@@ -15145,10 +15208,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="60" t="s">
         <v>582</v>
@@ -15172,7 +15235,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="51" t="s">
         <v>23</v>
@@ -15199,7 +15262,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" s="77" t="s">
         <v>31</v>
@@ -15226,7 +15289,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>25</v>
@@ -15253,7 +15316,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>25</v>
@@ -15337,7 +15400,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="63" t="s">
         <v>589</v>
@@ -15361,10 +15424,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="63" t="s">
         <v>590</v>
@@ -15527,7 +15590,7 @@
         <v>400</v>
       </c>
       <c r="C22" s="288" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="288" t="s">
         <v>23</v>
@@ -15566,9 +15629,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="4" max="8" width="10.83203125" style="287" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="287" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="287" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" style="287" customWidth="1"/>
     <col min="12" max="12" width="11" style="287" customWidth="1"/>
     <col min="13" max="16" width="13" style="287" hidden="1" customWidth="1"/>
     <col min="17" max="18" width="10.83203125" style="287" customWidth="1"/>
@@ -15580,130 +15641,130 @@
   <sheetData>
     <row r="1" spans="2:37" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:37" ht="17" customHeight="1" thickBot="1">
-      <c r="B2" s="313" t="s">
+      <c r="B2" s="321" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="314"/>
-      <c r="N2" s="314"/>
-      <c r="O2" s="314"/>
-      <c r="P2" s="314"/>
-      <c r="Q2" s="314"/>
-      <c r="R2" s="315"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="322"/>
+      <c r="F2" s="322"/>
+      <c r="G2" s="322"/>
+      <c r="H2" s="322"/>
+      <c r="I2" s="322"/>
+      <c r="J2" s="322"/>
+      <c r="K2" s="322"/>
+      <c r="L2" s="322"/>
+      <c r="M2" s="322"/>
+      <c r="N2" s="322"/>
+      <c r="O2" s="322"/>
+      <c r="P2" s="322"/>
+      <c r="Q2" s="322"/>
+      <c r="R2" s="323"/>
     </row>
     <row r="3" spans="2:37" ht="17" customHeight="1" thickBot="1">
       <c r="B3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="309" t="s">
+      <c r="C3" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="312" t="s">
+      <c r="D3" s="311" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="312" t="s">
+      <c r="E3" s="311" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="312" t="s">
+      <c r="F3" s="311" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="312" t="s">
+      <c r="G3" s="311" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="312" t="s">
+      <c r="H3" s="311" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="312" t="s">
+      <c r="I3" s="311" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="312" t="s">
+      <c r="J3" s="311" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="312" t="s">
+      <c r="K3" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="312" t="s">
+      <c r="L3" s="311" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="312" t="s">
+      <c r="M3" s="311" t="s">
         <v>60</v>
       </c>
-      <c r="N3" s="312" t="s">
+      <c r="N3" s="311" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="312" t="s">
+      <c r="O3" s="311" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="312" t="s">
+      <c r="P3" s="311" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="312" t="s">
+      <c r="Q3" s="311" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="312" t="s">
+      <c r="T3" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="311" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="312" t="s">
+      <c r="V3" s="311" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="312" t="s">
+      <c r="W3" s="311" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="312" t="s">
+      <c r="X3" s="311" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="312" t="s">
+      <c r="Y3" s="311" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="312" t="s">
+      <c r="Z3" s="311" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="312" t="s">
+      <c r="AA3" s="311" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="312" t="s">
+      <c r="AB3" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="312" t="s">
+      <c r="AC3" s="311" t="s">
         <v>59</v>
       </c>
-      <c r="AD3" s="312" t="s">
+      <c r="AD3" s="311" t="s">
         <v>60</v>
       </c>
-      <c r="AE3" s="312" t="s">
+      <c r="AE3" s="311" t="s">
         <v>61</v>
       </c>
-      <c r="AF3" s="312" t="s">
+      <c r="AF3" s="311" t="s">
         <v>62</v>
       </c>
-      <c r="AG3" s="312" t="s">
+      <c r="AG3" s="311" t="s">
         <v>63</v>
       </c>
-      <c r="AH3" s="312" t="s">
+      <c r="AH3" s="311" t="s">
         <v>15</v>
       </c>
-      <c r="AI3" s="312" t="s">
+      <c r="AI3" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="312" t="s">
+      <c r="AJ3" s="311" t="s">
         <v>64</v>
       </c>
-      <c r="AK3" s="312" t="s">
+      <c r="AK3" s="311" t="s">
         <v>65</v>
       </c>
     </row>
@@ -15711,52 +15772,52 @@
       <c r="B4" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="316" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="320">
+      <c r="C4" s="313" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="317">
         <f>+VLOOKUP($C4,'R1'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q1'!$B$3:$J$22,9,)</f>
         <v>24</v>
       </c>
-      <c r="E4" s="320">
+      <c r="E4" s="317">
         <f>+VLOOKUP($C4,'R2'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q2'!$B$3:$J$22,9,)</f>
         <v>-1</v>
       </c>
-      <c r="F4" s="320">
+      <c r="F4" s="317">
         <f>+VLOOKUP($C4,'R3'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q3'!$B$3:$J$22,9,)</f>
         <v>-9</v>
       </c>
-      <c r="G4" s="320">
+      <c r="G4" s="317">
         <f>+VLOOKUP($C4,'R4'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q4'!$B$3:$J$22,9,)</f>
         <v>22</v>
       </c>
-      <c r="H4" s="320">
+      <c r="H4" s="317">
         <f>+VLOOKUP($C4,'R5'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q5'!$B$3:$J$22,9,)</f>
         <v>2</v>
       </c>
-      <c r="I4" s="320">
+      <c r="I4" s="317">
         <f>+VLOOKUP($C4,'R6'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q6'!$B$3:$J$22,9,)</f>
         <v>14</v>
       </c>
-      <c r="J4" s="320">
+      <c r="J4" s="317">
         <f>+VLOOKUP($C4,'R7'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q7'!$B$3:$J$22,9,)</f>
         <v>18</v>
       </c>
-      <c r="K4" s="320">
+      <c r="K4" s="317">
         <f>+VLOOKUP($C4,'R8'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q8'!$B$3:$J$22,9,)</f>
         <v>45</v>
       </c>
-      <c r="L4" s="320"/>
-      <c r="M4" s="320"/>
-      <c r="N4" s="320"/>
-      <c r="O4" s="320"/>
-      <c r="P4" s="320"/>
-      <c r="Q4" s="320">
-        <f>SUM(D4:M4)</f>
+      <c r="L4" s="317"/>
+      <c r="M4" s="317"/>
+      <c r="N4" s="317"/>
+      <c r="O4" s="317"/>
+      <c r="P4" s="317"/>
+      <c r="Q4" s="317">
+        <f t="shared" ref="Q4:Q23" si="0">SUM(D4:M4)</f>
         <v>115</v>
       </c>
-      <c r="R4" s="322">
-        <f>SUM(E4:P4)+AVERAGE(E4:P4)</f>
+      <c r="R4" s="319">
+        <f t="shared" ref="R4:R23" si="1">SUM(E4:P4)+AVERAGE(E4:P4)</f>
         <v>104</v>
       </c>
       <c r="T4" s="38" t="s">
@@ -15790,19 +15851,19 @@
       <c r="AF4" s="98"/>
       <c r="AG4" s="98"/>
       <c r="AH4" s="99">
-        <f t="shared" ref="AH4:AH13" si="0">SUM(U4:AD4)</f>
+        <f t="shared" ref="AH4:AH13" si="2">SUM(U4:AD4)</f>
         <v>466</v>
       </c>
       <c r="AI4" s="244">
-        <f t="shared" ref="AI4:AI13" si="1">SUM(V4:AG4)+AVERAGE(V4:AG4)</f>
+        <f t="shared" ref="AI4:AI13" si="3">SUM(V4:AG4)+AVERAGE(V4:AG4)</f>
         <v>466.66666666666669</v>
       </c>
       <c r="AJ4" s="215">
-        <f t="shared" ref="AJ4:AJ13" si="2">AH4/COUNT(U4:AG4)</f>
+        <f t="shared" ref="AJ4:AJ13" si="4">AH4/COUNT(U4:AG4)</f>
         <v>66.571428571428569</v>
       </c>
       <c r="AK4" s="215">
-        <f t="shared" ref="AK4:AK13" si="3">AI4/COUNT(U4:AG4)</f>
+        <f t="shared" ref="AK4:AK13" si="5">AI4/COUNT(U4:AG4)</f>
         <v>66.666666666666671</v>
       </c>
     </row>
@@ -15811,7 +15872,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="31">
         <f>+VLOOKUP($C5,'R1'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q1'!$B$3:$J$22,9,)</f>
@@ -15851,15 +15912,15 @@
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
       <c r="Q5" s="31">
-        <f>SUM(D5:M5)</f>
+        <f t="shared" si="0"/>
         <v>156</v>
       </c>
       <c r="R5" s="236">
-        <f>SUM(E5:P5)+AVERAGE(E5:P5)</f>
+        <f t="shared" si="1"/>
         <v>189.71428571428572</v>
       </c>
       <c r="T5" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U5" s="102">
         <v>11</v>
@@ -15889,19 +15950,19 @@
       <c r="AF5" s="102"/>
       <c r="AG5" s="102"/>
       <c r="AH5" s="103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>342</v>
       </c>
       <c r="AI5" s="245">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>386.16666666666669</v>
       </c>
       <c r="AJ5" s="217">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48.857142857142854</v>
       </c>
       <c r="AK5" s="217">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>55.166666666666671</v>
       </c>
     </row>
@@ -15910,7 +15971,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6" s="30">
         <f>+VLOOKUP($C6,'R1'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q1'!$B$3:$J$22,9,)</f>
@@ -15950,11 +16011,11 @@
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30">
-        <f>SUM(D6:M6)</f>
+        <f t="shared" si="0"/>
         <v>96</v>
       </c>
       <c r="R6" s="235">
-        <f>SUM(E6:P6)+AVERAGE(E6:P6)</f>
+        <f t="shared" si="1"/>
         <v>83.428571428571431</v>
       </c>
       <c r="T6" s="41" t="s">
@@ -15988,19 +16049,19 @@
       <c r="AF6" s="104"/>
       <c r="AG6" s="104"/>
       <c r="AH6" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>198</v>
       </c>
       <c r="AI6" s="246">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>205.33333333333334</v>
       </c>
       <c r="AJ6" s="218">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28.285714285714285</v>
       </c>
       <c r="AK6" s="218">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>29.333333333333336</v>
       </c>
     </row>
@@ -16009,7 +16070,7 @@
         <v>23</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="30">
         <f>+VLOOKUP($C7,'R1'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q1'!$B$3:$J$22,9,)</f>
@@ -16049,11 +16110,11 @@
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30">
-        <f>SUM(D7:M7)</f>
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
       <c r="R7" s="235">
-        <f>SUM(E7:P7)+AVERAGE(E7:P7)</f>
+        <f t="shared" si="1"/>
         <v>150.85714285714286</v>
       </c>
       <c r="T7" s="39" t="s">
@@ -16087,28 +16148,28 @@
       <c r="AF7" s="100"/>
       <c r="AG7" s="100"/>
       <c r="AH7" s="101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="AI7" s="247">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>163.33333333333334</v>
       </c>
       <c r="AJ7" s="216">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="AK7" s="216">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23.333333333333336</v>
       </c>
     </row>
     <row r="8" spans="2:37">
       <c r="B8" s="89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="32">
         <f>+VLOOKUP($C8,'R1'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q1'!$B$3:$J$22,9,)</f>
@@ -16148,15 +16209,15 @@
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="32">
-        <f>SUM(D8:M8)</f>
+        <f t="shared" si="0"/>
         <v>124</v>
       </c>
       <c r="R8" s="240">
-        <f>SUM(E8:P8)+AVERAGE(E8:P8)</f>
+        <f t="shared" si="1"/>
         <v>152</v>
       </c>
       <c r="T8" s="40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="U8" s="106">
         <v>42</v>
@@ -16186,19 +16247,19 @@
       <c r="AF8" s="106"/>
       <c r="AG8" s="106"/>
       <c r="AH8" s="107">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="AI8" s="249">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>131.83333333333334</v>
       </c>
       <c r="AJ8" s="219">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22.142857142857142</v>
       </c>
       <c r="AK8" s="219">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18.833333333333336</v>
       </c>
     </row>
@@ -16207,7 +16268,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="27">
         <f>+VLOOKUP($C9,'R1'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q1'!$B$3:$J$22,9,)</f>
@@ -16247,15 +16308,15 @@
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27">
-        <f>SUM(D9:M9)</f>
+        <f t="shared" si="0"/>
         <v>220</v>
       </c>
       <c r="R9" s="233">
-        <f>SUM(E9:P9)+AVERAGE(E9:P9)</f>
+        <f t="shared" si="1"/>
         <v>201.14285714285714</v>
       </c>
       <c r="T9" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U9" s="108">
         <v>21</v>
@@ -16285,19 +16346,19 @@
       <c r="AF9" s="108"/>
       <c r="AG9" s="108"/>
       <c r="AH9" s="109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="AI9" s="248">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>183.16666666666666</v>
       </c>
       <c r="AJ9" s="220">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25.428571428571427</v>
       </c>
       <c r="AK9" s="220">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.166666666666664</v>
       </c>
     </row>
@@ -16346,11 +16407,11 @@
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="27">
-        <f>SUM(D10:M10)</f>
+        <f t="shared" si="0"/>
         <v>323</v>
       </c>
       <c r="R10" s="233">
-        <f>SUM(E10:P10)+AVERAGE(E10:P10)</f>
+        <f t="shared" si="1"/>
         <v>338.28571428571428</v>
       </c>
       <c r="T10" s="43" t="s">
@@ -16384,28 +16445,28 @@
       <c r="AF10" s="112"/>
       <c r="AG10" s="112"/>
       <c r="AH10" s="113">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="AI10" s="177">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>103.83333333333333</v>
       </c>
       <c r="AJ10" s="222">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.857142857142858</v>
       </c>
       <c r="AK10" s="222">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14.833333333333332</v>
       </c>
     </row>
     <row r="11" spans="2:37">
       <c r="B11" s="89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D11" s="32">
         <f>+VLOOKUP($C11,'R1'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q1'!$B$3:$J$22,9,)</f>
@@ -16445,11 +16506,11 @@
       <c r="O11" s="32"/>
       <c r="P11" s="32"/>
       <c r="Q11" s="32">
-        <f>SUM(D11:M11)</f>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="R11" s="240">
-        <f>SUM(E11:P11)+AVERAGE(E11:P11)</f>
+        <f t="shared" si="1"/>
         <v>92.571428571428569</v>
       </c>
       <c r="T11" s="81" t="s">
@@ -16483,19 +16544,19 @@
       <c r="AF11" s="110"/>
       <c r="AG11" s="110"/>
       <c r="AH11" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="AI11" s="175">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>99.166666666666671</v>
       </c>
       <c r="AJ11" s="221">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.571428571428571</v>
       </c>
       <c r="AK11" s="221">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14.166666666666668</v>
       </c>
     </row>
@@ -16544,11 +16605,11 @@
       <c r="O12" s="35"/>
       <c r="P12" s="35"/>
       <c r="Q12" s="35">
-        <f>SUM(D12:M12)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="R12" s="242">
-        <f>SUM(E12:P12)+AVERAGE(E12:P12)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="T12" s="45" t="s">
@@ -16582,19 +16643,19 @@
       <c r="AF12" s="114"/>
       <c r="AG12" s="114"/>
       <c r="AH12" s="115">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="AI12" s="176">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>74.666666666666671</v>
       </c>
       <c r="AJ12" s="223">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.5714285714285712</v>
       </c>
       <c r="AK12" s="223">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.666666666666668</v>
       </c>
     </row>
@@ -16643,11 +16704,11 @@
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
       <c r="Q13" s="35">
-        <f>SUM(D13:M13)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="R13" s="242">
-        <f>SUM(E13:P13)+AVERAGE(E13:P13)</f>
+        <f t="shared" si="1"/>
         <v>46.857142857142854</v>
       </c>
       <c r="T13" s="46" t="s">
@@ -16681,19 +16742,19 @@
       <c r="AF13" s="116"/>
       <c r="AG13" s="116"/>
       <c r="AH13" s="117">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="AI13" s="250">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45.5</v>
       </c>
       <c r="AJ13" s="224">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.4285714285714288</v>
       </c>
       <c r="AK13" s="224">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
     </row>
@@ -16742,11 +16803,11 @@
       <c r="O14" s="34"/>
       <c r="P14" s="34"/>
       <c r="Q14" s="34">
-        <f>SUM(D14:M14)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="R14" s="241">
-        <f>SUM(E14:P14)+AVERAGE(E14:P14)</f>
+        <f t="shared" si="1"/>
         <v>61.714285714285715</v>
       </c>
     </row>
@@ -16795,11 +16856,11 @@
       <c r="O15" s="33"/>
       <c r="P15" s="33"/>
       <c r="Q15" s="33">
-        <f>SUM(D15:M15)</f>
+        <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="R15" s="237">
-        <f>SUM(E15:P15)+AVERAGE(E15:P15)</f>
+        <f t="shared" si="1"/>
         <v>92.571428571428569</v>
       </c>
       <c r="Y15" s="262" t="s">
@@ -16863,11 +16924,11 @@
       <c r="O16" s="82"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="82">
-        <f>SUM(D16:M16)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="R16" s="238">
-        <f>SUM(E16:P16)+AVERAGE(E16:P16)</f>
+        <f t="shared" si="1"/>
         <v>54.857142857142854</v>
       </c>
       <c r="Y16" s="264" t="s">
@@ -16931,11 +16992,11 @@
       <c r="O17" s="33"/>
       <c r="P17" s="33"/>
       <c r="Q17" s="33">
-        <f>SUM(D17:M17)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="R17" s="237">
-        <f>SUM(E17:P17)+AVERAGE(E17:P17)</f>
+        <f t="shared" si="1"/>
         <v>44.571428571428569</v>
       </c>
     </row>
@@ -16944,7 +17005,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D18" s="31">
         <f>+VLOOKUP($C18,'R1'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q1'!$B$3:$J$22,9,)</f>
@@ -16978,20 +17039,20 @@
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="31">
-        <f>SUM(D18:M18)</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="R18" s="236">
-        <f>SUM(E18:P18)+AVERAGE(E18:P18)</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D19" s="29">
         <f>+VLOOKUP($C19,'R1'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q1'!$B$3:$J$22,9,)</f>
@@ -17031,20 +17092,20 @@
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="29">
-        <f>SUM(D19:M19)</f>
+        <f t="shared" si="0"/>
         <v>133</v>
       </c>
       <c r="R19" s="234">
-        <f>SUM(E19:P19)+AVERAGE(E19:P19)</f>
+        <f t="shared" si="1"/>
         <v>148.57142857142858</v>
       </c>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="29">
         <f>+VLOOKUP($C20,'R1'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q1'!$B$3:$J$22,9,)</f>
@@ -17084,20 +17145,20 @@
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="29">
-        <f>SUM(D20:M20)</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="R20" s="234">
-        <f>SUM(E20:P20)+AVERAGE(E20:P20)</f>
+        <f t="shared" si="1"/>
         <v>276.57142857142856</v>
       </c>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" s="28">
         <f>+VLOOKUP($C21,'R1'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q1'!$B$3:$J$22,9,)</f>
@@ -17137,11 +17198,11 @@
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
       <c r="Q21" s="28">
-        <f>SUM(D21:M21)</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="R21" s="239">
-        <f>SUM(E21:P21)+AVERAGE(E21:P21)</f>
+        <f t="shared" si="1"/>
         <v>41.142857142857146</v>
       </c>
     </row>
@@ -17190,139 +17251,139 @@
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
       <c r="Q22" s="34">
-        <f>SUM(D22:M22)</f>
+        <f t="shared" si="0"/>
         <v>-2</v>
       </c>
       <c r="R22" s="241">
-        <f>SUM(E22:P22)+AVERAGE(E22:P22)</f>
+        <f t="shared" si="1"/>
         <v>13.714285714285714</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="17" customHeight="1" thickBot="1">
-      <c r="B23" s="319" t="s">
-        <v>27</v>
+      <c r="B23" s="316" t="s">
+        <v>29</v>
       </c>
       <c r="C23" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="321">
+      <c r="D23" s="318">
         <f>+VLOOKUP($C23,'R1'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q1'!$B$3:$J$22,9,)</f>
         <v>6</v>
       </c>
-      <c r="E23" s="321">
+      <c r="E23" s="318">
         <f>+VLOOKUP($C23,'R2'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q2'!$B$3:$J$22,9,)</f>
         <v>-9</v>
       </c>
-      <c r="F23" s="321">
+      <c r="F23" s="318">
         <f>+VLOOKUP($C23,'R3'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q3'!$B$3:$J$22,9,)</f>
         <v>21</v>
       </c>
-      <c r="G23" s="321">
+      <c r="G23" s="318">
         <f>+VLOOKUP($C23,'R4'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q4'!$B$3:$J$22,9,)</f>
         <v>6</v>
       </c>
-      <c r="H23" s="321">
+      <c r="H23" s="318">
         <f>+VLOOKUP($C23,'R5'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q5'!$B$3:$J$22,9,)</f>
         <v>2</v>
       </c>
-      <c r="I23" s="321">
+      <c r="I23" s="318">
         <f>+VLOOKUP($C23,'R6'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q6'!$B$3:$J$22,9,)</f>
         <v>20</v>
       </c>
-      <c r="J23" s="321">
+      <c r="J23" s="318">
         <f>+VLOOKUP($C23,'R7'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q7'!$B$3:$J$22,9,)</f>
         <v>8</v>
       </c>
-      <c r="K23" s="321">
+      <c r="K23" s="318">
         <f>+VLOOKUP($C23,'R8'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q8'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="L23" s="321"/>
-      <c r="M23" s="321"/>
-      <c r="N23" s="321"/>
-      <c r="O23" s="321"/>
-      <c r="P23" s="321"/>
-      <c r="Q23" s="321">
-        <f>SUM(D23:M23)</f>
+      <c r="L23" s="318"/>
+      <c r="M23" s="318"/>
+      <c r="N23" s="318"/>
+      <c r="O23" s="318"/>
+      <c r="P23" s="318"/>
+      <c r="Q23" s="318">
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="R23" s="323">
-        <f>SUM(E23:P23)+AVERAGE(E23:P23)</f>
+      <c r="R23" s="320">
+        <f t="shared" si="1"/>
         <v>38.857142857142854</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="17" customHeight="1" thickBot="1"/>
     <row r="25" spans="2:18" ht="17" customHeight="1" thickBot="1">
-      <c r="B25" s="313" t="s">
+      <c r="B25" s="321" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="314"/>
-      <c r="D25" s="314"/>
-      <c r="E25" s="314"/>
-      <c r="F25" s="314"/>
-      <c r="G25" s="314"/>
-      <c r="H25" s="314"/>
-      <c r="I25" s="314"/>
-      <c r="J25" s="314"/>
-      <c r="K25" s="314"/>
-      <c r="L25" s="314"/>
-      <c r="M25" s="314"/>
-      <c r="N25" s="314"/>
-      <c r="O25" s="314"/>
-      <c r="P25" s="314"/>
-      <c r="Q25" s="314"/>
-      <c r="R25" s="315"/>
+      <c r="C25" s="322"/>
+      <c r="D25" s="322"/>
+      <c r="E25" s="322"/>
+      <c r="F25" s="322"/>
+      <c r="G25" s="322"/>
+      <c r="H25" s="322"/>
+      <c r="I25" s="322"/>
+      <c r="J25" s="322"/>
+      <c r="K25" s="322"/>
+      <c r="L25" s="322"/>
+      <c r="M25" s="322"/>
+      <c r="N25" s="322"/>
+      <c r="O25" s="322"/>
+      <c r="P25" s="322"/>
+      <c r="Q25" s="322"/>
+      <c r="R25" s="323"/>
     </row>
     <row r="26" spans="2:18" ht="17" customHeight="1" thickBot="1">
       <c r="B26" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="309" t="s">
+      <c r="C26" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="312" t="s">
+      <c r="D26" s="311" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="312" t="s">
+      <c r="E26" s="311" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="312" t="s">
+      <c r="F26" s="311" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="312" t="s">
+      <c r="G26" s="311" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="312" t="s">
+      <c r="H26" s="311" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="312" t="s">
+      <c r="I26" s="311" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="312" t="s">
+      <c r="J26" s="311" t="s">
         <v>57</v>
       </c>
-      <c r="K26" s="312" t="s">
+      <c r="K26" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="312" t="s">
+      <c r="L26" s="311" t="s">
         <v>59</v>
       </c>
-      <c r="M26" s="312" t="s">
+      <c r="M26" s="311" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="312" t="s">
+      <c r="N26" s="311" t="s">
         <v>61</v>
       </c>
-      <c r="O26" s="312" t="s">
+      <c r="O26" s="311" t="s">
         <v>62</v>
       </c>
-      <c r="P26" s="312" t="s">
+      <c r="P26" s="311" t="s">
         <v>63</v>
       </c>
-      <c r="Q26" s="312" t="s">
+      <c r="Q26" s="311" t="s">
         <v>15</v>
       </c>
-      <c r="R26" s="312" t="s">
+      <c r="R26" s="311" t="s">
         <v>16</v>
       </c>
     </row>
@@ -17371,11 +17432,11 @@
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="37">
-        <f t="shared" ref="Q27:Q46" si="4">SUM(D27:M27)</f>
+        <f t="shared" ref="Q27:Q46" si="6">SUM(D27:M27)</f>
         <v>119</v>
       </c>
       <c r="R27" s="232">
-        <f t="shared" ref="R27:R46" si="5">SUM(E27:M27)+AVERAGE(E27:M27)</f>
+        <f t="shared" ref="R27:R46" si="7">SUM(E27:M27)+AVERAGE(E27:M27)</f>
         <v>122.28571428571429</v>
       </c>
     </row>
@@ -17384,7 +17445,7 @@
         <v>18</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" s="27">
         <f>+VLOOKUP($C28,'Q1'!$B$3:$J$22,9,)</f>
@@ -17424,20 +17485,20 @@
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="R28" s="233">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>102.85714285714286</v>
       </c>
     </row>
     <row r="29" spans="2:18">
       <c r="B29" s="91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" s="29">
         <f>+VLOOKUP($C29,'Q1'!$B$3:$J$22,9,)</f>
@@ -17477,11 +17538,11 @@
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>103</v>
       </c>
       <c r="R29" s="234">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>102.85714285714286</v>
       </c>
     </row>
@@ -17490,7 +17551,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" s="30">
         <f>+VLOOKUP($C30,'Q1'!$B$3:$J$22,9,)</f>
@@ -17530,11 +17591,11 @@
       <c r="O30" s="30"/>
       <c r="P30" s="30"/>
       <c r="Q30" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="R30" s="235">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
     </row>
@@ -17543,7 +17604,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D31" s="31">
         <f>+VLOOKUP($C31,'Q1'!$B$3:$J$22,9,)</f>
@@ -17583,11 +17644,11 @@
       <c r="O31" s="31"/>
       <c r="P31" s="31"/>
       <c r="Q31" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="R31" s="236">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>68.571428571428569</v>
       </c>
     </row>
@@ -17596,7 +17657,7 @@
         <v>23</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="30">
         <f>+VLOOKUP($C32,'Q1'!$B$3:$J$22,9,)</f>
@@ -17636,20 +17697,20 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="R32" s="235">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>66.285714285714292</v>
       </c>
     </row>
     <row r="33" spans="2:18">
       <c r="B33" s="85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D33" s="28">
         <f>+VLOOKUP($C33,'Q1'!$B$3:$J$22,9,)</f>
@@ -17689,20 +17750,20 @@
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
       <c r="Q33" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="R33" s="239">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>51.428571428571431</v>
       </c>
     </row>
     <row r="34" spans="2:18">
       <c r="B34" s="89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D34" s="32">
         <f>+VLOOKUP($C34,'Q1'!$B$3:$J$22,9,)</f>
@@ -17742,20 +17803,20 @@
       <c r="O34" s="32"/>
       <c r="P34" s="32"/>
       <c r="Q34" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="R34" s="240">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60.571428571428569</v>
       </c>
     </row>
     <row r="35" spans="2:18">
       <c r="B35" s="91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D35" s="29">
         <f>+VLOOKUP($C35,'Q1'!$B$3:$J$22,9,)</f>
@@ -17795,11 +17856,11 @@
       <c r="O35" s="29"/>
       <c r="P35" s="29"/>
       <c r="Q35" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>47</v>
       </c>
       <c r="R35" s="234">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>43.428571428571431</v>
       </c>
     </row>
@@ -17808,7 +17869,7 @@
         <v>25</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D36" s="31">
         <f>+VLOOKUP($C36,'Q1'!$B$3:$J$22,9,)</f>
@@ -17842,11 +17903,11 @@
       <c r="O36" s="31"/>
       <c r="P36" s="31"/>
       <c r="Q36" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="R36" s="236">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>51.6</v>
       </c>
     </row>
@@ -17855,7 +17916,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D37" s="82">
         <f>+VLOOKUP($C37,'Q1'!$B$3:$J$22,9,)</f>
@@ -17895,20 +17956,20 @@
       <c r="O37" s="82"/>
       <c r="P37" s="82"/>
       <c r="Q37" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="R37" s="238">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>46.857142857142854</v>
       </c>
     </row>
     <row r="38" spans="2:18">
       <c r="B38" s="89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D38" s="32">
         <f>+VLOOKUP($C38,'Q1'!$B$3:$J$22,9,)</f>
@@ -17948,17 +18009,17 @@
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="R38" s="240">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>35.428571428571431</v>
       </c>
     </row>
     <row r="39" spans="2:18">
       <c r="B39" s="85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C39" s="49" t="s">
         <v>40</v>
@@ -18001,11 +18062,11 @@
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
       <c r="Q39" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="R39" s="239">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
     </row>
@@ -18054,11 +18115,11 @@
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
       <c r="Q40" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="R40" s="242">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>29.714285714285715</v>
       </c>
     </row>
@@ -18107,11 +18168,11 @@
       <c r="O41" s="34"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="R41" s="241">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21.714285714285715</v>
       </c>
     </row>
@@ -18160,11 +18221,11 @@
       <c r="O42" s="33"/>
       <c r="P42" s="33"/>
       <c r="Q42" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="R42" s="237">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14.857142857142858</v>
       </c>
     </row>
@@ -18213,11 +18274,11 @@
       <c r="O43" s="34"/>
       <c r="P43" s="34"/>
       <c r="Q43" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="R43" s="241">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13.714285714285714</v>
       </c>
     </row>
@@ -18266,11 +18327,11 @@
       <c r="O44" s="33"/>
       <c r="P44" s="33"/>
       <c r="Q44" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="R44" s="237">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.428571428571427</v>
       </c>
     </row>
@@ -18319,11 +18380,11 @@
       <c r="O45" s="82"/>
       <c r="P45" s="82"/>
       <c r="Q45" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="R45" s="238">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
     </row>
@@ -18372,86 +18433,86 @@
       <c r="O46" s="36"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="R46" s="243">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.1428571428571423</v>
       </c>
     </row>
     <row r="47" spans="2:18" ht="17" customHeight="1" thickBot="1"/>
     <row r="48" spans="2:18" ht="17" customHeight="1" thickBot="1">
-      <c r="B48" s="313" t="s">
+      <c r="B48" s="321" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="314"/>
-      <c r="D48" s="314"/>
-      <c r="E48" s="314"/>
-      <c r="F48" s="314"/>
-      <c r="G48" s="314"/>
-      <c r="H48" s="314"/>
-      <c r="I48" s="314"/>
-      <c r="J48" s="314"/>
-      <c r="K48" s="314"/>
-      <c r="L48" s="314"/>
-      <c r="M48" s="314"/>
-      <c r="N48" s="314"/>
-      <c r="O48" s="314"/>
-      <c r="P48" s="314"/>
-      <c r="Q48" s="314"/>
-      <c r="R48" s="315"/>
+      <c r="C48" s="322"/>
+      <c r="D48" s="322"/>
+      <c r="E48" s="322"/>
+      <c r="F48" s="322"/>
+      <c r="G48" s="322"/>
+      <c r="H48" s="322"/>
+      <c r="I48" s="322"/>
+      <c r="J48" s="322"/>
+      <c r="K48" s="322"/>
+      <c r="L48" s="322"/>
+      <c r="M48" s="322"/>
+      <c r="N48" s="322"/>
+      <c r="O48" s="322"/>
+      <c r="P48" s="322"/>
+      <c r="Q48" s="322"/>
+      <c r="R48" s="323"/>
     </row>
     <row r="49" spans="2:18" ht="17" customHeight="1" thickBot="1">
       <c r="B49" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="309" t="s">
+      <c r="C49" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="312" t="s">
+      <c r="D49" s="311" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="312" t="s">
+      <c r="E49" s="311" t="s">
         <v>52</v>
       </c>
-      <c r="F49" s="312" t="s">
+      <c r="F49" s="311" t="s">
         <v>53</v>
       </c>
-      <c r="G49" s="312" t="s">
+      <c r="G49" s="311" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="312" t="s">
+      <c r="H49" s="311" t="s">
         <v>55</v>
       </c>
-      <c r="I49" s="312" t="s">
+      <c r="I49" s="311" t="s">
         <v>56</v>
       </c>
-      <c r="J49" s="312" t="s">
+      <c r="J49" s="311" t="s">
         <v>57</v>
       </c>
-      <c r="K49" s="312" t="s">
+      <c r="K49" s="311" t="s">
         <v>58</v>
       </c>
-      <c r="L49" s="312" t="s">
+      <c r="L49" s="311" t="s">
         <v>59</v>
       </c>
-      <c r="M49" s="312" t="s">
+      <c r="M49" s="311" t="s">
         <v>60</v>
       </c>
-      <c r="N49" s="312" t="s">
+      <c r="N49" s="311" t="s">
         <v>61</v>
       </c>
-      <c r="O49" s="312" t="s">
+      <c r="O49" s="311" t="s">
         <v>62</v>
       </c>
-      <c r="P49" s="312" t="s">
+      <c r="P49" s="311" t="s">
         <v>63</v>
       </c>
-      <c r="Q49" s="312" t="s">
+      <c r="Q49" s="311" t="s">
         <v>15</v>
       </c>
-      <c r="R49" s="312" t="s">
+      <c r="R49" s="311" t="s">
         <v>16</v>
       </c>
     </row>
@@ -18500,20 +18561,20 @@
       <c r="O50" s="37"/>
       <c r="P50" s="37"/>
       <c r="Q50" s="37">
-        <f t="shared" ref="Q50:Q69" si="6">SUM(C50:M50)</f>
+        <f t="shared" ref="Q50:Q69" si="8">SUM(C50:M50)</f>
         <v>204</v>
       </c>
       <c r="R50" s="232">
-        <f t="shared" ref="R50:R69" si="7">SUM(E50:M50)+AVERAGE(E50:M50)</f>
+        <f t="shared" ref="R50:R69" si="9">SUM(E50:M50)+AVERAGE(E50:M50)</f>
         <v>216</v>
       </c>
     </row>
     <row r="51" spans="2:18">
       <c r="B51" s="91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D51" s="29">
         <f>+VLOOKUP($C51,'R1'!$C$3:$H$22,5,)</f>
@@ -18553,11 +18614,11 @@
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>137</v>
       </c>
       <c r="R51" s="234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>173.71428571428572</v>
       </c>
     </row>
@@ -18566,7 +18627,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D52" s="27">
         <f>+VLOOKUP($C52,'R1'!$C$3:$H$22,5,)</f>
@@ -18606,20 +18667,20 @@
       <c r="O52" s="27"/>
       <c r="P52" s="27"/>
       <c r="Q52" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>115</v>
       </c>
       <c r="R52" s="233">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>98.285714285714292</v>
       </c>
     </row>
     <row r="53" spans="2:18">
       <c r="B53" s="91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D53" s="29">
         <f>+VLOOKUP($C53,'R1'!$C$3:$H$22,5,)</f>
@@ -18659,11 +18720,11 @@
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
       <c r="Q53" s="29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
       <c r="R53" s="234">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>105.14285714285714</v>
       </c>
     </row>
@@ -18672,7 +18733,7 @@
         <v>23</v>
       </c>
       <c r="C54" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D54" s="30">
         <f>+VLOOKUP($C54,'R1'!$C$3:$H$22,5,)</f>
@@ -18712,11 +18773,11 @@
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
       <c r="Q54" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="R54" s="235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>86.857142857142861</v>
       </c>
     </row>
@@ -18725,7 +18786,7 @@
         <v>25</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D55" s="31">
         <f>+VLOOKUP($C55,'R1'!$C$3:$H$22,5,)</f>
@@ -18765,20 +18826,20 @@
       <c r="O55" s="31"/>
       <c r="P55" s="31"/>
       <c r="Q55" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>91</v>
       </c>
       <c r="R55" s="236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>121.14285714285714</v>
       </c>
     </row>
     <row r="56" spans="2:18">
       <c r="B56" s="89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D56" s="32">
         <f>+VLOOKUP($C56,'R1'!$C$3:$H$22,5,)</f>
@@ -18818,20 +18879,20 @@
       <c r="O56" s="32"/>
       <c r="P56" s="32"/>
       <c r="Q56" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="R56" s="240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>57.142857142857146</v>
       </c>
     </row>
     <row r="57" spans="2:18">
       <c r="B57" s="89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C57" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D57" s="32">
         <f>+VLOOKUP($C57,'R1'!$C$3:$H$22,5,)</f>
@@ -18871,11 +18932,11 @@
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="R57" s="240">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>91.428571428571431</v>
       </c>
     </row>
@@ -18924,11 +18985,11 @@
       <c r="O58" s="33"/>
       <c r="P58" s="33"/>
       <c r="Q58" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>49</v>
       </c>
       <c r="R58" s="237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>73.142857142857139</v>
       </c>
     </row>
@@ -18937,7 +18998,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D59" s="31">
         <f>+VLOOKUP($C59,'R1'!$C$3:$H$22,5,)</f>
@@ -18971,20 +19032,20 @@
       <c r="O59" s="31"/>
       <c r="P59" s="31"/>
       <c r="Q59" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="R59" s="236">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26.4</v>
       </c>
     </row>
     <row r="60" spans="2:18">
       <c r="B60" s="85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C60" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D60" s="28">
         <f>+VLOOKUP($C60,'R1'!$C$3:$H$22,5,)</f>
@@ -19024,11 +19085,11 @@
       <c r="O60" s="28"/>
       <c r="P60" s="28"/>
       <c r="Q60" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="R60" s="239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-10.285714285714286</v>
       </c>
     </row>
@@ -19077,11 +19138,11 @@
       <c r="O61" s="33"/>
       <c r="P61" s="33"/>
       <c r="Q61" s="33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="R61" s="237">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>29.714285714285715</v>
       </c>
     </row>
@@ -19130,11 +19191,11 @@
       <c r="O62" s="35"/>
       <c r="P62" s="35"/>
       <c r="Q62" s="35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
       <c r="R62" s="242">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>38.857142857142854</v>
       </c>
     </row>
@@ -19143,7 +19204,7 @@
         <v>31</v>
       </c>
       <c r="C63" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D63" s="82">
         <f>+VLOOKUP($C63,'R1'!$C$3:$H$22,5,)</f>
@@ -19183,11 +19244,11 @@
       <c r="O63" s="82"/>
       <c r="P63" s="82"/>
       <c r="Q63" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="R63" s="238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>57.142857142857146</v>
       </c>
     </row>
@@ -19236,17 +19297,17 @@
       <c r="O64" s="82"/>
       <c r="P64" s="82"/>
       <c r="Q64" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="R64" s="238">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>38.857142857142854</v>
       </c>
     </row>
     <row r="65" spans="2:18">
       <c r="B65" s="85" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C65" s="49" t="s">
         <v>40</v>
@@ -19289,11 +19350,11 @@
       <c r="O65" s="28"/>
       <c r="P65" s="28"/>
       <c r="Q65" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R65" s="239">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.8571428571428568</v>
       </c>
     </row>
@@ -19342,11 +19403,11 @@
       <c r="O66" s="34"/>
       <c r="P66" s="34"/>
       <c r="Q66" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="R66" s="241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
     </row>
@@ -19355,7 +19416,7 @@
         <v>23</v>
       </c>
       <c r="C67" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D67" s="30">
         <f>+VLOOKUP($C67,'R1'!$C$3:$H$22,5,)</f>
@@ -19395,11 +19456,11 @@
       <c r="O67" s="30"/>
       <c r="P67" s="30"/>
       <c r="Q67" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="R67" s="235">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17.142857142857142</v>
       </c>
     </row>
@@ -19448,11 +19509,11 @@
       <c r="O68" s="34"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-22</v>
       </c>
       <c r="R68" s="241">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-8</v>
       </c>
     </row>
@@ -19501,16 +19562,16 @@
       <c r="O69" s="36"/>
       <c r="P69" s="36"/>
       <c r="Q69" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R69" s="243">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>17.142857142857142</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:R23" xr:uid="{66C89C25-EC29-2946-8843-7EB6435D7508}">
+  <autoFilter ref="B3:R23" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:R23">
       <sortCondition descending="1" ref="K3:K23"/>
     </sortState>
@@ -19529,24 +19590,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="0" style="287" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -19558,19 +19619,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="311" t="s">
+      <c r="I2" s="310" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="309" t="s">
+      <c r="J2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="309" t="s">
+      <c r="K2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19606,7 +19667,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>18</v>
@@ -19615,13 +19676,13 @@
       <c r="E4" s="130"/>
       <c r="F4" s="131"/>
       <c r="G4" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="J4" s="118">
         <v>12</v>
@@ -19633,7 +19694,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="51" t="s">
         <v>23</v>
@@ -19642,13 +19703,13 @@
       <c r="E5" s="136"/>
       <c r="F5" s="137"/>
       <c r="G5" s="4" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="J5" s="101">
         <v>13</v>
@@ -19660,7 +19721,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>25</v>
@@ -19669,13 +19730,13 @@
       <c r="E6" s="139"/>
       <c r="F6" s="140"/>
       <c r="G6" s="5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="J6" s="105">
         <v>12</v>
@@ -19687,10 +19748,10 @@
         <v>33</v>
       </c>
       <c r="B7" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="D7" s="132"/>
       <c r="E7" s="133"/>
@@ -19714,7 +19775,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>23</v>
@@ -19723,13 +19784,13 @@
       <c r="E8" s="136"/>
       <c r="F8" s="137"/>
       <c r="G8" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="J8" s="101">
         <v>8</v>
@@ -19741,22 +19802,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="144"/>
       <c r="E9" s="145"/>
       <c r="F9" s="146"/>
       <c r="G9" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="J9" s="109">
         <v>9</v>
@@ -19768,7 +19829,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="52" t="s">
         <v>25</v>
@@ -19777,13 +19838,13 @@
       <c r="E10" s="139"/>
       <c r="F10" s="140"/>
       <c r="G10" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="J10" s="105">
         <v>6</v>
@@ -19795,22 +19856,22 @@
         <v>23</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="132"/>
       <c r="E11" s="133"/>
       <c r="F11" s="134"/>
       <c r="G11" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="J11" s="103">
         <v>5</v>
@@ -19822,7 +19883,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C12" s="77" t="s">
         <v>31</v>
@@ -19831,13 +19892,13 @@
       <c r="E12" s="148"/>
       <c r="F12" s="149"/>
       <c r="G12" s="79" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="H12" s="79" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="I12" s="80" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="J12" s="111">
         <v>6</v>
@@ -19858,10 +19919,10 @@
       <c r="E13" s="148"/>
       <c r="F13" s="149"/>
       <c r="G13" s="79" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="H13" s="79" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="I13" s="80" t="s">
         <v>159</v>
@@ -19876,19 +19937,19 @@
         <v>31</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" s="144"/>
       <c r="E14" s="145"/>
       <c r="F14" s="146"/>
       <c r="G14" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>159</v>
@@ -19903,19 +19964,19 @@
         <v>16</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="141"/>
       <c r="E15" s="142"/>
       <c r="F15" s="143"/>
       <c r="G15" s="6" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>159</v>
@@ -19939,10 +20000,10 @@
       <c r="E16" s="157"/>
       <c r="F16" s="158"/>
       <c r="G16" s="10" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="I16" s="20" t="s">
         <v>159</v>
@@ -19966,10 +20027,10 @@
       <c r="E17" s="151"/>
       <c r="F17" s="152"/>
       <c r="G17" s="8" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>159</v>
@@ -19993,7 +20054,7 @@
       <c r="E18" s="151"/>
       <c r="F18" s="152"/>
       <c r="G18" s="8" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>159</v>
@@ -20014,7 +20075,7 @@
         <v>40</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19" s="141"/>
       <c r="E19" s="142"/>
@@ -20047,7 +20108,7 @@
       <c r="E20" s="157"/>
       <c r="F20" s="158"/>
       <c r="G20" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>159</v>
@@ -20074,7 +20135,7 @@
       <c r="E21" s="154"/>
       <c r="F21" s="155"/>
       <c r="G21" s="9" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>159</v>
@@ -20101,7 +20162,7 @@
       <c r="E22" s="160"/>
       <c r="F22" s="161"/>
       <c r="G22" s="11" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>159</v>
@@ -20129,64 +20190,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="309" t="s">
+      <c r="D2" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="312" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="309" t="s">
+      <c r="F2" s="312" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="312" t="s">
+      <c r="I2" s="311" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="316">
+      <c r="A3" s="313">
         <v>10</v>
       </c>
-      <c r="B3" s="316">
+      <c r="B3" s="313">
         <v>1</v>
       </c>
-      <c r="C3" s="316" t="s">
+      <c r="C3" s="313" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="313" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="314" t="s">
+        <v>643</v>
+      </c>
+      <c r="F3" s="315">
+        <v>53</v>
+      </c>
+      <c r="G3" s="315">
         <v>39</v>
       </c>
-      <c r="D3" s="316" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="317"/>
-      <c r="F3" s="318"/>
-      <c r="G3" s="318">
-        <v>39</v>
-      </c>
-      <c r="H3" s="318">
+      <c r="H3" s="315">
         <v>25</v>
       </c>
-      <c r="I3" s="318"/>
+      <c r="I3" s="315"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="51">
@@ -20196,13 +20261,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="101"/>
+      <c r="E4" s="61" t="s">
+        <v>644</v>
+      </c>
+      <c r="F4" s="324">
+        <v>53</v>
+      </c>
       <c r="G4" s="101">
         <v>24</v>
       </c>
@@ -20219,13 +20288,17 @@
         <v>3</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="105"/>
+      <c r="E5" s="62" t="s">
+        <v>645</v>
+      </c>
+      <c r="F5" s="105">
+        <v>53</v>
+      </c>
       <c r="G5" s="105">
         <v>29</v>
       </c>
@@ -20242,13 +20315,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="101"/>
+      <c r="E6" s="61" t="s">
+        <v>646</v>
+      </c>
+      <c r="F6" s="101">
+        <v>53</v>
+      </c>
       <c r="G6" s="101">
         <v>27</v>
       </c>
@@ -20265,13 +20342,17 @@
         <v>5</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="118"/>
+      <c r="E7" s="59" t="s">
+        <v>647</v>
+      </c>
+      <c r="F7" s="118">
+        <v>53</v>
+      </c>
       <c r="G7" s="118">
         <v>8</v>
       </c>
@@ -20288,13 +20369,17 @@
         <v>6</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="109"/>
+        <v>27</v>
+      </c>
+      <c r="E8" s="64" t="s">
+        <v>648</v>
+      </c>
+      <c r="F8" s="109">
+        <v>53</v>
+      </c>
       <c r="G8" s="109">
         <v>14</v>
       </c>
@@ -20316,8 +20401,12 @@
       <c r="D9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="118"/>
+      <c r="E9" s="59" t="s">
+        <v>649</v>
+      </c>
+      <c r="F9" s="118">
+        <v>53</v>
+      </c>
       <c r="G9" s="118">
         <v>2</v>
       </c>
@@ -20334,13 +20423,17 @@
         <v>8</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="109"/>
+        <v>27</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>650</v>
+      </c>
+      <c r="F10" s="109">
+        <v>53</v>
+      </c>
       <c r="G10" s="109">
         <v>13</v>
       </c>
@@ -20362,8 +20455,12 @@
       <c r="D11" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="111"/>
+      <c r="E11" s="78" t="s">
+        <v>651</v>
+      </c>
+      <c r="F11" s="111">
+        <v>53</v>
+      </c>
       <c r="G11" s="111">
         <v>7</v>
       </c>
@@ -20380,13 +20477,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="105"/>
+      <c r="E12" s="62" t="s">
+        <v>652</v>
+      </c>
+      <c r="F12" s="105">
+        <v>53</v>
+      </c>
       <c r="G12" s="105">
         <v>-8</v>
       </c>
@@ -20408,12 +20509,18 @@
       <c r="D13" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="119"/>
+      <c r="E13" s="66" t="s">
+        <v>653</v>
+      </c>
+      <c r="F13" s="119">
+        <v>53</v>
+      </c>
       <c r="G13" s="119">
         <v>14</v>
       </c>
-      <c r="H13" s="119"/>
+      <c r="H13" s="119">
+        <v>0</v>
+      </c>
       <c r="I13" s="119"/>
     </row>
     <row r="14" spans="1:9">
@@ -20429,12 +20536,18 @@
       <c r="D14" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="65"/>
-      <c r="F14" s="115"/>
+      <c r="E14" s="65" t="s">
+        <v>654</v>
+      </c>
+      <c r="F14" s="115">
+        <v>53</v>
+      </c>
       <c r="G14" s="115">
         <v>12</v>
       </c>
-      <c r="H14" s="115"/>
+      <c r="H14" s="115">
+        <v>0</v>
+      </c>
       <c r="I14" s="115"/>
     </row>
     <row r="15" spans="1:9">
@@ -20450,12 +20563,18 @@
       <c r="D15" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="113"/>
+      <c r="E15" s="67" t="s">
+        <v>655</v>
+      </c>
+      <c r="F15" s="113">
+        <v>53</v>
+      </c>
       <c r="G15" s="113">
         <v>6</v>
       </c>
-      <c r="H15" s="113"/>
+      <c r="H15" s="113">
+        <v>0</v>
+      </c>
       <c r="I15" s="113"/>
     </row>
     <row r="16" spans="1:9">
@@ -20471,12 +20590,18 @@
       <c r="D16" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="119"/>
+      <c r="E16" s="66" t="s">
+        <v>656</v>
+      </c>
+      <c r="F16" s="119">
+        <v>53</v>
+      </c>
       <c r="G16" s="119">
         <v>11</v>
       </c>
-      <c r="H16" s="119"/>
+      <c r="H16" s="119">
+        <v>0</v>
+      </c>
       <c r="I16" s="119"/>
     </row>
     <row r="17" spans="1:9">
@@ -20487,17 +20612,23 @@
         <v>15</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D17" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="103"/>
+        <v>21</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>657</v>
+      </c>
+      <c r="F17" s="103">
+        <v>53</v>
+      </c>
       <c r="G17" s="103">
         <v>-6</v>
       </c>
-      <c r="H17" s="103"/>
+      <c r="H17" s="103">
+        <v>0</v>
+      </c>
       <c r="I17" s="103"/>
     </row>
     <row r="18" spans="1:9">
@@ -20513,34 +20644,46 @@
       <c r="D18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="113"/>
+      <c r="E18" s="67" t="s">
+        <v>658</v>
+      </c>
+      <c r="F18" s="113">
+        <v>53</v>
+      </c>
       <c r="G18" s="113">
         <v>5</v>
       </c>
-      <c r="H18" s="113"/>
+      <c r="H18" s="113">
+        <v>0</v>
+      </c>
       <c r="I18" s="113"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="49">
-        <v>5</v>
-      </c>
-      <c r="B19" s="49" t="s">
+      <c r="A19" s="50">
+        <v>33</v>
+      </c>
+      <c r="B19" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="C19" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107">
+      <c r="C19" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="60" t="s">
+        <v>659</v>
+      </c>
+      <c r="F19" s="103">
+        <v>30</v>
+      </c>
+      <c r="G19" s="103">
         <v>-15</v>
       </c>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
+      <c r="H19" s="103">
+        <v>0</v>
+      </c>
+      <c r="I19" s="103"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="49">
@@ -20550,17 +20693,23 @@
         <v>195</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="107"/>
+        <v>29</v>
+      </c>
+      <c r="E20" s="63" t="s">
+        <v>660</v>
+      </c>
+      <c r="F20" s="107">
+        <v>23</v>
+      </c>
       <c r="G20" s="107">
         <v>-15</v>
       </c>
-      <c r="H20" s="107"/>
+      <c r="H20" s="107">
+        <v>0</v>
+      </c>
       <c r="I20" s="107"/>
     </row>
     <row r="21" spans="1:9">
@@ -20576,34 +20725,46 @@
       <c r="D21" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="115"/>
+      <c r="E21" s="65" t="s">
+        <v>661</v>
+      </c>
+      <c r="F21" s="115">
+        <v>17</v>
+      </c>
       <c r="G21" s="115">
         <v>-15</v>
       </c>
-      <c r="H21" s="115"/>
+      <c r="H21" s="115">
+        <v>0</v>
+      </c>
       <c r="I21" s="115"/>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A22" s="68">
-        <v>33</v>
-      </c>
-      <c r="B22" s="68" t="s">
+      <c r="A22" s="170">
+        <v>5</v>
+      </c>
+      <c r="B22" s="170" t="s">
         <v>195</v>
       </c>
-      <c r="C22" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="69"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70">
+      <c r="C22" s="170" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="170" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="171" t="s">
+        <v>662</v>
+      </c>
+      <c r="F22" s="172">
+        <v>6</v>
+      </c>
+      <c r="G22" s="172">
         <v>-15</v>
       </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
+      <c r="H22" s="172">
+        <v>0</v>
+      </c>
+      <c r="I22" s="172"/>
     </row>
     <row r="28" spans="1:9">
       <c r="C28" s="308"/>
@@ -20611,7 +20772,7 @@
   </sheetData>
   <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000014000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
-      <sortCondition ref="B2:B22"/>
+      <sortCondition descending="1" ref="F2:F22"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20631,13 +20792,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -20649,19 +20810,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="311" t="s">
+      <c r="I2" s="310" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="309" t="s">
+      <c r="J2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="309" t="s">
+      <c r="K2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -20670,10 +20831,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="299" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" s="299" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="300"/>
       <c r="E3" s="301"/>
@@ -20689,7 +20850,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="51" t="s">
         <v>23</v>
@@ -20711,7 +20872,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="141"/>
       <c r="E5" s="142"/>
@@ -20784,7 +20945,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C9" s="77" t="s">
         <v>31</v>
@@ -20803,7 +20964,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="52" t="s">
         <v>25</v>
@@ -20822,10 +20983,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" s="141"/>
       <c r="E11" s="142"/>
@@ -20841,7 +21002,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="52" t="s">
         <v>25</v>
@@ -20879,10 +21040,10 @@
         <v>23</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="132"/>
       <c r="E14" s="133"/>
@@ -20917,10 +21078,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="144"/>
       <c r="E16" s="145"/>
@@ -20936,10 +21097,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="D17" s="132"/>
       <c r="E17" s="133"/>
@@ -20974,7 +21135,7 @@
         <v>55</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="51" t="s">
         <v>23</v>
@@ -21012,7 +21173,7 @@
         <v>77</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="48" t="s">
         <v>18</v>
@@ -21067,31 +21228,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="309" t="s">
+      <c r="D2" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="312" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="309" t="s">
+      <c r="F2" s="312" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="312" t="s">
+      <c r="I2" s="311" t="s">
         <v>127</v>
       </c>
     </row>
@@ -21101,10 +21262,10 @@
       </c>
       <c r="B3" s="299"/>
       <c r="C3" s="299" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" s="299" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="306"/>
       <c r="F3" s="305"/>
@@ -21118,7 +21279,7 @@
       </c>
       <c r="B4" s="51"/>
       <c r="C4" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>23</v>
@@ -21138,7 +21299,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" s="63"/>
       <c r="F5" s="107"/>
@@ -21203,7 +21364,7 @@
       </c>
       <c r="B9" s="77"/>
       <c r="C9" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" s="77" t="s">
         <v>31</v>
@@ -21220,7 +21381,7 @@
       </c>
       <c r="B10" s="52"/>
       <c r="C10" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>25</v>
@@ -21237,10 +21398,10 @@
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="63"/>
       <c r="F11" s="107"/>
@@ -21254,7 +21415,7 @@
       </c>
       <c r="B12" s="52"/>
       <c r="C12" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>25</v>
@@ -21288,10 +21449,10 @@
       </c>
       <c r="B14" s="50"/>
       <c r="C14" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D14" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14" s="60"/>
       <c r="F14" s="103"/>
@@ -21322,10 +21483,10 @@
       </c>
       <c r="B16" s="53"/>
       <c r="C16" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="109"/>
@@ -21339,10 +21500,10 @@
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="E17" s="60"/>
       <c r="F17" s="103"/>
@@ -21373,7 +21534,7 @@
       </c>
       <c r="B19" s="51"/>
       <c r="C19" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D19" s="51" t="s">
         <v>23</v>
@@ -21407,7 +21568,7 @@
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="48" t="s">
         <v>18</v>
@@ -21457,20 +21618,20 @@
   <sheetData>
     <row r="2" spans="2:13" ht="17" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:13" ht="17" customHeight="1" thickBot="1">
-      <c r="B3" s="313" t="s">
+      <c r="B3" s="321" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="314"/>
-      <c r="D3" s="314"/>
-      <c r="E3" s="314"/>
-      <c r="F3" s="314"/>
-      <c r="G3" s="315"/>
-      <c r="J3" s="313" t="s">
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
+      <c r="G3" s="323"/>
+      <c r="J3" s="321" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="314"/>
-      <c r="L3" s="314"/>
-      <c r="M3" s="315"/>
+      <c r="K3" s="322"/>
+      <c r="L3" s="322"/>
+      <c r="M3" s="323"/>
     </row>
     <row r="4" spans="2:13" ht="17" customHeight="1" thickBot="1">
       <c r="B4" s="275" t="s">
@@ -21491,16 +21652,16 @@
       <c r="G4" s="276" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="312" t="s">
+      <c r="J4" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="311" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="312" t="s">
+      <c r="L4" s="311" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="309" t="s">
+      <c r="M4" s="312" t="s">
         <v>71</v>
       </c>
     </row>
@@ -21522,7 +21683,7 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="283"/>
       <c r="D6" s="283"/>
@@ -21530,7 +21691,7 @@
       <c r="F6" s="293"/>
       <c r="G6" s="293"/>
       <c r="J6" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="294"/>
       <c r="L6" s="294"/>
@@ -21538,7 +21699,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="283"/>
       <c r="D7" s="293"/>
@@ -21554,7 +21715,7 @@
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C8" s="283"/>
       <c r="D8" s="293"/>
@@ -21570,7 +21731,7 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="283"/>
       <c r="D9" s="293"/>
@@ -21578,7 +21739,7 @@
       <c r="F9" s="293"/>
       <c r="G9" s="293"/>
       <c r="J9" s="40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K9" s="294"/>
       <c r="L9" s="294"/>
@@ -21586,7 +21747,7 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C10" s="283"/>
       <c r="D10" s="283"/>
@@ -21594,7 +21755,7 @@
       <c r="F10" s="293"/>
       <c r="G10" s="293"/>
       <c r="J10" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K10" s="285"/>
       <c r="L10" s="294"/>
@@ -21602,7 +21763,7 @@
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="283"/>
       <c r="D11" s="283"/>
@@ -21618,7 +21779,7 @@
     </row>
     <row r="12" spans="2:13">
       <c r="B12" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="293"/>
       <c r="D12" s="293"/>
@@ -21634,7 +21795,7 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="293"/>
       <c r="D13" s="293"/>
@@ -21666,7 +21827,7 @@
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="283"/>
       <c r="D15" s="293"/>
@@ -21676,7 +21837,7 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="283"/>
       <c r="D16" s="293"/>
@@ -21706,7 +21867,7 @@
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C19" s="283"/>
       <c r="D19" s="283"/>
@@ -21766,20 +21927,20 @@
     </row>
     <row r="25" spans="2:13" ht="17" customHeight="1" thickBot="1"/>
     <row r="26" spans="2:13" ht="17" customHeight="1" thickBot="1">
-      <c r="B26" s="313" t="s">
+      <c r="B26" s="321" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="314"/>
-      <c r="D26" s="314"/>
-      <c r="E26" s="314"/>
-      <c r="F26" s="314"/>
-      <c r="G26" s="315"/>
-      <c r="J26" s="313" t="s">
+      <c r="C26" s="322"/>
+      <c r="D26" s="322"/>
+      <c r="E26" s="322"/>
+      <c r="F26" s="322"/>
+      <c r="G26" s="323"/>
+      <c r="J26" s="321" t="s">
         <v>74</v>
       </c>
-      <c r="K26" s="314"/>
-      <c r="L26" s="314"/>
-      <c r="M26" s="315"/>
+      <c r="K26" s="322"/>
+      <c r="L26" s="322"/>
+      <c r="M26" s="323"/>
     </row>
     <row r="27" spans="2:13" ht="17" customHeight="1" thickBot="1">
       <c r="B27" s="275" t="s">
@@ -21800,16 +21961,16 @@
       <c r="G27" s="276" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="312" t="s">
+      <c r="J27" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="311" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="312" t="s">
+      <c r="L27" s="311" t="s">
         <v>70</v>
       </c>
-      <c r="M27" s="309" t="s">
+      <c r="M27" s="312" t="s">
         <v>71</v>
       </c>
     </row>
@@ -21831,7 +21992,7 @@
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C29" s="283"/>
       <c r="D29" s="283"/>
@@ -21839,7 +22000,7 @@
       <c r="F29" s="293"/>
       <c r="G29" s="293"/>
       <c r="J29" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K29" s="294"/>
       <c r="L29" s="294"/>
@@ -21847,7 +22008,7 @@
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C30" s="283"/>
       <c r="D30" s="283"/>
@@ -21863,7 +22024,7 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C31" s="283"/>
       <c r="D31" s="283"/>
@@ -21879,7 +22040,7 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C32" s="293"/>
       <c r="D32" s="293"/>
@@ -21887,7 +22048,7 @@
       <c r="F32" s="293"/>
       <c r="G32" s="293"/>
       <c r="J32" s="40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K32" s="294"/>
       <c r="L32" s="294"/>
@@ -21895,7 +22056,7 @@
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C33" s="283"/>
       <c r="D33" s="283"/>
@@ -21903,7 +22064,7 @@
       <c r="F33" s="293"/>
       <c r="G33" s="293"/>
       <c r="J33" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K33" s="285"/>
       <c r="L33" s="294"/>
@@ -21911,7 +22072,7 @@
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C34" s="283"/>
       <c r="D34" s="283"/>
@@ -21927,7 +22088,7 @@
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="283"/>
       <c r="D35" s="283"/>
@@ -21943,7 +22104,7 @@
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C36" s="293"/>
       <c r="D36" s="293"/>
@@ -21975,7 +22136,7 @@
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C38" s="283"/>
       <c r="D38" s="293"/>
@@ -21985,7 +22146,7 @@
     </row>
     <row r="39" spans="2:13">
       <c r="B39" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C39" s="283"/>
       <c r="D39" s="293"/>
@@ -22015,7 +22176,7 @@
     </row>
     <row r="42" spans="2:13">
       <c r="B42" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C42" s="293"/>
       <c r="D42" s="293"/>
@@ -22106,61 +22267,61 @@
   <sheetData>
     <row r="1" spans="2:20" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:20" ht="17" customHeight="1" thickBot="1">
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="309" t="s">
+      <c r="D2" s="312" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="309" t="s">
+      <c r="E2" s="312" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="309" t="s">
+      <c r="F2" s="312" t="s">
         <v>79</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="309" t="s">
+      <c r="I2" s="312" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="309" t="s">
+      <c r="J2" s="312" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="309" t="s">
+      <c r="K2" s="312" t="s">
         <v>84</v>
       </c>
-      <c r="L2" s="309" t="s">
+      <c r="L2" s="312" t="s">
         <v>85</v>
       </c>
-      <c r="M2" s="309" t="s">
+      <c r="M2" s="312" t="s">
         <v>86</v>
       </c>
-      <c r="N2" s="309" t="s">
+      <c r="N2" s="312" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="309" t="s">
+      <c r="O2" s="312" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="309" t="s">
+      <c r="P2" s="312" t="s">
         <v>89</v>
       </c>
-      <c r="Q2" s="309" t="s">
+      <c r="Q2" s="312" t="s">
         <v>90</v>
       </c>
-      <c r="R2" s="309" t="s">
+      <c r="R2" s="312" t="s">
         <v>91</v>
       </c>
-      <c r="S2" s="309" t="s">
+      <c r="S2" s="312" t="s">
         <v>92</v>
       </c>
-      <c r="T2" s="309" t="s">
+      <c r="T2" s="312" t="s">
         <v>93</v>
       </c>
     </row>
@@ -22217,7 +22378,7 @@
     </row>
     <row r="4" spans="2:20">
       <c r="B4" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="118">
         <v>29.1</v>
@@ -22268,7 +22429,7 @@
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="50" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="103">
         <v>26.1</v>
@@ -22319,7 +22480,7 @@
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="107">
         <v>24.1</v>
@@ -22370,7 +22531,7 @@
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="103">
         <v>20.100000000000001</v>
@@ -22472,7 +22633,7 @@
     </row>
     <row r="9" spans="2:20">
       <c r="B9" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="101">
         <v>15.5</v>
@@ -22523,7 +22684,7 @@
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="109">
         <v>14</v>
@@ -22574,7 +22735,7 @@
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="101">
         <v>12</v>
@@ -22625,7 +22786,7 @@
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" s="109">
         <v>12.4</v>
@@ -22676,7 +22837,7 @@
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="105">
         <v>8.1999999999999993</v>
@@ -22727,7 +22888,7 @@
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C14" s="111">
         <v>9.8000000000000007</v>
@@ -22778,7 +22939,7 @@
     </row>
     <row r="15" spans="2:20">
       <c r="B15" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C15" s="105">
         <v>9.5</v>
@@ -23186,61 +23347,61 @@
     </row>
     <row r="23" spans="2:20" ht="17" customHeight="1" thickBot="1"/>
     <row r="24" spans="2:20" ht="17" customHeight="1" thickBot="1">
-      <c r="B24" s="309" t="s">
+      <c r="B24" s="312" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="309" t="s">
+      <c r="C24" s="312" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="312" t="s">
+      <c r="D24" s="311" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="312" t="s">
+      <c r="E24" s="311" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="312" t="s">
+      <c r="F24" s="311" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="312" t="s">
+      <c r="G24" s="311" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="312" t="s">
+      <c r="H24" s="311" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="312" t="s">
+      <c r="I24" s="311" t="s">
         <v>82</v>
       </c>
-      <c r="J24" s="312" t="s">
+      <c r="J24" s="311" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="312" t="s">
+      <c r="K24" s="311" t="s">
         <v>84</v>
       </c>
-      <c r="L24" s="312" t="s">
+      <c r="L24" s="311" t="s">
         <v>85</v>
       </c>
-      <c r="M24" s="309" t="s">
+      <c r="M24" s="312" t="s">
         <v>86</v>
       </c>
-      <c r="N24" s="309" t="s">
+      <c r="N24" s="312" t="s">
         <v>87</v>
       </c>
-      <c r="O24" s="309" t="s">
+      <c r="O24" s="312" t="s">
         <v>88</v>
       </c>
-      <c r="P24" s="309" t="s">
+      <c r="P24" s="312" t="s">
         <v>89</v>
       </c>
-      <c r="Q24" s="309" t="s">
+      <c r="Q24" s="312" t="s">
         <v>90</v>
       </c>
-      <c r="R24" s="309" t="s">
+      <c r="R24" s="312" t="s">
         <v>91</v>
       </c>
-      <c r="S24" s="309" t="s">
+      <c r="S24" s="312" t="s">
         <v>92</v>
       </c>
-      <c r="T24" s="309" t="s">
+      <c r="T24" s="312" t="s">
         <v>94</v>
       </c>
     </row>
@@ -23297,7 +23458,7 @@
     </row>
     <row r="26" spans="2:20">
       <c r="B26" s="40" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C26" s="106">
         <v>27</v>
@@ -23348,7 +23509,7 @@
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="102">
         <v>24.6</v>
@@ -23501,7 +23662,7 @@
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="108">
         <v>12.4</v>
@@ -23791,95 +23952,95 @@
     <row r="1" spans="2:34" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:34" ht="17" customHeight="1" thickBot="1">
       <c r="B2" s="208"/>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="309" t="s">
+      <c r="D2" s="312" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="309" t="s">
+      <c r="E2" s="312" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="309" t="s">
+      <c r="F2" s="312" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="309" t="s">
+      <c r="I2" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="309" t="s">
+      <c r="J2" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="309" t="s">
+      <c r="K2" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="L2" s="309" t="s">
+      <c r="L2" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="M2" s="309" t="s">
+      <c r="M2" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="N2" s="309" t="s">
+      <c r="N2" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="O2" s="309" t="s">
+      <c r="O2" s="312" t="s">
         <v>107</v>
       </c>
       <c r="Q2" s="208"/>
-      <c r="R2" s="309" t="s">
+      <c r="R2" s="312" t="s">
         <v>95</v>
       </c>
-      <c r="S2" s="309" t="s">
+      <c r="S2" s="312" t="s">
         <v>96</v>
       </c>
-      <c r="T2" s="309" t="s">
+      <c r="T2" s="312" t="s">
         <v>97</v>
       </c>
-      <c r="U2" s="309" t="s">
+      <c r="U2" s="312" t="s">
         <v>98</v>
       </c>
-      <c r="V2" s="309" t="s">
+      <c r="V2" s="312" t="s">
         <v>99</v>
       </c>
-      <c r="W2" s="309" t="s">
+      <c r="W2" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="X2" s="309" t="s">
+      <c r="X2" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" s="309" t="s">
+      <c r="Y2" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="Z2" s="309" t="s">
+      <c r="Z2" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="AA2" s="309" t="s">
+      <c r="AA2" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="AB2" s="309" t="s">
+      <c r="AB2" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="AC2" s="309" t="s">
+      <c r="AC2" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="AD2" s="309" t="s">
+      <c r="AD2" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="AE2" s="309" t="s">
+      <c r="AE2" s="312" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" s="309" t="s">
+      <c r="AF2" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="AG2" s="309" t="s">
+      <c r="AG2" s="312" t="s">
         <v>109</v>
       </c>
-      <c r="AH2" s="309" t="s">
+      <c r="AH2" s="312" t="s">
         <v>110</v>
       </c>
     </row>
@@ -24442,95 +24603,95 @@
     <row r="27" spans="2:34" ht="17" customHeight="1" thickBot="1"/>
     <row r="28" spans="2:34" ht="17" customHeight="1" thickBot="1">
       <c r="B28" s="208"/>
-      <c r="C28" s="309" t="s">
+      <c r="C28" s="312" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="309" t="s">
+      <c r="D28" s="312" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="309" t="s">
+      <c r="E28" s="312" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="309" t="s">
+      <c r="F28" s="312" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="309" t="s">
+      <c r="G28" s="312" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="309" t="s">
+      <c r="H28" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="309" t="s">
+      <c r="I28" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="309" t="s">
+      <c r="J28" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="K28" s="309" t="s">
+      <c r="K28" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="L28" s="309" t="s">
+      <c r="L28" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="309" t="s">
+      <c r="M28" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="N28" s="309" t="s">
+      <c r="N28" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="O28" s="309" t="s">
+      <c r="O28" s="312" t="s">
         <v>107</v>
       </c>
       <c r="Q28" s="208"/>
-      <c r="R28" s="309" t="s">
+      <c r="R28" s="312" t="s">
         <v>95</v>
       </c>
-      <c r="S28" s="309" t="s">
+      <c r="S28" s="312" t="s">
         <v>96</v>
       </c>
-      <c r="T28" s="309" t="s">
+      <c r="T28" s="312" t="s">
         <v>97</v>
       </c>
-      <c r="U28" s="309" t="s">
+      <c r="U28" s="312" t="s">
         <v>98</v>
       </c>
-      <c r="V28" s="309" t="s">
+      <c r="V28" s="312" t="s">
         <v>99</v>
       </c>
-      <c r="W28" s="309" t="s">
+      <c r="W28" s="312" t="s">
         <v>100</v>
       </c>
-      <c r="X28" s="309" t="s">
+      <c r="X28" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="Y28" s="309" t="s">
+      <c r="Y28" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="Z28" s="309" t="s">
+      <c r="Z28" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="AA28" s="309" t="s">
+      <c r="AA28" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="AB28" s="309" t="s">
+      <c r="AB28" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="AC28" s="309" t="s">
+      <c r="AC28" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="AD28" s="309" t="s">
+      <c r="AD28" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="AE28" s="309" t="s">
+      <c r="AE28" s="312" t="s">
         <v>41</v>
       </c>
-      <c r="AF28" s="309" t="s">
+      <c r="AF28" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="AG28" s="309" t="s">
+      <c r="AG28" s="312" t="s">
         <v>109</v>
       </c>
-      <c r="AH28" s="309" t="s">
+      <c r="AH28" s="312" t="s">
         <v>110</v>
       </c>
     </row>
@@ -24799,13 +24960,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -24817,19 +24978,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="311" t="s">
+      <c r="I2" s="310" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="309" t="s">
+      <c r="J2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="309" t="s">
+      <c r="K2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -24838,7 +24999,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>18</v>
@@ -24906,10 +25067,10 @@
         <v>33</v>
       </c>
       <c r="B5" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="132">
         <v>16.093</v>
@@ -24939,7 +25100,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="51" t="s">
         <v>23</v>
@@ -24972,10 +25133,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="132">
         <v>16.164999999999999</v>
@@ -25005,7 +25166,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>25</v>
@@ -25038,10 +25199,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="141">
         <v>16.437999999999999</v>
@@ -25071,7 +25232,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>23</v>
@@ -25104,7 +25265,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>25</v>
@@ -25137,10 +25298,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="144">
         <v>16.085000000000001</v>
@@ -25173,7 +25334,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="141">
         <v>16.271999999999998</v>
@@ -25203,7 +25364,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>31</v>
@@ -25269,10 +25430,10 @@
         <v>31</v>
       </c>
       <c r="B16" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="144">
         <v>16.402000000000001</v>
@@ -25525,31 +25686,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="309" t="s">
+      <c r="D2" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="312" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="309" t="s">
+      <c r="F2" s="312" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="312" t="s">
+      <c r="I2" s="311" t="s">
         <v>127</v>
       </c>
     </row>
@@ -25561,7 +25722,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="47" t="s">
         <v>18</v>
@@ -25588,10 +25749,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4" s="63" t="s">
         <v>178</v>
@@ -25615,7 +25776,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="51" t="s">
         <v>23</v>
@@ -25673,7 +25834,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>23</v>
@@ -25700,7 +25861,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>25</v>
@@ -25729,7 +25890,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" s="77" t="s">
         <v>31</v>
@@ -25756,10 +25917,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="64" t="s">
         <v>187</v>
@@ -25813,7 +25974,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" s="63" t="s">
         <v>189</v>
@@ -25893,10 +26054,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" s="60" t="s">
         <v>193</v>
@@ -26038,7 +26199,7 @@
         <v>195</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>25</v>
@@ -26067,10 +26228,10 @@
         <v>195</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="64" t="s">
         <v>205</v>
@@ -26096,10 +26257,10 @@
         <v>195</v>
       </c>
       <c r="C22" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="68" t="s">
         <v>21</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>20</v>
       </c>
       <c r="E22" s="69" t="s">
         <v>207</v>
@@ -26148,13 +26309,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -26166,19 +26327,19 @@
       <c r="F2" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="311" t="s">
+      <c r="I2" s="310" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="309" t="s">
+      <c r="J2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="309" t="s">
+      <c r="K2" s="312" t="s">
         <v>127</v>
       </c>
     </row>
@@ -26220,10 +26381,10 @@
         <v>33</v>
       </c>
       <c r="B4" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="132">
         <v>19.007000000000001</v>
@@ -26253,7 +26414,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="51" t="s">
         <v>23</v>
@@ -26286,7 +26447,7 @@
         <v>77</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="48" t="s">
         <v>18</v>
@@ -26319,10 +26480,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" s="144">
         <v>19.321999999999999</v>
@@ -26352,7 +26513,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>23</v>
@@ -26387,10 +26548,10 @@
         <v>23</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="132">
         <v>19.132000000000001</v>
@@ -26420,7 +26581,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" s="77" t="s">
         <v>31</v>
@@ -26453,10 +26614,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="144">
         <v>19.209</v>
@@ -26489,7 +26650,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" s="141">
         <v>19.405000000000001</v>
@@ -26519,10 +26680,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" s="141">
         <v>19.350000000000001</v>
@@ -26587,7 +26748,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>25</v>
@@ -26719,7 +26880,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>25</v>
@@ -26877,31 +27038,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1">
-      <c r="A2" s="309" t="s">
+      <c r="A2" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="309" t="s">
+      <c r="B2" s="312" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="309" t="s">
+      <c r="C2" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="309" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="309" t="s">
+      <c r="D2" s="312" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="312" t="s">
         <v>174</v>
       </c>
-      <c r="F2" s="309" t="s">
+      <c r="F2" s="312" t="s">
         <v>175</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="312" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="309" t="s">
+      <c r="H2" s="312" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="312" t="s">
+      <c r="I2" s="311" t="s">
         <v>127</v>
       </c>
       <c r="J2" s="71"/>
@@ -26944,7 +27105,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="48" t="s">
         <v>18</v>
@@ -26973,10 +27134,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>20</v>
       </c>
       <c r="E5" s="60" t="s">
         <v>239</v>
@@ -27004,10 +27165,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="60" t="s">
         <v>241</v>
@@ -27033,7 +27194,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>23</v>
@@ -27062,7 +27223,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>25</v>
@@ -27091,7 +27252,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>25</v>
@@ -27120,10 +27281,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="64" t="s">
         <v>245</v>
@@ -27149,7 +27310,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>23</v>
@@ -27327,7 +27488,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D17" s="77" t="s">
         <v>31</v>
@@ -27414,10 +27575,10 @@
         <v>195</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" s="64" t="s">
         <v>256</v>
@@ -27445,10 +27606,10 @@
         <v>195</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>257</v>
@@ -27479,7 +27640,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="170" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="171" t="s">
         <v>259</v>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3307e3c88395b6d/CSProjects/PythonProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_FC79485CDD3A031112A03AC7C0633B5A26F3A6BC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40ABFEEC-3C78-504A-8AB4-87FF7B7A8F53}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_FC79485CDD3A031112A03AC7C0633B5A26F3A6BC" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B037024-8D95-DA4C-A357-D6E5895E0804}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19240" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="460" windowWidth="33600" windowHeight="18600" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2176" uniqueCount="705">
   <si>
     <t>Constructor</t>
   </si>
@@ -2179,6 +2179,18 @@
   </si>
   <si>
     <t>(DNF, slid off track)</t>
+  </si>
+  <si>
+    <t>(DNF, collision after SC restart)</t>
+  </si>
+  <si>
+    <t>(DNF, body failure)</t>
+  </si>
+  <si>
+    <t>(DNF, collision with GAS)</t>
+  </si>
+  <si>
+    <t>(DNF, collision with VER)</t>
   </si>
 </sst>
 </file>
@@ -3612,15 +3624,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3716,6 +3719,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7793,58 +7805,58 @@
   <sheetData>
     <row r="1" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="307" t="s">
+      <c r="B2" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="307" t="s">
+      <c r="D2" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="307" t="s">
+      <c r="E2" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="307" t="s">
+      <c r="F2" s="304" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="307" t="s">
+      <c r="I2" s="304" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="307" t="s">
+      <c r="J2" s="304" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="307" t="s">
+      <c r="K2" s="304" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="307" t="s">
+      <c r="L2" s="304" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="307" t="s">
+      <c r="M2" s="304" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="279" t="s">
+      <c r="N2" s="276" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="279" t="s">
+      <c r="O2" s="276" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="279" t="s">
+      <c r="P2" s="276" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="279" t="s">
+      <c r="Q2" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="277" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="307" t="s">
+      <c r="S2" s="274" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="304" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8027,36 +8039,36 @@
         <f>+VLOOKUP($C6,'R1'!$C$3:$H$22,6,)</f>
         <v>16</v>
       </c>
-      <c r="E6" s="283">
+      <c r="E6" s="280">
         <f>+VLOOKUP($C6,'R2'!$C$3:$H$22,6,)</f>
         <v>10</v>
       </c>
-      <c r="F6" s="283">
+      <c r="F6" s="280">
         <f>+VLOOKUP($C6,'R3'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="283">
+      <c r="G6" s="280">
         <f>+VLOOKUP($C6,'R4'!$C$3:$H$22,6,)</f>
         <v>10</v>
       </c>
-      <c r="H6" s="283">
+      <c r="H6" s="280">
         <f>+VLOOKUP($C6,'R5'!$C$3:$H$22,6,)</f>
         <v>2</v>
       </c>
-      <c r="I6" s="283">
+      <c r="I6" s="280">
         <f>+VLOOKUP($C6,'R6'!$C$3:$H$22,6,)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="283">
+      <c r="J6" s="280">
         <f>+VLOOKUP($C6,'R7'!$C$3:$H$22,6,)</f>
         <v>6</v>
       </c>
-      <c r="K6" s="283">
+      <c r="K6" s="280">
         <f>+VLOOKUP($C6,'R8'!$C$3:$H$22,6,)</f>
         <v>12</v>
       </c>
-      <c r="L6" s="283"/>
-      <c r="M6" s="283"/>
+      <c r="L6" s="280"/>
+      <c r="M6" s="280"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -8359,7 +8371,7 @@
       <c r="C12" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="283">
+      <c r="D12" s="280">
         <f>+VLOOKUP($C12,'R1'!$C$3:$H$22,6,)</f>
         <v>10</v>
       </c>
@@ -8367,32 +8379,32 @@
         <f>+VLOOKUP($C12,'R2'!$C$3:$H$22,6,)</f>
         <v>3</v>
       </c>
-      <c r="F12" s="283">
+      <c r="F12" s="280">
         <f>+VLOOKUP($C12,'R3'!$C$3:$H$22,6,)</f>
         <v>2</v>
       </c>
-      <c r="G12" s="283">
+      <c r="G12" s="280">
         <f>+VLOOKUP($C12,'R4'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="283">
+      <c r="H12" s="280">
         <f>+VLOOKUP($C12,'R5'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="I12" s="283">
+      <c r="I12" s="280">
         <f>+VLOOKUP($C12,'R6'!$C$3:$H$22,6,)</f>
         <v>8</v>
       </c>
-      <c r="J12" s="283">
+      <c r="J12" s="280">
         <f>+VLOOKUP($C12,'R7'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="283">
+      <c r="K12" s="280">
         <f>+VLOOKUP($C12,'R8'!$C$3:$H$22,6,)</f>
         <v>18</v>
       </c>
-      <c r="L12" s="283"/>
-      <c r="M12" s="283"/>
+      <c r="L12" s="280"/>
+      <c r="M12" s="280"/>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
@@ -8548,19 +8560,19 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="S15" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="307" t="s">
+      <c r="S15" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="U15" s="307" t="s">
+      <c r="U15" s="304" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="307" t="s">
+      <c r="V15" s="304" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="307" t="s">
+      <c r="W15" s="304" t="s">
         <v>40</v>
       </c>
     </row>
@@ -8981,13 +8993,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -8999,19 +9011,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="278" t="s">
+      <c r="I2" s="275" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="307" t="s">
+      <c r="J2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="307" t="s">
+      <c r="K2" s="304" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9274,7 +9286,7 @@
       <c r="I10" s="196" t="s">
         <v>277</v>
       </c>
-      <c r="J10" s="283">
+      <c r="J10" s="280">
         <v>8</v>
       </c>
       <c r="K10" s="4"/>
@@ -9307,7 +9319,7 @@
       <c r="I11" s="196" t="s">
         <v>280</v>
       </c>
-      <c r="J11" s="283">
+      <c r="J11" s="280">
         <v>5</v>
       </c>
       <c r="K11" s="4"/>
@@ -9704,31 +9716,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="307" t="s">
+      <c r="D2" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="304" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="307" t="s">
+      <c r="F2" s="304" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="279" t="s">
+      <c r="I2" s="276" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9966,16 +9978,16 @@
       <c r="E11" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="F11" s="283">
+      <c r="F11" s="280">
         <v>69</v>
       </c>
-      <c r="G11" s="283">
+      <c r="G11" s="280">
         <v>6</v>
       </c>
-      <c r="H11" s="283">
+      <c r="H11" s="280">
         <v>2</v>
       </c>
-      <c r="I11" s="283"/>
+      <c r="I11" s="280"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
@@ -10076,16 +10088,16 @@
       <c r="E15" s="61" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="283">
+      <c r="F15" s="280">
         <v>69</v>
       </c>
-      <c r="G15" s="283">
+      <c r="G15" s="280">
         <v>-9</v>
       </c>
-      <c r="H15" s="283">
-        <v>0</v>
-      </c>
-      <c r="I15" s="283"/>
+      <c r="H15" s="280">
+        <v>0</v>
+      </c>
+      <c r="I15" s="280"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="53">
@@ -10309,13 +10321,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -10327,19 +10339,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="278" t="s">
+      <c r="I2" s="275" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="307" t="s">
+      <c r="J2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="307" t="s">
+      <c r="K2" s="304" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10503,7 +10515,7 @@
       <c r="I7" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="J7" s="283">
+      <c r="J7" s="280">
         <v>11</v>
       </c>
       <c r="K7" s="4"/>
@@ -10569,7 +10581,7 @@
       <c r="I9" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="J9" s="283">
+      <c r="J9" s="280">
         <v>7</v>
       </c>
       <c r="K9" s="4"/>
@@ -11033,31 +11045,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="307" t="s">
+      <c r="D2" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="304" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="307" t="s">
+      <c r="F2" s="304" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="279" t="s">
+      <c r="I2" s="276" t="s">
         <v>120</v>
       </c>
     </row>
@@ -11189,16 +11201,16 @@
       <c r="E7" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="F7" s="283">
+      <c r="F7" s="280">
         <v>52</v>
       </c>
-      <c r="G7" s="283">
+      <c r="G7" s="280">
         <v>14</v>
       </c>
-      <c r="H7" s="283">
+      <c r="H7" s="280">
         <v>10</v>
       </c>
-      <c r="I7" s="283"/>
+      <c r="I7" s="280"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="53">
@@ -11409,16 +11421,16 @@
       <c r="E15" s="61" t="s">
         <v>381</v>
       </c>
-      <c r="F15" s="283">
+      <c r="F15" s="280">
         <v>52</v>
       </c>
-      <c r="G15" s="283">
+      <c r="G15" s="280">
         <v>-9</v>
       </c>
-      <c r="H15" s="283">
-        <v>0</v>
-      </c>
-      <c r="I15" s="283" t="s">
+      <c r="H15" s="280">
+        <v>0</v>
+      </c>
+      <c r="I15" s="280" t="s">
         <v>368</v>
       </c>
     </row>
@@ -11646,13 +11658,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -11664,19 +11676,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="278" t="s">
+      <c r="I2" s="275" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="307" t="s">
+      <c r="J2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="307" t="s">
+      <c r="K2" s="304" t="s">
         <v>120</v>
       </c>
     </row>
@@ -12005,7 +12017,7 @@
       <c r="I12" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="J12" s="283">
+      <c r="J12" s="280">
         <v>11</v>
       </c>
       <c r="K12" s="4"/>
@@ -12368,31 +12380,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="307" t="s">
+      <c r="D2" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="304" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="307" t="s">
+      <c r="F2" s="304" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="279" t="s">
+      <c r="I2" s="276" t="s">
         <v>120</v>
       </c>
     </row>
@@ -12631,16 +12643,16 @@
       <c r="E11" s="61" t="s">
         <v>448</v>
       </c>
-      <c r="F11" s="283">
+      <c r="F11" s="280">
         <v>52</v>
       </c>
-      <c r="G11" s="283">
+      <c r="G11" s="280">
         <v>8</v>
       </c>
-      <c r="H11" s="283">
+      <c r="H11" s="280">
         <v>2</v>
       </c>
-      <c r="I11" s="283"/>
+      <c r="I11" s="280"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="77">
@@ -12739,16 +12751,16 @@
       <c r="E15" s="61" t="s">
         <v>452</v>
       </c>
-      <c r="F15" s="283">
+      <c r="F15" s="280">
         <v>52</v>
       </c>
-      <c r="G15" s="283">
-        <v>0</v>
-      </c>
-      <c r="H15" s="283">
-        <v>0</v>
-      </c>
-      <c r="I15" s="283"/>
+      <c r="G15" s="280">
+        <v>0</v>
+      </c>
+      <c r="H15" s="280">
+        <v>0</v>
+      </c>
+      <c r="I15" s="280"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="53">
@@ -12967,13 +12979,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -12985,19 +12997,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="278" t="s">
+      <c r="I2" s="275" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="307" t="s">
+      <c r="J2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="307" t="s">
+      <c r="K2" s="304" t="s">
         <v>120</v>
       </c>
     </row>
@@ -13227,7 +13239,7 @@
       <c r="I9" s="14" t="s">
         <v>480</v>
       </c>
-      <c r="J9" s="283">
+      <c r="J9" s="280">
         <v>9</v>
       </c>
       <c r="K9" s="4"/>
@@ -13260,7 +13272,7 @@
       <c r="I10" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="J10" s="283">
+      <c r="J10" s="280">
         <v>6</v>
       </c>
       <c r="K10" s="4"/>
@@ -13687,31 +13699,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="307" t="s">
+      <c r="D2" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="304" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="307" t="s">
+      <c r="F2" s="304" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="279" t="s">
+      <c r="I2" s="276" t="s">
         <v>120</v>
       </c>
     </row>
@@ -13868,16 +13880,16 @@
       <c r="E8" s="61" t="s">
         <v>511</v>
       </c>
-      <c r="F8" s="283">
+      <c r="F8" s="280">
         <v>65</v>
       </c>
-      <c r="G8" s="283">
+      <c r="G8" s="280">
         <v>11</v>
       </c>
-      <c r="H8" s="283">
+      <c r="H8" s="280">
         <v>8</v>
       </c>
-      <c r="I8" s="283"/>
+      <c r="I8" s="280"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
@@ -13976,16 +13988,16 @@
       <c r="E12" s="61" t="s">
         <v>515</v>
       </c>
-      <c r="F12" s="283">
+      <c r="F12" s="280">
         <v>65</v>
       </c>
-      <c r="G12" s="283">
+      <c r="G12" s="280">
         <v>-2</v>
       </c>
-      <c r="H12" s="283">
+      <c r="H12" s="280">
         <v>1</v>
       </c>
-      <c r="I12" s="283"/>
+      <c r="I12" s="280"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="53">
@@ -14287,13 +14299,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -14305,19 +14317,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="278" t="s">
+      <c r="I2" s="275" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="307" t="s">
+      <c r="J2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="307" t="s">
+      <c r="K2" s="304" t="s">
         <v>120</v>
       </c>
     </row>
@@ -14547,7 +14559,7 @@
       <c r="I9" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="J9" s="283">
+      <c r="J9" s="280">
         <v>9</v>
       </c>
       <c r="K9" s="4"/>
@@ -14646,7 +14658,7 @@
       <c r="I12" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="J12" s="283">
+      <c r="J12" s="280">
         <v>4</v>
       </c>
       <c r="K12" s="4"/>
@@ -15008,31 +15020,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="307" t="s">
+      <c r="D2" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="304" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="307" t="s">
+      <c r="F2" s="304" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="279" t="s">
+      <c r="I2" s="276" t="s">
         <v>120</v>
       </c>
     </row>
@@ -15214,16 +15226,16 @@
       <c r="E9" s="61" t="s">
         <v>576</v>
       </c>
-      <c r="F9" s="283">
+      <c r="F9" s="280">
         <v>44</v>
       </c>
-      <c r="G9" s="283">
+      <c r="G9" s="280">
         <v>16</v>
       </c>
-      <c r="H9" s="283">
+      <c r="H9" s="280">
         <v>6</v>
       </c>
-      <c r="I9" s="283"/>
+      <c r="I9" s="280"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="77">
@@ -15594,13 +15606,12 @@
   <dimension ref="B1:AH69"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="8" width="10.83203125" style="262" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="10.83203125" style="262" customWidth="1"/>
+    <col min="4" max="11" width="10.83203125" style="262" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="262" customWidth="1"/>
     <col min="13" max="13" width="13" style="262" customWidth="1"/>
     <col min="14" max="16" width="13" style="262" hidden="1" customWidth="1"/>
@@ -15632,7 +15643,7 @@
       <c r="Q2" s="310"/>
     </row>
     <row r="3" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="306" t="s">
+      <c r="B3" s="303" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="250" t="s">
@@ -15680,52 +15691,52 @@
       <c r="Q3" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="279" t="s">
+      <c r="S3" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="276" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="279" t="s">
+      <c r="U3" s="276" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="279" t="s">
+      <c r="V3" s="276" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="279" t="s">
+      <c r="W3" s="276" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="279" t="s">
+      <c r="X3" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="279" t="s">
+      <c r="Y3" s="276" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="279" t="s">
+      <c r="Z3" s="276" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="279" t="s">
+      <c r="AA3" s="276" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="279" t="s">
+      <c r="AB3" s="276" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="279" t="s">
+      <c r="AC3" s="276" t="s">
         <v>59</v>
       </c>
-      <c r="AD3" s="279" t="s">
+      <c r="AD3" s="276" t="s">
         <v>60</v>
       </c>
-      <c r="AE3" s="279" t="s">
+      <c r="AE3" s="276" t="s">
         <v>61</v>
       </c>
-      <c r="AF3" s="279" t="s">
+      <c r="AF3" s="276" t="s">
         <v>62</v>
       </c>
-      <c r="AG3" s="279" t="s">
+      <c r="AG3" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="279" t="s">
+      <c r="AH3" s="276" t="s">
         <v>63</v>
       </c>
     </row>
@@ -15770,15 +15781,15 @@
       </c>
       <c r="L4" s="37">
         <f>+VLOOKUP($C4,'R9'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q9'!$B$3:$J$22,9,)</f>
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="M4" s="37"/>
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37">
-        <f t="shared" ref="Q4:Q23" si="0">SUM(D4:M4)</f>
-        <v>338</v>
+        <f>SUM(D4:M4)</f>
+        <v>372</v>
       </c>
       <c r="S4" s="38" t="s">
         <v>17</v>
@@ -15811,64 +15822,64 @@
       <c r="AE4" s="98"/>
       <c r="AF4" s="98"/>
       <c r="AG4" s="99">
-        <f t="shared" ref="AG4:AG13" si="1">SUM(T4:AC4)</f>
+        <f t="shared" ref="AG4:AG13" si="0">SUM(T4:AC4)</f>
         <v>466</v>
       </c>
       <c r="AH4" s="214">
-        <f t="shared" ref="AH4:AH13" si="2">AG4/COUNT(T4:AF4)</f>
+        <f t="shared" ref="AH4:AH13" si="1">AG4/COUNT(T4:AF4)</f>
         <v>66.571428571428569</v>
       </c>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="27">
+        <f>+VLOOKUP($C5,'R1'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q1'!$B$3:$J$22,9,)</f>
+        <v>44</v>
+      </c>
+      <c r="E5" s="27">
+        <f>+VLOOKUP($C5,'R2'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q2'!$B$3:$J$22,9,)</f>
+        <v>33</v>
+      </c>
+      <c r="F5" s="27">
+        <f>+VLOOKUP($C5,'R3'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q3'!$B$3:$J$22,9,)</f>
+        <v>26</v>
+      </c>
+      <c r="G5" s="27">
+        <f>+VLOOKUP($C5,'R4'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q4'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="27">
+        <f>+VLOOKUP($C5,'R5'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q5'!$B$3:$J$22,9,)</f>
+        <v>32</v>
+      </c>
+      <c r="I5" s="27">
+        <f>+VLOOKUP($C5,'R6'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q6'!$B$3:$J$22,9,)</f>
+        <v>31</v>
+      </c>
+      <c r="J5" s="27">
+        <f>+VLOOKUP($C5,'R7'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q7'!$B$3:$J$22,9,)</f>
+        <v>31</v>
+      </c>
+      <c r="K5" s="27">
+        <f>+VLOOKUP($C5,'R8'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q8'!$B$3:$J$22,9,)</f>
         <v>20</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="29">
-        <f>+VLOOKUP($C5,'R1'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-2</v>
-      </c>
-      <c r="E5" s="29">
-        <f>+VLOOKUP($C5,'R2'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q2'!$B$3:$J$22,9,)</f>
-        <v>31</v>
-      </c>
-      <c r="F5" s="29">
-        <f>+VLOOKUP($C5,'R3'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q3'!$B$3:$J$22,9,)</f>
+      <c r="L5" s="27">
+        <f>+VLOOKUP($C5,'R9'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q9'!$B$3:$J$22,9,)</f>
         <v>41</v>
       </c>
-      <c r="G5" s="29">
-        <f>+VLOOKUP($C5,'R4'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q4'!$B$3:$J$22,9,)</f>
-        <v>43</v>
-      </c>
-      <c r="H5" s="29">
-        <f>+VLOOKUP($C5,'R5'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q5'!$B$3:$J$22,9,)</f>
-        <v>52</v>
-      </c>
-      <c r="I5" s="29">
-        <f>+VLOOKUP($C5,'R6'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q6'!$B$3:$J$22,9,)</f>
-        <v>47</v>
-      </c>
-      <c r="J5" s="29">
-        <f>+VLOOKUP($C5,'R7'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q7'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="K5" s="29">
-        <f>+VLOOKUP($C5,'R8'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q8'!$B$3:$J$22,9,)</f>
-        <v>-4</v>
-      </c>
-      <c r="L5" s="29">
-        <f>+VLOOKUP($C5,'R9'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q9'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29">
-        <f t="shared" si="0"/>
-        <v>253</v>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27">
+        <f>SUM(D5:M5)</f>
+        <v>261</v>
       </c>
       <c r="S5" s="44" t="s">
         <v>20</v>
@@ -15901,64 +15912,58 @@
       <c r="AE5" s="101"/>
       <c r="AF5" s="101"/>
       <c r="AG5" s="102">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+      <c r="AH5" s="216">
         <f t="shared" si="1"/>
-        <v>342</v>
-      </c>
-      <c r="AH5" s="216">
-        <f t="shared" si="2"/>
         <v>48.857142857142854</v>
       </c>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B6" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="B6" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="31">
         <f>+VLOOKUP($C6,'R1'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q1'!$B$3:$J$22,9,)</f>
-        <v>44</v>
-      </c>
-      <c r="E6" s="27">
+        <v>22</v>
+      </c>
+      <c r="E6" s="31">
         <f>+VLOOKUP($C6,'R2'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q2'!$B$3:$J$22,9,)</f>
-        <v>33</v>
-      </c>
-      <c r="F6" s="27">
+        <v>23</v>
+      </c>
+      <c r="F6" s="31">
         <f>+VLOOKUP($C6,'R3'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q3'!$B$3:$J$22,9,)</f>
-        <v>26</v>
-      </c>
-      <c r="G6" s="27">
-        <f>+VLOOKUP($C6,'R4'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q4'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="H6" s="27">
-        <f>+VLOOKUP($C6,'R5'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q5'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="I6" s="27">
+        <v>11</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31">
         <f>+VLOOKUP($C6,'R6'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q6'!$B$3:$J$22,9,)</f>
-        <v>31</v>
-      </c>
-      <c r="J6" s="27">
+        <v>21</v>
+      </c>
+      <c r="J6" s="31">
         <f>+VLOOKUP($C6,'R7'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q7'!$B$3:$J$22,9,)</f>
-        <v>31</v>
-      </c>
-      <c r="K6" s="27">
+        <v>6</v>
+      </c>
+      <c r="K6" s="31">
         <f>+VLOOKUP($C6,'R8'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q8'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="L6" s="27">
+        <v>4</v>
+      </c>
+      <c r="L6" s="31">
         <f>+VLOOKUP($C6,'R9'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q9'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27">
-        <f t="shared" si="0"/>
-        <v>232</v>
+        <v>43</v>
+      </c>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31">
+        <f>SUM(D6:M6)</f>
+        <v>130</v>
       </c>
       <c r="S6" s="41" t="s">
         <v>24</v>
@@ -15991,64 +15996,64 @@
       <c r="AE6" s="103"/>
       <c r="AF6" s="103"/>
       <c r="AG6" s="104">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="AH6" s="217">
         <f t="shared" si="1"/>
-        <v>198</v>
-      </c>
-      <c r="AH6" s="217">
-        <f t="shared" si="2"/>
         <v>28.285714285714285</v>
       </c>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B7" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="51" t="s">
+      <c r="B7" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="29">
+        <f>+VLOOKUP($C7,'R1'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q1'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="E7" s="29">
+        <f>+VLOOKUP($C7,'R2'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q2'!$B$3:$J$22,9,)</f>
+        <v>24</v>
+      </c>
+      <c r="F7" s="29">
+        <f>+VLOOKUP($C7,'R3'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q3'!$B$3:$J$22,9,)</f>
         <v>23</v>
       </c>
-      <c r="D7" s="30">
-        <f>+VLOOKUP($C7,'R1'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q1'!$B$3:$J$22,9,)</f>
+      <c r="G7" s="29">
+        <f>+VLOOKUP($C7,'R4'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q4'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="H7" s="29">
+        <f>+VLOOKUP($C7,'R5'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q5'!$B$3:$J$22,9,)</f>
+        <v>24</v>
+      </c>
+      <c r="I7" s="29">
+        <f>+VLOOKUP($C7,'R6'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q6'!$B$3:$J$22,9,)</f>
+        <v>19</v>
+      </c>
+      <c r="J7" s="29">
+        <f>+VLOOKUP($C7,'R7'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q7'!$B$3:$J$22,9,)</f>
+        <v>26</v>
+      </c>
+      <c r="K7" s="29">
+        <f>+VLOOKUP($C7,'R8'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q8'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="L7" s="29">
+        <f>+VLOOKUP($C7,'R9'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q9'!$B$3:$J$22,9,)</f>
         <v>36</v>
       </c>
-      <c r="E7" s="30">
-        <f>+VLOOKUP($C7,'R2'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q2'!$B$3:$J$22,9,)</f>
-        <v>30</v>
-      </c>
-      <c r="F7" s="30">
-        <f>+VLOOKUP($C7,'R3'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="G7" s="30">
-        <f>+VLOOKUP($C7,'R4'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q4'!$B$3:$J$22,9,)</f>
-        <v>25</v>
-      </c>
-      <c r="H7" s="30">
-        <f>+VLOOKUP($C7,'R5'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q5'!$B$3:$J$22,9,)</f>
-        <v>19</v>
-      </c>
-      <c r="I7" s="30">
-        <f>+VLOOKUP($C7,'R6'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q6'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="J7" s="30">
-        <f>+VLOOKUP($C7,'R7'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q7'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="K7" s="30">
-        <f>+VLOOKUP($C7,'R8'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q8'!$B$3:$J$22,9,)</f>
-        <v>35</v>
-      </c>
-      <c r="L7" s="30">
-        <f>+VLOOKUP($C7,'R9'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q9'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30">
-        <f t="shared" si="0"/>
-        <v>170</v>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29">
+        <f>SUM(D7:M7)</f>
+        <v>169</v>
       </c>
       <c r="S7" s="39" t="s">
         <v>22</v>
@@ -16080,65 +16085,65 @@
       <c r="AD7" s="100"/>
       <c r="AE7" s="100"/>
       <c r="AF7" s="100"/>
-      <c r="AG7" s="283">
+      <c r="AG7" s="280">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="AH7" s="215">
         <f t="shared" si="1"/>
-        <v>189</v>
-      </c>
-      <c r="AH7" s="215">
-        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B8" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="31">
+      <c r="B8" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="32">
         <f>+VLOOKUP($C8,'R1'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-10</v>
-      </c>
-      <c r="E8" s="31">
+        <v>-9</v>
+      </c>
+      <c r="E8" s="32">
         <f>+VLOOKUP($C8,'R2'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q2'!$B$3:$J$22,9,)</f>
-        <v>21</v>
-      </c>
-      <c r="F8" s="31">
+        <v>13</v>
+      </c>
+      <c r="F8" s="32">
         <f>+VLOOKUP($C8,'R3'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q3'!$B$3:$J$22,9,)</f>
-        <v>27</v>
-      </c>
-      <c r="G8" s="31">
+        <v>18</v>
+      </c>
+      <c r="G8" s="32">
         <f>+VLOOKUP($C8,'R4'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q4'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="H8" s="31">
+        <v>32</v>
+      </c>
+      <c r="H8" s="32">
         <f>+VLOOKUP($C8,'R5'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q5'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="I8" s="31">
+        <v>2</v>
+      </c>
+      <c r="I8" s="32">
         <f>+VLOOKUP($C8,'R6'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q6'!$B$3:$J$22,9,)</f>
-        <v>37</v>
-      </c>
-      <c r="J8" s="31">
+        <v>12</v>
+      </c>
+      <c r="J8" s="32">
         <f>+VLOOKUP($C8,'R7'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q7'!$B$3:$J$22,9,)</f>
-        <v>16</v>
-      </c>
-      <c r="K8" s="31">
+        <v>33</v>
+      </c>
+      <c r="K8" s="32">
         <f>+VLOOKUP($C8,'R8'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q8'!$B$3:$J$22,9,)</f>
-        <v>35</v>
-      </c>
-      <c r="L8" s="31">
+        <v>23</v>
+      </c>
+      <c r="L8" s="32">
         <f>+VLOOKUP($C8,'R9'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q9'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31">
-        <f t="shared" si="0"/>
-        <v>163</v>
+        <v>28</v>
+      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32">
+        <f>SUM(D8:M8)</f>
+        <v>152</v>
       </c>
       <c r="S8" s="40" t="s">
         <v>28</v>
@@ -16171,64 +16176,64 @@
       <c r="AE8" s="105"/>
       <c r="AF8" s="105"/>
       <c r="AG8" s="106">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="AH8" s="218">
         <f t="shared" si="1"/>
-        <v>155</v>
-      </c>
-      <c r="AH8" s="218">
-        <f t="shared" si="2"/>
         <v>22.142857142857142</v>
       </c>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="30">
+        <f>+VLOOKUP($C9,'R1'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q1'!$B$3:$J$22,9,)</f>
+        <v>36</v>
+      </c>
+      <c r="E9" s="30">
+        <f>+VLOOKUP($C9,'R2'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q2'!$B$3:$J$22,9,)</f>
+        <v>30</v>
+      </c>
+      <c r="F9" s="30">
+        <f>+VLOOKUP($C9,'R3'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q3'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="G9" s="30">
+        <f>+VLOOKUP($C9,'R4'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q4'!$B$3:$J$22,9,)</f>
+        <v>25</v>
+      </c>
+      <c r="H9" s="30">
+        <f>+VLOOKUP($C9,'R5'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q5'!$B$3:$J$22,9,)</f>
+        <v>19</v>
+      </c>
+      <c r="I9" s="30">
+        <f>+VLOOKUP($C9,'R6'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q6'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="J9" s="30">
+        <f>+VLOOKUP($C9,'R7'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q7'!$B$3:$J$22,9,)</f>
         <v>20</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="29">
-        <f>+VLOOKUP($C9,'R1'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q1'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="E9" s="29">
-        <f>+VLOOKUP($C9,'R2'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q2'!$B$3:$J$22,9,)</f>
+      <c r="K9" s="30">
+        <f>+VLOOKUP($C9,'R8'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q8'!$B$3:$J$22,9,)</f>
+        <v>35</v>
+      </c>
+      <c r="L9" s="30">
+        <f>+VLOOKUP($C9,'R9'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q9'!$B$3:$J$22,9,)</f>
         <v>24</v>
       </c>
-      <c r="F9" s="29">
-        <f>+VLOOKUP($C9,'R3'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q3'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="G9" s="29">
-        <f>+VLOOKUP($C9,'R4'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q4'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="H9" s="29">
-        <f>+VLOOKUP($C9,'R5'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q5'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="I9" s="29">
-        <f>+VLOOKUP($C9,'R6'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q6'!$B$3:$J$22,9,)</f>
-        <v>19</v>
-      </c>
-      <c r="J9" s="29">
-        <f>+VLOOKUP($C9,'R7'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q7'!$B$3:$J$22,9,)</f>
-        <v>26</v>
-      </c>
-      <c r="K9" s="29">
-        <f>+VLOOKUP($C9,'R8'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q8'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="L9" s="29">
-        <f>+VLOOKUP($C9,'R9'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q9'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29">
-        <f t="shared" si="0"/>
-        <v>143</v>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30">
+        <f>SUM(D9:M9)</f>
+        <v>192</v>
       </c>
       <c r="S9" s="42" t="s">
         <v>26</v>
@@ -16261,64 +16266,64 @@
       <c r="AE9" s="107"/>
       <c r="AF9" s="107"/>
       <c r="AG9" s="108">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="AH9" s="219">
         <f t="shared" si="1"/>
-        <v>178</v>
-      </c>
-      <c r="AH9" s="219">
-        <f t="shared" si="2"/>
         <v>25.428571428571427</v>
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B10" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="32">
+      <c r="B10" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="82">
         <f>+VLOOKUP($C10,'R1'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-9</v>
-      </c>
-      <c r="E10" s="32">
+        <v>5</v>
+      </c>
+      <c r="E10" s="82">
         <f>+VLOOKUP($C10,'R2'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q2'!$B$3:$J$22,9,)</f>
         <v>13</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="82">
         <f>+VLOOKUP($C10,'R3'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q3'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="G10" s="32">
+        <v>15</v>
+      </c>
+      <c r="G10" s="82">
         <f>+VLOOKUP($C10,'R4'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q4'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="H10" s="32">
+        <v>-13</v>
+      </c>
+      <c r="H10" s="82">
         <f>+VLOOKUP($C10,'R5'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I10" s="32">
+        <v>16</v>
+      </c>
+      <c r="I10" s="82">
         <f>+VLOOKUP($C10,'R6'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q6'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="J10" s="32">
+        <v>3</v>
+      </c>
+      <c r="J10" s="82">
         <f>+VLOOKUP($C10,'R7'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q7'!$B$3:$J$22,9,)</f>
-        <v>33</v>
-      </c>
-      <c r="K10" s="32">
+        <v>5</v>
+      </c>
+      <c r="K10" s="82">
         <f>+VLOOKUP($C10,'R8'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q8'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="L10" s="32">
+        <v>9</v>
+      </c>
+      <c r="L10" s="82">
         <f>+VLOOKUP($C10,'R9'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q9'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32">
-        <f t="shared" si="0"/>
-        <v>128</v>
+        <v>24</v>
+      </c>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82">
+        <f>SUM(D10:M10)</f>
+        <v>77</v>
       </c>
       <c r="S10" s="43" t="s">
         <v>32</v>
@@ -16351,64 +16356,64 @@
       <c r="AE10" s="111"/>
       <c r="AF10" s="111"/>
       <c r="AG10" s="112">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="AH10" s="221">
         <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="AH10" s="221">
-        <f t="shared" si="2"/>
         <v>14.857142857142858</v>
       </c>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B11" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="82">
+      <c r="B11" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="33">
         <f>+VLOOKUP($C11,'R1'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q1'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="E11" s="82">
+        <v>-14</v>
+      </c>
+      <c r="E11" s="33">
         <f>+VLOOKUP($C11,'R2'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="F11" s="82">
+        <v>17</v>
+      </c>
+      <c r="F11" s="33">
         <f>+VLOOKUP($C11,'R3'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-9</v>
-      </c>
-      <c r="G11" s="82">
+        <v>15</v>
+      </c>
+      <c r="G11" s="33">
         <f>+VLOOKUP($C11,'R4'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q4'!$B$3:$J$22,9,)</f>
-        <v>22</v>
-      </c>
-      <c r="H11" s="82">
+        <v>1</v>
+      </c>
+      <c r="H11" s="33">
         <f>+VLOOKUP($C11,'R5'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I11" s="82">
+        <v>15</v>
+      </c>
+      <c r="I11" s="33">
         <f>+VLOOKUP($C11,'R6'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q6'!$B$3:$J$22,9,)</f>
-        <v>14</v>
-      </c>
-      <c r="J11" s="82">
+        <v>8</v>
+      </c>
+      <c r="J11" s="33">
         <f>+VLOOKUP($C11,'R7'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q7'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="K11" s="33">
+        <f>+VLOOKUP($C11,'R8'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q8'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="L11" s="33">
+        <f>+VLOOKUP($C11,'R9'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q9'!$B$3:$J$22,9,)</f>
         <v>18</v>
       </c>
-      <c r="K11" s="82">
-        <f>+VLOOKUP($C11,'R8'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q8'!$B$3:$J$22,9,)</f>
-        <v>45</v>
-      </c>
-      <c r="L11" s="82">
-        <f>+VLOOKUP($C11,'R9'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q9'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82">
-        <f t="shared" si="0"/>
-        <v>116</v>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33">
+        <f>SUM(D11:M11)</f>
+        <v>85</v>
       </c>
       <c r="S11" s="81" t="s">
         <v>30</v>
@@ -16441,64 +16446,64 @@
       <c r="AE11" s="109"/>
       <c r="AF11" s="109"/>
       <c r="AG11" s="110">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="AH11" s="220">
         <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="AH11" s="220">
-        <f t="shared" si="2"/>
         <v>15.571428571428571</v>
       </c>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B12" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="32">
+      <c r="B12" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="35">
         <f>+VLOOKUP($C12,'R1'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q1'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="E12" s="32">
+        <v>-12</v>
+      </c>
+      <c r="E12" s="35">
         <f>+VLOOKUP($C12,'R2'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-4</v>
-      </c>
-      <c r="F12" s="32">
+        <v>3</v>
+      </c>
+      <c r="F12" s="35">
         <f>+VLOOKUP($C12,'R3'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q3'!$B$3:$J$22,9,)</f>
         <v>3</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="35">
         <f>+VLOOKUP($C12,'R4'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q4'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="H12" s="32">
+        <v>18</v>
+      </c>
+      <c r="H12" s="35">
         <f>+VLOOKUP($C12,'R5'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q5'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="I12" s="32">
+        <v>5</v>
+      </c>
+      <c r="I12" s="35">
         <f>+VLOOKUP($C12,'R6'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q6'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="J12" s="32">
+        <v>9</v>
+      </c>
+      <c r="J12" s="35">
         <f>+VLOOKUP($C12,'R7'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q7'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="K12" s="32">
+        <v>-11</v>
+      </c>
+      <c r="K12" s="35">
         <f>+VLOOKUP($C12,'R8'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q8'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="L12" s="32">
+        <v>14</v>
+      </c>
+      <c r="L12" s="35">
         <f>+VLOOKUP($C12,'R9'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q9'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <v>17</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35">
+        <f>SUM(D12:M12)</f>
+        <v>46</v>
       </c>
       <c r="S12" s="45" t="s">
         <v>34</v>
@@ -16531,64 +16536,64 @@
       <c r="AE12" s="113"/>
       <c r="AF12" s="113"/>
       <c r="AG12" s="114">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="AH12" s="222">
         <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="AH12" s="222">
-        <f t="shared" si="2"/>
         <v>9.5714285714285712</v>
       </c>
     </row>
     <row r="13" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="30">
+      <c r="B13" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="34">
         <f>+VLOOKUP($C13,'R1'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q1'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="E13" s="30">
+        <v>-11</v>
+      </c>
+      <c r="E13" s="34">
         <f>+VLOOKUP($C13,'R2'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q2'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="F13" s="34">
+        <f>+VLOOKUP($C13,'R3'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q3'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="G13" s="34">
+        <f>+VLOOKUP($C13,'R4'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q4'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
+      <c r="H13" s="34">
+        <f>+VLOOKUP($C13,'R5'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q5'!$B$3:$J$22,9,)</f>
+        <v>5</v>
+      </c>
+      <c r="I13" s="34">
+        <f>+VLOOKUP($C13,'R6'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q6'!$B$3:$J$22,9,)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="34">
+        <f>+VLOOKUP($C13,'R7'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q7'!$B$3:$J$22,9,)</f>
         <v>11</v>
       </c>
-      <c r="F13" s="30">
-        <f>+VLOOKUP($C13,'R3'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q3'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="G13" s="30">
-        <f>+VLOOKUP($C13,'R4'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q4'!$B$3:$J$22,9,)</f>
-        <v>-2</v>
-      </c>
-      <c r="H13" s="30">
-        <f>+VLOOKUP($C13,'R5'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I13" s="30">
-        <f>+VLOOKUP($C13,'R6'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q6'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="J13" s="30">
-        <f>+VLOOKUP($C13,'R7'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q7'!$B$3:$J$22,9,)</f>
-        <v>-6</v>
-      </c>
-      <c r="K13" s="30">
+      <c r="K13" s="34">
         <f>+VLOOKUP($C13,'R8'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q8'!$B$3:$J$22,9,)</f>
-        <v>37</v>
-      </c>
-      <c r="L13" s="30">
+        <v>13</v>
+      </c>
+      <c r="L13" s="34">
         <f>+VLOOKUP($C13,'R9'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q9'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30">
-        <f t="shared" si="0"/>
-        <v>103</v>
+        <v>14</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34">
+        <f>SUM(D13:M13)</f>
+        <v>57</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>36</v>
@@ -16621,58 +16626,64 @@
       <c r="AE13" s="115"/>
       <c r="AF13" s="115"/>
       <c r="AG13" s="116">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="AH13" s="223">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="AH13" s="223">
-        <f t="shared" si="2"/>
         <v>7.4285714285714288</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="31">
+      <c r="B14" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="28">
         <f>+VLOOKUP($C14,'R1'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q1'!$B$3:$J$22,9,)</f>
-        <v>22</v>
-      </c>
-      <c r="E14" s="31">
+        <v>41</v>
+      </c>
+      <c r="E14" s="28">
         <f>+VLOOKUP($C14,'R2'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q2'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="F14" s="31">
+        <v>-13</v>
+      </c>
+      <c r="F14" s="28">
         <f>+VLOOKUP($C14,'R3'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q3'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="28">
+        <f>+VLOOKUP($C14,'R4'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q4'!$B$3:$J$22,9,)</f>
+        <v>33</v>
+      </c>
+      <c r="H14" s="28">
+        <f>+VLOOKUP($C14,'R5'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q5'!$B$3:$J$22,9,)</f>
+        <v>32</v>
+      </c>
+      <c r="I14" s="28">
         <f>+VLOOKUP($C14,'R6'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q6'!$B$3:$J$22,9,)</f>
-        <v>21</v>
-      </c>
-      <c r="J14" s="31">
+        <v>-8</v>
+      </c>
+      <c r="J14" s="28">
         <f>+VLOOKUP($C14,'R7'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q7'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="K14" s="31">
+        <v>4</v>
+      </c>
+      <c r="K14" s="28">
         <f>+VLOOKUP($C14,'R8'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q8'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="L14" s="31">
+        <v>-11</v>
+      </c>
+      <c r="L14" s="28">
         <f>+VLOOKUP($C14,'R9'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q9'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31">
-        <f t="shared" si="0"/>
-        <v>97</v>
+        <v>13</v>
+      </c>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28">
+        <f>SUM(D14:M14)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -16680,51 +16691,51 @@
         <v>28</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D15" s="28">
         <f>+VLOOKUP($C15,'R1'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q1'!$B$3:$J$22,9,)</f>
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="E15" s="28">
         <f>+VLOOKUP($C15,'R2'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="F15" s="28">
         <f>+VLOOKUP($C15,'R3'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="G15" s="28">
         <f>+VLOOKUP($C15,'R4'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q4'!$B$3:$J$22,9,)</f>
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="H15" s="28">
         <f>+VLOOKUP($C15,'R5'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q5'!$B$3:$J$22,9,)</f>
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="I15" s="28">
         <f>+VLOOKUP($C15,'R6'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q6'!$B$3:$J$22,9,)</f>
-        <v>-8</v>
+        <v>20</v>
       </c>
       <c r="J15" s="28">
         <f>+VLOOKUP($C15,'R7'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q7'!$B$3:$J$22,9,)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K15" s="28">
         <f>+VLOOKUP($C15,'R8'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q8'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="L15" s="28">
         <f>+VLOOKUP($C15,'R9'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q9'!$B$3:$J$22,9,)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M15" s="28"/>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
       <c r="Q15" s="28">
-        <f t="shared" si="0"/>
-        <v>88</v>
+        <f>SUM(D15:M15)</f>
+        <v>52</v>
       </c>
       <c r="Y15" s="238" t="s">
         <v>0</v>
@@ -16743,55 +16754,55 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="29">
+        <f>+VLOOKUP($C16,'R1'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q1'!$B$3:$J$22,9,)</f>
+        <v>-2</v>
+      </c>
+      <c r="E16" s="29">
+        <f>+VLOOKUP($C16,'R2'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q2'!$B$3:$J$22,9,)</f>
+        <v>31</v>
+      </c>
+      <c r="F16" s="29">
+        <f>+VLOOKUP($C16,'R3'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q3'!$B$3:$J$22,9,)</f>
+        <v>41</v>
+      </c>
+      <c r="G16" s="29">
+        <f>+VLOOKUP($C16,'R4'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q4'!$B$3:$J$22,9,)</f>
+        <v>43</v>
+      </c>
+      <c r="H16" s="29">
+        <f>+VLOOKUP($C16,'R5'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q5'!$B$3:$J$22,9,)</f>
+        <v>52</v>
+      </c>
+      <c r="I16" s="29">
+        <f>+VLOOKUP($C16,'R6'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q6'!$B$3:$J$22,9,)</f>
+        <v>47</v>
+      </c>
+      <c r="J16" s="29">
+        <f>+VLOOKUP($C16,'R7'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q7'!$B$3:$J$22,9,)</f>
         <v>32</v>
       </c>
-      <c r="C16" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="33">
-        <f>+VLOOKUP($C16,'R1'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="E16" s="33">
-        <f>+VLOOKUP($C16,'R2'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q2'!$B$3:$J$22,9,)</f>
-        <v>17</v>
-      </c>
-      <c r="F16" s="33">
-        <f>+VLOOKUP($C16,'R3'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q3'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="G16" s="33">
-        <f>+VLOOKUP($C16,'R4'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q4'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="H16" s="33">
-        <f>+VLOOKUP($C16,'R5'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q5'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="I16" s="33">
-        <f>+VLOOKUP($C16,'R6'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q6'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="J16" s="33">
-        <f>+VLOOKUP($C16,'R7'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q7'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="K16" s="33">
+      <c r="K16" s="29">
         <f>+VLOOKUP($C16,'R8'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q8'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="L16" s="33">
+        <v>-4</v>
+      </c>
+      <c r="L16" s="29">
         <f>+VLOOKUP($C16,'R9'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q9'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33">
-        <f t="shared" si="0"/>
-        <v>71</v>
+        <v>-2</v>
+      </c>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29">
+        <f>SUM(D16:M16)</f>
+        <v>238</v>
       </c>
       <c r="Y16" s="240" t="s">
         <v>24</v>
@@ -16810,263 +16821,263 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="31">
+        <f>+VLOOKUP($C17,'R1'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q1'!$B$3:$J$22,9,)</f>
+        <v>-10</v>
+      </c>
+      <c r="E17" s="31">
+        <f>+VLOOKUP($C17,'R2'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q2'!$B$3:$J$22,9,)</f>
+        <v>21</v>
+      </c>
+      <c r="F17" s="31">
+        <f>+VLOOKUP($C17,'R3'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q3'!$B$3:$J$22,9,)</f>
+        <v>27</v>
+      </c>
+      <c r="G17" s="31">
+        <f>+VLOOKUP($C17,'R4'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q4'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="H17" s="31">
+        <f>+VLOOKUP($C17,'R5'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q5'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="I17" s="31">
+        <f>+VLOOKUP($C17,'R6'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q6'!$B$3:$J$22,9,)</f>
+        <v>37</v>
+      </c>
+      <c r="J17" s="31">
+        <f>+VLOOKUP($C17,'R7'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q7'!$B$3:$J$22,9,)</f>
+        <v>16</v>
+      </c>
+      <c r="K17" s="31">
+        <f>+VLOOKUP($C17,'R8'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q8'!$B$3:$J$22,9,)</f>
+        <v>35</v>
+      </c>
+      <c r="L17" s="31">
+        <f>+VLOOKUP($C17,'R9'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-8</v>
+      </c>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31">
+        <f>SUM(D17:M17)</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="30">
+        <f>+VLOOKUP($C18,'R1'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q1'!$B$3:$J$22,9,)</f>
+        <v>23</v>
+      </c>
+      <c r="E18" s="30">
+        <f>+VLOOKUP($C18,'R2'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q2'!$B$3:$J$22,9,)</f>
+        <v>11</v>
+      </c>
+      <c r="F18" s="30">
+        <f>+VLOOKUP($C18,'R3'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q3'!$B$3:$J$22,9,)</f>
+        <v>11</v>
+      </c>
+      <c r="G18" s="30">
+        <f>+VLOOKUP($C18,'R4'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q4'!$B$3:$J$22,9,)</f>
+        <v>-2</v>
+      </c>
+      <c r="H18" s="30">
+        <f>+VLOOKUP($C18,'R5'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q5'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="I18" s="30">
+        <f>+VLOOKUP($C18,'R6'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q6'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="J18" s="30">
+        <f>+VLOOKUP($C18,'R7'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q7'!$B$3:$J$22,9,)</f>
+        <v>-6</v>
+      </c>
+      <c r="K18" s="30">
+        <f>+VLOOKUP($C18,'R8'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q8'!$B$3:$J$22,9,)</f>
+        <v>37</v>
+      </c>
+      <c r="L18" s="30">
+        <f>+VLOOKUP($C18,'R9'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-8</v>
+      </c>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30">
+        <f>SUM(D18:M18)</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="32">
+        <f>+VLOOKUP($C19,'R1'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q1'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="E19" s="32">
+        <f>+VLOOKUP($C19,'R2'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q2'!$B$3:$J$22,9,)</f>
+        <v>-4</v>
+      </c>
+      <c r="F19" s="32">
+        <f>+VLOOKUP($C19,'R3'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q3'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="G19" s="32">
+        <f>+VLOOKUP($C19,'R4'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q4'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="H19" s="32">
+        <f>+VLOOKUP($C19,'R5'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q5'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="I19" s="32">
+        <f>+VLOOKUP($C19,'R6'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q6'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
+      <c r="J19" s="32">
+        <f>+VLOOKUP($C19,'R7'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q7'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="K19" s="32">
+        <f>+VLOOKUP($C19,'R8'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q8'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="L19" s="32">
+        <f>+VLOOKUP($C19,'R9'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-11</v>
+      </c>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32">
+        <f>SUM(D19:M19)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="82">
+        <f>+VLOOKUP($C20,'R1'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q1'!$B$3:$J$22,9,)</f>
+        <v>24</v>
+      </c>
+      <c r="E20" s="82">
+        <f>+VLOOKUP($C20,'R2'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q2'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="F20" s="82">
+        <f>+VLOOKUP($C20,'R3'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q3'!$B$3:$J$22,9,)</f>
+        <v>-9</v>
+      </c>
+      <c r="G20" s="82">
+        <f>+VLOOKUP($C20,'R4'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q4'!$B$3:$J$22,9,)</f>
+        <v>22</v>
+      </c>
+      <c r="H20" s="82">
+        <f>+VLOOKUP($C20,'R5'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q5'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="I20" s="82">
+        <f>+VLOOKUP($C20,'R6'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q6'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="J20" s="82">
+        <f>+VLOOKUP($C20,'R7'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q7'!$B$3:$J$22,9,)</f>
+        <v>18</v>
+      </c>
+      <c r="K20" s="82">
+        <f>+VLOOKUP($C20,'R8'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q8'!$B$3:$J$22,9,)</f>
+        <v>45</v>
+      </c>
+      <c r="L20" s="82">
+        <f>+VLOOKUP($C20,'R9'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82">
+        <f>SUM(D20:M20)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C21" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="33">
-        <f>+VLOOKUP($C17,'R1'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q1'!$B$3:$J$22,9,)</f>
+      <c r="D21" s="33">
+        <f>+VLOOKUP($C21,'R1'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q1'!$B$3:$J$22,9,)</f>
         <v>19</v>
       </c>
-      <c r="E17" s="33">
-        <f>+VLOOKUP($C17,'R2'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q2'!$B$3:$J$22,9,)</f>
+      <c r="E21" s="33">
+        <f>+VLOOKUP($C21,'R2'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q2'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="F17" s="33">
-        <f>+VLOOKUP($C17,'R3'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q3'!$B$3:$J$22,9,)</f>
+      <c r="F21" s="33">
+        <f>+VLOOKUP($C21,'R3'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q3'!$B$3:$J$22,9,)</f>
         <v>8</v>
       </c>
-      <c r="G17" s="33">
-        <f>+VLOOKUP($C17,'R4'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q4'!$B$3:$J$22,9,)</f>
+      <c r="G21" s="33">
+        <f>+VLOOKUP($C21,'R4'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q4'!$B$3:$J$22,9,)</f>
         <v>9</v>
       </c>
-      <c r="H17" s="33">
-        <f>+VLOOKUP($C17,'R5'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="H21" s="33">
+        <f>+VLOOKUP($C21,'R5'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q5'!$B$3:$J$22,9,)</f>
         <v>8</v>
       </c>
-      <c r="I17" s="33">
-        <f>+VLOOKUP($C17,'R6'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q6'!$B$3:$J$22,9,)</f>
+      <c r="I21" s="33">
+        <f>+VLOOKUP($C21,'R6'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q6'!$B$3:$J$22,9,)</f>
         <v>10</v>
       </c>
-      <c r="J17" s="33">
-        <f>+VLOOKUP($C17,'R7'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q7'!$B$3:$J$22,9,)</f>
+      <c r="J21" s="33">
+        <f>+VLOOKUP($C21,'R7'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q7'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="K17" s="33">
-        <f>+VLOOKUP($C17,'R8'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q8'!$B$3:$J$22,9,)</f>
+      <c r="K21" s="33">
+        <f>+VLOOKUP($C21,'R8'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q8'!$B$3:$J$22,9,)</f>
         <v>6</v>
       </c>
-      <c r="L17" s="33">
-        <f>+VLOOKUP($C17,'R9'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q9'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="35">
-        <f>+VLOOKUP($C18,'R1'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q1'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="E18" s="35">
-        <f>+VLOOKUP($C18,'R2'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q2'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="F18" s="35">
-        <f>+VLOOKUP($C18,'R3'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="G18" s="35">
-        <f>+VLOOKUP($C18,'R4'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q4'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="H18" s="35">
-        <f>+VLOOKUP($C18,'R5'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q5'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="I18" s="35">
-        <f>+VLOOKUP($C18,'R6'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q6'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="J18" s="35">
-        <f>+VLOOKUP($C18,'R7'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q7'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="K18" s="35">
-        <f>+VLOOKUP($C18,'R8'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q8'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="L18" s="35">
-        <f>+VLOOKUP($C18,'R9'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q9'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="82">
-        <f>+VLOOKUP($C19,'R1'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q1'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="E19" s="82">
-        <f>+VLOOKUP($C19,'R2'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q2'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="F19" s="82">
-        <f>+VLOOKUP($C19,'R3'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q3'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="G19" s="82">
-        <f>+VLOOKUP($C19,'R4'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q4'!$B$3:$J$22,9,)</f>
-        <v>-13</v>
-      </c>
-      <c r="H19" s="82">
-        <f>+VLOOKUP($C19,'R5'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q5'!$B$3:$J$22,9,)</f>
-        <v>16</v>
-      </c>
-      <c r="I19" s="82">
-        <f>+VLOOKUP($C19,'R6'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q6'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="J19" s="82">
-        <f>+VLOOKUP($C19,'R7'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q7'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="K19" s="82">
-        <f>+VLOOKUP($C19,'R8'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q8'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="L19" s="82">
-        <f>+VLOOKUP($C19,'R9'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q9'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="34">
-        <f>+VLOOKUP($C20,'R1'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
-      </c>
-      <c r="E20" s="34">
-        <f>+VLOOKUP($C20,'R2'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q2'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="F20" s="34">
-        <f>+VLOOKUP($C20,'R3'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q3'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="G20" s="34">
-        <f>+VLOOKUP($C20,'R4'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q4'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="H20" s="34">
-        <f>+VLOOKUP($C20,'R5'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q5'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="I20" s="34">
-        <f>+VLOOKUP($C20,'R6'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q6'!$B$3:$J$22,9,)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="34">
-        <f>+VLOOKUP($C20,'R7'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q7'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="K20" s="34">
-        <f>+VLOOKUP($C20,'R8'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q8'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="L20" s="34">
-        <f>+VLOOKUP($C20,'R9'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q9'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="28">
-        <f>+VLOOKUP($C21,'R1'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q1'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="E21" s="28">
-        <f>+VLOOKUP($C21,'R2'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-9</v>
-      </c>
-      <c r="F21" s="28">
-        <f>+VLOOKUP($C21,'R3'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q3'!$B$3:$J$22,9,)</f>
-        <v>21</v>
-      </c>
-      <c r="G21" s="28">
-        <f>+VLOOKUP($C21,'R4'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q4'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="H21" s="28">
-        <f>+VLOOKUP($C21,'R5'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I21" s="28">
-        <f>+VLOOKUP($C21,'R6'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q6'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="J21" s="28">
-        <f>+VLOOKUP($C21,'R7'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q7'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="K21" s="28">
-        <f>+VLOOKUP($C21,'R8'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q8'!$B$3:$J$22,9,)</f>
+      <c r="L21" s="33">
+        <f>+VLOOKUP($C21,'R9'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q9'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="L21" s="28">
-        <f>+VLOOKUP($C21,'R9'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q9'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28">
-        <f t="shared" si="0"/>
-        <v>42</v>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33">
+        <f>SUM(D21:M21)</f>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
@@ -17074,103 +17085,103 @@
         <v>36</v>
       </c>
       <c r="C22" s="56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="35">
         <f>+VLOOKUP($C22,'R1'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-12</v>
+        <v>15</v>
       </c>
       <c r="E22" s="35">
         <f>+VLOOKUP($C22,'R2'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q2'!$B$3:$J$22,9,)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22" s="35">
         <f>+VLOOKUP($C22,'R3'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q3'!$B$3:$J$22,9,)</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G22" s="35">
         <f>+VLOOKUP($C22,'R4'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q4'!$B$3:$J$22,9,)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H22" s="35">
         <f>+VLOOKUP($C22,'R5'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q5'!$B$3:$J$22,9,)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I22" s="35">
         <f>+VLOOKUP($C22,'R6'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q6'!$B$3:$J$22,9,)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J22" s="35">
         <f>+VLOOKUP($C22,'R7'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q7'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="K22" s="35">
         <f>+VLOOKUP($C22,'R8'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q8'!$B$3:$J$22,9,)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L22" s="35">
         <f>+VLOOKUP($C22,'R9'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q9'!$B$3:$J$22,9,)</f>
-        <v>3</v>
+        <v>-14</v>
       </c>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <f>SUM(D22:M22)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="284" t="s">
+      <c r="B23" s="281" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="285">
+      <c r="D23" s="282">
         <f>+VLOOKUP($C23,'R1'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q1'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="E23" s="285">
+      <c r="E23" s="282">
         <f>+VLOOKUP($C23,'R2'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q2'!$B$3:$J$22,9,)</f>
         <v>14</v>
       </c>
-      <c r="F23" s="285">
+      <c r="F23" s="282">
         <f>+VLOOKUP($C23,'R3'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q3'!$B$3:$J$22,9,)</f>
         <v>18</v>
       </c>
-      <c r="G23" s="285">
+      <c r="G23" s="282">
         <f>+VLOOKUP($C23,'R4'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q4'!$B$3:$J$22,9,)</f>
         <v>-12</v>
       </c>
-      <c r="H23" s="285">
+      <c r="H23" s="282">
         <f>+VLOOKUP($C23,'R5'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q5'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="I23" s="285">
+      <c r="I23" s="282">
         <f>+VLOOKUP($C23,'R6'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q6'!$B$3:$J$22,9,)</f>
         <v>9</v>
       </c>
-      <c r="J23" s="285">
+      <c r="J23" s="282">
         <f>+VLOOKUP($C23,'R7'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q7'!$B$3:$J$22,9,)</f>
         <v>8</v>
       </c>
-      <c r="K23" s="285">
+      <c r="K23" s="282">
         <f>+VLOOKUP($C23,'R8'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q8'!$B$3:$J$22,9,)</f>
         <v>-11</v>
       </c>
-      <c r="L23" s="285">
+      <c r="L23" s="282">
         <f>+VLOOKUP($C23,'R9'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q9'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="M23" s="285"/>
-      <c r="N23" s="285"/>
-      <c r="O23" s="285"/>
-      <c r="P23" s="285"/>
-      <c r="Q23" s="285">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-14</v>
+      </c>
+      <c r="M23" s="282"/>
+      <c r="N23" s="282"/>
+      <c r="O23" s="282"/>
+      <c r="P23" s="282"/>
+      <c r="Q23" s="282">
+        <f>SUM(D23:M23)</f>
+        <v>-16</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -17198,49 +17209,49 @@
       <c r="B26" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="307" t="s">
+      <c r="C26" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="279" t="s">
+      <c r="D26" s="276" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="279" t="s">
+      <c r="E26" s="276" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="279" t="s">
+      <c r="F26" s="276" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="279" t="s">
+      <c r="G26" s="276" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="279" t="s">
+      <c r="H26" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="279" t="s">
+      <c r="I26" s="276" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="279" t="s">
+      <c r="J26" s="276" t="s">
         <v>56</v>
       </c>
-      <c r="K26" s="279" t="s">
+      <c r="K26" s="276" t="s">
         <v>57</v>
       </c>
-      <c r="L26" s="279" t="s">
+      <c r="L26" s="276" t="s">
         <v>58</v>
       </c>
-      <c r="M26" s="279" t="s">
+      <c r="M26" s="276" t="s">
         <v>59</v>
       </c>
-      <c r="N26" s="279" t="s">
+      <c r="N26" s="276" t="s">
         <v>60</v>
       </c>
-      <c r="O26" s="279" t="s">
+      <c r="O26" s="276" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="279" t="s">
+      <c r="P26" s="276" t="s">
         <v>62</v>
       </c>
-      <c r="Q26" s="279" t="s">
+      <c r="Q26" s="276" t="s">
         <v>15</v>
       </c>
     </row>
@@ -17292,7 +17303,7 @@
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="37">
-        <f t="shared" ref="Q27:Q46" si="3">SUM(D27:M27)</f>
+        <f t="shared" ref="Q27:Q46" si="2">SUM(D27:M27)</f>
         <v>134</v>
       </c>
     </row>
@@ -17344,7 +17355,7 @@
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
     </row>
@@ -17396,112 +17407,112 @@
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="31">
+        <f>+VLOOKUP($C30,'Q1'!$B$3:$J$22,9,)</f>
+        <v>5</v>
+      </c>
+      <c r="E30" s="31">
+        <f>+VLOOKUP($C30,'Q2'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="F30" s="31">
+        <f>+VLOOKUP($C30,'Q3'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="G30" s="31">
+        <f>+VLOOKUP($C30,'Q4'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="H30" s="31">
+        <f>+VLOOKUP($C30,'Q5'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="I30" s="31">
+        <f>+VLOOKUP($C30,'Q6'!$B$3:$J$22,9,)</f>
+        <v>9</v>
+      </c>
+      <c r="J30" s="31">
+        <f>+VLOOKUP($C30,'Q7'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="K30" s="31">
+        <f>+VLOOKUP($C30,'Q8'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="L30" s="31">
+        <f>+VLOOKUP($C30,'Q9'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="30">
-        <f>+VLOOKUP($C30,'Q1'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="E30" s="30">
-        <f>+VLOOKUP($C30,'Q2'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="F30" s="30">
-        <f>+VLOOKUP($C30,'Q3'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="G30" s="30">
-        <f>+VLOOKUP($C30,'Q4'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="H30" s="30">
-        <f>+VLOOKUP($C30,'Q5'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="I30" s="30">
-        <f>+VLOOKUP($C30,'Q6'!$B$3:$J$22,9,)</f>
+      <c r="C31" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="30">
+        <f>+VLOOKUP($C31,'Q1'!$B$3:$J$22,9,)</f>
         <v>6</v>
       </c>
-      <c r="J30" s="30">
-        <f>+VLOOKUP($C30,'Q7'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="K30" s="30">
-        <f>+VLOOKUP($C30,'Q8'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="L30" s="30">
-        <f>+VLOOKUP($C30,'Q9'!$B$3:$J$22,9,)</f>
+      <c r="E31" s="30">
+        <f>+VLOOKUP($C31,'Q2'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="F31" s="30">
+        <f>+VLOOKUP($C31,'Q3'!$B$3:$J$22,9,)</f>
+        <v>5</v>
+      </c>
+      <c r="G31" s="30">
+        <f>+VLOOKUP($C31,'Q4'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
+      <c r="H31" s="30">
+        <f>+VLOOKUP($C31,'Q5'!$B$3:$J$22,9,)</f>
         <v>2</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30">
-        <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="31">
-        <f>+VLOOKUP($C31,'Q1'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="E31" s="31">
-        <f>+VLOOKUP($C31,'Q2'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="F31" s="31">
-        <f>+VLOOKUP($C31,'Q3'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="G31" s="31">
-        <f>+VLOOKUP($C31,'Q4'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="H31" s="31">
-        <f>+VLOOKUP($C31,'Q5'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="I31" s="31">
+      <c r="I31" s="30">
         <f>+VLOOKUP($C31,'Q6'!$B$3:$J$22,9,)</f>
         <v>9</v>
       </c>
-      <c r="J31" s="31">
+      <c r="J31" s="30">
         <f>+VLOOKUP($C31,'Q7'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="K31" s="31">
+        <v>9</v>
+      </c>
+      <c r="K31" s="30">
         <f>+VLOOKUP($C31,'Q8'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="L31" s="31">
+        <v>13</v>
+      </c>
+      <c r="L31" s="30">
         <f>+VLOOKUP($C31,'Q9'!$B$3:$J$22,9,)</f>
         <v>7</v>
       </c>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31">
-        <f t="shared" si="3"/>
-        <v>72</v>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="30">
+        <f t="shared" si="2"/>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
@@ -17509,155 +17520,155 @@
         <v>22</v>
       </c>
       <c r="C32" s="51" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D32" s="30">
         <f>+VLOOKUP($C32,'Q1'!$B$3:$J$22,9,)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E32" s="30">
         <f>+VLOOKUP($C32,'Q2'!$B$3:$J$22,9,)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F32" s="30">
         <f>+VLOOKUP($C32,'Q3'!$B$3:$J$22,9,)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G32" s="30">
         <f>+VLOOKUP($C32,'Q4'!$B$3:$J$22,9,)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H32" s="30">
         <f>+VLOOKUP($C32,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I32" s="30">
         <f>+VLOOKUP($C32,'Q6'!$B$3:$J$22,9,)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J32" s="30">
         <f>+VLOOKUP($C32,'Q7'!$B$3:$J$22,9,)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K32" s="30">
         <f>+VLOOKUP($C32,'Q8'!$B$3:$J$22,9,)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L32" s="30">
         <f>+VLOOKUP($C32,'Q9'!$B$3:$J$22,9,)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M32" s="30"/>
       <c r="N32" s="30"/>
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30">
-        <f t="shared" si="3"/>
-        <v>71</v>
+        <f t="shared" si="2"/>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="28">
+        <f>+VLOOKUP($C33,'Q1'!$B$3:$J$22,9,)</f>
+        <v>9</v>
+      </c>
+      <c r="E33" s="28">
+        <f>+VLOOKUP($C33,'Q2'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="F33" s="28">
+        <f>+VLOOKUP($C33,'Q3'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="G33" s="28">
+        <f>+VLOOKUP($C33,'Q4'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="H33" s="28">
+        <f>+VLOOKUP($C33,'Q5'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="I33" s="28">
+        <f>+VLOOKUP($C33,'Q6'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
+      <c r="J33" s="28">
+        <f>+VLOOKUP($C33,'Q7'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="K33" s="28">
+        <f>+VLOOKUP($C33,'Q8'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="L33" s="28">
+        <f>+VLOOKUP($C33,'Q9'!$B$3:$J$22,9,)</f>
+        <v>11</v>
+      </c>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C34" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="32">
-        <f>+VLOOKUP($C33,'Q1'!$B$3:$J$22,9,)</f>
+      <c r="D34" s="32">
+        <f>+VLOOKUP($C34,'Q1'!$B$3:$J$22,9,)</f>
         <v>6</v>
       </c>
-      <c r="E33" s="32">
-        <f>+VLOOKUP($C33,'Q2'!$B$3:$J$22,9,)</f>
+      <c r="E34" s="32">
+        <f>+VLOOKUP($C34,'Q2'!$B$3:$J$22,9,)</f>
         <v>5</v>
       </c>
-      <c r="F33" s="32">
-        <f>+VLOOKUP($C33,'Q3'!$B$3:$J$22,9,)</f>
+      <c r="F34" s="32">
+        <f>+VLOOKUP($C34,'Q3'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="G33" s="32">
-        <f>+VLOOKUP($C33,'Q4'!$B$3:$J$22,9,)</f>
+      <c r="G34" s="32">
+        <f>+VLOOKUP($C34,'Q4'!$B$3:$J$22,9,)</f>
         <v>8</v>
       </c>
-      <c r="H33" s="32">
-        <f>+VLOOKUP($C33,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="H34" s="32">
+        <f>+VLOOKUP($C34,'Q5'!$B$3:$J$22,9,)</f>
         <v>11</v>
       </c>
-      <c r="I33" s="32">
-        <f>+VLOOKUP($C33,'Q6'!$B$3:$J$22,9,)</f>
+      <c r="I34" s="32">
+        <f>+VLOOKUP($C34,'Q6'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="J33" s="32">
-        <f>+VLOOKUP($C33,'Q7'!$B$3:$J$22,9,)</f>
+      <c r="J34" s="32">
+        <f>+VLOOKUP($C34,'Q7'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="K33" s="32">
-        <f>+VLOOKUP($C33,'Q8'!$B$3:$J$22,9,)</f>
+      <c r="K34" s="32">
+        <f>+VLOOKUP($C34,'Q8'!$B$3:$J$22,9,)</f>
         <v>9</v>
       </c>
-      <c r="L33" s="32">
-        <f>+VLOOKUP($C33,'Q9'!$B$3:$J$22,9,)</f>
+      <c r="L34" s="32">
+        <f>+VLOOKUP($C34,'Q9'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32">
-        <f t="shared" si="3"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32">
+        <f t="shared" si="2"/>
         <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="28">
-        <f>+VLOOKUP($C34,'Q1'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="E34" s="28">
-        <f>+VLOOKUP($C34,'Q2'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="F34" s="28">
-        <f>+VLOOKUP($C34,'Q3'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="G34" s="28">
-        <f>+VLOOKUP($C34,'Q4'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="H34" s="28">
-        <f>+VLOOKUP($C34,'Q5'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="I34" s="28">
-        <f>+VLOOKUP($C34,'Q6'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="J34" s="28">
-        <f>+VLOOKUP($C34,'Q7'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="K34" s="28">
-        <f>+VLOOKUP($C34,'Q8'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="L34" s="28">
-        <f>+VLOOKUP($C34,'Q9'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28">
-        <f t="shared" si="3"/>
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
@@ -17702,7 +17713,7 @@
       <c r="O35" s="31"/>
       <c r="P35" s="31"/>
       <c r="Q35" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
     </row>
@@ -17754,7 +17765,7 @@
       <c r="O36" s="29"/>
       <c r="P36" s="29"/>
       <c r="Q36" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
     </row>
@@ -17806,7 +17817,7 @@
       <c r="O37" s="82"/>
       <c r="P37" s="82"/>
       <c r="Q37" s="82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
     </row>
@@ -17858,7 +17869,7 @@
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
     </row>
@@ -17910,7 +17921,7 @@
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
       <c r="Q39" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
@@ -17962,268 +17973,268 @@
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
       <c r="Q40" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="34">
+      <c r="B41" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="33">
         <f>+VLOOKUP($C41,'Q1'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="E41" s="34">
+      <c r="E41" s="33">
         <f>+VLOOKUP($C41,'Q2'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="F41" s="34">
+        <v>3</v>
+      </c>
+      <c r="F41" s="33">
         <f>+VLOOKUP($C41,'Q3'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="G41" s="34">
+        <v>1</v>
+      </c>
+      <c r="G41" s="33">
         <f>+VLOOKUP($C41,'Q4'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="H41" s="34">
+        <v>1</v>
+      </c>
+      <c r="H41" s="33">
         <f>+VLOOKUP($C41,'Q5'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="33">
         <f>+VLOOKUP($C41,'Q6'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="J41" s="33">
+        <f>+VLOOKUP($C41,'Q7'!$B$3:$J$22,9,)</f>
         <v>3</v>
       </c>
-      <c r="J41" s="34">
-        <f>+VLOOKUP($C41,'Q7'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="K41" s="34">
+      <c r="K41" s="33">
         <f>+VLOOKUP($C41,'Q8'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="L41" s="34">
+      <c r="L41" s="33">
         <f>+VLOOKUP($C41,'Q9'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33">
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="33">
+      <c r="B42" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="34">
         <f>+VLOOKUP($C42,'Q1'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="34">
         <f>+VLOOKUP($C42,'Q2'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="F42" s="34">
+        <f>+VLOOKUP($C42,'Q3'!$B$3:$J$22,9,)</f>
         <v>3</v>
       </c>
-      <c r="F42" s="33">
-        <f>+VLOOKUP($C42,'Q3'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="G42" s="33">
+      <c r="G42" s="34">
         <f>+VLOOKUP($C42,'Q4'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="H42" s="33">
+        <v>3</v>
+      </c>
+      <c r="H42" s="34">
         <f>+VLOOKUP($C42,'Q5'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="I42" s="33">
+      <c r="I42" s="34">
         <f>+VLOOKUP($C42,'Q6'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="J42" s="33">
+        <v>3</v>
+      </c>
+      <c r="J42" s="34">
         <f>+VLOOKUP($C42,'Q7'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="K42" s="33">
+        <v>1</v>
+      </c>
+      <c r="K42" s="34">
         <f>+VLOOKUP($C42,'Q8'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="L42" s="33">
+      <c r="L42" s="34">
         <f>+VLOOKUP($C42,'Q9'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="34">
+        <f>+VLOOKUP($C43,'Q1'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="33">
-        <f>+VLOOKUP($C43,'Q1'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="E43" s="33">
+      <c r="E43" s="34">
         <f>+VLOOKUP($C43,'Q2'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="F43" s="33">
+      <c r="F43" s="34">
         <f>+VLOOKUP($C43,'Q3'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="G43" s="33">
+        <v>1</v>
+      </c>
+      <c r="G43" s="34">
         <f>+VLOOKUP($C43,'Q4'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="H43" s="33">
+        <v>1</v>
+      </c>
+      <c r="H43" s="34">
         <f>+VLOOKUP($C43,'Q5'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="I43" s="33">
+        <v>4</v>
+      </c>
+      <c r="I43" s="34">
         <f>+VLOOKUP($C43,'Q6'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="J43" s="33">
+      <c r="J43" s="34">
         <f>+VLOOKUP($C43,'Q7'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="K43" s="33">
+        <v>3</v>
+      </c>
+      <c r="K43" s="34">
         <f>+VLOOKUP($C43,'Q8'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="L43" s="33">
+      <c r="L43" s="34">
         <f>+VLOOKUP($C43,'Q9'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="34">
+      <c r="B44" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="82">
         <f>+VLOOKUP($C44,'Q1'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="E44" s="34">
+        <v>2</v>
+      </c>
+      <c r="E44" s="82">
         <f>+VLOOKUP($C44,'Q2'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="F44" s="34">
+        <v>2</v>
+      </c>
+      <c r="F44" s="82">
         <f>+VLOOKUP($C44,'Q3'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="G44" s="34">
+      <c r="G44" s="82">
         <f>+VLOOKUP($C44,'Q4'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="H44" s="82">
+        <f>+VLOOKUP($C44,'Q5'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="H44" s="34">
-        <f>+VLOOKUP($C44,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="I44" s="82">
+        <f>+VLOOKUP($C44,'Q6'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="J44" s="82">
+        <f>+VLOOKUP($C44,'Q7'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="I44" s="34">
-        <f>+VLOOKUP($C44,'Q6'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="J44" s="34">
-        <f>+VLOOKUP($C44,'Q7'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="K44" s="34">
+      <c r="K44" s="82">
         <f>+VLOOKUP($C44,'Q8'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="L44" s="34">
+        <v>2</v>
+      </c>
+      <c r="L44" s="82">
         <f>+VLOOKUP($C44,'Q9'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34">
-        <f t="shared" si="3"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="82"/>
+      <c r="P44" s="82"/>
+      <c r="Q44" s="82">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="82">
+      <c r="B45" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="33">
         <f>+VLOOKUP($C45,'Q1'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="E45" s="82">
+        <v>3</v>
+      </c>
+      <c r="E45" s="33">
         <f>+VLOOKUP($C45,'Q2'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="F45" s="82">
+        <v>1</v>
+      </c>
+      <c r="F45" s="33">
         <f>+VLOOKUP($C45,'Q3'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="G45" s="33">
+        <f>+VLOOKUP($C45,'Q4'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="H45" s="33">
+        <f>+VLOOKUP($C45,'Q5'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="I45" s="33">
+        <f>+VLOOKUP($C45,'Q6'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="G45" s="82">
-        <f>+VLOOKUP($C45,'Q4'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="H45" s="82">
-        <f>+VLOOKUP($C45,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="J45" s="33">
+        <f>+VLOOKUP($C45,'Q7'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="I45" s="82">
-        <f>+VLOOKUP($C45,'Q6'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="J45" s="82">
-        <f>+VLOOKUP($C45,'Q7'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="K45" s="82">
+      <c r="K45" s="33">
         <f>+VLOOKUP($C45,'Q8'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="L45" s="82">
+        <v>1</v>
+      </c>
+      <c r="L45" s="33">
         <f>+VLOOKUP($C45,'Q9'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33">
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18274,7 +18285,7 @@
       <c r="O46" s="36"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -18303,49 +18314,49 @@
       <c r="B49" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="307" t="s">
+      <c r="C49" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="279" t="s">
+      <c r="D49" s="276" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="279" t="s">
+      <c r="E49" s="276" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="279" t="s">
+      <c r="F49" s="276" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="279" t="s">
+      <c r="G49" s="276" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="279" t="s">
+      <c r="H49" s="276" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="279" t="s">
+      <c r="I49" s="276" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="279" t="s">
+      <c r="J49" s="276" t="s">
         <v>56</v>
       </c>
-      <c r="K49" s="279" t="s">
+      <c r="K49" s="276" t="s">
         <v>57</v>
       </c>
-      <c r="L49" s="279" t="s">
+      <c r="L49" s="276" t="s">
         <v>58</v>
       </c>
-      <c r="M49" s="279" t="s">
+      <c r="M49" s="276" t="s">
         <v>59</v>
       </c>
-      <c r="N49" s="279" t="s">
+      <c r="N49" s="276" t="s">
         <v>60</v>
       </c>
-      <c r="O49" s="279" t="s">
+      <c r="O49" s="276" t="s">
         <v>61</v>
       </c>
-      <c r="P49" s="279" t="s">
+      <c r="P49" s="276" t="s">
         <v>62</v>
       </c>
-      <c r="Q49" s="279" t="s">
+      <c r="Q49" s="276" t="s">
         <v>15</v>
       </c>
     </row>
@@ -18390,15 +18401,15 @@
       </c>
       <c r="L50" s="37">
         <f>+VLOOKUP($C50,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="M50" s="37"/>
       <c r="N50" s="37"/>
       <c r="O50" s="37"/>
       <c r="P50" s="37"/>
       <c r="Q50" s="37">
-        <f t="shared" ref="Q50:Q69" si="4">SUM(C50:M50)</f>
-        <v>204</v>
+        <f t="shared" ref="Q50" si="3">SUM(C50:M50)</f>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
@@ -18442,15 +18453,15 @@
       </c>
       <c r="L51" s="29">
         <f>+VLOOKUP($C51,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="M51" s="29"/>
       <c r="N51" s="29"/>
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="29">
-        <f t="shared" si="4"/>
-        <v>137</v>
+        <f t="shared" ref="Q51:Q69" si="4">SUM(C51:M51)</f>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
@@ -18494,7 +18505,7 @@
       </c>
       <c r="L52" s="27">
         <f>+VLOOKUP($C52,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="M52" s="27"/>
       <c r="N52" s="27"/>
@@ -18502,7 +18513,7 @@
       <c r="P52" s="27"/>
       <c r="Q52" s="27">
         <f t="shared" si="4"/>
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
@@ -18546,7 +18557,7 @@
       </c>
       <c r="L53" s="30">
         <f>+VLOOKUP($C53,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M53" s="30"/>
       <c r="N53" s="30"/>
@@ -18554,7 +18565,7 @@
       <c r="P53" s="30"/>
       <c r="Q53" s="30">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
@@ -18598,7 +18609,7 @@
       </c>
       <c r="L54" s="31">
         <f>+VLOOKUP($C54,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="M54" s="31"/>
       <c r="N54" s="31"/>
@@ -18606,7 +18617,7 @@
       <c r="P54" s="31"/>
       <c r="Q54" s="31">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
@@ -18650,7 +18661,7 @@
       </c>
       <c r="L55" s="29">
         <f>+VLOOKUP($C55,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M55" s="29"/>
       <c r="N55" s="29"/>
@@ -18658,7 +18669,7 @@
       <c r="P55" s="29"/>
       <c r="Q55" s="29">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
@@ -18702,7 +18713,7 @@
       </c>
       <c r="L56" s="82">
         <f>+VLOOKUP($C56,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="M56" s="82"/>
       <c r="N56" s="82"/>
@@ -18710,7 +18721,7 @@
       <c r="P56" s="82"/>
       <c r="Q56" s="82">
         <f t="shared" si="4"/>
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="2:17" x14ac:dyDescent="0.2">
@@ -18754,7 +18765,7 @@
       </c>
       <c r="L57" s="32">
         <f>+VLOOKUP($C57,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
@@ -18762,7 +18773,7 @@
       <c r="P57" s="32"/>
       <c r="Q57" s="32">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
@@ -18806,7 +18817,7 @@
       </c>
       <c r="L58" s="32">
         <f>+VLOOKUP($C58,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="M58" s="32"/>
       <c r="N58" s="32"/>
@@ -18814,7 +18825,7 @@
       <c r="P58" s="32"/>
       <c r="Q58" s="32">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="2:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -18858,7 +18869,7 @@
       </c>
       <c r="L59" s="33">
         <f>+VLOOKUP($C59,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M59" s="33"/>
       <c r="N59" s="33"/>
@@ -18866,7 +18877,7 @@
       <c r="P59" s="33"/>
       <c r="Q59" s="33">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
@@ -18910,7 +18921,7 @@
       </c>
       <c r="L60" s="35">
         <f>+VLOOKUP($C60,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="M60" s="35"/>
       <c r="N60" s="35"/>
@@ -18918,7 +18929,7 @@
       <c r="P60" s="35"/>
       <c r="Q60" s="35">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
@@ -18962,7 +18973,7 @@
       </c>
       <c r="L61" s="33">
         <f>+VLOOKUP($C61,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="M61" s="33"/>
       <c r="N61" s="33"/>
@@ -18970,7 +18981,7 @@
       <c r="P61" s="33"/>
       <c r="Q61" s="33">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="2:17" x14ac:dyDescent="0.2">
@@ -19014,7 +19025,7 @@
       </c>
       <c r="L62" s="82">
         <f>+VLOOKUP($C62,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M62" s="82"/>
       <c r="N62" s="82"/>
@@ -19022,7 +19033,7 @@
       <c r="P62" s="82"/>
       <c r="Q62" s="82">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="2:17" x14ac:dyDescent="0.2">
@@ -19060,7 +19071,7 @@
       </c>
       <c r="L63" s="31">
         <f>+VLOOKUP($C63,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M63" s="31"/>
       <c r="N63" s="31"/>
@@ -19068,7 +19079,7 @@
       <c r="P63" s="31"/>
       <c r="Q63" s="31">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.2">
@@ -19112,7 +19123,7 @@
       </c>
       <c r="L64" s="30">
         <f>+VLOOKUP($C64,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="M64" s="30"/>
       <c r="N64" s="30"/>
@@ -19120,7 +19131,7 @@
       <c r="P64" s="30"/>
       <c r="Q64" s="30">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
@@ -19164,7 +19175,7 @@
       </c>
       <c r="L65" s="34">
         <f>+VLOOKUP($C65,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M65" s="34"/>
       <c r="N65" s="34"/>
@@ -19172,7 +19183,7 @@
       <c r="P65" s="34"/>
       <c r="Q65" s="34">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.2">
@@ -19216,7 +19227,7 @@
       </c>
       <c r="L66" s="28">
         <f>+VLOOKUP($C66,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M66" s="28"/>
       <c r="N66" s="28"/>
@@ -19224,7 +19235,7 @@
       <c r="P66" s="28"/>
       <c r="Q66" s="28">
         <f t="shared" si="4"/>
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
@@ -19268,7 +19279,7 @@
       </c>
       <c r="L67" s="28">
         <f>+VLOOKUP($C67,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M67" s="28"/>
       <c r="N67" s="28"/>
@@ -19276,7 +19287,7 @@
       <c r="P67" s="28"/>
       <c r="Q67" s="28">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
@@ -19320,7 +19331,7 @@
       </c>
       <c r="L68" s="35">
         <f>+VLOOKUP($C68,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M68" s="35"/>
       <c r="N68" s="35"/>
@@ -19328,65 +19339,65 @@
       <c r="P68" s="35"/>
       <c r="Q68" s="35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="284" t="s">
+      <c r="B69" s="281" t="s">
         <v>34</v>
       </c>
       <c r="C69" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D69" s="285">
+      <c r="D69" s="282">
         <f>+VLOOKUP($C69,'R1'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="E69" s="285">
+      <c r="E69" s="282">
         <f>+VLOOKUP($C69,'R2'!$C$3:$H$22,5,)</f>
         <v>10</v>
       </c>
-      <c r="F69" s="285">
+      <c r="F69" s="282">
         <f>+VLOOKUP($C69,'R3'!$C$3:$H$22,5,)</f>
         <v>15</v>
       </c>
-      <c r="G69" s="285">
+      <c r="G69" s="282">
         <f>+VLOOKUP($C69,'R4'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="H69" s="285">
+      <c r="H69" s="282">
         <f>+VLOOKUP($C69,'R5'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="I69" s="285">
+      <c r="I69" s="282">
         <f>+VLOOKUP($C69,'R6'!$C$3:$H$22,5,)</f>
         <v>6</v>
       </c>
-      <c r="J69" s="285">
+      <c r="J69" s="282">
         <f>+VLOOKUP($C69,'R7'!$C$3:$H$22,5,)</f>
         <v>7</v>
       </c>
-      <c r="K69" s="285">
+      <c r="K69" s="282">
         <f>+VLOOKUP($C69,'R8'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="L69" s="285">
+      <c r="L69" s="282">
         <f>+VLOOKUP($C69,'R9'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="M69" s="285"/>
-      <c r="N69" s="285"/>
-      <c r="O69" s="285"/>
-      <c r="P69" s="285"/>
-      <c r="Q69" s="285">
+        <v>-15</v>
+      </c>
+      <c r="M69" s="282"/>
+      <c r="N69" s="282"/>
+      <c r="O69" s="282"/>
+      <c r="P69" s="282"/>
+      <c r="Q69" s="282">
         <f t="shared" si="4"/>
-        <v>-22</v>
+        <v>-37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:Q23" xr:uid="{00000000-0009-0000-0000-000001000000}">
+  <autoFilter ref="B3:Q23" xr:uid="{2C9D5F00-49DA-B240-8FC2-238E79FAFF81}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:Q23">
-      <sortCondition descending="1" ref="Q3:Q23"/>
+      <sortCondition descending="1" ref="L3:L23"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
@@ -19414,13 +19425,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -19432,19 +19443,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="278" t="s">
+      <c r="I2" s="275" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="307" t="s">
+      <c r="J2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="307" t="s">
+      <c r="K2" s="304" t="s">
         <v>120</v>
       </c>
     </row>
@@ -19542,7 +19553,7 @@
       <c r="I5" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="J5" s="283">
+      <c r="J5" s="280">
         <v>13</v>
       </c>
       <c r="K5" s="4"/>
@@ -19641,7 +19652,7 @@
       <c r="I8" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="J8" s="283">
+      <c r="J8" s="280">
         <v>8</v>
       </c>
       <c r="K8" s="4"/>
@@ -20131,60 +20142,60 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="307" t="s">
+      <c r="D2" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="304" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="307" t="s">
+      <c r="F2" s="304" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="279" t="s">
+      <c r="I2" s="276" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="280">
+      <c r="A3" s="277">
         <v>10</v>
       </c>
-      <c r="B3" s="280">
+      <c r="B3" s="277">
         <v>1</v>
       </c>
-      <c r="C3" s="280" t="s">
+      <c r="C3" s="277" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="280" t="s">
+      <c r="D3" s="277" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="281" t="s">
+      <c r="E3" s="278" t="s">
         <v>636</v>
       </c>
-      <c r="F3" s="282">
+      <c r="F3" s="279">
         <v>53</v>
       </c>
-      <c r="G3" s="282">
+      <c r="G3" s="279">
         <v>39</v>
       </c>
-      <c r="H3" s="282">
+      <c r="H3" s="279">
         <v>25</v>
       </c>
-      <c r="I3" s="282"/>
+      <c r="I3" s="279"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="51">
@@ -20202,16 +20213,16 @@
       <c r="E4" s="61" t="s">
         <v>637</v>
       </c>
-      <c r="F4" s="283">
+      <c r="F4" s="280">
         <v>53</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="280">
         <v>24</v>
       </c>
-      <c r="H4" s="283">
+      <c r="H4" s="280">
         <v>18</v>
       </c>
-      <c r="I4" s="283"/>
+      <c r="I4" s="280"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52">
@@ -20256,16 +20267,16 @@
       <c r="E6" s="61" t="s">
         <v>639</v>
       </c>
-      <c r="F6" s="283">
+      <c r="F6" s="280">
         <v>53</v>
       </c>
-      <c r="G6" s="283">
+      <c r="G6" s="280">
         <v>27</v>
       </c>
-      <c r="H6" s="283">
+      <c r="H6" s="280">
         <v>12</v>
       </c>
-      <c r="I6" s="283"/>
+      <c r="I6" s="280"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="48">
@@ -20700,7 +20711,7 @@
       <c r="I22" s="171"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="276"/>
+      <c r="C28" s="273"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000014000000}">
@@ -20717,8 +20728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20729,13 +20740,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -20747,19 +20758,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="278" t="s">
+      <c r="I2" s="275" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="307" t="s">
+      <c r="J2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="307" t="s">
+      <c r="K2" s="304" t="s">
         <v>120</v>
       </c>
     </row>
@@ -21003,7 +21014,7 @@
       <c r="I11" s="14" t="s">
         <v>680</v>
       </c>
-      <c r="J11" s="283">
+      <c r="J11" s="280">
         <v>7</v>
       </c>
       <c r="K11" s="4"/>
@@ -21059,7 +21070,7 @@
       <c r="I13" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="J13" s="283">
+      <c r="J13" s="280">
         <v>2</v>
       </c>
       <c r="K13" s="4"/>
@@ -21322,386 +21333,485 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="27.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="307" t="s">
+      <c r="D2" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="304" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="307" t="s">
+      <c r="F2" s="304" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="279" t="s">
+      <c r="I2" s="276" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="272">
+      <c r="A3" s="47">
+        <v>44</v>
+      </c>
+      <c r="B3" s="47">
+        <v>1</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267">
+        <v>34</v>
+      </c>
+      <c r="H3" s="267"/>
+      <c r="I3" s="267"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="48">
+        <v>77</v>
+      </c>
+      <c r="B4" s="48">
+        <v>2</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="59"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117">
+        <v>29</v>
+      </c>
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="50">
+        <v>23</v>
+      </c>
+      <c r="B5" s="50">
         <v>3</v>
       </c>
-      <c r="B3" s="272"/>
-      <c r="C3" s="272" t="s">
+      <c r="C5" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102">
+        <v>26</v>
+      </c>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="53">
+        <v>3</v>
+      </c>
+      <c r="B6" s="53">
+        <v>4</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="272" t="s">
+      <c r="D6" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="274"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="51">
+      <c r="E6" s="64"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108">
+        <v>24</v>
+      </c>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="52">
+        <v>11</v>
+      </c>
+      <c r="B7" s="52">
+        <v>5</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104">
+        <v>33</v>
+      </c>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="51">
         <v>4</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51" t="s">
+      <c r="B8" s="51">
+        <v>6</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D8" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283"/>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="49">
-        <v>5</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="56">
-        <v>6</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="118"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="54">
-        <v>7</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="55">
-        <v>8</v>
-      </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="280"/>
+      <c r="G8" s="280">
+        <v>22</v>
+      </c>
+      <c r="H8" s="280"/>
+      <c r="I8" s="280"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="77">
-        <v>10</v>
-      </c>
-      <c r="B9" s="77"/>
+        <v>23</v>
+      </c>
+      <c r="B9" s="77">
+        <v>7</v>
+      </c>
       <c r="C9" s="77" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D9" s="77" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="78"/>
       <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
+      <c r="G9" s="110">
+        <v>20</v>
+      </c>
       <c r="H9" s="110"/>
       <c r="I9" s="110"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="52">
+      <c r="A10" s="49">
+        <v>16</v>
+      </c>
+      <c r="B10" s="49">
+        <v>8</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106">
+        <v>2</v>
+      </c>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="54">
+        <v>7</v>
+      </c>
+      <c r="B11" s="54">
+        <v>9</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="67"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112">
+        <v>14</v>
+      </c>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="49">
+        <v>5</v>
+      </c>
+      <c r="B12" s="49">
+        <v>10</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="63"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106">
+        <v>10</v>
+      </c>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="56">
+        <v>63</v>
+      </c>
+      <c r="B13" s="56">
         <v>11</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="52" t="s">
+      <c r="C13" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="66"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118">
+        <v>14</v>
+      </c>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="55">
+        <v>8</v>
+      </c>
+      <c r="B14" s="55">
+        <v>12</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="65"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114">
+        <v>10</v>
+      </c>
+      <c r="H14" s="114"/>
+      <c r="I14" s="114"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="56">
+        <v>6</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="66"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118">
+        <v>-15</v>
+      </c>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="77">
+        <v>10</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="78"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110">
+        <v>-15</v>
+      </c>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="52">
+        <v>18</v>
+      </c>
+      <c r="B17" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="49">
-        <v>16</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="52">
-        <v>18</v>
-      </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="55">
+      <c r="E17" s="62"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104">
+        <v>-15</v>
+      </c>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="55">
         <v>20</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55" t="s">
+      <c r="B18" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D18" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="50">
-        <v>23</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="50" t="s">
+      <c r="E18" s="65"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114">
+        <v>-15</v>
+      </c>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="53">
+        <v>31</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108">
+        <v>-15</v>
+      </c>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="50">
+        <v>33</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="77">
-        <v>23</v>
-      </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="78"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="110"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="53">
-        <v>31</v>
-      </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="50">
-        <v>33</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="48">
-        <v>44</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="51">
+      <c r="E20" s="60"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102">
+        <v>-15</v>
+      </c>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="51">
         <v>55</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51" t="s">
+      <c r="B21" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D21" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="283"/>
-      <c r="G19" s="283"/>
-      <c r="H19" s="283"/>
-      <c r="I19" s="283"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="56">
-        <v>63</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="48">
-        <v>77</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="280"/>
+      <c r="G21" s="280">
+        <v>-15</v>
+      </c>
+      <c r="H21" s="280"/>
+      <c r="I21" s="280" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="164">
         <v>99</v>
       </c>
-      <c r="B22" s="164"/>
+      <c r="B22" s="164" t="s">
+        <v>188</v>
+      </c>
       <c r="C22" s="164" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="275"/>
+      <c r="E22" s="272"/>
       <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
+      <c r="G22" s="167">
+        <v>-15</v>
+      </c>
       <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
+      <c r="I22" s="167" t="s">
+        <v>701</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000016000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
-      <sortCondition ref="A2:A22"/>
+      <sortCondition ref="B2:B22"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21713,8 +21823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21755,16 +21865,16 @@
       <c r="G4" s="251" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="279" t="s">
+      <c r="J4" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="276" t="s">
         <v>67</v>
       </c>
-      <c r="L4" s="279" t="s">
+      <c r="L4" s="276" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="307" t="s">
+      <c r="M4" s="304" t="s">
         <v>69</v>
       </c>
     </row>
@@ -21792,44 +21902,44 @@
       <c r="D6" s="258"/>
       <c r="E6" s="258"/>
       <c r="F6" s="258"/>
-      <c r="G6" s="286"/>
+      <c r="G6" s="283"/>
       <c r="J6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="288"/>
-      <c r="L6" s="288"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="285"/>
       <c r="M6" s="268"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="283"/>
+      <c r="E7" s="283"/>
+      <c r="F7" s="283"/>
+      <c r="G7" s="283"/>
       <c r="J7" s="41" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="260"/>
-      <c r="L7" s="288"/>
+      <c r="L7" s="285"/>
       <c r="M7" s="268"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
+      <c r="C8" s="283"/>
+      <c r="D8" s="283"/>
+      <c r="E8" s="283"/>
+      <c r="F8" s="283"/>
+      <c r="G8" s="283"/>
       <c r="J8" s="39" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="260"/>
-      <c r="L8" s="288"/>
+      <c r="L8" s="285"/>
       <c r="M8" s="268"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -21838,14 +21948,14 @@
       </c>
       <c r="C9" s="258"/>
       <c r="D9" s="258"/>
-      <c r="E9" s="286"/>
-      <c r="F9" s="286"/>
-      <c r="G9" s="286"/>
+      <c r="E9" s="283"/>
+      <c r="F9" s="283"/>
+      <c r="G9" s="283"/>
       <c r="J9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="288"/>
-      <c r="L9" s="288"/>
+      <c r="K9" s="285"/>
+      <c r="L9" s="285"/>
       <c r="M9" s="268"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -21856,7 +21966,7 @@
       <c r="D10" s="258"/>
       <c r="E10" s="258"/>
       <c r="F10" s="270"/>
-      <c r="G10" s="286"/>
+      <c r="G10" s="283"/>
       <c r="J10" s="42" t="s">
         <v>26</v>
       </c>
@@ -21868,16 +21978,16 @@
       <c r="B11" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="286"/>
-      <c r="D11" s="286"/>
-      <c r="E11" s="286"/>
-      <c r="F11" s="287"/>
-      <c r="G11" s="286"/>
+      <c r="C11" s="283"/>
+      <c r="D11" s="283"/>
+      <c r="E11" s="283"/>
+      <c r="F11" s="284"/>
+      <c r="G11" s="283"/>
       <c r="J11" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K11" s="288"/>
-      <c r="L11" s="288"/>
+      <c r="K11" s="285"/>
+      <c r="L11" s="285"/>
       <c r="M11" s="268"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -21885,42 +21995,42 @@
         <v>35</v>
       </c>
       <c r="C12" s="258"/>
-      <c r="D12" s="286"/>
-      <c r="E12" s="286"/>
-      <c r="F12" s="286"/>
-      <c r="G12" s="286"/>
+      <c r="D12" s="283"/>
+      <c r="E12" s="283"/>
+      <c r="F12" s="283"/>
+      <c r="G12" s="283"/>
       <c r="J12" s="81" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="260"/>
-      <c r="L12" s="288"/>
+      <c r="L12" s="285"/>
       <c r="M12" s="268"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="286"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="286"/>
-      <c r="F13" s="286"/>
-      <c r="G13" s="286"/>
+      <c r="C13" s="283"/>
+      <c r="D13" s="283"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="283"/>
+      <c r="G13" s="283"/>
       <c r="J13" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K13" s="288"/>
-      <c r="L13" s="288"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="285"/>
       <c r="M13" s="268"/>
     </row>
     <row r="14" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="286"/>
-      <c r="D14" s="286"/>
-      <c r="E14" s="286"/>
-      <c r="F14" s="286"/>
-      <c r="G14" s="286"/>
+      <c r="C14" s="283"/>
+      <c r="D14" s="283"/>
+      <c r="E14" s="283"/>
+      <c r="F14" s="283"/>
+      <c r="G14" s="283"/>
       <c r="J14" s="46" t="s">
         <v>36</v>
       </c>
@@ -21934,9 +22044,9 @@
       </c>
       <c r="C15" s="258"/>
       <c r="D15" s="258"/>
-      <c r="E15" s="286"/>
-      <c r="F15" s="286"/>
-      <c r="G15" s="286"/>
+      <c r="E15" s="283"/>
+      <c r="F15" s="283"/>
+      <c r="G15" s="283"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="53" t="s">
@@ -21944,29 +22054,29 @@
       </c>
       <c r="C16" s="258"/>
       <c r="D16" s="258"/>
-      <c r="E16" s="286"/>
-      <c r="F16" s="286"/>
-      <c r="G16" s="286"/>
+      <c r="E16" s="283"/>
+      <c r="F16" s="283"/>
+      <c r="G16" s="283"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="286"/>
-      <c r="D17" s="286"/>
-      <c r="E17" s="286"/>
-      <c r="F17" s="286"/>
-      <c r="G17" s="286"/>
+      <c r="C17" s="283"/>
+      <c r="D17" s="283"/>
+      <c r="E17" s="283"/>
+      <c r="F17" s="283"/>
+      <c r="G17" s="283"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="286"/>
-      <c r="D18" s="286"/>
-      <c r="E18" s="286"/>
-      <c r="F18" s="286"/>
-      <c r="G18" s="286"/>
+      <c r="C18" s="283"/>
+      <c r="D18" s="283"/>
+      <c r="E18" s="283"/>
+      <c r="F18" s="283"/>
+      <c r="G18" s="283"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="77" t="s">
@@ -21975,48 +22085,48 @@
       <c r="C19" s="258"/>
       <c r="D19" s="258"/>
       <c r="E19" s="258"/>
-      <c r="F19" s="286"/>
-      <c r="G19" s="286"/>
+      <c r="F19" s="283"/>
+      <c r="G19" s="283"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="77" t="s">
         <v>41</v>
       </c>
       <c r="C20" s="258"/>
-      <c r="D20" s="286"/>
-      <c r="E20" s="286"/>
-      <c r="F20" s="286"/>
-      <c r="G20" s="286"/>
+      <c r="D20" s="283"/>
+      <c r="E20" s="283"/>
+      <c r="F20" s="283"/>
+      <c r="G20" s="283"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="286"/>
-      <c r="D21" s="286"/>
-      <c r="E21" s="286"/>
-      <c r="F21" s="286"/>
-      <c r="G21" s="286"/>
+      <c r="C21" s="283"/>
+      <c r="D21" s="283"/>
+      <c r="E21" s="283"/>
+      <c r="F21" s="283"/>
+      <c r="G21" s="283"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="286"/>
-      <c r="D22" s="286"/>
-      <c r="E22" s="286"/>
-      <c r="F22" s="286"/>
-      <c r="G22" s="286"/>
+      <c r="C22" s="283"/>
+      <c r="D22" s="283"/>
+      <c r="E22" s="283"/>
+      <c r="F22" s="283"/>
+      <c r="G22" s="283"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="286"/>
-      <c r="D23" s="286"/>
-      <c r="E23" s="286"/>
-      <c r="F23" s="286"/>
-      <c r="G23" s="286"/>
+      <c r="C23" s="283"/>
+      <c r="D23" s="283"/>
+      <c r="E23" s="283"/>
+      <c r="F23" s="283"/>
+      <c r="G23" s="283"/>
     </row>
     <row r="24" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="57" t="s">
@@ -22064,16 +22174,16 @@
       <c r="G27" s="251" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="K27" s="279" t="s">
+      <c r="J27" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="276" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="279" t="s">
+      <c r="L27" s="276" t="s">
         <v>68</v>
       </c>
-      <c r="M27" s="307" t="s">
+      <c r="M27" s="304" t="s">
         <v>69</v>
       </c>
     </row>
@@ -22084,14 +22194,14 @@
       <c r="C28" s="257"/>
       <c r="D28" s="261"/>
       <c r="E28" s="261"/>
-      <c r="F28" s="252"/>
+      <c r="F28" s="261"/>
       <c r="G28" s="252"/>
       <c r="J28" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="259"/>
-      <c r="L28" s="259"/>
-      <c r="M28" s="254"/>
+      <c r="K28" s="306"/>
+      <c r="L28" s="306"/>
+      <c r="M28" s="307"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="48" t="s">
@@ -22100,13 +22210,13 @@
       <c r="C29" s="258"/>
       <c r="D29" s="258"/>
       <c r="E29" s="258"/>
-      <c r="F29" s="286"/>
-      <c r="G29" s="286"/>
+      <c r="F29" s="258"/>
+      <c r="G29" s="283"/>
       <c r="J29" s="44" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="260"/>
-      <c r="L29" s="288"/>
+      <c r="L29" s="260"/>
       <c r="M29" s="268"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
@@ -22116,29 +22226,29 @@
       <c r="C30" s="258"/>
       <c r="D30" s="258"/>
       <c r="E30" s="258"/>
-      <c r="F30" s="286"/>
-      <c r="G30" s="286"/>
+      <c r="F30" s="258"/>
+      <c r="G30" s="283"/>
       <c r="J30" s="41" t="s">
         <v>24</v>
       </c>
       <c r="K30" s="260"/>
-      <c r="L30" s="288"/>
+      <c r="L30" s="260"/>
       <c r="M30" s="268"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="258"/>
-      <c r="D31" s="258"/>
-      <c r="E31" s="258"/>
-      <c r="F31" s="258"/>
-      <c r="G31" s="286"/>
+      <c r="C31" s="305"/>
+      <c r="D31" s="305"/>
+      <c r="E31" s="305"/>
+      <c r="F31" s="305"/>
+      <c r="G31" s="305"/>
       <c r="J31" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="288"/>
-      <c r="L31" s="288"/>
+      <c r="K31" s="285"/>
+      <c r="L31" s="285"/>
       <c r="M31" s="268"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
@@ -22146,47 +22256,47 @@
         <v>25</v>
       </c>
       <c r="C32" s="258"/>
-      <c r="D32" s="286"/>
-      <c r="E32" s="286"/>
-      <c r="F32" s="286"/>
-      <c r="G32" s="286"/>
+      <c r="D32" s="258"/>
+      <c r="E32" s="283"/>
+      <c r="F32" s="283"/>
+      <c r="G32" s="283"/>
       <c r="J32" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="288"/>
-      <c r="L32" s="288"/>
+      <c r="K32" s="285"/>
+      <c r="L32" s="285"/>
       <c r="M32" s="268"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="258"/>
-      <c r="D33" s="258"/>
-      <c r="E33" s="258"/>
-      <c r="F33" s="258"/>
-      <c r="G33" s="286"/>
+      <c r="C33" s="305"/>
+      <c r="D33" s="305"/>
+      <c r="E33" s="305"/>
+      <c r="F33" s="305"/>
+      <c r="G33" s="305"/>
       <c r="J33" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="K33" s="288"/>
-      <c r="L33" s="288"/>
+      <c r="K33" s="260"/>
+      <c r="L33" s="285"/>
       <c r="M33" s="268"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="258"/>
-      <c r="D34" s="258"/>
-      <c r="E34" s="258"/>
-      <c r="F34" s="286"/>
-      <c r="G34" s="286"/>
+      <c r="C34" s="305"/>
+      <c r="D34" s="305"/>
+      <c r="E34" s="305"/>
+      <c r="F34" s="305"/>
+      <c r="G34" s="305"/>
       <c r="J34" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="288"/>
-      <c r="L34" s="288"/>
+      <c r="K34" s="285"/>
+      <c r="L34" s="285"/>
       <c r="M34" s="268"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
@@ -22196,40 +22306,40 @@
       <c r="C35" s="258"/>
       <c r="D35" s="258"/>
       <c r="E35" s="258"/>
-      <c r="F35" s="286"/>
-      <c r="G35" s="286"/>
+      <c r="F35" s="258"/>
+      <c r="G35" s="283"/>
       <c r="J35" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="288"/>
-      <c r="L35" s="288"/>
+      <c r="K35" s="285"/>
+      <c r="L35" s="285"/>
       <c r="M35" s="268"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="286"/>
-      <c r="D36" s="286"/>
-      <c r="E36" s="286"/>
-      <c r="F36" s="286"/>
-      <c r="G36" s="286"/>
+      <c r="C36" s="258"/>
+      <c r="D36" s="283"/>
+      <c r="E36" s="283"/>
+      <c r="F36" s="283"/>
+      <c r="G36" s="283"/>
       <c r="J36" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="288"/>
-      <c r="L36" s="288"/>
+      <c r="K36" s="285"/>
+      <c r="L36" s="285"/>
       <c r="M36" s="268"/>
     </row>
     <row r="37" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="286"/>
-      <c r="D37" s="286"/>
-      <c r="E37" s="286"/>
-      <c r="F37" s="286"/>
-      <c r="G37" s="286"/>
+      <c r="C37" s="283"/>
+      <c r="D37" s="283"/>
+      <c r="E37" s="283"/>
+      <c r="F37" s="283"/>
+      <c r="G37" s="283"/>
       <c r="J37" s="46" t="s">
         <v>36</v>
       </c>
@@ -22243,89 +22353,89 @@
       </c>
       <c r="C38" s="258"/>
       <c r="D38" s="258"/>
-      <c r="E38" s="286"/>
-      <c r="F38" s="286"/>
-      <c r="G38" s="286"/>
+      <c r="E38" s="258"/>
+      <c r="F38" s="283"/>
+      <c r="G38" s="283"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="286"/>
-      <c r="D39" s="286"/>
-      <c r="E39" s="286"/>
-      <c r="F39" s="286"/>
-      <c r="G39" s="286"/>
+      <c r="C39" s="258"/>
+      <c r="D39" s="283"/>
+      <c r="E39" s="283"/>
+      <c r="F39" s="283"/>
+      <c r="G39" s="283"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="286"/>
-      <c r="D40" s="286"/>
-      <c r="E40" s="286"/>
-      <c r="F40" s="286"/>
-      <c r="G40" s="286"/>
+      <c r="C40" s="283"/>
+      <c r="D40" s="283"/>
+      <c r="E40" s="283"/>
+      <c r="F40" s="283"/>
+      <c r="G40" s="283"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="286"/>
-      <c r="D41" s="286"/>
-      <c r="E41" s="286"/>
-      <c r="F41" s="286"/>
-      <c r="G41" s="286"/>
+      <c r="C41" s="283"/>
+      <c r="D41" s="283"/>
+      <c r="E41" s="283"/>
+      <c r="F41" s="283"/>
+      <c r="G41" s="283"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="258"/>
-      <c r="D42" s="286"/>
-      <c r="E42" s="286"/>
-      <c r="F42" s="286"/>
-      <c r="G42" s="286"/>
+      <c r="C42" s="305"/>
+      <c r="D42" s="283"/>
+      <c r="E42" s="283"/>
+      <c r="F42" s="283"/>
+      <c r="G42" s="283"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="286"/>
-      <c r="D43" s="286"/>
-      <c r="E43" s="286"/>
-      <c r="F43" s="286"/>
-      <c r="G43" s="286"/>
+      <c r="C43" s="283"/>
+      <c r="D43" s="283"/>
+      <c r="E43" s="283"/>
+      <c r="F43" s="283"/>
+      <c r="G43" s="283"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="286"/>
-      <c r="D44" s="286"/>
-      <c r="E44" s="286"/>
-      <c r="F44" s="286"/>
-      <c r="G44" s="286"/>
+      <c r="C44" s="283"/>
+      <c r="D44" s="283"/>
+      <c r="E44" s="283"/>
+      <c r="F44" s="283"/>
+      <c r="G44" s="283"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="286"/>
-      <c r="D45" s="286"/>
-      <c r="E45" s="286"/>
-      <c r="F45" s="286"/>
-      <c r="G45" s="286"/>
+      <c r="C45" s="283"/>
+      <c r="D45" s="283"/>
+      <c r="E45" s="283"/>
+      <c r="F45" s="283"/>
+      <c r="G45" s="283"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="286"/>
-      <c r="D46" s="286"/>
-      <c r="E46" s="286"/>
-      <c r="F46" s="286"/>
-      <c r="G46" s="286"/>
+      <c r="C46" s="283"/>
+      <c r="D46" s="283"/>
+      <c r="E46" s="283"/>
+      <c r="F46" s="283"/>
+      <c r="G46" s="283"/>
     </row>
     <row r="47" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="57" t="s">
@@ -22368,146 +22478,146 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="307" t="s">
+      <c r="D2" s="304" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="307" t="s">
+      <c r="E2" s="304" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="307" t="s">
+      <c r="F2" s="304" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="307" t="s">
+      <c r="I2" s="304" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="307" t="s">
+      <c r="J2" s="304" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="307" t="s">
+      <c r="K2" s="304" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="307" t="s">
+      <c r="L2" s="304" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="307" t="s">
+      <c r="M2" s="304" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="307" t="s">
+      <c r="N2" s="304" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="307" t="s">
+      <c r="O2" s="304" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="307" t="s">
+      <c r="P2" s="304" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="307" t="s">
+      <c r="Q2" s="304" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="307" t="s">
+      <c r="R2" s="304" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="302" t="s">
+      <c r="B3" s="299" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="303">
+      <c r="C3" s="300">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D3" s="303">
+      <c r="D3" s="300">
         <v>0.40000000000000041</v>
       </c>
-      <c r="E3" s="303">
+      <c r="E3" s="300">
         <v>0.5</v>
       </c>
-      <c r="F3" s="303">
+      <c r="F3" s="300">
         <v>0.6</v>
       </c>
-      <c r="G3" s="303">
+      <c r="G3" s="300">
         <v>0.7</v>
       </c>
-      <c r="H3" s="303">
-        <v>0</v>
-      </c>
-      <c r="I3" s="303">
+      <c r="H3" s="300">
+        <v>0</v>
+      </c>
+      <c r="I3" s="300">
         <v>0.1</v>
       </c>
-      <c r="J3" s="303">
+      <c r="J3" s="300">
         <v>0.1</v>
       </c>
-      <c r="K3" s="303">
-        <v>0</v>
-      </c>
-      <c r="L3" s="303"/>
-      <c r="M3" s="303"/>
-      <c r="N3" s="303"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="303"/>
-      <c r="Q3" s="304">
+      <c r="K3" s="300">
+        <v>0</v>
+      </c>
+      <c r="L3" s="300"/>
+      <c r="M3" s="300"/>
+      <c r="N3" s="300"/>
+      <c r="O3" s="300"/>
+      <c r="P3" s="300"/>
+      <c r="Q3" s="301">
         <f t="shared" ref="Q3:Q22" si="0">C3+SUM(D3:M3)</f>
         <v>10.6</v>
       </c>
-      <c r="R3" s="305">
+      <c r="R3" s="302">
         <f>+VLOOKUP($B3,F!$C$4:$Q$23,15,)/Q3</f>
-        <v>15.377358490566039</v>
+        <v>13.962264150943398</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="283">
+      <c r="C4" s="280">
         <v>12</v>
       </c>
-      <c r="D4" s="283">
+      <c r="D4" s="280">
         <v>0.4</v>
       </c>
-      <c r="E4" s="283">
+      <c r="E4" s="280">
         <v>0.3</v>
       </c>
-      <c r="F4" s="283">
+      <c r="F4" s="280">
         <v>0.1</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="280">
         <v>0.2</v>
       </c>
-      <c r="H4" s="283">
-        <v>0</v>
-      </c>
-      <c r="I4" s="283">
-        <v>0</v>
-      </c>
-      <c r="J4" s="283">
-        <v>0</v>
-      </c>
-      <c r="K4" s="283">
-        <v>0</v>
-      </c>
-      <c r="L4" s="283"/>
-      <c r="M4" s="283"/>
-      <c r="N4" s="283"/>
-      <c r="O4" s="283"/>
-      <c r="P4" s="283"/>
-      <c r="Q4" s="292">
+      <c r="H4" s="280">
+        <v>0</v>
+      </c>
+      <c r="I4" s="280">
+        <v>0</v>
+      </c>
+      <c r="J4" s="280">
+        <v>0</v>
+      </c>
+      <c r="K4" s="280">
+        <v>0</v>
+      </c>
+      <c r="L4" s="280"/>
+      <c r="M4" s="280"/>
+      <c r="N4" s="280"/>
+      <c r="O4" s="280"/>
+      <c r="P4" s="280"/>
+      <c r="Q4" s="289">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="R4" s="124">
         <f>+VLOOKUP($B4,F!$C$4:$Q$23,15,)/Q4</f>
-        <v>13.076923076923077</v>
+        <v>14.76923076923077</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -22546,13 +22656,13 @@
       <c r="N5" s="110"/>
       <c r="O5" s="110"/>
       <c r="P5" s="110"/>
-      <c r="Q5" s="294">
+      <c r="Q5" s="291">
         <f t="shared" si="0"/>
         <v>10.700000000000001</v>
       </c>
       <c r="R5" s="121">
         <f>+VLOOKUP($B5,F!$C$4:$Q$23,15,)/Q5</f>
-        <v>10.841121495327101</v>
+        <v>9.4392523364485967</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
@@ -22591,13 +22701,13 @@
       <c r="N6" s="117"/>
       <c r="O6" s="117"/>
       <c r="P6" s="117"/>
-      <c r="Q6" s="289">
+      <c r="Q6" s="286">
         <f t="shared" si="0"/>
         <v>31.4</v>
       </c>
       <c r="R6" s="172">
         <f>+VLOOKUP($B6,F!$C$4:$Q$23,15,)/Q6</f>
-        <v>10.764331210191083</v>
+        <v>11.847133757961783</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
@@ -22636,13 +22746,13 @@
       <c r="N7" s="102"/>
       <c r="O7" s="102"/>
       <c r="P7" s="102"/>
-      <c r="Q7" s="290">
+      <c r="Q7" s="287">
         <f t="shared" si="0"/>
         <v>26.1</v>
       </c>
       <c r="R7" s="119">
         <f>+VLOOKUP($B7,F!$C$4:$Q$23,15,)/Q7</f>
-        <v>9.6934865900383134</v>
+        <v>9.118773946360152</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
@@ -22681,13 +22791,13 @@
       <c r="N8" s="108"/>
       <c r="O8" s="108"/>
       <c r="P8" s="108"/>
-      <c r="Q8" s="293">
+      <c r="Q8" s="290">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="R8" s="122">
         <f>+VLOOKUP($B8,F!$C$4:$Q$23,15,)/Q8</f>
-        <v>9.1428571428571423</v>
+        <v>10.857142857142858</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -22726,13 +22836,13 @@
       <c r="N9" s="104"/>
       <c r="O9" s="104"/>
       <c r="P9" s="104"/>
-      <c r="Q9" s="295">
+      <c r="Q9" s="292">
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
       <c r="R9" s="208">
         <f>+VLOOKUP($B9,F!$C$4:$Q$23,15,)/Q9</f>
-        <v>9.7979797979797976</v>
+        <v>13.131313131313131</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -22771,13 +22881,13 @@
       <c r="N10" s="118"/>
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
-      <c r="Q10" s="298">
+      <c r="Q10" s="295">
         <f t="shared" si="0"/>
         <v>6.6999999999999993</v>
       </c>
       <c r="R10" s="173">
         <f>+VLOOKUP($B10,F!$C$4:$Q$23,15,)/Q10</f>
-        <v>8.6567164179104488</v>
+        <v>6.4179104477611943</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
@@ -22816,13 +22926,13 @@
       <c r="N11" s="108"/>
       <c r="O11" s="108"/>
       <c r="P11" s="108"/>
-      <c r="Q11" s="293">
+      <c r="Q11" s="290">
         <f t="shared" si="0"/>
         <v>12.200000000000001</v>
       </c>
       <c r="R11" s="122">
         <f>+VLOOKUP($B11,F!$C$4:$Q$23,15,)/Q11</f>
-        <v>8.6065573770491799</v>
+        <v>7.3770491803278686</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -22861,13 +22971,13 @@
       <c r="N12" s="114"/>
       <c r="O12" s="114"/>
       <c r="P12" s="114"/>
-      <c r="Q12" s="297">
+      <c r="Q12" s="294">
         <f t="shared" si="0"/>
         <v>5.7000000000000011</v>
       </c>
       <c r="R12" s="120">
         <f>+VLOOKUP($B12,F!$C$4:$Q$23,15,)/Q12</f>
-        <v>8.2456140350877174</v>
+        <v>9.9999999999999982</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -22906,13 +23016,13 @@
       <c r="N13" s="117"/>
       <c r="O13" s="117"/>
       <c r="P13" s="117"/>
-      <c r="Q13" s="289">
+      <c r="Q13" s="286">
         <f t="shared" si="0"/>
         <v>29.400000000000002</v>
       </c>
       <c r="R13" s="172">
         <f>+VLOOKUP($B13,F!$C$4:$Q$23,15,)/Q13</f>
-        <v>7.891156462585033</v>
+        <v>8.8775510204081627</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -22951,13 +23061,13 @@
       <c r="N14" s="112"/>
       <c r="O14" s="112"/>
       <c r="P14" s="112"/>
-      <c r="Q14" s="296">
+      <c r="Q14" s="293">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="R14" s="123">
         <f>+VLOOKUP($B14,F!$C$4:$Q$23,15,)/Q14</f>
-        <v>7.4736842105263159</v>
+        <v>8.9473684210526319</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
@@ -22996,13 +23106,13 @@
       <c r="N15" s="112"/>
       <c r="O15" s="112"/>
       <c r="P15" s="112"/>
-      <c r="Q15" s="296">
+      <c r="Q15" s="293">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="R15" s="123">
         <f>+VLOOKUP($B15,F!$C$4:$Q$23,15,)/Q15</f>
-        <v>6.7045454545454541</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
@@ -23041,58 +23151,58 @@
       <c r="N16" s="102"/>
       <c r="O16" s="102"/>
       <c r="P16" s="102"/>
-      <c r="Q16" s="290">
+      <c r="Q16" s="287">
         <f t="shared" si="0"/>
         <v>20.6</v>
       </c>
       <c r="R16" s="119">
         <f>+VLOOKUP($B16,F!$C$4:$Q$23,15,)/Q16</f>
-        <v>6.9417475728155331</v>
+        <v>8.2038834951456305</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="283">
+      <c r="C17" s="280">
         <v>15.5</v>
       </c>
-      <c r="D17" s="283">
-        <v>0</v>
-      </c>
-      <c r="E17" s="283">
-        <v>0</v>
-      </c>
-      <c r="F17" s="283">
-        <v>0</v>
-      </c>
-      <c r="G17" s="283">
+      <c r="D17" s="280">
+        <v>0</v>
+      </c>
+      <c r="E17" s="280">
+        <v>0</v>
+      </c>
+      <c r="F17" s="280">
+        <v>0</v>
+      </c>
+      <c r="G17" s="280">
         <v>-0.1</v>
       </c>
-      <c r="H17" s="283">
+      <c r="H17" s="280">
         <v>-0.1</v>
       </c>
-      <c r="I17" s="283">
-        <v>0</v>
-      </c>
-      <c r="J17" s="283">
-        <v>0</v>
-      </c>
-      <c r="K17" s="283">
-        <v>0</v>
-      </c>
-      <c r="L17" s="283"/>
-      <c r="M17" s="283"/>
-      <c r="N17" s="283"/>
-      <c r="O17" s="283"/>
-      <c r="P17" s="283"/>
-      <c r="Q17" s="292">
+      <c r="I17" s="280">
+        <v>0</v>
+      </c>
+      <c r="J17" s="280">
+        <v>0</v>
+      </c>
+      <c r="K17" s="280">
+        <v>0</v>
+      </c>
+      <c r="L17" s="280"/>
+      <c r="M17" s="280"/>
+      <c r="N17" s="280"/>
+      <c r="O17" s="280"/>
+      <c r="P17" s="280"/>
+      <c r="Q17" s="289">
         <f t="shared" si="0"/>
         <v>15.3</v>
       </c>
       <c r="R17" s="124">
         <f>+VLOOKUP($B17,F!$C$4:$Q$23,15,)/Q17</f>
-        <v>6.7320261437908497</v>
+        <v>5.7516339869281046</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
@@ -23131,13 +23241,13 @@
       <c r="N18" s="110"/>
       <c r="O18" s="110"/>
       <c r="P18" s="110"/>
-      <c r="Q18" s="294">
+      <c r="Q18" s="291">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
       <c r="R18" s="121">
         <f>+VLOOKUP($B18,F!$C$4:$Q$23,15,)/Q18</f>
-        <v>6</v>
+        <v>8.1052631578947363</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
@@ -23176,13 +23286,13 @@
       <c r="N19" s="118"/>
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
-      <c r="Q19" s="298">
+      <c r="Q19" s="295">
         <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
       <c r="R19" s="173">
         <f>+VLOOKUP($B19,F!$C$4:$Q$23,15,)/Q19</f>
-        <v>5.4237288135593218</v>
+        <v>7.7966101694915251</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
@@ -23221,13 +23331,13 @@
       <c r="N20" s="106"/>
       <c r="O20" s="106"/>
       <c r="P20" s="106"/>
-      <c r="Q20" s="291">
+      <c r="Q20" s="288">
         <f t="shared" si="0"/>
         <v>23.400000000000002</v>
       </c>
       <c r="R20" s="209">
         <f>+VLOOKUP($B20,F!$C$4:$Q$23,15,)/Q20</f>
-        <v>3.7606837606837602</v>
+        <v>3.8461538461538458</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
@@ -23266,13 +23376,13 @@
       <c r="N21" s="106"/>
       <c r="O21" s="106"/>
       <c r="P21" s="106"/>
-      <c r="Q21" s="291">
+      <c r="Q21" s="288">
         <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
       <c r="R21" s="209">
         <f>+VLOOKUP($B21,F!$C$4:$Q$23,15,)/Q21</f>
-        <v>2.0487804878048781</v>
+        <v>2.5365853658536586</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -23311,66 +23421,66 @@
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
       <c r="P22" s="76"/>
-      <c r="Q22" s="299">
+      <c r="Q22" s="296">
         <f t="shared" si="0"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="R22" s="243">
         <f>+VLOOKUP($B22,F!$C$4:$Q$23,15,)/Q22</f>
-        <v>-0.13157894736842105</v>
+        <v>-2.1052631578947367</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="307" t="s">
+      <c r="B24" s="304" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="307" t="s">
+      <c r="C24" s="304" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="279" t="s">
+      <c r="D24" s="276" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="279" t="s">
+      <c r="E24" s="276" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="279" t="s">
+      <c r="F24" s="276" t="s">
         <v>77</v>
       </c>
-      <c r="G24" s="279" t="s">
+      <c r="G24" s="276" t="s">
         <v>78</v>
       </c>
-      <c r="H24" s="279" t="s">
+      <c r="H24" s="276" t="s">
         <v>79</v>
       </c>
-      <c r="I24" s="279" t="s">
+      <c r="I24" s="276" t="s">
         <v>80</v>
       </c>
-      <c r="J24" s="279" t="s">
+      <c r="J24" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="279" t="s">
+      <c r="K24" s="276" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="279" t="s">
+      <c r="L24" s="276" t="s">
         <v>83</v>
       </c>
-      <c r="M24" s="307" t="s">
+      <c r="M24" s="304" t="s">
         <v>84</v>
       </c>
-      <c r="N24" s="307" t="s">
+      <c r="N24" s="304" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="307" t="s">
+      <c r="O24" s="304" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="307" t="s">
+      <c r="P24" s="304" t="s">
         <v>87</v>
       </c>
-      <c r="Q24" s="307" t="s">
+      <c r="Q24" s="304" t="s">
         <v>88</v>
       </c>
-      <c r="R24" s="307" t="s">
+      <c r="R24" s="304" t="s">
         <v>89</v>
       </c>
     </row>
@@ -23410,7 +23520,7 @@
       <c r="N25" s="99"/>
       <c r="O25" s="99"/>
       <c r="P25" s="99"/>
-      <c r="Q25" s="300">
+      <c r="Q25" s="297">
         <f t="shared" ref="Q25:Q34" si="1">C25+SUM(D25:M25)</f>
         <v>32.300000000000004</v>
       </c>
@@ -23455,7 +23565,7 @@
       <c r="N26" s="106"/>
       <c r="O26" s="106"/>
       <c r="P26" s="106"/>
-      <c r="Q26" s="291">
+      <c r="Q26" s="288">
         <f t="shared" si="1"/>
         <v>25.9</v>
       </c>
@@ -23500,7 +23610,7 @@
       <c r="N27" s="102"/>
       <c r="O27" s="102"/>
       <c r="P27" s="102"/>
-      <c r="Q27" s="290">
+      <c r="Q27" s="287">
         <f t="shared" si="1"/>
         <v>24.200000000000003</v>
       </c>
@@ -23541,11 +23651,11 @@
         <v>0</v>
       </c>
       <c r="L28" s="100"/>
-      <c r="M28" s="283"/>
-      <c r="N28" s="283"/>
-      <c r="O28" s="283"/>
-      <c r="P28" s="283"/>
-      <c r="Q28" s="292">
+      <c r="M28" s="280"/>
+      <c r="N28" s="280"/>
+      <c r="O28" s="280"/>
+      <c r="P28" s="280"/>
+      <c r="Q28" s="289">
         <f t="shared" si="1"/>
         <v>15.7</v>
       </c>
@@ -23590,7 +23700,7 @@
       <c r="N29" s="110"/>
       <c r="O29" s="110"/>
       <c r="P29" s="110"/>
-      <c r="Q29" s="294">
+      <c r="Q29" s="291">
         <f t="shared" si="1"/>
         <v>12.700000000000001</v>
       </c>
@@ -23635,7 +23745,7 @@
       <c r="N30" s="108"/>
       <c r="O30" s="108"/>
       <c r="P30" s="108"/>
-      <c r="Q30" s="293">
+      <c r="Q30" s="290">
         <f t="shared" si="1"/>
         <v>12.3</v>
       </c>
@@ -23680,7 +23790,7 @@
       <c r="N31" s="104"/>
       <c r="O31" s="104"/>
       <c r="P31" s="104"/>
-      <c r="Q31" s="295">
+      <c r="Q31" s="292">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -23725,7 +23835,7 @@
       <c r="N32" s="112"/>
       <c r="O32" s="112"/>
       <c r="P32" s="112"/>
-      <c r="Q32" s="296">
+      <c r="Q32" s="293">
         <f t="shared" si="1"/>
         <v>8.1999999999999993</v>
       </c>
@@ -23770,7 +23880,7 @@
       <c r="N33" s="114"/>
       <c r="O33" s="114"/>
       <c r="P33" s="114"/>
-      <c r="Q33" s="297">
+      <c r="Q33" s="294">
         <f t="shared" si="1"/>
         <v>7.8</v>
       </c>
@@ -23815,7 +23925,7 @@
       <c r="N34" s="116"/>
       <c r="O34" s="116"/>
       <c r="P34" s="116"/>
-      <c r="Q34" s="301">
+      <c r="Q34" s="298">
         <f t="shared" si="1"/>
         <v>6.3</v>
       </c>
@@ -23839,7 +23949,7 @@
   <dimension ref="B1:AF31"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23861,89 +23971,89 @@
     <row r="1" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="207"/>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="307" t="s">
+      <c r="D2" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="307" t="s">
+      <c r="E2" s="304" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="307" t="s">
+      <c r="F2" s="304" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="307" t="s">
+      <c r="I2" s="304" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="307" t="s">
+      <c r="J2" s="304" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="307" t="s">
+      <c r="K2" s="304" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="307" t="s">
+      <c r="L2" s="304" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="307" t="s">
+      <c r="M2" s="304" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="307" t="s">
+      <c r="N2" s="304" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="307" t="s">
+      <c r="O2" s="304" t="s">
         <v>102</v>
       </c>
       <c r="Q2" s="207"/>
-      <c r="R2" s="307" t="s">
+      <c r="R2" s="304" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="307" t="s">
+      <c r="S2" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="307" t="s">
+      <c r="T2" s="304" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="307" t="s">
+      <c r="U2" s="304" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="307" t="s">
+      <c r="V2" s="304" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="307" t="s">
+      <c r="W2" s="304" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="307" t="s">
+      <c r="X2" s="304" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" s="307" t="s">
+      <c r="Y2" s="304" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" s="307" t="s">
+      <c r="Z2" s="304" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" s="307" t="s">
+      <c r="AA2" s="304" t="s">
         <v>99</v>
       </c>
-      <c r="AB2" s="307" t="s">
+      <c r="AB2" s="304" t="s">
         <v>100</v>
       </c>
-      <c r="AC2" s="307" t="s">
+      <c r="AC2" s="304" t="s">
         <v>101</v>
       </c>
-      <c r="AD2" s="307" t="s">
+      <c r="AD2" s="304" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" s="307" t="s">
+      <c r="AE2" s="304" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="307" t="s">
+      <c r="AF2" s="304" t="s">
         <v>103</v>
       </c>
     </row>
@@ -24464,89 +24574,89 @@
     <row r="27" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="207"/>
-      <c r="C28" s="307" t="s">
+      <c r="C28" s="304" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="307" t="s">
+      <c r="D28" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="307" t="s">
+      <c r="E28" s="304" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="307" t="s">
+      <c r="F28" s="304" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="307" t="s">
+      <c r="G28" s="304" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="307" t="s">
+      <c r="H28" s="304" t="s">
         <v>95</v>
       </c>
-      <c r="I28" s="307" t="s">
+      <c r="I28" s="304" t="s">
         <v>96</v>
       </c>
-      <c r="J28" s="307" t="s">
+      <c r="J28" s="304" t="s">
         <v>97</v>
       </c>
-      <c r="K28" s="307" t="s">
+      <c r="K28" s="304" t="s">
         <v>98</v>
       </c>
-      <c r="L28" s="307" t="s">
+      <c r="L28" s="304" t="s">
         <v>99</v>
       </c>
-      <c r="M28" s="307" t="s">
+      <c r="M28" s="304" t="s">
         <v>100</v>
       </c>
-      <c r="N28" s="307" t="s">
+      <c r="N28" s="304" t="s">
         <v>101</v>
       </c>
-      <c r="O28" s="307" t="s">
+      <c r="O28" s="304" t="s">
         <v>102</v>
       </c>
       <c r="Q28" s="207"/>
-      <c r="R28" s="307" t="s">
+      <c r="R28" s="304" t="s">
         <v>90</v>
       </c>
-      <c r="S28" s="307" t="s">
+      <c r="S28" s="304" t="s">
         <v>91</v>
       </c>
-      <c r="T28" s="307" t="s">
+      <c r="T28" s="304" t="s">
         <v>92</v>
       </c>
-      <c r="U28" s="307" t="s">
+      <c r="U28" s="304" t="s">
         <v>93</v>
       </c>
-      <c r="V28" s="307" t="s">
+      <c r="V28" s="304" t="s">
         <v>94</v>
       </c>
-      <c r="W28" s="307" t="s">
+      <c r="W28" s="304" t="s">
         <v>95</v>
       </c>
-      <c r="X28" s="307" t="s">
+      <c r="X28" s="304" t="s">
         <v>96</v>
       </c>
-      <c r="Y28" s="307" t="s">
+      <c r="Y28" s="304" t="s">
         <v>97</v>
       </c>
-      <c r="Z28" s="307" t="s">
+      <c r="Z28" s="304" t="s">
         <v>98</v>
       </c>
-      <c r="AA28" s="307" t="s">
+      <c r="AA28" s="304" t="s">
         <v>99</v>
       </c>
-      <c r="AB28" s="307" t="s">
+      <c r="AB28" s="304" t="s">
         <v>100</v>
       </c>
-      <c r="AC28" s="307" t="s">
+      <c r="AC28" s="304" t="s">
         <v>101</v>
       </c>
-      <c r="AD28" s="307" t="s">
+      <c r="AD28" s="304" t="s">
         <v>102</v>
       </c>
-      <c r="AE28" s="307" t="s">
+      <c r="AE28" s="304" t="s">
         <v>40</v>
       </c>
-      <c r="AF28" s="307" t="s">
+      <c r="AF28" s="304" t="s">
         <v>103</v>
       </c>
     </row>
@@ -24803,13 +24913,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -24821,19 +24931,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="278" t="s">
+      <c r="I2" s="275" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="307" t="s">
+      <c r="J2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="307" t="s">
+      <c r="K2" s="304" t="s">
         <v>120</v>
       </c>
     </row>
@@ -24966,7 +25076,7 @@
       <c r="I6" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="283">
+      <c r="J6" s="280">
         <v>12</v>
       </c>
       <c r="K6" s="4"/>
@@ -25098,7 +25208,7 @@
       <c r="I10" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="283">
+      <c r="J10" s="280">
         <v>6</v>
       </c>
       <c r="K10" s="4"/>
@@ -25529,31 +25639,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="307" t="s">
+      <c r="D2" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="304" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="307" t="s">
+      <c r="F2" s="304" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="279" t="s">
+      <c r="I2" s="276" t="s">
         <v>120</v>
       </c>
     </row>
@@ -25627,16 +25737,16 @@
       <c r="E5" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="283">
+      <c r="F5" s="280">
         <v>71</v>
       </c>
-      <c r="G5" s="283">
+      <c r="G5" s="280">
         <v>24</v>
       </c>
-      <c r="H5" s="283">
+      <c r="H5" s="280">
         <v>16</v>
       </c>
-      <c r="I5" s="283" t="s">
+      <c r="I5" s="280" t="s">
         <v>173</v>
       </c>
     </row>
@@ -25685,16 +25795,16 @@
       <c r="E7" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="283">
+      <c r="F7" s="280">
         <v>71</v>
       </c>
-      <c r="G7" s="283">
+      <c r="G7" s="280">
         <v>17</v>
       </c>
-      <c r="H7" s="283">
+      <c r="H7" s="280">
         <v>10</v>
       </c>
-      <c r="I7" s="283"/>
+      <c r="I7" s="280"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="52">
@@ -26152,13 +26262,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -26170,19 +26280,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="278" t="s">
+      <c r="I2" s="275" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="307" t="s">
+      <c r="J2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="307" t="s">
+      <c r="K2" s="304" t="s">
         <v>120</v>
       </c>
     </row>
@@ -26280,7 +26390,7 @@
       <c r="I5" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="J5" s="283">
+      <c r="J5" s="280">
         <v>13</v>
       </c>
       <c r="K5" s="4"/>
@@ -26379,7 +26489,7 @@
       <c r="I8" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="J8" s="283">
+      <c r="J8" s="280">
         <v>8</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -26881,31 +26991,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="304" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="307" t="s">
+      <c r="B2" s="304" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="307" t="s">
+      <c r="C2" s="304" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="307" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="307" t="s">
+      <c r="D2" s="304" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="304" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="307" t="s">
+      <c r="F2" s="304" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="307" t="s">
+      <c r="G2" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="304" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="279" t="s">
+      <c r="I2" s="276" t="s">
         <v>120</v>
       </c>
       <c r="J2" s="71"/>
@@ -27045,16 +27155,16 @@
       <c r="E7" s="61" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="283">
+      <c r="F7" s="280">
         <v>71</v>
       </c>
-      <c r="G7" s="283">
+      <c r="G7" s="280">
         <v>22</v>
       </c>
-      <c r="H7" s="283">
+      <c r="H7" s="280">
         <v>10</v>
       </c>
-      <c r="I7" s="283"/>
+      <c r="I7" s="280"/>
       <c r="J7" s="72"/>
       <c r="K7" s="72"/>
     </row>
@@ -27161,16 +27271,16 @@
       <c r="E11" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="F11" s="283">
+      <c r="F11" s="280">
         <v>70</v>
       </c>
-      <c r="G11" s="283">
+      <c r="G11" s="280">
         <v>-2</v>
       </c>
-      <c r="H11" s="283">
+      <c r="H11" s="280">
         <v>3</v>
       </c>
-      <c r="I11" s="283" t="s">
+      <c r="I11" s="280" t="s">
         <v>173</v>
       </c>
       <c r="J11" s="72"/>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3307e3c88395b6d/CSProjects/PythonProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="11_103A841FC1C41D42D55C852AB38511418E364967" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C736421D-A8F1-B044-BF83-EAF1B52C5B13}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="11_103A841FC1C41D42D55C852AB38511418E364967" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE1F7E5C-832B-F34F-9EBA-55986D6D9AA7}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19240" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,6 +36,8 @@
     <sheet name="R8" sheetId="21" r:id="rId21"/>
     <sheet name="Q9" sheetId="22" state="hidden" r:id="rId22"/>
     <sheet name="R9" sheetId="23" r:id="rId23"/>
+    <sheet name="Q10" sheetId="24" r:id="rId24"/>
+    <sheet name="R10" sheetId="25" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C'!$B$2:$Q$22</definedName>
@@ -76,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2195" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="724">
   <si>
     <t>Constructor</t>
   </si>
@@ -2308,7 +2310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2393,8 +2395,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1E41FF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDC0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF500"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8700"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9B0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0D787"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -2870,11 +2920,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="420">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3780,6 +3850,345 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="22" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="21" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="22" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7156,6 +7565,138 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1701800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>20559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E39F54-1A8F-D045-91B0-0E77959DB214}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9956800" y="215900"/>
+          <a:ext cx="8026400" cy="4516359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2120900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>185659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31918D54-CBCF-3B4C-BD57-AD8CFF175F65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8724900" y="177800"/>
+          <a:ext cx="8026400" cy="4516359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -7955,7 +8496,7 @@
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37">
-        <f>SUM(D3:P3)</f>
+        <f t="shared" ref="Q3:Q22" si="0">SUM(D3:P3)</f>
         <v>190</v>
       </c>
       <c r="S3" s="38" t="s">
@@ -8014,7 +8555,7 @@
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27">
-        <f>SUM(D4:P4)</f>
+        <f t="shared" si="0"/>
         <v>135</v>
       </c>
       <c r="S4" s="44" t="s">
@@ -8073,7 +8614,7 @@
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="29">
-        <f>SUM(D5:P5)</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="S5" s="39" t="s">
@@ -8132,7 +8673,7 @@
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
       <c r="Q6" s="30">
-        <f>SUM(D6:P6)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="S6" s="41" t="s">
@@ -8191,14 +8732,14 @@
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
       <c r="Q7" s="29">
-        <f>SUM(D7:P7)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="S7" s="42" t="s">
         <v>26</v>
       </c>
       <c r="T7" s="267">
-        <f ca="1">SUMIF($B$3:$Q$22,S7,$Q$3:$Q$22)</f>
+        <f t="shared" ref="T7:T12" ca="1" si="1">SUMIF($B$3:$Q$22,S7,$Q$3:$Q$22)</f>
         <v>83</v>
       </c>
     </row>
@@ -8250,14 +8791,14 @@
       <c r="O8" s="31"/>
       <c r="P8" s="31"/>
       <c r="Q8" s="31">
-        <f>SUM(D8:P8)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="S8" s="40" t="s">
         <v>28</v>
       </c>
       <c r="T8" s="267">
-        <f ca="1">SUMIF($B$3:$Q$22,S8,$Q$3:$Q$22)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>64</v>
       </c>
     </row>
@@ -8309,14 +8850,14 @@
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
       <c r="Q9" s="32">
-        <f>SUM(D9:P9)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="S9" s="81" t="s">
         <v>30</v>
       </c>
       <c r="T9" s="267">
-        <f ca="1">SUMIF($B$3:$Q$22,S9,$Q$3:$Q$22)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>53</v>
       </c>
     </row>
@@ -8368,14 +8909,14 @@
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
       <c r="Q10" s="28">
-        <f>SUM(D10:P10)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="S10" s="43" t="s">
         <v>32</v>
       </c>
       <c r="T10" s="267">
-        <f ca="1">SUMIF($B$3:$Q$22,S10,$Q$3:$Q$22)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -8421,14 +8962,14 @@
       <c r="O11" s="31"/>
       <c r="P11" s="31"/>
       <c r="Q11" s="31">
-        <f>SUM(D11:P11)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="S11" s="45" t="s">
         <v>34</v>
       </c>
       <c r="T11" s="267">
-        <f ca="1">SUMIF($B$3:$Q$22,S11,$Q$3:$Q$22)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -8480,14 +9021,14 @@
       <c r="O12" s="82"/>
       <c r="P12" s="82"/>
       <c r="Q12" s="82">
-        <f>SUM(D12:P12)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>36</v>
       </c>
       <c r="T12" s="255">
-        <f ca="1">SUMIF($B$3:$Q$22,S12,$Q$3:$Q$22)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -8539,7 +9080,7 @@
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30">
-        <f>SUM(D13:P13)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
@@ -8591,7 +9132,7 @@
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="32">
-        <f>SUM(D14:P14)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -8643,7 +9184,7 @@
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
       <c r="Q15" s="28">
-        <f>SUM(D15:P15)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="S15" s="303" t="s">
@@ -8710,7 +9251,7 @@
       <c r="O16" s="82"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="82">
-        <f>SUM(D16:P16)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="S16" s="52" t="s">
@@ -8780,7 +9321,7 @@
       <c r="O17" s="33"/>
       <c r="P17" s="33"/>
       <c r="Q17" s="33">
-        <f>SUM(D17:P17)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -8832,7 +9373,7 @@
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
       <c r="Q18" s="33">
-        <f>SUM(D18:P18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -8884,7 +9425,7 @@
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="34">
-        <f>SUM(D19:P19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -8936,7 +9477,7 @@
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="34">
-        <f>SUM(D20:P20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -8988,7 +9529,7 @@
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35">
-        <f>SUM(D21:P21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9040,7 +9581,7 @@
       <c r="O22" s="36"/>
       <c r="P22" s="36"/>
       <c r="Q22" s="36">
-        <f>SUM(D22:P22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -20284,7 +20825,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20878,7 +21419,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="A2" sqref="A2:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21603,7 +22144,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22197,6 +22738,870 @@
       <sortCondition descending="1" ref="F2:F22"/>
     </sortState>
   </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD1F733-CB6E-FD43-A2A8-D351F8B80081}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="238" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="239" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="307" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="307" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="308" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="238" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="239" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="308" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="238" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="239" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="309">
+        <v>44</v>
+      </c>
+      <c r="B3" s="310" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="310" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="312"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="314"/>
+      <c r="I3" s="315"/>
+      <c r="J3" s="316"/>
+      <c r="K3" s="314"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="309">
+        <v>77</v>
+      </c>
+      <c r="B4" s="310" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="310" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="311"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="312"/>
+      <c r="G4" s="313"/>
+      <c r="H4" s="314"/>
+      <c r="I4" s="315"/>
+      <c r="J4" s="316"/>
+      <c r="K4" s="314"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="317">
+        <v>33</v>
+      </c>
+      <c r="B5" s="318" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="318" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="319"/>
+      <c r="E5" s="319"/>
+      <c r="F5" s="320"/>
+      <c r="G5" s="321"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="323"/>
+      <c r="J5" s="324"/>
+      <c r="K5" s="322"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="317">
+        <v>23</v>
+      </c>
+      <c r="B6" s="318" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="318" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="319"/>
+      <c r="E6" s="319"/>
+      <c r="F6" s="320"/>
+      <c r="G6" s="321"/>
+      <c r="H6" s="322"/>
+      <c r="I6" s="323"/>
+      <c r="J6" s="324"/>
+      <c r="K6" s="322"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="325">
+        <v>16</v>
+      </c>
+      <c r="B7" s="326" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="326" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="327"/>
+      <c r="E7" s="327"/>
+      <c r="F7" s="328"/>
+      <c r="G7" s="329"/>
+      <c r="H7" s="330"/>
+      <c r="I7" s="331"/>
+      <c r="J7" s="332"/>
+      <c r="K7" s="330"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="333">
+        <v>11</v>
+      </c>
+      <c r="B8" s="334" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="334" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="335"/>
+      <c r="E8" s="335"/>
+      <c r="F8" s="336"/>
+      <c r="G8" s="337"/>
+      <c r="H8" s="338"/>
+      <c r="I8" s="339"/>
+      <c r="J8" s="340"/>
+      <c r="K8" s="338"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="333">
+        <v>18</v>
+      </c>
+      <c r="B9" s="334" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="334" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="335"/>
+      <c r="E9" s="335"/>
+      <c r="F9" s="336"/>
+      <c r="G9" s="337"/>
+      <c r="H9" s="338"/>
+      <c r="I9" s="339"/>
+      <c r="J9" s="340"/>
+      <c r="K9" s="338"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="341">
+        <v>3</v>
+      </c>
+      <c r="B10" s="342" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="342" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="343"/>
+      <c r="E10" s="343"/>
+      <c r="F10" s="344"/>
+      <c r="G10" s="345"/>
+      <c r="H10" s="346"/>
+      <c r="I10" s="347"/>
+      <c r="J10" s="348"/>
+      <c r="K10" s="346"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="349">
+        <v>55</v>
+      </c>
+      <c r="B11" s="350" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="350" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="351"/>
+      <c r="E11" s="351"/>
+      <c r="F11" s="352"/>
+      <c r="G11" s="353"/>
+      <c r="H11" s="354"/>
+      <c r="I11" s="355"/>
+      <c r="J11" s="356"/>
+      <c r="K11" s="354"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="341">
+        <v>31</v>
+      </c>
+      <c r="B12" s="342" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="342" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="343"/>
+      <c r="E12" s="343"/>
+      <c r="F12" s="344"/>
+      <c r="G12" s="345"/>
+      <c r="H12" s="346"/>
+      <c r="I12" s="347"/>
+      <c r="J12" s="348"/>
+      <c r="K12" s="346"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="349">
+        <v>4</v>
+      </c>
+      <c r="B13" s="350" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="350" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="351"/>
+      <c r="E13" s="351"/>
+      <c r="F13" s="352"/>
+      <c r="G13" s="353"/>
+      <c r="H13" s="354"/>
+      <c r="I13" s="355"/>
+      <c r="J13" s="356"/>
+      <c r="K13" s="354"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="357">
+        <v>23</v>
+      </c>
+      <c r="B14" s="358" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="358" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="359"/>
+      <c r="E14" s="359"/>
+      <c r="F14" s="360"/>
+      <c r="G14" s="361"/>
+      <c r="H14" s="362"/>
+      <c r="I14" s="363"/>
+      <c r="J14" s="364"/>
+      <c r="K14" s="362"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="365">
+        <v>7</v>
+      </c>
+      <c r="B15" s="366" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="366" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="367"/>
+      <c r="E15" s="367"/>
+      <c r="F15" s="368"/>
+      <c r="G15" s="369"/>
+      <c r="H15" s="370"/>
+      <c r="I15" s="371"/>
+      <c r="J15" s="372"/>
+      <c r="K15" s="370"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="325">
+        <v>5</v>
+      </c>
+      <c r="B16" s="326" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="326" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="327"/>
+      <c r="E16" s="327"/>
+      <c r="F16" s="328"/>
+      <c r="G16" s="329"/>
+      <c r="H16" s="330"/>
+      <c r="I16" s="331"/>
+      <c r="J16" s="332"/>
+      <c r="K16" s="330"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="373">
+        <v>8</v>
+      </c>
+      <c r="B17" s="374" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="374" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="375"/>
+      <c r="E17" s="375"/>
+      <c r="F17" s="376"/>
+      <c r="G17" s="377"/>
+      <c r="H17" s="378"/>
+      <c r="I17" s="379"/>
+      <c r="J17" s="380"/>
+      <c r="K17" s="378"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="357">
+        <v>10</v>
+      </c>
+      <c r="B18" s="358" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="358" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="359"/>
+      <c r="E18" s="359"/>
+      <c r="F18" s="360"/>
+      <c r="G18" s="361"/>
+      <c r="H18" s="362"/>
+      <c r="I18" s="363"/>
+      <c r="J18" s="364"/>
+      <c r="K18" s="362"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="365">
+        <v>99</v>
+      </c>
+      <c r="B19" s="366" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="366" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="367"/>
+      <c r="E19" s="367"/>
+      <c r="F19" s="368"/>
+      <c r="G19" s="369"/>
+      <c r="H19" s="370"/>
+      <c r="I19" s="371"/>
+      <c r="J19" s="372"/>
+      <c r="K19" s="370"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="381">
+        <v>63</v>
+      </c>
+      <c r="B20" s="382" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="382" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="383"/>
+      <c r="E20" s="383"/>
+      <c r="F20" s="384"/>
+      <c r="G20" s="385"/>
+      <c r="H20" s="386"/>
+      <c r="I20" s="387"/>
+      <c r="J20" s="388"/>
+      <c r="K20" s="386"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="381">
+        <v>6</v>
+      </c>
+      <c r="B21" s="382" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="382" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="383"/>
+      <c r="E21" s="383"/>
+      <c r="F21" s="384"/>
+      <c r="G21" s="385"/>
+      <c r="H21" s="386"/>
+      <c r="I21" s="387"/>
+      <c r="J21" s="388"/>
+      <c r="K21" s="386"/>
+    </row>
+    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="389">
+        <v>20</v>
+      </c>
+      <c r="B22" s="390" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="390" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="391"/>
+      <c r="E22" s="391"/>
+      <c r="F22" s="392"/>
+      <c r="G22" s="393"/>
+      <c r="H22" s="394"/>
+      <c r="I22" s="395"/>
+      <c r="J22" s="396"/>
+      <c r="K22" s="394"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7110D158-9195-7748-B27F-F9A178331528}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="28.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="238" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="239" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="239" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="239" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="239" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="239" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="239" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="239" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="309">
+        <v>44</v>
+      </c>
+      <c r="B3" s="310">
+        <v>1</v>
+      </c>
+      <c r="C3" s="310" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="310" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="397"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="309">
+        <v>77</v>
+      </c>
+      <c r="B4" s="310">
+        <v>2</v>
+      </c>
+      <c r="C4" s="310" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="310" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="397"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="232"/>
+      <c r="I4" s="232"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="317">
+        <v>23</v>
+      </c>
+      <c r="B5" s="318">
+        <v>3</v>
+      </c>
+      <c r="C5" s="318" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="318" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="398"/>
+      <c r="F5" s="399"/>
+      <c r="G5" s="399"/>
+      <c r="H5" s="399"/>
+      <c r="I5" s="399"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="341">
+        <v>3</v>
+      </c>
+      <c r="B6" s="342">
+        <v>4</v>
+      </c>
+      <c r="C6" s="342" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="342" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="400"/>
+      <c r="F6" s="401"/>
+      <c r="G6" s="401"/>
+      <c r="H6" s="401"/>
+      <c r="I6" s="401"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="333">
+        <v>11</v>
+      </c>
+      <c r="B7" s="334">
+        <v>5</v>
+      </c>
+      <c r="C7" s="334" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="334" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="402"/>
+      <c r="F7" s="403"/>
+      <c r="G7" s="403"/>
+      <c r="H7" s="403"/>
+      <c r="I7" s="403"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="349">
+        <v>4</v>
+      </c>
+      <c r="B8" s="350">
+        <v>6</v>
+      </c>
+      <c r="C8" s="350" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="350" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="404"/>
+      <c r="F8" s="405"/>
+      <c r="G8" s="405"/>
+      <c r="H8" s="405"/>
+      <c r="I8" s="405"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="357">
+        <v>23</v>
+      </c>
+      <c r="B9" s="358">
+        <v>7</v>
+      </c>
+      <c r="C9" s="358" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="358" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="406"/>
+      <c r="F9" s="407"/>
+      <c r="G9" s="407"/>
+      <c r="H9" s="407"/>
+      <c r="I9" s="407"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="365">
+        <v>7</v>
+      </c>
+      <c r="B10" s="366">
+        <v>8</v>
+      </c>
+      <c r="C10" s="366" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="366" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="408"/>
+      <c r="F10" s="409"/>
+      <c r="G10" s="409"/>
+      <c r="H10" s="409"/>
+      <c r="I10" s="409"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="325">
+        <v>16</v>
+      </c>
+      <c r="B11" s="326">
+        <v>9</v>
+      </c>
+      <c r="C11" s="326" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="326" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="410"/>
+      <c r="F11" s="411"/>
+      <c r="G11" s="411"/>
+      <c r="H11" s="411"/>
+      <c r="I11" s="411"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="325">
+        <v>5</v>
+      </c>
+      <c r="B12" s="326">
+        <v>10</v>
+      </c>
+      <c r="C12" s="326" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="326" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="410"/>
+      <c r="F12" s="411"/>
+      <c r="G12" s="411"/>
+      <c r="H12" s="411"/>
+      <c r="I12" s="411"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="381">
+        <v>63</v>
+      </c>
+      <c r="B13" s="382">
+        <v>11</v>
+      </c>
+      <c r="C13" s="382" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="382" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="412"/>
+      <c r="F13" s="413"/>
+      <c r="G13" s="413"/>
+      <c r="H13" s="413"/>
+      <c r="I13" s="413"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="373">
+        <v>8</v>
+      </c>
+      <c r="B14" s="374">
+        <v>12</v>
+      </c>
+      <c r="C14" s="374" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="374" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="414"/>
+      <c r="F14" s="415"/>
+      <c r="G14" s="415"/>
+      <c r="H14" s="415"/>
+      <c r="I14" s="415"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="333">
+        <v>18</v>
+      </c>
+      <c r="B15" s="334" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="334" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="334" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="402"/>
+      <c r="F15" s="403"/>
+      <c r="G15" s="403"/>
+      <c r="H15" s="403"/>
+      <c r="I15" s="403"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="341">
+        <v>31</v>
+      </c>
+      <c r="B16" s="342" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="342" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="342" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="400"/>
+      <c r="F16" s="401"/>
+      <c r="G16" s="401"/>
+      <c r="H16" s="401"/>
+      <c r="I16" s="401"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="381">
+        <v>6</v>
+      </c>
+      <c r="B17" s="382" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="382" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="382" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="412"/>
+      <c r="F17" s="413"/>
+      <c r="G17" s="413"/>
+      <c r="H17" s="413"/>
+      <c r="I17" s="413"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="365">
+        <v>99</v>
+      </c>
+      <c r="B18" s="366" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="366" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="366" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="408"/>
+      <c r="F18" s="409"/>
+      <c r="G18" s="409"/>
+      <c r="H18" s="409"/>
+      <c r="I18" s="409"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="373">
+        <v>20</v>
+      </c>
+      <c r="B19" s="374" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="374" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="374" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="414"/>
+      <c r="F19" s="415"/>
+      <c r="G19" s="415"/>
+      <c r="H19" s="415"/>
+      <c r="I19" s="415"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="349">
+        <v>55</v>
+      </c>
+      <c r="B20" s="350" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="350" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="350" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="404"/>
+      <c r="F20" s="405"/>
+      <c r="G20" s="405"/>
+      <c r="H20" s="405"/>
+      <c r="I20" s="405"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="357">
+        <v>10</v>
+      </c>
+      <c r="B21" s="358" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="358" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="358" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="406"/>
+      <c r="F21" s="407"/>
+      <c r="G21" s="407"/>
+      <c r="H21" s="407"/>
+      <c r="I21" s="407"/>
+    </row>
+    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="416">
+        <v>33</v>
+      </c>
+      <c r="B22" s="417" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="417" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="417" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="418"/>
+      <c r="F22" s="419"/>
+      <c r="G22" s="419"/>
+      <c r="H22" s="419"/>
+      <c r="I22" s="419"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3307e3c88395b6d/CSProjects/PythonProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="11_103A841FC1C41D42D55C852AB38511418E364967" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CE1F7E5C-832B-F34F-9EBA-55986D6D9AA7}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="11_103A841FC1C41D42D55C852AB38511418E364967" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF9286B2-26AA-7A4B-961E-9ACCD7414CAC}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19240" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3845,350 +3845,350 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="22" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="21" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="22" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="22" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="21" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="22" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16273,24 +16273,24 @@
   <sheetData>
     <row r="1" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="417" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="305"/>
-      <c r="H2" s="305"/>
-      <c r="I2" s="305"/>
-      <c r="J2" s="305"/>
-      <c r="K2" s="305"/>
-      <c r="L2" s="305"/>
-      <c r="M2" s="305"/>
-      <c r="N2" s="305"/>
-      <c r="O2" s="305"/>
-      <c r="P2" s="305"/>
-      <c r="Q2" s="306"/>
+      <c r="C2" s="418"/>
+      <c r="D2" s="418"/>
+      <c r="E2" s="418"/>
+      <c r="F2" s="418"/>
+      <c r="G2" s="418"/>
+      <c r="H2" s="418"/>
+      <c r="I2" s="418"/>
+      <c r="J2" s="418"/>
+      <c r="K2" s="418"/>
+      <c r="L2" s="418"/>
+      <c r="M2" s="418"/>
+      <c r="N2" s="418"/>
+      <c r="O2" s="418"/>
+      <c r="P2" s="418"/>
+      <c r="Q2" s="419"/>
     </row>
     <row r="3" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="299" t="s">
@@ -17876,24 +17876,24 @@
     </row>
     <row r="24" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="304" t="s">
+      <c r="B25" s="417" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="305"/>
-      <c r="D25" s="305"/>
-      <c r="E25" s="305"/>
-      <c r="F25" s="305"/>
-      <c r="G25" s="305"/>
-      <c r="H25" s="305"/>
-      <c r="I25" s="305"/>
-      <c r="J25" s="305"/>
-      <c r="K25" s="305"/>
-      <c r="L25" s="305"/>
-      <c r="M25" s="305"/>
-      <c r="N25" s="305"/>
-      <c r="O25" s="305"/>
-      <c r="P25" s="305"/>
-      <c r="Q25" s="306"/>
+      <c r="C25" s="418"/>
+      <c r="D25" s="418"/>
+      <c r="E25" s="418"/>
+      <c r="F25" s="418"/>
+      <c r="G25" s="418"/>
+      <c r="H25" s="418"/>
+      <c r="I25" s="418"/>
+      <c r="J25" s="418"/>
+      <c r="K25" s="418"/>
+      <c r="L25" s="418"/>
+      <c r="M25" s="418"/>
+      <c r="N25" s="418"/>
+      <c r="O25" s="418"/>
+      <c r="P25" s="418"/>
+      <c r="Q25" s="419"/>
     </row>
     <row r="26" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="97" t="s">
@@ -18981,24 +18981,24 @@
     </row>
     <row r="47" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="304" t="s">
+      <c r="B48" s="417" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="305"/>
-      <c r="D48" s="305"/>
-      <c r="E48" s="305"/>
-      <c r="F48" s="305"/>
-      <c r="G48" s="305"/>
-      <c r="H48" s="305"/>
-      <c r="I48" s="305"/>
-      <c r="J48" s="305"/>
-      <c r="K48" s="305"/>
-      <c r="L48" s="305"/>
-      <c r="M48" s="305"/>
-      <c r="N48" s="305"/>
-      <c r="O48" s="305"/>
-      <c r="P48" s="305"/>
-      <c r="Q48" s="306"/>
+      <c r="C48" s="418"/>
+      <c r="D48" s="418"/>
+      <c r="E48" s="418"/>
+      <c r="F48" s="418"/>
+      <c r="G48" s="418"/>
+      <c r="H48" s="418"/>
+      <c r="I48" s="418"/>
+      <c r="J48" s="418"/>
+      <c r="K48" s="418"/>
+      <c r="L48" s="418"/>
+      <c r="M48" s="418"/>
+      <c r="N48" s="418"/>
+      <c r="O48" s="418"/>
+      <c r="P48" s="418"/>
+      <c r="Q48" s="419"/>
     </row>
     <row r="49" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="97" t="s">
@@ -21419,7 +21419,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K22"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22144,7 +22144,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22767,13 +22767,13 @@
       <c r="C2" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="307" t="s">
+      <c r="D2" s="304" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="307" t="s">
+      <c r="E2" s="304" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="308" t="s">
+      <c r="F2" s="305" t="s">
         <v>115</v>
       </c>
       <c r="G2" s="238" t="s">
@@ -22782,7 +22782,7 @@
       <c r="H2" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="308" t="s">
+      <c r="I2" s="305" t="s">
         <v>118</v>
       </c>
       <c r="J2" s="238" t="s">
@@ -22793,384 +22793,384 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="309">
+      <c r="A3" s="306">
         <v>44</v>
       </c>
-      <c r="B3" s="310" t="s">
+      <c r="B3" s="307" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="310" t="s">
+      <c r="C3" s="307" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="311"/>
-      <c r="E3" s="311"/>
-      <c r="F3" s="312"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="314"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="314"/>
+      <c r="D3" s="308"/>
+      <c r="E3" s="308"/>
+      <c r="F3" s="309"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="311"/>
+      <c r="I3" s="312"/>
+      <c r="J3" s="313"/>
+      <c r="K3" s="311"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="309">
+      <c r="A4" s="306">
         <v>77</v>
       </c>
-      <c r="B4" s="310" t="s">
+      <c r="B4" s="307" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="310" t="s">
+      <c r="C4" s="307" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="311"/>
-      <c r="E4" s="311"/>
-      <c r="F4" s="312"/>
-      <c r="G4" s="313"/>
-      <c r="H4" s="314"/>
-      <c r="I4" s="315"/>
-      <c r="J4" s="316"/>
-      <c r="K4" s="314"/>
+      <c r="D4" s="308"/>
+      <c r="E4" s="308"/>
+      <c r="F4" s="309"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="311"/>
+      <c r="I4" s="312"/>
+      <c r="J4" s="313"/>
+      <c r="K4" s="311"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="317">
+      <c r="A5" s="314">
         <v>33</v>
       </c>
-      <c r="B5" s="318" t="s">
+      <c r="B5" s="315" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="318" t="s">
+      <c r="C5" s="315" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="320"/>
-      <c r="G5" s="321"/>
-      <c r="H5" s="322"/>
-      <c r="I5" s="323"/>
-      <c r="J5" s="324"/>
-      <c r="K5" s="322"/>
+      <c r="D5" s="316"/>
+      <c r="E5" s="316"/>
+      <c r="F5" s="317"/>
+      <c r="G5" s="318"/>
+      <c r="H5" s="319"/>
+      <c r="I5" s="320"/>
+      <c r="J5" s="321"/>
+      <c r="K5" s="319"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="317">
+      <c r="A6" s="314">
         <v>23</v>
       </c>
-      <c r="B6" s="318" t="s">
+      <c r="B6" s="315" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="318" t="s">
+      <c r="C6" s="315" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="319"/>
-      <c r="E6" s="319"/>
-      <c r="F6" s="320"/>
-      <c r="G6" s="321"/>
-      <c r="H6" s="322"/>
-      <c r="I6" s="323"/>
-      <c r="J6" s="324"/>
-      <c r="K6" s="322"/>
+      <c r="D6" s="316"/>
+      <c r="E6" s="316"/>
+      <c r="F6" s="317"/>
+      <c r="G6" s="318"/>
+      <c r="H6" s="319"/>
+      <c r="I6" s="320"/>
+      <c r="J6" s="321"/>
+      <c r="K6" s="319"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="325">
+      <c r="A7" s="322">
         <v>16</v>
       </c>
-      <c r="B7" s="326" t="s">
+      <c r="B7" s="323" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="326" t="s">
+      <c r="C7" s="323" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="327"/>
-      <c r="E7" s="327"/>
-      <c r="F7" s="328"/>
-      <c r="G7" s="329"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="331"/>
-      <c r="J7" s="332"/>
-      <c r="K7" s="330"/>
+      <c r="D7" s="324"/>
+      <c r="E7" s="324"/>
+      <c r="F7" s="325"/>
+      <c r="G7" s="326"/>
+      <c r="H7" s="327"/>
+      <c r="I7" s="328"/>
+      <c r="J7" s="329"/>
+      <c r="K7" s="327"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="333">
+      <c r="A8" s="330">
         <v>11</v>
       </c>
-      <c r="B8" s="334" t="s">
+      <c r="B8" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="334" t="s">
+      <c r="C8" s="331" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="335"/>
-      <c r="E8" s="335"/>
-      <c r="F8" s="336"/>
-      <c r="G8" s="337"/>
-      <c r="H8" s="338"/>
-      <c r="I8" s="339"/>
-      <c r="J8" s="340"/>
-      <c r="K8" s="338"/>
+      <c r="D8" s="332"/>
+      <c r="E8" s="332"/>
+      <c r="F8" s="333"/>
+      <c r="G8" s="334"/>
+      <c r="H8" s="335"/>
+      <c r="I8" s="336"/>
+      <c r="J8" s="337"/>
+      <c r="K8" s="335"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="333">
+      <c r="A9" s="330">
         <v>18</v>
       </c>
-      <c r="B9" s="334" t="s">
+      <c r="B9" s="331" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="334" t="s">
+      <c r="C9" s="331" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="335"/>
-      <c r="E9" s="335"/>
-      <c r="F9" s="336"/>
-      <c r="G9" s="337"/>
-      <c r="H9" s="338"/>
-      <c r="I9" s="339"/>
-      <c r="J9" s="340"/>
-      <c r="K9" s="338"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="333"/>
+      <c r="G9" s="334"/>
+      <c r="H9" s="335"/>
+      <c r="I9" s="336"/>
+      <c r="J9" s="337"/>
+      <c r="K9" s="335"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="341">
+      <c r="A10" s="338">
         <v>3</v>
       </c>
-      <c r="B10" s="342" t="s">
+      <c r="B10" s="339" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="342" t="s">
+      <c r="C10" s="339" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="343"/>
-      <c r="E10" s="343"/>
-      <c r="F10" s="344"/>
-      <c r="G10" s="345"/>
-      <c r="H10" s="346"/>
-      <c r="I10" s="347"/>
-      <c r="J10" s="348"/>
-      <c r="K10" s="346"/>
+      <c r="D10" s="340"/>
+      <c r="E10" s="340"/>
+      <c r="F10" s="341"/>
+      <c r="G10" s="342"/>
+      <c r="H10" s="343"/>
+      <c r="I10" s="344"/>
+      <c r="J10" s="345"/>
+      <c r="K10" s="343"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="349">
+      <c r="A11" s="346">
         <v>55</v>
       </c>
-      <c r="B11" s="350" t="s">
+      <c r="B11" s="347" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="350" t="s">
+      <c r="C11" s="347" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="351"/>
-      <c r="E11" s="351"/>
-      <c r="F11" s="352"/>
-      <c r="G11" s="353"/>
-      <c r="H11" s="354"/>
-      <c r="I11" s="355"/>
-      <c r="J11" s="356"/>
-      <c r="K11" s="354"/>
+      <c r="D11" s="348"/>
+      <c r="E11" s="348"/>
+      <c r="F11" s="349"/>
+      <c r="G11" s="350"/>
+      <c r="H11" s="351"/>
+      <c r="I11" s="352"/>
+      <c r="J11" s="353"/>
+      <c r="K11" s="351"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="341">
+      <c r="A12" s="338">
         <v>31</v>
       </c>
-      <c r="B12" s="342" t="s">
+      <c r="B12" s="339" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="342" t="s">
+      <c r="C12" s="339" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="343"/>
-      <c r="E12" s="343"/>
-      <c r="F12" s="344"/>
-      <c r="G12" s="345"/>
-      <c r="H12" s="346"/>
-      <c r="I12" s="347"/>
-      <c r="J12" s="348"/>
-      <c r="K12" s="346"/>
+      <c r="D12" s="340"/>
+      <c r="E12" s="340"/>
+      <c r="F12" s="341"/>
+      <c r="G12" s="342"/>
+      <c r="H12" s="343"/>
+      <c r="I12" s="344"/>
+      <c r="J12" s="345"/>
+      <c r="K12" s="343"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="349">
+      <c r="A13" s="346">
         <v>4</v>
       </c>
-      <c r="B13" s="350" t="s">
+      <c r="B13" s="347" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="350" t="s">
+      <c r="C13" s="347" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="351"/>
-      <c r="E13" s="351"/>
-      <c r="F13" s="352"/>
-      <c r="G13" s="353"/>
-      <c r="H13" s="354"/>
-      <c r="I13" s="355"/>
-      <c r="J13" s="356"/>
-      <c r="K13" s="354"/>
+      <c r="D13" s="348"/>
+      <c r="E13" s="348"/>
+      <c r="F13" s="349"/>
+      <c r="G13" s="350"/>
+      <c r="H13" s="351"/>
+      <c r="I13" s="352"/>
+      <c r="J13" s="353"/>
+      <c r="K13" s="351"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="357">
+      <c r="A14" s="354">
         <v>23</v>
       </c>
-      <c r="B14" s="358" t="s">
+      <c r="B14" s="355" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="358" t="s">
+      <c r="C14" s="355" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="359"/>
-      <c r="E14" s="359"/>
-      <c r="F14" s="360"/>
-      <c r="G14" s="361"/>
-      <c r="H14" s="362"/>
-      <c r="I14" s="363"/>
-      <c r="J14" s="364"/>
-      <c r="K14" s="362"/>
+      <c r="D14" s="356"/>
+      <c r="E14" s="356"/>
+      <c r="F14" s="357"/>
+      <c r="G14" s="358"/>
+      <c r="H14" s="359"/>
+      <c r="I14" s="360"/>
+      <c r="J14" s="361"/>
+      <c r="K14" s="359"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="365">
+      <c r="A15" s="362">
         <v>7</v>
       </c>
-      <c r="B15" s="366" t="s">
+      <c r="B15" s="363" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="366" t="s">
+      <c r="C15" s="363" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="367"/>
-      <c r="E15" s="367"/>
-      <c r="F15" s="368"/>
-      <c r="G15" s="369"/>
-      <c r="H15" s="370"/>
-      <c r="I15" s="371"/>
-      <c r="J15" s="372"/>
-      <c r="K15" s="370"/>
+      <c r="D15" s="364"/>
+      <c r="E15" s="364"/>
+      <c r="F15" s="365"/>
+      <c r="G15" s="366"/>
+      <c r="H15" s="367"/>
+      <c r="I15" s="368"/>
+      <c r="J15" s="369"/>
+      <c r="K15" s="367"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="325">
+      <c r="A16" s="322">
         <v>5</v>
       </c>
-      <c r="B16" s="326" t="s">
+      <c r="B16" s="323" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="326" t="s">
+      <c r="C16" s="323" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="327"/>
-      <c r="E16" s="327"/>
-      <c r="F16" s="328"/>
-      <c r="G16" s="329"/>
-      <c r="H16" s="330"/>
-      <c r="I16" s="331"/>
-      <c r="J16" s="332"/>
-      <c r="K16" s="330"/>
+      <c r="D16" s="324"/>
+      <c r="E16" s="324"/>
+      <c r="F16" s="325"/>
+      <c r="G16" s="326"/>
+      <c r="H16" s="327"/>
+      <c r="I16" s="328"/>
+      <c r="J16" s="329"/>
+      <c r="K16" s="327"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="373">
+      <c r="A17" s="370">
         <v>8</v>
       </c>
-      <c r="B17" s="374" t="s">
+      <c r="B17" s="371" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="374" t="s">
+      <c r="C17" s="371" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="375"/>
-      <c r="E17" s="375"/>
-      <c r="F17" s="376"/>
-      <c r="G17" s="377"/>
-      <c r="H17" s="378"/>
-      <c r="I17" s="379"/>
-      <c r="J17" s="380"/>
-      <c r="K17" s="378"/>
+      <c r="D17" s="372"/>
+      <c r="E17" s="372"/>
+      <c r="F17" s="373"/>
+      <c r="G17" s="374"/>
+      <c r="H17" s="375"/>
+      <c r="I17" s="376"/>
+      <c r="J17" s="377"/>
+      <c r="K17" s="375"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="357">
+      <c r="A18" s="354">
         <v>10</v>
       </c>
-      <c r="B18" s="358" t="s">
+      <c r="B18" s="355" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="358" t="s">
+      <c r="C18" s="355" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="359"/>
-      <c r="E18" s="359"/>
-      <c r="F18" s="360"/>
-      <c r="G18" s="361"/>
-      <c r="H18" s="362"/>
-      <c r="I18" s="363"/>
-      <c r="J18" s="364"/>
-      <c r="K18" s="362"/>
+      <c r="D18" s="356"/>
+      <c r="E18" s="356"/>
+      <c r="F18" s="357"/>
+      <c r="G18" s="358"/>
+      <c r="H18" s="359"/>
+      <c r="I18" s="360"/>
+      <c r="J18" s="361"/>
+      <c r="K18" s="359"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="365">
+      <c r="A19" s="362">
         <v>99</v>
       </c>
-      <c r="B19" s="366" t="s">
+      <c r="B19" s="363" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="366" t="s">
+      <c r="C19" s="363" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="367"/>
-      <c r="E19" s="367"/>
-      <c r="F19" s="368"/>
-      <c r="G19" s="369"/>
-      <c r="H19" s="370"/>
-      <c r="I19" s="371"/>
-      <c r="J19" s="372"/>
-      <c r="K19" s="370"/>
+      <c r="D19" s="364"/>
+      <c r="E19" s="364"/>
+      <c r="F19" s="365"/>
+      <c r="G19" s="366"/>
+      <c r="H19" s="367"/>
+      <c r="I19" s="368"/>
+      <c r="J19" s="369"/>
+      <c r="K19" s="367"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="381">
+      <c r="A20" s="378">
         <v>63</v>
       </c>
-      <c r="B20" s="382" t="s">
+      <c r="B20" s="379" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="382" t="s">
+      <c r="C20" s="379" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="383"/>
-      <c r="E20" s="383"/>
-      <c r="F20" s="384"/>
-      <c r="G20" s="385"/>
-      <c r="H20" s="386"/>
-      <c r="I20" s="387"/>
-      <c r="J20" s="388"/>
-      <c r="K20" s="386"/>
+      <c r="D20" s="380"/>
+      <c r="E20" s="380"/>
+      <c r="F20" s="381"/>
+      <c r="G20" s="382"/>
+      <c r="H20" s="383"/>
+      <c r="I20" s="384"/>
+      <c r="J20" s="385"/>
+      <c r="K20" s="383"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="381">
+      <c r="A21" s="378">
         <v>6</v>
       </c>
-      <c r="B21" s="382" t="s">
+      <c r="B21" s="379" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="382" t="s">
+      <c r="C21" s="379" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="383"/>
-      <c r="E21" s="383"/>
-      <c r="F21" s="384"/>
-      <c r="G21" s="385"/>
-      <c r="H21" s="386"/>
-      <c r="I21" s="387"/>
-      <c r="J21" s="388"/>
-      <c r="K21" s="386"/>
+      <c r="D21" s="380"/>
+      <c r="E21" s="380"/>
+      <c r="F21" s="381"/>
+      <c r="G21" s="382"/>
+      <c r="H21" s="383"/>
+      <c r="I21" s="384"/>
+      <c r="J21" s="385"/>
+      <c r="K21" s="383"/>
     </row>
     <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="389">
+      <c r="A22" s="386">
         <v>20</v>
       </c>
-      <c r="B22" s="390" t="s">
+      <c r="B22" s="387" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="390" t="s">
+      <c r="C22" s="387" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="391"/>
-      <c r="E22" s="391"/>
-      <c r="F22" s="392"/>
-      <c r="G22" s="393"/>
-      <c r="H22" s="394"/>
-      <c r="I22" s="395"/>
-      <c r="J22" s="396"/>
-      <c r="K22" s="394"/>
+      <c r="D22" s="388"/>
+      <c r="E22" s="388"/>
+      <c r="F22" s="389"/>
+      <c r="G22" s="390"/>
+      <c r="H22" s="391"/>
+      <c r="I22" s="392"/>
+      <c r="J22" s="393"/>
+      <c r="K22" s="391"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23222,384 +23222,384 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="309">
+      <c r="A3" s="306">
         <v>44</v>
       </c>
-      <c r="B3" s="310">
+      <c r="B3" s="307">
         <v>1</v>
       </c>
-      <c r="C3" s="310" t="s">
+      <c r="C3" s="307" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="310" t="s">
+      <c r="D3" s="307" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="397"/>
+      <c r="E3" s="394"/>
       <c r="F3" s="232"/>
       <c r="G3" s="232"/>
       <c r="H3" s="232"/>
       <c r="I3" s="232"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="309">
+      <c r="A4" s="306">
         <v>77</v>
       </c>
-      <c r="B4" s="310">
+      <c r="B4" s="307">
         <v>2</v>
       </c>
-      <c r="C4" s="310" t="s">
+      <c r="C4" s="307" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="310" t="s">
+      <c r="D4" s="307" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="397"/>
+      <c r="E4" s="394"/>
       <c r="F4" s="232"/>
       <c r="G4" s="232"/>
       <c r="H4" s="232"/>
       <c r="I4" s="232"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="317">
+      <c r="A5" s="314">
         <v>23</v>
       </c>
-      <c r="B5" s="318">
+      <c r="B5" s="315">
         <v>3</v>
       </c>
-      <c r="C5" s="318" t="s">
+      <c r="C5" s="315" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="318" t="s">
+      <c r="D5" s="315" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="398"/>
-      <c r="F5" s="399"/>
-      <c r="G5" s="399"/>
-      <c r="H5" s="399"/>
-      <c r="I5" s="399"/>
+      <c r="E5" s="395"/>
+      <c r="F5" s="396"/>
+      <c r="G5" s="396"/>
+      <c r="H5" s="396"/>
+      <c r="I5" s="396"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="341">
+      <c r="A6" s="338">
         <v>3</v>
       </c>
-      <c r="B6" s="342">
+      <c r="B6" s="339">
         <v>4</v>
       </c>
-      <c r="C6" s="342" t="s">
+      <c r="C6" s="339" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="342" t="s">
+      <c r="D6" s="339" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="400"/>
-      <c r="F6" s="401"/>
-      <c r="G6" s="401"/>
-      <c r="H6" s="401"/>
-      <c r="I6" s="401"/>
+      <c r="E6" s="397"/>
+      <c r="F6" s="398"/>
+      <c r="G6" s="398"/>
+      <c r="H6" s="398"/>
+      <c r="I6" s="398"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="333">
+      <c r="A7" s="330">
         <v>11</v>
       </c>
-      <c r="B7" s="334">
+      <c r="B7" s="331">
         <v>5</v>
       </c>
-      <c r="C7" s="334" t="s">
+      <c r="C7" s="331" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="334" t="s">
+      <c r="D7" s="331" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="402"/>
-      <c r="F7" s="403"/>
-      <c r="G7" s="403"/>
-      <c r="H7" s="403"/>
-      <c r="I7" s="403"/>
+      <c r="E7" s="399"/>
+      <c r="F7" s="400"/>
+      <c r="G7" s="400"/>
+      <c r="H7" s="400"/>
+      <c r="I7" s="400"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="349">
+      <c r="A8" s="346">
         <v>4</v>
       </c>
-      <c r="B8" s="350">
+      <c r="B8" s="347">
         <v>6</v>
       </c>
-      <c r="C8" s="350" t="s">
+      <c r="C8" s="347" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="350" t="s">
+      <c r="D8" s="347" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="404"/>
-      <c r="F8" s="405"/>
-      <c r="G8" s="405"/>
-      <c r="H8" s="405"/>
-      <c r="I8" s="405"/>
+      <c r="E8" s="401"/>
+      <c r="F8" s="402"/>
+      <c r="G8" s="402"/>
+      <c r="H8" s="402"/>
+      <c r="I8" s="402"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="357">
+      <c r="A9" s="354">
         <v>23</v>
       </c>
-      <c r="B9" s="358">
+      <c r="B9" s="355">
         <v>7</v>
       </c>
-      <c r="C9" s="358" t="s">
+      <c r="C9" s="355" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="358" t="s">
+      <c r="D9" s="355" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="406"/>
-      <c r="F9" s="407"/>
-      <c r="G9" s="407"/>
-      <c r="H9" s="407"/>
-      <c r="I9" s="407"/>
+      <c r="E9" s="403"/>
+      <c r="F9" s="404"/>
+      <c r="G9" s="404"/>
+      <c r="H9" s="404"/>
+      <c r="I9" s="404"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="365">
+      <c r="A10" s="362">
         <v>7</v>
       </c>
-      <c r="B10" s="366">
+      <c r="B10" s="363">
         <v>8</v>
       </c>
-      <c r="C10" s="366" t="s">
+      <c r="C10" s="363" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="366" t="s">
+      <c r="D10" s="363" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="408"/>
-      <c r="F10" s="409"/>
-      <c r="G10" s="409"/>
-      <c r="H10" s="409"/>
-      <c r="I10" s="409"/>
+      <c r="E10" s="405"/>
+      <c r="F10" s="406"/>
+      <c r="G10" s="406"/>
+      <c r="H10" s="406"/>
+      <c r="I10" s="406"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="325">
+      <c r="A11" s="322">
         <v>16</v>
       </c>
-      <c r="B11" s="326">
+      <c r="B11" s="323">
         <v>9</v>
       </c>
-      <c r="C11" s="326" t="s">
+      <c r="C11" s="323" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="326" t="s">
+      <c r="D11" s="323" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="410"/>
-      <c r="F11" s="411"/>
-      <c r="G11" s="411"/>
-      <c r="H11" s="411"/>
-      <c r="I11" s="411"/>
+      <c r="E11" s="407"/>
+      <c r="F11" s="408"/>
+      <c r="G11" s="408"/>
+      <c r="H11" s="408"/>
+      <c r="I11" s="408"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="325">
+      <c r="A12" s="322">
         <v>5</v>
       </c>
-      <c r="B12" s="326">
+      <c r="B12" s="323">
         <v>10</v>
       </c>
-      <c r="C12" s="326" t="s">
+      <c r="C12" s="323" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="326" t="s">
+      <c r="D12" s="323" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="410"/>
-      <c r="F12" s="411"/>
-      <c r="G12" s="411"/>
-      <c r="H12" s="411"/>
-      <c r="I12" s="411"/>
+      <c r="E12" s="407"/>
+      <c r="F12" s="408"/>
+      <c r="G12" s="408"/>
+      <c r="H12" s="408"/>
+      <c r="I12" s="408"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="381">
+      <c r="A13" s="378">
         <v>63</v>
       </c>
-      <c r="B13" s="382">
+      <c r="B13" s="379">
         <v>11</v>
       </c>
-      <c r="C13" s="382" t="s">
+      <c r="C13" s="379" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="382" t="s">
+      <c r="D13" s="379" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="412"/>
-      <c r="F13" s="413"/>
-      <c r="G13" s="413"/>
-      <c r="H13" s="413"/>
-      <c r="I13" s="413"/>
+      <c r="E13" s="409"/>
+      <c r="F13" s="410"/>
+      <c r="G13" s="410"/>
+      <c r="H13" s="410"/>
+      <c r="I13" s="410"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="373">
+      <c r="A14" s="370">
         <v>8</v>
       </c>
-      <c r="B14" s="374">
+      <c r="B14" s="371">
         <v>12</v>
       </c>
-      <c r="C14" s="374" t="s">
+      <c r="C14" s="371" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="374" t="s">
+      <c r="D14" s="371" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="414"/>
-      <c r="F14" s="415"/>
-      <c r="G14" s="415"/>
-      <c r="H14" s="415"/>
-      <c r="I14" s="415"/>
+      <c r="E14" s="411"/>
+      <c r="F14" s="412"/>
+      <c r="G14" s="412"/>
+      <c r="H14" s="412"/>
+      <c r="I14" s="412"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="333">
+      <c r="A15" s="330">
         <v>18</v>
       </c>
-      <c r="B15" s="334" t="s">
+      <c r="B15" s="331" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="334" t="s">
+      <c r="C15" s="331" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="334" t="s">
+      <c r="D15" s="331" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="402"/>
-      <c r="F15" s="403"/>
-      <c r="G15" s="403"/>
-      <c r="H15" s="403"/>
-      <c r="I15" s="403"/>
+      <c r="E15" s="399"/>
+      <c r="F15" s="400"/>
+      <c r="G15" s="400"/>
+      <c r="H15" s="400"/>
+      <c r="I15" s="400"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="341">
+      <c r="A16" s="338">
         <v>31</v>
       </c>
-      <c r="B16" s="342" t="s">
+      <c r="B16" s="339" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="342" t="s">
+      <c r="C16" s="339" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="342" t="s">
+      <c r="D16" s="339" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="400"/>
-      <c r="F16" s="401"/>
-      <c r="G16" s="401"/>
-      <c r="H16" s="401"/>
-      <c r="I16" s="401"/>
+      <c r="E16" s="397"/>
+      <c r="F16" s="398"/>
+      <c r="G16" s="398"/>
+      <c r="H16" s="398"/>
+      <c r="I16" s="398"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="381">
+      <c r="A17" s="378">
         <v>6</v>
       </c>
-      <c r="B17" s="382" t="s">
+      <c r="B17" s="379" t="s">
         <v>188</v>
       </c>
-      <c r="C17" s="382" t="s">
+      <c r="C17" s="379" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="382" t="s">
+      <c r="D17" s="379" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="412"/>
-      <c r="F17" s="413"/>
-      <c r="G17" s="413"/>
-      <c r="H17" s="413"/>
-      <c r="I17" s="413"/>
+      <c r="E17" s="409"/>
+      <c r="F17" s="410"/>
+      <c r="G17" s="410"/>
+      <c r="H17" s="410"/>
+      <c r="I17" s="410"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="365">
+      <c r="A18" s="362">
         <v>99</v>
       </c>
-      <c r="B18" s="366" t="s">
+      <c r="B18" s="363" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="366" t="s">
+      <c r="C18" s="363" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="366" t="s">
+      <c r="D18" s="363" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="408"/>
-      <c r="F18" s="409"/>
-      <c r="G18" s="409"/>
-      <c r="H18" s="409"/>
-      <c r="I18" s="409"/>
+      <c r="E18" s="405"/>
+      <c r="F18" s="406"/>
+      <c r="G18" s="406"/>
+      <c r="H18" s="406"/>
+      <c r="I18" s="406"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="373">
+      <c r="A19" s="370">
         <v>20</v>
       </c>
-      <c r="B19" s="374" t="s">
+      <c r="B19" s="371" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="374" t="s">
+      <c r="C19" s="371" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="374" t="s">
+      <c r="D19" s="371" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="414"/>
-      <c r="F19" s="415"/>
-      <c r="G19" s="415"/>
-      <c r="H19" s="415"/>
-      <c r="I19" s="415"/>
+      <c r="E19" s="411"/>
+      <c r="F19" s="412"/>
+      <c r="G19" s="412"/>
+      <c r="H19" s="412"/>
+      <c r="I19" s="412"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="349">
+      <c r="A20" s="346">
         <v>55</v>
       </c>
-      <c r="B20" s="350" t="s">
+      <c r="B20" s="347" t="s">
         <v>393</v>
       </c>
-      <c r="C20" s="350" t="s">
+      <c r="C20" s="347" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="350" t="s">
+      <c r="D20" s="347" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="404"/>
-      <c r="F20" s="405"/>
-      <c r="G20" s="405"/>
-      <c r="H20" s="405"/>
-      <c r="I20" s="405"/>
+      <c r="E20" s="401"/>
+      <c r="F20" s="402"/>
+      <c r="G20" s="402"/>
+      <c r="H20" s="402"/>
+      <c r="I20" s="402"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="357">
+      <c r="A21" s="354">
         <v>10</v>
       </c>
-      <c r="B21" s="358" t="s">
+      <c r="B21" s="355" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="358" t="s">
+      <c r="C21" s="355" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="358" t="s">
+      <c r="D21" s="355" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="406"/>
-      <c r="F21" s="407"/>
-      <c r="G21" s="407"/>
-      <c r="H21" s="407"/>
-      <c r="I21" s="407"/>
+      <c r="E21" s="403"/>
+      <c r="F21" s="404"/>
+      <c r="G21" s="404"/>
+      <c r="H21" s="404"/>
+      <c r="I21" s="404"/>
     </row>
     <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="416">
+      <c r="A22" s="413">
         <v>33</v>
       </c>
-      <c r="B22" s="417" t="s">
+      <c r="B22" s="414" t="s">
         <v>188</v>
       </c>
-      <c r="C22" s="417" t="s">
+      <c r="C22" s="414" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="417" t="s">
+      <c r="D22" s="414" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="418"/>
-      <c r="F22" s="419"/>
-      <c r="G22" s="419"/>
-      <c r="H22" s="419"/>
-      <c r="I22" s="419"/>
+      <c r="E22" s="415"/>
+      <c r="F22" s="416"/>
+      <c r="G22" s="416"/>
+      <c r="H22" s="416"/>
+      <c r="I22" s="416"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23619,20 +23619,20 @@
   <sheetData>
     <row r="2" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="304" t="s">
+      <c r="B3" s="417" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="305"/>
-      <c r="D3" s="305"/>
-      <c r="E3" s="305"/>
-      <c r="F3" s="305"/>
-      <c r="G3" s="306"/>
-      <c r="J3" s="304" t="s">
+      <c r="C3" s="418"/>
+      <c r="D3" s="418"/>
+      <c r="E3" s="418"/>
+      <c r="F3" s="418"/>
+      <c r="G3" s="419"/>
+      <c r="J3" s="417" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="305"/>
-      <c r="L3" s="305"/>
-      <c r="M3" s="306"/>
+      <c r="K3" s="418"/>
+      <c r="L3" s="418"/>
+      <c r="M3" s="419"/>
     </row>
     <row r="4" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="250" t="s">
@@ -23928,20 +23928,20 @@
     </row>
     <row r="25" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="304" t="s">
+      <c r="B26" s="417" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="305"/>
-      <c r="D26" s="305"/>
-      <c r="E26" s="305"/>
-      <c r="F26" s="305"/>
-      <c r="G26" s="306"/>
-      <c r="J26" s="304" t="s">
+      <c r="C26" s="418"/>
+      <c r="D26" s="418"/>
+      <c r="E26" s="418"/>
+      <c r="F26" s="418"/>
+      <c r="G26" s="419"/>
+      <c r="J26" s="417" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="305"/>
-      <c r="L26" s="305"/>
-      <c r="M26" s="306"/>
+      <c r="K26" s="418"/>
+      <c r="L26" s="418"/>
+      <c r="M26" s="419"/>
     </row>
     <row r="27" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="250" t="s">

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3307e3c88395b6d/CSProjects/PythonProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="11_103A841FC1C41D42D55C852AB38511418E364967" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EF9286B2-26AA-7A4B-961E-9ACCD7414CAC}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_06601F512BDC0BD5F3DD18D93D92C6852A1F281A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD0828B5-7E43-7C43-B7BF-F4F578422743}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19240" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Leagues!$Q$2:$AF$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">P!$B$2:$R$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Q1'!$A$2:$K$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'Q10'!$A$2:$K$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Q2'!$A$2:$K$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Q3'!$A$2:$K$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Q4'!$A$2:$K$22</definedName>
@@ -71,6 +72,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="769">
   <si>
     <t>Constructor</t>
   </si>
@@ -155,45 +157,45 @@
     <t>RP</t>
   </si>
   <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>REN</t>
+  </si>
+  <si>
     <t>STR</t>
   </si>
   <si>
-    <t>REN</t>
-  </si>
-  <si>
-    <t>ALB</t>
-  </si>
-  <si>
     <t>FER</t>
   </si>
   <si>
+    <t>RIC</t>
+  </si>
+  <si>
+    <t>ALT</t>
+  </si>
+  <si>
     <t>LEC</t>
   </si>
   <si>
-    <t>ALT</t>
+    <t>ARR</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>HAA</t>
   </si>
   <si>
     <t>GAS</t>
   </si>
   <si>
-    <t>ARR</t>
-  </si>
-  <si>
-    <t>RIC</t>
-  </si>
-  <si>
-    <t>HAA</t>
+    <t>WIL</t>
   </si>
   <si>
     <t>SAI</t>
   </si>
   <si>
-    <t>WIL</t>
-  </si>
-  <si>
-    <t>PER</t>
-  </si>
-  <si>
     <t>OCO</t>
   </si>
   <si>
@@ -209,15 +211,15 @@
     <t>HUL</t>
   </si>
   <si>
+    <t>RAI</t>
+  </si>
+  <si>
     <t>GIO</t>
   </si>
   <si>
     <t>MAG</t>
   </si>
   <si>
-    <t>RAI</t>
-  </si>
-  <si>
     <t>GRO</t>
   </si>
   <si>
@@ -2204,12 +2206,15 @@
     <t>2:19:56.816</t>
   </si>
   <si>
+    <t>2:20:03.405</t>
+  </si>
+  <si>
+    <t>(+5, illegal pit entry)</t>
+  </si>
+  <si>
     <t>2:20:04.830</t>
   </si>
   <si>
-    <t>2:20:03.405</t>
-  </si>
-  <si>
     <t>2:20:05.043</t>
   </si>
   <si>
@@ -2219,37 +2224,169 @@
     <t>2:20:17.096</t>
   </si>
   <si>
+    <t>1:31:32.748</t>
+  </si>
+  <si>
+    <t>(DNF, body failure)</t>
+  </si>
+  <si>
+    <t>15:39.081</t>
+  </si>
+  <si>
+    <t>(DNF, collision after SC restart)</t>
+  </si>
+  <si>
     <t>13:28.971</t>
   </si>
   <si>
-    <t>(DNF, collision after SC restart)</t>
+    <t>11:18.546</t>
+  </si>
+  <si>
+    <t>11:16.573</t>
+  </si>
+  <si>
+    <t>11:19.454</t>
   </si>
   <si>
     <t>(DNF, collision with VER)</t>
   </si>
   <si>
-    <t>1:31:32.748</t>
-  </si>
-  <si>
-    <t>(DNF, body failure)</t>
-  </si>
-  <si>
-    <t>11:16.573</t>
-  </si>
-  <si>
-    <t>15:39.081</t>
-  </si>
-  <si>
     <t>(DNF, collision with GAS)</t>
   </si>
   <si>
-    <t>11:19.454</t>
-  </si>
-  <si>
-    <t>11:18.546</t>
-  </si>
-  <si>
-    <t>(+5, illegal pit entry)</t>
+    <t>1:32.656</t>
+  </si>
+  <si>
+    <t>1:32.405</t>
+  </si>
+  <si>
+    <t>1:31.956</t>
+  </si>
+  <si>
+    <t>1:32.983</t>
+  </si>
+  <si>
+    <t>1:32.835</t>
+  </si>
+  <si>
+    <t>1:31.304</t>
+  </si>
+  <si>
+    <t>1:33.630</t>
+  </si>
+  <si>
+    <t>1:33.157</t>
+  </si>
+  <si>
+    <t>1:31.867</t>
+  </si>
+  <si>
+    <t>1:33.804</t>
+  </si>
+  <si>
+    <t>1:33.081</t>
+  </si>
+  <si>
+    <t>1:32.847</t>
+  </si>
+  <si>
+    <t>1:33.919</t>
+  </si>
+  <si>
+    <t>1:33.153</t>
+  </si>
+  <si>
+    <t>1:33.008</t>
+  </si>
+  <si>
+    <t>1:33.704</t>
+  </si>
+  <si>
+    <t>1:33.038</t>
+  </si>
+  <si>
+    <t>1:32.317</t>
+  </si>
+  <si>
+    <t>1:34.071</t>
+  </si>
+  <si>
+    <t>1:33.239</t>
+  </si>
+  <si>
+    <t>1:33.967</t>
+  </si>
+  <si>
+    <t>1:32.757</t>
+  </si>
+  <si>
+    <t>1:32.550</t>
+  </si>
+  <si>
+    <t>1:33.852</t>
+  </si>
+  <si>
+    <t>1:33.364</t>
+  </si>
+  <si>
+    <t>1:33.650</t>
+  </si>
+  <si>
+    <t>1:32.218</t>
+  </si>
+  <si>
+    <t>1:32.364</t>
+  </si>
+  <si>
+    <t>1:34.134</t>
+  </si>
+  <si>
+    <t>1:33.609</t>
+  </si>
+  <si>
+    <t>1:33.734</t>
+  </si>
+  <si>
+    <t>1:33.139</t>
+  </si>
+  <si>
+    <t>1:33.000</t>
+  </si>
+  <si>
+    <t>1:33.511</t>
+  </si>
+  <si>
+    <t>1:33.249</t>
+  </si>
+  <si>
+    <t>1:33.557</t>
+  </si>
+  <si>
+    <t>1:33.196</t>
+  </si>
+  <si>
+    <t>1:32.624</t>
+  </si>
+  <si>
+    <t>1:34.592</t>
+  </si>
+  <si>
+    <t>1:34.681</t>
+  </si>
+  <si>
+    <t>1:34.020</t>
+  </si>
+  <si>
+    <t>1:33.583</t>
+  </si>
+  <si>
+    <t>1:34.594</t>
+  </si>
+  <si>
+    <t>1:35.267</t>
+  </si>
+  <si>
+    <t>1:35.066</t>
   </si>
 </sst>
 </file>
@@ -3842,346 +3979,322 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="22" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="22" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="17" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="18" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="18" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="20" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="20" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="22" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="22" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="21" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="19" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="20" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="16" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="22" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="21" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4189,6 +4302,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="20" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="20" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4343,7 +4480,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9CF8-504D-BCFC-08CE207A16AA}"/>
+              <c16:uniqueId val="{00000000-39E8-2643-AF8A-FA4AD1588838}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4429,7 +4566,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9CF8-504D-BCFC-08CE207A16AA}"/>
+              <c16:uniqueId val="{00000001-39E8-2643-AF8A-FA4AD1588838}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4515,7 +4652,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9CF8-504D-BCFC-08CE207A16AA}"/>
+              <c16:uniqueId val="{00000002-39E8-2643-AF8A-FA4AD1588838}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4822,7 +4959,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2B27-174E-8295-F4FB9643AAA5}"/>
+              <c16:uniqueId val="{00000000-6DB2-8942-B200-D77F37C8AB6F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4908,7 +5045,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2B27-174E-8295-F4FB9643AAA5}"/>
+              <c16:uniqueId val="{00000001-6DB2-8942-B200-D77F37C8AB6F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4994,7 +5131,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2B27-174E-8295-F4FB9643AAA5}"/>
+              <c16:uniqueId val="{00000002-6DB2-8942-B200-D77F37C8AB6F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5080,7 +5217,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2B27-174E-8295-F4FB9643AAA5}"/>
+              <c16:uniqueId val="{00000003-6DB2-8942-B200-D77F37C8AB6F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5166,7 +5303,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2B27-174E-8295-F4FB9643AAA5}"/>
+              <c16:uniqueId val="{00000004-6DB2-8942-B200-D77F37C8AB6F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5252,7 +5389,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2B27-174E-8295-F4FB9643AAA5}"/>
+              <c16:uniqueId val="{00000005-6DB2-8942-B200-D77F37C8AB6F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5344,7 +5481,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2B27-174E-8295-F4FB9643AAA5}"/>
+              <c16:uniqueId val="{00000006-6DB2-8942-B200-D77F37C8AB6F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5651,7 +5788,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D5CE-1F40-AEBD-6BD69E2ADFEF}"/>
+              <c16:uniqueId val="{00000000-3AD0-5344-ACC1-53C48986F320}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5737,7 +5874,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D5CE-1F40-AEBD-6BD69E2ADFEF}"/>
+              <c16:uniqueId val="{00000001-3AD0-5344-ACC1-53C48986F320}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5823,7 +5960,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D5CE-1F40-AEBD-6BD69E2ADFEF}"/>
+              <c16:uniqueId val="{00000002-3AD0-5344-ACC1-53C48986F320}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6130,7 +6267,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E218-4547-BA80-6AECD9B4ED8C}"/>
+              <c16:uniqueId val="{00000000-CC00-FE4F-960A-B762A6B623EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6216,7 +6353,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E218-4547-BA80-6AECD9B4ED8C}"/>
+              <c16:uniqueId val="{00000001-CC00-FE4F-960A-B762A6B623EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6302,7 +6439,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E218-4547-BA80-6AECD9B4ED8C}"/>
+              <c16:uniqueId val="{00000002-CC00-FE4F-960A-B762A6B623EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6388,7 +6525,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E218-4547-BA80-6AECD9B4ED8C}"/>
+              <c16:uniqueId val="{00000003-CC00-FE4F-960A-B762A6B623EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6474,7 +6611,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E218-4547-BA80-6AECD9B4ED8C}"/>
+              <c16:uniqueId val="{00000004-CC00-FE4F-960A-B762A6B623EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6560,7 +6697,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E218-4547-BA80-6AECD9B4ED8C}"/>
+              <c16:uniqueId val="{00000005-CC00-FE4F-960A-B762A6B623EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6652,7 +6789,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-E218-4547-BA80-6AECD9B4ED8C}"/>
+              <c16:uniqueId val="{00000006-CC00-FE4F-960A-B762A6B623EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7585,7 +7722,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E39F54-1A8F-D045-91B0-0E77959DB214}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7594,13 +7731,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -7615,15 +7746,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7651,7 +7776,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31918D54-CBCF-3B4C-BD57-AD8CFF175F65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7660,13 +7785,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -7681,15 +7800,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -8383,8 +8496,7 @@
   <cols>
     <col min="3" max="3" width="10.83203125" style="261" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="261" hidden="1" customWidth="1"/>
-    <col min="5" max="8" width="13" style="261" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="10" width="13" style="261" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="261" customWidth="1"/>
     <col min="12" max="15" width="13" style="261" customWidth="1"/>
     <col min="16" max="16" width="13" style="261" hidden="1" customWidth="1"/>
@@ -8393,40 +8505,40 @@
   <sheetData>
     <row r="1" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="303" t="s">
+      <c r="B2" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="303" t="s">
+      <c r="D2" s="408" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="303" t="s">
+      <c r="E2" s="408" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="303" t="s">
+      <c r="F2" s="408" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="303" t="s">
+      <c r="I2" s="408" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="303" t="s">
+      <c r="J2" s="408" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="303" t="s">
+      <c r="K2" s="408" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="303" t="s">
+      <c r="L2" s="408" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="303" t="s">
+      <c r="M2" s="408" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="273" t="s">
@@ -8444,7 +8556,7 @@
       <c r="S2" s="271" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="303" t="s">
+      <c r="T2" s="408" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8689,7 +8801,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="102">
         <f>+VLOOKUP($C7,'R1'!$C$3:$H$22,6,)</f>
@@ -8748,7 +8860,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="104">
         <f>+VLOOKUP($C8,'R1'!$C$3:$H$22,6,)</f>
@@ -8807,7 +8919,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="108">
         <f>+VLOOKUP($C9,'R1'!$C$3:$H$22,6,)</f>
@@ -8866,7 +8978,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="106">
         <f>+VLOOKUP($C10,'R1'!$C$3:$H$22,6,)</f>
@@ -8925,7 +9037,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="104">
         <f>+VLOOKUP($C11,'R1'!$C$3:$H$22,6,)</f>
@@ -8978,7 +9090,7 @@
         <v>30</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12" s="110">
         <f>+VLOOKUP($C12,'R1'!$C$3:$H$22,6,)</f>
@@ -9037,7 +9149,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="277">
         <f>+VLOOKUP($C13,'R1'!$C$3:$H$22,6,)</f>
@@ -9187,19 +9299,19 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="S15" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="303" t="s">
+      <c r="S15" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="U15" s="303" t="s">
+      <c r="U15" s="408" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="303" t="s">
+      <c r="V15" s="408" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="303" t="s">
+      <c r="W15" s="408" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9278,7 +9390,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="112">
         <f>+VLOOKUP($C17,'R1'!$C$3:$H$22,6,)</f>
@@ -9330,7 +9442,7 @@
         <v>32</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="112">
         <f>+VLOOKUP($C18,'R1'!$C$3:$H$22,6,)</f>
@@ -9382,7 +9494,7 @@
         <v>34</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="114">
         <f>+VLOOKUP($C19,'R1'!$C$3:$H$22,6,)</f>
@@ -9612,7 +9724,7 @@
     <row r="47" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="B2:Q22" xr:uid="{878F0F4B-89C4-314D-A9A9-5DFB2971AE4F}">
+  <autoFilter ref="B2:Q22" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:Q22">
       <sortCondition descending="1" ref="Q2:Q22"/>
     </sortState>
@@ -9641,13 +9753,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -9659,19 +9771,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>117</v>
       </c>
       <c r="I2" s="272" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="303" t="s">
+      <c r="J2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="303" t="s">
+      <c r="K2" s="408" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9746,7 +9858,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>24</v>
@@ -9779,7 +9891,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>24</v>
@@ -9845,7 +9957,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="49" t="s">
         <v>28</v>
@@ -9944,7 +10056,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>22</v>
@@ -9977,7 +10089,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="77" t="s">
         <v>30</v>
@@ -10012,7 +10124,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>26</v>
@@ -10078,7 +10190,7 @@
         <v>23</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="50" t="s">
         <v>20</v>
@@ -10177,7 +10289,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="55" t="s">
         <v>34</v>
@@ -10276,7 +10388,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="54" t="s">
         <v>32</v>
@@ -10309,7 +10421,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="164" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="164" t="s">
         <v>32</v>
@@ -10364,28 +10476,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="303" t="s">
+      <c r="D2" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="408" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="303" t="s">
+      <c r="F2" s="408" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>169</v>
       </c>
       <c r="I2" s="273" t="s">
@@ -10483,7 +10595,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>24</v>
@@ -10510,7 +10622,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>20</v>
@@ -10564,7 +10676,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>24</v>
@@ -10591,7 +10703,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" s="53" t="s">
         <v>26</v>
@@ -10618,7 +10730,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>22</v>
@@ -10645,7 +10757,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="55" t="s">
         <v>34</v>
@@ -10674,7 +10786,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" s="49" t="s">
         <v>28</v>
@@ -10782,7 +10894,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="54" t="s">
         <v>32</v>
@@ -10838,7 +10950,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="54" t="s">
         <v>32</v>
@@ -10921,7 +11033,7 @@
         <v>188</v>
       </c>
       <c r="C22" s="211" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D22" s="211" t="s">
         <v>30</v>
@@ -10969,13 +11081,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -10987,19 +11099,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>117</v>
       </c>
       <c r="I2" s="272" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="303" t="s">
+      <c r="J2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="303" t="s">
+      <c r="K2" s="408" t="s">
         <v>120</v>
       </c>
     </row>
@@ -11107,7 +11219,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="49" t="s">
         <v>28</v>
@@ -11173,7 +11285,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>24</v>
@@ -11206,7 +11318,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>22</v>
@@ -11239,7 +11351,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>26</v>
@@ -11338,7 +11450,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C13" s="77" t="s">
         <v>30</v>
@@ -11371,7 +11483,7 @@
         <v>23</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="50" t="s">
         <v>20</v>
@@ -11507,7 +11619,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="55" t="s">
         <v>34</v>
@@ -11540,7 +11652,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="54" t="s">
         <v>32</v>
@@ -11573,7 +11685,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="54" t="s">
         <v>32</v>
@@ -11693,28 +11805,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="303" t="s">
+      <c r="D2" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="408" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="303" t="s">
+      <c r="F2" s="408" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>169</v>
       </c>
       <c r="I2" s="273" t="s">
@@ -11787,7 +11899,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5" s="49" t="s">
         <v>28</v>
@@ -11814,7 +11926,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>26</v>
@@ -11895,7 +12007,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" s="77" t="s">
         <v>30</v>
@@ -11922,7 +12034,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>20</v>
@@ -11951,7 +12063,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>24</v>
@@ -12061,7 +12173,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>22</v>
@@ -12090,7 +12202,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="54" t="s">
         <v>32</v>
@@ -12175,7 +12287,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19" s="54" t="s">
         <v>32</v>
@@ -12233,7 +12345,7 @@
         <v>188</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="55" t="s">
         <v>34</v>
@@ -12306,13 +12418,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -12324,19 +12436,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>117</v>
       </c>
       <c r="I2" s="272" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="303" t="s">
+      <c r="J2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="303" t="s">
+      <c r="K2" s="408" t="s">
         <v>120</v>
       </c>
     </row>
@@ -12477,7 +12589,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="53" t="s">
         <v>26</v>
@@ -12510,7 +12622,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>24</v>
@@ -12543,7 +12655,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9" s="77" t="s">
         <v>30</v>
@@ -12576,7 +12688,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>28</v>
@@ -12609,7 +12721,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>20</v>
@@ -12743,7 +12855,7 @@
         <v>55</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>22</v>
@@ -12875,7 +12987,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="55" t="s">
         <v>34</v>
@@ -12941,7 +13053,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="54" t="s">
         <v>32</v>
@@ -12974,7 +13086,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="164" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="164" t="s">
         <v>32</v>
@@ -13028,28 +13140,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="303" t="s">
+      <c r="D2" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="408" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="303" t="s">
+      <c r="F2" s="408" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>169</v>
       </c>
       <c r="I2" s="273" t="s">
@@ -13148,7 +13260,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="49" t="s">
         <v>28</v>
@@ -13175,7 +13287,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>20</v>
@@ -13202,7 +13314,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>24</v>
@@ -13337,7 +13449,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D13" s="77" t="s">
         <v>30</v>
@@ -13391,7 +13503,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>22</v>
@@ -13418,7 +13530,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" s="53" t="s">
         <v>26</v>
@@ -13445,7 +13557,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="54" t="s">
         <v>32</v>
@@ -13499,7 +13611,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="54" t="s">
         <v>32</v>
@@ -13580,7 +13692,7 @@
         <v>188</v>
       </c>
       <c r="C22" s="73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" s="73" t="s">
         <v>34</v>
@@ -13627,13 +13739,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -13645,19 +13757,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>117</v>
       </c>
       <c r="I2" s="272" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="303" t="s">
+      <c r="J2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="303" t="s">
+      <c r="K2" s="408" t="s">
         <v>120</v>
       </c>
     </row>
@@ -13765,7 +13877,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>24</v>
@@ -13798,7 +13910,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="52" t="s">
         <v>24</v>
@@ -13831,7 +13943,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="50" t="s">
         <v>20</v>
@@ -13864,7 +13976,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>22</v>
@@ -13930,7 +14042,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="49" t="s">
         <v>28</v>
@@ -13963,7 +14075,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="77" t="s">
         <v>30</v>
@@ -14062,7 +14174,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="53" t="s">
         <v>26</v>
@@ -14095,7 +14207,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="54" t="s">
         <v>32</v>
@@ -14161,7 +14273,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="55" t="s">
         <v>34</v>
@@ -14293,7 +14405,7 @@
         <v>99</v>
       </c>
       <c r="B22" s="164" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C22" s="164" t="s">
         <v>32</v>
@@ -14347,28 +14459,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="303" t="s">
+      <c r="D2" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="408" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="303" t="s">
+      <c r="F2" s="408" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>169</v>
       </c>
       <c r="I2" s="273" t="s">
@@ -14464,7 +14576,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>24</v>
@@ -14493,7 +14605,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>24</v>
@@ -14520,7 +14632,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="51" t="s">
         <v>22</v>
@@ -14574,7 +14686,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="50" t="s">
         <v>20</v>
@@ -14601,7 +14713,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11" s="77" t="s">
         <v>30</v>
@@ -14655,7 +14767,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" s="53" t="s">
         <v>26</v>
@@ -14738,7 +14850,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="54" t="s">
         <v>32</v>
@@ -14765,7 +14877,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>34</v>
@@ -14792,7 +14904,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="54" t="s">
         <v>32</v>
@@ -14900,7 +15012,7 @@
         <v>188</v>
       </c>
       <c r="C22" s="169" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22" s="169" t="s">
         <v>28</v>
@@ -14947,13 +15059,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -14965,19 +15077,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>117</v>
       </c>
       <c r="I2" s="272" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="303" t="s">
+      <c r="J2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="303" t="s">
+      <c r="K2" s="408" t="s">
         <v>120</v>
       </c>
     </row>
@@ -15085,7 +15197,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>26</v>
@@ -15118,7 +15230,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>20</v>
@@ -15184,7 +15296,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>22</v>
@@ -15217,7 +15329,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="52" t="s">
         <v>24</v>
@@ -15250,7 +15362,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>24</v>
@@ -15349,7 +15461,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>30</v>
@@ -15382,7 +15494,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="49" t="s">
         <v>28</v>
@@ -15481,7 +15593,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="54" t="s">
         <v>32</v>
@@ -15547,7 +15659,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="54" t="s">
         <v>32</v>
@@ -15613,7 +15725,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="73" t="s">
         <v>34</v>
@@ -15668,28 +15780,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="303" t="s">
+      <c r="D2" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="408" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="303" t="s">
+      <c r="F2" s="408" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>169</v>
       </c>
       <c r="I2" s="273" t="s">
@@ -15785,7 +15897,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>26</v>
@@ -15839,7 +15951,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="50" t="s">
         <v>20</v>
@@ -15893,7 +16005,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D10" s="77" t="s">
         <v>30</v>
@@ -15920,7 +16032,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>24</v>
@@ -15947,7 +16059,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>24</v>
@@ -16001,7 +16113,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="54" t="s">
         <v>32</v>
@@ -16055,7 +16167,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D16" s="49" t="s">
         <v>28</v>
@@ -16136,7 +16248,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>34</v>
@@ -16192,7 +16304,7 @@
         <v>188</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="54" t="s">
         <v>32</v>
@@ -16221,7 +16333,7 @@
         <v>393</v>
       </c>
       <c r="C22" s="262" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D22" s="262" t="s">
         <v>22</v>
@@ -16253,12 +16365,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AH69"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="4" max="10" width="10.83203125" style="261" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" style="261" customWidth="1"/>
     <col min="12" max="12" width="11" style="261" customWidth="1"/>
@@ -16266,31 +16379,31 @@
     <col min="16" max="16" width="13" style="261" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="261" customWidth="1"/>
     <col min="20" max="24" width="13" style="261" hidden="1" customWidth="1"/>
-    <col min="25" max="26" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="25" max="26" width="10.83203125" style="261" hidden="1" customWidth="1"/>
     <col min="27" max="31" width="13" style="261" customWidth="1"/>
     <col min="32" max="32" width="13" style="261" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="417" t="s">
+      <c r="B2" s="409" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="418"/>
-      <c r="D2" s="418"/>
-      <c r="E2" s="418"/>
-      <c r="F2" s="418"/>
-      <c r="G2" s="418"/>
-      <c r="H2" s="418"/>
-      <c r="I2" s="418"/>
-      <c r="J2" s="418"/>
-      <c r="K2" s="418"/>
-      <c r="L2" s="418"/>
-      <c r="M2" s="418"/>
-      <c r="N2" s="418"/>
-      <c r="O2" s="418"/>
-      <c r="P2" s="418"/>
-      <c r="Q2" s="419"/>
+      <c r="C2" s="410"/>
+      <c r="D2" s="410"/>
+      <c r="E2" s="410"/>
+      <c r="F2" s="410"/>
+      <c r="G2" s="410"/>
+      <c r="H2" s="410"/>
+      <c r="I2" s="410"/>
+      <c r="J2" s="410"/>
+      <c r="K2" s="410"/>
+      <c r="L2" s="410"/>
+      <c r="M2" s="410"/>
+      <c r="N2" s="410"/>
+      <c r="O2" s="410"/>
+      <c r="P2" s="410"/>
+      <c r="Q2" s="411"/>
     </row>
     <row r="3" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="299" t="s">
@@ -16341,7 +16454,7 @@
       <c r="Q3" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="303" t="s">
+      <c r="S3" s="408" t="s">
         <v>0</v>
       </c>
       <c r="T3" s="273" t="s">
@@ -16433,13 +16546,16 @@
         <f>+VLOOKUP($C4,'R9'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q9'!$B$3:$J$22,9,)</f>
         <v>49</v>
       </c>
-      <c r="M4" s="37"/>
+      <c r="M4" s="37">
+        <f>+VLOOKUP($C4,'R10'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q10'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37">
-        <f t="shared" ref="Q4:Q23" si="0">SUM(D4:M4)</f>
-        <v>372</v>
+        <f>SUM(D4:M4)</f>
+        <v>387</v>
       </c>
       <c r="S4" s="38" t="s">
         <v>17</v>
@@ -16476,58 +16592,67 @@
       <c r="AE4" s="98"/>
       <c r="AF4" s="98"/>
       <c r="AG4" s="99">
-        <f t="shared" ref="AG4:AG13" si="1">SUM(T4:AC4)</f>
+        <f t="shared" ref="AG4:AG13" si="0">SUM(T4:AC4)</f>
         <v>568</v>
       </c>
       <c r="AH4" s="214">
-        <f t="shared" ref="AH4:AH13" si="2">AG4/COUNT(T4:AF4)</f>
+        <f t="shared" ref="AH4:AH13" si="1">AG4/COUNT(T4:AF4)</f>
         <v>63.111111111111114</v>
       </c>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B5" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="31">
+      <c r="B5" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="27">
         <f>+VLOOKUP($C5,'R1'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q1'!$B$3:$J$22,9,)</f>
-        <v>22</v>
-      </c>
-      <c r="E5" s="31">
+        <v>44</v>
+      </c>
+      <c r="E5" s="27">
         <f>+VLOOKUP($C5,'R2'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q2'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="F5" s="31">
+        <v>33</v>
+      </c>
+      <c r="F5" s="27">
         <f>+VLOOKUP($C5,'R3'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q3'!$B$3:$J$22,9,)</f>
+        <v>26</v>
+      </c>
+      <c r="G5" s="27">
+        <f>+VLOOKUP($C5,'R4'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q4'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="H5" s="27">
+        <f>+VLOOKUP($C5,'R5'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q5'!$B$3:$J$22,9,)</f>
+        <v>32</v>
+      </c>
+      <c r="I5" s="27">
+        <f>+VLOOKUP($C5,'R6'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q6'!$B$3:$J$22,9,)</f>
+        <v>31</v>
+      </c>
+      <c r="J5" s="27">
+        <f>+VLOOKUP($C5,'R7'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q7'!$B$3:$J$22,9,)</f>
+        <v>31</v>
+      </c>
+      <c r="K5" s="27">
+        <f>+VLOOKUP($C5,'R8'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q8'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="L5" s="27">
+        <f>+VLOOKUP($C5,'R9'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q9'!$B$3:$J$22,9,)</f>
+        <v>41</v>
+      </c>
+      <c r="M5" s="27">
+        <f>+VLOOKUP($C5,'R10'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q10'!$B$3:$J$22,9,)</f>
         <v>11</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31">
-        <f>+VLOOKUP($C5,'R6'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q6'!$B$3:$J$22,9,)</f>
-        <v>21</v>
-      </c>
-      <c r="J5" s="31">
-        <f>+VLOOKUP($C5,'R7'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q7'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="K5" s="31">
-        <f>+VLOOKUP($C5,'R8'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q8'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="L5" s="31">
-        <f>+VLOOKUP($C5,'R9'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q9'!$B$3:$J$22,9,)</f>
-        <v>43</v>
-      </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31">
-        <f t="shared" si="0"/>
-        <v>130</v>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27">
+        <f>SUM(D5:M5)</f>
+        <v>272</v>
       </c>
       <c r="S5" s="44" t="s">
         <v>20</v>
@@ -16564,64 +16689,67 @@
       <c r="AE5" s="101"/>
       <c r="AF5" s="101"/>
       <c r="AG5" s="102">
+        <f t="shared" si="0"/>
+        <v>386</v>
+      </c>
+      <c r="AH5" s="216">
         <f t="shared" si="1"/>
-        <v>386</v>
-      </c>
-      <c r="AH5" s="216">
-        <f t="shared" si="2"/>
         <v>42.888888888888886</v>
       </c>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B6" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="27">
+      <c r="B6" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="29">
         <f>+VLOOKUP($C6,'R1'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q1'!$B$3:$J$22,9,)</f>
-        <v>44</v>
-      </c>
-      <c r="E6" s="27">
+        <v>-2</v>
+      </c>
+      <c r="E6" s="29">
         <f>+VLOOKUP($C6,'R2'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q2'!$B$3:$J$22,9,)</f>
-        <v>33</v>
-      </c>
-      <c r="F6" s="27">
+        <v>31</v>
+      </c>
+      <c r="F6" s="29">
         <f>+VLOOKUP($C6,'R3'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q3'!$B$3:$J$22,9,)</f>
-        <v>26</v>
-      </c>
-      <c r="G6" s="27">
+        <v>41</v>
+      </c>
+      <c r="G6" s="29">
         <f>+VLOOKUP($C6,'R4'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q4'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="H6" s="27">
+        <v>43</v>
+      </c>
+      <c r="H6" s="29">
         <f>+VLOOKUP($C6,'R5'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q5'!$B$3:$J$22,9,)</f>
+        <v>52</v>
+      </c>
+      <c r="I6" s="29">
+        <f>+VLOOKUP($C6,'R6'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q6'!$B$3:$J$22,9,)</f>
+        <v>47</v>
+      </c>
+      <c r="J6" s="29">
+        <f>+VLOOKUP($C6,'R7'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q7'!$B$3:$J$22,9,)</f>
         <v>32</v>
       </c>
-      <c r="I6" s="27">
-        <f>+VLOOKUP($C6,'R6'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q6'!$B$3:$J$22,9,)</f>
-        <v>31</v>
-      </c>
-      <c r="J6" s="27">
-        <f>+VLOOKUP($C6,'R7'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q7'!$B$3:$J$22,9,)</f>
-        <v>31</v>
-      </c>
-      <c r="K6" s="27">
+      <c r="K6" s="29">
         <f>+VLOOKUP($C6,'R8'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q8'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="L6" s="27">
+        <v>-4</v>
+      </c>
+      <c r="L6" s="29">
         <f>+VLOOKUP($C6,'R9'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q9'!$B$3:$J$22,9,)</f>
-        <v>41</v>
-      </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27">
-        <f t="shared" si="0"/>
-        <v>261</v>
+        <v>-2</v>
+      </c>
+      <c r="M6" s="29">
+        <f>+VLOOKUP($C6,'R10'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q10'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29">
+        <f>SUM(D6:M6)</f>
+        <v>252</v>
       </c>
       <c r="S6" s="41" t="s">
         <v>24</v>
@@ -16658,64 +16786,67 @@
       <c r="AE6" s="103"/>
       <c r="AF6" s="103"/>
       <c r="AG6" s="104">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+      <c r="AH6" s="217">
         <f t="shared" si="1"/>
-        <v>262</v>
-      </c>
-      <c r="AH6" s="217">
-        <f t="shared" si="2"/>
         <v>29.111111111111111</v>
       </c>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="30">
+        <f>+VLOOKUP($C7,'R1'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q1'!$B$3:$J$22,9,)</f>
+        <v>36</v>
+      </c>
+      <c r="E7" s="30">
+        <f>+VLOOKUP($C7,'R2'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q2'!$B$3:$J$22,9,)</f>
+        <v>30</v>
+      </c>
+      <c r="F7" s="30">
+        <f>+VLOOKUP($C7,'R3'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q3'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="G7" s="30">
+        <f>+VLOOKUP($C7,'R4'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q4'!$B$3:$J$22,9,)</f>
+        <v>25</v>
+      </c>
+      <c r="H7" s="30">
+        <f>+VLOOKUP($C7,'R5'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q5'!$B$3:$J$22,9,)</f>
+        <v>19</v>
+      </c>
+      <c r="I7" s="30">
+        <f>+VLOOKUP($C7,'R6'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q6'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="J7" s="30">
+        <f>+VLOOKUP($C7,'R7'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q7'!$B$3:$J$22,9,)</f>
         <v>20</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="29">
-        <f>+VLOOKUP($C7,'R1'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q1'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="E7" s="29">
-        <f>+VLOOKUP($C7,'R2'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q2'!$B$3:$J$22,9,)</f>
+      <c r="K7" s="30">
+        <f>+VLOOKUP($C7,'R8'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q8'!$B$3:$J$22,9,)</f>
+        <v>35</v>
+      </c>
+      <c r="L7" s="30">
+        <f>+VLOOKUP($C7,'R9'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q9'!$B$3:$J$22,9,)</f>
         <v>24</v>
       </c>
-      <c r="F7" s="29">
-        <f>+VLOOKUP($C7,'R3'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q3'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="G7" s="29">
-        <f>+VLOOKUP($C7,'R4'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q4'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="H7" s="29">
-        <f>+VLOOKUP($C7,'R5'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q5'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="I7" s="29">
-        <f>+VLOOKUP($C7,'R6'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q6'!$B$3:$J$22,9,)</f>
-        <v>19</v>
-      </c>
-      <c r="J7" s="29">
-        <f>+VLOOKUP($C7,'R7'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q7'!$B$3:$J$22,9,)</f>
-        <v>26</v>
-      </c>
-      <c r="K7" s="29">
-        <f>+VLOOKUP($C7,'R8'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q8'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="L7" s="29">
-        <f>+VLOOKUP($C7,'R9'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q9'!$B$3:$J$22,9,)</f>
-        <v>36</v>
-      </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29">
-        <f t="shared" si="0"/>
-        <v>169</v>
+      <c r="M7" s="30">
+        <f>+VLOOKUP($C7,'R10'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q10'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30">
+        <f>SUM(D7:M7)</f>
+        <v>198</v>
       </c>
       <c r="S7" s="39" t="s">
         <v>22</v>
@@ -16752,64 +16883,67 @@
       <c r="AE7" s="100"/>
       <c r="AF7" s="100"/>
       <c r="AG7" s="277">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+      <c r="AH7" s="215">
         <f t="shared" si="1"/>
-        <v>253</v>
-      </c>
-      <c r="AH7" s="215">
-        <f t="shared" si="2"/>
         <v>28.111111111111111</v>
       </c>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="29">
+        <f>+VLOOKUP($C8,'R1'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q1'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="29">
+        <f>+VLOOKUP($C8,'R2'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q2'!$B$3:$J$22,9,)</f>
+        <v>24</v>
+      </c>
+      <c r="F8" s="29">
+        <f>+VLOOKUP($C8,'R3'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q3'!$B$3:$J$22,9,)</f>
+        <v>23</v>
+      </c>
+      <c r="G8" s="29">
+        <f>+VLOOKUP($C8,'R4'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q4'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="H8" s="29">
+        <f>+VLOOKUP($C8,'R5'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q5'!$B$3:$J$22,9,)</f>
+        <v>24</v>
+      </c>
+      <c r="I8" s="29">
+        <f>+VLOOKUP($C8,'R6'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q6'!$B$3:$J$22,9,)</f>
+        <v>19</v>
+      </c>
+      <c r="J8" s="29">
+        <f>+VLOOKUP($C8,'R7'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q7'!$B$3:$J$22,9,)</f>
         <v>26</v>
       </c>
-      <c r="C8" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="32">
-        <f>+VLOOKUP($C8,'R1'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-9</v>
-      </c>
-      <c r="E8" s="32">
-        <f>+VLOOKUP($C8,'R2'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q2'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="F8" s="32">
-        <f>+VLOOKUP($C8,'R3'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q3'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="G8" s="32">
-        <f>+VLOOKUP($C8,'R4'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q4'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="H8" s="32">
-        <f>+VLOOKUP($C8,'R5'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I8" s="32">
-        <f>+VLOOKUP($C8,'R6'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q6'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="J8" s="32">
-        <f>+VLOOKUP($C8,'R7'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q7'!$B$3:$J$22,9,)</f>
-        <v>33</v>
-      </c>
-      <c r="K8" s="32">
+      <c r="K8" s="29">
         <f>+VLOOKUP($C8,'R8'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q8'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="L8" s="32">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="29">
         <f>+VLOOKUP($C8,'R9'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q9'!$B$3:$J$22,9,)</f>
-        <v>28</v>
-      </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32">
-        <f t="shared" si="0"/>
-        <v>152</v>
+        <v>36</v>
+      </c>
+      <c r="M8" s="29">
+        <f>+VLOOKUP($C8,'R10'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q10'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29">
+        <f>SUM(D8:M8)</f>
+        <v>173</v>
       </c>
       <c r="S8" s="40" t="s">
         <v>28</v>
@@ -16846,64 +16980,67 @@
       <c r="AE8" s="105"/>
       <c r="AF8" s="105"/>
       <c r="AG8" s="106">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="AH8" s="218">
         <f t="shared" si="1"/>
-        <v>178</v>
-      </c>
-      <c r="AH8" s="218">
-        <f t="shared" si="2"/>
         <v>19.777777777777779</v>
       </c>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B9" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="51" t="s">
+      <c r="B9" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="32">
+        <f>+VLOOKUP($C9,'R1'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q1'!$B$3:$J$22,9,)</f>
+        <v>-9</v>
+      </c>
+      <c r="E9" s="32">
+        <f>+VLOOKUP($C9,'R2'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q2'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="F9" s="32">
+        <f>+VLOOKUP($C9,'R3'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q3'!$B$3:$J$22,9,)</f>
+        <v>18</v>
+      </c>
+      <c r="G9" s="32">
+        <f>+VLOOKUP($C9,'R4'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q4'!$B$3:$J$22,9,)</f>
+        <v>32</v>
+      </c>
+      <c r="H9" s="32">
+        <f>+VLOOKUP($C9,'R5'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q5'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="32">
+        <f>+VLOOKUP($C9,'R6'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q6'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="J9" s="32">
+        <f>+VLOOKUP($C9,'R7'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q7'!$B$3:$J$22,9,)</f>
+        <v>33</v>
+      </c>
+      <c r="K9" s="32">
+        <f>+VLOOKUP($C9,'R8'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q8'!$B$3:$J$22,9,)</f>
         <v>23</v>
       </c>
-      <c r="D9" s="30">
-        <f>+VLOOKUP($C9,'R1'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q1'!$B$3:$J$22,9,)</f>
-        <v>36</v>
-      </c>
-      <c r="E9" s="30">
-        <f>+VLOOKUP($C9,'R2'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q2'!$B$3:$J$22,9,)</f>
-        <v>30</v>
-      </c>
-      <c r="F9" s="30">
-        <f>+VLOOKUP($C9,'R3'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="G9" s="30">
-        <f>+VLOOKUP($C9,'R4'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q4'!$B$3:$J$22,9,)</f>
-        <v>25</v>
-      </c>
-      <c r="H9" s="30">
-        <f>+VLOOKUP($C9,'R5'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q5'!$B$3:$J$22,9,)</f>
-        <v>19</v>
-      </c>
-      <c r="I9" s="30">
-        <f>+VLOOKUP($C9,'R6'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q6'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="J9" s="30">
-        <f>+VLOOKUP($C9,'R7'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q7'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="K9" s="30">
-        <f>+VLOOKUP($C9,'R8'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q8'!$B$3:$J$22,9,)</f>
-        <v>35</v>
-      </c>
-      <c r="L9" s="30">
+      <c r="L9" s="32">
         <f>+VLOOKUP($C9,'R9'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q9'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30">
-        <f t="shared" si="0"/>
-        <v>192</v>
+        <v>28</v>
+      </c>
+      <c r="M9" s="32">
+        <f>+VLOOKUP($C9,'R10'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q10'!$B$3:$J$22,9,)</f>
+        <v>11</v>
+      </c>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32">
+        <f>SUM(D9:M9)</f>
+        <v>163</v>
       </c>
       <c r="S9" s="42" t="s">
         <v>26</v>
@@ -16940,64 +17077,67 @@
       <c r="AE9" s="107"/>
       <c r="AF9" s="107"/>
       <c r="AG9" s="108">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+      <c r="AH9" s="219">
         <f t="shared" si="1"/>
-        <v>238</v>
-      </c>
-      <c r="AH9" s="219">
-        <f t="shared" si="2"/>
         <v>26.444444444444443</v>
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B10" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="82">
+      <c r="B10" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="31">
         <f>+VLOOKUP($C10,'R1'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q1'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="E10" s="82">
+        <v>-10</v>
+      </c>
+      <c r="E10" s="31">
         <f>+VLOOKUP($C10,'R2'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q2'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="F10" s="82">
+        <v>21</v>
+      </c>
+      <c r="F10" s="31">
         <f>+VLOOKUP($C10,'R3'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q3'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="G10" s="82">
+        <v>27</v>
+      </c>
+      <c r="G10" s="31">
         <f>+VLOOKUP($C10,'R4'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q4'!$B$3:$J$22,9,)</f>
-        <v>-13</v>
-      </c>
-      <c r="H10" s="82">
+        <v>10</v>
+      </c>
+      <c r="H10" s="31">
         <f>+VLOOKUP($C10,'R5'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q5'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="I10" s="31">
+        <f>+VLOOKUP($C10,'R6'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q6'!$B$3:$J$22,9,)</f>
+        <v>37</v>
+      </c>
+      <c r="J10" s="31">
+        <f>+VLOOKUP($C10,'R7'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q7'!$B$3:$J$22,9,)</f>
         <v>16</v>
       </c>
-      <c r="I10" s="82">
-        <f>+VLOOKUP($C10,'R6'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q6'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="J10" s="82">
-        <f>+VLOOKUP($C10,'R7'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q7'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="K10" s="82">
+      <c r="K10" s="31">
         <f>+VLOOKUP($C10,'R8'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q8'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="L10" s="82">
+        <v>35</v>
+      </c>
+      <c r="L10" s="31">
         <f>+VLOOKUP($C10,'R9'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q9'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82">
-        <f t="shared" si="0"/>
-        <v>77</v>
+        <v>-8</v>
+      </c>
+      <c r="M10" s="31">
+        <f>+VLOOKUP($C10,'R10'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q10'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31">
+        <f>SUM(D10:M10)</f>
+        <v>150</v>
       </c>
       <c r="S10" s="43" t="s">
         <v>32</v>
@@ -17034,64 +17174,61 @@
       <c r="AE10" s="111"/>
       <c r="AF10" s="111"/>
       <c r="AG10" s="112">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="AH10" s="221">
         <f t="shared" si="1"/>
-        <v>129</v>
-      </c>
-      <c r="AH10" s="221">
-        <f t="shared" si="2"/>
         <v>14.333333333333334</v>
       </c>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B11" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="33">
+      <c r="B11" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="31">
         <f>+VLOOKUP($C11,'R1'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="E11" s="33">
+        <v>22</v>
+      </c>
+      <c r="E11" s="31">
         <f>+VLOOKUP($C11,'R2'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q2'!$B$3:$J$22,9,)</f>
-        <v>17</v>
-      </c>
-      <c r="F11" s="33">
+        <v>23</v>
+      </c>
+      <c r="F11" s="31">
         <f>+VLOOKUP($C11,'R3'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q3'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="G11" s="33">
-        <f>+VLOOKUP($C11,'R4'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q4'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="33">
-        <f>+VLOOKUP($C11,'R5'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q5'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="I11" s="33">
+        <v>11</v>
+      </c>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31">
         <f>+VLOOKUP($C11,'R6'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q6'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="J11" s="33">
+        <v>21</v>
+      </c>
+      <c r="J11" s="31">
         <f>+VLOOKUP($C11,'R7'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q7'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="K11" s="33">
+        <v>6</v>
+      </c>
+      <c r="K11" s="31">
         <f>+VLOOKUP($C11,'R8'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q8'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="L11" s="33">
+        <v>4</v>
+      </c>
+      <c r="L11" s="31">
         <f>+VLOOKUP($C11,'R9'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q9'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33">
-        <f t="shared" si="0"/>
-        <v>85</v>
+        <v>43</v>
+      </c>
+      <c r="M11" s="31">
+        <f>+VLOOKUP($C11,'R10'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q10'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31">
+        <f>SUM(D11:M11)</f>
+        <v>142</v>
       </c>
       <c r="S11" s="81" t="s">
         <v>30</v>
@@ -17128,64 +17265,67 @@
       <c r="AE11" s="109"/>
       <c r="AF11" s="109"/>
       <c r="AG11" s="110">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="AH11" s="220">
         <f t="shared" si="1"/>
-        <v>178</v>
-      </c>
-      <c r="AH11" s="220">
-        <f t="shared" si="2"/>
         <v>19.777777777777779</v>
       </c>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B12" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="35">
+      <c r="B12" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="82">
         <f>+VLOOKUP($C12,'R1'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-12</v>
-      </c>
-      <c r="E12" s="35">
+        <v>24</v>
+      </c>
+      <c r="E12" s="82">
         <f>+VLOOKUP($C12,'R2'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q2'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="F12" s="35">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="82">
         <f>+VLOOKUP($C12,'R3'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q3'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="G12" s="35">
+        <v>-9</v>
+      </c>
+      <c r="G12" s="82">
         <f>+VLOOKUP($C12,'R4'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q4'!$B$3:$J$22,9,)</f>
+        <v>22</v>
+      </c>
+      <c r="H12" s="82">
+        <f>+VLOOKUP($C12,'R5'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q5'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="I12" s="82">
+        <f>+VLOOKUP($C12,'R6'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q6'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="J12" s="82">
+        <f>+VLOOKUP($C12,'R7'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q7'!$B$3:$J$22,9,)</f>
         <v>18</v>
       </c>
-      <c r="H12" s="35">
-        <f>+VLOOKUP($C12,'R5'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="K12" s="82">
+        <f>+VLOOKUP($C12,'R8'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q8'!$B$3:$J$22,9,)</f>
+        <v>45</v>
+      </c>
+      <c r="L12" s="82">
+        <f>+VLOOKUP($C12,'R9'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="M12" s="82">
+        <f>+VLOOKUP($C12,'R10'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q10'!$B$3:$J$22,9,)</f>
         <v>5</v>
       </c>
-      <c r="I12" s="35">
-        <f>+VLOOKUP($C12,'R6'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q6'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="J12" s="35">
-        <f>+VLOOKUP($C12,'R7'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q7'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
-      </c>
-      <c r="K12" s="35">
-        <f>+VLOOKUP($C12,'R8'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q8'!$B$3:$J$22,9,)</f>
-        <v>14</v>
-      </c>
-      <c r="L12" s="35">
-        <f>+VLOOKUP($C12,'R9'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q9'!$B$3:$J$22,9,)</f>
-        <v>17</v>
-      </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35">
-        <f t="shared" si="0"/>
-        <v>46</v>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82">
+        <f>SUM(D12:M12)</f>
+        <v>106</v>
       </c>
       <c r="S12" s="45" t="s">
         <v>34</v>
@@ -17222,64 +17362,67 @@
       <c r="AE12" s="113"/>
       <c r="AF12" s="113"/>
       <c r="AG12" s="114">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="AH12" s="222">
         <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="AH12" s="222">
-        <f t="shared" si="2"/>
         <v>9.7777777777777786</v>
       </c>
     </row>
     <row r="13" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="34">
+      <c r="B13" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="30">
         <f>+VLOOKUP($C13,'R1'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
-      </c>
-      <c r="E13" s="34">
+        <v>23</v>
+      </c>
+      <c r="E13" s="30">
         <f>+VLOOKUP($C13,'R2'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q2'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="F13" s="34">
+        <v>11</v>
+      </c>
+      <c r="F13" s="30">
         <f>+VLOOKUP($C13,'R3'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q3'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="G13" s="34">
+        <v>11</v>
+      </c>
+      <c r="G13" s="30">
         <f>+VLOOKUP($C13,'R4'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q4'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="H13" s="34">
+        <v>-2</v>
+      </c>
+      <c r="H13" s="30">
         <f>+VLOOKUP($C13,'R5'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q5'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="I13" s="34">
+        <v>2</v>
+      </c>
+      <c r="I13" s="30">
         <f>+VLOOKUP($C13,'R6'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q6'!$B$3:$J$22,9,)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="34">
+        <v>20</v>
+      </c>
+      <c r="J13" s="30">
         <f>+VLOOKUP($C13,'R7'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q7'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="K13" s="34">
+        <v>-6</v>
+      </c>
+      <c r="K13" s="30">
         <f>+VLOOKUP($C13,'R8'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q8'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="L13" s="34">
+        <v>37</v>
+      </c>
+      <c r="L13" s="30">
         <f>+VLOOKUP($C13,'R9'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q9'!$B$3:$J$22,9,)</f>
-        <v>14</v>
-      </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <v>-8</v>
+      </c>
+      <c r="M13" s="30">
+        <f>+VLOOKUP($C13,'R10'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q10'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30">
+        <f>SUM(D13:M13)</f>
+        <v>98</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>36</v>
@@ -17316,64 +17459,67 @@
       <c r="AE13" s="115"/>
       <c r="AF13" s="115"/>
       <c r="AG13" s="116">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="AH13" s="223">
         <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="AH13" s="223">
-        <f t="shared" si="2"/>
         <v>9.8888888888888893</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="28">
+      <c r="B14" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="32">
         <f>+VLOOKUP($C14,'R1'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q1'!$B$3:$J$22,9,)</f>
-        <v>41</v>
-      </c>
-      <c r="E14" s="28">
+        <v>20</v>
+      </c>
+      <c r="E14" s="32">
         <f>+VLOOKUP($C14,'R2'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-13</v>
-      </c>
-      <c r="F14" s="28">
+        <v>-4</v>
+      </c>
+      <c r="F14" s="32">
         <f>+VLOOKUP($C14,'R3'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="G14" s="28">
+        <v>3</v>
+      </c>
+      <c r="G14" s="32">
         <f>+VLOOKUP($C14,'R4'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q4'!$B$3:$J$22,9,)</f>
-        <v>33</v>
-      </c>
-      <c r="H14" s="28">
+        <v>20</v>
+      </c>
+      <c r="H14" s="32">
         <f>+VLOOKUP($C14,'R5'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q5'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="I14" s="28">
+        <v>20</v>
+      </c>
+      <c r="I14" s="32">
         <f>+VLOOKUP($C14,'R6'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q6'!$B$3:$J$22,9,)</f>
-        <v>-8</v>
-      </c>
-      <c r="J14" s="28">
+        <v>7</v>
+      </c>
+      <c r="J14" s="32">
         <f>+VLOOKUP($C14,'R7'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q7'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="K14" s="28">
+        <v>20</v>
+      </c>
+      <c r="K14" s="32">
         <f>+VLOOKUP($C14,'R8'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q8'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="L14" s="32">
+        <f>+VLOOKUP($C14,'R9'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q9'!$B$3:$J$22,9,)</f>
         <v>-11</v>
       </c>
-      <c r="L14" s="28">
-        <f>+VLOOKUP($C14,'R9'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q9'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28">
-        <f t="shared" si="0"/>
-        <v>90</v>
+      <c r="M14" s="32">
+        <f>+VLOOKUP($C14,'R10'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q10'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32">
+        <f>SUM(D14:M14)</f>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17381,51 +17527,54 @@
         <v>28</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D15" s="28">
         <f>+VLOOKUP($C15,'R1'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q1'!$B$3:$J$22,9,)</f>
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E15" s="28">
         <f>+VLOOKUP($C15,'R2'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="F15" s="28">
         <f>+VLOOKUP($C15,'R3'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q3'!$B$3:$J$22,9,)</f>
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="G15" s="28">
         <f>+VLOOKUP($C15,'R4'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q4'!$B$3:$J$22,9,)</f>
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="H15" s="28">
         <f>+VLOOKUP($C15,'R5'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I15" s="28">
         <f>+VLOOKUP($C15,'R6'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q6'!$B$3:$J$22,9,)</f>
-        <v>20</v>
+        <v>-8</v>
       </c>
       <c r="J15" s="28">
         <f>+VLOOKUP($C15,'R7'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q7'!$B$3:$J$22,9,)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K15" s="28">
         <f>+VLOOKUP($C15,'R8'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q8'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="L15" s="28">
         <f>+VLOOKUP($C15,'R9'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q9'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="M15" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="M15" s="28">
+        <f>+VLOOKUP($C15,'R10'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q10'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
       <c r="Q15" s="28">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <f>SUM(D15:M15)</f>
+        <v>94</v>
       </c>
       <c r="AA15" s="238" t="s">
         <v>0</v>
@@ -17444,55 +17593,58 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="29">
+      <c r="B16" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="33">
         <f>+VLOOKUP($C16,'R1'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-2</v>
-      </c>
-      <c r="E16" s="29">
+        <v>-14</v>
+      </c>
+      <c r="E16" s="33">
         <f>+VLOOKUP($C16,'R2'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q2'!$B$3:$J$22,9,)</f>
-        <v>31</v>
-      </c>
-      <c r="F16" s="29">
+        <v>17</v>
+      </c>
+      <c r="F16" s="33">
         <f>+VLOOKUP($C16,'R3'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q3'!$B$3:$J$22,9,)</f>
-        <v>41</v>
-      </c>
-      <c r="G16" s="29">
+        <v>15</v>
+      </c>
+      <c r="G16" s="33">
         <f>+VLOOKUP($C16,'R4'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q4'!$B$3:$J$22,9,)</f>
-        <v>43</v>
-      </c>
-      <c r="H16" s="29">
+        <v>1</v>
+      </c>
+      <c r="H16" s="33">
         <f>+VLOOKUP($C16,'R5'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q5'!$B$3:$J$22,9,)</f>
-        <v>52</v>
-      </c>
-      <c r="I16" s="29">
+        <v>15</v>
+      </c>
+      <c r="I16" s="33">
         <f>+VLOOKUP($C16,'R6'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q6'!$B$3:$J$22,9,)</f>
-        <v>47</v>
-      </c>
-      <c r="J16" s="29">
+        <v>8</v>
+      </c>
+      <c r="J16" s="33">
         <f>+VLOOKUP($C16,'R7'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q7'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="K16" s="29">
+        <v>15</v>
+      </c>
+      <c r="K16" s="33">
         <f>+VLOOKUP($C16,'R8'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q8'!$B$3:$J$22,9,)</f>
-        <v>-4</v>
-      </c>
-      <c r="L16" s="29">
+        <v>10</v>
+      </c>
+      <c r="L16" s="33">
         <f>+VLOOKUP($C16,'R9'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-2</v>
-      </c>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29">
-        <f t="shared" si="0"/>
-        <v>238</v>
+        <v>18</v>
+      </c>
+      <c r="M16" s="33">
+        <f>+VLOOKUP($C16,'R10'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q10'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33">
+        <f>SUM(D16:M16)</f>
+        <v>86</v>
       </c>
       <c r="AA16" s="240" t="s">
         <v>24</v>
@@ -17511,211 +17663,223 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="82">
+        <f>+VLOOKUP($C17,'R1'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q1'!$B$3:$J$22,9,)</f>
+        <v>5</v>
+      </c>
+      <c r="E17" s="82">
+        <f>+VLOOKUP($C17,'R2'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q2'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="F17" s="82">
+        <f>+VLOOKUP($C17,'R3'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q3'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="G17" s="82">
+        <f>+VLOOKUP($C17,'R4'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q4'!$B$3:$J$22,9,)</f>
+        <v>-13</v>
+      </c>
+      <c r="H17" s="82">
+        <f>+VLOOKUP($C17,'R5'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q5'!$B$3:$J$22,9,)</f>
+        <v>16</v>
+      </c>
+      <c r="I17" s="82">
+        <f>+VLOOKUP($C17,'R6'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q6'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="J17" s="82">
+        <f>+VLOOKUP($C17,'R7'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q7'!$B$3:$J$22,9,)</f>
+        <v>5</v>
+      </c>
+      <c r="K17" s="82">
+        <f>+VLOOKUP($C17,'R8'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q8'!$B$3:$J$22,9,)</f>
+        <v>9</v>
+      </c>
+      <c r="L17" s="82">
+        <f>+VLOOKUP($C17,'R9'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q9'!$B$3:$J$22,9,)</f>
         <v>24</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="31">
-        <f>+VLOOKUP($C17,'R1'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-10</v>
-      </c>
-      <c r="E17" s="31">
-        <f>+VLOOKUP($C17,'R2'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q2'!$B$3:$J$22,9,)</f>
+      <c r="M17" s="82">
+        <f>+VLOOKUP($C17,'R10'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q10'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82">
+        <f>SUM(D17:M17)</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="34">
+        <f>+VLOOKUP($C18,'R1'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q1'!$B$3:$J$22,9,)</f>
+        <v>-11</v>
+      </c>
+      <c r="E18" s="34">
+        <f>+VLOOKUP($C18,'R2'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q2'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="F18" s="34">
+        <f>+VLOOKUP($C18,'R3'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q3'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="G18" s="34">
+        <f>+VLOOKUP($C18,'R4'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q4'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
+      <c r="H18" s="34">
+        <f>+VLOOKUP($C18,'R5'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q5'!$B$3:$J$22,9,)</f>
+        <v>5</v>
+      </c>
+      <c r="I18" s="34">
+        <f>+VLOOKUP($C18,'R6'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q6'!$B$3:$J$22,9,)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="34">
+        <f>+VLOOKUP($C18,'R7'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q7'!$B$3:$J$22,9,)</f>
+        <v>11</v>
+      </c>
+      <c r="K18" s="34">
+        <f>+VLOOKUP($C18,'R8'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q8'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="L18" s="34">
+        <f>+VLOOKUP($C18,'R9'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q9'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="M18" s="34">
+        <f>+VLOOKUP($C18,'R10'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q10'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34">
+        <f>SUM(D18:M18)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="28">
+        <f>+VLOOKUP($C19,'R1'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q1'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="E19" s="28">
+        <f>+VLOOKUP($C19,'R2'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q2'!$B$3:$J$22,9,)</f>
+        <v>-9</v>
+      </c>
+      <c r="F19" s="28">
+        <f>+VLOOKUP($C19,'R3'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q3'!$B$3:$J$22,9,)</f>
         <v>21</v>
       </c>
-      <c r="F17" s="31">
-        <f>+VLOOKUP($C17,'R3'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q3'!$B$3:$J$22,9,)</f>
-        <v>27</v>
-      </c>
-      <c r="G17" s="31">
-        <f>+VLOOKUP($C17,'R4'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q4'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="H17" s="31">
-        <f>+VLOOKUP($C17,'R5'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="G19" s="28">
+        <f>+VLOOKUP($C19,'R4'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q4'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="H19" s="28">
+        <f>+VLOOKUP($C19,'R5'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q5'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="I19" s="28">
+        <f>+VLOOKUP($C19,'R6'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q6'!$B$3:$J$22,9,)</f>
         <v>20</v>
       </c>
-      <c r="I17" s="31">
-        <f>+VLOOKUP($C17,'R6'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q6'!$B$3:$J$22,9,)</f>
-        <v>37</v>
-      </c>
-      <c r="J17" s="31">
-        <f>+VLOOKUP($C17,'R7'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q7'!$B$3:$J$22,9,)</f>
-        <v>16</v>
-      </c>
-      <c r="K17" s="31">
-        <f>+VLOOKUP($C17,'R8'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q8'!$B$3:$J$22,9,)</f>
-        <v>35</v>
-      </c>
-      <c r="L17" s="31">
-        <f>+VLOOKUP($C17,'R9'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-8</v>
-      </c>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31">
-        <f t="shared" si="0"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="30">
-        <f>+VLOOKUP($C18,'R1'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q1'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="E18" s="30">
-        <f>+VLOOKUP($C18,'R2'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q2'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="F18" s="30">
-        <f>+VLOOKUP($C18,'R3'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q3'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="G18" s="30">
-        <f>+VLOOKUP($C18,'R4'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q4'!$B$3:$J$22,9,)</f>
-        <v>-2</v>
-      </c>
-      <c r="H18" s="30">
-        <f>+VLOOKUP($C18,'R5'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="J19" s="28">
+        <f>+VLOOKUP($C19,'R7'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q7'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="K19" s="28">
+        <f>+VLOOKUP($C19,'R8'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q8'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="L19" s="28">
+        <f>+VLOOKUP($C19,'R9'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q9'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="M19" s="28">
+        <f>+VLOOKUP($C19,'R10'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q10'!$B$3:$J$22,9,)</f>
         <v>2</v>
       </c>
-      <c r="I18" s="30">
-        <f>+VLOOKUP($C18,'R6'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q6'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="J18" s="30">
-        <f>+VLOOKUP($C18,'R7'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q7'!$B$3:$J$22,9,)</f>
-        <v>-6</v>
-      </c>
-      <c r="K18" s="30">
-        <f>+VLOOKUP($C18,'R8'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q8'!$B$3:$J$22,9,)</f>
-        <v>37</v>
-      </c>
-      <c r="L18" s="30">
-        <f>+VLOOKUP($C18,'R9'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-8</v>
-      </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="32">
-        <f>+VLOOKUP($C19,'R1'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q1'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="E19" s="32">
-        <f>+VLOOKUP($C19,'R2'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-4</v>
-      </c>
-      <c r="F19" s="32">
-        <f>+VLOOKUP($C19,'R3'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q3'!$B$3:$J$22,9,)</f>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28">
+        <f>SUM(D19:M19)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="35">
+        <f>+VLOOKUP($C20,'R1'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q1'!$B$3:$J$22,9,)</f>
+        <v>-12</v>
+      </c>
+      <c r="E20" s="35">
+        <f>+VLOOKUP($C20,'R2'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q2'!$B$3:$J$22,9,)</f>
         <v>3</v>
       </c>
-      <c r="G19" s="32">
-        <f>+VLOOKUP($C19,'R4'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q4'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="H19" s="32">
-        <f>+VLOOKUP($C19,'R5'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q5'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="I19" s="32">
-        <f>+VLOOKUP($C19,'R6'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q6'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="J19" s="32">
-        <f>+VLOOKUP($C19,'R7'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q7'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="K19" s="32">
-        <f>+VLOOKUP($C19,'R8'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q8'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="L19" s="32">
-        <f>+VLOOKUP($C19,'R9'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q9'!$B$3:$J$22,9,)</f>
+      <c r="F20" s="35">
+        <f>+VLOOKUP($C20,'R3'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q3'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="G20" s="35">
+        <f>+VLOOKUP($C20,'R4'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q4'!$B$3:$J$22,9,)</f>
+        <v>18</v>
+      </c>
+      <c r="H20" s="35">
+        <f>+VLOOKUP($C20,'R5'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q5'!$B$3:$J$22,9,)</f>
+        <v>5</v>
+      </c>
+      <c r="I20" s="35">
+        <f>+VLOOKUP($C20,'R6'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q6'!$B$3:$J$22,9,)</f>
+        <v>9</v>
+      </c>
+      <c r="J20" s="35">
+        <f>+VLOOKUP($C20,'R7'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q7'!$B$3:$J$22,9,)</f>
         <v>-11</v>
       </c>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="77" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="82">
-        <f>+VLOOKUP($C20,'R1'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q1'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="E20" s="82">
-        <f>+VLOOKUP($C20,'R2'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="F20" s="82">
-        <f>+VLOOKUP($C20,'R3'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-9</v>
-      </c>
-      <c r="G20" s="82">
-        <f>+VLOOKUP($C20,'R4'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q4'!$B$3:$J$22,9,)</f>
-        <v>22</v>
-      </c>
-      <c r="H20" s="82">
-        <f>+VLOOKUP($C20,'R5'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I20" s="82">
-        <f>+VLOOKUP($C20,'R6'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q6'!$B$3:$J$22,9,)</f>
+      <c r="K20" s="35">
+        <f>+VLOOKUP($C20,'R8'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q8'!$B$3:$J$22,9,)</f>
         <v>14</v>
       </c>
-      <c r="J20" s="82">
-        <f>+VLOOKUP($C20,'R7'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q7'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="K20" s="82">
-        <f>+VLOOKUP($C20,'R8'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q8'!$B$3:$J$22,9,)</f>
-        <v>45</v>
-      </c>
-      <c r="L20" s="82">
+      <c r="L20" s="35">
         <f>+VLOOKUP($C20,'R9'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82">
-        <f t="shared" si="0"/>
-        <v>101</v>
+        <v>17</v>
+      </c>
+      <c r="M20" s="35">
+        <f>+VLOOKUP($C20,'R10'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q10'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35">
+        <f>SUM(D20:M20)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
@@ -17723,7 +17887,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="33">
         <f>+VLOOKUP($C21,'R1'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q1'!$B$3:$J$22,9,)</f>
@@ -17761,13 +17925,16 @@
         <f>+VLOOKUP($C21,'R9'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q9'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="M21" s="33"/>
+      <c r="M21" s="33">
+        <f>+VLOOKUP($C21,'R10'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q10'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
       <c r="N21" s="33"/>
       <c r="O21" s="33"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="33">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <f>SUM(D21:M21)</f>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
@@ -17813,13 +17980,16 @@
         <f>+VLOOKUP($C22,'R9'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q9'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="M22" s="35"/>
+      <c r="M22" s="35">
+        <f>+VLOOKUP($C22,'R10'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q10'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
       <c r="N22" s="35"/>
       <c r="O22" s="35"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f>SUM(D22:M22)</f>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17827,7 +17997,7 @@
         <v>34</v>
       </c>
       <c r="C23" s="73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D23" s="279">
         <f>+VLOOKUP($C23,'R1'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q1'!$B$3:$J$22,9,)</f>
@@ -17865,41 +18035,44 @@
         <f>+VLOOKUP($C23,'R9'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q9'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="M23" s="279"/>
+      <c r="M23" s="279">
+        <f>+VLOOKUP($C23,'R10'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q10'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
       <c r="N23" s="279"/>
       <c r="O23" s="279"/>
       <c r="P23" s="279"/>
       <c r="Q23" s="279">
-        <f t="shared" si="0"/>
-        <v>-16</v>
+        <f>SUM(D23:M23)</f>
+        <v>-15</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="417" t="s">
+      <c r="B25" s="409" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="418"/>
-      <c r="D25" s="418"/>
-      <c r="E25" s="418"/>
-      <c r="F25" s="418"/>
-      <c r="G25" s="418"/>
-      <c r="H25" s="418"/>
-      <c r="I25" s="418"/>
-      <c r="J25" s="418"/>
-      <c r="K25" s="418"/>
-      <c r="L25" s="418"/>
-      <c r="M25" s="418"/>
-      <c r="N25" s="418"/>
-      <c r="O25" s="418"/>
-      <c r="P25" s="418"/>
-      <c r="Q25" s="419"/>
+      <c r="C25" s="410"/>
+      <c r="D25" s="410"/>
+      <c r="E25" s="410"/>
+      <c r="F25" s="410"/>
+      <c r="G25" s="410"/>
+      <c r="H25" s="410"/>
+      <c r="I25" s="410"/>
+      <c r="J25" s="410"/>
+      <c r="K25" s="410"/>
+      <c r="L25" s="410"/>
+      <c r="M25" s="410"/>
+      <c r="N25" s="410"/>
+      <c r="O25" s="410"/>
+      <c r="P25" s="410"/>
+      <c r="Q25" s="411"/>
     </row>
     <row r="26" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="303" t="s">
+      <c r="C26" s="408" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="273" t="s">
@@ -17988,13 +18161,16 @@
         <f>+VLOOKUP($C27,'Q9'!$B$3:$J$22,9,)</f>
         <v>15</v>
       </c>
-      <c r="M27" s="37"/>
+      <c r="M27" s="37">
+        <f>+VLOOKUP($C27,'Q10'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
       <c r="N27" s="37"/>
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="37">
-        <f t="shared" ref="Q27:Q46" si="3">SUM(D27:M27)</f>
-        <v>134</v>
+        <f t="shared" ref="Q27:Q46" si="2">SUM(D27:M27)</f>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
@@ -18040,13 +18216,16 @@
         <f>+VLOOKUP($C28,'Q9'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="M28" s="27"/>
+      <c r="M28" s="27">
+        <f>+VLOOKUP($C28,'Q10'!$B$3:$J$22,9,)</f>
+        <v>11</v>
+      </c>
       <c r="N28" s="27"/>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27">
-        <f t="shared" si="3"/>
-        <v>117</v>
+        <f t="shared" si="2"/>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
@@ -18092,13 +18271,16 @@
         <f>+VLOOKUP($C29,'Q9'!$B$3:$J$22,9,)</f>
         <v>13</v>
       </c>
-      <c r="M29" s="29"/>
+      <c r="M29" s="29">
+        <f>+VLOOKUP($C29,'Q10'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29">
-        <f t="shared" si="3"/>
-        <v>116</v>
+        <f t="shared" si="2"/>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
@@ -18106,7 +18288,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D30" s="31">
         <f>+VLOOKUP($C30,'Q1'!$B$3:$J$22,9,)</f>
@@ -18144,13 +18326,16 @@
         <f>+VLOOKUP($C30,'Q9'!$B$3:$J$22,9,)</f>
         <v>7</v>
       </c>
-      <c r="M30" s="31"/>
+      <c r="M30" s="31">
+        <f>+VLOOKUP($C30,'Q10'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
       <c r="N30" s="31"/>
       <c r="O30" s="31"/>
       <c r="P30" s="31"/>
       <c r="Q30" s="31">
-        <f t="shared" si="3"/>
-        <v>72</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
@@ -18158,7 +18343,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" s="30">
         <f>+VLOOKUP($C31,'Q1'!$B$3:$J$22,9,)</f>
@@ -18196,13 +18381,16 @@
         <f>+VLOOKUP($C31,'Q9'!$B$3:$J$22,9,)</f>
         <v>7</v>
       </c>
-      <c r="M31" s="30"/>
+      <c r="M31" s="30">
+        <f>+VLOOKUP($C31,'Q10'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
       <c r="N31" s="30"/>
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30">
-        <f t="shared" si="3"/>
-        <v>71</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
@@ -18248,13 +18436,16 @@
         <f>+VLOOKUP($C32,'Q9'!$B$3:$J$22,9,)</f>
         <v>2</v>
       </c>
-      <c r="M32" s="30"/>
+      <c r="M32" s="30">
+        <f>+VLOOKUP($C32,'Q10'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
       <c r="N32" s="30"/>
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30">
-        <f t="shared" si="3"/>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
@@ -18262,7 +18453,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D33" s="28">
         <f>+VLOOKUP($C33,'Q1'!$B$3:$J$22,9,)</f>
@@ -18300,13 +18491,16 @@
         <f>+VLOOKUP($C33,'Q9'!$B$3:$J$22,9,)</f>
         <v>11</v>
       </c>
-      <c r="M33" s="28"/>
+      <c r="M33" s="28">
+        <f>+VLOOKUP($C33,'Q10'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
       <c r="N33" s="28"/>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
       <c r="Q33" s="28">
-        <f t="shared" si="3"/>
-        <v>65</v>
+        <f t="shared" si="2"/>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
@@ -18314,7 +18508,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D34" s="32">
         <f>+VLOOKUP($C34,'Q1'!$B$3:$J$22,9,)</f>
@@ -18352,13 +18546,16 @@
         <f>+VLOOKUP($C34,'Q9'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="M34" s="32"/>
+      <c r="M34" s="32">
+        <f>+VLOOKUP($C34,'Q10'!$B$3:$J$22,9,)</f>
+        <v>11</v>
+      </c>
       <c r="N34" s="32"/>
       <c r="O34" s="32"/>
       <c r="P34" s="32"/>
       <c r="Q34" s="32">
-        <f t="shared" si="3"/>
-        <v>63</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
@@ -18366,7 +18563,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D35" s="31">
         <f>+VLOOKUP($C35,'Q1'!$B$3:$J$22,9,)</f>
@@ -18398,13 +18595,16 @@
         <f>+VLOOKUP($C35,'Q9'!$B$3:$J$22,9,)</f>
         <v>10</v>
       </c>
-      <c r="M35" s="31"/>
+      <c r="M35" s="31">
+        <f>+VLOOKUP($C35,'Q10'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
       <c r="P35" s="31"/>
       <c r="Q35" s="31">
-        <f t="shared" si="3"/>
-        <v>63</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -18412,7 +18612,7 @@
         <v>20</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D36" s="29">
         <f>+VLOOKUP($C36,'Q1'!$B$3:$J$22,9,)</f>
@@ -18450,13 +18650,16 @@
         <f>+VLOOKUP($C36,'Q9'!$B$3:$J$22,9,)</f>
         <v>10</v>
       </c>
-      <c r="M36" s="29"/>
+      <c r="M36" s="29">
+        <f>+VLOOKUP($C36,'Q10'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
       <c r="N36" s="29"/>
       <c r="O36" s="29"/>
       <c r="P36" s="29"/>
       <c r="Q36" s="29">
-        <f t="shared" si="3"/>
-        <v>57</v>
+        <f t="shared" si="2"/>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
@@ -18464,7 +18667,7 @@
         <v>30</v>
       </c>
       <c r="C37" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D37" s="82">
         <f>+VLOOKUP($C37,'Q1'!$B$3:$J$22,9,)</f>
@@ -18502,13 +18705,16 @@
         <f>+VLOOKUP($C37,'Q9'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="M37" s="82"/>
+      <c r="M37" s="82">
+        <f>+VLOOKUP($C37,'Q10'!$B$3:$J$22,9,)</f>
+        <v>5</v>
+      </c>
       <c r="N37" s="82"/>
       <c r="O37" s="82"/>
       <c r="P37" s="82"/>
       <c r="Q37" s="82">
-        <f t="shared" si="3"/>
-        <v>46</v>
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
@@ -18554,13 +18760,16 @@
         <f>+VLOOKUP($C38,'Q9'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="M38" s="32"/>
+      <c r="M38" s="32">
+        <f>+VLOOKUP($C38,'Q10'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
       <c r="N38" s="32"/>
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32">
-        <f t="shared" si="3"/>
-        <v>37</v>
+        <f t="shared" si="2"/>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
@@ -18606,13 +18815,16 @@
         <f>+VLOOKUP($C39,'Q9'!$B$3:$J$22,9,)</f>
         <v>2</v>
       </c>
-      <c r="M39" s="28"/>
+      <c r="M39" s="28">
+        <f>+VLOOKUP($C39,'Q10'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
       <c r="N39" s="28"/>
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
       <c r="Q39" s="28">
-        <f t="shared" si="3"/>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
@@ -18658,13 +18870,16 @@
         <f>+VLOOKUP($C40,'Q9'!$B$3:$J$22,9,)</f>
         <v>3</v>
       </c>
-      <c r="M40" s="35"/>
+      <c r="M40" s="35">
+        <f>+VLOOKUP($C40,'Q10'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
       <c r="N40" s="35"/>
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
       <c r="Q40" s="35">
-        <f t="shared" si="3"/>
-        <v>32</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
@@ -18672,7 +18887,7 @@
         <v>32</v>
       </c>
       <c r="C41" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41" s="33">
         <f>+VLOOKUP($C41,'Q1'!$B$3:$J$22,9,)</f>
@@ -18710,13 +18925,16 @@
         <f>+VLOOKUP($C41,'Q9'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="M41" s="33"/>
+      <c r="M41" s="33">
+        <f>+VLOOKUP($C41,'Q10'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
       <c r="N41" s="33"/>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
       <c r="Q41" s="33">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
@@ -18724,7 +18942,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42" s="34">
         <f>+VLOOKUP($C42,'Q1'!$B$3:$J$22,9,)</f>
@@ -18762,13 +18980,16 @@
         <f>+VLOOKUP($C42,'Q9'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="M42" s="34"/>
+      <c r="M42" s="34">
+        <f>+VLOOKUP($C42,'Q10'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
       <c r="N42" s="34"/>
       <c r="O42" s="34"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="34">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
@@ -18814,13 +19035,16 @@
         <f>+VLOOKUP($C43,'Q9'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="M43" s="34"/>
+      <c r="M43" s="34">
+        <f>+VLOOKUP($C43,'Q10'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
       <c r="N43" s="34"/>
       <c r="O43" s="34"/>
       <c r="P43" s="34"/>
       <c r="Q43" s="34">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
@@ -18866,13 +19090,16 @@
         <f>+VLOOKUP($C44,'Q9'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="M44" s="82"/>
+      <c r="M44" s="82">
+        <f>+VLOOKUP($C44,'Q10'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
       <c r="N44" s="82"/>
       <c r="O44" s="82"/>
       <c r="P44" s="82"/>
       <c r="Q44" s="82">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
@@ -18880,7 +19107,7 @@
         <v>32</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D45" s="33">
         <f>+VLOOKUP($C45,'Q1'!$B$3:$J$22,9,)</f>
@@ -18918,13 +19145,16 @@
         <f>+VLOOKUP($C45,'Q9'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="M45" s="33"/>
+      <c r="M45" s="33">
+        <f>+VLOOKUP($C45,'Q10'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
       <c r="N45" s="33"/>
       <c r="O45" s="33"/>
       <c r="P45" s="33"/>
       <c r="Q45" s="33">
-        <f t="shared" si="3"/>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18970,41 +19200,44 @@
         <f>+VLOOKUP($C46,'Q9'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="M46" s="36"/>
+      <c r="M46" s="36">
+        <f>+VLOOKUP($C46,'Q10'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
       <c r="N46" s="36"/>
       <c r="O46" s="36"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="36">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="417" t="s">
+      <c r="B48" s="409" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="418"/>
-      <c r="D48" s="418"/>
-      <c r="E48" s="418"/>
-      <c r="F48" s="418"/>
-      <c r="G48" s="418"/>
-      <c r="H48" s="418"/>
-      <c r="I48" s="418"/>
-      <c r="J48" s="418"/>
-      <c r="K48" s="418"/>
-      <c r="L48" s="418"/>
-      <c r="M48" s="418"/>
-      <c r="N48" s="418"/>
-      <c r="O48" s="418"/>
-      <c r="P48" s="418"/>
-      <c r="Q48" s="419"/>
+      <c r="C48" s="410"/>
+      <c r="D48" s="410"/>
+      <c r="E48" s="410"/>
+      <c r="F48" s="410"/>
+      <c r="G48" s="410"/>
+      <c r="H48" s="410"/>
+      <c r="I48" s="410"/>
+      <c r="J48" s="410"/>
+      <c r="K48" s="410"/>
+      <c r="L48" s="410"/>
+      <c r="M48" s="410"/>
+      <c r="N48" s="410"/>
+      <c r="O48" s="410"/>
+      <c r="P48" s="410"/>
+      <c r="Q48" s="411"/>
     </row>
     <row r="49" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="303" t="s">
+      <c r="C49" s="408" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="273" t="s">
@@ -19093,12 +19326,15 @@
         <f>+VLOOKUP($C50,'R9'!$C$3:$H$22,5,)</f>
         <v>34</v>
       </c>
-      <c r="M50" s="37"/>
+      <c r="M50" s="37">
+        <f>+VLOOKUP($C50,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N50" s="37"/>
       <c r="O50" s="37"/>
       <c r="P50" s="37"/>
       <c r="Q50" s="37">
-        <f t="shared" ref="Q50:Q69" si="4">SUM(C50:M50)</f>
+        <f t="shared" ref="Q50:Q69" si="3">SUM(C50:M50)</f>
         <v>238</v>
       </c>
     </row>
@@ -19145,12 +19381,15 @@
         <f>+VLOOKUP($C51,'R9'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="M51" s="29"/>
+      <c r="M51" s="29">
+        <f>+VLOOKUP($C51,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N51" s="29"/>
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
     </row>
@@ -19197,12 +19436,15 @@
         <f>+VLOOKUP($C52,'R9'!$C$3:$H$22,5,)</f>
         <v>29</v>
       </c>
-      <c r="M52" s="27"/>
+      <c r="M52" s="27">
+        <f>+VLOOKUP($C52,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N52" s="27"/>
       <c r="O52" s="27"/>
       <c r="P52" s="27"/>
       <c r="Q52" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
     </row>
@@ -19249,12 +19491,15 @@
         <f>+VLOOKUP($C53,'R9'!$C$3:$H$22,5,)</f>
         <v>22</v>
       </c>
-      <c r="M53" s="30"/>
+      <c r="M53" s="30">
+        <f>+VLOOKUP($C53,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N53" s="30"/>
       <c r="O53" s="30"/>
       <c r="P53" s="30"/>
       <c r="Q53" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
     </row>
@@ -19263,7 +19508,7 @@
         <v>24</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D54" s="31">
         <f>+VLOOKUP($C54,'R1'!$C$3:$H$22,5,)</f>
@@ -19301,12 +19546,15 @@
         <f>+VLOOKUP($C54,'R9'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="M54" s="31"/>
+      <c r="M54" s="31">
+        <f>+VLOOKUP($C54,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N54" s="31"/>
       <c r="O54" s="31"/>
       <c r="P54" s="31"/>
       <c r="Q54" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
     </row>
@@ -19315,7 +19563,7 @@
         <v>20</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D55" s="29">
         <f>+VLOOKUP($C55,'R1'!$C$3:$H$22,5,)</f>
@@ -19353,12 +19601,15 @@
         <f>+VLOOKUP($C55,'R9'!$C$3:$H$22,5,)</f>
         <v>26</v>
       </c>
-      <c r="M55" s="29"/>
+      <c r="M55" s="29">
+        <f>+VLOOKUP($C55,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N55" s="29"/>
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
       <c r="Q55" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
     </row>
@@ -19367,7 +19618,7 @@
         <v>30</v>
       </c>
       <c r="C56" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D56" s="82">
         <f>+VLOOKUP($C56,'R1'!$C$3:$H$22,5,)</f>
@@ -19405,12 +19656,15 @@
         <f>+VLOOKUP($C56,'R9'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="M56" s="82"/>
+      <c r="M56" s="82">
+        <f>+VLOOKUP($C56,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N56" s="82"/>
       <c r="O56" s="82"/>
       <c r="P56" s="82"/>
       <c r="Q56" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -19457,12 +19711,15 @@
         <f>+VLOOKUP($C57,'R9'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="M57" s="32"/>
+      <c r="M57" s="32">
+        <f>+VLOOKUP($C57,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N57" s="32"/>
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
     </row>
@@ -19471,7 +19728,7 @@
         <v>26</v>
       </c>
       <c r="C58" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D58" s="32">
         <f>+VLOOKUP($C58,'R1'!$C$3:$H$22,5,)</f>
@@ -19509,12 +19766,15 @@
         <f>+VLOOKUP($C58,'R9'!$C$3:$H$22,5,)</f>
         <v>24</v>
       </c>
-      <c r="M58" s="32"/>
+      <c r="M58" s="32">
+        <f>+VLOOKUP($C58,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
       <c r="Q58" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
     </row>
@@ -19523,7 +19783,7 @@
         <v>32</v>
       </c>
       <c r="C59" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D59" s="33">
         <f>+VLOOKUP($C59,'R1'!$C$3:$H$22,5,)</f>
@@ -19561,12 +19821,15 @@
         <f>+VLOOKUP($C59,'R9'!$C$3:$H$22,5,)</f>
         <v>14</v>
       </c>
-      <c r="M59" s="33"/>
+      <c r="M59" s="33">
+        <f>+VLOOKUP($C59,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N59" s="33"/>
       <c r="O59" s="33"/>
       <c r="P59" s="33"/>
       <c r="Q59" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
     </row>
@@ -19613,12 +19876,15 @@
         <f>+VLOOKUP($C60,'R9'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="M60" s="35"/>
+      <c r="M60" s="35">
+        <f>+VLOOKUP($C60,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N60" s="35"/>
       <c r="O60" s="35"/>
       <c r="P60" s="35"/>
       <c r="Q60" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
     </row>
@@ -19627,7 +19893,7 @@
         <v>32</v>
       </c>
       <c r="C61" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D61" s="33">
         <f>+VLOOKUP($C61,'R1'!$C$3:$H$22,5,)</f>
@@ -19665,12 +19931,15 @@
         <f>+VLOOKUP($C61,'R9'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="M61" s="33"/>
+      <c r="M61" s="33">
+        <f>+VLOOKUP($C61,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N61" s="33"/>
       <c r="O61" s="33"/>
       <c r="P61" s="33"/>
       <c r="Q61" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
     </row>
@@ -19717,12 +19986,15 @@
         <f>+VLOOKUP($C62,'R9'!$C$3:$H$22,5,)</f>
         <v>20</v>
       </c>
-      <c r="M62" s="82"/>
+      <c r="M62" s="82">
+        <f>+VLOOKUP($C62,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N62" s="82"/>
       <c r="O62" s="82"/>
       <c r="P62" s="82"/>
       <c r="Q62" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
     </row>
@@ -19731,7 +20003,7 @@
         <v>24</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D63" s="31">
         <f>+VLOOKUP($C63,'R1'!$C$3:$H$22,5,)</f>
@@ -19763,12 +20035,15 @@
         <f>+VLOOKUP($C63,'R9'!$C$3:$H$22,5,)</f>
         <v>33</v>
       </c>
-      <c r="M63" s="31"/>
+      <c r="M63" s="31">
+        <f>+VLOOKUP($C63,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N63" s="31"/>
       <c r="O63" s="31"/>
       <c r="P63" s="31"/>
       <c r="Q63" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
     </row>
@@ -19777,7 +20052,7 @@
         <v>22</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D64" s="30">
         <f>+VLOOKUP($C64,'R1'!$C$3:$H$22,5,)</f>
@@ -19815,12 +20090,15 @@
         <f>+VLOOKUP($C64,'R9'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="M64" s="30"/>
+      <c r="M64" s="30">
+        <f>+VLOOKUP($C64,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N64" s="30"/>
       <c r="O64" s="30"/>
       <c r="P64" s="30"/>
       <c r="Q64" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
     </row>
@@ -19867,12 +20145,15 @@
         <f>+VLOOKUP($C65,'R9'!$C$3:$H$22,5,)</f>
         <v>10</v>
       </c>
-      <c r="M65" s="34"/>
+      <c r="M65" s="34">
+        <f>+VLOOKUP($C65,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N65" s="34"/>
       <c r="O65" s="34"/>
       <c r="P65" s="34"/>
       <c r="Q65" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
     </row>
@@ -19881,7 +20162,7 @@
         <v>28</v>
       </c>
       <c r="C66" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D66" s="28">
         <f>+VLOOKUP($C66,'R1'!$C$3:$H$22,5,)</f>
@@ -19919,12 +20200,15 @@
         <f>+VLOOKUP($C66,'R9'!$C$3:$H$22,5,)</f>
         <v>2</v>
       </c>
-      <c r="M66" s="28"/>
+      <c r="M66" s="28">
+        <f>+VLOOKUP($C66,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N66" s="28"/>
       <c r="O66" s="28"/>
       <c r="P66" s="28"/>
       <c r="Q66" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
@@ -19971,12 +20255,15 @@
         <f>+VLOOKUP($C67,'R9'!$C$3:$H$22,5,)</f>
         <v>10</v>
       </c>
-      <c r="M67" s="28"/>
+      <c r="M67" s="28">
+        <f>+VLOOKUP($C67,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N67" s="28"/>
       <c r="O67" s="28"/>
       <c r="P67" s="28"/>
       <c r="Q67" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
@@ -20023,12 +20310,15 @@
         <f>+VLOOKUP($C68,'R9'!$C$3:$H$22,5,)</f>
         <v>14</v>
       </c>
-      <c r="M68" s="35"/>
+      <c r="M68" s="35">
+        <f>+VLOOKUP($C68,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N68" s="35"/>
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
       <c r="Q68" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -20037,7 +20327,7 @@
         <v>34</v>
       </c>
       <c r="C69" s="73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D69" s="279">
         <f>+VLOOKUP($C69,'R1'!$C$3:$H$22,5,)</f>
@@ -20075,19 +20365,22 @@
         <f>+VLOOKUP($C69,'R9'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="M69" s="279"/>
+      <c r="M69" s="279">
+        <f>+VLOOKUP($C69,'R10'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="N69" s="279"/>
       <c r="O69" s="279"/>
       <c r="P69" s="279"/>
       <c r="Q69" s="279">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-37</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B3:Q23" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:Q23">
-      <sortCondition descending="1" ref="L3:L23"/>
+      <sortCondition descending="1" ref="Q3:Q23"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
@@ -20115,13 +20408,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -20133,19 +20426,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>117</v>
       </c>
       <c r="I2" s="272" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="303" t="s">
+      <c r="J2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="303" t="s">
+      <c r="K2" s="408" t="s">
         <v>120</v>
       </c>
     </row>
@@ -20220,7 +20513,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="51" t="s">
         <v>22</v>
@@ -20253,7 +20546,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C6" s="52" t="s">
         <v>24</v>
@@ -20352,7 +20645,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" s="53" t="s">
         <v>26</v>
@@ -20385,7 +20678,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="52" t="s">
         <v>24</v>
@@ -20418,7 +20711,7 @@
         <v>23</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>20</v>
@@ -20451,7 +20744,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C12" s="77" t="s">
         <v>30</v>
@@ -20550,7 +20843,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="49" t="s">
         <v>28</v>
@@ -20583,7 +20876,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="54" t="s">
         <v>32</v>
@@ -20616,7 +20909,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="55" t="s">
         <v>34</v>
@@ -20715,7 +21008,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="54" t="s">
         <v>32</v>
@@ -20832,28 +21125,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="303" t="s">
+      <c r="D2" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="408" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="303" t="s">
+      <c r="F2" s="408" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>169</v>
       </c>
       <c r="I2" s="273" t="s">
@@ -20868,7 +21161,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="274" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" s="274" t="s">
         <v>30</v>
@@ -20895,7 +21188,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>22</v>
@@ -20922,7 +21215,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>24</v>
@@ -21003,7 +21296,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>26</v>
@@ -21111,7 +21404,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>24</v>
@@ -21192,7 +21485,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="54" t="s">
         <v>32</v>
@@ -21246,7 +21539,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="50" t="s">
         <v>20</v>
@@ -21273,7 +21566,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="54" t="s">
         <v>32</v>
@@ -21327,7 +21620,7 @@
         <v>188</v>
       </c>
       <c r="C20" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D20" s="49" t="s">
         <v>28</v>
@@ -21354,7 +21647,7 @@
         <v>188</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="55" t="s">
         <v>34</v>
@@ -21430,13 +21723,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -21448,19 +21741,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>117</v>
       </c>
       <c r="I2" s="272" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="303" t="s">
+      <c r="J2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="303" t="s">
+      <c r="K2" s="408" t="s">
         <v>120</v>
       </c>
     </row>
@@ -21568,7 +21861,7 @@
         <v>23</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="50" t="s">
         <v>20</v>
@@ -21601,7 +21894,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="49" t="s">
         <v>28</v>
@@ -21634,7 +21927,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>24</v>
@@ -21669,7 +21962,7 @@
         <v>18</v>
       </c>
       <c r="B9" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="52" t="s">
         <v>24</v>
@@ -21702,7 +21995,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="53" t="s">
         <v>26</v>
@@ -21735,7 +22028,7 @@
         <v>55</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>22</v>
@@ -21869,7 +22162,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="54" t="s">
         <v>32</v>
@@ -21968,7 +22261,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C18" s="77" t="s">
         <v>30</v>
@@ -22001,7 +22294,7 @@
         <v>99</v>
       </c>
       <c r="B19" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="54" t="s">
         <v>32</v>
@@ -22100,7 +22393,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="73" t="s">
         <v>34</v>
@@ -22143,7 +22436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -22154,28 +22447,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="303" t="s">
+      <c r="D2" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="408" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="303" t="s">
+      <c r="F2" s="408" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>169</v>
       </c>
       <c r="I2" s="273" t="s">
@@ -22244,7 +22537,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="50" t="s">
         <v>20</v>
@@ -22271,7 +22564,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>26</v>
@@ -22298,7 +22591,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>24</v>
@@ -22379,13 +22672,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="54" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="67" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F10" s="112">
         <v>59</v>
@@ -22397,7 +22690,7 @@
         <v>4</v>
       </c>
       <c r="I10" s="112" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -22408,13 +22701,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="49" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="F11" s="106">
         <v>59</v>
@@ -22441,7 +22734,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F12" s="106">
         <v>59</v>
@@ -22468,7 +22761,7 @@
         <v>36</v>
       </c>
       <c r="E13" s="66" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F13" s="118">
         <v>59</v>
@@ -22495,7 +22788,7 @@
         <v>34</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F14" s="114">
         <v>59</v>
@@ -22516,13 +22809,13 @@
         <v>188</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F15" s="104">
         <v>42</v>
@@ -22534,7 +22827,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="104" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -22551,7 +22844,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="F16" s="108">
         <v>7</v>
@@ -22563,7 +22856,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="108" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -22580,7 +22873,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="66" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="F17" s="118">
         <v>6</v>
@@ -22592,7 +22885,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="118" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -22603,13 +22896,13 @@
         <v>188</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="54" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F18" s="112">
         <v>5</v>
@@ -22621,7 +22914,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="112" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -22632,13 +22925,13 @@
         <v>188</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="F19" s="114">
         <v>5</v>
@@ -22650,7 +22943,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="114" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -22661,7 +22954,7 @@
         <v>393</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D20" s="51" t="s">
         <v>22</v>
@@ -22679,7 +22972,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="277" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -22690,7 +22983,7 @@
         <v>188</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D21" s="77" t="s">
         <v>30</v>
@@ -22704,7 +22997,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="110" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -22729,7 +23022,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="70" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -22744,20 +23037,21 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD1F733-CB6E-FD43-A2A8-D351F8B80081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="261" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="238" t="s">
         <v>112</v>
       </c>
@@ -22767,13 +23061,13 @@
       <c r="C2" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="304" t="s">
+      <c r="D2" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="304" t="s">
+      <c r="E2" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="305" t="s">
+      <c r="F2" s="304" t="s">
         <v>115</v>
       </c>
       <c r="G2" s="238" t="s">
@@ -22782,7 +23076,7 @@
       <c r="H2" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="I2" s="305" t="s">
+      <c r="I2" s="304" t="s">
         <v>118</v>
       </c>
       <c r="J2" s="238" t="s">
@@ -22793,393 +23087,558 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="306">
+      <c r="A3" s="305">
         <v>44</v>
       </c>
-      <c r="B3" s="307" t="s">
+      <c r="B3" s="306" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="307" t="s">
+      <c r="C3" s="306" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="308"/>
-      <c r="E3" s="308"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="311"/>
-      <c r="I3" s="312"/>
-      <c r="J3" s="313"/>
-      <c r="K3" s="311"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="308"/>
+      <c r="G3" s="309" t="s">
+        <v>727</v>
+      </c>
+      <c r="H3" s="310" t="s">
+        <v>728</v>
+      </c>
+      <c r="I3" s="311" t="s">
+        <v>729</v>
+      </c>
+      <c r="J3" s="312">
+        <v>15</v>
+      </c>
+      <c r="K3" s="310"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="306">
+      <c r="A4" s="313">
+        <v>33</v>
+      </c>
+      <c r="B4" s="314" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="314" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="315"/>
+      <c r="E4" s="315"/>
+      <c r="F4" s="316"/>
+      <c r="G4" s="317" t="s">
+        <v>730</v>
+      </c>
+      <c r="H4" s="318" t="s">
+        <v>731</v>
+      </c>
+      <c r="I4" s="319" t="s">
+        <v>732</v>
+      </c>
+      <c r="J4" s="320">
+        <v>14</v>
+      </c>
+      <c r="K4" s="318"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="305">
         <v>77</v>
       </c>
-      <c r="B4" s="307" t="s">
+      <c r="B5" s="306" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="307" t="s">
+      <c r="C5" s="306" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="308"/>
-      <c r="E4" s="308"/>
-      <c r="F4" s="309"/>
-      <c r="G4" s="310"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="312"/>
-      <c r="J4" s="313"/>
-      <c r="K4" s="311"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="314">
+      <c r="D5" s="307"/>
+      <c r="E5" s="307"/>
+      <c r="F5" s="308"/>
+      <c r="G5" s="309" t="s">
+        <v>724</v>
+      </c>
+      <c r="H5" s="310" t="s">
+        <v>725</v>
+      </c>
+      <c r="I5" s="311" t="s">
+        <v>726</v>
+      </c>
+      <c r="J5" s="312">
+        <v>11</v>
+      </c>
+      <c r="K5" s="310"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="329">
+        <v>11</v>
+      </c>
+      <c r="B6" s="330" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="315" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="315" t="s">
+      <c r="C6" s="330" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="332"/>
+      <c r="G6" s="333" t="s">
+        <v>739</v>
+      </c>
+      <c r="H6" s="334" t="s">
+        <v>740</v>
+      </c>
+      <c r="I6" s="335" t="s">
+        <v>741</v>
+      </c>
+      <c r="J6" s="336">
+        <v>12</v>
+      </c>
+      <c r="K6" s="334"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="337">
+        <v>3</v>
+      </c>
+      <c r="B7" s="338" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="338" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="339"/>
+      <c r="E7" s="339"/>
+      <c r="F7" s="340"/>
+      <c r="G7" s="341" t="s">
+        <v>749</v>
+      </c>
+      <c r="H7" s="342" t="s">
+        <v>750</v>
+      </c>
+      <c r="I7" s="343" t="s">
+        <v>751</v>
+      </c>
+      <c r="J7" s="344">
+        <v>11</v>
+      </c>
+      <c r="K7" s="342"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="345">
+        <v>55</v>
+      </c>
+      <c r="B8" s="346" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="346" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="347"/>
+      <c r="E8" s="347"/>
+      <c r="F8" s="348"/>
+      <c r="G8" s="349" t="s">
+        <v>744</v>
+      </c>
+      <c r="H8" s="350" t="s">
+        <v>745</v>
+      </c>
+      <c r="I8" s="351" t="s">
+        <v>746</v>
+      </c>
+      <c r="J8" s="352">
+        <v>10</v>
+      </c>
+      <c r="K8" s="350"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="337">
+        <v>31</v>
+      </c>
+      <c r="B9" s="338" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="338" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="339"/>
+      <c r="E9" s="339"/>
+      <c r="F9" s="340"/>
+      <c r="G9" s="341" t="s">
+        <v>759</v>
+      </c>
+      <c r="H9" s="342" t="s">
+        <v>760</v>
+      </c>
+      <c r="I9" s="343" t="s">
+        <v>761</v>
+      </c>
+      <c r="J9" s="344">
+        <v>7</v>
+      </c>
+      <c r="K9" s="342"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="345">
+        <v>4</v>
+      </c>
+      <c r="B10" s="346" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="346" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="347"/>
+      <c r="E10" s="347"/>
+      <c r="F10" s="348"/>
+      <c r="G10" s="349" t="s">
+        <v>733</v>
+      </c>
+      <c r="H10" s="350" t="s">
+        <v>734</v>
+      </c>
+      <c r="I10" s="351" t="s">
+        <v>735</v>
+      </c>
+      <c r="J10" s="352">
+        <v>6</v>
+      </c>
+      <c r="K10" s="350"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="353">
+        <v>10</v>
+      </c>
+      <c r="B11" s="354" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="354" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="355"/>
+      <c r="E11" s="355"/>
+      <c r="F11" s="356"/>
+      <c r="G11" s="357" t="s">
+        <v>754</v>
+      </c>
+      <c r="H11" s="358" t="s">
+        <v>755</v>
+      </c>
+      <c r="I11" s="359" t="s">
+        <v>756</v>
+      </c>
+      <c r="J11" s="360">
+        <v>5</v>
+      </c>
+      <c r="K11" s="358"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="313">
+        <v>23</v>
+      </c>
+      <c r="B12" s="314" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="316"/>
-      <c r="E5" s="316"/>
-      <c r="F5" s="317"/>
-      <c r="G5" s="318"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="320"/>
-      <c r="J5" s="321"/>
-      <c r="K5" s="319"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="314">
+      <c r="D12" s="315"/>
+      <c r="E12" s="315"/>
+      <c r="F12" s="316"/>
+      <c r="G12" s="317" t="s">
+        <v>736</v>
+      </c>
+      <c r="H12" s="318" t="s">
+        <v>737</v>
+      </c>
+      <c r="I12" s="319" t="s">
+        <v>738</v>
+      </c>
+      <c r="J12" s="320">
+        <v>4</v>
+      </c>
+      <c r="K12" s="318"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="321">
+        <v>16</v>
+      </c>
+      <c r="B13" s="322" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="322" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="323"/>
+      <c r="E13" s="323"/>
+      <c r="F13" s="324"/>
+      <c r="G13" s="325" t="s">
+        <v>742</v>
+      </c>
+      <c r="H13" s="326" t="s">
+        <v>743</v>
+      </c>
+      <c r="I13" s="327" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="328">
+        <v>4</v>
+      </c>
+      <c r="K13" s="326"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="353">
         <v>23</v>
       </c>
-      <c r="B6" s="315" t="s">
+      <c r="B14" s="354" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="354" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="355"/>
+      <c r="E14" s="355"/>
+      <c r="F14" s="356"/>
+      <c r="G14" s="357" t="s">
+        <v>757</v>
+      </c>
+      <c r="H14" s="358" t="s">
+        <v>758</v>
+      </c>
+      <c r="I14" s="359" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" s="360">
+        <v>2</v>
+      </c>
+      <c r="K14" s="358"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="329">
+        <v>18</v>
+      </c>
+      <c r="B15" s="330" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="315" t="s">
+      <c r="C15" s="330" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="331"/>
+      <c r="E15" s="331"/>
+      <c r="F15" s="332"/>
+      <c r="G15" s="333" t="s">
+        <v>747</v>
+      </c>
+      <c r="H15" s="334" t="s">
+        <v>748</v>
+      </c>
+      <c r="I15" s="335" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" s="336">
+        <v>2</v>
+      </c>
+      <c r="K15" s="334"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="377">
+        <v>63</v>
+      </c>
+      <c r="B16" s="378" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="378" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="379"/>
+      <c r="E16" s="379"/>
+      <c r="F16" s="380"/>
+      <c r="G16" s="381" t="s">
+        <v>764</v>
+      </c>
+      <c r="H16" s="382" t="s">
+        <v>765</v>
+      </c>
+      <c r="I16" s="383" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" s="384">
+        <v>4</v>
+      </c>
+      <c r="K16" s="382"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="321">
+        <v>5</v>
+      </c>
+      <c r="B17" s="322" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="322" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="323"/>
+      <c r="E17" s="323"/>
+      <c r="F17" s="324"/>
+      <c r="G17" s="325" t="s">
+        <v>752</v>
+      </c>
+      <c r="H17" s="326" t="s">
+        <v>753</v>
+      </c>
+      <c r="I17" s="327" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" s="328">
+        <v>2</v>
+      </c>
+      <c r="K17" s="326"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="369">
+        <v>8</v>
+      </c>
+      <c r="B18" s="370" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="370" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="371"/>
+      <c r="E18" s="371"/>
+      <c r="F18" s="372"/>
+      <c r="G18" s="373" t="s">
+        <v>762</v>
+      </c>
+      <c r="H18" s="374" t="s">
+        <v>152</v>
+      </c>
+      <c r="I18" s="375" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="376">
+        <v>4</v>
+      </c>
+      <c r="K18" s="374"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="361">
+        <v>99</v>
+      </c>
+      <c r="B19" s="362" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="362" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="363"/>
+      <c r="E19" s="363"/>
+      <c r="F19" s="364"/>
+      <c r="G19" s="365" t="s">
+        <v>766</v>
+      </c>
+      <c r="H19" s="366" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="367" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" s="368">
+        <v>3</v>
+      </c>
+      <c r="K19" s="366"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="369">
         <v>20</v>
       </c>
-      <c r="D6" s="316"/>
-      <c r="E6" s="316"/>
-      <c r="F6" s="317"/>
-      <c r="G6" s="318"/>
-      <c r="H6" s="319"/>
-      <c r="I6" s="320"/>
-      <c r="J6" s="321"/>
-      <c r="K6" s="319"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="322">
-        <v>16</v>
-      </c>
-      <c r="B7" s="323" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="323" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="324"/>
-      <c r="E7" s="324"/>
-      <c r="F7" s="325"/>
-      <c r="G7" s="326"/>
-      <c r="H7" s="327"/>
-      <c r="I7" s="328"/>
-      <c r="J7" s="329"/>
-      <c r="K7" s="327"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="330">
-        <v>11</v>
-      </c>
-      <c r="B8" s="331" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="331" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="332"/>
-      <c r="E8" s="332"/>
-      <c r="F8" s="333"/>
-      <c r="G8" s="334"/>
-      <c r="H8" s="335"/>
-      <c r="I8" s="336"/>
-      <c r="J8" s="337"/>
-      <c r="K8" s="335"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="330">
-        <v>18</v>
-      </c>
-      <c r="B9" s="331" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="331" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="332"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="333"/>
-      <c r="G9" s="334"/>
-      <c r="H9" s="335"/>
-      <c r="I9" s="336"/>
-      <c r="J9" s="337"/>
-      <c r="K9" s="335"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="338">
-        <v>3</v>
-      </c>
-      <c r="B10" s="339" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="339" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="340"/>
-      <c r="E10" s="340"/>
-      <c r="F10" s="341"/>
-      <c r="G10" s="342"/>
-      <c r="H10" s="343"/>
-      <c r="I10" s="344"/>
-      <c r="J10" s="345"/>
-      <c r="K10" s="343"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="346">
-        <v>55</v>
-      </c>
-      <c r="B11" s="347" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="347" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="348"/>
-      <c r="E11" s="348"/>
-      <c r="F11" s="349"/>
-      <c r="G11" s="350"/>
-      <c r="H11" s="351"/>
-      <c r="I11" s="352"/>
-      <c r="J11" s="353"/>
-      <c r="K11" s="351"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="338">
-        <v>31</v>
-      </c>
-      <c r="B12" s="339" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="339" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="340"/>
-      <c r="E12" s="340"/>
-      <c r="F12" s="341"/>
-      <c r="G12" s="342"/>
-      <c r="H12" s="343"/>
-      <c r="I12" s="344"/>
-      <c r="J12" s="345"/>
-      <c r="K12" s="343"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="346">
-        <v>4</v>
-      </c>
-      <c r="B13" s="347" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="347" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="348"/>
-      <c r="E13" s="348"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="350"/>
-      <c r="H13" s="351"/>
-      <c r="I13" s="352"/>
-      <c r="J13" s="353"/>
-      <c r="K13" s="351"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="354">
-        <v>23</v>
-      </c>
-      <c r="B14" s="355" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="355" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="356"/>
-      <c r="E14" s="356"/>
-      <c r="F14" s="357"/>
-      <c r="G14" s="358"/>
-      <c r="H14" s="359"/>
-      <c r="I14" s="360"/>
-      <c r="J14" s="361"/>
-      <c r="K14" s="359"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="362">
+      <c r="B20" s="370" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="370" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="371"/>
+      <c r="E20" s="371"/>
+      <c r="F20" s="372"/>
+      <c r="G20" s="373" t="s">
+        <v>763</v>
+      </c>
+      <c r="H20" s="374" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="375" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" s="376">
+        <v>1</v>
+      </c>
+      <c r="K20" s="374"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="377">
+        <v>6</v>
+      </c>
+      <c r="B21" s="378" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="378" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="379"/>
+      <c r="E21" s="379"/>
+      <c r="F21" s="380"/>
+      <c r="G21" s="381" t="s">
+        <v>768</v>
+      </c>
+      <c r="H21" s="382" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="383" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="384">
+        <v>1</v>
+      </c>
+      <c r="K21" s="382"/>
+    </row>
+    <row r="22" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="412">
         <v>7</v>
       </c>
-      <c r="B15" s="363" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="363" t="s">
+      <c r="B22" s="413" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="413" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="364"/>
-      <c r="E15" s="364"/>
-      <c r="F15" s="365"/>
-      <c r="G15" s="366"/>
-      <c r="H15" s="367"/>
-      <c r="I15" s="368"/>
-      <c r="J15" s="369"/>
-      <c r="K15" s="367"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="322">
-        <v>5</v>
-      </c>
-      <c r="B16" s="323" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="323" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="324"/>
-      <c r="E16" s="324"/>
-      <c r="F16" s="325"/>
-      <c r="G16" s="326"/>
-      <c r="H16" s="327"/>
-      <c r="I16" s="328"/>
-      <c r="J16" s="329"/>
-      <c r="K16" s="327"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="370">
-        <v>8</v>
-      </c>
-      <c r="B17" s="371" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="371" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="372"/>
-      <c r="E17" s="372"/>
-      <c r="F17" s="373"/>
-      <c r="G17" s="374"/>
-      <c r="H17" s="375"/>
-      <c r="I17" s="376"/>
-      <c r="J17" s="377"/>
-      <c r="K17" s="375"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="354">
-        <v>10</v>
-      </c>
-      <c r="B18" s="355" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="355" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="356"/>
-      <c r="E18" s="356"/>
-      <c r="F18" s="357"/>
-      <c r="G18" s="358"/>
-      <c r="H18" s="359"/>
-      <c r="I18" s="360"/>
-      <c r="J18" s="361"/>
-      <c r="K18" s="359"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="362">
-        <v>99</v>
-      </c>
-      <c r="B19" s="363" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="363" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="364"/>
-      <c r="E19" s="364"/>
-      <c r="F19" s="365"/>
-      <c r="G19" s="366"/>
-      <c r="H19" s="367"/>
-      <c r="I19" s="368"/>
-      <c r="J19" s="369"/>
-      <c r="K19" s="367"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="378">
-        <v>63</v>
-      </c>
-      <c r="B20" s="379" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="379" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="380"/>
-      <c r="E20" s="380"/>
-      <c r="F20" s="381"/>
-      <c r="G20" s="382"/>
-      <c r="H20" s="383"/>
-      <c r="I20" s="384"/>
-      <c r="J20" s="385"/>
-      <c r="K20" s="383"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="378">
-        <v>6</v>
-      </c>
-      <c r="B21" s="379" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="379" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="380"/>
-      <c r="E21" s="380"/>
-      <c r="F21" s="381"/>
-      <c r="G21" s="382"/>
-      <c r="H21" s="383"/>
-      <c r="I21" s="384"/>
-      <c r="J21" s="385"/>
-      <c r="K21" s="383"/>
-    </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="386">
-        <v>20</v>
-      </c>
-      <c r="B22" s="387" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="387" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="388"/>
-      <c r="E22" s="388"/>
-      <c r="F22" s="389"/>
-      <c r="G22" s="390"/>
-      <c r="H22" s="391"/>
-      <c r="I22" s="392"/>
-      <c r="J22" s="393"/>
-      <c r="K22" s="391"/>
+      <c r="D22" s="414"/>
+      <c r="E22" s="414"/>
+      <c r="F22" s="415"/>
+      <c r="G22" s="416" t="s">
+        <v>767</v>
+      </c>
+      <c r="H22" s="417" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="418" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" s="419">
+        <v>1</v>
+      </c>
+      <c r="K22" s="417"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000017000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
+      <sortCondition ref="I2:I22"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7110D158-9195-7748-B27F-F9A178331528}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23188,11 +23647,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="28.1640625" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" style="261" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="238" t="s">
         <v>112</v>
       </c>
@@ -23222,384 +23681,384 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="306">
+      <c r="A3" s="305">
         <v>44</v>
       </c>
-      <c r="B3" s="307">
+      <c r="B3" s="306">
         <v>1</v>
       </c>
-      <c r="C3" s="307" t="s">
+      <c r="C3" s="306" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="307" t="s">
+      <c r="D3" s="306" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="394"/>
+      <c r="E3" s="385"/>
       <c r="F3" s="232"/>
       <c r="G3" s="232"/>
       <c r="H3" s="232"/>
       <c r="I3" s="232"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="306">
+      <c r="A4" s="305">
         <v>77</v>
       </c>
-      <c r="B4" s="307">
+      <c r="B4" s="306">
         <v>2</v>
       </c>
-      <c r="C4" s="307" t="s">
+      <c r="C4" s="306" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="307" t="s">
+      <c r="D4" s="306" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="394"/>
+      <c r="E4" s="385"/>
       <c r="F4" s="232"/>
       <c r="G4" s="232"/>
       <c r="H4" s="232"/>
       <c r="I4" s="232"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="314">
+      <c r="A5" s="313">
         <v>23</v>
       </c>
-      <c r="B5" s="315">
+      <c r="B5" s="314">
         <v>3</v>
       </c>
-      <c r="C5" s="315" t="s">
+      <c r="C5" s="314" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="314" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="386"/>
+      <c r="F5" s="387"/>
+      <c r="G5" s="387"/>
+      <c r="H5" s="387"/>
+      <c r="I5" s="387"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="337">
+        <v>3</v>
+      </c>
+      <c r="B6" s="338">
+        <v>4</v>
+      </c>
+      <c r="C6" s="338" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="338" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="388"/>
+      <c r="F6" s="389"/>
+      <c r="G6" s="389"/>
+      <c r="H6" s="389"/>
+      <c r="I6" s="389"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="329">
+        <v>11</v>
+      </c>
+      <c r="B7" s="330">
+        <v>5</v>
+      </c>
+      <c r="C7" s="330" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="330" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="390"/>
+      <c r="F7" s="391"/>
+      <c r="G7" s="391"/>
+      <c r="H7" s="391"/>
+      <c r="I7" s="391"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="345">
+        <v>4</v>
+      </c>
+      <c r="B8" s="346">
+        <v>6</v>
+      </c>
+      <c r="C8" s="346" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="346" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="392"/>
+      <c r="F8" s="393"/>
+      <c r="G8" s="393"/>
+      <c r="H8" s="393"/>
+      <c r="I8" s="393"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="353">
+        <v>23</v>
+      </c>
+      <c r="B9" s="354">
+        <v>7</v>
+      </c>
+      <c r="C9" s="354" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="354" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="394"/>
+      <c r="F9" s="395"/>
+      <c r="G9" s="395"/>
+      <c r="H9" s="395"/>
+      <c r="I9" s="395"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="361">
+        <v>7</v>
+      </c>
+      <c r="B10" s="362">
+        <v>8</v>
+      </c>
+      <c r="C10" s="362" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="362" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="396"/>
+      <c r="F10" s="397"/>
+      <c r="G10" s="397"/>
+      <c r="H10" s="397"/>
+      <c r="I10" s="397"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="321">
+        <v>16</v>
+      </c>
+      <c r="B11" s="322">
+        <v>9</v>
+      </c>
+      <c r="C11" s="322" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="322" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="398"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="399"/>
+      <c r="H11" s="399"/>
+      <c r="I11" s="399"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="321">
+        <v>5</v>
+      </c>
+      <c r="B12" s="322">
+        <v>10</v>
+      </c>
+      <c r="C12" s="322" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="322" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="398"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="399"/>
+      <c r="H12" s="399"/>
+      <c r="I12" s="399"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="377">
+        <v>63</v>
+      </c>
+      <c r="B13" s="378">
+        <v>11</v>
+      </c>
+      <c r="C13" s="378" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="378" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="400"/>
+      <c r="F13" s="401"/>
+      <c r="G13" s="401"/>
+      <c r="H13" s="401"/>
+      <c r="I13" s="401"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="369">
+        <v>8</v>
+      </c>
+      <c r="B14" s="370">
+        <v>12</v>
+      </c>
+      <c r="C14" s="370" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="370" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="402"/>
+      <c r="F14" s="403"/>
+      <c r="G14" s="403"/>
+      <c r="H14" s="403"/>
+      <c r="I14" s="403"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="329">
+        <v>18</v>
+      </c>
+      <c r="B15" s="330" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="330" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="315" t="s">
+      <c r="D15" s="330" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="390"/>
+      <c r="F15" s="391"/>
+      <c r="G15" s="391"/>
+      <c r="H15" s="391"/>
+      <c r="I15" s="391"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="337">
+        <v>31</v>
+      </c>
+      <c r="B16" s="338" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="338" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="338" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="388"/>
+      <c r="F16" s="389"/>
+      <c r="G16" s="389"/>
+      <c r="H16" s="389"/>
+      <c r="I16" s="389"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="377">
+        <v>6</v>
+      </c>
+      <c r="B17" s="378" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="378" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="378" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="400"/>
+      <c r="F17" s="401"/>
+      <c r="G17" s="401"/>
+      <c r="H17" s="401"/>
+      <c r="I17" s="401"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="361">
+        <v>99</v>
+      </c>
+      <c r="B18" s="362" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="362" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="362" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="396"/>
+      <c r="F18" s="397"/>
+      <c r="G18" s="397"/>
+      <c r="H18" s="397"/>
+      <c r="I18" s="397"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="369">
         <v>20</v>
       </c>
-      <c r="E5" s="395"/>
-      <c r="F5" s="396"/>
-      <c r="G5" s="396"/>
-      <c r="H5" s="396"/>
-      <c r="I5" s="396"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="338">
-        <v>3</v>
-      </c>
-      <c r="B6" s="339">
-        <v>4</v>
-      </c>
-      <c r="C6" s="339" t="s">
+      <c r="B19" s="370" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="370" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="370" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="402"/>
+      <c r="F19" s="403"/>
+      <c r="G19" s="403"/>
+      <c r="H19" s="403"/>
+      <c r="I19" s="403"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="345">
+        <v>55</v>
+      </c>
+      <c r="B20" s="346" t="s">
+        <v>393</v>
+      </c>
+      <c r="C20" s="346" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="346" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="392"/>
+      <c r="F20" s="393"/>
+      <c r="G20" s="393"/>
+      <c r="H20" s="393"/>
+      <c r="I20" s="393"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="353">
+        <v>10</v>
+      </c>
+      <c r="B21" s="354" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="354" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="354" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="394"/>
+      <c r="F21" s="395"/>
+      <c r="G21" s="395"/>
+      <c r="H21" s="395"/>
+      <c r="I21" s="395"/>
+    </row>
+    <row r="22" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="404">
         <v>33</v>
       </c>
-      <c r="D6" s="339" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="397"/>
-      <c r="F6" s="398"/>
-      <c r="G6" s="398"/>
-      <c r="H6" s="398"/>
-      <c r="I6" s="398"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="330">
-        <v>11</v>
-      </c>
-      <c r="B7" s="331">
-        <v>5</v>
-      </c>
-      <c r="C7" s="331" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="331" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="399"/>
-      <c r="F7" s="400"/>
-      <c r="G7" s="400"/>
-      <c r="H7" s="400"/>
-      <c r="I7" s="400"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="346">
-        <v>4</v>
-      </c>
-      <c r="B8" s="347">
-        <v>6</v>
-      </c>
-      <c r="C8" s="347" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="347" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="401"/>
-      <c r="F8" s="402"/>
-      <c r="G8" s="402"/>
-      <c r="H8" s="402"/>
-      <c r="I8" s="402"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="354">
-        <v>23</v>
-      </c>
-      <c r="B9" s="355">
-        <v>7</v>
-      </c>
-      <c r="C9" s="355" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="355" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="403"/>
-      <c r="F9" s="404"/>
-      <c r="G9" s="404"/>
-      <c r="H9" s="404"/>
-      <c r="I9" s="404"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="362">
-        <v>7</v>
-      </c>
-      <c r="B10" s="363">
-        <v>8</v>
-      </c>
-      <c r="C10" s="363" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="363" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="405"/>
-      <c r="F10" s="406"/>
-      <c r="G10" s="406"/>
-      <c r="H10" s="406"/>
-      <c r="I10" s="406"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="322">
-        <v>16</v>
-      </c>
-      <c r="B11" s="323">
-        <v>9</v>
-      </c>
-      <c r="C11" s="323" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="323" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="407"/>
-      <c r="F11" s="408"/>
-      <c r="G11" s="408"/>
-      <c r="H11" s="408"/>
-      <c r="I11" s="408"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="322">
-        <v>5</v>
-      </c>
-      <c r="B12" s="323">
-        <v>10</v>
-      </c>
-      <c r="C12" s="323" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="323" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="407"/>
-      <c r="F12" s="408"/>
-      <c r="G12" s="408"/>
-      <c r="H12" s="408"/>
-      <c r="I12" s="408"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="378">
-        <v>63</v>
-      </c>
-      <c r="B13" s="379">
-        <v>11</v>
-      </c>
-      <c r="C13" s="379" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="379" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="409"/>
-      <c r="F13" s="410"/>
-      <c r="G13" s="410"/>
-      <c r="H13" s="410"/>
-      <c r="I13" s="410"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="370">
-        <v>8</v>
-      </c>
-      <c r="B14" s="371">
-        <v>12</v>
-      </c>
-      <c r="C14" s="371" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="371" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="411"/>
-      <c r="F14" s="412"/>
-      <c r="G14" s="412"/>
-      <c r="H14" s="412"/>
-      <c r="I14" s="412"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="330">
-        <v>18</v>
-      </c>
-      <c r="B15" s="331" t="s">
+      <c r="B22" s="405" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="331" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="331" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="399"/>
-      <c r="F15" s="400"/>
-      <c r="G15" s="400"/>
-      <c r="H15" s="400"/>
-      <c r="I15" s="400"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="338">
-        <v>31</v>
-      </c>
-      <c r="B16" s="339" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="339" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="339" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="397"/>
-      <c r="F16" s="398"/>
-      <c r="G16" s="398"/>
-      <c r="H16" s="398"/>
-      <c r="I16" s="398"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="378">
-        <v>6</v>
-      </c>
-      <c r="B17" s="379" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="379" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="379" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="409"/>
-      <c r="F17" s="410"/>
-      <c r="G17" s="410"/>
-      <c r="H17" s="410"/>
-      <c r="I17" s="410"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="362">
-        <v>99</v>
-      </c>
-      <c r="B18" s="363" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="363" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="363" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="405"/>
-      <c r="F18" s="406"/>
-      <c r="G18" s="406"/>
-      <c r="H18" s="406"/>
-      <c r="I18" s="406"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="370">
+      <c r="C22" s="405" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="405" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="371" t="s">
-        <v>188</v>
-      </c>
-      <c r="C19" s="371" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="371" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="411"/>
-      <c r="F19" s="412"/>
-      <c r="G19" s="412"/>
-      <c r="H19" s="412"/>
-      <c r="I19" s="412"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="346">
-        <v>55</v>
-      </c>
-      <c r="B20" s="347" t="s">
-        <v>393</v>
-      </c>
-      <c r="C20" s="347" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="347" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="401"/>
-      <c r="F20" s="402"/>
-      <c r="G20" s="402"/>
-      <c r="H20" s="402"/>
-      <c r="I20" s="402"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="354">
-        <v>10</v>
-      </c>
-      <c r="B21" s="355" t="s">
-        <v>188</v>
-      </c>
-      <c r="C21" s="355" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="355" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="403"/>
-      <c r="F21" s="404"/>
-      <c r="G21" s="404"/>
-      <c r="H21" s="404"/>
-      <c r="I21" s="404"/>
-    </row>
-    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="413">
-        <v>33</v>
-      </c>
-      <c r="B22" s="414" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="414" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="414" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="415"/>
-      <c r="F22" s="416"/>
-      <c r="G22" s="416"/>
-      <c r="H22" s="416"/>
-      <c r="I22" s="416"/>
+      <c r="E22" s="406"/>
+      <c r="F22" s="407"/>
+      <c r="G22" s="407"/>
+      <c r="H22" s="407"/>
+      <c r="I22" s="407"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23619,20 +24078,20 @@
   <sheetData>
     <row r="2" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="417" t="s">
+      <c r="B3" s="409" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="418"/>
-      <c r="D3" s="418"/>
-      <c r="E3" s="418"/>
-      <c r="F3" s="418"/>
-      <c r="G3" s="419"/>
-      <c r="J3" s="417" t="s">
+      <c r="C3" s="410"/>
+      <c r="D3" s="410"/>
+      <c r="E3" s="410"/>
+      <c r="F3" s="410"/>
+      <c r="G3" s="411"/>
+      <c r="J3" s="409" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="418"/>
-      <c r="L3" s="418"/>
-      <c r="M3" s="419"/>
+      <c r="K3" s="410"/>
+      <c r="L3" s="410"/>
+      <c r="M3" s="411"/>
     </row>
     <row r="4" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="250" t="s">
@@ -23653,7 +24112,7 @@
       <c r="G4" s="251" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="303" t="s">
+      <c r="J4" s="408" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="273" t="s">
@@ -23662,7 +24121,7 @@
       <c r="L4" s="273" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="303" t="s">
+      <c r="M4" s="408" t="s">
         <v>69</v>
       </c>
     </row>
@@ -23716,7 +24175,7 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="300"/>
       <c r="D8" s="300"/>
@@ -23732,7 +24191,7 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="257"/>
       <c r="D9" s="257"/>
@@ -23748,7 +24207,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C10" s="257"/>
       <c r="D10" s="257"/>
@@ -23780,7 +24239,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="257"/>
       <c r="D12" s="300"/>
@@ -23796,7 +24255,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="300"/>
       <c r="D13" s="300"/>
@@ -23828,7 +24287,7 @@
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C15" s="257"/>
       <c r="D15" s="257"/>
@@ -23848,7 +24307,7 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="300"/>
       <c r="D17" s="300"/>
@@ -23858,7 +24317,7 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="300"/>
       <c r="D18" s="300"/>
@@ -23868,7 +24327,7 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C19" s="257"/>
       <c r="D19" s="257"/>
@@ -23888,7 +24347,7 @@
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="300"/>
       <c r="D21" s="300"/>
@@ -23928,20 +24387,20 @@
     </row>
     <row r="25" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="417" t="s">
+      <c r="B26" s="409" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="418"/>
-      <c r="D26" s="418"/>
-      <c r="E26" s="418"/>
-      <c r="F26" s="418"/>
-      <c r="G26" s="419"/>
-      <c r="J26" s="417" t="s">
+      <c r="C26" s="410"/>
+      <c r="D26" s="410"/>
+      <c r="E26" s="410"/>
+      <c r="F26" s="410"/>
+      <c r="G26" s="411"/>
+      <c r="J26" s="409" t="s">
         <v>72</v>
       </c>
-      <c r="K26" s="418"/>
-      <c r="L26" s="418"/>
-      <c r="M26" s="419"/>
+      <c r="K26" s="410"/>
+      <c r="L26" s="410"/>
+      <c r="M26" s="411"/>
     </row>
     <row r="27" spans="2:13" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="250" t="s">
@@ -23962,7 +24421,7 @@
       <c r="G27" s="251" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="303" t="s">
+      <c r="J27" s="408" t="s">
         <v>0</v>
       </c>
       <c r="K27" s="273" t="s">
@@ -23971,7 +24430,7 @@
       <c r="L27" s="273" t="s">
         <v>68</v>
       </c>
-      <c r="M27" s="303" t="s">
+      <c r="M27" s="408" t="s">
         <v>69</v>
       </c>
     </row>
@@ -24025,7 +24484,7 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" s="300"/>
       <c r="D31" s="300"/>
@@ -24041,7 +24500,7 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" s="257"/>
       <c r="D32" s="257"/>
@@ -24057,7 +24516,7 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C33" s="300"/>
       <c r="D33" s="300"/>
@@ -24089,7 +24548,7 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35" s="257"/>
       <c r="D35" s="257"/>
@@ -24105,7 +24564,7 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" s="257"/>
       <c r="D36" s="300"/>
@@ -24137,7 +24596,7 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C38" s="257"/>
       <c r="D38" s="257"/>
@@ -24157,7 +24616,7 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" s="300"/>
       <c r="D40" s="300"/>
@@ -24167,7 +24626,7 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="300"/>
       <c r="D41" s="300"/>
@@ -24177,7 +24636,7 @@
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C42" s="300"/>
       <c r="D42" s="300"/>
@@ -24197,7 +24656,7 @@
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C44" s="300"/>
       <c r="D44" s="300"/>
@@ -24259,69 +24718,68 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="261" customWidth="1"/>
-    <col min="4" max="8" width="13" style="261" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="10" width="13" style="261" hidden="1" customWidth="1"/>
     <col min="11" max="15" width="13" style="261" customWidth="1"/>
     <col min="16" max="16" width="13" style="261" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="303" t="s">
+      <c r="D2" s="408" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="303" t="s">
+      <c r="E2" s="408" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="303" t="s">
+      <c r="F2" s="408" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="303" t="s">
+      <c r="I2" s="408" t="s">
         <v>80</v>
       </c>
-      <c r="J2" s="303" t="s">
+      <c r="J2" s="408" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="303" t="s">
+      <c r="K2" s="408" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="303" t="s">
+      <c r="L2" s="408" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="303" t="s">
+      <c r="M2" s="408" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="303" t="s">
+      <c r="N2" s="408" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="303" t="s">
+      <c r="O2" s="408" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="303" t="s">
+      <c r="P2" s="408" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="303" t="s">
+      <c r="Q2" s="408" t="s">
         <v>88</v>
       </c>
-      <c r="R2" s="303" t="s">
+      <c r="R2" s="408" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="295" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="296">
         <v>8.1999999999999993</v>
@@ -24361,7 +24819,7 @@
       </c>
       <c r="R3" s="298">
         <f>+VLOOKUP($B3,F!$C$4:$Q$23,15,)/Q3</f>
-        <v>13.962264150943398</v>
+        <v>14.150943396226415</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
@@ -24406,12 +24864,12 @@
       </c>
       <c r="R4" s="124">
         <f>+VLOOKUP($B4,F!$C$4:$Q$23,15,)/Q4</f>
-        <v>14.76923076923077</v>
+        <v>15.23076923076923</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" s="110">
         <v>9.8000000000000007</v>
@@ -24451,7 +24909,7 @@
       </c>
       <c r="R5" s="121">
         <f>+VLOOKUP($B5,F!$C$4:$Q$23,15,)/Q5</f>
-        <v>9.4392523364485967</v>
+        <v>9.9065420560747661</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
@@ -24496,7 +24954,7 @@
       </c>
       <c r="R6" s="172">
         <f>+VLOOKUP($B6,F!$C$4:$Q$23,15,)/Q6</f>
-        <v>11.847133757961783</v>
+        <v>12.32484076433121</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
@@ -24541,12 +24999,12 @@
       </c>
       <c r="R7" s="119">
         <f>+VLOOKUP($B7,F!$C$4:$Q$23,15,)/Q7</f>
-        <v>9.118773946360152</v>
+        <v>9.6551724137931032</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="108">
         <v>14</v>
@@ -24586,12 +25044,12 @@
       </c>
       <c r="R8" s="122">
         <f>+VLOOKUP($B8,F!$C$4:$Q$23,15,)/Q8</f>
-        <v>10.857142857142858</v>
+        <v>11.642857142857142</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" s="104">
         <v>9.5</v>
@@ -24631,7 +25089,7 @@
       </c>
       <c r="R9" s="208">
         <f>+VLOOKUP($B9,F!$C$4:$Q$23,15,)/Q9</f>
-        <v>13.131313131313131</v>
+        <v>14.343434343434343</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -24676,7 +25134,7 @@
       </c>
       <c r="R10" s="173">
         <f>+VLOOKUP($B10,F!$C$4:$Q$23,15,)/Q10</f>
-        <v>6.4179104477611943</v>
+        <v>6.5671641791044779</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
@@ -24721,7 +25179,7 @@
       </c>
       <c r="R11" s="122">
         <f>+VLOOKUP($B11,F!$C$4:$Q$23,15,)/Q11</f>
-        <v>7.3770491803278686</v>
+        <v>7.9508196721311473</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -24766,7 +25224,7 @@
       </c>
       <c r="R12" s="120">
         <f>+VLOOKUP($B12,F!$C$4:$Q$23,15,)/Q12</f>
-        <v>9.9999999999999982</v>
+        <v>10.701754385964911</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -24811,12 +25269,12 @@
       </c>
       <c r="R13" s="172">
         <f>+VLOOKUP($B13,F!$C$4:$Q$23,15,)/Q13</f>
-        <v>8.8775510204081627</v>
+        <v>9.2517006802721085</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="112">
         <v>10</v>
@@ -24856,12 +25314,12 @@
       </c>
       <c r="R14" s="123">
         <f>+VLOOKUP($B14,F!$C$4:$Q$23,15,)/Q14</f>
-        <v>8.9473684210526319</v>
+        <v>9.0526315789473681</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="112">
         <v>7.8</v>
@@ -24901,12 +25359,12 @@
       </c>
       <c r="R15" s="123">
         <f>+VLOOKUP($B15,F!$C$4:$Q$23,15,)/Q15</f>
-        <v>5</v>
+        <v>5.3409090909090908</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="102">
         <v>20.100000000000001</v>
@@ -24946,12 +25404,12 @@
       </c>
       <c r="R16" s="119">
         <f>+VLOOKUP($B16,F!$C$4:$Q$23,15,)/Q16</f>
-        <v>8.2038834951456305</v>
+        <v>8.3980582524271838</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="277">
         <v>15.5</v>
@@ -24991,7 +25449,7 @@
       </c>
       <c r="R17" s="124">
         <f>+VLOOKUP($B17,F!$C$4:$Q$23,15,)/Q17</f>
-        <v>5.7516339869281046</v>
+        <v>6.4052287581699341</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
@@ -25036,7 +25494,7 @@
       </c>
       <c r="R18" s="121">
         <f>+VLOOKUP($B18,F!$C$4:$Q$23,15,)/Q18</f>
-        <v>8.1052631578947363</v>
+        <v>8.3157894736842106</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
@@ -25081,12 +25539,12 @@
       </c>
       <c r="R19" s="173">
         <f>+VLOOKUP($B19,F!$C$4:$Q$23,15,)/Q19</f>
-        <v>7.7966101694915251</v>
+        <v>8.4745762711864394</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="106">
         <v>24.1</v>
@@ -25126,7 +25584,7 @@
       </c>
       <c r="R20" s="209">
         <f>+VLOOKUP($B20,F!$C$4:$Q$23,15,)/Q20</f>
-        <v>3.8461538461538458</v>
+        <v>4.017094017094017</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
@@ -25171,12 +25629,12 @@
       </c>
       <c r="R21" s="209">
         <f>+VLOOKUP($B21,F!$C$4:$Q$23,15,)/Q21</f>
-        <v>2.5365853658536586</v>
+        <v>2.6341463414634148</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="76">
         <v>8</v>
@@ -25216,15 +25674,15 @@
       </c>
       <c r="R22" s="243">
         <f>+VLOOKUP($B22,F!$C$4:$Q$23,15,)/Q22</f>
-        <v>-2.1052631578947367</v>
+        <v>-1.9736842105263157</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="303" t="s">
+      <c r="B24" s="408" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="303" t="s">
+      <c r="C24" s="408" t="s">
         <v>74</v>
       </c>
       <c r="D24" s="273" t="s">
@@ -25254,22 +25712,22 @@
       <c r="L24" s="273" t="s">
         <v>83</v>
       </c>
-      <c r="M24" s="303" t="s">
+      <c r="M24" s="408" t="s">
         <v>84</v>
       </c>
-      <c r="N24" s="303" t="s">
+      <c r="N24" s="408" t="s">
         <v>85</v>
       </c>
-      <c r="O24" s="303" t="s">
+      <c r="O24" s="408" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="303" t="s">
+      <c r="P24" s="408" t="s">
         <v>87</v>
       </c>
-      <c r="Q24" s="303" t="s">
+      <c r="Q24" s="408" t="s">
         <v>88</v>
       </c>
-      <c r="R24" s="303" t="s">
+      <c r="R24" s="408" t="s">
         <v>89</v>
       </c>
     </row>
@@ -25744,15 +26202,14 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="13" style="261" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="261" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="261" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="261" customWidth="1"/>
     <col min="10" max="13" width="10.83203125" style="261" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" style="261" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="11" style="261" hidden="1" customWidth="1"/>
     <col min="18" max="20" width="13" style="261" hidden="1" customWidth="1"/>
     <col min="21" max="22" width="10.83203125" style="261" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="261" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="10.83203125" style="261" customWidth="1"/>
     <col min="26" max="26" width="13" style="261" customWidth="1"/>
     <col min="27" max="27" width="10.6640625" style="261" customWidth="1"/>
@@ -25764,89 +26221,89 @@
     <row r="1" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="207"/>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="303" t="s">
+      <c r="D2" s="408" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="303" t="s">
+      <c r="E2" s="408" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="303" t="s">
+      <c r="F2" s="408" t="s">
         <v>93</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="303" t="s">
+      <c r="I2" s="408" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="303" t="s">
+      <c r="J2" s="408" t="s">
         <v>97</v>
       </c>
-      <c r="K2" s="303" t="s">
+      <c r="K2" s="408" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="303" t="s">
+      <c r="L2" s="408" t="s">
         <v>99</v>
       </c>
-      <c r="M2" s="303" t="s">
+      <c r="M2" s="408" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="303" t="s">
+      <c r="N2" s="408" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="303" t="s">
+      <c r="O2" s="408" t="s">
         <v>102</v>
       </c>
       <c r="Q2" s="207"/>
-      <c r="R2" s="303" t="s">
+      <c r="R2" s="408" t="s">
         <v>90</v>
       </c>
-      <c r="S2" s="303" t="s">
+      <c r="S2" s="408" t="s">
         <v>91</v>
       </c>
-      <c r="T2" s="303" t="s">
+      <c r="T2" s="408" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="303" t="s">
+      <c r="U2" s="408" t="s">
         <v>93</v>
       </c>
-      <c r="V2" s="303" t="s">
+      <c r="V2" s="408" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="303" t="s">
+      <c r="W2" s="408" t="s">
         <v>95</v>
       </c>
-      <c r="X2" s="303" t="s">
+      <c r="X2" s="408" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" s="303" t="s">
+      <c r="Y2" s="408" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" s="303" t="s">
+      <c r="Z2" s="408" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" s="303" t="s">
+      <c r="AA2" s="408" t="s">
         <v>99</v>
       </c>
-      <c r="AB2" s="303" t="s">
+      <c r="AB2" s="408" t="s">
         <v>100</v>
       </c>
-      <c r="AC2" s="303" t="s">
+      <c r="AC2" s="408" t="s">
         <v>101</v>
       </c>
-      <c r="AD2" s="303" t="s">
+      <c r="AD2" s="408" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" s="303" t="s">
+      <c r="AE2" s="408" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="303" t="s">
+      <c r="AF2" s="408" t="s">
         <v>103</v>
       </c>
     </row>
@@ -26395,89 +26852,89 @@
     <row r="27" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="207"/>
-      <c r="C28" s="303" t="s">
+      <c r="C28" s="408" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="303" t="s">
+      <c r="D28" s="408" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="303" t="s">
+      <c r="E28" s="408" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="303" t="s">
+      <c r="F28" s="408" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="303" t="s">
+      <c r="G28" s="408" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="303" t="s">
+      <c r="H28" s="408" t="s">
         <v>95</v>
       </c>
-      <c r="I28" s="303" t="s">
+      <c r="I28" s="408" t="s">
         <v>96</v>
       </c>
-      <c r="J28" s="303" t="s">
+      <c r="J28" s="408" t="s">
         <v>97</v>
       </c>
-      <c r="K28" s="303" t="s">
+      <c r="K28" s="408" t="s">
         <v>98</v>
       </c>
-      <c r="L28" s="303" t="s">
+      <c r="L28" s="408" t="s">
         <v>99</v>
       </c>
-      <c r="M28" s="303" t="s">
+      <c r="M28" s="408" t="s">
         <v>100</v>
       </c>
-      <c r="N28" s="303" t="s">
+      <c r="N28" s="408" t="s">
         <v>101</v>
       </c>
-      <c r="O28" s="303" t="s">
+      <c r="O28" s="408" t="s">
         <v>102</v>
       </c>
       <c r="Q28" s="207"/>
-      <c r="R28" s="303" t="s">
+      <c r="R28" s="408" t="s">
         <v>90</v>
       </c>
-      <c r="S28" s="303" t="s">
+      <c r="S28" s="408" t="s">
         <v>91</v>
       </c>
-      <c r="T28" s="303" t="s">
+      <c r="T28" s="408" t="s">
         <v>92</v>
       </c>
-      <c r="U28" s="303" t="s">
+      <c r="U28" s="408" t="s">
         <v>93</v>
       </c>
-      <c r="V28" s="303" t="s">
+      <c r="V28" s="408" t="s">
         <v>94</v>
       </c>
-      <c r="W28" s="303" t="s">
+      <c r="W28" s="408" t="s">
         <v>95</v>
       </c>
-      <c r="X28" s="303" t="s">
+      <c r="X28" s="408" t="s">
         <v>96</v>
       </c>
-      <c r="Y28" s="303" t="s">
+      <c r="Y28" s="408" t="s">
         <v>97</v>
       </c>
-      <c r="Z28" s="303" t="s">
+      <c r="Z28" s="408" t="s">
         <v>98</v>
       </c>
-      <c r="AA28" s="303" t="s">
+      <c r="AA28" s="408" t="s">
         <v>99</v>
       </c>
-      <c r="AB28" s="303" t="s">
+      <c r="AB28" s="408" t="s">
         <v>100</v>
       </c>
-      <c r="AC28" s="303" t="s">
+      <c r="AC28" s="408" t="s">
         <v>101</v>
       </c>
-      <c r="AD28" s="303" t="s">
+      <c r="AD28" s="408" t="s">
         <v>102</v>
       </c>
-      <c r="AE28" s="303" t="s">
+      <c r="AE28" s="408" t="s">
         <v>40</v>
       </c>
-      <c r="AF28" s="303" t="s">
+      <c r="AF28" s="408" t="s">
         <v>103</v>
       </c>
     </row>
@@ -26746,13 +27203,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -26764,19 +27221,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>117</v>
       </c>
       <c r="I2" s="272" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="303" t="s">
+      <c r="J2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="303" t="s">
+      <c r="K2" s="408" t="s">
         <v>120</v>
       </c>
     </row>
@@ -26919,7 +27376,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="50" t="s">
         <v>20</v>
@@ -26952,7 +27409,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>24</v>
@@ -26985,7 +27442,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="49" t="s">
         <v>28</v>
@@ -27018,7 +27475,7 @@
         <v>55</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="51" t="s">
         <v>22</v>
@@ -27051,7 +27508,7 @@
         <v>18</v>
       </c>
       <c r="B11" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>24</v>
@@ -27084,7 +27541,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="53" t="s">
         <v>26</v>
@@ -27150,7 +27607,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>30</v>
@@ -27282,7 +27739,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="55" t="s">
         <v>34</v>
@@ -27348,7 +27805,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="54" t="s">
         <v>32</v>
@@ -27381,7 +27838,7 @@
         <v>7</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="54" t="s">
         <v>32</v>
@@ -27472,28 +27929,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="303" t="s">
+      <c r="D2" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="408" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="303" t="s">
+      <c r="F2" s="408" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>169</v>
       </c>
       <c r="I2" s="273" t="s">
@@ -27535,7 +27992,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="49" t="s">
         <v>28</v>
@@ -27620,7 +28077,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="51" t="s">
         <v>22</v>
@@ -27647,7 +28104,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>24</v>
@@ -27676,7 +28133,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" s="77" t="s">
         <v>30</v>
@@ -27730,7 +28187,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" s="54" t="s">
         <v>32</v>
@@ -27840,7 +28297,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>20</v>
@@ -27869,7 +28326,7 @@
         <v>188</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="54" t="s">
         <v>32</v>
@@ -27956,7 +28413,7 @@
         <v>188</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="55" t="s">
         <v>34</v>
@@ -27985,7 +28442,7 @@
         <v>188</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>24</v>
@@ -28014,7 +28471,7 @@
         <v>188</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D21" s="53" t="s">
         <v>26</v>
@@ -28095,13 +28552,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -28113,19 +28570,19 @@
       <c r="F2" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>116</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>117</v>
       </c>
       <c r="I2" s="272" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="303" t="s">
+      <c r="J2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="303" t="s">
+      <c r="K2" s="408" t="s">
         <v>120</v>
       </c>
     </row>
@@ -28200,7 +28657,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="51" t="s">
         <v>22</v>
@@ -28334,7 +28791,7 @@
         <v>23</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="50" t="s">
         <v>20</v>
@@ -28367,7 +28824,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C10" s="77" t="s">
         <v>30</v>
@@ -28400,7 +28857,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="53" t="s">
         <v>26</v>
@@ -28466,7 +28923,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="49" t="s">
         <v>28</v>
@@ -28534,7 +28991,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>24</v>
@@ -28600,7 +29057,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="55" t="s">
         <v>34</v>
@@ -28633,7 +29090,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="54" t="s">
         <v>32</v>
@@ -28666,7 +29123,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" s="52" t="s">
         <v>24</v>
@@ -28732,7 +29189,7 @@
         <v>99</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="54" t="s">
         <v>32</v>
@@ -28824,28 +29281,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="303" t="s">
+      <c r="A2" s="408" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="303" t="s">
+      <c r="B2" s="408" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="303" t="s">
+      <c r="C2" s="408" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="303" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="303" t="s">
+      <c r="D2" s="408" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="408" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="303" t="s">
+      <c r="F2" s="408" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="303" t="s">
+      <c r="G2" s="408" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="303" t="s">
+      <c r="H2" s="408" t="s">
         <v>169</v>
       </c>
       <c r="I2" s="273" t="s">
@@ -28951,7 +29408,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>20</v>
@@ -29009,7 +29466,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>24</v>
@@ -29038,7 +29495,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>24</v>
@@ -29067,7 +29524,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" s="53" t="s">
         <v>26</v>
@@ -29096,7 +29553,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="51" t="s">
         <v>22</v>
@@ -29156,7 +29613,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="54" t="s">
         <v>32</v>
@@ -29185,7 +29642,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>34</v>
@@ -29245,7 +29702,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="54" t="s">
         <v>32</v>
@@ -29274,7 +29731,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D17" s="77" t="s">
         <v>30</v>
@@ -29392,7 +29849,7 @@
         <v>188</v>
       </c>
       <c r="C21" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D21" s="49" t="s">
         <v>28</v>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3307e3c88395b6d/CSProjects/PythonProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_06601F512BDC0BD5F3DD18D93D92C6852A1F281A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CD0828B5-7E43-7C43-B7BF-F4F578422743}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_06601F512BDC0BD5F3DD18D93D92C6852A1F281A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B21F3BCB-7AA0-CB41-8D1F-1D63D4A6137B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Leagues" sheetId="5" r:id="rId5"/>
     <sheet name="Q1" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="R1" sheetId="7" r:id="rId7"/>
-    <sheet name="Q2" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="Q2" sheetId="8" r:id="rId8"/>
     <sheet name="R2" sheetId="9" r:id="rId9"/>
     <sheet name="Q3" sheetId="10" state="hidden" r:id="rId10"/>
     <sheet name="R3" sheetId="11" r:id="rId11"/>
@@ -30,7 +30,7 @@
     <sheet name="R5" sheetId="15" r:id="rId15"/>
     <sheet name="Q6" sheetId="16" state="hidden" r:id="rId16"/>
     <sheet name="R6" sheetId="17" r:id="rId17"/>
-    <sheet name="Q7" sheetId="18" state="hidden" r:id="rId18"/>
+    <sheet name="Q7" sheetId="18" r:id="rId18"/>
     <sheet name="R7" sheetId="19" r:id="rId19"/>
     <sheet name="Q8" sheetId="20" state="hidden" r:id="rId20"/>
     <sheet name="R8" sheetId="21" r:id="rId21"/>
@@ -3081,7 +3081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="420">
+  <cellXfs count="421">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4326,6 +4326,7 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11795,7 +11796,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11882,7 +11883,7 @@
         <v>52</v>
       </c>
       <c r="G4" s="102">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="102">
         <v>19</v>
@@ -14449,7 +14450,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14644,7 +14645,7 @@
         <v>65</v>
       </c>
       <c r="G8" s="277">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H8" s="277">
         <v>8</v>
@@ -15049,7 +15050,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15287,7 +15288,7 @@
         <v>542</v>
       </c>
       <c r="J8" s="108">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K8" s="7"/>
     </row>
@@ -15770,7 +15771,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15963,7 +15964,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="102">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H8" s="102">
         <v>8</v>
@@ -16365,15 +16366,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AH69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="O19" activeCellId="1" sqref="E18 O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="10" width="10.83203125" style="261" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="261" customWidth="1"/>
+    <col min="4" max="11" width="10.83203125" style="261" customWidth="1"/>
     <col min="12" max="12" width="11" style="261" customWidth="1"/>
     <col min="13" max="15" width="13" style="261" customWidth="1"/>
     <col min="16" max="16" width="13" style="261" hidden="1" customWidth="1"/>
@@ -16718,7 +16718,7 @@
       </c>
       <c r="G6" s="29">
         <f>+VLOOKUP($C6,'R4'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q4'!$B$3:$J$22,9,)</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="29">
         <f>+VLOOKUP($C6,'R5'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q5'!$B$3:$J$22,9,)</f>
@@ -16749,7 +16749,7 @@
       <c r="P6" s="29"/>
       <c r="Q6" s="29">
         <f>SUM(D6:M6)</f>
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S6" s="41" t="s">
         <v>24</v>
@@ -16924,7 +16924,7 @@
       </c>
       <c r="J8" s="29">
         <f>+VLOOKUP($C8,'R7'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q7'!$B$3:$J$22,9,)</f>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K8" s="29">
         <f>+VLOOKUP($C8,'R8'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q8'!$B$3:$J$22,9,)</f>
@@ -16943,7 +16943,7 @@
       <c r="P8" s="29"/>
       <c r="Q8" s="29">
         <f>SUM(D8:M8)</f>
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="S8" s="40" t="s">
         <v>28</v>
@@ -17029,7 +17029,7 @@
       </c>
       <c r="L9" s="32">
         <f>+VLOOKUP($C9,'R9'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q9'!$B$3:$J$22,9,)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M9" s="32">
         <f>+VLOOKUP($C9,'R10'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q10'!$B$3:$J$22,9,)</f>
@@ -17040,7 +17040,7 @@
       <c r="P9" s="32"/>
       <c r="Q9" s="32">
         <f>SUM(D9:M9)</f>
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="S9" s="42" t="s">
         <v>26</v>
@@ -17318,14 +17318,14 @@
       </c>
       <c r="M12" s="82">
         <f>+VLOOKUP($C12,'R10'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q10'!$B$3:$J$22,9,)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N12" s="82"/>
       <c r="O12" s="82"/>
       <c r="P12" s="82"/>
       <c r="Q12" s="82">
         <f>SUM(D12:M12)</f>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="S12" s="45" t="s">
         <v>34</v>
@@ -17399,7 +17399,7 @@
       </c>
       <c r="I13" s="30">
         <f>+VLOOKUP($C13,'R6'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q6'!$B$3:$J$22,9,)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J13" s="30">
         <f>+VLOOKUP($C13,'R7'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q7'!$B$3:$J$22,9,)</f>
@@ -17422,7 +17422,7 @@
       <c r="P13" s="30"/>
       <c r="Q13" s="30">
         <f>SUM(D13:M13)</f>
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>36</v>
@@ -17500,7 +17500,7 @@
       </c>
       <c r="J14" s="32">
         <f>+VLOOKUP($C14,'R7'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q7'!$B$3:$J$22,9,)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" s="32">
         <f>+VLOOKUP($C14,'R8'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q8'!$B$3:$J$22,9,)</f>
@@ -17519,7 +17519,7 @@
       <c r="P14" s="32"/>
       <c r="Q14" s="32">
         <f>SUM(D14:M14)</f>
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17730,7 +17730,7 @@
       </c>
       <c r="E18" s="34">
         <f>+VLOOKUP($C18,'R2'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q2'!$B$3:$J$22,9,)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F18" s="34">
         <f>+VLOOKUP($C18,'R3'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q3'!$B$3:$J$22,9,)</f>
@@ -17762,14 +17762,14 @@
       </c>
       <c r="M18" s="34">
         <f>+VLOOKUP($C18,'R10'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q10'!$B$3:$J$22,9,)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" s="34"/>
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
       <c r="Q18" s="34">
         <f>SUM(D18:M18)</f>
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
@@ -18544,7 +18544,7 @@
       </c>
       <c r="L34" s="32">
         <f>+VLOOKUP($C34,'Q9'!$B$3:$J$22,9,)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M34" s="32">
         <f>+VLOOKUP($C34,'Q10'!$B$3:$J$22,9,)</f>
@@ -18555,7 +18555,7 @@
       <c r="P34" s="32"/>
       <c r="Q34" s="32">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
@@ -18707,14 +18707,14 @@
       </c>
       <c r="M37" s="82">
         <f>+VLOOKUP($C37,'Q10'!$B$3:$J$22,9,)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N37" s="82"/>
       <c r="O37" s="82"/>
       <c r="P37" s="82"/>
       <c r="Q37" s="82">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
@@ -18750,7 +18750,7 @@
       </c>
       <c r="J38" s="32">
         <f>+VLOOKUP($C38,'Q7'!$B$3:$J$22,9,)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K38" s="32">
         <f>+VLOOKUP($C38,'Q8'!$B$3:$J$22,9,)</f>
@@ -18769,7 +18769,7 @@
       <c r="P38" s="32"/>
       <c r="Q38" s="32">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
@@ -19005,7 +19005,7 @@
       </c>
       <c r="E43" s="34">
         <f>+VLOOKUP($C43,'Q2'!$B$3:$J$22,9,)</f>
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="F43" s="34">
         <f>+VLOOKUP($C43,'Q3'!$B$3:$J$22,9,)</f>
@@ -19037,14 +19037,14 @@
       </c>
       <c r="M43" s="34">
         <f>+VLOOKUP($C43,'Q10'!$B$3:$J$22,9,)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43" s="34"/>
       <c r="O43" s="34"/>
       <c r="P43" s="34"/>
       <c r="Q43" s="34">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
@@ -19359,7 +19359,7 @@
       </c>
       <c r="G51" s="29">
         <f>+VLOOKUP($C51,'R4'!$C$3:$H$22,5,)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51" s="29">
         <f>+VLOOKUP($C51,'R5'!$C$3:$H$22,5,)</f>
@@ -19390,7 +19390,7 @@
       <c r="P51" s="29"/>
       <c r="Q51" s="29">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
@@ -19591,7 +19591,7 @@
       </c>
       <c r="J55" s="29">
         <f>+VLOOKUP($C55,'R7'!$C$3:$H$22,5,)</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="K55" s="29">
         <f>+VLOOKUP($C55,'R8'!$C$3:$H$22,5,)</f>
@@ -19610,7 +19610,7 @@
       <c r="P55" s="29"/>
       <c r="Q55" s="29">
         <f t="shared" si="3"/>
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
@@ -20076,7 +20076,7 @@
       </c>
       <c r="I64" s="30">
         <f>+VLOOKUP($C64,'R6'!$C$3:$H$22,5,)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J64" s="30">
         <f>+VLOOKUP($C64,'R7'!$C$3:$H$22,5,)</f>
@@ -20099,7 +20099,7 @@
       <c r="P64" s="30"/>
       <c r="Q64" s="30">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
@@ -21712,7 +21712,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22019,7 +22019,7 @@
         <v>680</v>
       </c>
       <c r="J10" s="108">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K10" s="7"/>
     </row>
@@ -22437,7 +22437,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23041,7 +23041,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23325,7 +23325,7 @@
         <v>756</v>
       </c>
       <c r="J11" s="360">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K11" s="358"/>
     </row>
@@ -23514,7 +23514,7 @@
         <v>152</v>
       </c>
       <c r="J18" s="376">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K18" s="374"/>
     </row>
@@ -24070,8 +24070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24442,7 +24442,7 @@
       <c r="D28" s="260"/>
       <c r="E28" s="260"/>
       <c r="F28" s="260"/>
-      <c r="G28" s="252"/>
+      <c r="G28" s="260"/>
       <c r="J28" s="38" t="s">
         <v>17</v>
       </c>
@@ -24458,7 +24458,7 @@
       <c r="D29" s="257"/>
       <c r="E29" s="257"/>
       <c r="F29" s="257"/>
-      <c r="G29" s="300"/>
+      <c r="G29" s="257"/>
       <c r="J29" s="44" t="s">
         <v>20</v>
       </c>
@@ -24474,7 +24474,7 @@
       <c r="D30" s="257"/>
       <c r="E30" s="257"/>
       <c r="F30" s="257"/>
-      <c r="G30" s="300"/>
+      <c r="G30" s="257"/>
       <c r="J30" s="41" t="s">
         <v>24</v>
       </c>
@@ -24486,7 +24486,7 @@
       <c r="B31" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="300"/>
+      <c r="C31" s="257"/>
       <c r="D31" s="300"/>
       <c r="E31" s="300"/>
       <c r="F31" s="300"/>
@@ -24507,6 +24507,7 @@
       <c r="E32" s="300"/>
       <c r="F32" s="300"/>
       <c r="G32" s="300"/>
+      <c r="H32" s="420"/>
       <c r="J32" s="40" t="s">
         <v>28</v>
       </c>
@@ -24518,7 +24519,7 @@
       <c r="B33" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="300"/>
+      <c r="C33" s="257"/>
       <c r="D33" s="300"/>
       <c r="E33" s="300"/>
       <c r="F33" s="300"/>
@@ -24534,7 +24535,7 @@
       <c r="B34" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="300"/>
+      <c r="C34" s="257"/>
       <c r="D34" s="300"/>
       <c r="E34" s="300"/>
       <c r="F34" s="300"/>
@@ -24554,7 +24555,7 @@
       <c r="D35" s="257"/>
       <c r="E35" s="257"/>
       <c r="F35" s="257"/>
-      <c r="G35" s="300"/>
+      <c r="G35" s="257"/>
       <c r="J35" s="81" t="s">
         <v>30</v>
       </c>
@@ -24601,7 +24602,7 @@
       <c r="C38" s="257"/>
       <c r="D38" s="257"/>
       <c r="E38" s="257"/>
-      <c r="F38" s="300"/>
+      <c r="F38" s="257"/>
       <c r="G38" s="300"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.2">
@@ -24609,7 +24610,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="257"/>
-      <c r="D39" s="300"/>
+      <c r="D39" s="257"/>
       <c r="E39" s="300"/>
       <c r="F39" s="300"/>
       <c r="G39" s="300"/>
@@ -24638,7 +24639,7 @@
       <c r="B42" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="300"/>
+      <c r="C42" s="257"/>
       <c r="D42" s="300"/>
       <c r="E42" s="300"/>
       <c r="F42" s="300"/>
@@ -24909,7 +24910,7 @@
       </c>
       <c r="R5" s="121">
         <f>+VLOOKUP($B5,F!$C$4:$Q$23,15,)/Q5</f>
-        <v>9.9065420560747661</v>
+        <v>10.093457943925232</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
@@ -24999,7 +25000,7 @@
       </c>
       <c r="R7" s="119">
         <f>+VLOOKUP($B7,F!$C$4:$Q$23,15,)/Q7</f>
-        <v>9.6551724137931032</v>
+        <v>9.616858237547893</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
@@ -25044,7 +25045,7 @@
       </c>
       <c r="R8" s="122">
         <f>+VLOOKUP($B8,F!$C$4:$Q$23,15,)/Q8</f>
-        <v>11.642857142857142</v>
+        <v>11.928571428571429</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -25179,7 +25180,7 @@
       </c>
       <c r="R11" s="122">
         <f>+VLOOKUP($B11,F!$C$4:$Q$23,15,)/Q11</f>
-        <v>7.9508196721311473</v>
+        <v>8.0327868852459012</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -25224,7 +25225,7 @@
       </c>
       <c r="R12" s="120">
         <f>+VLOOKUP($B12,F!$C$4:$Q$23,15,)/Q12</f>
-        <v>10.701754385964911</v>
+        <v>9.4736842105263133</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -25404,7 +25405,7 @@
       </c>
       <c r="R16" s="119">
         <f>+VLOOKUP($B16,F!$C$4:$Q$23,15,)/Q16</f>
-        <v>8.3980582524271838</v>
+        <v>7.9126213592233006</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
@@ -25449,7 +25450,7 @@
       </c>
       <c r="R17" s="124">
         <f>+VLOOKUP($B17,F!$C$4:$Q$23,15,)/Q17</f>
-        <v>6.4052287581699341</v>
+        <v>6.6013071895424833</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
@@ -28538,7 +28539,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29246,7 +29247,7 @@
         <v>152</v>
       </c>
       <c r="J22" s="76">
-        <v>1</v>
+        <v>-5</v>
       </c>
       <c r="K22" s="74" t="s">
         <v>229</v>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,35 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3307e3c88395b6d/CSProjects/PythonProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_699A40C6D6F9E3452971EDF6305975C61D6089A7" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5216DBF2-E41F-BE4C-864A-05D64718FBA2}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_789C3923253C9866EBC4EC680673EDFF33AD311D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7AAC19A-ACD5-BC4C-896B-E6A7D15446C1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19240" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="1" r:id="rId1"/>
     <sheet name="F" sheetId="2" r:id="rId2"/>
-    <sheet name="P" sheetId="4" r:id="rId3"/>
-    <sheet name="Leagues" sheetId="5" r:id="rId4"/>
-    <sheet name="Q1" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="R1" sheetId="7" r:id="rId6"/>
-    <sheet name="Q2" sheetId="8" r:id="rId7"/>
-    <sheet name="R2" sheetId="9" r:id="rId8"/>
-    <sheet name="Q3" sheetId="10" state="hidden" r:id="rId9"/>
-    <sheet name="R3" sheetId="11" r:id="rId10"/>
-    <sheet name="Q4" sheetId="12" state="hidden" r:id="rId11"/>
-    <sheet name="R4" sheetId="13" r:id="rId12"/>
-    <sheet name="Q5" sheetId="14" state="hidden" r:id="rId13"/>
-    <sheet name="R5" sheetId="15" r:id="rId14"/>
-    <sheet name="Q6" sheetId="16" state="hidden" r:id="rId15"/>
-    <sheet name="R6" sheetId="17" r:id="rId16"/>
-    <sheet name="Q7" sheetId="18" r:id="rId17"/>
-    <sheet name="R7" sheetId="19" r:id="rId18"/>
-    <sheet name="Q8" sheetId="20" state="hidden" r:id="rId19"/>
-    <sheet name="R8" sheetId="21" r:id="rId20"/>
-    <sheet name="Q9" sheetId="22" state="hidden" r:id="rId21"/>
-    <sheet name="R9" sheetId="23" r:id="rId22"/>
-    <sheet name="Q10" sheetId="24" r:id="rId23"/>
-    <sheet name="R10" sheetId="25" r:id="rId24"/>
+    <sheet name="P" sheetId="3" r:id="rId3"/>
+    <sheet name="Leagues" sheetId="4" r:id="rId4"/>
+    <sheet name="Q1" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="R1" sheetId="6" r:id="rId6"/>
+    <sheet name="Q2" sheetId="7" r:id="rId7"/>
+    <sheet name="R2" sheetId="8" r:id="rId8"/>
+    <sheet name="Q3" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="R3" sheetId="10" r:id="rId10"/>
+    <sheet name="Q4" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="R4" sheetId="12" r:id="rId12"/>
+    <sheet name="Q5" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="R5" sheetId="14" r:id="rId14"/>
+    <sheet name="Q6" sheetId="15" state="hidden" r:id="rId15"/>
+    <sheet name="R6" sheetId="16" r:id="rId16"/>
+    <sheet name="Q7" sheetId="17" r:id="rId17"/>
+    <sheet name="R7" sheetId="18" r:id="rId18"/>
+    <sheet name="Q8" sheetId="19" state="hidden" r:id="rId19"/>
+    <sheet name="R8" sheetId="20" r:id="rId20"/>
+    <sheet name="Q9" sheetId="21" state="hidden" r:id="rId21"/>
+    <sheet name="R9" sheetId="22" r:id="rId22"/>
+    <sheet name="Q10" sheetId="23" r:id="rId23"/>
+    <sheet name="R10" sheetId="24" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C'!$B$2:$Q$22</definedName>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="762">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="780">
   <si>
     <t>Constructor</t>
   </si>
@@ -2366,6 +2366,60 @@
   </si>
   <si>
     <t>1:35.267</t>
+  </si>
+  <si>
+    <t>1:34:00.364</t>
+  </si>
+  <si>
+    <t>1:34:08.093</t>
+  </si>
+  <si>
+    <t>1:34:23.093</t>
+  </si>
+  <si>
+    <t>1:34:30.922</t>
+  </si>
+  <si>
+    <t>1:34:52.429</t>
+  </si>
+  <si>
+    <t>1:35:02.550</t>
+  </si>
+  <si>
+    <t>1:35:08.370</t>
+  </si>
+  <si>
+    <t>1:35:09.104</t>
+  </si>
+  <si>
+    <t>1:35:30.130</t>
+  </si>
+  <si>
+    <t>1:35:38.224</t>
+  </si>
+  <si>
+    <t>1:34:12.509</t>
+  </si>
+  <si>
+    <t>1:34:14.419</t>
+  </si>
+  <si>
+    <t>1:34:15.467</t>
+  </si>
+  <si>
+    <t>1:34:16.339</t>
+  </si>
+  <si>
+    <t>1:34:26.176</t>
+  </si>
+  <si>
+    <t>1:34:53.867</t>
+  </si>
+  <si>
+    <t>1:34:54.908</t>
+  </si>
+  <si>
+    <t>1:35:22.195</t>
   </si>
 </sst>
 </file>
@@ -4230,25 +4284,25 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4410,7 +4464,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7EBB-6940-AA11-A4732ABA1F98}"/>
+              <c16:uniqueId val="{00000000-3CD3-A445-845C-5465D089F058}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4496,7 +4550,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7EBB-6940-AA11-A4732ABA1F98}"/>
+              <c16:uniqueId val="{00000001-3CD3-A445-845C-5465D089F058}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4582,7 +4636,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7EBB-6940-AA11-A4732ABA1F98}"/>
+              <c16:uniqueId val="{00000002-3CD3-A445-845C-5465D089F058}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4889,7 +4943,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4F44-2F44-8747-F1BA5FF8910A}"/>
+              <c16:uniqueId val="{00000000-C84D-9245-BD19-7510B694448D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4975,7 +5029,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4F44-2F44-8747-F1BA5FF8910A}"/>
+              <c16:uniqueId val="{00000001-C84D-9245-BD19-7510B694448D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5061,7 +5115,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4F44-2F44-8747-F1BA5FF8910A}"/>
+              <c16:uniqueId val="{00000002-C84D-9245-BD19-7510B694448D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5147,7 +5201,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4F44-2F44-8747-F1BA5FF8910A}"/>
+              <c16:uniqueId val="{00000003-C84D-9245-BD19-7510B694448D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5233,7 +5287,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4F44-2F44-8747-F1BA5FF8910A}"/>
+              <c16:uniqueId val="{00000004-C84D-9245-BD19-7510B694448D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5319,7 +5373,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4F44-2F44-8747-F1BA5FF8910A}"/>
+              <c16:uniqueId val="{00000005-C84D-9245-BD19-7510B694448D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5411,7 +5465,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4F44-2F44-8747-F1BA5FF8910A}"/>
+              <c16:uniqueId val="{00000006-C84D-9245-BD19-7510B694448D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5718,7 +5772,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4DC5-3E42-8302-216E012F9F57}"/>
+              <c16:uniqueId val="{00000000-0B53-784F-A993-7CB84FE2E310}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5804,7 +5858,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4DC5-3E42-8302-216E012F9F57}"/>
+              <c16:uniqueId val="{00000001-0B53-784F-A993-7CB84FE2E310}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5890,7 +5944,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4DC5-3E42-8302-216E012F9F57}"/>
+              <c16:uniqueId val="{00000002-0B53-784F-A993-7CB84FE2E310}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6197,7 +6251,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D9A-374B-86D8-6879035FE3D1}"/>
+              <c16:uniqueId val="{00000000-4961-0442-BB24-8825FDAB683D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6283,7 +6337,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2D9A-374B-86D8-6879035FE3D1}"/>
+              <c16:uniqueId val="{00000001-4961-0442-BB24-8825FDAB683D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6369,7 +6423,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2D9A-374B-86D8-6879035FE3D1}"/>
+              <c16:uniqueId val="{00000002-4961-0442-BB24-8825FDAB683D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6455,7 +6509,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-2D9A-374B-86D8-6879035FE3D1}"/>
+              <c16:uniqueId val="{00000003-4961-0442-BB24-8825FDAB683D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6541,7 +6595,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2D9A-374B-86D8-6879035FE3D1}"/>
+              <c16:uniqueId val="{00000004-4961-0442-BB24-8825FDAB683D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6627,7 +6681,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-2D9A-374B-86D8-6879035FE3D1}"/>
+              <c16:uniqueId val="{00000005-4961-0442-BB24-8825FDAB683D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6719,7 +6773,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-2D9A-374B-86D8-6879035FE3D1}"/>
+              <c16:uniqueId val="{00000006-4961-0442-BB24-8825FDAB683D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6909,7 +6963,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6945,7 +6999,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6981,7 +7035,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7017,7 +7071,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7058,7 +7112,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7112,7 +7166,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7166,7 +7220,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7220,7 +7274,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7274,7 +7328,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7328,7 +7382,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7382,7 +7436,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7436,7 +7490,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7490,7 +7544,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7544,7 +7598,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7598,7 +7652,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7652,7 +7706,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7706,7 +7760,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7760,7 +7814,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7814,7 +7868,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7868,7 +7922,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7922,7 +7976,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7976,7 +8030,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8030,7 +8084,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8084,7 +8138,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8435,40 +8489,40 @@
   <sheetData>
     <row r="1" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="398" t="s">
+      <c r="B2" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="398" t="s">
+      <c r="D2" s="404" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="398" t="s">
+      <c r="E2" s="404" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="398" t="s">
+      <c r="F2" s="404" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="398" t="s">
+      <c r="I2" s="404" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="398" t="s">
+      <c r="J2" s="404" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="398" t="s">
+      <c r="K2" s="404" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="398" t="s">
+      <c r="L2" s="404" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="398" t="s">
+      <c r="M2" s="404" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="264" t="s">
@@ -8486,7 +8540,7 @@
       <c r="S2" s="262" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="398" t="s">
+      <c r="T2" s="404" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9229,19 +9283,19 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="S15" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="398" t="s">
+      <c r="S15" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="U15" s="398" t="s">
+      <c r="U15" s="404" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="398" t="s">
+      <c r="V15" s="404" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="398" t="s">
+      <c r="W15" s="404" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9664,7 +9718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -9679,28 +9733,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="398" t="s">
+      <c r="D2" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="404" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="398" t="s">
+      <c r="F2" s="404" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -10258,7 +10312,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-00000A000000}">
+  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000009000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
       <sortCondition ref="B2:B22"/>
     </sortState>
@@ -10269,7 +10323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -10284,13 +10338,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -10302,19 +10356,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="398" t="s">
+      <c r="J2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="398" t="s">
+      <c r="K2" s="404" t="s">
         <v>113</v>
       </c>
     </row>
@@ -10983,7 +11037,7 @@
       <c r="K22" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-00000B000000}">
+  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-00000A000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
       <sortCondition ref="I2:I22"/>
     </sortState>
@@ -10994,7 +11048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -11008,28 +11062,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="398" t="s">
+      <c r="D2" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="404" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="398" t="s">
+      <c r="F2" s="404" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -11595,7 +11649,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-00000C000000}">
+  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-00000B000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
       <sortCondition descending="1" ref="F2:F22"/>
     </sortState>
@@ -11606,7 +11660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -11621,13 +11675,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -11639,19 +11693,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="398" t="s">
+      <c r="J2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="398" t="s">
+      <c r="K2" s="404" t="s">
         <v>113</v>
       </c>
     </row>
@@ -12318,7 +12372,7 @@
       <c r="K22" s="165"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-00000D000000}">
+  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-00000C000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
       <sortCondition ref="I2:I22"/>
     </sortState>
@@ -12329,7 +12383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -12343,28 +12397,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="398" t="s">
+      <c r="D2" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="404" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="398" t="s">
+      <c r="F2" s="404" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -12917,7 +12971,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-00000E000000}">
+  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-00000D000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
       <sortCondition ref="B2:B22"/>
     </sortState>
@@ -12928,7 +12982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -12942,13 +12996,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -12960,19 +13014,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="398" t="s">
+      <c r="J2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="398" t="s">
+      <c r="K2" s="404" t="s">
         <v>113</v>
       </c>
     </row>
@@ -13637,7 +13691,7 @@
       <c r="K22" s="165"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-00000F000000}">
+  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-00000E000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
       <sortCondition ref="I2:I22"/>
     </sortState>
@@ -13648,7 +13702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -13662,28 +13716,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="398" t="s">
+      <c r="D2" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="404" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="398" t="s">
+      <c r="F2" s="404" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -14237,7 +14291,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000010000000}">
+  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-00000F000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
       <sortCondition ref="B2:B22"/>
     </sortState>
@@ -14248,7 +14302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -14262,13 +14316,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -14280,19 +14334,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="398" t="s">
+      <c r="J2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="398" t="s">
+      <c r="K2" s="404" t="s">
         <v>113</v>
       </c>
     </row>
@@ -14957,7 +15011,7 @@
       <c r="K22" s="74"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000011000000}">
+  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000010000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
       <sortCondition ref="I2:I22"/>
     </sortState>
@@ -14969,7 +15023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -14983,28 +15037,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="398" t="s">
+      <c r="D2" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="404" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="398" t="s">
+      <c r="F2" s="404" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -15554,7 +15608,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000012000000}">
+  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000011000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
       <sortCondition ref="E2:E22"/>
     </sortState>
@@ -15565,7 +15619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -15579,13 +15633,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -15597,19 +15651,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="398" t="s">
+      <c r="J2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="398" t="s">
+      <c r="K2" s="404" t="s">
         <v>113</v>
       </c>
     </row>
@@ -16274,7 +16328,7 @@
       <c r="K22" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000013000000}">
+  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000012000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
       <sortCondition ref="I2:I22"/>
     </sortState>
@@ -16377,7 +16431,7 @@
       <c r="Q3" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="398" t="s">
+      <c r="S3" s="404" t="s">
         <v>0</v>
       </c>
       <c r="T3" s="264" t="s">
@@ -17850,14 +17904,14 @@
       </c>
       <c r="M21" s="35">
         <f>+VLOOKUP($C21,'R10'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q10'!$B$3:$J$22,9,)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
@@ -17916,56 +17970,56 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="399" t="s">
+      <c r="B23" s="398" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="235" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="400">
+      <c r="D23" s="399">
         <f>+VLOOKUP($C23,'R1'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q1'!$B$3:$J$22,9,)</f>
         <v>-10</v>
       </c>
-      <c r="E23" s="400">
+      <c r="E23" s="399">
         <f>+VLOOKUP($C23,'R2'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q2'!$B$3:$J$22,9,)</f>
         <v>21</v>
       </c>
-      <c r="F23" s="400">
+      <c r="F23" s="399">
         <f>+VLOOKUP($C23,'R3'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q3'!$B$3:$J$22,9,)</f>
         <v>27</v>
       </c>
-      <c r="G23" s="400">
+      <c r="G23" s="399">
         <f>+VLOOKUP($C23,'R4'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q4'!$B$3:$J$22,9,)</f>
         <v>10</v>
       </c>
-      <c r="H23" s="400">
+      <c r="H23" s="399">
         <f>+VLOOKUP($C23,'R5'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q5'!$B$3:$J$22,9,)</f>
         <v>20</v>
       </c>
-      <c r="I23" s="400">
+      <c r="I23" s="399">
         <f>+VLOOKUP($C23,'R6'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q6'!$B$3:$J$22,9,)</f>
         <v>37</v>
       </c>
-      <c r="J23" s="400">
+      <c r="J23" s="399">
         <f>+VLOOKUP($C23,'R7'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q7'!$B$3:$J$22,9,)</f>
         <v>16</v>
       </c>
-      <c r="K23" s="400">
+      <c r="K23" s="399">
         <f>+VLOOKUP($C23,'R8'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q8'!$B$3:$J$22,9,)</f>
         <v>35</v>
       </c>
-      <c r="L23" s="400">
+      <c r="L23" s="399">
         <f>+VLOOKUP($C23,'R9'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q9'!$B$3:$J$22,9,)</f>
         <v>-8</v>
       </c>
-      <c r="M23" s="400">
+      <c r="M23" s="399">
         <f>+VLOOKUP($C23,'R10'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q10'!$B$3:$J$22,9,)</f>
         <v>-13</v>
       </c>
-      <c r="N23" s="400"/>
-      <c r="O23" s="400"/>
-      <c r="P23" s="400"/>
-      <c r="Q23" s="400">
+      <c r="N23" s="399"/>
+      <c r="O23" s="399"/>
+      <c r="P23" s="399"/>
+      <c r="Q23" s="399">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
@@ -17995,7 +18049,7 @@
       <c r="B26" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="398" t="s">
+      <c r="C26" s="404" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="264" t="s">
@@ -19160,7 +19214,7 @@
       <c r="B49" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="398" t="s">
+      <c r="C49" s="404" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="264" t="s">
@@ -20235,14 +20289,14 @@
       </c>
       <c r="M68" s="35">
         <f>+VLOOKUP($C68,'R10'!$C$3:$H$22,5,)</f>
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="N68" s="35"/>
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
       <c r="Q68" s="35">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -20317,7 +20371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
@@ -20328,28 +20382,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="398" t="s">
+      <c r="D2" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="404" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="398" t="s">
+      <c r="F2" s="404" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -20900,7 +20954,7 @@
       <c r="C28" s="261"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000014000000}">
+  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000013000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
       <sortCondition descending="1" ref="F2:F22"/>
     </sortState>
@@ -20911,7 +20965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -20926,13 +20980,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -20944,19 +20998,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="398" t="s">
+      <c r="J2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="398" t="s">
+      <c r="K2" s="404" t="s">
         <v>113</v>
       </c>
     </row>
@@ -21625,7 +21679,7 @@
       <c r="K22" s="74"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000015000000}">
+  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000014000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
       <sortCondition ref="I2:I22"/>
     </sortState>
@@ -21636,7 +21690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -21650,28 +21704,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="398" t="s">
+      <c r="D2" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="404" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="398" t="s">
+      <c r="F2" s="404" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -22229,7 +22283,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000016000000}">
+  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000015000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
       <sortCondition descending="1" ref="F2:F22"/>
     </sortState>
@@ -22240,11 +22294,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="B3" sqref="B3:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22830,7 +22884,7 @@
       <c r="K22" s="395"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000017000000}">
+  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000016000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
       <sortCondition ref="I2:I22"/>
     </sortState>
@@ -22841,15 +22895,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
     <col min="9" max="9" width="28.1640625" style="253" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22887,15 +22942,21 @@
       <c r="A3" s="291">
         <v>77</v>
       </c>
-      <c r="B3" s="292"/>
+      <c r="B3" s="292">
+        <v>1</v>
+      </c>
       <c r="C3" s="292" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="292" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="371"/>
-      <c r="F3" s="232"/>
+      <c r="E3" s="371" t="s">
+        <v>762</v>
+      </c>
+      <c r="F3" s="232">
+        <v>53</v>
+      </c>
       <c r="G3" s="232">
         <v>43</v>
       </c>
@@ -22908,15 +22969,21 @@
       <c r="A4" s="299">
         <v>33</v>
       </c>
-      <c r="B4" s="300"/>
+      <c r="B4" s="300">
+        <v>2</v>
+      </c>
       <c r="C4" s="300" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="300" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="372"/>
-      <c r="F4" s="373"/>
+      <c r="E4" s="372" t="s">
+        <v>763</v>
+      </c>
+      <c r="F4" s="373">
+        <v>53</v>
+      </c>
       <c r="G4" s="373">
         <v>27</v>
       </c>
@@ -22929,15 +22996,21 @@
       <c r="A5" s="291">
         <v>44</v>
       </c>
-      <c r="B5" s="292"/>
+      <c r="B5" s="292">
+        <v>3</v>
+      </c>
       <c r="C5" s="292" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="292" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="371"/>
-      <c r="F5" s="232"/>
+      <c r="E5" s="371" t="s">
+        <v>764</v>
+      </c>
+      <c r="F5" s="232">
+        <v>53</v>
+      </c>
       <c r="G5" s="232">
         <v>27</v>
       </c>
@@ -22950,15 +23023,21 @@
       <c r="A6" s="315">
         <v>11</v>
       </c>
-      <c r="B6" s="316"/>
+      <c r="B6" s="316">
+        <v>4</v>
+      </c>
       <c r="C6" s="316" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="316" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="376"/>
-      <c r="F6" s="377"/>
+      <c r="E6" s="376" t="s">
+        <v>765</v>
+      </c>
+      <c r="F6" s="377">
+        <v>53</v>
+      </c>
       <c r="G6" s="377">
         <v>16</v>
       </c>
@@ -22971,15 +23050,21 @@
       <c r="A7" s="323">
         <v>3</v>
       </c>
-      <c r="B7" s="324"/>
+      <c r="B7" s="324">
+        <v>5</v>
+      </c>
       <c r="C7" s="324" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="324" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="374"/>
-      <c r="F7" s="375"/>
+      <c r="E7" s="374" t="s">
+        <v>766</v>
+      </c>
+      <c r="F7" s="375">
+        <v>53</v>
+      </c>
       <c r="G7" s="375">
         <v>14</v>
       </c>
@@ -22992,15 +23077,21 @@
       <c r="A8" s="307">
         <v>16</v>
       </c>
-      <c r="B8" s="308"/>
+      <c r="B8" s="308">
+        <v>6</v>
+      </c>
       <c r="C8" s="308" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="308" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="384"/>
-      <c r="F8" s="385"/>
+      <c r="E8" s="384" t="s">
+        <v>767</v>
+      </c>
+      <c r="F8" s="385">
+        <v>53</v>
+      </c>
       <c r="G8" s="385">
         <v>22</v>
       </c>
@@ -23013,15 +23104,21 @@
       <c r="A9" s="323">
         <v>31</v>
       </c>
-      <c r="B9" s="324"/>
+      <c r="B9" s="324">
+        <v>7</v>
+      </c>
       <c r="C9" s="324" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="324" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="374"/>
-      <c r="F9" s="375"/>
+      <c r="E9" s="374" t="s">
+        <v>768</v>
+      </c>
+      <c r="F9" s="375">
+        <v>53</v>
+      </c>
       <c r="G9" s="375">
         <v>7</v>
       </c>
@@ -23034,15 +23131,21 @@
       <c r="A10" s="339">
         <v>23</v>
       </c>
-      <c r="B10" s="340"/>
+      <c r="B10" s="340">
+        <v>8</v>
+      </c>
       <c r="C10" s="340" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="340" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="380"/>
-      <c r="F10" s="381"/>
+      <c r="E10" s="380" t="s">
+        <v>769</v>
+      </c>
+      <c r="F10" s="381">
+        <v>53</v>
+      </c>
       <c r="G10" s="381">
         <v>16</v>
       </c>
@@ -23055,15 +23158,21 @@
       <c r="A11" s="339">
         <v>10</v>
       </c>
-      <c r="B11" s="340"/>
+      <c r="B11" s="340">
+        <v>9</v>
+      </c>
       <c r="C11" s="340" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="340" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="380"/>
-      <c r="F11" s="381"/>
+      <c r="E11" s="380" t="s">
+        <v>770</v>
+      </c>
+      <c r="F11" s="381">
+        <v>53</v>
+      </c>
       <c r="G11" s="381">
         <v>3</v>
       </c>
@@ -23076,15 +23185,21 @@
       <c r="A12" s="299">
         <v>23</v>
       </c>
-      <c r="B12" s="300"/>
+      <c r="B12" s="300">
+        <v>10</v>
+      </c>
       <c r="C12" s="300" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="300" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="372"/>
-      <c r="F12" s="373"/>
+      <c r="E12" s="372" t="s">
+        <v>771</v>
+      </c>
+      <c r="F12" s="373">
+        <v>53</v>
+      </c>
       <c r="G12" s="373">
         <v>2</v>
       </c>
@@ -23097,15 +23212,21 @@
       <c r="A13" s="347">
         <v>99</v>
       </c>
-      <c r="B13" s="348"/>
+      <c r="B13" s="348">
+        <v>11</v>
+      </c>
       <c r="C13" s="348" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="348" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="382"/>
-      <c r="F13" s="383"/>
+      <c r="E13" s="382" t="s">
+        <v>772</v>
+      </c>
+      <c r="F13" s="383">
+        <v>52</v>
+      </c>
       <c r="G13" s="383">
         <v>14</v>
       </c>
@@ -23118,15 +23239,21 @@
       <c r="A14" s="355">
         <v>20</v>
       </c>
-      <c r="B14" s="356"/>
+      <c r="B14" s="356">
+        <v>12</v>
+      </c>
       <c r="C14" s="356" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="356" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="388"/>
-      <c r="F14" s="389"/>
+      <c r="E14" s="388" t="s">
+        <v>773</v>
+      </c>
+      <c r="F14" s="389">
+        <v>52</v>
+      </c>
       <c r="G14" s="389">
         <v>14</v>
       </c>
@@ -23139,15 +23266,21 @@
       <c r="A15" s="307">
         <v>5</v>
       </c>
-      <c r="B15" s="308"/>
+      <c r="B15" s="308">
+        <v>13</v>
+      </c>
       <c r="C15" s="308" t="s">
         <v>39</v>
       </c>
       <c r="D15" s="308" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="384"/>
-      <c r="F15" s="385"/>
+      <c r="E15" s="384" t="s">
+        <v>774</v>
+      </c>
+      <c r="F15" s="385">
+        <v>52</v>
+      </c>
       <c r="G15" s="385">
         <v>5</v>
       </c>
@@ -23160,15 +23293,21 @@
       <c r="A16" s="347">
         <v>7</v>
       </c>
-      <c r="B16" s="348"/>
+      <c r="B16" s="348">
+        <v>14</v>
+      </c>
       <c r="C16" s="348" t="s">
         <v>43</v>
       </c>
       <c r="D16" s="348" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="382"/>
-      <c r="F16" s="383"/>
+      <c r="E16" s="382" t="s">
+        <v>775</v>
+      </c>
+      <c r="F16" s="383">
+        <v>52</v>
+      </c>
       <c r="G16" s="383">
         <v>11</v>
       </c>
@@ -23181,15 +23320,21 @@
       <c r="A17" s="331">
         <v>4</v>
       </c>
-      <c r="B17" s="332"/>
+      <c r="B17" s="332">
+        <v>15</v>
+      </c>
       <c r="C17" s="332" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="332" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="378"/>
-      <c r="F17" s="379"/>
+      <c r="E17" s="378" t="s">
+        <v>776</v>
+      </c>
+      <c r="F17" s="379">
+        <v>52</v>
+      </c>
       <c r="G17" s="379">
         <v>1</v>
       </c>
@@ -23202,15 +23347,21 @@
       <c r="A18" s="363">
         <v>6</v>
       </c>
-      <c r="B18" s="364"/>
+      <c r="B18" s="364">
+        <v>16</v>
+      </c>
       <c r="C18" s="364" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="364" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="386"/>
-      <c r="F18" s="387"/>
+      <c r="E18" s="386" t="s">
+        <v>777</v>
+      </c>
+      <c r="F18" s="387">
+        <v>52</v>
+      </c>
       <c r="G18" s="387">
         <v>10</v>
       </c>
@@ -23223,15 +23374,21 @@
       <c r="A19" s="355">
         <v>8</v>
       </c>
-      <c r="B19" s="356"/>
+      <c r="B19" s="356">
+        <v>17</v>
+      </c>
       <c r="C19" s="356" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="356" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="388"/>
-      <c r="F19" s="389"/>
+      <c r="E19" s="388" t="s">
+        <v>778</v>
+      </c>
+      <c r="F19" s="389">
+        <v>52</v>
+      </c>
       <c r="G19" s="389">
         <v>0</v>
       </c>
@@ -23244,17 +23401,23 @@
       <c r="A20" s="363">
         <v>63</v>
       </c>
-      <c r="B20" s="364"/>
+      <c r="B20" s="364">
+        <v>18</v>
+      </c>
       <c r="C20" s="364" t="s">
         <v>47</v>
       </c>
       <c r="D20" s="364" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="386"/>
-      <c r="F20" s="387"/>
+      <c r="E20" s="386" t="s">
+        <v>779</v>
+      </c>
+      <c r="F20" s="387">
+        <v>52</v>
+      </c>
       <c r="G20" s="387">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H20" s="387">
         <v>0</v>
@@ -23265,7 +23428,9 @@
       <c r="A21" s="315">
         <v>18</v>
       </c>
-      <c r="B21" s="316"/>
+      <c r="B21" s="316" t="s">
+        <v>181</v>
+      </c>
       <c r="C21" s="316" t="s">
         <v>27</v>
       </c>
@@ -23283,28 +23448,30 @@
       <c r="I21" s="377"/>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="401">
+      <c r="A22" s="400">
         <v>55</v>
       </c>
-      <c r="B22" s="402"/>
-      <c r="C22" s="402" t="s">
+      <c r="B22" s="401" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="401" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="402" t="s">
+      <c r="D22" s="401" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="403"/>
-      <c r="F22" s="404"/>
-      <c r="G22" s="404">
+      <c r="E22" s="402"/>
+      <c r="F22" s="403"/>
+      <c r="G22" s="403">
         <v>-10</v>
       </c>
-      <c r="H22" s="404">
-        <v>0</v>
-      </c>
-      <c r="I22" s="404"/>
+      <c r="H22" s="403">
+        <v>0</v>
+      </c>
+      <c r="I22" s="403"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000018000000}">
+  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000017000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
       <sortCondition ref="B2:B22"/>
     </sortState>
@@ -23315,7 +23482,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:R34"/>
   <sheetViews>
@@ -23333,55 +23500,55 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="398" t="s">
+      <c r="D2" s="404" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="398" t="s">
+      <c r="E2" s="404" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="398" t="s">
+      <c r="F2" s="404" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="398" t="s">
+      <c r="I2" s="404" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="398" t="s">
+      <c r="J2" s="404" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="398" t="s">
+      <c r="K2" s="404" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="398" t="s">
+      <c r="L2" s="404" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="398" t="s">
+      <c r="M2" s="404" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="398" t="s">
+      <c r="N2" s="404" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="398" t="s">
+      <c r="O2" s="404" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="398" t="s">
+      <c r="P2" s="404" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="398" t="s">
+      <c r="Q2" s="404" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="398" t="s">
+      <c r="R2" s="404" t="s">
         <v>82</v>
       </c>
     </row>
@@ -24147,7 +24314,7 @@
       </c>
       <c r="R19" s="173">
         <f>+VLOOKUP($B19,F!$C$4:$Q$23,15,)/Q19</f>
-        <v>7.9661016949152534</v>
+        <v>7.7966101694915251</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
@@ -24287,10 +24454,10 @@
     </row>
     <row r="23" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="398" t="s">
+      <c r="B24" s="404" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="398" t="s">
+      <c r="C24" s="404" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="264" t="s">
@@ -24320,22 +24487,22 @@
       <c r="L24" s="264" t="s">
         <v>76</v>
       </c>
-      <c r="M24" s="398" t="s">
+      <c r="M24" s="404" t="s">
         <v>77</v>
       </c>
-      <c r="N24" s="398" t="s">
+      <c r="N24" s="404" t="s">
         <v>78</v>
       </c>
-      <c r="O24" s="398" t="s">
+      <c r="O24" s="404" t="s">
         <v>79</v>
       </c>
-      <c r="P24" s="398" t="s">
+      <c r="P24" s="404" t="s">
         <v>80</v>
       </c>
-      <c r="Q24" s="398" t="s">
+      <c r="Q24" s="404" t="s">
         <v>81</v>
       </c>
-      <c r="R24" s="398" t="s">
+      <c r="R24" s="404" t="s">
         <v>82</v>
       </c>
     </row>
@@ -24790,7 +24957,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:R22" xr:uid="{00000000-0009-0000-0000-000003000000}">
+  <autoFilter ref="B2:R22" xr:uid="{00000000-0009-0000-0000-000002000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:R22">
       <sortCondition descending="1" ref="R2:R22"/>
     </sortState>
@@ -24800,7 +24967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AF31"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -24829,89 +24996,89 @@
     <row r="1" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="207"/>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="398" t="s">
+      <c r="D2" s="404" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="398" t="s">
+      <c r="E2" s="404" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="398" t="s">
+      <c r="F2" s="404" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="398" t="s">
+      <c r="I2" s="404" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="398" t="s">
+      <c r="J2" s="404" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="398" t="s">
+      <c r="K2" s="404" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="398" t="s">
+      <c r="L2" s="404" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="398" t="s">
+      <c r="M2" s="404" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="398" t="s">
+      <c r="N2" s="404" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="398" t="s">
+      <c r="O2" s="404" t="s">
         <v>95</v>
       </c>
       <c r="Q2" s="207"/>
-      <c r="R2" s="398" t="s">
+      <c r="R2" s="404" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="398" t="s">
+      <c r="S2" s="404" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="398" t="s">
+      <c r="T2" s="404" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="398" t="s">
+      <c r="U2" s="404" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="398" t="s">
+      <c r="V2" s="404" t="s">
         <v>87</v>
       </c>
-      <c r="W2" s="398" t="s">
+      <c r="W2" s="404" t="s">
         <v>88</v>
       </c>
-      <c r="X2" s="398" t="s">
+      <c r="X2" s="404" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" s="398" t="s">
+      <c r="Y2" s="404" t="s">
         <v>90</v>
       </c>
-      <c r="Z2" s="398" t="s">
+      <c r="Z2" s="404" t="s">
         <v>91</v>
       </c>
-      <c r="AA2" s="398" t="s">
+      <c r="AA2" s="404" t="s">
         <v>92</v>
       </c>
-      <c r="AB2" s="398" t="s">
+      <c r="AB2" s="404" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" s="398" t="s">
+      <c r="AC2" s="404" t="s">
         <v>94</v>
       </c>
-      <c r="AD2" s="398" t="s">
+      <c r="AD2" s="404" t="s">
         <v>95</v>
       </c>
-      <c r="AE2" s="398" t="s">
+      <c r="AE2" s="404" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="398" t="s">
+      <c r="AF2" s="404" t="s">
         <v>96</v>
       </c>
     </row>
@@ -25460,89 +25627,89 @@
     <row r="27" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="207"/>
-      <c r="C28" s="398" t="s">
+      <c r="C28" s="404" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="398" t="s">
+      <c r="D28" s="404" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="398" t="s">
+      <c r="E28" s="404" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="398" t="s">
+      <c r="F28" s="404" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="398" t="s">
+      <c r="G28" s="404" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="398" t="s">
+      <c r="H28" s="404" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="398" t="s">
+      <c r="I28" s="404" t="s">
         <v>89</v>
       </c>
-      <c r="J28" s="398" t="s">
+      <c r="J28" s="404" t="s">
         <v>90</v>
       </c>
-      <c r="K28" s="398" t="s">
+      <c r="K28" s="404" t="s">
         <v>91</v>
       </c>
-      <c r="L28" s="398" t="s">
+      <c r="L28" s="404" t="s">
         <v>92</v>
       </c>
-      <c r="M28" s="398" t="s">
+      <c r="M28" s="404" t="s">
         <v>93</v>
       </c>
-      <c r="N28" s="398" t="s">
+      <c r="N28" s="404" t="s">
         <v>94</v>
       </c>
-      <c r="O28" s="398" t="s">
+      <c r="O28" s="404" t="s">
         <v>95</v>
       </c>
       <c r="Q28" s="207"/>
-      <c r="R28" s="398" t="s">
+      <c r="R28" s="404" t="s">
         <v>83</v>
       </c>
-      <c r="S28" s="398" t="s">
+      <c r="S28" s="404" t="s">
         <v>84</v>
       </c>
-      <c r="T28" s="398" t="s">
+      <c r="T28" s="404" t="s">
         <v>85</v>
       </c>
-      <c r="U28" s="398" t="s">
+      <c r="U28" s="404" t="s">
         <v>86</v>
       </c>
-      <c r="V28" s="398" t="s">
+      <c r="V28" s="404" t="s">
         <v>87</v>
       </c>
-      <c r="W28" s="398" t="s">
+      <c r="W28" s="404" t="s">
         <v>88</v>
       </c>
-      <c r="X28" s="398" t="s">
+      <c r="X28" s="404" t="s">
         <v>89</v>
       </c>
-      <c r="Y28" s="398" t="s">
+      <c r="Y28" s="404" t="s">
         <v>90</v>
       </c>
-      <c r="Z28" s="398" t="s">
+      <c r="Z28" s="404" t="s">
         <v>91</v>
       </c>
-      <c r="AA28" s="398" t="s">
+      <c r="AA28" s="404" t="s">
         <v>92</v>
       </c>
-      <c r="AB28" s="398" t="s">
+      <c r="AB28" s="404" t="s">
         <v>93</v>
       </c>
-      <c r="AC28" s="398" t="s">
+      <c r="AC28" s="404" t="s">
         <v>94</v>
       </c>
-      <c r="AD28" s="398" t="s">
+      <c r="AD28" s="404" t="s">
         <v>95</v>
       </c>
-      <c r="AE28" s="398" t="s">
+      <c r="AE28" s="404" t="s">
         <v>40</v>
       </c>
-      <c r="AF28" s="398" t="s">
+      <c r="AF28" s="404" t="s">
         <v>96</v>
       </c>
     </row>
@@ -25781,7 +25948,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="Q2:AF9" xr:uid="{00000000-0009-0000-0000-000004000000}">
+  <autoFilter ref="Q2:AF9" xr:uid="{00000000-0009-0000-0000-000003000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q3:AF9">
       <sortCondition descending="1" ref="AE2:AE9"/>
     </sortState>
@@ -25793,7 +25960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -25811,13 +25978,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -25829,19 +25996,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="398" t="s">
+      <c r="J2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="398" t="s">
+      <c r="K2" s="404" t="s">
         <v>113</v>
       </c>
     </row>
@@ -26508,7 +26675,7 @@
       <c r="K22" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000005000000}">
+  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
       <sortCondition ref="I2:I22"/>
     </sortState>
@@ -26519,7 +26686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -26537,28 +26704,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="398" t="s">
+      <c r="D2" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="404" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="398" t="s">
+      <c r="F2" s="404" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -27130,7 +27297,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000006000000}">
+  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
       <sortCondition ref="B2:B22"/>
     </sortState>
@@ -27141,7 +27308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -27160,13 +27327,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -27178,19 +27345,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="398" t="s">
+      <c r="J2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="398" t="s">
+      <c r="K2" s="404" t="s">
         <v>113</v>
       </c>
     </row>
@@ -27861,7 +28028,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000007000000}">
+  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
       <sortCondition ref="I2:I22"/>
     </sortState>
@@ -27872,7 +28039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -27889,28 +28056,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="398" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="398" t="s">
+      <c r="D2" s="404" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="404" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="398" t="s">
+      <c r="F2" s="404" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -28515,7 +28682,7 @@
       <c r="E23" s="168"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000008000000}">
+  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
       <sortCondition ref="B2:B22"/>
     </sortState>
@@ -28526,7 +28693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -28545,13 +28712,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="398" t="s">
+      <c r="A2" s="404" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="398" t="s">
+      <c r="B2" s="404" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="398" t="s">
+      <c r="C2" s="404" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -28563,19 +28730,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="398" t="s">
+      <c r="G2" s="404" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="398" t="s">
+      <c r="H2" s="404" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="398" t="s">
+      <c r="J2" s="404" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="398" t="s">
+      <c r="K2" s="404" t="s">
         <v>113</v>
       </c>
     </row>
@@ -29242,7 +29409,7 @@
       <c r="K22" s="165"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000009000000}">
+  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000008000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
       <sortCondition ref="I2:I22"/>
     </sortState>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3307e3c88395b6d/CSProjects/PythonProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_789C3923253C9866EBC4EC680673EDFF33AD311D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7AAC19A-ACD5-BC4C-896B-E6A7D15446C1}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_789C3923253C9866EBC4EC680673EDFF33AD311D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFBE14AC-4B92-594B-85AD-0754C4A6B166}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19240" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="1" r:id="rId1"/>
@@ -3101,7 +3101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="408">
+  <cellXfs count="406">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4282,12 +4282,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4424,7 +4418,7 @@
             <c:strRef>
               <c:f>Leagues!$C$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>W7</c:v>
                 </c:pt>
@@ -4440,6 +4434,12 @@
                 <c:pt idx="4">
                   <c:v>W11</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>W12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>W13</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -4448,7 +4448,7 @@
               <c:f>Leagues!$C$29:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3548</c:v>
                 </c:pt>
@@ -4457,6 +4457,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4510,7 +4513,7 @@
             <c:strRef>
               <c:f>Leagues!$C$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>W7</c:v>
                 </c:pt>
@@ -4526,6 +4529,12 @@
                 <c:pt idx="4">
                   <c:v>W11</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>W12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>W13</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -4534,7 +4543,7 @@
               <c:f>Leagues!$C$30:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3208</c:v>
                 </c:pt>
@@ -4543,6 +4552,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4596,7 +4608,7 @@
             <c:strRef>
               <c:f>Leagues!$C$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>W7</c:v>
                 </c:pt>
@@ -4612,6 +4624,12 @@
                 <c:pt idx="4">
                   <c:v>W11</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>W12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>W13</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -4620,7 +4638,7 @@
               <c:f>Leagues!$C$31:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2947</c:v>
                 </c:pt>
@@ -4629,6 +4647,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4708,7 +4729,7 @@
         <c:axId val="367988335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4600"/>
+          <c:max val="5300"/>
           <c:min val="2920"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4903,7 +4924,7 @@
             <c:strRef>
               <c:f>Leagues!$R$2:$AB$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>W7</c:v>
                 </c:pt>
@@ -4916,9 +4937,6 @@
                 <c:pt idx="3">
                   <c:v>W10</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>W11</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -4927,7 +4945,7 @@
               <c:f>Leagues!$R$3:$AB$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>339</c:v>
                 </c:pt>
@@ -4936,6 +4954,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>438</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4989,7 +5010,7 @@
             <c:strRef>
               <c:f>Leagues!$R$2:$AB$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>W7</c:v>
                 </c:pt>
@@ -5002,9 +5023,6 @@
                 <c:pt idx="3">
                   <c:v>W10</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>W11</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -5013,7 +5031,7 @@
               <c:f>Leagues!$R$4:$AB$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>348</c:v>
                 </c:pt>
@@ -5022,6 +5040,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5075,7 +5096,7 @@
             <c:strRef>
               <c:f>Leagues!$R$2:$AB$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>W7</c:v>
                 </c:pt>
@@ -5088,9 +5109,6 @@
                 <c:pt idx="3">
                   <c:v>W10</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>W11</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -5099,7 +5117,7 @@
               <c:f>Leagues!$R$5:$AB$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>312</c:v>
                 </c:pt>
@@ -5108,6 +5126,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5161,7 +5182,7 @@
             <c:strRef>
               <c:f>Leagues!$R$2:$AB$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>W7</c:v>
                 </c:pt>
@@ -5174,9 +5195,6 @@
                 <c:pt idx="3">
                   <c:v>W10</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>W11</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -5185,7 +5203,7 @@
               <c:f>Leagues!$R$6:$AB$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>335</c:v>
                 </c:pt>
@@ -5194,6 +5212,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5247,7 +5268,7 @@
             <c:strRef>
               <c:f>Leagues!$R$2:$AB$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>W7</c:v>
                 </c:pt>
@@ -5260,9 +5281,6 @@
                 <c:pt idx="3">
                   <c:v>W10</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>W11</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -5271,7 +5289,7 @@
               <c:f>Leagues!$R$7:$AB$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>297</c:v>
                 </c:pt>
@@ -5280,6 +5298,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5333,7 +5354,7 @@
             <c:strRef>
               <c:f>Leagues!$R$2:$AB$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>W7</c:v>
                 </c:pt>
@@ -5346,9 +5367,6 @@
                 <c:pt idx="3">
                   <c:v>W10</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>W11</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -5357,7 +5375,7 @@
               <c:f>Leagues!$R$8:$AB$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>325</c:v>
                 </c:pt>
@@ -5366,6 +5384,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5425,7 +5446,7 @@
             <c:strRef>
               <c:f>Leagues!$R$2:$AB$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>W7</c:v>
                 </c:pt>
@@ -5438,9 +5459,6 @@
                 <c:pt idx="3">
                   <c:v>W10</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>W11</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -5449,7 +5467,7 @@
               <c:f>Leagues!$R$9:$AB$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>225</c:v>
                 </c:pt>
@@ -5458,6 +5476,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5732,7 +5753,7 @@
             <c:strRef>
               <c:f>Leagues!$R$28:$AB$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>W7</c:v>
                 </c:pt>
@@ -5745,9 +5766,6 @@
                 <c:pt idx="3">
                   <c:v>W10</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>W11</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -5756,7 +5774,7 @@
               <c:f>Leagues!$R$29:$AB$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>523</c:v>
                 </c:pt>
@@ -5765,6 +5783,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5818,7 +5839,7 @@
             <c:strRef>
               <c:f>Leagues!$R$28:$AB$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>W7</c:v>
                 </c:pt>
@@ -5831,9 +5852,6 @@
                 <c:pt idx="3">
                   <c:v>W10</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>W11</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -5842,7 +5860,7 @@
               <c:f>Leagues!$R$30:$AB$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>500</c:v>
                 </c:pt>
@@ -5851,6 +5869,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5904,7 +5925,7 @@
             <c:strRef>
               <c:f>Leagues!$R$28:$AB$28</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>W7</c:v>
                 </c:pt>
@@ -5917,9 +5938,6 @@
                 <c:pt idx="3">
                   <c:v>W10</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>W11</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
@@ -5928,7 +5946,7 @@
               <c:f>Leagues!$R$31:$AB$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>642</c:v>
                 </c:pt>
@@ -5937,6 +5955,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6016,7 +6037,7 @@
         <c:axId val="1214396352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="650"/>
+          <c:max val="700"/>
           <c:min val="300"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6245,6 +6266,9 @@
                 <c:pt idx="2">
                   <c:v>3089</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6330,6 +6354,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3031</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3499</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,6 +6444,9 @@
                 <c:pt idx="2">
                   <c:v>2903</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3155</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6502,6 +6532,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6589,6 +6622,9 @@
                 <c:pt idx="2">
                   <c:v>2491</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>2741</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6674,6 +6710,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2161</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6767,6 +6806,9 @@
                 <c:pt idx="2">
                   <c:v>1941</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>2198</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6845,7 +6887,7 @@
         <c:axId val="686936415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3100"/>
+          <c:max val="3600"/>
           <c:min val="1400"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8489,40 +8531,40 @@
   <sheetData>
     <row r="1" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="404" t="s">
+      <c r="B2" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="404" t="s">
+      <c r="D2" s="402" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="404" t="s">
+      <c r="E2" s="402" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="404" t="s">
+      <c r="F2" s="402" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="404" t="s">
+      <c r="I2" s="402" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="404" t="s">
+      <c r="J2" s="402" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="404" t="s">
+      <c r="K2" s="402" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="404" t="s">
+      <c r="L2" s="402" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="404" t="s">
+      <c r="M2" s="402" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="264" t="s">
@@ -8540,7 +8582,7 @@
       <c r="S2" s="262" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="404" t="s">
+      <c r="T2" s="402" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9283,19 +9325,19 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="S15" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="404" t="s">
+      <c r="S15" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="U15" s="404" t="s">
+      <c r="U15" s="402" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="404" t="s">
+      <c r="V15" s="402" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="404" t="s">
+      <c r="W15" s="402" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9733,28 +9775,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="404" t="s">
+      <c r="D2" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="402" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="404" t="s">
+      <c r="F2" s="402" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -10338,13 +10380,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -10356,19 +10398,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="404" t="s">
+      <c r="J2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="404" t="s">
+      <c r="K2" s="402" t="s">
         <v>113</v>
       </c>
     </row>
@@ -11062,28 +11104,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="404" t="s">
+      <c r="D2" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="402" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="404" t="s">
+      <c r="F2" s="402" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -11675,13 +11717,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -11693,19 +11735,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="404" t="s">
+      <c r="J2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="404" t="s">
+      <c r="K2" s="402" t="s">
         <v>113</v>
       </c>
     </row>
@@ -12397,28 +12439,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="404" t="s">
+      <c r="D2" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="402" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="404" t="s">
+      <c r="F2" s="402" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -12996,13 +13038,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -13014,19 +13056,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="404" t="s">
+      <c r="J2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="404" t="s">
+      <c r="K2" s="402" t="s">
         <v>113</v>
       </c>
     </row>
@@ -13716,28 +13758,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="404" t="s">
+      <c r="D2" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="402" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="404" t="s">
+      <c r="F2" s="402" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -14316,13 +14358,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -14334,19 +14376,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="404" t="s">
+      <c r="J2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="404" t="s">
+      <c r="K2" s="402" t="s">
         <v>113</v>
       </c>
     </row>
@@ -15037,28 +15079,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="404" t="s">
+      <c r="D2" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="402" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="404" t="s">
+      <c r="F2" s="402" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -15633,13 +15675,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -15651,19 +15693,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="404" t="s">
+      <c r="J2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="404" t="s">
+      <c r="K2" s="402" t="s">
         <v>113</v>
       </c>
     </row>
@@ -16343,7 +16385,7 @@
   <dimension ref="B1:AH69"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J3" sqref="D1:J1048576"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16363,24 +16405,24 @@
   <sheetData>
     <row r="1" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="405" t="s">
+      <c r="B2" s="403" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="406"/>
-      <c r="D2" s="406"/>
-      <c r="E2" s="406"/>
-      <c r="F2" s="406"/>
-      <c r="G2" s="406"/>
-      <c r="H2" s="406"/>
-      <c r="I2" s="406"/>
-      <c r="J2" s="406"/>
-      <c r="K2" s="406"/>
-      <c r="L2" s="406"/>
-      <c r="M2" s="406"/>
-      <c r="N2" s="406"/>
-      <c r="O2" s="406"/>
-      <c r="P2" s="406"/>
-      <c r="Q2" s="407"/>
+      <c r="C2" s="404"/>
+      <c r="D2" s="404"/>
+      <c r="E2" s="404"/>
+      <c r="F2" s="404"/>
+      <c r="G2" s="404"/>
+      <c r="H2" s="404"/>
+      <c r="I2" s="404"/>
+      <c r="J2" s="404"/>
+      <c r="K2" s="404"/>
+      <c r="L2" s="404"/>
+      <c r="M2" s="404"/>
+      <c r="N2" s="404"/>
+      <c r="O2" s="404"/>
+      <c r="P2" s="404"/>
+      <c r="Q2" s="405"/>
     </row>
     <row r="3" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="288" t="s">
@@ -16431,7 +16473,7 @@
       <c r="Q3" s="251" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="404" t="s">
+      <c r="S3" s="402" t="s">
         <v>0</v>
       </c>
       <c r="T3" s="264" t="s">
@@ -16485,54 +16527,54 @@
         <v>17</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="37">
         <f>+VLOOKUP($C4,'R1'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q1'!$B$3:$J$22,9,)</f>
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E4" s="37">
         <f>+VLOOKUP($C4,'R2'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q2'!$B$3:$J$22,9,)</f>
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F4" s="37">
         <f>+VLOOKUP($C4,'R3'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q3'!$B$3:$J$22,9,)</f>
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="G4" s="37">
         <f>+VLOOKUP($C4,'R4'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q4'!$B$3:$J$22,9,)</f>
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="H4" s="37">
         <f>+VLOOKUP($C4,'R5'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q5'!$B$3:$J$22,9,)</f>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I4" s="37">
         <f>+VLOOKUP($C4,'R6'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q6'!$B$3:$J$22,9,)</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J4" s="37">
         <f>+VLOOKUP($C4,'R7'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q7'!$B$3:$J$22,9,)</f>
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="K4" s="37">
         <f>+VLOOKUP($C4,'R8'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q8'!$B$3:$J$22,9,)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L4" s="37">
         <f>+VLOOKUP($C4,'R9'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q9'!$B$3:$J$22,9,)</f>
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M4" s="37">
         <f>+VLOOKUP($C4,'R10'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q10'!$B$3:$J$22,9,)</f>
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N4" s="37"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37">
         <f t="shared" ref="Q4:Q23" si="0">SUM(D4:M4)</f>
-        <v>315</v>
+        <v>414</v>
       </c>
       <c r="S4" s="38" t="s">
         <v>17</v>
@@ -16582,54 +16624,54 @@
         <v>17</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="27">
         <f>+VLOOKUP($C5,'R1'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q1'!$B$3:$J$22,9,)</f>
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E5" s="27">
         <f>+VLOOKUP($C5,'R2'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q2'!$B$3:$J$22,9,)</f>
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F5" s="27">
         <f>+VLOOKUP($C5,'R3'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q3'!$B$3:$J$22,9,)</f>
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G5" s="27">
         <f>+VLOOKUP($C5,'R4'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q4'!$B$3:$J$22,9,)</f>
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="H5" s="27">
         <f>+VLOOKUP($C5,'R5'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q5'!$B$3:$J$22,9,)</f>
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="I5" s="27">
         <f>+VLOOKUP($C5,'R6'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q6'!$B$3:$J$22,9,)</f>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J5" s="27">
         <f>+VLOOKUP($C5,'R7'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q7'!$B$3:$J$22,9,)</f>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="K5" s="27">
         <f>+VLOOKUP($C5,'R8'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q8'!$B$3:$J$22,9,)</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" s="27">
         <f>+VLOOKUP($C5,'R9'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q9'!$B$3:$J$22,9,)</f>
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M5" s="27">
         <f>+VLOOKUP($C5,'R10'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q10'!$B$3:$J$22,9,)</f>
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N5" s="27"/>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="27">
         <f t="shared" si="0"/>
-        <v>414</v>
+        <v>315</v>
       </c>
       <c r="S5" s="44" t="s">
         <v>20</v>
@@ -16772,52 +16814,58 @@
       </c>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="30">
+        <f>+VLOOKUP($C7,'R1'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q1'!$B$3:$J$22,9,)</f>
+        <v>36</v>
+      </c>
+      <c r="E7" s="30">
+        <f>+VLOOKUP($C7,'R2'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q2'!$B$3:$J$22,9,)</f>
+        <v>30</v>
+      </c>
+      <c r="F7" s="30">
+        <f>+VLOOKUP($C7,'R3'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q3'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="G7" s="30">
+        <f>+VLOOKUP($C7,'R4'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q4'!$B$3:$J$22,9,)</f>
+        <v>25</v>
+      </c>
+      <c r="H7" s="30">
+        <f>+VLOOKUP($C7,'R5'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q5'!$B$3:$J$22,9,)</f>
+        <v>19</v>
+      </c>
+      <c r="I7" s="30">
+        <f>+VLOOKUP($C7,'R6'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q6'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="J7" s="30">
+        <f>+VLOOKUP($C7,'R7'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q7'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="K7" s="30">
+        <f>+VLOOKUP($C7,'R8'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q8'!$B$3:$J$22,9,)</f>
+        <v>35</v>
+      </c>
+      <c r="L7" s="30">
+        <f>+VLOOKUP($C7,'R9'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q9'!$B$3:$J$22,9,)</f>
         <v>24</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="31">
-        <f>+VLOOKUP($C7,'R1'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q1'!$B$3:$J$22,9,)</f>
-        <v>22</v>
-      </c>
-      <c r="E7" s="31">
-        <f>+VLOOKUP($C7,'R2'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q2'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="F7" s="31">
-        <f>+VLOOKUP($C7,'R3'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q3'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31">
-        <f>+VLOOKUP($C7,'R6'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q6'!$B$3:$J$22,9,)</f>
-        <v>21</v>
-      </c>
-      <c r="J7" s="31">
-        <f>+VLOOKUP($C7,'R7'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q7'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="K7" s="31">
-        <f>+VLOOKUP($C7,'R8'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q8'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="L7" s="31">
-        <f>+VLOOKUP($C7,'R9'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q9'!$B$3:$J$22,9,)</f>
-        <v>43</v>
-      </c>
-      <c r="M7" s="31">
+      <c r="M7" s="30">
         <f>+VLOOKUP($C7,'R10'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q10'!$B$3:$J$22,9,)</f>
-        <v>28</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31">
+        <v>7</v>
+      </c>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="S7" s="39" t="s">
         <v>22</v>
@@ -16863,58 +16911,58 @@
       </c>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B8" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="28">
+      <c r="B8" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="32">
         <f>+VLOOKUP($C8,'R1'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q1'!$B$3:$J$22,9,)</f>
-        <v>41</v>
-      </c>
-      <c r="E8" s="28">
+        <v>-9</v>
+      </c>
+      <c r="E8" s="32">
         <f>+VLOOKUP($C8,'R2'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-13</v>
-      </c>
-      <c r="F8" s="28">
+        <v>13</v>
+      </c>
+      <c r="F8" s="32">
         <f>+VLOOKUP($C8,'R3'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="G8" s="28">
+        <v>18</v>
+      </c>
+      <c r="G8" s="32">
         <f>+VLOOKUP($C8,'R4'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q4'!$B$3:$J$22,9,)</f>
+        <v>32</v>
+      </c>
+      <c r="H8" s="32">
+        <f>+VLOOKUP($C8,'R5'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q5'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="I8" s="32">
+        <f>+VLOOKUP($C8,'R6'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q6'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="J8" s="32">
+        <f>+VLOOKUP($C8,'R7'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q7'!$B$3:$J$22,9,)</f>
         <v>33</v>
       </c>
-      <c r="H8" s="28">
-        <f>+VLOOKUP($C8,'R5'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="K8" s="32">
+        <f>+VLOOKUP($C8,'R8'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q8'!$B$3:$J$22,9,)</f>
+        <v>23</v>
+      </c>
+      <c r="L8" s="32">
+        <f>+VLOOKUP($C8,'R9'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q9'!$B$3:$J$22,9,)</f>
         <v>32</v>
       </c>
-      <c r="I8" s="28">
-        <f>+VLOOKUP($C8,'R6'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q6'!$B$3:$J$22,9,)</f>
-        <v>-8</v>
-      </c>
-      <c r="J8" s="28">
-        <f>+VLOOKUP($C8,'R7'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q7'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="K8" s="28">
-        <f>+VLOOKUP($C8,'R8'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q8'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
-      </c>
-      <c r="L8" s="28">
-        <f>+VLOOKUP($C8,'R9'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q9'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="M8" s="28">
+      <c r="M8" s="32">
         <f>+VLOOKUP($C8,'R10'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q10'!$B$3:$J$22,9,)</f>
-        <v>26</v>
-      </c>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28">
+        <v>25</v>
+      </c>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="S8" s="40" t="s">
         <v>28</v>
@@ -16960,58 +17008,58 @@
       </c>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B9" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="32">
+      <c r="B9" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="29">
         <f>+VLOOKUP($C9,'R1'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-9</v>
-      </c>
-      <c r="E9" s="32">
+        <v>3</v>
+      </c>
+      <c r="E9" s="29">
         <f>+VLOOKUP($C9,'R2'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q2'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="F9" s="32">
+        <v>24</v>
+      </c>
+      <c r="F9" s="29">
         <f>+VLOOKUP($C9,'R3'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q3'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="G9" s="32">
+        <v>23</v>
+      </c>
+      <c r="G9" s="29">
         <f>+VLOOKUP($C9,'R4'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q4'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="H9" s="32">
+        <v>15</v>
+      </c>
+      <c r="H9" s="29">
         <f>+VLOOKUP($C9,'R5'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I9" s="32">
+        <v>24</v>
+      </c>
+      <c r="I9" s="29">
         <f>+VLOOKUP($C9,'R6'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q6'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="J9" s="32">
+        <v>19</v>
+      </c>
+      <c r="J9" s="29">
         <f>+VLOOKUP($C9,'R7'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q7'!$B$3:$J$22,9,)</f>
-        <v>33</v>
-      </c>
-      <c r="K9" s="32">
+        <v>16</v>
+      </c>
+      <c r="K9" s="29">
         <f>+VLOOKUP($C9,'R8'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q8'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="L9" s="32">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="29">
         <f>+VLOOKUP($C9,'R9'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q9'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="M9" s="32">
+        <v>36</v>
+      </c>
+      <c r="M9" s="29">
         <f>+VLOOKUP($C9,'R10'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q10'!$B$3:$J$22,9,)</f>
-        <v>25</v>
-      </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32">
+        <v>6</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="S9" s="42" t="s">
         <v>26</v>
@@ -17057,58 +17105,52 @@
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B10" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="82">
+      <c r="B10" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="31">
         <f>+VLOOKUP($C10,'R1'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q1'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="E10" s="82">
+        <v>22</v>
+      </c>
+      <c r="E10" s="31">
         <f>+VLOOKUP($C10,'R2'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q2'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="F10" s="82">
+        <v>23</v>
+      </c>
+      <c r="F10" s="31">
         <f>+VLOOKUP($C10,'R3'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q3'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="G10" s="82">
-        <f>+VLOOKUP($C10,'R4'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q4'!$B$3:$J$22,9,)</f>
-        <v>-13</v>
-      </c>
-      <c r="H10" s="82">
-        <f>+VLOOKUP($C10,'R5'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q5'!$B$3:$J$22,9,)</f>
-        <v>16</v>
-      </c>
-      <c r="I10" s="82">
+        <v>11</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31">
         <f>+VLOOKUP($C10,'R6'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q6'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="J10" s="82">
+        <v>21</v>
+      </c>
+      <c r="J10" s="31">
         <f>+VLOOKUP($C10,'R7'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q7'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="K10" s="82">
+        <v>6</v>
+      </c>
+      <c r="K10" s="31">
         <f>+VLOOKUP($C10,'R8'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q8'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="L10" s="82">
+        <v>4</v>
+      </c>
+      <c r="L10" s="31">
         <f>+VLOOKUP($C10,'R9'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q9'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="M10" s="82">
+        <v>43</v>
+      </c>
+      <c r="M10" s="31">
         <f>+VLOOKUP($C10,'R10'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q10'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82">
+        <v>28</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="S10" s="43" t="s">
         <v>32</v>
@@ -17154,58 +17196,58 @@
       </c>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B11" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="33">
+      <c r="B11" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="31">
         <f>+VLOOKUP($C11,'R1'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q1'!$B$3:$J$22,9,)</f>
-        <v>19</v>
-      </c>
-      <c r="E11" s="33">
+        <v>-10</v>
+      </c>
+      <c r="E11" s="31">
         <f>+VLOOKUP($C11,'R2'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q2'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="F11" s="33">
+        <v>21</v>
+      </c>
+      <c r="F11" s="31">
         <f>+VLOOKUP($C11,'R3'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q3'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="G11" s="33">
+        <v>27</v>
+      </c>
+      <c r="G11" s="31">
         <f>+VLOOKUP($C11,'R4'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q4'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="H11" s="33">
+        <v>10</v>
+      </c>
+      <c r="H11" s="31">
         <f>+VLOOKUP($C11,'R5'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q5'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="I11" s="33">
+        <v>20</v>
+      </c>
+      <c r="I11" s="31">
         <f>+VLOOKUP($C11,'R6'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q6'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="J11" s="33">
+        <v>37</v>
+      </c>
+      <c r="J11" s="31">
         <f>+VLOOKUP($C11,'R7'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q7'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="K11" s="33">
+        <v>16</v>
+      </c>
+      <c r="K11" s="31">
         <f>+VLOOKUP($C11,'R8'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q8'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="L11" s="33">
+        <v>35</v>
+      </c>
+      <c r="L11" s="31">
         <f>+VLOOKUP($C11,'R9'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="M11" s="33">
+        <v>-8</v>
+      </c>
+      <c r="M11" s="31">
         <f>+VLOOKUP($C11,'R10'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q10'!$B$3:$J$22,9,)</f>
-        <v>17</v>
-      </c>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33">
+        <v>-13</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="S11" s="81" t="s">
         <v>30</v>
@@ -17251,58 +17293,58 @@
       </c>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B12" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="34">
+      <c r="B12" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="28">
         <f>+VLOOKUP($C12,'R1'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="E12" s="34">
+        <v>41</v>
+      </c>
+      <c r="E12" s="28">
         <f>+VLOOKUP($C12,'R2'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q2'!$B$3:$J$22,9,)</f>
-        <v>14</v>
-      </c>
-      <c r="F12" s="34">
+        <v>-13</v>
+      </c>
+      <c r="F12" s="28">
         <f>+VLOOKUP($C12,'R3'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q3'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="G12" s="34">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="28">
         <f>+VLOOKUP($C12,'R4'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q4'!$B$3:$J$22,9,)</f>
-        <v>-12</v>
-      </c>
-      <c r="H12" s="34">
+        <v>33</v>
+      </c>
+      <c r="H12" s="28">
         <f>+VLOOKUP($C12,'R5'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q5'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="I12" s="34">
+        <v>32</v>
+      </c>
+      <c r="I12" s="28">
         <f>+VLOOKUP($C12,'R6'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q6'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="J12" s="34">
+        <v>-8</v>
+      </c>
+      <c r="J12" s="28">
         <f>+VLOOKUP($C12,'R7'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q7'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="K12" s="34">
+        <v>4</v>
+      </c>
+      <c r="K12" s="28">
         <f>+VLOOKUP($C12,'R8'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q8'!$B$3:$J$22,9,)</f>
         <v>-11</v>
       </c>
-      <c r="L12" s="34">
+      <c r="L12" s="28">
         <f>+VLOOKUP($C12,'R9'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="M12" s="34">
+        <v>13</v>
+      </c>
+      <c r="M12" s="28">
         <f>+VLOOKUP($C12,'R10'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q10'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34">
+        <v>26</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>116</v>
       </c>
       <c r="S12" s="45" t="s">
         <v>34</v>
@@ -17348,58 +17390,58 @@
       </c>
     </row>
     <row r="13" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="32">
+      <c r="B13" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="82">
         <f>+VLOOKUP($C13,'R1'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q1'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="E13" s="32">
+        <v>24</v>
+      </c>
+      <c r="E13" s="82">
         <f>+VLOOKUP($C13,'R2'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-4</v>
-      </c>
-      <c r="F13" s="32">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="82">
         <f>+VLOOKUP($C13,'R3'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q3'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="G13" s="32">
+        <v>-9</v>
+      </c>
+      <c r="G13" s="82">
         <f>+VLOOKUP($C13,'R4'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q4'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="H13" s="32">
+        <v>22</v>
+      </c>
+      <c r="H13" s="82">
         <f>+VLOOKUP($C13,'R5'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q5'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="I13" s="32">
+        <v>2</v>
+      </c>
+      <c r="I13" s="82">
         <f>+VLOOKUP($C13,'R6'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q6'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="J13" s="32">
+        <v>14</v>
+      </c>
+      <c r="J13" s="82">
         <f>+VLOOKUP($C13,'R7'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q7'!$B$3:$J$22,9,)</f>
-        <v>21</v>
-      </c>
-      <c r="K13" s="32">
+        <v>18</v>
+      </c>
+      <c r="K13" s="82">
         <f>+VLOOKUP($C13,'R8'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q8'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="L13" s="32">
+        <v>45</v>
+      </c>
+      <c r="L13" s="82">
         <f>+VLOOKUP($C13,'R9'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
-      </c>
-      <c r="M13" s="32">
+        <v>-14</v>
+      </c>
+      <c r="M13" s="82">
         <f>+VLOOKUP($C13,'R10'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q10'!$B$3:$J$22,9,)</f>
-        <v>14</v>
-      </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32">
+        <v>10</v>
+      </c>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>36</v>
@@ -17445,113 +17487,113 @@
       </c>
     </row>
     <row r="14" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="32">
+        <f>+VLOOKUP($C14,'R1'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q1'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="E14" s="32">
+        <f>+VLOOKUP($C14,'R2'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q2'!$B$3:$J$22,9,)</f>
+        <v>-4</v>
+      </c>
+      <c r="F14" s="32">
+        <f>+VLOOKUP($C14,'R3'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q3'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="G14" s="32">
+        <f>+VLOOKUP($C14,'R4'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q4'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="H14" s="32">
+        <f>+VLOOKUP($C14,'R5'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q5'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="I14" s="32">
+        <f>+VLOOKUP($C14,'R6'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q6'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
+      <c r="J14" s="32">
+        <f>+VLOOKUP($C14,'R7'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q7'!$B$3:$J$22,9,)</f>
+        <v>21</v>
+      </c>
+      <c r="K14" s="32">
+        <f>+VLOOKUP($C14,'R8'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q8'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="L14" s="32">
+        <f>+VLOOKUP($C14,'R9'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-11</v>
+      </c>
+      <c r="M14" s="32">
+        <f>+VLOOKUP($C14,'R10'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q10'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C15" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="33">
-        <f>+VLOOKUP($C14,'R1'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q1'!$B$3:$J$22,9,)</f>
+      <c r="D15" s="33">
+        <f>+VLOOKUP($C15,'R1'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q1'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="E14" s="33">
-        <f>+VLOOKUP($C14,'R2'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q2'!$B$3:$J$22,9,)</f>
+      <c r="E15" s="33">
+        <f>+VLOOKUP($C15,'R2'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q2'!$B$3:$J$22,9,)</f>
         <v>17</v>
       </c>
-      <c r="F14" s="33">
-        <f>+VLOOKUP($C14,'R3'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q3'!$B$3:$J$22,9,)</f>
+      <c r="F15" s="33">
+        <f>+VLOOKUP($C15,'R3'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q3'!$B$3:$J$22,9,)</f>
         <v>15</v>
       </c>
-      <c r="G14" s="33">
-        <f>+VLOOKUP($C14,'R4'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q4'!$B$3:$J$22,9,)</f>
+      <c r="G15" s="33">
+        <f>+VLOOKUP($C15,'R4'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q4'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="H14" s="33">
-        <f>+VLOOKUP($C14,'R5'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="H15" s="33">
+        <f>+VLOOKUP($C15,'R5'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q5'!$B$3:$J$22,9,)</f>
         <v>15</v>
       </c>
-      <c r="I14" s="33">
-        <f>+VLOOKUP($C14,'R6'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q6'!$B$3:$J$22,9,)</f>
+      <c r="I15" s="33">
+        <f>+VLOOKUP($C15,'R6'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q6'!$B$3:$J$22,9,)</f>
         <v>8</v>
       </c>
-      <c r="J14" s="33">
-        <f>+VLOOKUP($C14,'R7'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q7'!$B$3:$J$22,9,)</f>
+      <c r="J15" s="33">
+        <f>+VLOOKUP($C15,'R7'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q7'!$B$3:$J$22,9,)</f>
         <v>15</v>
       </c>
-      <c r="K14" s="33">
-        <f>+VLOOKUP($C14,'R8'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q8'!$B$3:$J$22,9,)</f>
+      <c r="K15" s="33">
+        <f>+VLOOKUP($C15,'R8'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q8'!$B$3:$J$22,9,)</f>
         <v>10</v>
       </c>
-      <c r="L14" s="33">
-        <f>+VLOOKUP($C14,'R9'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q9'!$B$3:$J$22,9,)</f>
+      <c r="L15" s="33">
+        <f>+VLOOKUP($C15,'R9'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q9'!$B$3:$J$22,9,)</f>
         <v>18</v>
       </c>
-      <c r="M14" s="33">
-        <f>+VLOOKUP($C14,'R10'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q10'!$B$3:$J$22,9,)</f>
+      <c r="M15" s="33">
+        <f>+VLOOKUP($C15,'R10'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q10'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33">
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33">
         <f t="shared" si="0"/>
         <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="35">
-        <f>+VLOOKUP($C15,'R1'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q1'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="E15" s="35">
-        <f>+VLOOKUP($C15,'R2'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q2'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="F15" s="35">
-        <f>+VLOOKUP($C15,'R3'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="G15" s="35">
-        <f>+VLOOKUP($C15,'R4'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q4'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="H15" s="35">
-        <f>+VLOOKUP($C15,'R5'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q5'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="35">
-        <f>+VLOOKUP($C15,'R6'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q6'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="J15" s="35">
-        <f>+VLOOKUP($C15,'R7'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q7'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="K15" s="35">
-        <f>+VLOOKUP($C15,'R8'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q8'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="L15" s="35">
-        <f>+VLOOKUP($C15,'R9'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="M15" s="35">
-        <f>+VLOOKUP($C15,'R10'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q10'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35">
-        <f t="shared" si="0"/>
-        <v>54</v>
       </c>
       <c r="AA15" s="238" t="s">
         <v>0</v>
@@ -17574,54 +17616,54 @@
         <v>30</v>
       </c>
       <c r="C16" s="77" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D16" s="82">
         <f>+VLOOKUP($C16,'R1'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q1'!$B$3:$J$22,9,)</f>
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E16" s="82">
         <f>+VLOOKUP($C16,'R2'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="F16" s="82">
         <f>+VLOOKUP($C16,'R3'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="G16" s="82">
         <f>+VLOOKUP($C16,'R4'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q4'!$B$3:$J$22,9,)</f>
-        <v>22</v>
+        <v>-13</v>
       </c>
       <c r="H16" s="82">
         <f>+VLOOKUP($C16,'R5'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I16" s="82">
         <f>+VLOOKUP($C16,'R6'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q6'!$B$3:$J$22,9,)</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J16" s="82">
         <f>+VLOOKUP($C16,'R7'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q7'!$B$3:$J$22,9,)</f>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K16" s="82">
         <f>+VLOOKUP($C16,'R8'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q8'!$B$3:$J$22,9,)</f>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="L16" s="82">
         <f>+VLOOKUP($C16,'R9'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
+        <v>24</v>
       </c>
       <c r="M16" s="82">
         <f>+VLOOKUP($C16,'R10'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q10'!$B$3:$J$22,9,)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N16" s="82"/>
       <c r="O16" s="82"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="82">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AA16" s="240" t="s">
         <v>24</v>
@@ -17644,412 +17686,412 @@
         <v>22</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D17" s="30">
         <f>+VLOOKUP($C17,'R1'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q1'!$B$3:$J$22,9,)</f>
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E17" s="30">
         <f>+VLOOKUP($C17,'R2'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q2'!$B$3:$J$22,9,)</f>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F17" s="30">
         <f>+VLOOKUP($C17,'R3'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="G17" s="30">
         <f>+VLOOKUP($C17,'R4'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q4'!$B$3:$J$22,9,)</f>
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="H17" s="30">
         <f>+VLOOKUP($C17,'R5'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q5'!$B$3:$J$22,9,)</f>
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="I17" s="30">
         <f>+VLOOKUP($C17,'R6'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q6'!$B$3:$J$22,9,)</f>
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J17" s="30">
         <f>+VLOOKUP($C17,'R7'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q7'!$B$3:$J$22,9,)</f>
-        <v>20</v>
+        <v>-6</v>
       </c>
       <c r="K17" s="30">
         <f>+VLOOKUP($C17,'R8'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q8'!$B$3:$J$22,9,)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L17" s="30">
         <f>+VLOOKUP($C17,'R9'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q9'!$B$3:$J$22,9,)</f>
-        <v>24</v>
+        <v>-8</v>
       </c>
       <c r="M17" s="30">
         <f>+VLOOKUP($C17,'R10'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q10'!$B$3:$J$22,9,)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N17" s="30"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="33">
+        <f>+VLOOKUP($C18,'R1'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q1'!$B$3:$J$22,9,)</f>
+        <v>19</v>
+      </c>
+      <c r="E18" s="33">
+        <f>+VLOOKUP($C18,'R2'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q2'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="F18" s="33">
+        <f>+VLOOKUP($C18,'R3'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q3'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="G18" s="33">
+        <f>+VLOOKUP($C18,'R4'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q4'!$B$3:$J$22,9,)</f>
+        <v>9</v>
+      </c>
+      <c r="H18" s="33">
+        <f>+VLOOKUP($C18,'R5'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q5'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="I18" s="33">
+        <f>+VLOOKUP($C18,'R6'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q6'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="J18" s="33">
+        <f>+VLOOKUP($C18,'R7'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q7'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="K18" s="33">
+        <f>+VLOOKUP($C18,'R8'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q8'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="L18" s="33">
+        <f>+VLOOKUP($C18,'R9'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="M18" s="33">
+        <f>+VLOOKUP($C18,'R10'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q10'!$B$3:$J$22,9,)</f>
+        <v>17</v>
+      </c>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C19" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="28">
-        <f>+VLOOKUP($C18,'R1'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q1'!$B$3:$J$22,9,)</f>
+      <c r="D19" s="28">
+        <f>+VLOOKUP($C19,'R1'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q1'!$B$3:$J$22,9,)</f>
         <v>6</v>
       </c>
-      <c r="E18" s="28">
-        <f>+VLOOKUP($C18,'R2'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q2'!$B$3:$J$22,9,)</f>
+      <c r="E19" s="28">
+        <f>+VLOOKUP($C19,'R2'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q2'!$B$3:$J$22,9,)</f>
         <v>-9</v>
       </c>
-      <c r="F18" s="28">
-        <f>+VLOOKUP($C18,'R3'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q3'!$B$3:$J$22,9,)</f>
+      <c r="F19" s="28">
+        <f>+VLOOKUP($C19,'R3'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q3'!$B$3:$J$22,9,)</f>
         <v>21</v>
       </c>
-      <c r="G18" s="28">
-        <f>+VLOOKUP($C18,'R4'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q4'!$B$3:$J$22,9,)</f>
+      <c r="G19" s="28">
+        <f>+VLOOKUP($C19,'R4'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q4'!$B$3:$J$22,9,)</f>
         <v>6</v>
       </c>
-      <c r="H18" s="28">
-        <f>+VLOOKUP($C18,'R5'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="H19" s="28">
+        <f>+VLOOKUP($C19,'R5'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q5'!$B$3:$J$22,9,)</f>
         <v>2</v>
       </c>
-      <c r="I18" s="28">
-        <f>+VLOOKUP($C18,'R6'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q6'!$B$3:$J$22,9,)</f>
+      <c r="I19" s="28">
+        <f>+VLOOKUP($C19,'R6'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q6'!$B$3:$J$22,9,)</f>
         <v>20</v>
       </c>
-      <c r="J18" s="28">
-        <f>+VLOOKUP($C18,'R7'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q7'!$B$3:$J$22,9,)</f>
+      <c r="J19" s="28">
+        <f>+VLOOKUP($C19,'R7'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q7'!$B$3:$J$22,9,)</f>
         <v>8</v>
       </c>
-      <c r="K18" s="28">
-        <f>+VLOOKUP($C18,'R8'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q8'!$B$3:$J$22,9,)</f>
+      <c r="K19" s="28">
+        <f>+VLOOKUP($C19,'R8'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q8'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="L18" s="28">
-        <f>+VLOOKUP($C18,'R9'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q9'!$B$3:$J$22,9,)</f>
+      <c r="L19" s="28">
+        <f>+VLOOKUP($C19,'R9'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q9'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="M18" s="28">
-        <f>+VLOOKUP($C18,'R10'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q10'!$B$3:$J$22,9,)</f>
+      <c r="M19" s="28">
+        <f>+VLOOKUP($C19,'R10'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q10'!$B$3:$J$22,9,)</f>
         <v>7</v>
       </c>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28">
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="29">
-        <f>+VLOOKUP($C19,'R1'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q1'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="E19" s="29">
-        <f>+VLOOKUP($C19,'R2'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q2'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="F19" s="29">
-        <f>+VLOOKUP($C19,'R3'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q3'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="G19" s="29">
-        <f>+VLOOKUP($C19,'R4'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q4'!$B$3:$J$22,9,)</f>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="35">
+        <f>+VLOOKUP($C20,'R1'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q1'!$B$3:$J$22,9,)</f>
         <v>15</v>
       </c>
-      <c r="H19" s="29">
-        <f>+VLOOKUP($C19,'R5'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q5'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="I19" s="29">
-        <f>+VLOOKUP($C19,'R6'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q6'!$B$3:$J$22,9,)</f>
-        <v>19</v>
-      </c>
-      <c r="J19" s="29">
-        <f>+VLOOKUP($C19,'R7'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q7'!$B$3:$J$22,9,)</f>
-        <v>16</v>
-      </c>
-      <c r="K19" s="29">
-        <f>+VLOOKUP($C19,'R8'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q8'!$B$3:$J$22,9,)</f>
+      <c r="E20" s="35">
+        <f>+VLOOKUP($C20,'R2'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q2'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="F20" s="35">
+        <f>+VLOOKUP($C20,'R3'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q3'!$B$3:$J$22,9,)</f>
         <v>-1</v>
       </c>
-      <c r="L19" s="29">
-        <f>+VLOOKUP($C19,'R9'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q9'!$B$3:$J$22,9,)</f>
-        <v>36</v>
-      </c>
-      <c r="M19" s="29">
-        <f>+VLOOKUP($C19,'R10'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q10'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="34">
-        <f>+VLOOKUP($C20,'R1'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
-      </c>
-      <c r="E20" s="34">
-        <f>+VLOOKUP($C20,'R2'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q2'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="F20" s="34">
-        <f>+VLOOKUP($C20,'R3'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q3'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="G20" s="34">
+      <c r="G20" s="35">
         <f>+VLOOKUP($C20,'R4'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q4'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="H20" s="34">
+        <v>8</v>
+      </c>
+      <c r="H20" s="35">
         <f>+VLOOKUP($C20,'R5'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q5'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="I20" s="34">
+        <v>1</v>
+      </c>
+      <c r="I20" s="35">
         <f>+VLOOKUP($C20,'R6'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q6'!$B$3:$J$22,9,)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="34">
+        <v>4</v>
+      </c>
+      <c r="J20" s="35">
         <f>+VLOOKUP($C20,'R7'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q7'!$B$3:$J$22,9,)</f>
         <v>11</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="35">
         <f>+VLOOKUP($C20,'R8'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q8'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="L20" s="34">
+        <v>15</v>
+      </c>
+      <c r="L20" s="35">
         <f>+VLOOKUP($C20,'R9'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q9'!$B$3:$J$22,9,)</f>
-        <v>14</v>
-      </c>
-      <c r="M20" s="34">
+        <v>-14</v>
+      </c>
+      <c r="M20" s="35">
         <f>+VLOOKUP($C20,'R10'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q10'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34">
+        <v>11</v>
+      </c>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="35">
+      <c r="B21" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="34">
         <f>+VLOOKUP($C21,'R1'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-12</v>
-      </c>
-      <c r="E21" s="35">
+        <v>-11</v>
+      </c>
+      <c r="E21" s="34">
         <f>+VLOOKUP($C21,'R2'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q2'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="F21" s="35">
+        <v>6</v>
+      </c>
+      <c r="F21" s="34">
         <f>+VLOOKUP($C21,'R3'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q3'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="G21" s="35">
+        <v>6</v>
+      </c>
+      <c r="G21" s="34">
         <f>+VLOOKUP($C21,'R4'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q4'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="H21" s="35">
+        <v>7</v>
+      </c>
+      <c r="H21" s="34">
         <f>+VLOOKUP($C21,'R5'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q5'!$B$3:$J$22,9,)</f>
         <v>5</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="34">
         <f>+VLOOKUP($C21,'R6'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q6'!$B$3:$J$22,9,)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="34">
+        <f>+VLOOKUP($C21,'R7'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q7'!$B$3:$J$22,9,)</f>
+        <v>11</v>
+      </c>
+      <c r="K21" s="34">
+        <f>+VLOOKUP($C21,'R8'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q8'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="L21" s="34">
+        <f>+VLOOKUP($C21,'R9'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q9'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="M21" s="34">
+        <f>+VLOOKUP($C21,'R10'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q10'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="35">
+        <f>+VLOOKUP($C22,'R1'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q1'!$B$3:$J$22,9,)</f>
+        <v>-12</v>
+      </c>
+      <c r="E22" s="35">
+        <f>+VLOOKUP($C22,'R2'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q2'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="F22" s="35">
+        <f>+VLOOKUP($C22,'R3'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q3'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="G22" s="35">
+        <f>+VLOOKUP($C22,'R4'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q4'!$B$3:$J$22,9,)</f>
+        <v>18</v>
+      </c>
+      <c r="H22" s="35">
+        <f>+VLOOKUP($C22,'R5'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q5'!$B$3:$J$22,9,)</f>
+        <v>5</v>
+      </c>
+      <c r="I22" s="35">
+        <f>+VLOOKUP($C22,'R6'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q6'!$B$3:$J$22,9,)</f>
         <v>9</v>
       </c>
-      <c r="J21" s="35">
-        <f>+VLOOKUP($C21,'R7'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q7'!$B$3:$J$22,9,)</f>
+      <c r="J22" s="35">
+        <f>+VLOOKUP($C22,'R7'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q7'!$B$3:$J$22,9,)</f>
         <v>-11</v>
       </c>
-      <c r="K21" s="35">
-        <f>+VLOOKUP($C21,'R8'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q8'!$B$3:$J$22,9,)</f>
+      <c r="K22" s="35">
+        <f>+VLOOKUP($C22,'R8'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q8'!$B$3:$J$22,9,)</f>
         <v>14</v>
       </c>
-      <c r="L21" s="35">
-        <f>+VLOOKUP($C21,'R9'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q9'!$B$3:$J$22,9,)</f>
+      <c r="L22" s="35">
+        <f>+VLOOKUP($C22,'R9'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q9'!$B$3:$J$22,9,)</f>
         <v>17</v>
       </c>
-      <c r="M21" s="35">
-        <f>+VLOOKUP($C21,'R10'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q10'!$B$3:$J$22,9,)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35">
+      <c r="M22" s="35">
+        <f>+VLOOKUP($C22,'R10'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q10'!$B$3:$J$22,9,)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="30">
-        <f>+VLOOKUP($C22,'R1'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q1'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="E22" s="30">
-        <f>+VLOOKUP($C22,'R2'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q2'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="F22" s="30">
-        <f>+VLOOKUP($C22,'R3'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q3'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="G22" s="30">
-        <f>+VLOOKUP($C22,'R4'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q4'!$B$3:$J$22,9,)</f>
-        <v>-2</v>
-      </c>
-      <c r="H22" s="30">
-        <f>+VLOOKUP($C22,'R5'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I22" s="30">
-        <f>+VLOOKUP($C22,'R6'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q6'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="J22" s="30">
-        <f>+VLOOKUP($C22,'R7'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q7'!$B$3:$J$22,9,)</f>
-        <v>-6</v>
-      </c>
-      <c r="K22" s="30">
-        <f>+VLOOKUP($C22,'R8'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q8'!$B$3:$J$22,9,)</f>
-        <v>37</v>
-      </c>
-      <c r="L22" s="30">
-        <f>+VLOOKUP($C22,'R9'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-8</v>
-      </c>
-      <c r="M22" s="30">
-        <f>+VLOOKUP($C22,'R10'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q10'!$B$3:$J$22,9,)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30">
+    <row r="23" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="269" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="270">
+        <f>+VLOOKUP($C23,'R1'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q1'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="E23" s="270">
+        <f>+VLOOKUP($C23,'R2'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q2'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="F23" s="270">
+        <f>+VLOOKUP($C23,'R3'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q3'!$B$3:$J$22,9,)</f>
+        <v>18</v>
+      </c>
+      <c r="G23" s="270">
+        <f>+VLOOKUP($C23,'R4'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q4'!$B$3:$J$22,9,)</f>
+        <v>-12</v>
+      </c>
+      <c r="H23" s="270">
+        <f>+VLOOKUP($C23,'R5'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q5'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="I23" s="270">
+        <f>+VLOOKUP($C23,'R6'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q6'!$B$3:$J$22,9,)</f>
+        <v>9</v>
+      </c>
+      <c r="J23" s="270">
+        <f>+VLOOKUP($C23,'R7'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q7'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="K23" s="270">
+        <f>+VLOOKUP($C23,'R8'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q8'!$B$3:$J$22,9,)</f>
+        <v>-11</v>
+      </c>
+      <c r="L23" s="270">
+        <f>+VLOOKUP($C23,'R9'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="M23" s="270">
+        <f>+VLOOKUP($C23,'R10'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q10'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="N23" s="270"/>
+      <c r="O23" s="270"/>
+      <c r="P23" s="270"/>
+      <c r="Q23" s="270">
         <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="398" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="235" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="399">
-        <f>+VLOOKUP($C23,'R1'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-10</v>
-      </c>
-      <c r="E23" s="399">
-        <f>+VLOOKUP($C23,'R2'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q2'!$B$3:$J$22,9,)</f>
-        <v>21</v>
-      </c>
-      <c r="F23" s="399">
-        <f>+VLOOKUP($C23,'R3'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q3'!$B$3:$J$22,9,)</f>
-        <v>27</v>
-      </c>
-      <c r="G23" s="399">
-        <f>+VLOOKUP($C23,'R4'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q4'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="H23" s="399">
-        <f>+VLOOKUP($C23,'R5'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q5'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="I23" s="399">
-        <f>+VLOOKUP($C23,'R6'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q6'!$B$3:$J$22,9,)</f>
-        <v>37</v>
-      </c>
-      <c r="J23" s="399">
-        <f>+VLOOKUP($C23,'R7'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q7'!$B$3:$J$22,9,)</f>
-        <v>16</v>
-      </c>
-      <c r="K23" s="399">
-        <f>+VLOOKUP($C23,'R8'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q8'!$B$3:$J$22,9,)</f>
-        <v>35</v>
-      </c>
-      <c r="L23" s="399">
-        <f>+VLOOKUP($C23,'R9'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-8</v>
-      </c>
-      <c r="M23" s="399">
-        <f>+VLOOKUP($C23,'R10'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q10'!$B$3:$J$22,9,)</f>
-        <v>-13</v>
-      </c>
-      <c r="N23" s="399"/>
-      <c r="O23" s="399"/>
-      <c r="P23" s="399"/>
-      <c r="Q23" s="399">
-        <f t="shared" si="0"/>
-        <v>135</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="405" t="s">
+      <c r="B25" s="403" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="406"/>
-      <c r="D25" s="406"/>
-      <c r="E25" s="406"/>
-      <c r="F25" s="406"/>
-      <c r="G25" s="406"/>
-      <c r="H25" s="406"/>
-      <c r="I25" s="406"/>
-      <c r="J25" s="406"/>
-      <c r="K25" s="406"/>
-      <c r="L25" s="406"/>
-      <c r="M25" s="406"/>
-      <c r="N25" s="406"/>
-      <c r="O25" s="406"/>
-      <c r="P25" s="406"/>
-      <c r="Q25" s="407"/>
+      <c r="C25" s="404"/>
+      <c r="D25" s="404"/>
+      <c r="E25" s="404"/>
+      <c r="F25" s="404"/>
+      <c r="G25" s="404"/>
+      <c r="H25" s="404"/>
+      <c r="I25" s="404"/>
+      <c r="J25" s="404"/>
+      <c r="K25" s="404"/>
+      <c r="L25" s="404"/>
+      <c r="M25" s="404"/>
+      <c r="N25" s="404"/>
+      <c r="O25" s="404"/>
+      <c r="P25" s="404"/>
+      <c r="Q25" s="405"/>
     </row>
     <row r="26" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="404" t="s">
+      <c r="C26" s="402" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="264" t="s">
@@ -19191,30 +19233,30 @@
     </row>
     <row r="47" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="405" t="s">
+      <c r="B48" s="403" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="406"/>
-      <c r="D48" s="406"/>
-      <c r="E48" s="406"/>
-      <c r="F48" s="406"/>
-      <c r="G48" s="406"/>
-      <c r="H48" s="406"/>
-      <c r="I48" s="406"/>
-      <c r="J48" s="406"/>
-      <c r="K48" s="406"/>
-      <c r="L48" s="406"/>
-      <c r="M48" s="406"/>
-      <c r="N48" s="406"/>
-      <c r="O48" s="406"/>
-      <c r="P48" s="406"/>
-      <c r="Q48" s="407"/>
+      <c r="C48" s="404"/>
+      <c r="D48" s="404"/>
+      <c r="E48" s="404"/>
+      <c r="F48" s="404"/>
+      <c r="G48" s="404"/>
+      <c r="H48" s="404"/>
+      <c r="I48" s="404"/>
+      <c r="J48" s="404"/>
+      <c r="K48" s="404"/>
+      <c r="L48" s="404"/>
+      <c r="M48" s="404"/>
+      <c r="N48" s="404"/>
+      <c r="O48" s="404"/>
+      <c r="P48" s="404"/>
+      <c r="Q48" s="405"/>
     </row>
     <row r="49" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="404" t="s">
+      <c r="C49" s="402" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="264" t="s">
@@ -20357,7 +20399,7 @@
   </sheetData>
   <autoFilter ref="B3:Q23" xr:uid="{00000000-0009-0000-0000-000001000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:Q23">
-      <sortCondition descending="1" ref="M3:M23"/>
+      <sortCondition descending="1" ref="Q3:Q23"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
@@ -20382,28 +20424,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="404" t="s">
+      <c r="D2" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="402" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="404" t="s">
+      <c r="F2" s="402" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -20980,13 +21022,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -20998,19 +21040,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="404" t="s">
+      <c r="J2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="404" t="s">
+      <c r="K2" s="402" t="s">
         <v>113</v>
       </c>
     </row>
@@ -21704,28 +21746,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="404" t="s">
+      <c r="D2" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="402" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="404" t="s">
+      <c r="F2" s="402" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -22898,7 +22940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
@@ -23448,27 +23490,27 @@
       <c r="I21" s="377"/>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="400">
+      <c r="A22" s="398">
         <v>55</v>
       </c>
-      <c r="B22" s="401" t="s">
+      <c r="B22" s="399" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="401" t="s">
+      <c r="C22" s="399" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="401" t="s">
+      <c r="D22" s="399" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="402"/>
-      <c r="F22" s="403"/>
-      <c r="G22" s="403">
+      <c r="E22" s="400"/>
+      <c r="F22" s="401"/>
+      <c r="G22" s="401">
         <v>-10</v>
       </c>
-      <c r="H22" s="403">
-        <v>0</v>
-      </c>
-      <c r="I22" s="403"/>
+      <c r="H22" s="401">
+        <v>0</v>
+      </c>
+      <c r="I22" s="401"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000017000000}">
@@ -23500,55 +23542,55 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="404" t="s">
+      <c r="D2" s="402" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="404" t="s">
+      <c r="E2" s="402" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="404" t="s">
+      <c r="F2" s="402" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="404" t="s">
+      <c r="I2" s="402" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="404" t="s">
+      <c r="J2" s="402" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="404" t="s">
+      <c r="K2" s="402" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="404" t="s">
+      <c r="L2" s="402" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="404" t="s">
+      <c r="M2" s="402" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="404" t="s">
+      <c r="N2" s="402" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="404" t="s">
+      <c r="O2" s="402" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="404" t="s">
+      <c r="P2" s="402" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="404" t="s">
+      <c r="Q2" s="402" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="404" t="s">
+      <c r="R2" s="402" t="s">
         <v>82</v>
       </c>
     </row>
@@ -24454,10 +24496,10 @@
     </row>
     <row r="23" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="404" t="s">
+      <c r="B24" s="402" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="404" t="s">
+      <c r="C24" s="402" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="264" t="s">
@@ -24487,22 +24529,22 @@
       <c r="L24" s="264" t="s">
         <v>76</v>
       </c>
-      <c r="M24" s="404" t="s">
+      <c r="M24" s="402" t="s">
         <v>77</v>
       </c>
-      <c r="N24" s="404" t="s">
+      <c r="N24" s="402" t="s">
         <v>78</v>
       </c>
-      <c r="O24" s="404" t="s">
+      <c r="O24" s="402" t="s">
         <v>79</v>
       </c>
-      <c r="P24" s="404" t="s">
+      <c r="P24" s="402" t="s">
         <v>80</v>
       </c>
-      <c r="Q24" s="404" t="s">
+      <c r="Q24" s="402" t="s">
         <v>81</v>
       </c>
-      <c r="R24" s="404" t="s">
+      <c r="R24" s="402" t="s">
         <v>82</v>
       </c>
     </row>
@@ -24970,8 +25012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AF31"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AI16" sqref="AI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24979,106 +25021,104 @@
     <col min="3" max="5" width="13" style="253" hidden="1" customWidth="1"/>
     <col min="6" max="8" width="10.83203125" style="253" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="253" customWidth="1"/>
-    <col min="10" max="13" width="10.83203125" style="253" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="253" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11" style="253" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="10.83203125" style="253" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="253" customWidth="1"/>
     <col min="18" max="20" width="13" style="253" hidden="1" customWidth="1"/>
     <col min="21" max="22" width="10.83203125" style="253" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="253" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="10.83203125" style="253" customWidth="1"/>
     <col min="26" max="26" width="13" style="253" customWidth="1"/>
     <col min="27" max="27" width="10.6640625" style="253" customWidth="1"/>
-    <col min="28" max="28" width="10.83203125" style="253" customWidth="1"/>
-    <col min="29" max="29" width="10.83203125" style="253" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="10.83203125" style="253" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="13" style="253" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="207"/>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="404" t="s">
+      <c r="D2" s="402" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="404" t="s">
+      <c r="E2" s="402" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="404" t="s">
+      <c r="F2" s="402" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="404" t="s">
+      <c r="I2" s="402" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="404" t="s">
+      <c r="J2" s="402" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="404" t="s">
+      <c r="K2" s="402" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="404" t="s">
+      <c r="L2" s="402" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="404" t="s">
+      <c r="M2" s="402" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="404" t="s">
+      <c r="N2" s="402" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="404" t="s">
+      <c r="O2" s="402" t="s">
         <v>95</v>
       </c>
       <c r="Q2" s="207"/>
-      <c r="R2" s="404" t="s">
+      <c r="R2" s="402" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="404" t="s">
+      <c r="S2" s="402" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="404" t="s">
+      <c r="T2" s="402" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="404" t="s">
+      <c r="U2" s="402" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="404" t="s">
+      <c r="V2" s="402" t="s">
         <v>87</v>
       </c>
-      <c r="W2" s="404" t="s">
+      <c r="W2" s="402" t="s">
         <v>88</v>
       </c>
-      <c r="X2" s="404" t="s">
+      <c r="X2" s="402" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" s="404" t="s">
+      <c r="Y2" s="402" t="s">
         <v>90</v>
       </c>
-      <c r="Z2" s="404" t="s">
+      <c r="Z2" s="402" t="s">
         <v>91</v>
       </c>
-      <c r="AA2" s="404" t="s">
+      <c r="AA2" s="402" t="s">
         <v>92</v>
       </c>
-      <c r="AB2" s="404" t="s">
+      <c r="AB2" s="402" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" s="404" t="s">
+      <c r="AC2" s="402" t="s">
         <v>94</v>
       </c>
-      <c r="AD2" s="404" t="s">
+      <c r="AD2" s="402" t="s">
         <v>95</v>
       </c>
-      <c r="AE2" s="404" t="s">
+      <c r="AE2" s="402" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="404" t="s">
+      <c r="AF2" s="402" t="s">
         <v>96</v>
       </c>
     </row>
@@ -25113,7 +25153,9 @@
       <c r="K3" s="83">
         <v>3089</v>
       </c>
-      <c r="L3" s="83"/>
+      <c r="L3" s="83">
+        <v>3527</v>
+      </c>
       <c r="M3" s="83"/>
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
@@ -25147,17 +25189,19 @@
       <c r="Z3" s="83">
         <v>379</v>
       </c>
-      <c r="AA3" s="83"/>
+      <c r="AA3" s="83">
+        <v>438</v>
+      </c>
       <c r="AB3" s="83"/>
       <c r="AC3" s="83"/>
       <c r="AD3" s="83"/>
       <c r="AE3" s="83">
         <f t="shared" ref="AE3:AE9" si="0">SUM(R3:AD3)</f>
-        <v>3089</v>
+        <v>3527</v>
       </c>
       <c r="AF3" s="226">
         <f t="shared" ref="AF3:AF9" si="1">AVERAGE(R3:AD3)</f>
-        <v>343.22222222222223</v>
+        <v>352.7</v>
       </c>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.2">
@@ -25191,7 +25235,9 @@
       <c r="K4" s="259">
         <v>3031</v>
       </c>
-      <c r="L4" s="259"/>
+      <c r="L4" s="259">
+        <v>3499</v>
+      </c>
       <c r="M4" s="259"/>
       <c r="N4" s="259"/>
       <c r="O4" s="259"/>
@@ -25225,17 +25271,19 @@
       <c r="Z4" s="259">
         <v>499</v>
       </c>
-      <c r="AA4" s="259"/>
+      <c r="AA4" s="259">
+        <v>468</v>
+      </c>
       <c r="AB4" s="259"/>
       <c r="AC4" s="259"/>
       <c r="AD4" s="259"/>
       <c r="AE4" s="259">
         <f t="shared" si="0"/>
-        <v>3031</v>
+        <v>3499</v>
       </c>
       <c r="AF4" s="227">
         <f t="shared" si="1"/>
-        <v>336.77777777777777</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.2">
@@ -25269,7 +25317,9 @@
       <c r="K5" s="259">
         <v>2903</v>
       </c>
-      <c r="L5" s="259"/>
+      <c r="L5" s="259">
+        <v>3155</v>
+      </c>
       <c r="M5" s="259"/>
       <c r="N5" s="259"/>
       <c r="O5" s="259"/>
@@ -25303,17 +25353,19 @@
       <c r="Z5" s="259">
         <v>417</v>
       </c>
-      <c r="AA5" s="259"/>
+      <c r="AA5" s="259">
+        <v>252</v>
+      </c>
       <c r="AB5" s="259"/>
       <c r="AC5" s="259"/>
       <c r="AD5" s="259"/>
       <c r="AE5" s="259">
         <f t="shared" si="0"/>
-        <v>2903</v>
+        <v>3155</v>
       </c>
       <c r="AF5" s="227">
         <f t="shared" si="1"/>
-        <v>322.55555555555554</v>
+        <v>315.5</v>
       </c>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.2">
@@ -25347,7 +25399,9 @@
       <c r="K6" s="259">
         <v>2789</v>
       </c>
-      <c r="L6" s="259"/>
+      <c r="L6" s="259">
+        <v>3067</v>
+      </c>
       <c r="M6" s="259"/>
       <c r="N6" s="259"/>
       <c r="O6" s="259"/>
@@ -25381,17 +25435,19 @@
       <c r="Z6" s="259">
         <v>357</v>
       </c>
-      <c r="AA6" s="259"/>
+      <c r="AA6" s="259">
+        <v>278</v>
+      </c>
       <c r="AB6" s="259"/>
       <c r="AC6" s="259"/>
       <c r="AD6" s="259"/>
       <c r="AE6" s="259">
         <f t="shared" si="0"/>
-        <v>2789</v>
+        <v>3067</v>
       </c>
       <c r="AF6" s="227">
         <f t="shared" si="1"/>
-        <v>309.88888888888891</v>
+        <v>306.7</v>
       </c>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.2">
@@ -25425,7 +25481,9 @@
       <c r="K7" s="259">
         <v>2491</v>
       </c>
-      <c r="L7" s="259"/>
+      <c r="L7" s="259">
+        <v>2741</v>
+      </c>
       <c r="M7" s="259"/>
       <c r="N7" s="259"/>
       <c r="O7" s="259"/>
@@ -25459,17 +25517,19 @@
       <c r="Z7" s="259">
         <v>337</v>
       </c>
-      <c r="AA7" s="259"/>
+      <c r="AA7" s="259">
+        <v>250</v>
+      </c>
       <c r="AB7" s="259"/>
       <c r="AC7" s="259"/>
       <c r="AD7" s="259"/>
       <c r="AE7" s="259">
         <f t="shared" si="0"/>
-        <v>2491</v>
+        <v>2741</v>
       </c>
       <c r="AF7" s="227">
         <f t="shared" si="1"/>
-        <v>276.77777777777777</v>
+        <v>274.10000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.2">
@@ -25501,7 +25561,9 @@
       <c r="K8" s="259">
         <v>2161</v>
       </c>
-      <c r="L8" s="259"/>
+      <c r="L8" s="259">
+        <v>2391</v>
+      </c>
       <c r="M8" s="259"/>
       <c r="N8" s="259"/>
       <c r="O8" s="259"/>
@@ -25533,17 +25595,19 @@
       <c r="Z8" s="259">
         <v>309</v>
       </c>
-      <c r="AA8" s="259"/>
+      <c r="AA8" s="259">
+        <v>230</v>
+      </c>
       <c r="AB8" s="259"/>
       <c r="AC8" s="259"/>
       <c r="AD8" s="259"/>
       <c r="AE8" s="259">
         <f t="shared" si="0"/>
-        <v>2161</v>
+        <v>2391</v>
       </c>
       <c r="AF8" s="227">
         <f t="shared" si="1"/>
-        <v>270.125</v>
+        <v>265.66666666666669</v>
       </c>
     </row>
     <row r="9" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -25577,7 +25641,9 @@
       <c r="K9" s="252">
         <v>1941</v>
       </c>
-      <c r="L9" s="252"/>
+      <c r="L9" s="252">
+        <v>2198</v>
+      </c>
       <c r="M9" s="252"/>
       <c r="N9" s="252"/>
       <c r="O9" s="252"/>
@@ -25611,105 +25677,107 @@
       <c r="Z9" s="252">
         <v>304</v>
       </c>
-      <c r="AA9" s="252"/>
+      <c r="AA9" s="252">
+        <v>257</v>
+      </c>
       <c r="AB9" s="252"/>
       <c r="AC9" s="252"/>
       <c r="AD9" s="252"/>
       <c r="AE9" s="252">
         <f t="shared" si="0"/>
-        <v>1941</v>
+        <v>2198</v>
       </c>
       <c r="AF9" s="228">
         <f t="shared" si="1"/>
-        <v>215.66666666666666</v>
+        <v>219.8</v>
       </c>
     </row>
     <row r="27" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="207"/>
-      <c r="C28" s="404" t="s">
+      <c r="C28" s="402" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="404" t="s">
+      <c r="D28" s="402" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="404" t="s">
+      <c r="E28" s="402" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="404" t="s">
+      <c r="F28" s="402" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="404" t="s">
+      <c r="G28" s="402" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="404" t="s">
+      <c r="H28" s="402" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="404" t="s">
+      <c r="I28" s="402" t="s">
         <v>89</v>
       </c>
-      <c r="J28" s="404" t="s">
+      <c r="J28" s="402" t="s">
         <v>90</v>
       </c>
-      <c r="K28" s="404" t="s">
+      <c r="K28" s="402" t="s">
         <v>91</v>
       </c>
-      <c r="L28" s="404" t="s">
+      <c r="L28" s="402" t="s">
         <v>92</v>
       </c>
-      <c r="M28" s="404" t="s">
+      <c r="M28" s="402" t="s">
         <v>93</v>
       </c>
-      <c r="N28" s="404" t="s">
+      <c r="N28" s="402" t="s">
         <v>94</v>
       </c>
-      <c r="O28" s="404" t="s">
+      <c r="O28" s="402" t="s">
         <v>95</v>
       </c>
       <c r="Q28" s="207"/>
-      <c r="R28" s="404" t="s">
+      <c r="R28" s="402" t="s">
         <v>83</v>
       </c>
-      <c r="S28" s="404" t="s">
+      <c r="S28" s="402" t="s">
         <v>84</v>
       </c>
-      <c r="T28" s="404" t="s">
+      <c r="T28" s="402" t="s">
         <v>85</v>
       </c>
-      <c r="U28" s="404" t="s">
+      <c r="U28" s="402" t="s">
         <v>86</v>
       </c>
-      <c r="V28" s="404" t="s">
+      <c r="V28" s="402" t="s">
         <v>87</v>
       </c>
-      <c r="W28" s="404" t="s">
+      <c r="W28" s="402" t="s">
         <v>88</v>
       </c>
-      <c r="X28" s="404" t="s">
+      <c r="X28" s="402" t="s">
         <v>89</v>
       </c>
-      <c r="Y28" s="404" t="s">
+      <c r="Y28" s="402" t="s">
         <v>90</v>
       </c>
-      <c r="Z28" s="404" t="s">
+      <c r="Z28" s="402" t="s">
         <v>91</v>
       </c>
-      <c r="AA28" s="404" t="s">
+      <c r="AA28" s="402" t="s">
         <v>92</v>
       </c>
-      <c r="AB28" s="404" t="s">
+      <c r="AB28" s="402" t="s">
         <v>93</v>
       </c>
-      <c r="AC28" s="404" t="s">
+      <c r="AC28" s="402" t="s">
         <v>94</v>
       </c>
-      <c r="AD28" s="404" t="s">
+      <c r="AD28" s="402" t="s">
         <v>95</v>
       </c>
-      <c r="AE28" s="404" t="s">
+      <c r="AE28" s="402" t="s">
         <v>40</v>
       </c>
-      <c r="AF28" s="404" t="s">
+      <c r="AF28" s="402" t="s">
         <v>96</v>
       </c>
     </row>
@@ -25744,7 +25812,9 @@
       <c r="K29" s="83">
         <v>4584</v>
       </c>
-      <c r="L29" s="83"/>
+      <c r="L29" s="83">
+        <v>5279</v>
+      </c>
       <c r="M29" s="83"/>
       <c r="N29" s="83"/>
       <c r="O29" s="83"/>
@@ -25778,17 +25848,19 @@
       <c r="Z29" s="83">
         <v>523</v>
       </c>
-      <c r="AA29" s="83"/>
+      <c r="AA29" s="83">
+        <v>695</v>
+      </c>
       <c r="AB29" s="83"/>
       <c r="AC29" s="83"/>
       <c r="AD29" s="83"/>
       <c r="AE29" s="83">
         <f>SUM(R29:AD29)</f>
-        <v>4584</v>
+        <v>5279</v>
       </c>
       <c r="AF29" s="226">
         <f>AE29/COUNT(R29:AD29)</f>
-        <v>509.33333333333331</v>
+        <v>527.9</v>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.2">
@@ -25822,7 +25894,9 @@
       <c r="K30" s="259">
         <v>4183</v>
       </c>
-      <c r="L30" s="259"/>
+      <c r="L30" s="259">
+        <v>4575</v>
+      </c>
       <c r="M30" s="259"/>
       <c r="N30" s="259"/>
       <c r="O30" s="259"/>
@@ -25856,17 +25930,19 @@
       <c r="Z30" s="259">
         <v>457</v>
       </c>
-      <c r="AA30" s="259"/>
+      <c r="AA30" s="259">
+        <v>392</v>
+      </c>
       <c r="AB30" s="259"/>
       <c r="AC30" s="259"/>
       <c r="AD30" s="259"/>
       <c r="AE30" s="259">
         <f>SUM(R30:AD30)</f>
-        <v>4183</v>
+        <v>4575</v>
       </c>
       <c r="AF30" s="227">
         <f>AE30/COUNT(R30:AD30)</f>
-        <v>464.77777777777777</v>
+        <v>457.5</v>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.2">
@@ -25900,7 +25976,9 @@
       <c r="K31" s="259">
         <v>3622</v>
       </c>
-      <c r="L31" s="259"/>
+      <c r="L31" s="259">
+        <v>4138</v>
+      </c>
       <c r="M31" s="259"/>
       <c r="N31" s="259"/>
       <c r="O31" s="259"/>
@@ -25934,17 +26012,19 @@
       <c r="Z31" s="259">
         <v>304</v>
       </c>
-      <c r="AA31" s="259"/>
+      <c r="AA31" s="259">
+        <v>516</v>
+      </c>
       <c r="AB31" s="259"/>
       <c r="AC31" s="259"/>
       <c r="AD31" s="259"/>
       <c r="AE31" s="259">
         <f>SUM(R31:AD31)</f>
-        <v>3622</v>
+        <v>4138</v>
       </c>
       <c r="AF31" s="227">
         <f>AE31/COUNT(R31:AD31)</f>
-        <v>402.44444444444446</v>
+        <v>413.8</v>
       </c>
     </row>
   </sheetData>
@@ -25978,13 +26058,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -25996,19 +26076,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="404" t="s">
+      <c r="J2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="404" t="s">
+      <c r="K2" s="402" t="s">
         <v>113</v>
       </c>
     </row>
@@ -26704,28 +26784,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="404" t="s">
+      <c r="D2" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="402" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="404" t="s">
+      <c r="F2" s="402" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -27327,13 +27407,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -27345,19 +27425,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="404" t="s">
+      <c r="J2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="404" t="s">
+      <c r="K2" s="402" t="s">
         <v>113</v>
       </c>
     </row>
@@ -28056,28 +28136,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="404" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="404" t="s">
+      <c r="D2" s="402" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="402" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="404" t="s">
+      <c r="F2" s="402" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="264" t="s">
@@ -28712,13 +28792,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="402" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="404" t="s">
+      <c r="B2" s="402" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="404" t="s">
+      <c r="C2" s="402" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -28730,19 +28810,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="404" t="s">
+      <c r="G2" s="402" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="402" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="263" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="404" t="s">
+      <c r="J2" s="402" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="404" t="s">
+      <c r="K2" s="402" t="s">
         <v>113</v>
       </c>
     </row>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3307e3c88395b6d/CSProjects/PythonProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_789C3923253C9866EBC4EC680673EDFF33AD311D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFBE14AC-4B92-594B-85AD-0754C4A6B166}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_789C3923253C9866EBC4EC680673EDFF33AD311D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CECB8C6D-F0F5-F54A-86F5-E107107ADB0A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19300" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="R5" sheetId="14" r:id="rId14"/>
     <sheet name="Q6" sheetId="15" state="hidden" r:id="rId15"/>
     <sheet name="R6" sheetId="16" r:id="rId16"/>
-    <sheet name="Q7" sheetId="17" r:id="rId17"/>
+    <sheet name="Q7" sheetId="17" state="hidden" r:id="rId17"/>
     <sheet name="R7" sheetId="18" r:id="rId18"/>
     <sheet name="Q8" sheetId="19" state="hidden" r:id="rId19"/>
     <sheet name="R8" sheetId="20" r:id="rId20"/>
@@ -13748,7 +13748,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16385,14 +16385,13 @@
   <dimension ref="B1:AH69"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="253" customWidth="1"/>
-    <col min="4" max="10" width="10.83203125" style="253" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="253" customWidth="1"/>
+    <col min="3" max="3" width="11" style="253" customWidth="1"/>
+    <col min="4" max="11" width="10.83203125" style="253" customWidth="1"/>
     <col min="12" max="12" width="11" style="253" customWidth="1"/>
     <col min="13" max="15" width="13" style="253" customWidth="1"/>
     <col min="16" max="16" width="13" style="253" hidden="1" customWidth="1"/>
@@ -16857,15 +16856,14 @@
         <v>24</v>
       </c>
       <c r="M7" s="30">
-        <f>+VLOOKUP($C7,'R10'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q10'!$B$3:$J$22,9,)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="S7" s="39" t="s">
         <v>22</v>
@@ -19512,14 +19510,14 @@
       </c>
       <c r="M53" s="30">
         <f>+VLOOKUP($C53,'R10'!$C$3:$H$22,5,)</f>
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="N53" s="30"/>
       <c r="O53" s="30"/>
       <c r="P53" s="30"/>
       <c r="Q53" s="30">
         <f t="shared" si="4"/>
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
@@ -20417,7 +20415,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1048576"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22340,7 +22338,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B16"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22940,8 +22938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23378,7 +23376,7 @@
         <v>52</v>
       </c>
       <c r="G17" s="379">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="H17" s="379">
         <v>0</v>
@@ -23681,7 +23679,7 @@
       </c>
       <c r="R4" s="124">
         <f>+VLOOKUP($B4,F!$C$4:$Q$23,15,)/Q4</f>
-        <v>15.307692307692308</v>
+        <v>14.76923076923077</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -25012,8 +25010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AI16" sqref="AI16"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3307e3c88395b6d/CSProjects/PythonProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_789C3923253C9866EBC4EC680673EDFF33AD311D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CECB8C6D-F0F5-F54A-86F5-E107107ADB0A}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_789C3923253C9866EBC4EC680673EDFF33AD311D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{65E4D92F-1685-E643-8518-BC1DEB807AD5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19300" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19400" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="R8" sheetId="20" r:id="rId20"/>
     <sheet name="Q9" sheetId="21" state="hidden" r:id="rId21"/>
     <sheet name="R9" sheetId="22" r:id="rId22"/>
-    <sheet name="Q10" sheetId="23" r:id="rId23"/>
+    <sheet name="Q10" sheetId="23" state="hidden" r:id="rId23"/>
     <sheet name="R10" sheetId="24" r:id="rId24"/>
   </sheets>
   <definedNames>
@@ -16384,8 +16384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AH69"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20414,8 +20414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22938,8 +22938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3307e3c88395b6d/CSProjects/PythonProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_789C3923253C9866EBC4EC680673EDFF33AD311D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{65E4D92F-1685-E643-8518-BC1DEB807AD5}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_2FF84A5F705C127EF31D2784A9537E30876FC519" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FBACC5EC-8325-864C-B447-A73E385F333E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19400" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19400" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,8 @@
     <sheet name="R9" sheetId="22" r:id="rId22"/>
     <sheet name="Q10" sheetId="23" state="hidden" r:id="rId23"/>
     <sheet name="R10" sheetId="24" r:id="rId24"/>
+    <sheet name="Q11" sheetId="25" r:id="rId25"/>
+    <sheet name="R11" sheetId="26" r:id="rId26"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C'!$B$2:$Q$22</definedName>
@@ -45,6 +47,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">P!$B$2:$R$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Q1'!$A$2:$K$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'Q10'!$A$2:$K$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'Q11'!$A$2:$K$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Q2'!$A$2:$K$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Q3'!$A$2:$K$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Q4'!$A$2:$K$22</definedName>
@@ -80,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="823">
   <si>
     <t>Constructor</t>
   </si>
@@ -2420,6 +2423,135 @@
   </si>
   <si>
     <t>1:35:22.195</t>
+  </si>
+  <si>
+    <t>1:26.620</t>
+  </si>
+  <si>
+    <t>1:25.390</t>
+  </si>
+  <si>
+    <t>1:25.525</t>
+  </si>
+  <si>
+    <t>1:26.319</t>
+  </si>
+  <si>
+    <t>1:25.467</t>
+  </si>
+  <si>
+    <t>1:25.562</t>
+  </si>
+  <si>
+    <t>1:26.573</t>
+  </si>
+  <si>
+    <t>1:25.971</t>
+  </si>
+  <si>
+    <t>1:25.269</t>
+  </si>
+  <si>
+    <t>1:27.120</t>
+  </si>
+  <si>
+    <t>1:26.330</t>
+  </si>
+  <si>
+    <t>1:26.704</t>
+  </si>
+  <si>
+    <t>1:26.836</t>
+  </si>
+  <si>
+    <t>1:26.096</t>
+  </si>
+  <si>
+    <t>1:26.223</t>
+  </si>
+  <si>
+    <t>1:27.378</t>
+  </si>
+  <si>
+    <t>1:26.361</t>
+  </si>
+  <si>
+    <t>1:27.086</t>
+  </si>
+  <si>
+    <t>1:26.364</t>
+  </si>
+  <si>
+    <t>1:26.242</t>
+  </si>
+  <si>
+    <t>1:26.829</t>
+  </si>
+  <si>
+    <t>1:26.316</t>
+  </si>
+  <si>
+    <t>1:26.458</t>
+  </si>
+  <si>
+    <t>1:27.072</t>
+  </si>
+  <si>
+    <t>1:26.776</t>
+  </si>
+  <si>
+    <t>1:27.126</t>
+  </si>
+  <si>
+    <t>1:26.285</t>
+  </si>
+  <si>
+    <t>1:26.047</t>
+  </si>
+  <si>
+    <t>1:26.857</t>
+  </si>
+  <si>
+    <t>1:26.240</t>
+  </si>
+  <si>
+    <t>1:26.035</t>
+  </si>
+  <si>
+    <t>1:27.285</t>
+  </si>
+  <si>
+    <t>1:26.848</t>
+  </si>
+  <si>
+    <t>1:28.021</t>
+  </si>
+  <si>
+    <t>1:27.564</t>
+  </si>
+  <si>
+    <t>1:27.107</t>
+  </si>
+  <si>
+    <t>1:27.552</t>
+  </si>
+  <si>
+    <t>1:27.532</t>
+  </si>
+  <si>
+    <t>1:26.936</t>
+  </si>
+  <si>
+    <t>1:27.231</t>
+  </si>
+  <si>
+    <t>1:27.125</t>
+  </si>
+  <si>
+    <t>1:27.812</t>
+  </si>
+  <si>
+    <t>1:27.817</t>
   </si>
 </sst>
 </file>
@@ -3101,7 +3233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="414">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3814,15 +3946,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4304,6 +4427,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4467,7 +4623,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3CD3-A445-845C-5465D089F058}"/>
+              <c16:uniqueId val="{00000000-A790-FE4D-8E10-EC2DDB91F42D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4562,7 +4718,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3CD3-A445-845C-5465D089F058}"/>
+              <c16:uniqueId val="{00000001-A790-FE4D-8E10-EC2DDB91F42D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4657,7 +4813,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3CD3-A445-845C-5465D089F058}"/>
+              <c16:uniqueId val="{00000002-A790-FE4D-8E10-EC2DDB91F42D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4964,7 +5120,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C84D-9245-BD19-7510B694448D}"/>
+              <c16:uniqueId val="{00000000-8083-D54F-BDE0-0D46C670DB5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5050,7 +5206,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C84D-9245-BD19-7510B694448D}"/>
+              <c16:uniqueId val="{00000001-8083-D54F-BDE0-0D46C670DB5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5136,7 +5292,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C84D-9245-BD19-7510B694448D}"/>
+              <c16:uniqueId val="{00000002-8083-D54F-BDE0-0D46C670DB5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5222,7 +5378,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C84D-9245-BD19-7510B694448D}"/>
+              <c16:uniqueId val="{00000003-8083-D54F-BDE0-0D46C670DB5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5308,7 +5464,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C84D-9245-BD19-7510B694448D}"/>
+              <c16:uniqueId val="{00000004-8083-D54F-BDE0-0D46C670DB5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5394,7 +5550,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C84D-9245-BD19-7510B694448D}"/>
+              <c16:uniqueId val="{00000005-8083-D54F-BDE0-0D46C670DB5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5486,7 +5642,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C84D-9245-BD19-7510B694448D}"/>
+              <c16:uniqueId val="{00000006-8083-D54F-BDE0-0D46C670DB5B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5793,7 +5949,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0B53-784F-A993-7CB84FE2E310}"/>
+              <c16:uniqueId val="{00000000-D6A1-A544-BD0C-B37C8DE8F14B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5879,7 +6035,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0B53-784F-A993-7CB84FE2E310}"/>
+              <c16:uniqueId val="{00000001-D6A1-A544-BD0C-B37C8DE8F14B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5965,7 +6121,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0B53-784F-A993-7CB84FE2E310}"/>
+              <c16:uniqueId val="{00000002-D6A1-A544-BD0C-B37C8DE8F14B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6275,7 +6431,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4961-0442-BB24-8825FDAB683D}"/>
+              <c16:uniqueId val="{00000000-83B9-3E4B-BBB0-4D3D8ADE22BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6364,7 +6520,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4961-0442-BB24-8825FDAB683D}"/>
+              <c16:uniqueId val="{00000001-83B9-3E4B-BBB0-4D3D8ADE22BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6453,7 +6609,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4961-0442-BB24-8825FDAB683D}"/>
+              <c16:uniqueId val="{00000002-83B9-3E4B-BBB0-4D3D8ADE22BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6542,7 +6698,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4961-0442-BB24-8825FDAB683D}"/>
+              <c16:uniqueId val="{00000003-83B9-3E4B-BBB0-4D3D8ADE22BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6631,7 +6787,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-4961-0442-BB24-8825FDAB683D}"/>
+              <c16:uniqueId val="{00000004-83B9-3E4B-BBB0-4D3D8ADE22BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6720,7 +6876,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4961-0442-BB24-8825FDAB683D}"/>
+              <c16:uniqueId val="{00000005-83B9-3E4B-BBB0-4D3D8ADE22BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6815,7 +6971,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4961-0442-BB24-8825FDAB683D}"/>
+              <c16:uniqueId val="{00000006-83B9-3E4B-BBB0-4D3D8ADE22BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7836,6 +7992,114 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9118600" y="0"/>
+          <a:ext cx="8915400" cy="5016589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8267700" y="0"/>
+          <a:ext cx="8915400" cy="5016589"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -8515,74 +8779,74 @@
   <dimension ref="B1:W57"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="O27" sqref="O24:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="253" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="253" hidden="1" customWidth="1"/>
-    <col min="5" max="10" width="13" style="253" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="253" customWidth="1"/>
-    <col min="12" max="15" width="13" style="253" customWidth="1"/>
-    <col min="16" max="16" width="13" style="253" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="253" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="250" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="250" hidden="1" customWidth="1"/>
+    <col min="5" max="10" width="13" style="250" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="250" customWidth="1"/>
+    <col min="12" max="15" width="13" style="250" customWidth="1"/>
+    <col min="16" max="16" width="13" style="250" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="402" t="s">
+      <c r="B2" s="399" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="402" t="s">
+      <c r="D2" s="399" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="402" t="s">
+      <c r="E2" s="399" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="399" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="402" t="s">
+      <c r="I2" s="399" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="399" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="399" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="402" t="s">
+      <c r="L2" s="399" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="402" t="s">
+      <c r="M2" s="399" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="264" t="s">
+      <c r="N2" s="261" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="264" t="s">
+      <c r="O2" s="261" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="264" t="s">
+      <c r="P2" s="261" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="264" t="s">
+      <c r="Q2" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="262" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="402" t="s">
+      <c r="S2" s="259" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="399" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8593,11 +8857,11 @@
       <c r="C3" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="258">
+      <c r="D3" s="255">
         <f>+VLOOKUP($C3,'R1'!$C$3:$H$22,6,)</f>
         <v>12</v>
       </c>
-      <c r="E3" s="258">
+      <c r="E3" s="255">
         <f>+VLOOKUP($C3,'R2'!$C$3:$H$22,6,)</f>
         <v>25</v>
       </c>
@@ -8605,7 +8869,7 @@
         <f>+VLOOKUP($C3,'R3'!$C$3:$H$22,6,)</f>
         <v>26</v>
       </c>
-      <c r="G3" s="258">
+      <c r="G3" s="255">
         <f>+VLOOKUP($C3,'R4'!$C$3:$H$22,6,)</f>
         <v>25</v>
       </c>
@@ -8613,11 +8877,11 @@
         <f>+VLOOKUP($C3,'R5'!$C$3:$H$22,6,)</f>
         <v>19</v>
       </c>
-      <c r="I3" s="258">
+      <c r="I3" s="255">
         <f>+VLOOKUP($C3,'R6'!$C$3:$H$22,6,)</f>
         <v>25</v>
       </c>
-      <c r="J3" s="258">
+      <c r="J3" s="255">
         <f>+VLOOKUP($C3,'R7'!$C$3:$H$22,6,)</f>
         <v>25</v>
       </c>
@@ -8629,20 +8893,23 @@
         <f>+VLOOKUP($C3,'R9'!$C$3:$H$22,6,)</f>
         <v>26</v>
       </c>
-      <c r="M3" s="258"/>
+      <c r="M3" s="255">
+        <f>+VLOOKUP($C3,'R10'!$C$3:$H$22,6,)</f>
+        <v>15</v>
+      </c>
       <c r="N3" s="37"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37">
         <f t="shared" ref="Q3:Q22" si="0">SUM(D3:P3)</f>
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="S3" s="38" t="s">
         <v>17</v>
       </c>
       <c r="T3" s="83">
         <f ca="1">SUMIF($B$3:$Q$22,S3,$Q$3:$Q$22)</f>
-        <v>325</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.2">
@@ -8672,7 +8939,7 @@
         <f>+VLOOKUP($C4,'R5'!$C$3:$H$22,6,)</f>
         <v>15</v>
       </c>
-      <c r="I4" s="257">
+      <c r="I4" s="254">
         <f>+VLOOKUP($C4,'R6'!$C$3:$H$22,6,)</f>
         <v>16</v>
       </c>
@@ -8688,20 +8955,23 @@
         <f>+VLOOKUP($C4,'R9'!$C$3:$H$22,6,)</f>
         <v>18</v>
       </c>
-      <c r="M4" s="117"/>
+      <c r="M4" s="254">
+        <f>+VLOOKUP($C4,'R10'!$C$3:$H$22,6,)</f>
+        <v>26</v>
+      </c>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="S4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="259">
+      <c r="T4" s="256">
         <f ca="1">SUMIF($B$3:$Q$22,S4,$Q$3:$Q$22)</f>
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
@@ -8723,7 +8993,7 @@
         <f>+VLOOKUP($C5,'R3'!$C$3:$H$22,6,)</f>
         <v>18</v>
       </c>
-      <c r="G5" s="244">
+      <c r="G5" s="241">
         <f>+VLOOKUP($C5,'R4'!$C$3:$H$22,6,)</f>
         <v>19</v>
       </c>
@@ -8747,18 +9017,21 @@
         <f>+VLOOKUP($C5,'R9'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="102"/>
+      <c r="M5" s="102">
+        <f>+VLOOKUP($C5,'R10'!$C$3:$H$22,6,)</f>
+        <v>18</v>
+      </c>
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="29">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="S5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="259">
+      <c r="T5" s="256">
         <f ca="1">SUMIF($B$3:$Q$22,S5,$Q$3:$Q$22)</f>
         <v>106</v>
       </c>
@@ -8774,39 +9047,42 @@
         <f>+VLOOKUP($C6,'R1'!$C$3:$H$22,6,)</f>
         <v>16</v>
       </c>
-      <c r="E6" s="268">
+      <c r="E6" s="265">
         <f>+VLOOKUP($C6,'R2'!$C$3:$H$22,6,)</f>
         <v>10</v>
       </c>
-      <c r="F6" s="268">
+      <c r="F6" s="265">
         <f>+VLOOKUP($C6,'R3'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="268">
+      <c r="G6" s="265">
         <f>+VLOOKUP($C6,'R4'!$C$3:$H$22,6,)</f>
         <v>10</v>
       </c>
-      <c r="H6" s="268">
+      <c r="H6" s="265">
         <f>+VLOOKUP($C6,'R5'!$C$3:$H$22,6,)</f>
         <v>2</v>
       </c>
-      <c r="I6" s="268">
+      <c r="I6" s="265">
         <f>+VLOOKUP($C6,'R6'!$C$3:$H$22,6,)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="268">
+      <c r="J6" s="265">
         <f>+VLOOKUP($C6,'R7'!$C$3:$H$22,6,)</f>
         <v>6</v>
       </c>
-      <c r="K6" s="268">
+      <c r="K6" s="265">
         <f>+VLOOKUP($C6,'R8'!$C$3:$H$22,6,)</f>
         <v>12</v>
       </c>
-      <c r="L6" s="268">
+      <c r="L6" s="265">
         <f>+VLOOKUP($C6,'R9'!$C$3:$H$22,6,)</f>
         <v>8</v>
       </c>
-      <c r="M6" s="268"/>
+      <c r="M6" s="265">
+        <f>+VLOOKUP($C6,'R10'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
@@ -8817,9 +9093,9 @@
       <c r="S6" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="259">
+      <c r="T6" s="256">
         <f ca="1">SUMIF($B$3:$Q$22,S6,$Q$3:$Q$22)-15+$W$16</f>
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
@@ -8865,20 +9141,23 @@
         <f>+VLOOKUP($C7,'R9'!$C$3:$H$22,6,)</f>
         <v>15</v>
       </c>
-      <c r="M7" s="102"/>
+      <c r="M7" s="102">
+        <f>+VLOOKUP($C7,'R10'!$C$3:$H$22,6,)</f>
+        <v>1</v>
+      </c>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
       <c r="P7" s="29"/>
       <c r="Q7" s="29">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S7" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="T7" s="259">
+      <c r="T7" s="256">
         <f t="shared" ref="T7:T12" ca="1" si="1">SUMIF($B$3:$Q$22,S7,$Q$3:$Q$22)</f>
-        <v>83</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
@@ -8924,7 +9203,10 @@
         <f>+VLOOKUP($C8,'R9'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="104"/>
+      <c r="M8" s="104">
+        <f>+VLOOKUP($C8,'R10'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
       <c r="P8" s="31"/>
@@ -8935,9 +9217,9 @@
       <c r="S8" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="T8" s="259">
+      <c r="T8" s="256">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
@@ -8971,7 +9253,7 @@
         <f>+VLOOKUP($C9,'R6'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="260">
+      <c r="J9" s="257">
         <f>+VLOOKUP($C9,'R7'!$C$3:$H$22,6,)</f>
         <v>13</v>
       </c>
@@ -8983,20 +9265,23 @@
         <f>+VLOOKUP($C9,'R9'!$C$3:$H$22,6,)</f>
         <v>12</v>
       </c>
-      <c r="M9" s="108"/>
+      <c r="M9" s="108">
+        <f>+VLOOKUP($C9,'R10'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
       <c r="Q9" s="32">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="S9" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="259">
+      <c r="T9" s="256">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
@@ -9042,18 +9327,21 @@
         <f>+VLOOKUP($C10,'R9'!$C$3:$H$22,6,)</f>
         <v>2</v>
       </c>
-      <c r="M10" s="106"/>
+      <c r="M10" s="106">
+        <f>+VLOOKUP($C10,'R10'!$C$3:$H$22,6,)</f>
+        <v>8</v>
+      </c>
       <c r="N10" s="28"/>
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
       <c r="Q10" s="28">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="S10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="259">
+      <c r="T10" s="256">
         <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
@@ -9095,18 +9383,21 @@
         <f>+VLOOKUP($C11,'R9'!$C$3:$H$22,6,)</f>
         <v>10</v>
       </c>
-      <c r="M11" s="104"/>
+      <c r="M11" s="104">
+        <f>+VLOOKUP($C11,'R10'!$C$3:$H$22,6,)</f>
+        <v>12</v>
+      </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="31"/>
       <c r="Q11" s="31">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="S11" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="T11" s="259">
+      <c r="T11" s="256">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
@@ -9154,18 +9445,21 @@
         <f>+VLOOKUP($C12,'R9'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="110"/>
+      <c r="M12" s="110">
+        <f>+VLOOKUP($C12,'R10'!$C$3:$H$22,6,)</f>
+        <v>2</v>
+      </c>
       <c r="N12" s="82"/>
       <c r="O12" s="82"/>
       <c r="P12" s="82"/>
       <c r="Q12" s="82">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="T12" s="252">
+      <c r="T12" s="249">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
@@ -9177,7 +9471,7 @@
       <c r="C13" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="268">
+      <c r="D13" s="265">
         <f>+VLOOKUP($C13,'R1'!$C$3:$H$22,6,)</f>
         <v>10</v>
       </c>
@@ -9185,35 +9479,38 @@
         <f>+VLOOKUP($C13,'R2'!$C$3:$H$22,6,)</f>
         <v>3</v>
       </c>
-      <c r="F13" s="268">
+      <c r="F13" s="265">
         <f>+VLOOKUP($C13,'R3'!$C$3:$H$22,6,)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="268">
+      <c r="G13" s="265">
         <f>+VLOOKUP($C13,'R4'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="H13" s="268">
+      <c r="H13" s="265">
         <f>+VLOOKUP($C13,'R5'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="268">
+      <c r="I13" s="265">
         <f>+VLOOKUP($C13,'R6'!$C$3:$H$22,6,)</f>
         <v>8</v>
       </c>
-      <c r="J13" s="268">
+      <c r="J13" s="265">
         <f>+VLOOKUP($C13,'R7'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="268">
+      <c r="K13" s="265">
         <f>+VLOOKUP($C13,'R8'!$C$3:$H$22,6,)</f>
         <v>18</v>
       </c>
-      <c r="L13" s="268">
+      <c r="L13" s="265">
         <f>+VLOOKUP($C13,'R9'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="268"/>
+      <c r="M13" s="265">
+        <f>+VLOOKUP($C13,'R10'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="N13" s="30"/>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
@@ -9265,13 +9562,16 @@
         <f>+VLOOKUP($C14,'R9'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="108"/>
+      <c r="M14" s="108">
+        <f>+VLOOKUP($C14,'R10'!$C$3:$H$22,6,)</f>
+        <v>6</v>
+      </c>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="32">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9317,7 +9617,10 @@
         <f>+VLOOKUP($C15,'R9'!$C$3:$H$22,6,)</f>
         <v>1</v>
       </c>
-      <c r="M15" s="106"/>
+      <c r="M15" s="106">
+        <f>+VLOOKUP($C15,'R10'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="N15" s="28"/>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
@@ -9325,19 +9628,19 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="S15" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="402" t="s">
+      <c r="S15" s="399" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="U15" s="402" t="s">
+      <c r="U15" s="399" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="402" t="s">
+      <c r="V15" s="399" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="402" t="s">
+      <c r="W15" s="399" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9384,13 +9687,16 @@
         <f>+VLOOKUP($C16,'R9'!$C$3:$H$22,6,)</f>
         <v>6</v>
       </c>
-      <c r="M16" s="110"/>
+      <c r="M16" s="110">
+        <f>+VLOOKUP($C16,'R10'!$C$3:$H$22,6,)</f>
+        <v>4</v>
+      </c>
       <c r="N16" s="82"/>
       <c r="O16" s="82"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="82">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S16" s="52" t="s">
         <v>24</v>
@@ -9454,7 +9760,10 @@
         <f>+VLOOKUP($C17,'R9'!$C$3:$H$22,6,)</f>
         <v>4</v>
       </c>
-      <c r="M17" s="112"/>
+      <c r="M17" s="112">
+        <f>+VLOOKUP($C17,'R10'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="N17" s="33"/>
       <c r="O17" s="33"/>
       <c r="P17" s="33"/>
@@ -9506,7 +9815,10 @@
         <f>+VLOOKUP($C18,'R9'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="112"/>
+      <c r="M18" s="112">
+        <f>+VLOOKUP($C18,'R10'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="N18" s="33"/>
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
@@ -9558,7 +9870,10 @@
         <f>+VLOOKUP($C19,'R9'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="114"/>
+      <c r="M19" s="114">
+        <f>+VLOOKUP($C19,'R10'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="N19" s="34"/>
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
@@ -9610,7 +9925,10 @@
         <f>+VLOOKUP($C20,'R9'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="114"/>
+      <c r="M20" s="114">
+        <f>+VLOOKUP($C20,'R10'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="N20" s="34"/>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
@@ -9662,7 +9980,10 @@
         <f>+VLOOKUP($C21,'R9'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="118"/>
+      <c r="M21" s="118">
+        <f>+VLOOKUP($C21,'R10'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="N21" s="35"/>
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
@@ -9714,7 +10035,10 @@
         <f>+VLOOKUP($C22,'R9'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="116"/>
+      <c r="M22" s="116">
+        <f>+VLOOKUP($C22,'R10'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="N22" s="36"/>
       <c r="O22" s="36"/>
       <c r="P22" s="36"/>
@@ -9770,36 +10094,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="34.83203125" style="253" customWidth="1"/>
+    <col min="9" max="9" width="34.83203125" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="402" t="s">
+      <c r="D2" s="399" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="399" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="399" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="264" t="s">
+      <c r="I2" s="261" t="s">
         <v>113</v>
       </c>
     </row>
@@ -9819,16 +10143,16 @@
       <c r="E3" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="F3" s="258">
+      <c r="F3" s="255">
         <v>70</v>
       </c>
-      <c r="G3" s="258">
+      <c r="G3" s="255">
         <v>34</v>
       </c>
-      <c r="H3" s="258">
+      <c r="H3" s="255">
         <v>26</v>
       </c>
-      <c r="I3" s="258" t="s">
+      <c r="I3" s="255" t="s">
         <v>166</v>
       </c>
     </row>
@@ -10037,16 +10361,16 @@
       <c r="E11" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="F11" s="268">
+      <c r="F11" s="265">
         <v>69</v>
       </c>
-      <c r="G11" s="268">
+      <c r="G11" s="265">
         <v>6</v>
       </c>
-      <c r="H11" s="268">
+      <c r="H11" s="265">
         <v>2</v>
       </c>
-      <c r="I11" s="268"/>
+      <c r="I11" s="265"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
@@ -10147,16 +10471,16 @@
       <c r="E15" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="F15" s="268">
+      <c r="F15" s="265">
         <v>69</v>
       </c>
-      <c r="G15" s="268">
+      <c r="G15" s="265">
         <v>-9</v>
       </c>
-      <c r="H15" s="268">
-        <v>0</v>
-      </c>
-      <c r="I15" s="268"/>
+      <c r="H15" s="265">
+        <v>0</v>
+      </c>
+      <c r="I15" s="265"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="53">
@@ -10374,19 +10698,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="10.83203125" style="253" customWidth="1"/>
-    <col min="11" max="11" width="32.1640625" style="253" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="250" customWidth="1"/>
+    <col min="11" max="11" width="32.1640625" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -10398,19 +10722,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="263" t="s">
+      <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="399" t="s">
         <v>113</v>
       </c>
     </row>
@@ -10442,7 +10766,7 @@
       <c r="I3" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="J3" s="258">
+      <c r="J3" s="255">
         <v>15</v>
       </c>
       <c r="K3" s="22"/>
@@ -10574,7 +10898,7 @@
       <c r="I7" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="J7" s="268">
+      <c r="J7" s="265">
         <v>11</v>
       </c>
       <c r="K7" s="4"/>
@@ -10640,7 +10964,7 @@
       <c r="I9" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="J9" s="268">
+      <c r="J9" s="265">
         <v>7</v>
       </c>
       <c r="K9" s="4"/>
@@ -11099,36 +11423,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="34.83203125" style="253" customWidth="1"/>
+    <col min="9" max="9" width="34.83203125" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="402" t="s">
+      <c r="D2" s="399" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="399" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="399" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="264" t="s">
+      <c r="I2" s="261" t="s">
         <v>113</v>
       </c>
     </row>
@@ -11148,16 +11472,16 @@
       <c r="E3" s="58" t="s">
         <v>360</v>
       </c>
-      <c r="F3" s="258">
+      <c r="F3" s="255">
         <v>52</v>
       </c>
-      <c r="G3" s="258">
+      <c r="G3" s="255">
         <v>29</v>
       </c>
-      <c r="H3" s="258">
+      <c r="H3" s="255">
         <v>25</v>
       </c>
-      <c r="I3" s="258" t="s">
+      <c r="I3" s="255" t="s">
         <v>361</v>
       </c>
     </row>
@@ -11260,16 +11584,16 @@
       <c r="E7" s="61" t="s">
         <v>365</v>
       </c>
-      <c r="F7" s="268">
+      <c r="F7" s="265">
         <v>52</v>
       </c>
-      <c r="G7" s="268">
+      <c r="G7" s="265">
         <v>14</v>
       </c>
-      <c r="H7" s="268">
+      <c r="H7" s="265">
         <v>10</v>
       </c>
-      <c r="I7" s="268"/>
+      <c r="I7" s="265"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="53">
@@ -11480,16 +11804,16 @@
       <c r="E15" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="F15" s="268">
+      <c r="F15" s="265">
         <v>52</v>
       </c>
-      <c r="G15" s="268">
+      <c r="G15" s="265">
         <v>-9</v>
       </c>
-      <c r="H15" s="268">
-        <v>0</v>
-      </c>
-      <c r="I15" s="268" t="s">
+      <c r="H15" s="265">
+        <v>0</v>
+      </c>
+      <c r="I15" s="265" t="s">
         <v>361</v>
       </c>
     </row>
@@ -11711,19 +12035,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="6" width="10.83203125" style="253" customWidth="1"/>
-    <col min="11" max="11" width="29.1640625" style="253" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="250" customWidth="1"/>
+    <col min="11" max="11" width="29.1640625" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -11735,19 +12059,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="263" t="s">
+      <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="399" t="s">
         <v>113</v>
       </c>
     </row>
@@ -11779,7 +12103,7 @@
       <c r="I3" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="J3" s="258">
+      <c r="J3" s="255">
         <v>20</v>
       </c>
       <c r="K3" s="22"/>
@@ -12076,7 +12400,7 @@
       <c r="I12" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="J12" s="268">
+      <c r="J12" s="265">
         <v>11</v>
       </c>
       <c r="K12" s="4"/>
@@ -12177,7 +12501,7 @@
       <c r="I15" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="J15" s="249">
+      <c r="J15" s="246">
         <v>2</v>
       </c>
       <c r="K15" s="4"/>
@@ -12434,65 +12758,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="32" style="253" customWidth="1"/>
+    <col min="9" max="9" width="32" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="402" t="s">
+      <c r="D2" s="399" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="399" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="399" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="264" t="s">
+      <c r="I2" s="261" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="245">
+      <c r="A3" s="242">
         <v>33</v>
       </c>
-      <c r="B3" s="245">
+      <c r="B3" s="242">
         <v>1</v>
       </c>
-      <c r="C3" s="245" t="s">
+      <c r="C3" s="242" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="245" t="s">
+      <c r="D3" s="242" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="246" t="s">
+      <c r="E3" s="243" t="s">
         <v>433</v>
       </c>
-      <c r="F3" s="248">
+      <c r="F3" s="245">
         <v>52</v>
       </c>
-      <c r="G3" s="248">
+      <c r="G3" s="245">
         <v>35</v>
       </c>
-      <c r="H3" s="248">
+      <c r="H3" s="245">
         <v>25</v>
       </c>
-      <c r="I3" s="248"/>
+      <c r="I3" s="245"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="48">
@@ -12702,16 +13026,16 @@
       <c r="E11" s="61" t="s">
         <v>441</v>
       </c>
-      <c r="F11" s="268">
+      <c r="F11" s="265">
         <v>52</v>
       </c>
-      <c r="G11" s="268">
+      <c r="G11" s="265">
         <v>8</v>
       </c>
-      <c r="H11" s="268">
+      <c r="H11" s="265">
         <v>2</v>
       </c>
-      <c r="I11" s="268"/>
+      <c r="I11" s="265"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="77">
@@ -12810,16 +13134,16 @@
       <c r="E15" s="61" t="s">
         <v>445</v>
       </c>
-      <c r="F15" s="268">
+      <c r="F15" s="265">
         <v>52</v>
       </c>
-      <c r="G15" s="268">
-        <v>0</v>
-      </c>
-      <c r="H15" s="268">
-        <v>0</v>
-      </c>
-      <c r="I15" s="268"/>
+      <c r="G15" s="265">
+        <v>0</v>
+      </c>
+      <c r="H15" s="265">
+        <v>0</v>
+      </c>
+      <c r="I15" s="265"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="53">
@@ -12996,7 +13320,7 @@
       <c r="D22" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="247" t="s">
+      <c r="E22" s="244" t="s">
         <v>452</v>
       </c>
       <c r="F22" s="76">
@@ -13033,18 +13357,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="6" width="10.83203125" style="253" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -13056,19 +13380,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="263" t="s">
+      <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="399" t="s">
         <v>113</v>
       </c>
     </row>
@@ -13100,7 +13424,7 @@
       <c r="I3" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="J3" s="258">
+      <c r="J3" s="255">
         <v>15</v>
       </c>
       <c r="K3" s="22"/>
@@ -13298,7 +13622,7 @@
       <c r="I9" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="J9" s="268">
+      <c r="J9" s="265">
         <v>9</v>
       </c>
       <c r="K9" s="4"/>
@@ -13331,7 +13655,7 @@
       <c r="I10" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="J10" s="268">
+      <c r="J10" s="265">
         <v>6</v>
       </c>
       <c r="K10" s="4"/>
@@ -13753,36 +14077,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="27.1640625" style="253" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="402" t="s">
+      <c r="D2" s="399" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="399" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="399" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="264" t="s">
+      <c r="I2" s="261" t="s">
         <v>113</v>
       </c>
     </row>
@@ -13802,16 +14126,16 @@
       <c r="E3" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="F3" s="258">
+      <c r="F3" s="255">
         <v>66</v>
       </c>
-      <c r="G3" s="258">
+      <c r="G3" s="255">
         <v>29</v>
       </c>
-      <c r="H3" s="258">
+      <c r="H3" s="255">
         <v>25</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="255"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="50">
@@ -13939,16 +14263,16 @@
       <c r="E8" s="61" t="s">
         <v>504</v>
       </c>
-      <c r="F8" s="268">
+      <c r="F8" s="265">
         <v>65</v>
       </c>
-      <c r="G8" s="268">
+      <c r="G8" s="265">
         <v>14</v>
       </c>
-      <c r="H8" s="268">
+      <c r="H8" s="265">
         <v>8</v>
       </c>
-      <c r="I8" s="268"/>
+      <c r="I8" s="265"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="49">
@@ -14047,16 +14371,16 @@
       <c r="E12" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="F12" s="268">
+      <c r="F12" s="265">
         <v>65</v>
       </c>
-      <c r="G12" s="268">
+      <c r="G12" s="265">
         <v>-2</v>
       </c>
-      <c r="H12" s="268">
+      <c r="H12" s="265">
         <v>1</v>
       </c>
-      <c r="I12" s="268"/>
+      <c r="I12" s="265"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="53">
@@ -14353,18 +14677,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="6" width="13" style="253" customWidth="1"/>
+    <col min="4" max="6" width="13" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -14376,19 +14700,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="263" t="s">
+      <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="399" t="s">
         <v>113</v>
       </c>
     </row>
@@ -14420,7 +14744,7 @@
       <c r="I3" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="J3" s="258">
+      <c r="J3" s="255">
         <v>15</v>
       </c>
       <c r="K3" s="22"/>
@@ -14618,7 +14942,7 @@
       <c r="I9" s="14" t="s">
         <v>538</v>
       </c>
-      <c r="J9" s="268">
+      <c r="J9" s="265">
         <v>9</v>
       </c>
       <c r="K9" s="4"/>
@@ -14717,7 +15041,7 @@
       <c r="I12" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="J12" s="268">
+      <c r="J12" s="265">
         <v>4</v>
       </c>
       <c r="K12" s="4"/>
@@ -15074,36 +15398,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="27.1640625" style="253" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="402" t="s">
+      <c r="D2" s="399" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="399" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="399" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="264" t="s">
+      <c r="I2" s="261" t="s">
         <v>113</v>
       </c>
     </row>
@@ -15123,16 +15447,16 @@
       <c r="E3" s="58" t="s">
         <v>563</v>
       </c>
-      <c r="F3" s="258">
+      <c r="F3" s="255">
         <v>44</v>
       </c>
-      <c r="G3" s="258">
+      <c r="G3" s="255">
         <v>29</v>
       </c>
-      <c r="H3" s="258">
+      <c r="H3" s="255">
         <v>25</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="255"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="48">
@@ -15285,16 +15609,16 @@
       <c r="E9" s="61" t="s">
         <v>569</v>
       </c>
-      <c r="F9" s="268">
+      <c r="F9" s="265">
         <v>44</v>
       </c>
-      <c r="G9" s="268">
+      <c r="G9" s="265">
         <v>16</v>
       </c>
-      <c r="H9" s="268">
+      <c r="H9" s="265">
         <v>6</v>
       </c>
-      <c r="I9" s="268"/>
+      <c r="I9" s="265"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="77">
@@ -15625,27 +15949,27 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="254">
+      <c r="A22" s="251">
         <v>55</v>
       </c>
-      <c r="B22" s="254" t="s">
+      <c r="B22" s="251" t="s">
         <v>386</v>
       </c>
-      <c r="C22" s="254" t="s">
+      <c r="C22" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="254" t="s">
+      <c r="D22" s="251" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="255"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256">
+      <c r="E22" s="252"/>
+      <c r="F22" s="253"/>
+      <c r="G22" s="253">
         <v>-15</v>
       </c>
-      <c r="H22" s="256">
-        <v>0</v>
-      </c>
-      <c r="I22" s="256" t="s">
+      <c r="H22" s="253">
+        <v>0</v>
+      </c>
+      <c r="I22" s="253" t="s">
         <v>583</v>
       </c>
     </row>
@@ -15670,18 +15994,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="6" width="13" style="253" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="13" style="250" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -15693,19 +16017,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="263" t="s">
+      <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="399" t="s">
         <v>113</v>
       </c>
     </row>
@@ -15737,7 +16061,7 @@
       <c r="I3" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="J3" s="258">
+      <c r="J3" s="255">
         <v>15</v>
       </c>
       <c r="K3" s="22"/>
@@ -15803,7 +16127,7 @@
       <c r="I5" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="J5" s="268">
+      <c r="J5" s="265">
         <v>13</v>
       </c>
       <c r="K5" s="4"/>
@@ -15902,7 +16226,7 @@
       <c r="I8" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="J8" s="268">
+      <c r="J8" s="265">
         <v>8</v>
       </c>
       <c r="K8" s="4"/>
@@ -16384,140 +16708,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AH69"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11" style="253" customWidth="1"/>
-    <col min="4" max="11" width="10.83203125" style="253" customWidth="1"/>
-    <col min="12" max="12" width="11" style="253" customWidth="1"/>
-    <col min="13" max="15" width="13" style="253" customWidth="1"/>
-    <col min="16" max="16" width="13" style="253" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="253" customWidth="1"/>
-    <col min="20" max="24" width="13" style="253" hidden="1" customWidth="1"/>
-    <col min="25" max="26" width="10.83203125" style="253" hidden="1" customWidth="1"/>
-    <col min="27" max="31" width="13" style="253" customWidth="1"/>
-    <col min="32" max="32" width="13" style="253" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="250" customWidth="1"/>
+    <col min="4" max="9" width="10.83203125" style="250" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="250" customWidth="1"/>
+    <col min="12" max="12" width="11" style="250" customWidth="1"/>
+    <col min="13" max="15" width="13" style="250" customWidth="1"/>
+    <col min="16" max="16" width="13" style="250" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="250" customWidth="1"/>
+    <col min="20" max="24" width="13" style="250" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="250" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="10.83203125" style="250" customWidth="1"/>
+    <col min="27" max="32" width="13" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="403" t="s">
+      <c r="B2" s="400" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="404"/>
-      <c r="D2" s="404"/>
-      <c r="E2" s="404"/>
-      <c r="F2" s="404"/>
-      <c r="G2" s="404"/>
-      <c r="H2" s="404"/>
-      <c r="I2" s="404"/>
-      <c r="J2" s="404"/>
-      <c r="K2" s="404"/>
-      <c r="L2" s="404"/>
-      <c r="M2" s="404"/>
-      <c r="N2" s="404"/>
-      <c r="O2" s="404"/>
-      <c r="P2" s="404"/>
-      <c r="Q2" s="405"/>
+      <c r="C2" s="401"/>
+      <c r="D2" s="401"/>
+      <c r="E2" s="401"/>
+      <c r="F2" s="401"/>
+      <c r="G2" s="401"/>
+      <c r="H2" s="401"/>
+      <c r="I2" s="401"/>
+      <c r="J2" s="401"/>
+      <c r="K2" s="401"/>
+      <c r="L2" s="401"/>
+      <c r="M2" s="401"/>
+      <c r="N2" s="401"/>
+      <c r="O2" s="401"/>
+      <c r="P2" s="401"/>
+      <c r="Q2" s="402"/>
     </row>
     <row r="3" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="288" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="250" t="s">
+      <c r="B3" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="247" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="251" t="s">
+      <c r="D3" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="251" t="s">
+      <c r="E3" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="251" t="s">
+      <c r="F3" s="248" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="251" t="s">
+      <c r="G3" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="251" t="s">
+      <c r="H3" s="248" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="251" t="s">
+      <c r="I3" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="251" t="s">
+      <c r="J3" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="251" t="s">
+      <c r="K3" s="248" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="251" t="s">
+      <c r="L3" s="248" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="251" t="s">
+      <c r="M3" s="248" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="251" t="s">
+      <c r="N3" s="248" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="251" t="s">
+      <c r="O3" s="248" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="251" t="s">
+      <c r="P3" s="248" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="251" t="s">
+      <c r="Q3" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="264" t="s">
+      <c r="S3" s="399" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="261" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="264" t="s">
+      <c r="U3" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="264" t="s">
+      <c r="V3" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="264" t="s">
+      <c r="W3" s="261" t="s">
         <v>53</v>
       </c>
-      <c r="X3" s="264" t="s">
+      <c r="X3" s="261" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="264" t="s">
+      <c r="Y3" s="261" t="s">
         <v>55</v>
       </c>
-      <c r="Z3" s="264" t="s">
+      <c r="Z3" s="261" t="s">
         <v>56</v>
       </c>
-      <c r="AA3" s="264" t="s">
+      <c r="AA3" s="261" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="264" t="s">
+      <c r="AB3" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="AC3" s="264" t="s">
+      <c r="AC3" s="261" t="s">
         <v>59</v>
       </c>
-      <c r="AD3" s="264" t="s">
+      <c r="AD3" s="261" t="s">
         <v>60</v>
       </c>
-      <c r="AE3" s="264" t="s">
+      <c r="AE3" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="AF3" s="264" t="s">
+      <c r="AF3" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="AG3" s="264" t="s">
+      <c r="AG3" s="261" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="264" t="s">
+      <c r="AH3" s="261" t="s">
         <v>63</v>
       </c>
     </row>
@@ -16568,7 +16893,10 @@
         <f>+VLOOKUP($C4,'R10'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q10'!$B$3:$J$22,9,)</f>
         <v>42</v>
       </c>
-      <c r="N4" s="37"/>
+      <c r="N4" s="37">
+        <f>+VLOOKUP($C4,'R11'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q11'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37">
@@ -16605,17 +16933,19 @@
       <c r="AB4" s="98">
         <v>75</v>
       </c>
-      <c r="AC4" s="98"/>
+      <c r="AC4" s="98">
+        <v>76</v>
+      </c>
       <c r="AD4" s="98"/>
       <c r="AE4" s="98"/>
       <c r="AF4" s="98"/>
       <c r="AG4" s="99">
         <f t="shared" ref="AG4:AG13" si="1">SUM(T4:AC4)</f>
-        <v>568</v>
+        <v>644</v>
       </c>
       <c r="AH4" s="214">
         <f t="shared" ref="AH4:AH13" si="2">AG4/COUNT(T4:AF4)</f>
-        <v>63.111111111111114</v>
+        <v>64.400000000000006</v>
       </c>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.2">
@@ -16665,7 +16995,10 @@
         <f>+VLOOKUP($C5,'R10'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q10'!$B$3:$J$22,9,)</f>
         <v>54</v>
       </c>
-      <c r="N5" s="27"/>
+      <c r="N5" s="27">
+        <f>+VLOOKUP($C5,'R11'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q11'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="27">
@@ -16702,17 +17035,19 @@
       <c r="AB5" s="101">
         <v>39</v>
       </c>
-      <c r="AC5" s="101"/>
+      <c r="AC5" s="101">
+        <v>52</v>
+      </c>
       <c r="AD5" s="101"/>
       <c r="AE5" s="101"/>
       <c r="AF5" s="101"/>
       <c r="AG5" s="102">
         <f t="shared" si="1"/>
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="AH5" s="216">
         <f t="shared" si="2"/>
-        <v>42.888888888888886</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.2">
@@ -16762,7 +17097,10 @@
         <f>+VLOOKUP($C6,'R10'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q10'!$B$3:$J$22,9,)</f>
         <v>41</v>
       </c>
-      <c r="N6" s="29"/>
+      <c r="N6" s="29">
+        <f>+VLOOKUP($C6,'R11'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q11'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29">
@@ -16799,17 +17137,19 @@
       <c r="AB6" s="103">
         <v>30</v>
       </c>
-      <c r="AC6" s="103"/>
+      <c r="AC6" s="103">
+        <v>25</v>
+      </c>
       <c r="AD6" s="103"/>
       <c r="AE6" s="103"/>
       <c r="AF6" s="103"/>
       <c r="AG6" s="104">
         <f t="shared" si="1"/>
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="AH6" s="217">
         <f t="shared" si="2"/>
-        <v>29.111111111111111</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
@@ -16858,7 +17198,10 @@
       <c r="M7" s="30">
         <v>0</v>
       </c>
-      <c r="N7" s="30"/>
+      <c r="N7" s="30">
+        <f>+VLOOKUP($C7,'R11'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q11'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30">
@@ -16895,17 +17238,19 @@
       <c r="AB7" s="100">
         <v>26</v>
       </c>
-      <c r="AC7" s="100"/>
+      <c r="AC7" s="100">
+        <v>5</v>
+      </c>
       <c r="AD7" s="100"/>
       <c r="AE7" s="100"/>
       <c r="AF7" s="100"/>
-      <c r="AG7" s="268">
+      <c r="AG7" s="265">
         <f t="shared" si="1"/>
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AH7" s="215">
         <f t="shared" si="2"/>
-        <v>28.111111111111111</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.2">
@@ -16955,7 +17300,10 @@
         <f>+VLOOKUP($C8,'R10'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q10'!$B$3:$J$22,9,)</f>
         <v>25</v>
       </c>
-      <c r="N8" s="32"/>
+      <c r="N8" s="32">
+        <f>+VLOOKUP($C8,'R11'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q11'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="32">
@@ -16992,17 +17340,19 @@
       <c r="AB8" s="105">
         <v>20</v>
       </c>
-      <c r="AC8" s="105"/>
+      <c r="AC8" s="105">
+        <v>24</v>
+      </c>
       <c r="AD8" s="105"/>
       <c r="AE8" s="105"/>
       <c r="AF8" s="105"/>
       <c r="AG8" s="106">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="AH8" s="218">
         <f t="shared" si="2"/>
-        <v>19.777777777777779</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.2">
@@ -17052,7 +17402,10 @@
         <f>+VLOOKUP($C9,'R10'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q10'!$B$3:$J$22,9,)</f>
         <v>6</v>
       </c>
-      <c r="N9" s="29"/>
+      <c r="N9" s="29">
+        <f>+VLOOKUP($C9,'R11'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q11'!$B$3:$J$22,9,)</f>
+        <v>9</v>
+      </c>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
       <c r="Q9" s="29">
@@ -17089,17 +17442,19 @@
       <c r="AB9" s="107">
         <v>27</v>
       </c>
-      <c r="AC9" s="107"/>
+      <c r="AC9" s="107">
+        <v>34</v>
+      </c>
       <c r="AD9" s="107"/>
       <c r="AE9" s="107"/>
       <c r="AF9" s="107"/>
       <c r="AG9" s="108">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="AH9" s="219">
         <f t="shared" si="2"/>
-        <v>26.444444444444443</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.2">
@@ -17143,7 +17498,10 @@
         <f>+VLOOKUP($C10,'R10'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q10'!$B$3:$J$22,9,)</f>
         <v>28</v>
       </c>
-      <c r="N10" s="31"/>
+      <c r="N10" s="31">
+        <f>+VLOOKUP($C10,'R11'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q11'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
       <c r="Q10" s="31">
@@ -17180,17 +17538,19 @@
       <c r="AB10" s="111">
         <v>14</v>
       </c>
-      <c r="AC10" s="111"/>
+      <c r="AC10" s="111">
+        <v>24</v>
+      </c>
       <c r="AD10" s="111"/>
       <c r="AE10" s="111"/>
       <c r="AF10" s="111"/>
       <c r="AG10" s="112">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="AH10" s="221">
         <f t="shared" si="2"/>
-        <v>14.333333333333334</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.2">
@@ -17277,17 +17637,19 @@
       <c r="AB11" s="109">
         <v>20</v>
       </c>
-      <c r="AC11" s="109"/>
+      <c r="AC11" s="109">
+        <v>21</v>
+      </c>
       <c r="AD11" s="109"/>
       <c r="AE11" s="109"/>
       <c r="AF11" s="109"/>
       <c r="AG11" s="110">
         <f t="shared" si="1"/>
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="AH11" s="220">
         <f t="shared" si="2"/>
-        <v>19.777777777777779</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.2">
@@ -17337,7 +17699,10 @@
         <f>+VLOOKUP($C12,'R10'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q10'!$B$3:$J$22,9,)</f>
         <v>26</v>
       </c>
-      <c r="N12" s="28"/>
+      <c r="N12" s="28">
+        <f>+VLOOKUP($C12,'R11'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q11'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="28">
@@ -17374,17 +17739,19 @@
       <c r="AB12" s="113">
         <v>10</v>
       </c>
-      <c r="AC12" s="113"/>
+      <c r="AC12" s="113">
+        <v>13</v>
+      </c>
       <c r="AD12" s="113"/>
       <c r="AE12" s="113"/>
       <c r="AF12" s="113"/>
       <c r="AG12" s="114">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="AH12" s="222">
         <f t="shared" si="2"/>
-        <v>9.7777777777777786</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="13" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17434,7 +17801,10 @@
         <f>+VLOOKUP($C13,'R10'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q10'!$B$3:$J$22,9,)</f>
         <v>10</v>
       </c>
-      <c r="N13" s="82"/>
+      <c r="N13" s="82">
+        <f>+VLOOKUP($C13,'R11'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q11'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
       <c r="O13" s="82"/>
       <c r="P13" s="82"/>
       <c r="Q13" s="82">
@@ -17471,17 +17841,19 @@
       <c r="AB13" s="115">
         <v>13</v>
       </c>
-      <c r="AC13" s="115"/>
+      <c r="AC13" s="115">
+        <v>8</v>
+      </c>
       <c r="AD13" s="115"/>
       <c r="AE13" s="115"/>
       <c r="AF13" s="115"/>
       <c r="AG13" s="116">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AH13" s="223">
         <f t="shared" si="2"/>
-        <v>9.8888888888888893</v>
+        <v>9.6999999999999993</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -17531,7 +17903,10 @@
         <f>+VLOOKUP($C14,'R10'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q10'!$B$3:$J$22,9,)</f>
         <v>14</v>
       </c>
-      <c r="N14" s="32"/>
+      <c r="N14" s="32">
+        <f>+VLOOKUP($C14,'R11'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q11'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="32">
@@ -17586,30 +17961,33 @@
         <f>+VLOOKUP($C15,'R10'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q10'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="N15" s="33"/>
+      <c r="N15" s="33">
+        <f>+VLOOKUP($C15,'R11'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q11'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
       <c r="O15" s="33"/>
       <c r="P15" s="33"/>
       <c r="Q15" s="33">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="AA15" s="238" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="239" t="s">
+      <c r="S15" s="238" t="s">
         <v>1</v>
       </c>
-      <c r="AC15" s="239" t="s">
+      <c r="W15" s="238" t="s">
         <v>53</v>
       </c>
-      <c r="AD15" s="239" t="s">
+      <c r="X15" s="239" t="s">
         <v>54</v>
       </c>
-      <c r="AE15" s="239" t="s">
+      <c r="AD15" s="238" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG15" s="238" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:34" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="88" t="s">
         <v>30</v>
       </c>
@@ -17656,27 +18034,32 @@
         <f>+VLOOKUP($C16,'R10'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q10'!$B$3:$J$22,9,)</f>
         <v>18</v>
       </c>
-      <c r="N16" s="82"/>
+      <c r="N16" s="82">
+        <f>+VLOOKUP($C16,'R11'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q11'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
       <c r="O16" s="82"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="82">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="AA16" s="240" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB16" s="241" t="s">
+      <c r="S16" s="413" t="s">
         <v>42</v>
       </c>
-      <c r="AC16" s="242">
+      <c r="W16" s="411">
         <v>-13</v>
       </c>
-      <c r="AD16" s="242">
+      <c r="X16" s="412">
         <v>12</v>
       </c>
-      <c r="AE16" s="242">
-        <v>-1</v>
+      <c r="AD16" s="411">
+        <f>+VLOOKUP($C11,'R11'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q11'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
+      <c r="AG16" s="411">
+        <f>-SUM(T16:AF16)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
@@ -17726,7 +18109,10 @@
         <f>+VLOOKUP($C17,'R10'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q10'!$B$3:$J$22,9,)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="30"/>
+      <c r="N17" s="30">
+        <f>+VLOOKUP($C17,'R11'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q11'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30">
@@ -17781,7 +18167,10 @@
         <f>+VLOOKUP($C18,'R10'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q10'!$B$3:$J$22,9,)</f>
         <v>17</v>
       </c>
-      <c r="N18" s="33"/>
+      <c r="N18" s="33">
+        <f>+VLOOKUP($C18,'R11'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q11'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
       <c r="Q18" s="33">
@@ -17836,7 +18225,10 @@
         <f>+VLOOKUP($C19,'R10'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q10'!$B$3:$J$22,9,)</f>
         <v>7</v>
       </c>
-      <c r="N19" s="28"/>
+      <c r="N19" s="28">
+        <f>+VLOOKUP($C19,'R11'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q11'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
       <c r="O19" s="28"/>
       <c r="P19" s="28"/>
       <c r="Q19" s="28">
@@ -17891,7 +18283,10 @@
         <f>+VLOOKUP($C20,'R10'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q10'!$B$3:$J$22,9,)</f>
         <v>11</v>
       </c>
-      <c r="N20" s="35"/>
+      <c r="N20" s="35">
+        <f>+VLOOKUP($C20,'R11'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q11'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
       <c r="O20" s="35"/>
       <c r="P20" s="35"/>
       <c r="Q20" s="35">
@@ -17946,7 +18341,10 @@
         <f>+VLOOKUP($C21,'R10'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q10'!$B$3:$J$22,9,)</f>
         <v>3</v>
       </c>
-      <c r="N21" s="34"/>
+      <c r="N21" s="34">
+        <f>+VLOOKUP($C21,'R11'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q11'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
       <c r="O21" s="34"/>
       <c r="P21" s="34"/>
       <c r="Q21" s="34">
@@ -18001,7 +18399,10 @@
         <f>+VLOOKUP($C22,'R10'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q10'!$B$3:$J$22,9,)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="35"/>
+      <c r="N22" s="35">
+        <f>+VLOOKUP($C22,'R11'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q11'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
       <c r="O22" s="35"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35">
@@ -18010,128 +18411,131 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="269" t="s">
+      <c r="B23" s="266" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="270">
+      <c r="D23" s="267">
         <f>+VLOOKUP($C23,'R1'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q1'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="E23" s="270">
+      <c r="E23" s="267">
         <f>+VLOOKUP($C23,'R2'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q2'!$B$3:$J$22,9,)</f>
         <v>14</v>
       </c>
-      <c r="F23" s="270">
+      <c r="F23" s="267">
         <f>+VLOOKUP($C23,'R3'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q3'!$B$3:$J$22,9,)</f>
         <v>18</v>
       </c>
-      <c r="G23" s="270">
+      <c r="G23" s="267">
         <f>+VLOOKUP($C23,'R4'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q4'!$B$3:$J$22,9,)</f>
         <v>-12</v>
       </c>
-      <c r="H23" s="270">
+      <c r="H23" s="267">
         <f>+VLOOKUP($C23,'R5'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q5'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="I23" s="270">
+      <c r="I23" s="267">
         <f>+VLOOKUP($C23,'R6'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q6'!$B$3:$J$22,9,)</f>
         <v>9</v>
       </c>
-      <c r="J23" s="270">
+      <c r="J23" s="267">
         <f>+VLOOKUP($C23,'R7'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q7'!$B$3:$J$22,9,)</f>
         <v>8</v>
       </c>
-      <c r="K23" s="270">
+      <c r="K23" s="267">
         <f>+VLOOKUP($C23,'R8'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q8'!$B$3:$J$22,9,)</f>
         <v>-11</v>
       </c>
-      <c r="L23" s="270">
+      <c r="L23" s="267">
         <f>+VLOOKUP($C23,'R9'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q9'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="M23" s="270">
+      <c r="M23" s="267">
         <f>+VLOOKUP($C23,'R10'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q10'!$B$3:$J$22,9,)</f>
         <v>15</v>
       </c>
-      <c r="N23" s="270"/>
-      <c r="O23" s="270"/>
-      <c r="P23" s="270"/>
-      <c r="Q23" s="270">
+      <c r="N23" s="267">
+        <f>+VLOOKUP($C23,'R11'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q11'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="O23" s="267"/>
+      <c r="P23" s="267"/>
+      <c r="Q23" s="267">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="403" t="s">
+      <c r="B25" s="400" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="404"/>
-      <c r="D25" s="404"/>
-      <c r="E25" s="404"/>
-      <c r="F25" s="404"/>
-      <c r="G25" s="404"/>
-      <c r="H25" s="404"/>
-      <c r="I25" s="404"/>
-      <c r="J25" s="404"/>
-      <c r="K25" s="404"/>
-      <c r="L25" s="404"/>
-      <c r="M25" s="404"/>
-      <c r="N25" s="404"/>
-      <c r="O25" s="404"/>
-      <c r="P25" s="404"/>
-      <c r="Q25" s="405"/>
+      <c r="C25" s="401"/>
+      <c r="D25" s="401"/>
+      <c r="E25" s="401"/>
+      <c r="F25" s="401"/>
+      <c r="G25" s="401"/>
+      <c r="H25" s="401"/>
+      <c r="I25" s="401"/>
+      <c r="J25" s="401"/>
+      <c r="K25" s="401"/>
+      <c r="L25" s="401"/>
+      <c r="M25" s="401"/>
+      <c r="N25" s="401"/>
+      <c r="O25" s="401"/>
+      <c r="P25" s="401"/>
+      <c r="Q25" s="402"/>
     </row>
     <row r="26" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="402" t="s">
+      <c r="C26" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="264" t="s">
+      <c r="D26" s="261" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="264" t="s">
+      <c r="E26" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="264" t="s">
+      <c r="F26" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="264" t="s">
+      <c r="G26" s="261" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="264" t="s">
+      <c r="H26" s="261" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="264" t="s">
+      <c r="I26" s="261" t="s">
         <v>55</v>
       </c>
-      <c r="J26" s="264" t="s">
+      <c r="J26" s="261" t="s">
         <v>56</v>
       </c>
-      <c r="K26" s="264" t="s">
+      <c r="K26" s="261" t="s">
         <v>57</v>
       </c>
-      <c r="L26" s="264" t="s">
+      <c r="L26" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="M26" s="264" t="s">
+      <c r="M26" s="261" t="s">
         <v>59</v>
       </c>
-      <c r="N26" s="264" t="s">
+      <c r="N26" s="261" t="s">
         <v>60</v>
       </c>
-      <c r="O26" s="264" t="s">
+      <c r="O26" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="P26" s="264" t="s">
+      <c r="P26" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="Q26" s="264" t="s">
+      <c r="Q26" s="261" t="s">
         <v>15</v>
       </c>
     </row>
@@ -18182,7 +18586,10 @@
         <f>+VLOOKUP($C27,'Q10'!$B$3:$J$22,9,)</f>
         <v>15</v>
       </c>
-      <c r="N27" s="37"/>
+      <c r="N27" s="37">
+        <f>+VLOOKUP($C27,'Q11'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="37">
@@ -18237,7 +18644,10 @@
         <f>+VLOOKUP($C28,'Q10'!$B$3:$J$22,9,)</f>
         <v>11</v>
       </c>
-      <c r="N28" s="27"/>
+      <c r="N28" s="27">
+        <f>+VLOOKUP($C28,'Q11'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
       <c r="O28" s="27"/>
       <c r="P28" s="27"/>
       <c r="Q28" s="27">
@@ -18292,7 +18702,10 @@
         <f>+VLOOKUP($C29,'Q10'!$B$3:$J$22,9,)</f>
         <v>14</v>
       </c>
-      <c r="N29" s="29"/>
+      <c r="N29" s="29">
+        <f>+VLOOKUP($C29,'Q11'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
       <c r="O29" s="29"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29">
@@ -18347,7 +18760,10 @@
         <f>+VLOOKUP($C30,'Q10'!$B$3:$J$22,9,)</f>
         <v>2</v>
       </c>
-      <c r="N30" s="31"/>
+      <c r="N30" s="31">
+        <f>+VLOOKUP($C30,'Q11'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
       <c r="O30" s="31"/>
       <c r="P30" s="31"/>
       <c r="Q30" s="31">
@@ -18402,7 +18818,10 @@
         <f>+VLOOKUP($C31,'Q10'!$B$3:$J$22,9,)</f>
         <v>10</v>
       </c>
-      <c r="N31" s="30"/>
+      <c r="N31" s="30">
+        <f>+VLOOKUP($C31,'Q11'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
       <c r="O31" s="30"/>
       <c r="P31" s="30"/>
       <c r="Q31" s="30">
@@ -18457,7 +18876,10 @@
         <f>+VLOOKUP($C32,'Q10'!$B$3:$J$22,9,)</f>
         <v>6</v>
       </c>
-      <c r="N32" s="30"/>
+      <c r="N32" s="30">
+        <f>+VLOOKUP($C32,'Q11'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30">
@@ -18512,7 +18934,10 @@
         <f>+VLOOKUP($C33,'Q10'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="N33" s="28"/>
+      <c r="N33" s="28">
+        <f>+VLOOKUP($C33,'Q11'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
       <c r="O33" s="28"/>
       <c r="P33" s="28"/>
       <c r="Q33" s="28">
@@ -18567,7 +18992,10 @@
         <f>+VLOOKUP($C34,'Q10'!$B$3:$J$22,9,)</f>
         <v>11</v>
       </c>
-      <c r="N34" s="32"/>
+      <c r="N34" s="32">
+        <f>+VLOOKUP($C34,'Q11'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
       <c r="O34" s="32"/>
       <c r="P34" s="32"/>
       <c r="Q34" s="32">
@@ -18616,7 +19044,10 @@
         <f>+VLOOKUP($C35,'Q10'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="N35" s="31"/>
+      <c r="N35" s="31">
+        <f>+VLOOKUP($C35,'Q11'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
       <c r="O35" s="31"/>
       <c r="P35" s="31"/>
       <c r="Q35" s="31">
@@ -18671,7 +19102,10 @@
         <f>+VLOOKUP($C36,'Q10'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="N36" s="29"/>
+      <c r="N36" s="29">
+        <f>+VLOOKUP($C36,'Q11'!$B$3:$J$22,9,)</f>
+        <v>9</v>
+      </c>
       <c r="O36" s="29"/>
       <c r="P36" s="29"/>
       <c r="Q36" s="29">
@@ -18726,7 +19160,10 @@
         <f>+VLOOKUP($C37,'Q10'!$B$3:$J$22,9,)</f>
         <v>7</v>
       </c>
-      <c r="N37" s="82"/>
+      <c r="N37" s="82">
+        <f>+VLOOKUP($C37,'Q11'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
       <c r="O37" s="82"/>
       <c r="P37" s="82"/>
       <c r="Q37" s="82">
@@ -18781,7 +19218,10 @@
         <f>+VLOOKUP($C38,'Q10'!$B$3:$J$22,9,)</f>
         <v>7</v>
       </c>
-      <c r="N38" s="32"/>
+      <c r="N38" s="32">
+        <f>+VLOOKUP($C38,'Q11'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32">
@@ -18836,7 +19276,10 @@
         <f>+VLOOKUP($C39,'Q10'!$B$3:$J$22,9,)</f>
         <v>2</v>
       </c>
-      <c r="N39" s="28"/>
+      <c r="N39" s="28">
+        <f>+VLOOKUP($C39,'Q11'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
       <c r="O39" s="28"/>
       <c r="P39" s="28"/>
       <c r="Q39" s="28">
@@ -18891,7 +19334,10 @@
         <f>+VLOOKUP($C40,'Q10'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="N40" s="35"/>
+      <c r="N40" s="35">
+        <f>+VLOOKUP($C40,'Q11'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
       <c r="O40" s="35"/>
       <c r="P40" s="35"/>
       <c r="Q40" s="35">
@@ -18946,7 +19392,10 @@
         <f>+VLOOKUP($C41,'Q10'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="N41" s="33"/>
+      <c r="N41" s="33">
+        <f>+VLOOKUP($C41,'Q11'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
       <c r="Q41" s="33">
@@ -19001,7 +19450,10 @@
         <f>+VLOOKUP($C42,'Q10'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="N42" s="34"/>
+      <c r="N42" s="34">
+        <f>+VLOOKUP($C42,'Q11'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
       <c r="O42" s="34"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="34">
@@ -19056,7 +19508,10 @@
         <f>+VLOOKUP($C43,'Q10'!$B$3:$J$22,9,)</f>
         <v>3</v>
       </c>
-      <c r="N43" s="34"/>
+      <c r="N43" s="34">
+        <f>+VLOOKUP($C43,'Q11'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
       <c r="O43" s="34"/>
       <c r="P43" s="34"/>
       <c r="Q43" s="34">
@@ -19111,7 +19566,10 @@
         <f>+VLOOKUP($C44,'Q10'!$B$3:$J$22,9,)</f>
         <v>2</v>
       </c>
-      <c r="N44" s="82"/>
+      <c r="N44" s="82">
+        <f>+VLOOKUP($C44,'Q11'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
       <c r="O44" s="82"/>
       <c r="P44" s="82"/>
       <c r="Q44" s="82">
@@ -19166,7 +19624,10 @@
         <f>+VLOOKUP($C45,'Q10'!$B$3:$J$22,9,)</f>
         <v>3</v>
       </c>
-      <c r="N45" s="33"/>
+      <c r="N45" s="33">
+        <f>+VLOOKUP($C45,'Q11'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
       <c r="O45" s="33"/>
       <c r="P45" s="33"/>
       <c r="Q45" s="33">
@@ -19221,7 +19682,10 @@
         <f>+VLOOKUP($C46,'Q10'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="N46" s="36"/>
+      <c r="N46" s="36">
+        <f>+VLOOKUP($C46,'Q11'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
       <c r="O46" s="36"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="36">
@@ -19231,72 +19695,72 @@
     </row>
     <row r="47" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="403" t="s">
+      <c r="B48" s="400" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="404"/>
-      <c r="D48" s="404"/>
-      <c r="E48" s="404"/>
-      <c r="F48" s="404"/>
-      <c r="G48" s="404"/>
-      <c r="H48" s="404"/>
-      <c r="I48" s="404"/>
-      <c r="J48" s="404"/>
-      <c r="K48" s="404"/>
-      <c r="L48" s="404"/>
-      <c r="M48" s="404"/>
-      <c r="N48" s="404"/>
-      <c r="O48" s="404"/>
-      <c r="P48" s="404"/>
-      <c r="Q48" s="405"/>
+      <c r="C48" s="401"/>
+      <c r="D48" s="401"/>
+      <c r="E48" s="401"/>
+      <c r="F48" s="401"/>
+      <c r="G48" s="401"/>
+      <c r="H48" s="401"/>
+      <c r="I48" s="401"/>
+      <c r="J48" s="401"/>
+      <c r="K48" s="401"/>
+      <c r="L48" s="401"/>
+      <c r="M48" s="401"/>
+      <c r="N48" s="401"/>
+      <c r="O48" s="401"/>
+      <c r="P48" s="401"/>
+      <c r="Q48" s="402"/>
     </row>
     <row r="49" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="402" t="s">
+      <c r="C49" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="D49" s="264" t="s">
+      <c r="D49" s="261" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="264" t="s">
+      <c r="E49" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="F49" s="264" t="s">
+      <c r="F49" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="G49" s="264" t="s">
+      <c r="G49" s="261" t="s">
         <v>53</v>
       </c>
-      <c r="H49" s="264" t="s">
+      <c r="H49" s="261" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="264" t="s">
+      <c r="I49" s="261" t="s">
         <v>55</v>
       </c>
-      <c r="J49" s="264" t="s">
+      <c r="J49" s="261" t="s">
         <v>56</v>
       </c>
-      <c r="K49" s="264" t="s">
+      <c r="K49" s="261" t="s">
         <v>57</v>
       </c>
-      <c r="L49" s="264" t="s">
+      <c r="L49" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="M49" s="264" t="s">
+      <c r="M49" s="261" t="s">
         <v>59</v>
       </c>
-      <c r="N49" s="264" t="s">
+      <c r="N49" s="261" t="s">
         <v>60</v>
       </c>
-      <c r="O49" s="264" t="s">
+      <c r="O49" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="P49" s="264" t="s">
+      <c r="P49" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="Q49" s="264" t="s">
+      <c r="Q49" s="261" t="s">
         <v>15</v>
       </c>
     </row>
@@ -19347,7 +19811,10 @@
         <f>+VLOOKUP($C50,'R10'!$C$3:$H$22,5,)</f>
         <v>27</v>
       </c>
-      <c r="N50" s="37"/>
+      <c r="N50" s="37">
+        <f>+VLOOKUP($C50,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O50" s="37"/>
       <c r="P50" s="37"/>
       <c r="Q50" s="37">
@@ -19402,7 +19869,10 @@
         <f>+VLOOKUP($C51,'R10'!$C$3:$H$22,5,)</f>
         <v>27</v>
       </c>
-      <c r="N51" s="29"/>
+      <c r="N51" s="29">
+        <f>+VLOOKUP($C51,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="29">
@@ -19457,7 +19927,10 @@
         <f>+VLOOKUP($C52,'R10'!$C$3:$H$22,5,)</f>
         <v>43</v>
       </c>
-      <c r="N52" s="27"/>
+      <c r="N52" s="27">
+        <f>+VLOOKUP($C52,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O52" s="27"/>
       <c r="P52" s="27"/>
       <c r="Q52" s="27">
@@ -19512,7 +19985,10 @@
         <f>+VLOOKUP($C53,'R10'!$C$3:$H$22,5,)</f>
         <v>-6</v>
       </c>
-      <c r="N53" s="30"/>
+      <c r="N53" s="30">
+        <f>+VLOOKUP($C53,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O53" s="30"/>
       <c r="P53" s="30"/>
       <c r="Q53" s="30">
@@ -19567,7 +20043,10 @@
         <f>+VLOOKUP($C54,'R10'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="N54" s="31"/>
+      <c r="N54" s="31">
+        <f>+VLOOKUP($C54,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O54" s="31"/>
       <c r="P54" s="31"/>
       <c r="Q54" s="31">
@@ -19622,7 +20101,10 @@
         <f>+VLOOKUP($C55,'R10'!$C$3:$H$22,5,)</f>
         <v>2</v>
       </c>
-      <c r="N55" s="29"/>
+      <c r="N55" s="29">
+        <f>+VLOOKUP($C55,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
       <c r="Q55" s="29">
@@ -19677,7 +20159,10 @@
         <f>+VLOOKUP($C56,'R10'!$C$3:$H$22,5,)</f>
         <v>3</v>
       </c>
-      <c r="N56" s="82"/>
+      <c r="N56" s="82">
+        <f>+VLOOKUP($C56,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O56" s="82"/>
       <c r="P56" s="82"/>
       <c r="Q56" s="82">
@@ -19732,7 +20217,10 @@
         <f>+VLOOKUP($C57,'R10'!$C$3:$H$22,5,)</f>
         <v>7</v>
       </c>
-      <c r="N57" s="32"/>
+      <c r="N57" s="32">
+        <f>+VLOOKUP($C57,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="32">
@@ -19787,7 +20275,10 @@
         <f>+VLOOKUP($C58,'R10'!$C$3:$H$22,5,)</f>
         <v>14</v>
       </c>
-      <c r="N58" s="32"/>
+      <c r="N58" s="32">
+        <f>+VLOOKUP($C58,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
       <c r="Q58" s="32">
@@ -19842,7 +20333,10 @@
         <f>+VLOOKUP($C59,'R10'!$C$3:$H$22,5,)</f>
         <v>11</v>
       </c>
-      <c r="N59" s="33"/>
+      <c r="N59" s="33">
+        <f>+VLOOKUP($C59,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O59" s="33"/>
       <c r="P59" s="33"/>
       <c r="Q59" s="33">
@@ -19897,7 +20391,10 @@
         <f>+VLOOKUP($C60,'R10'!$C$3:$H$22,5,)</f>
         <v>10</v>
       </c>
-      <c r="N60" s="35"/>
+      <c r="N60" s="35">
+        <f>+VLOOKUP($C60,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O60" s="35"/>
       <c r="P60" s="35"/>
       <c r="Q60" s="35">
@@ -19952,7 +20449,10 @@
         <f>+VLOOKUP($C61,'R10'!$C$3:$H$22,5,)</f>
         <v>14</v>
       </c>
-      <c r="N61" s="33"/>
+      <c r="N61" s="33">
+        <f>+VLOOKUP($C61,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O61" s="33"/>
       <c r="P61" s="33"/>
       <c r="Q61" s="33">
@@ -20007,7 +20507,10 @@
         <f>+VLOOKUP($C62,'R10'!$C$3:$H$22,5,)</f>
         <v>16</v>
       </c>
-      <c r="N62" s="82"/>
+      <c r="N62" s="82">
+        <f>+VLOOKUP($C62,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O62" s="82"/>
       <c r="P62" s="82"/>
       <c r="Q62" s="82">
@@ -20056,7 +20559,10 @@
         <f>+VLOOKUP($C63,'R10'!$C$3:$H$22,5,)</f>
         <v>16</v>
       </c>
-      <c r="N63" s="31"/>
+      <c r="N63" s="31">
+        <f>+VLOOKUP($C63,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O63" s="31"/>
       <c r="P63" s="31"/>
       <c r="Q63" s="31">
@@ -20111,7 +20617,10 @@
         <f>+VLOOKUP($C64,'R10'!$C$3:$H$22,5,)</f>
         <v>-10</v>
       </c>
-      <c r="N64" s="30"/>
+      <c r="N64" s="30">
+        <f>+VLOOKUP($C64,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O64" s="30"/>
       <c r="P64" s="30"/>
       <c r="Q64" s="30">
@@ -20166,7 +20675,10 @@
         <f>+VLOOKUP($C65,'R10'!$C$3:$H$22,5,)</f>
         <v>0</v>
       </c>
-      <c r="N65" s="34"/>
+      <c r="N65" s="34">
+        <f>+VLOOKUP($C65,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O65" s="34"/>
       <c r="P65" s="34"/>
       <c r="Q65" s="34">
@@ -20221,7 +20733,10 @@
         <f>+VLOOKUP($C66,'R10'!$C$3:$H$22,5,)</f>
         <v>22</v>
       </c>
-      <c r="N66" s="28"/>
+      <c r="N66" s="28">
+        <f>+VLOOKUP($C66,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O66" s="28"/>
       <c r="P66" s="28"/>
       <c r="Q66" s="28">
@@ -20276,7 +20791,10 @@
         <f>+VLOOKUP($C67,'R10'!$C$3:$H$22,5,)</f>
         <v>5</v>
       </c>
-      <c r="N67" s="28"/>
+      <c r="N67" s="28">
+        <f>+VLOOKUP($C67,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O67" s="28"/>
       <c r="P67" s="28"/>
       <c r="Q67" s="28">
@@ -20331,7 +20849,10 @@
         <f>+VLOOKUP($C68,'R10'!$C$3:$H$22,5,)</f>
         <v>-4</v>
       </c>
-      <c r="N68" s="35"/>
+      <c r="N68" s="35">
+        <f>+VLOOKUP($C68,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
       <c r="Q68" s="35">
@@ -20340,56 +20861,59 @@
       </c>
     </row>
     <row r="69" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="269" t="s">
+      <c r="B69" s="266" t="s">
         <v>34</v>
       </c>
       <c r="C69" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="270">
+      <c r="D69" s="267">
         <f>+VLOOKUP($C69,'R1'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="E69" s="270">
+      <c r="E69" s="267">
         <f>+VLOOKUP($C69,'R2'!$C$3:$H$22,5,)</f>
         <v>10</v>
       </c>
-      <c r="F69" s="270">
+      <c r="F69" s="267">
         <f>+VLOOKUP($C69,'R3'!$C$3:$H$22,5,)</f>
         <v>15</v>
       </c>
-      <c r="G69" s="270">
+      <c r="G69" s="267">
         <f>+VLOOKUP($C69,'R4'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="H69" s="270">
+      <c r="H69" s="267">
         <f>+VLOOKUP($C69,'R5'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="I69" s="270">
+      <c r="I69" s="267">
         <f>+VLOOKUP($C69,'R6'!$C$3:$H$22,5,)</f>
         <v>6</v>
       </c>
-      <c r="J69" s="270">
+      <c r="J69" s="267">
         <f>+VLOOKUP($C69,'R7'!$C$3:$H$22,5,)</f>
         <v>7</v>
       </c>
-      <c r="K69" s="270">
+      <c r="K69" s="267">
         <f>+VLOOKUP($C69,'R8'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="L69" s="270">
+      <c r="L69" s="267">
         <f>+VLOOKUP($C69,'R9'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="M69" s="270">
+      <c r="M69" s="267">
         <f>+VLOOKUP($C69,'R10'!$C$3:$H$22,5,)</f>
         <v>14</v>
       </c>
-      <c r="N69" s="270"/>
-      <c r="O69" s="270"/>
-      <c r="P69" s="270"/>
-      <c r="Q69" s="270">
+      <c r="N69" s="267">
+        <f>+VLOOKUP($C69,'R11'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="267"/>
+      <c r="P69" s="267"/>
+      <c r="Q69" s="267">
         <f t="shared" si="4"/>
         <v>-23</v>
       </c>
@@ -20414,7 +20938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
@@ -20422,60 +20946,60 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="402" t="s">
+      <c r="D2" s="399" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="399" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="399" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="264" t="s">
+      <c r="I2" s="261" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="265">
+      <c r="A3" s="262">
         <v>10</v>
       </c>
-      <c r="B3" s="265">
+      <c r="B3" s="262">
         <v>1</v>
       </c>
-      <c r="C3" s="265" t="s">
+      <c r="C3" s="262" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="265" t="s">
+      <c r="D3" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="266" t="s">
+      <c r="E3" s="263" t="s">
         <v>629</v>
       </c>
-      <c r="F3" s="267">
+      <c r="F3" s="264">
         <v>53</v>
       </c>
-      <c r="G3" s="267">
+      <c r="G3" s="264">
         <v>39</v>
       </c>
-      <c r="H3" s="267">
+      <c r="H3" s="264">
         <v>25</v>
       </c>
-      <c r="I3" s="267"/>
+      <c r="I3" s="264"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="51">
@@ -20493,16 +21017,16 @@
       <c r="E4" s="61" t="s">
         <v>630</v>
       </c>
-      <c r="F4" s="268">
+      <c r="F4" s="265">
         <v>53</v>
       </c>
-      <c r="G4" s="268">
+      <c r="G4" s="265">
         <v>24</v>
       </c>
-      <c r="H4" s="268">
+      <c r="H4" s="265">
         <v>18</v>
       </c>
-      <c r="I4" s="268"/>
+      <c r="I4" s="265"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="52">
@@ -20547,16 +21071,16 @@
       <c r="E6" s="61" t="s">
         <v>632</v>
       </c>
-      <c r="F6" s="268">
+      <c r="F6" s="265">
         <v>53</v>
       </c>
-      <c r="G6" s="268">
+      <c r="G6" s="265">
         <v>27</v>
       </c>
-      <c r="H6" s="268">
+      <c r="H6" s="265">
         <v>12</v>
       </c>
-      <c r="I6" s="268"/>
+      <c r="I6" s="265"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="48">
@@ -20991,7 +21515,7 @@
       <c r="I22" s="171"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="261"/>
+      <c r="C28" s="258"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000013000000}">
@@ -21014,19 +21538,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="6" width="13" style="253" customWidth="1"/>
-    <col min="11" max="11" width="28" style="253" customWidth="1"/>
+    <col min="4" max="6" width="13" style="250" customWidth="1"/>
+    <col min="11" max="11" width="28" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -21038,19 +21562,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="263" t="s">
+      <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="399" t="s">
         <v>113</v>
       </c>
     </row>
@@ -21082,7 +21606,7 @@
       <c r="I3" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="J3" s="258">
+      <c r="J3" s="255">
         <v>15</v>
       </c>
       <c r="K3" s="22"/>
@@ -21348,7 +21872,7 @@
       <c r="I11" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="J11" s="268">
+      <c r="J11" s="265">
         <v>7</v>
       </c>
       <c r="K11" s="4"/>
@@ -21416,7 +21940,7 @@
       <c r="I13" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="J13" s="268">
+      <c r="J13" s="265">
         <v>2</v>
       </c>
       <c r="K13" s="4"/>
@@ -21739,36 +22263,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="27.1640625" style="253" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="402" t="s">
+      <c r="D2" s="399" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="399" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="399" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="264" t="s">
+      <c r="I2" s="261" t="s">
         <v>113</v>
       </c>
     </row>
@@ -21788,16 +22312,16 @@
       <c r="E3" s="58" t="s">
         <v>694</v>
       </c>
-      <c r="F3" s="258">
+      <c r="F3" s="255">
         <v>59</v>
       </c>
-      <c r="G3" s="258">
+      <c r="G3" s="255">
         <v>34</v>
       </c>
-      <c r="H3" s="258">
+      <c r="H3" s="255">
         <v>26</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="255"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="48">
@@ -21923,16 +22447,16 @@
       <c r="E8" s="61" t="s">
         <v>699</v>
       </c>
-      <c r="F8" s="268">
+      <c r="F8" s="265">
         <v>59</v>
       </c>
-      <c r="G8" s="268">
+      <c r="G8" s="265">
         <v>22</v>
       </c>
-      <c r="H8" s="268">
+      <c r="H8" s="265">
         <v>8</v>
       </c>
-      <c r="I8" s="268"/>
+      <c r="I8" s="265"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="77">
@@ -22259,16 +22783,16 @@
       <c r="E20" s="61" t="s">
         <v>714</v>
       </c>
-      <c r="F20" s="268">
+      <c r="F20" s="265">
         <v>5</v>
       </c>
-      <c r="G20" s="268">
+      <c r="G20" s="265">
         <v>-15</v>
       </c>
-      <c r="H20" s="268">
-        <v>0</v>
-      </c>
-      <c r="I20" s="268" t="s">
+      <c r="H20" s="265">
+        <v>0</v>
+      </c>
+      <c r="I20" s="265" t="s">
         <v>710</v>
       </c>
     </row>
@@ -22338,13 +22862,13 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="W45" sqref="W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="6" width="13" style="253" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="253" customWidth="1"/>
+    <col min="4" max="6" width="13" style="250" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -22358,13 +22882,13 @@
       <c r="C2" s="239" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="289" t="s">
+      <c r="D2" s="286" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="289" t="s">
+      <c r="E2" s="286" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="290" t="s">
+      <c r="F2" s="287" t="s">
         <v>108</v>
       </c>
       <c r="G2" s="238" t="s">
@@ -22373,7 +22897,7 @@
       <c r="H2" s="239" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="290" t="s">
+      <c r="I2" s="287" t="s">
         <v>111</v>
       </c>
       <c r="J2" s="238" t="s">
@@ -22384,544 +22908,544 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="291">
+      <c r="A3" s="288">
         <v>44</v>
       </c>
-      <c r="B3" s="292" t="s">
+      <c r="B3" s="289" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="292" t="s">
+      <c r="C3" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="294"/>
-      <c r="G3" s="295" t="s">
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="292" t="s">
         <v>717</v>
       </c>
-      <c r="H3" s="296" t="s">
+      <c r="H3" s="293" t="s">
         <v>718</v>
       </c>
-      <c r="I3" s="297" t="s">
+      <c r="I3" s="294" t="s">
         <v>719</v>
       </c>
-      <c r="J3" s="298">
+      <c r="J3" s="295">
         <v>15</v>
       </c>
-      <c r="K3" s="296"/>
+      <c r="K3" s="293"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="299">
+      <c r="A4" s="296">
         <v>33</v>
       </c>
-      <c r="B4" s="300" t="s">
+      <c r="B4" s="297" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="297" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="302"/>
-      <c r="G4" s="303" t="s">
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="300" t="s">
         <v>720</v>
       </c>
-      <c r="H4" s="304" t="s">
+      <c r="H4" s="301" t="s">
         <v>721</v>
       </c>
-      <c r="I4" s="305" t="s">
+      <c r="I4" s="302" t="s">
         <v>722</v>
       </c>
-      <c r="J4" s="306">
+      <c r="J4" s="303">
         <v>14</v>
       </c>
-      <c r="K4" s="304"/>
+      <c r="K4" s="301"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="291">
+      <c r="A5" s="288">
         <v>77</v>
       </c>
-      <c r="B5" s="292" t="s">
+      <c r="B5" s="289" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="292" t="s">
+      <c r="C5" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="295" t="s">
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="291"/>
+      <c r="G5" s="292" t="s">
         <v>723</v>
       </c>
-      <c r="H5" s="296" t="s">
+      <c r="H5" s="293" t="s">
         <v>724</v>
       </c>
-      <c r="I5" s="297" t="s">
+      <c r="I5" s="294" t="s">
         <v>725</v>
       </c>
-      <c r="J5" s="298">
+      <c r="J5" s="295">
         <v>11</v>
       </c>
-      <c r="K5" s="296"/>
+      <c r="K5" s="293"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="315">
+      <c r="A6" s="312">
         <v>11</v>
       </c>
-      <c r="B6" s="316" t="s">
+      <c r="B6" s="313" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="316" t="s">
+      <c r="C6" s="313" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="317"/>
-      <c r="E6" s="317"/>
-      <c r="F6" s="318"/>
-      <c r="G6" s="319" t="s">
+      <c r="D6" s="314"/>
+      <c r="E6" s="314"/>
+      <c r="F6" s="315"/>
+      <c r="G6" s="316" t="s">
         <v>726</v>
       </c>
-      <c r="H6" s="320" t="s">
+      <c r="H6" s="317" t="s">
         <v>727</v>
       </c>
-      <c r="I6" s="321" t="s">
+      <c r="I6" s="318" t="s">
         <v>728</v>
       </c>
-      <c r="J6" s="322">
+      <c r="J6" s="319">
         <v>12</v>
       </c>
-      <c r="K6" s="320"/>
+      <c r="K6" s="317"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="323">
+      <c r="A7" s="320">
         <v>3</v>
       </c>
-      <c r="B7" s="324" t="s">
+      <c r="B7" s="321" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="324" t="s">
+      <c r="C7" s="321" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="325"/>
-      <c r="E7" s="325"/>
-      <c r="F7" s="326"/>
-      <c r="G7" s="327" t="s">
+      <c r="D7" s="322"/>
+      <c r="E7" s="322"/>
+      <c r="F7" s="323"/>
+      <c r="G7" s="324" t="s">
         <v>729</v>
       </c>
-      <c r="H7" s="328" t="s">
+      <c r="H7" s="325" t="s">
         <v>730</v>
       </c>
-      <c r="I7" s="329" t="s">
+      <c r="I7" s="326" t="s">
         <v>731</v>
       </c>
-      <c r="J7" s="330">
+      <c r="J7" s="327">
         <v>11</v>
       </c>
-      <c r="K7" s="328"/>
+      <c r="K7" s="325"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="331">
+      <c r="A8" s="328">
         <v>55</v>
       </c>
-      <c r="B8" s="332" t="s">
+      <c r="B8" s="329" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="332" t="s">
+      <c r="C8" s="329" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="333"/>
-      <c r="E8" s="333"/>
-      <c r="F8" s="334"/>
-      <c r="G8" s="335" t="s">
+      <c r="D8" s="330"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="331"/>
+      <c r="G8" s="332" t="s">
         <v>732</v>
       </c>
-      <c r="H8" s="336" t="s">
+      <c r="H8" s="333" t="s">
         <v>733</v>
       </c>
-      <c r="I8" s="337" t="s">
+      <c r="I8" s="334" t="s">
         <v>734</v>
       </c>
-      <c r="J8" s="338">
+      <c r="J8" s="335">
         <v>10</v>
       </c>
-      <c r="K8" s="336"/>
+      <c r="K8" s="333"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="323">
+      <c r="A9" s="320">
         <v>31</v>
       </c>
-      <c r="B9" s="324" t="s">
+      <c r="B9" s="321" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="324" t="s">
+      <c r="C9" s="321" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="325"/>
-      <c r="E9" s="325"/>
-      <c r="F9" s="326"/>
-      <c r="G9" s="327" t="s">
+      <c r="D9" s="322"/>
+      <c r="E9" s="322"/>
+      <c r="F9" s="323"/>
+      <c r="G9" s="324" t="s">
         <v>735</v>
       </c>
-      <c r="H9" s="328" t="s">
+      <c r="H9" s="325" t="s">
         <v>736</v>
       </c>
-      <c r="I9" s="329" t="s">
+      <c r="I9" s="326" t="s">
         <v>737</v>
       </c>
-      <c r="J9" s="330">
+      <c r="J9" s="327">
         <v>7</v>
       </c>
-      <c r="K9" s="328"/>
+      <c r="K9" s="325"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="331">
+      <c r="A10" s="328">
         <v>4</v>
       </c>
-      <c r="B10" s="332" t="s">
+      <c r="B10" s="329" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="332" t="s">
+      <c r="C10" s="329" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="333"/>
-      <c r="E10" s="333"/>
-      <c r="F10" s="334"/>
-      <c r="G10" s="335" t="s">
+      <c r="D10" s="330"/>
+      <c r="E10" s="330"/>
+      <c r="F10" s="331"/>
+      <c r="G10" s="332" t="s">
         <v>738</v>
       </c>
-      <c r="H10" s="336" t="s">
+      <c r="H10" s="333" t="s">
         <v>739</v>
       </c>
-      <c r="I10" s="337" t="s">
+      <c r="I10" s="334" t="s">
         <v>740</v>
       </c>
-      <c r="J10" s="338">
+      <c r="J10" s="335">
         <v>6</v>
       </c>
-      <c r="K10" s="336"/>
+      <c r="K10" s="333"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="339">
+      <c r="A11" s="336">
         <v>10</v>
       </c>
-      <c r="B11" s="340" t="s">
+      <c r="B11" s="337" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="340" t="s">
+      <c r="C11" s="337" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="341"/>
-      <c r="E11" s="341"/>
-      <c r="F11" s="342"/>
-      <c r="G11" s="343" t="s">
+      <c r="D11" s="338"/>
+      <c r="E11" s="338"/>
+      <c r="F11" s="339"/>
+      <c r="G11" s="340" t="s">
         <v>741</v>
       </c>
-      <c r="H11" s="344" t="s">
+      <c r="H11" s="341" t="s">
         <v>742</v>
       </c>
-      <c r="I11" s="345" t="s">
+      <c r="I11" s="342" t="s">
         <v>743</v>
       </c>
-      <c r="J11" s="346">
+      <c r="J11" s="343">
         <v>7</v>
       </c>
-      <c r="K11" s="344"/>
+      <c r="K11" s="341"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="299">
+      <c r="A12" s="296">
         <v>23</v>
       </c>
-      <c r="B12" s="300" t="s">
+      <c r="B12" s="297" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="300" t="s">
+      <c r="C12" s="297" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="302"/>
-      <c r="G12" s="303" t="s">
+      <c r="D12" s="298"/>
+      <c r="E12" s="298"/>
+      <c r="F12" s="299"/>
+      <c r="G12" s="300" t="s">
         <v>744</v>
       </c>
-      <c r="H12" s="304" t="s">
+      <c r="H12" s="301" t="s">
         <v>745</v>
       </c>
-      <c r="I12" s="305" t="s">
+      <c r="I12" s="302" t="s">
         <v>746</v>
       </c>
-      <c r="J12" s="306">
+      <c r="J12" s="303">
         <v>4</v>
       </c>
-      <c r="K12" s="304"/>
+      <c r="K12" s="301"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="307">
+      <c r="A13" s="304">
         <v>16</v>
       </c>
-      <c r="B13" s="308" t="s">
+      <c r="B13" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="308" t="s">
+      <c r="C13" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="309"/>
-      <c r="E13" s="309"/>
-      <c r="F13" s="310"/>
-      <c r="G13" s="311" t="s">
+      <c r="D13" s="306"/>
+      <c r="E13" s="306"/>
+      <c r="F13" s="307"/>
+      <c r="G13" s="308" t="s">
         <v>747</v>
       </c>
-      <c r="H13" s="312" t="s">
+      <c r="H13" s="309" t="s">
         <v>748</v>
       </c>
-      <c r="I13" s="313" t="s">
+      <c r="I13" s="310" t="s">
         <v>145</v>
       </c>
-      <c r="J13" s="314">
+      <c r="J13" s="311">
         <v>4</v>
       </c>
-      <c r="K13" s="312"/>
+      <c r="K13" s="309"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="339">
+      <c r="A14" s="336">
         <v>23</v>
       </c>
-      <c r="B14" s="340" t="s">
+      <c r="B14" s="337" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="340" t="s">
+      <c r="C14" s="337" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="341"/>
-      <c r="E14" s="341"/>
-      <c r="F14" s="342"/>
-      <c r="G14" s="343" t="s">
+      <c r="D14" s="338"/>
+      <c r="E14" s="338"/>
+      <c r="F14" s="339"/>
+      <c r="G14" s="340" t="s">
         <v>749</v>
       </c>
-      <c r="H14" s="344" t="s">
+      <c r="H14" s="341" t="s">
         <v>750</v>
       </c>
-      <c r="I14" s="345" t="s">
+      <c r="I14" s="342" t="s">
         <v>145</v>
       </c>
-      <c r="J14" s="346">
+      <c r="J14" s="343">
         <v>2</v>
       </c>
-      <c r="K14" s="344"/>
+      <c r="K14" s="341"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="315">
+      <c r="A15" s="312">
         <v>18</v>
       </c>
-      <c r="B15" s="316" t="s">
+      <c r="B15" s="313" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="316" t="s">
+      <c r="C15" s="313" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="317"/>
-      <c r="E15" s="317"/>
-      <c r="F15" s="318"/>
-      <c r="G15" s="319" t="s">
+      <c r="D15" s="314"/>
+      <c r="E15" s="314"/>
+      <c r="F15" s="315"/>
+      <c r="G15" s="316" t="s">
         <v>751</v>
       </c>
-      <c r="H15" s="320" t="s">
+      <c r="H15" s="317" t="s">
         <v>752</v>
       </c>
-      <c r="I15" s="321" t="s">
+      <c r="I15" s="318" t="s">
         <v>145</v>
       </c>
-      <c r="J15" s="322">
+      <c r="J15" s="319">
         <v>2</v>
       </c>
-      <c r="K15" s="320"/>
+      <c r="K15" s="317"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="363">
+      <c r="A16" s="360">
         <v>63</v>
       </c>
-      <c r="B16" s="364" t="s">
+      <c r="B16" s="361" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="364" t="s">
+      <c r="C16" s="361" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="365"/>
-      <c r="E16" s="365"/>
-      <c r="F16" s="366"/>
-      <c r="G16" s="367" t="s">
+      <c r="D16" s="362"/>
+      <c r="E16" s="362"/>
+      <c r="F16" s="363"/>
+      <c r="G16" s="364" t="s">
         <v>753</v>
       </c>
-      <c r="H16" s="368" t="s">
+      <c r="H16" s="365" t="s">
         <v>754</v>
       </c>
-      <c r="I16" s="369" t="s">
+      <c r="I16" s="366" t="s">
         <v>145</v>
       </c>
-      <c r="J16" s="370">
+      <c r="J16" s="367">
         <v>4</v>
       </c>
-      <c r="K16" s="368"/>
+      <c r="K16" s="365"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="307">
+      <c r="A17" s="304">
         <v>5</v>
       </c>
-      <c r="B17" s="308" t="s">
+      <c r="B17" s="305" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="308" t="s">
+      <c r="C17" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="309"/>
-      <c r="E17" s="309"/>
-      <c r="F17" s="310"/>
-      <c r="G17" s="311" t="s">
+      <c r="D17" s="306"/>
+      <c r="E17" s="306"/>
+      <c r="F17" s="307"/>
+      <c r="G17" s="308" t="s">
         <v>755</v>
       </c>
-      <c r="H17" s="312" t="s">
+      <c r="H17" s="309" t="s">
         <v>756</v>
       </c>
-      <c r="I17" s="313" t="s">
+      <c r="I17" s="310" t="s">
         <v>145</v>
       </c>
-      <c r="J17" s="314">
+      <c r="J17" s="311">
         <v>2</v>
       </c>
-      <c r="K17" s="312"/>
+      <c r="K17" s="309"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="355">
+      <c r="A18" s="352">
         <v>8</v>
       </c>
-      <c r="B18" s="356" t="s">
+      <c r="B18" s="353" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="356" t="s">
+      <c r="C18" s="353" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="357"/>
-      <c r="E18" s="357"/>
-      <c r="F18" s="358"/>
-      <c r="G18" s="359" t="s">
+      <c r="D18" s="354"/>
+      <c r="E18" s="354"/>
+      <c r="F18" s="355"/>
+      <c r="G18" s="356" t="s">
         <v>757</v>
       </c>
-      <c r="H18" s="360" t="s">
+      <c r="H18" s="357" t="s">
         <v>145</v>
       </c>
-      <c r="I18" s="361" t="s">
+      <c r="I18" s="358" t="s">
         <v>145</v>
       </c>
-      <c r="J18" s="362">
+      <c r="J18" s="359">
         <v>3</v>
       </c>
-      <c r="K18" s="360"/>
+      <c r="K18" s="357"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="347">
+      <c r="A19" s="344">
         <v>99</v>
       </c>
-      <c r="B19" s="348" t="s">
+      <c r="B19" s="345" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="348" t="s">
+      <c r="C19" s="345" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="349"/>
-      <c r="E19" s="349"/>
-      <c r="F19" s="350"/>
-      <c r="G19" s="351" t="s">
+      <c r="D19" s="346"/>
+      <c r="E19" s="346"/>
+      <c r="F19" s="347"/>
+      <c r="G19" s="348" t="s">
         <v>758</v>
       </c>
-      <c r="H19" s="352" t="s">
+      <c r="H19" s="349" t="s">
         <v>145</v>
       </c>
-      <c r="I19" s="353" t="s">
+      <c r="I19" s="350" t="s">
         <v>145</v>
       </c>
-      <c r="J19" s="354">
+      <c r="J19" s="351">
         <v>3</v>
       </c>
-      <c r="K19" s="352"/>
+      <c r="K19" s="349"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="355">
+      <c r="A20" s="352">
         <v>20</v>
       </c>
-      <c r="B20" s="356" t="s">
+      <c r="B20" s="353" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="356" t="s">
+      <c r="C20" s="353" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="357"/>
-      <c r="E20" s="357"/>
-      <c r="F20" s="358"/>
-      <c r="G20" s="359" t="s">
+      <c r="D20" s="354"/>
+      <c r="E20" s="354"/>
+      <c r="F20" s="355"/>
+      <c r="G20" s="356" t="s">
         <v>759</v>
       </c>
-      <c r="H20" s="360" t="s">
+      <c r="H20" s="357" t="s">
         <v>145</v>
       </c>
-      <c r="I20" s="361" t="s">
+      <c r="I20" s="358" t="s">
         <v>145</v>
       </c>
-      <c r="J20" s="362">
+      <c r="J20" s="359">
         <v>1</v>
       </c>
-      <c r="K20" s="360"/>
+      <c r="K20" s="357"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="363">
+      <c r="A21" s="360">
         <v>6</v>
       </c>
-      <c r="B21" s="364" t="s">
+      <c r="B21" s="361" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="364" t="s">
+      <c r="C21" s="361" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="365"/>
-      <c r="E21" s="365"/>
-      <c r="F21" s="366"/>
-      <c r="G21" s="367" t="s">
+      <c r="D21" s="362"/>
+      <c r="E21" s="362"/>
+      <c r="F21" s="363"/>
+      <c r="G21" s="364" t="s">
         <v>760</v>
       </c>
-      <c r="H21" s="368" t="s">
+      <c r="H21" s="365" t="s">
         <v>145</v>
       </c>
-      <c r="I21" s="369" t="s">
+      <c r="I21" s="366" t="s">
         <v>145</v>
       </c>
-      <c r="J21" s="370">
+      <c r="J21" s="367">
         <v>1</v>
       </c>
-      <c r="K21" s="368"/>
+      <c r="K21" s="365"/>
     </row>
     <row r="22" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="390">
+      <c r="A22" s="387">
         <v>7</v>
       </c>
-      <c r="B22" s="391" t="s">
+      <c r="B22" s="388" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="391" t="s">
+      <c r="C22" s="388" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="392"/>
-      <c r="E22" s="392"/>
-      <c r="F22" s="393"/>
-      <c r="G22" s="394" t="s">
+      <c r="D22" s="389"/>
+      <c r="E22" s="389"/>
+      <c r="F22" s="390"/>
+      <c r="G22" s="391" t="s">
         <v>761</v>
       </c>
-      <c r="H22" s="395" t="s">
+      <c r="H22" s="392" t="s">
         <v>145</v>
       </c>
-      <c r="I22" s="396" t="s">
+      <c r="I22" s="393" t="s">
         <v>145</v>
       </c>
-      <c r="J22" s="397">
+      <c r="J22" s="394">
         <v>1</v>
       </c>
-      <c r="K22" s="395"/>
+      <c r="K22" s="392"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000016000000}">
@@ -22939,13 +23463,13 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="9" max="9" width="28.1640625" style="253" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="250" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -22979,19 +23503,19 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="291">
+      <c r="A3" s="288">
         <v>77</v>
       </c>
-      <c r="B3" s="292">
+      <c r="B3" s="289">
         <v>1</v>
       </c>
-      <c r="C3" s="292" t="s">
+      <c r="C3" s="289" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="292" t="s">
+      <c r="D3" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="371" t="s">
+      <c r="E3" s="368" t="s">
         <v>762</v>
       </c>
       <c r="F3" s="232">
@@ -23006,46 +23530,46 @@
       <c r="I3" s="232"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="299">
+      <c r="A4" s="296">
         <v>33</v>
       </c>
-      <c r="B4" s="300">
+      <c r="B4" s="297">
         <v>2</v>
       </c>
-      <c r="C4" s="300" t="s">
+      <c r="C4" s="297" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="300" t="s">
+      <c r="D4" s="297" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="372" t="s">
+      <c r="E4" s="369" t="s">
         <v>763</v>
       </c>
-      <c r="F4" s="373">
+      <c r="F4" s="370">
         <v>53</v>
       </c>
-      <c r="G4" s="373">
+      <c r="G4" s="370">
         <v>27</v>
       </c>
-      <c r="H4" s="373">
+      <c r="H4" s="370">
         <v>18</v>
       </c>
-      <c r="I4" s="373"/>
+      <c r="I4" s="370"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="291">
+      <c r="A5" s="288">
         <v>44</v>
       </c>
-      <c r="B5" s="292">
+      <c r="B5" s="289">
         <v>3</v>
       </c>
-      <c r="C5" s="292" t="s">
+      <c r="C5" s="289" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="292" t="s">
+      <c r="D5" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="371" t="s">
+      <c r="E5" s="368" t="s">
         <v>764</v>
       </c>
       <c r="F5" s="232">
@@ -23060,455 +23584,455 @@
       <c r="I5" s="232"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="315">
+      <c r="A6" s="312">
         <v>11</v>
       </c>
-      <c r="B6" s="316">
+      <c r="B6" s="313">
         <v>4</v>
       </c>
-      <c r="C6" s="316" t="s">
+      <c r="C6" s="313" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="316" t="s">
+      <c r="D6" s="313" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="376" t="s">
+      <c r="E6" s="373" t="s">
         <v>765</v>
       </c>
-      <c r="F6" s="377">
+      <c r="F6" s="374">
         <v>53</v>
       </c>
-      <c r="G6" s="377">
+      <c r="G6" s="374">
         <v>16</v>
       </c>
-      <c r="H6" s="377">
+      <c r="H6" s="374">
         <v>12</v>
       </c>
-      <c r="I6" s="377"/>
+      <c r="I6" s="374"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="323">
+      <c r="A7" s="320">
         <v>3</v>
       </c>
-      <c r="B7" s="324">
+      <c r="B7" s="321">
         <v>5</v>
       </c>
-      <c r="C7" s="324" t="s">
+      <c r="C7" s="321" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="324" t="s">
+      <c r="D7" s="321" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="374" t="s">
+      <c r="E7" s="371" t="s">
         <v>766</v>
       </c>
-      <c r="F7" s="375">
+      <c r="F7" s="372">
         <v>53</v>
       </c>
-      <c r="G7" s="375">
+      <c r="G7" s="372">
         <v>14</v>
       </c>
-      <c r="H7" s="375">
+      <c r="H7" s="372">
         <v>10</v>
       </c>
-      <c r="I7" s="375"/>
+      <c r="I7" s="372"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="307">
+      <c r="A8" s="304">
         <v>16</v>
       </c>
-      <c r="B8" s="308">
+      <c r="B8" s="305">
         <v>6</v>
       </c>
-      <c r="C8" s="308" t="s">
+      <c r="C8" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="308" t="s">
+      <c r="D8" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="384" t="s">
+      <c r="E8" s="381" t="s">
         <v>767</v>
       </c>
-      <c r="F8" s="385">
+      <c r="F8" s="382">
         <v>53</v>
       </c>
-      <c r="G8" s="385">
+      <c r="G8" s="382">
         <v>22</v>
       </c>
-      <c r="H8" s="385">
+      <c r="H8" s="382">
         <v>8</v>
       </c>
-      <c r="I8" s="385"/>
+      <c r="I8" s="382"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="323">
+      <c r="A9" s="320">
         <v>31</v>
       </c>
-      <c r="B9" s="324">
+      <c r="B9" s="321">
         <v>7</v>
       </c>
-      <c r="C9" s="324" t="s">
+      <c r="C9" s="321" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="324" t="s">
+      <c r="D9" s="321" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="374" t="s">
+      <c r="E9" s="371" t="s">
         <v>768</v>
       </c>
-      <c r="F9" s="375">
+      <c r="F9" s="372">
         <v>53</v>
       </c>
-      <c r="G9" s="375">
+      <c r="G9" s="372">
         <v>7</v>
       </c>
-      <c r="H9" s="375">
+      <c r="H9" s="372">
         <v>6</v>
       </c>
-      <c r="I9" s="375"/>
+      <c r="I9" s="372"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="339">
+      <c r="A10" s="336">
         <v>23</v>
       </c>
-      <c r="B10" s="340">
+      <c r="B10" s="337">
         <v>8</v>
       </c>
-      <c r="C10" s="340" t="s">
+      <c r="C10" s="337" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="340" t="s">
+      <c r="D10" s="337" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="380" t="s">
+      <c r="E10" s="377" t="s">
         <v>769</v>
       </c>
-      <c r="F10" s="381">
+      <c r="F10" s="378">
         <v>53</v>
       </c>
-      <c r="G10" s="381">
+      <c r="G10" s="378">
         <v>16</v>
       </c>
-      <c r="H10" s="381">
+      <c r="H10" s="378">
         <v>4</v>
       </c>
-      <c r="I10" s="381"/>
+      <c r="I10" s="378"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="339">
+      <c r="A11" s="336">
         <v>10</v>
       </c>
-      <c r="B11" s="340">
+      <c r="B11" s="337">
         <v>9</v>
       </c>
-      <c r="C11" s="340" t="s">
+      <c r="C11" s="337" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="340" t="s">
+      <c r="D11" s="337" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="380" t="s">
+      <c r="E11" s="377" t="s">
         <v>770</v>
       </c>
-      <c r="F11" s="381">
+      <c r="F11" s="378">
         <v>53</v>
       </c>
-      <c r="G11" s="381">
+      <c r="G11" s="378">
         <v>3</v>
       </c>
-      <c r="H11" s="381">
+      <c r="H11" s="378">
         <v>2</v>
       </c>
-      <c r="I11" s="381"/>
+      <c r="I11" s="378"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="299">
+      <c r="A12" s="296">
         <v>23</v>
       </c>
-      <c r="B12" s="300">
+      <c r="B12" s="297">
         <v>10</v>
       </c>
-      <c r="C12" s="300" t="s">
+      <c r="C12" s="297" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="300" t="s">
+      <c r="D12" s="297" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="372" t="s">
+      <c r="E12" s="369" t="s">
         <v>771</v>
       </c>
-      <c r="F12" s="373">
+      <c r="F12" s="370">
         <v>53</v>
       </c>
-      <c r="G12" s="373">
+      <c r="G12" s="370">
         <v>2</v>
       </c>
-      <c r="H12" s="373">
+      <c r="H12" s="370">
         <v>1</v>
       </c>
-      <c r="I12" s="373"/>
+      <c r="I12" s="370"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="347">
+      <c r="A13" s="344">
         <v>99</v>
       </c>
-      <c r="B13" s="348">
+      <c r="B13" s="345">
         <v>11</v>
       </c>
-      <c r="C13" s="348" t="s">
+      <c r="C13" s="345" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="348" t="s">
+      <c r="D13" s="345" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="382" t="s">
+      <c r="E13" s="379" t="s">
         <v>772</v>
       </c>
-      <c r="F13" s="383">
+      <c r="F13" s="380">
         <v>52</v>
       </c>
-      <c r="G13" s="383">
+      <c r="G13" s="380">
         <v>14</v>
       </c>
-      <c r="H13" s="383">
-        <v>0</v>
-      </c>
-      <c r="I13" s="383"/>
+      <c r="H13" s="380">
+        <v>0</v>
+      </c>
+      <c r="I13" s="380"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="355">
+      <c r="A14" s="352">
         <v>20</v>
       </c>
-      <c r="B14" s="356">
+      <c r="B14" s="353">
         <v>12</v>
       </c>
-      <c r="C14" s="356" t="s">
+      <c r="C14" s="353" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="356" t="s">
+      <c r="D14" s="353" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="388" t="s">
+      <c r="E14" s="385" t="s">
         <v>773</v>
       </c>
-      <c r="F14" s="389">
+      <c r="F14" s="386">
         <v>52</v>
       </c>
-      <c r="G14" s="389">
+      <c r="G14" s="386">
         <v>14</v>
       </c>
-      <c r="H14" s="389">
-        <v>0</v>
-      </c>
-      <c r="I14" s="389"/>
+      <c r="H14" s="386">
+        <v>0</v>
+      </c>
+      <c r="I14" s="386"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="307">
+      <c r="A15" s="304">
         <v>5</v>
       </c>
-      <c r="B15" s="308">
+      <c r="B15" s="305">
         <v>13</v>
       </c>
-      <c r="C15" s="308" t="s">
+      <c r="C15" s="305" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="308" t="s">
+      <c r="D15" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="384" t="s">
+      <c r="E15" s="381" t="s">
         <v>774</v>
       </c>
-      <c r="F15" s="385">
+      <c r="F15" s="382">
         <v>52</v>
       </c>
-      <c r="G15" s="385">
+      <c r="G15" s="382">
         <v>5</v>
       </c>
-      <c r="H15" s="385">
-        <v>0</v>
-      </c>
-      <c r="I15" s="385"/>
+      <c r="H15" s="382">
+        <v>0</v>
+      </c>
+      <c r="I15" s="382"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="347">
+      <c r="A16" s="344">
         <v>7</v>
       </c>
-      <c r="B16" s="348">
+      <c r="B16" s="345">
         <v>14</v>
       </c>
-      <c r="C16" s="348" t="s">
+      <c r="C16" s="345" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="348" t="s">
+      <c r="D16" s="345" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="382" t="s">
+      <c r="E16" s="379" t="s">
         <v>775</v>
       </c>
-      <c r="F16" s="383">
+      <c r="F16" s="380">
         <v>52</v>
       </c>
-      <c r="G16" s="383">
+      <c r="G16" s="380">
         <v>11</v>
       </c>
-      <c r="H16" s="383">
-        <v>0</v>
-      </c>
-      <c r="I16" s="383"/>
+      <c r="H16" s="380">
+        <v>0</v>
+      </c>
+      <c r="I16" s="380"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="331">
+      <c r="A17" s="328">
         <v>4</v>
       </c>
-      <c r="B17" s="332">
+      <c r="B17" s="329">
         <v>15</v>
       </c>
-      <c r="C17" s="332" t="s">
+      <c r="C17" s="329" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="332" t="s">
+      <c r="D17" s="329" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="378" t="s">
+      <c r="E17" s="375" t="s">
         <v>776</v>
       </c>
-      <c r="F17" s="379">
+      <c r="F17" s="376">
         <v>52</v>
       </c>
-      <c r="G17" s="379">
+      <c r="G17" s="376">
         <v>-6</v>
       </c>
-      <c r="H17" s="379">
-        <v>0</v>
-      </c>
-      <c r="I17" s="379"/>
+      <c r="H17" s="376">
+        <v>0</v>
+      </c>
+      <c r="I17" s="376"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="363">
+      <c r="A18" s="360">
         <v>6</v>
       </c>
-      <c r="B18" s="364">
+      <c r="B18" s="361">
         <v>16</v>
       </c>
-      <c r="C18" s="364" t="s">
+      <c r="C18" s="361" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="364" t="s">
+      <c r="D18" s="361" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="386" t="s">
+      <c r="E18" s="383" t="s">
         <v>777</v>
       </c>
-      <c r="F18" s="387">
+      <c r="F18" s="384">
         <v>52</v>
       </c>
-      <c r="G18" s="387">
+      <c r="G18" s="384">
         <v>10</v>
       </c>
-      <c r="H18" s="387">
-        <v>0</v>
-      </c>
-      <c r="I18" s="387"/>
+      <c r="H18" s="384">
+        <v>0</v>
+      </c>
+      <c r="I18" s="384"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="355">
+      <c r="A19" s="352">
         <v>8</v>
       </c>
-      <c r="B19" s="356">
+      <c r="B19" s="353">
         <v>17</v>
       </c>
-      <c r="C19" s="356" t="s">
+      <c r="C19" s="353" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="356" t="s">
+      <c r="D19" s="353" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="388" t="s">
+      <c r="E19" s="385" t="s">
         <v>778</v>
       </c>
-      <c r="F19" s="389">
+      <c r="F19" s="386">
         <v>52</v>
       </c>
-      <c r="G19" s="389">
-        <v>0</v>
-      </c>
-      <c r="H19" s="389">
-        <v>0</v>
-      </c>
-      <c r="I19" s="389"/>
+      <c r="G19" s="386">
+        <v>0</v>
+      </c>
+      <c r="H19" s="386">
+        <v>0</v>
+      </c>
+      <c r="I19" s="386"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="363">
+      <c r="A20" s="360">
         <v>63</v>
       </c>
-      <c r="B20" s="364">
+      <c r="B20" s="361">
         <v>18</v>
       </c>
-      <c r="C20" s="364" t="s">
+      <c r="C20" s="361" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="364" t="s">
+      <c r="D20" s="361" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="386" t="s">
+      <c r="E20" s="383" t="s">
         <v>779</v>
       </c>
-      <c r="F20" s="387">
+      <c r="F20" s="384">
         <v>52</v>
       </c>
-      <c r="G20" s="387">
+      <c r="G20" s="384">
         <v>-4</v>
       </c>
-      <c r="H20" s="387">
-        <v>0</v>
-      </c>
-      <c r="I20" s="387"/>
+      <c r="H20" s="384">
+        <v>0</v>
+      </c>
+      <c r="I20" s="384"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="315">
+      <c r="A21" s="312">
         <v>18</v>
       </c>
-      <c r="B21" s="316" t="s">
+      <c r="B21" s="313" t="s">
         <v>181</v>
       </c>
-      <c r="C21" s="316" t="s">
+      <c r="C21" s="313" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="316" t="s">
+      <c r="D21" s="313" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="376"/>
-      <c r="F21" s="377"/>
-      <c r="G21" s="377">
+      <c r="E21" s="373"/>
+      <c r="F21" s="374"/>
+      <c r="G21" s="374">
         <v>-15</v>
       </c>
-      <c r="H21" s="377">
-        <v>0</v>
-      </c>
-      <c r="I21" s="377"/>
+      <c r="H21" s="374">
+        <v>0</v>
+      </c>
+      <c r="I21" s="374"/>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="398">
+      <c r="A22" s="395">
         <v>55</v>
       </c>
-      <c r="B22" s="399" t="s">
+      <c r="B22" s="396" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="399" t="s">
+      <c r="C22" s="396" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="399" t="s">
+      <c r="D22" s="396" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="400"/>
-      <c r="F22" s="401"/>
-      <c r="G22" s="401">
+      <c r="E22" s="397"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="398">
         <v>-10</v>
       </c>
-      <c r="H22" s="401">
-        <v>0</v>
-      </c>
-      <c r="I22" s="401"/>
+      <c r="H22" s="398">
+        <v>0</v>
+      </c>
+      <c r="I22" s="398"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000017000000}">
@@ -23516,6 +24040,1035 @@
       <sortCondition ref="B2:B22"/>
     </sortState>
   </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="6" width="13" style="250" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="238" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="239" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="286" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="286" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="287" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="238" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" s="239" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="287" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="238" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="239" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="288">
+        <v>77</v>
+      </c>
+      <c r="B3" s="289" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="289" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="292" t="s">
+        <v>786</v>
+      </c>
+      <c r="H3" s="293" t="s">
+        <v>787</v>
+      </c>
+      <c r="I3" s="294" t="s">
+        <v>788</v>
+      </c>
+      <c r="J3" s="295">
+        <v>15</v>
+      </c>
+      <c r="K3" s="293"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="288">
+        <v>44</v>
+      </c>
+      <c r="B4" s="289" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="289" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="292" t="s">
+        <v>780</v>
+      </c>
+      <c r="H4" s="293" t="s">
+        <v>781</v>
+      </c>
+      <c r="I4" s="294" t="s">
+        <v>782</v>
+      </c>
+      <c r="J4" s="295">
+        <v>12</v>
+      </c>
+      <c r="K4" s="293"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="296">
+        <v>33</v>
+      </c>
+      <c r="B5" s="297" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="297" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="300" t="s">
+        <v>783</v>
+      </c>
+      <c r="H5" s="301" t="s">
+        <v>784</v>
+      </c>
+      <c r="I5" s="302" t="s">
+        <v>785</v>
+      </c>
+      <c r="J5" s="303">
+        <v>13</v>
+      </c>
+      <c r="K5" s="301"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="304">
+        <v>16</v>
+      </c>
+      <c r="B6" s="305" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="305" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="306"/>
+      <c r="E6" s="306"/>
+      <c r="F6" s="307"/>
+      <c r="G6" s="308" t="s">
+        <v>808</v>
+      </c>
+      <c r="H6" s="309" t="s">
+        <v>809</v>
+      </c>
+      <c r="I6" s="310" t="s">
+        <v>810</v>
+      </c>
+      <c r="J6" s="311">
+        <v>12</v>
+      </c>
+      <c r="K6" s="309"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="296">
+        <v>23</v>
+      </c>
+      <c r="B7" s="297" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="297" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="300" t="s">
+        <v>805</v>
+      </c>
+      <c r="H7" s="301" t="s">
+        <v>806</v>
+      </c>
+      <c r="I7" s="302" t="s">
+        <v>807</v>
+      </c>
+      <c r="J7" s="303">
+        <v>9</v>
+      </c>
+      <c r="K7" s="301"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="320">
+        <v>3</v>
+      </c>
+      <c r="B8" s="321" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="321" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="322"/>
+      <c r="E8" s="322"/>
+      <c r="F8" s="323"/>
+      <c r="G8" s="324" t="s">
+        <v>792</v>
+      </c>
+      <c r="H8" s="325" t="s">
+        <v>793</v>
+      </c>
+      <c r="I8" s="326" t="s">
+        <v>794</v>
+      </c>
+      <c r="J8" s="327">
+        <v>10</v>
+      </c>
+      <c r="K8" s="325"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="320">
+        <v>31</v>
+      </c>
+      <c r="B9" s="321" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="321" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="322"/>
+      <c r="E9" s="322"/>
+      <c r="F9" s="323"/>
+      <c r="G9" s="324" t="s">
+        <v>797</v>
+      </c>
+      <c r="H9" s="325" t="s">
+        <v>798</v>
+      </c>
+      <c r="I9" s="326" t="s">
+        <v>799</v>
+      </c>
+      <c r="J9" s="327">
+        <v>7</v>
+      </c>
+      <c r="K9" s="325"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="328">
+        <v>4</v>
+      </c>
+      <c r="B10" s="329" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="329" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="330"/>
+      <c r="E10" s="330"/>
+      <c r="F10" s="331"/>
+      <c r="G10" s="332" t="s">
+        <v>800</v>
+      </c>
+      <c r="H10" s="333" t="s">
+        <v>801</v>
+      </c>
+      <c r="I10" s="334" t="s">
+        <v>802</v>
+      </c>
+      <c r="J10" s="335">
+        <v>8</v>
+      </c>
+      <c r="K10" s="333"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="312">
+        <v>27</v>
+      </c>
+      <c r="B11" s="313" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="313" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="314"/>
+      <c r="E11" s="314"/>
+      <c r="F11" s="315"/>
+      <c r="G11" s="316" t="s">
+        <v>789</v>
+      </c>
+      <c r="H11" s="317" t="s">
+        <v>790</v>
+      </c>
+      <c r="I11" s="318" t="s">
+        <v>791</v>
+      </c>
+      <c r="J11" s="319">
+        <v>7</v>
+      </c>
+      <c r="K11" s="317"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="328">
+        <v>55</v>
+      </c>
+      <c r="B12" s="329" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="329" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="330"/>
+      <c r="E12" s="330"/>
+      <c r="F12" s="331"/>
+      <c r="G12" s="332" t="s">
+        <v>795</v>
+      </c>
+      <c r="H12" s="333" t="s">
+        <v>796</v>
+      </c>
+      <c r="I12" s="334" t="s">
+        <v>409</v>
+      </c>
+      <c r="J12" s="335">
+        <v>4</v>
+      </c>
+      <c r="K12" s="333"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="304">
+        <v>5</v>
+      </c>
+      <c r="B13" s="305" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="305" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="306"/>
+      <c r="E13" s="306"/>
+      <c r="F13" s="307"/>
+      <c r="G13" s="308" t="s">
+        <v>815</v>
+      </c>
+      <c r="H13" s="309" t="s">
+        <v>388</v>
+      </c>
+      <c r="I13" s="310" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="311">
+        <v>2</v>
+      </c>
+      <c r="K13" s="309"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="336">
+        <v>10</v>
+      </c>
+      <c r="B14" s="337" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="337" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="338"/>
+      <c r="E14" s="338"/>
+      <c r="F14" s="339"/>
+      <c r="G14" s="340" t="s">
+        <v>803</v>
+      </c>
+      <c r="H14" s="341" t="s">
+        <v>804</v>
+      </c>
+      <c r="I14" s="342" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" s="343">
+        <v>4</v>
+      </c>
+      <c r="K14" s="341"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="336">
+        <v>23</v>
+      </c>
+      <c r="B15" s="337" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="337" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="338"/>
+      <c r="E15" s="338"/>
+      <c r="F15" s="339"/>
+      <c r="G15" s="340" t="s">
+        <v>811</v>
+      </c>
+      <c r="H15" s="341" t="s">
+        <v>812</v>
+      </c>
+      <c r="I15" s="342" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="343">
+        <v>2</v>
+      </c>
+      <c r="K15" s="341"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="344">
+        <v>99</v>
+      </c>
+      <c r="B16" s="345" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="345" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="346"/>
+      <c r="E16" s="346"/>
+      <c r="F16" s="347"/>
+      <c r="G16" s="348" t="s">
+        <v>817</v>
+      </c>
+      <c r="H16" s="349" t="s">
+        <v>818</v>
+      </c>
+      <c r="I16" s="350" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" s="351">
+        <v>3</v>
+      </c>
+      <c r="K16" s="349"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="352">
+        <v>20</v>
+      </c>
+      <c r="B17" s="353" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="353" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="354"/>
+      <c r="E17" s="354"/>
+      <c r="F17" s="355"/>
+      <c r="G17" s="356" t="s">
+        <v>819</v>
+      </c>
+      <c r="H17" s="357" t="s">
+        <v>820</v>
+      </c>
+      <c r="I17" s="358" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" s="359">
+        <v>4</v>
+      </c>
+      <c r="K17" s="357"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="352">
+        <v>8</v>
+      </c>
+      <c r="B18" s="353" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="353" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="354"/>
+      <c r="E18" s="354"/>
+      <c r="F18" s="355"/>
+      <c r="G18" s="356" t="s">
+        <v>816</v>
+      </c>
+      <c r="H18" s="357" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="358" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" s="359">
+        <v>1</v>
+      </c>
+      <c r="K18" s="357"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="360">
+        <v>63</v>
+      </c>
+      <c r="B19" s="361" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="361" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="362"/>
+      <c r="E19" s="362"/>
+      <c r="F19" s="363"/>
+      <c r="G19" s="364" t="s">
+        <v>814</v>
+      </c>
+      <c r="H19" s="365" t="s">
+        <v>145</v>
+      </c>
+      <c r="I19" s="366" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="367">
+        <v>3</v>
+      </c>
+      <c r="K19" s="365"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="360">
+        <v>6</v>
+      </c>
+      <c r="B20" s="361" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="361" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="362"/>
+      <c r="E20" s="362"/>
+      <c r="F20" s="363"/>
+      <c r="G20" s="364" t="s">
+        <v>821</v>
+      </c>
+      <c r="H20" s="365" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="366" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" s="367">
+        <v>1</v>
+      </c>
+      <c r="K20" s="365"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="344">
+        <v>7</v>
+      </c>
+      <c r="B21" s="345" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="345" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="346"/>
+      <c r="E21" s="346"/>
+      <c r="F21" s="347"/>
+      <c r="G21" s="348" t="s">
+        <v>822</v>
+      </c>
+      <c r="H21" s="349" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="350" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="351">
+        <v>1</v>
+      </c>
+      <c r="K21" s="349"/>
+    </row>
+    <row r="22" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="403">
+        <v>18</v>
+      </c>
+      <c r="B22" s="404" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="404" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="405"/>
+      <c r="E22" s="405"/>
+      <c r="F22" s="406"/>
+      <c r="G22" s="407" t="s">
+        <v>813</v>
+      </c>
+      <c r="H22" s="408" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="409" t="s">
+        <v>145</v>
+      </c>
+      <c r="J22" s="410">
+        <v>1</v>
+      </c>
+      <c r="K22" s="408"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:K22" xr:uid="{BC37E651-4148-9943-A77B-F7803F400124}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
+      <sortCondition ref="I2:I22"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="21.5" style="250" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="238" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="239" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="239" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="239" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="239" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="239" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="239" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="239" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="239" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="288">
+        <v>77</v>
+      </c>
+      <c r="B3" s="289">
+        <v>1</v>
+      </c>
+      <c r="C3" s="289" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="289" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="368"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
+      <c r="I3" s="232"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="296">
+        <v>33</v>
+      </c>
+      <c r="B4" s="297">
+        <v>2</v>
+      </c>
+      <c r="C4" s="297" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="297" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="369"/>
+      <c r="F4" s="370"/>
+      <c r="G4" s="370"/>
+      <c r="H4" s="370"/>
+      <c r="I4" s="370"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="288">
+        <v>44</v>
+      </c>
+      <c r="B5" s="289">
+        <v>3</v>
+      </c>
+      <c r="C5" s="289" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="289" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="368"/>
+      <c r="F5" s="232"/>
+      <c r="G5" s="232"/>
+      <c r="H5" s="232"/>
+      <c r="I5" s="232"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="312">
+        <v>11</v>
+      </c>
+      <c r="B6" s="313">
+        <v>4</v>
+      </c>
+      <c r="C6" s="313" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="313" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="373"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="374"/>
+      <c r="I6" s="374"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="320">
+        <v>3</v>
+      </c>
+      <c r="B7" s="321">
+        <v>5</v>
+      </c>
+      <c r="C7" s="321" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="321" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="371"/>
+      <c r="F7" s="372"/>
+      <c r="G7" s="372"/>
+      <c r="H7" s="372"/>
+      <c r="I7" s="372"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="304">
+        <v>16</v>
+      </c>
+      <c r="B8" s="305">
+        <v>6</v>
+      </c>
+      <c r="C8" s="305" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="305" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="381"/>
+      <c r="F8" s="382"/>
+      <c r="G8" s="382"/>
+      <c r="H8" s="382"/>
+      <c r="I8" s="382"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="320">
+        <v>31</v>
+      </c>
+      <c r="B9" s="321">
+        <v>7</v>
+      </c>
+      <c r="C9" s="321" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="321" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="371"/>
+      <c r="F9" s="372"/>
+      <c r="G9" s="372"/>
+      <c r="H9" s="372"/>
+      <c r="I9" s="372"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="336">
+        <v>23</v>
+      </c>
+      <c r="B10" s="337">
+        <v>8</v>
+      </c>
+      <c r="C10" s="337" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="337" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="377"/>
+      <c r="F10" s="378"/>
+      <c r="G10" s="378"/>
+      <c r="H10" s="378"/>
+      <c r="I10" s="378"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="336">
+        <v>10</v>
+      </c>
+      <c r="B11" s="337">
+        <v>9</v>
+      </c>
+      <c r="C11" s="337" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="337" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="377"/>
+      <c r="F11" s="378"/>
+      <c r="G11" s="378"/>
+      <c r="H11" s="378"/>
+      <c r="I11" s="378"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="296">
+        <v>23</v>
+      </c>
+      <c r="B12" s="297">
+        <v>10</v>
+      </c>
+      <c r="C12" s="297" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="297" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="369"/>
+      <c r="F12" s="370"/>
+      <c r="G12" s="370"/>
+      <c r="H12" s="370"/>
+      <c r="I12" s="370"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="344">
+        <v>99</v>
+      </c>
+      <c r="B13" s="345">
+        <v>11</v>
+      </c>
+      <c r="C13" s="345" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="345" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="379"/>
+      <c r="F13" s="380"/>
+      <c r="G13" s="380"/>
+      <c r="H13" s="380"/>
+      <c r="I13" s="380"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="352">
+        <v>20</v>
+      </c>
+      <c r="B14" s="353">
+        <v>12</v>
+      </c>
+      <c r="C14" s="353" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="353" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="385"/>
+      <c r="F14" s="386"/>
+      <c r="G14" s="386"/>
+      <c r="H14" s="386"/>
+      <c r="I14" s="386"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="304">
+        <v>5</v>
+      </c>
+      <c r="B15" s="305">
+        <v>13</v>
+      </c>
+      <c r="C15" s="305" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="305" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="381"/>
+      <c r="F15" s="382"/>
+      <c r="G15" s="382"/>
+      <c r="H15" s="382"/>
+      <c r="I15" s="382"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="344">
+        <v>7</v>
+      </c>
+      <c r="B16" s="345">
+        <v>14</v>
+      </c>
+      <c r="C16" s="345" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="345" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="379"/>
+      <c r="F16" s="380"/>
+      <c r="G16" s="380"/>
+      <c r="H16" s="380"/>
+      <c r="I16" s="380"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="328">
+        <v>4</v>
+      </c>
+      <c r="B17" s="329">
+        <v>15</v>
+      </c>
+      <c r="C17" s="329" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="329" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="375"/>
+      <c r="F17" s="376"/>
+      <c r="G17" s="376"/>
+      <c r="H17" s="376"/>
+      <c r="I17" s="376"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="360">
+        <v>6</v>
+      </c>
+      <c r="B18" s="361">
+        <v>16</v>
+      </c>
+      <c r="C18" s="361" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="361" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="383"/>
+      <c r="F18" s="384"/>
+      <c r="G18" s="384"/>
+      <c r="H18" s="384"/>
+      <c r="I18" s="384"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="352">
+        <v>8</v>
+      </c>
+      <c r="B19" s="353">
+        <v>17</v>
+      </c>
+      <c r="C19" s="353" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="353" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="385"/>
+      <c r="F19" s="386"/>
+      <c r="G19" s="386"/>
+      <c r="H19" s="386"/>
+      <c r="I19" s="386"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="360">
+        <v>63</v>
+      </c>
+      <c r="B20" s="361">
+        <v>18</v>
+      </c>
+      <c r="C20" s="361" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="361" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="383"/>
+      <c r="F20" s="384"/>
+      <c r="G20" s="384"/>
+      <c r="H20" s="384"/>
+      <c r="I20" s="384"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="312">
+        <v>18</v>
+      </c>
+      <c r="B21" s="313" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="313" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="313" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="373"/>
+      <c r="F21" s="374"/>
+      <c r="G21" s="374"/>
+      <c r="H21" s="374"/>
+      <c r="I21" s="374"/>
+    </row>
+    <row r="22" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="395">
+        <v>55</v>
+      </c>
+      <c r="B22" s="396" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="396" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="396" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="397"/>
+      <c r="F22" s="398"/>
+      <c r="G22" s="398"/>
+      <c r="H22" s="398"/>
+      <c r="I22" s="398"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -23532,107 +25085,107 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="253" customWidth="1"/>
-    <col min="4" max="10" width="13" style="253" hidden="1" customWidth="1"/>
-    <col min="11" max="15" width="13" style="253" customWidth="1"/>
-    <col min="16" max="16" width="13" style="253" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="250" customWidth="1"/>
+    <col min="4" max="10" width="13" style="250" hidden="1" customWidth="1"/>
+    <col min="11" max="15" width="13" style="250" customWidth="1"/>
+    <col min="16" max="16" width="13" style="250" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="402" t="s">
+      <c r="D2" s="399" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="402" t="s">
+      <c r="E2" s="399" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="399" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="402" t="s">
+      <c r="I2" s="399" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="399" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="399" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="402" t="s">
+      <c r="L2" s="399" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="402" t="s">
+      <c r="M2" s="399" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="402" t="s">
+      <c r="N2" s="399" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="402" t="s">
+      <c r="O2" s="399" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="402" t="s">
+      <c r="P2" s="399" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="402" t="s">
+      <c r="Q2" s="399" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="402" t="s">
+      <c r="R2" s="399" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="284" t="s">
+      <c r="B3" s="281" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="285">
+      <c r="C3" s="282">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D3" s="285">
+      <c r="D3" s="282">
         <v>0.40000000000000041</v>
       </c>
-      <c r="E3" s="285">
+      <c r="E3" s="282">
         <v>0.5</v>
       </c>
-      <c r="F3" s="285">
+      <c r="F3" s="282">
         <v>0.6</v>
       </c>
-      <c r="G3" s="285">
+      <c r="G3" s="282">
         <v>0.7</v>
       </c>
-      <c r="H3" s="285">
-        <v>0</v>
-      </c>
-      <c r="I3" s="285">
+      <c r="H3" s="282">
+        <v>0</v>
+      </c>
+      <c r="I3" s="282">
         <v>0.1</v>
       </c>
-      <c r="J3" s="285">
+      <c r="J3" s="282">
         <v>0.1</v>
       </c>
-      <c r="K3" s="285">
-        <v>0</v>
-      </c>
-      <c r="L3" s="285"/>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
-      <c r="O3" s="285"/>
-      <c r="P3" s="285"/>
-      <c r="Q3" s="286">
+      <c r="K3" s="282">
+        <v>0</v>
+      </c>
+      <c r="L3" s="282"/>
+      <c r="M3" s="282"/>
+      <c r="N3" s="282"/>
+      <c r="O3" s="282"/>
+      <c r="P3" s="282"/>
+      <c r="Q3" s="283">
         <f t="shared" ref="Q3:Q22" si="0">C3+SUM(D3:M3)</f>
         <v>10.6</v>
       </c>
-      <c r="R3" s="287">
+      <c r="R3" s="284">
         <f>+VLOOKUP($B3,F!$C$4:$Q$23,15,)/Q3</f>
         <v>12.735849056603774</v>
       </c>
@@ -23641,39 +25194,39 @@
       <c r="B4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="268">
+      <c r="C4" s="265">
         <v>12</v>
       </c>
-      <c r="D4" s="268">
+      <c r="D4" s="265">
         <v>0.4</v>
       </c>
-      <c r="E4" s="268">
+      <c r="E4" s="265">
         <v>0.3</v>
       </c>
-      <c r="F4" s="268">
+      <c r="F4" s="265">
         <v>0.1</v>
       </c>
-      <c r="G4" s="268">
+      <c r="G4" s="265">
         <v>0.2</v>
       </c>
-      <c r="H4" s="268">
-        <v>0</v>
-      </c>
-      <c r="I4" s="268">
-        <v>0</v>
-      </c>
-      <c r="J4" s="268">
-        <v>0</v>
-      </c>
-      <c r="K4" s="268">
-        <v>0</v>
-      </c>
-      <c r="L4" s="268"/>
-      <c r="M4" s="268"/>
-      <c r="N4" s="268"/>
-      <c r="O4" s="268"/>
-      <c r="P4" s="268"/>
-      <c r="Q4" s="274">
+      <c r="H4" s="265">
+        <v>0</v>
+      </c>
+      <c r="I4" s="265">
+        <v>0</v>
+      </c>
+      <c r="J4" s="265">
+        <v>0</v>
+      </c>
+      <c r="K4" s="265">
+        <v>0</v>
+      </c>
+      <c r="L4" s="265"/>
+      <c r="M4" s="265"/>
+      <c r="N4" s="265"/>
+      <c r="O4" s="265"/>
+      <c r="P4" s="265"/>
+      <c r="Q4" s="271">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -23718,7 +25271,7 @@
       <c r="N5" s="110"/>
       <c r="O5" s="110"/>
       <c r="P5" s="110"/>
-      <c r="Q5" s="276">
+      <c r="Q5" s="273">
         <f t="shared" si="0"/>
         <v>10.700000000000001</v>
       </c>
@@ -23763,7 +25316,7 @@
       <c r="N6" s="117"/>
       <c r="O6" s="117"/>
       <c r="P6" s="117"/>
-      <c r="Q6" s="271">
+      <c r="Q6" s="268">
         <f t="shared" si="0"/>
         <v>31.4</v>
       </c>
@@ -23808,7 +25361,7 @@
       <c r="N7" s="102"/>
       <c r="O7" s="102"/>
       <c r="P7" s="102"/>
-      <c r="Q7" s="272">
+      <c r="Q7" s="269">
         <f t="shared" si="0"/>
         <v>26.1</v>
       </c>
@@ -23853,7 +25406,7 @@
       <c r="N8" s="108"/>
       <c r="O8" s="108"/>
       <c r="P8" s="108"/>
-      <c r="Q8" s="275">
+      <c r="Q8" s="272">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -23898,7 +25451,7 @@
       <c r="N9" s="104"/>
       <c r="O9" s="104"/>
       <c r="P9" s="104"/>
-      <c r="Q9" s="277">
+      <c r="Q9" s="274">
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
@@ -23943,7 +25496,7 @@
       <c r="N10" s="118"/>
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
-      <c r="Q10" s="280">
+      <c r="Q10" s="277">
         <f t="shared" si="0"/>
         <v>6.6999999999999993</v>
       </c>
@@ -23988,7 +25541,7 @@
       <c r="N11" s="108"/>
       <c r="O11" s="108"/>
       <c r="P11" s="108"/>
-      <c r="Q11" s="275">
+      <c r="Q11" s="272">
         <f t="shared" si="0"/>
         <v>12.200000000000001</v>
       </c>
@@ -24033,7 +25586,7 @@
       <c r="N12" s="114"/>
       <c r="O12" s="114"/>
       <c r="P12" s="114"/>
-      <c r="Q12" s="279">
+      <c r="Q12" s="276">
         <f t="shared" si="0"/>
         <v>5.7000000000000011</v>
       </c>
@@ -24078,7 +25631,7 @@
       <c r="N13" s="117"/>
       <c r="O13" s="117"/>
       <c r="P13" s="117"/>
-      <c r="Q13" s="271">
+      <c r="Q13" s="268">
         <f t="shared" si="0"/>
         <v>29.400000000000002</v>
       </c>
@@ -24123,7 +25676,7 @@
       <c r="N14" s="112"/>
       <c r="O14" s="112"/>
       <c r="P14" s="112"/>
-      <c r="Q14" s="278">
+      <c r="Q14" s="275">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
@@ -24168,7 +25721,7 @@
       <c r="N15" s="112"/>
       <c r="O15" s="112"/>
       <c r="P15" s="112"/>
-      <c r="Q15" s="278">
+      <c r="Q15" s="275">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
@@ -24213,7 +25766,7 @@
       <c r="N16" s="102"/>
       <c r="O16" s="102"/>
       <c r="P16" s="102"/>
-      <c r="Q16" s="272">
+      <c r="Q16" s="269">
         <f t="shared" si="0"/>
         <v>20.6</v>
       </c>
@@ -24226,39 +25779,39 @@
       <c r="B17" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="268">
+      <c r="C17" s="265">
         <v>15.5</v>
       </c>
-      <c r="D17" s="268">
-        <v>0</v>
-      </c>
-      <c r="E17" s="268">
-        <v>0</v>
-      </c>
-      <c r="F17" s="268">
-        <v>0</v>
-      </c>
-      <c r="G17" s="268">
+      <c r="D17" s="265">
+        <v>0</v>
+      </c>
+      <c r="E17" s="265">
+        <v>0</v>
+      </c>
+      <c r="F17" s="265">
+        <v>0</v>
+      </c>
+      <c r="G17" s="265">
         <v>-0.1</v>
       </c>
-      <c r="H17" s="268">
+      <c r="H17" s="265">
         <v>-0.1</v>
       </c>
-      <c r="I17" s="268">
-        <v>0</v>
-      </c>
-      <c r="J17" s="268">
-        <v>0</v>
-      </c>
-      <c r="K17" s="268">
-        <v>0</v>
-      </c>
-      <c r="L17" s="268"/>
-      <c r="M17" s="268"/>
-      <c r="N17" s="268"/>
-      <c r="O17" s="268"/>
-      <c r="P17" s="268"/>
-      <c r="Q17" s="274">
+      <c r="I17" s="265">
+        <v>0</v>
+      </c>
+      <c r="J17" s="265">
+        <v>0</v>
+      </c>
+      <c r="K17" s="265">
+        <v>0</v>
+      </c>
+      <c r="L17" s="265"/>
+      <c r="M17" s="265"/>
+      <c r="N17" s="265"/>
+      <c r="O17" s="265"/>
+      <c r="P17" s="265"/>
+      <c r="Q17" s="271">
         <f t="shared" si="0"/>
         <v>15.3</v>
       </c>
@@ -24303,7 +25856,7 @@
       <c r="N18" s="110"/>
       <c r="O18" s="110"/>
       <c r="P18" s="110"/>
-      <c r="Q18" s="276">
+      <c r="Q18" s="273">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
@@ -24348,7 +25901,7 @@
       <c r="N19" s="118"/>
       <c r="O19" s="118"/>
       <c r="P19" s="118"/>
-      <c r="Q19" s="280">
+      <c r="Q19" s="277">
         <f t="shared" si="0"/>
         <v>5.9</v>
       </c>
@@ -24393,7 +25946,7 @@
       <c r="N20" s="106"/>
       <c r="O20" s="106"/>
       <c r="P20" s="106"/>
-      <c r="Q20" s="273">
+      <c r="Q20" s="270">
         <f t="shared" si="0"/>
         <v>23.400000000000002</v>
       </c>
@@ -24438,7 +25991,7 @@
       <c r="N21" s="106"/>
       <c r="O21" s="106"/>
       <c r="P21" s="106"/>
-      <c r="Q21" s="273">
+      <c r="Q21" s="270">
         <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
@@ -24483,66 +26036,66 @@
       <c r="N22" s="76"/>
       <c r="O22" s="76"/>
       <c r="P22" s="76"/>
-      <c r="Q22" s="281">
+      <c r="Q22" s="278">
         <f t="shared" si="0"/>
         <v>7.6000000000000005</v>
       </c>
-      <c r="R22" s="243">
+      <c r="R22" s="240">
         <f>+VLOOKUP($B22,F!$C$4:$Q$23,15,)/Q22</f>
         <v>-0.13157894736842105</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="402" t="s">
+      <c r="B24" s="399" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="402" t="s">
+      <c r="C24" s="399" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="264" t="s">
+      <c r="D24" s="261" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="264" t="s">
+      <c r="E24" s="261" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="264" t="s">
+      <c r="F24" s="261" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="264" t="s">
+      <c r="G24" s="261" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="264" t="s">
+      <c r="H24" s="261" t="s">
         <v>72</v>
       </c>
-      <c r="I24" s="264" t="s">
+      <c r="I24" s="261" t="s">
         <v>73</v>
       </c>
-      <c r="J24" s="264" t="s">
+      <c r="J24" s="261" t="s">
         <v>74</v>
       </c>
-      <c r="K24" s="264" t="s">
+      <c r="K24" s="261" t="s">
         <v>75</v>
       </c>
-      <c r="L24" s="264" t="s">
+      <c r="L24" s="261" t="s">
         <v>76</v>
       </c>
-      <c r="M24" s="402" t="s">
+      <c r="M24" s="399" t="s">
         <v>77</v>
       </c>
-      <c r="N24" s="402" t="s">
+      <c r="N24" s="399" t="s">
         <v>78</v>
       </c>
-      <c r="O24" s="402" t="s">
+      <c r="O24" s="399" t="s">
         <v>79</v>
       </c>
-      <c r="P24" s="402" t="s">
+      <c r="P24" s="399" t="s">
         <v>80</v>
       </c>
-      <c r="Q24" s="402" t="s">
+      <c r="Q24" s="399" t="s">
         <v>81</v>
       </c>
-      <c r="R24" s="402" t="s">
+      <c r="R24" s="399" t="s">
         <v>82</v>
       </c>
     </row>
@@ -24582,13 +26135,13 @@
       <c r="N25" s="99"/>
       <c r="O25" s="99"/>
       <c r="P25" s="99"/>
-      <c r="Q25" s="282">
+      <c r="Q25" s="279">
         <f t="shared" ref="Q25:Q34" si="1">C25+SUM(D25:M25)</f>
         <v>32.300000000000004</v>
       </c>
       <c r="R25" s="231">
         <f>+VLOOKUP($B25,F!$S$4:$AG$13,15,)/Q25</f>
-        <v>17.585139318885446</v>
+        <v>19.938080495356033</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
@@ -24627,13 +26180,13 @@
       <c r="N26" s="106"/>
       <c r="O26" s="106"/>
       <c r="P26" s="106"/>
-      <c r="Q26" s="273">
+      <c r="Q26" s="270">
         <f t="shared" si="1"/>
         <v>25.9</v>
       </c>
       <c r="R26" s="209">
         <f>+VLOOKUP($B26,F!$S$4:$AG$13,15,)/Q26</f>
-        <v>6.8725868725868731</v>
+        <v>7.7992277992277996</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
@@ -24672,13 +26225,13 @@
       <c r="N27" s="102"/>
       <c r="O27" s="102"/>
       <c r="P27" s="102"/>
-      <c r="Q27" s="272">
+      <c r="Q27" s="269">
         <f t="shared" si="1"/>
         <v>24.200000000000003</v>
       </c>
       <c r="R27" s="119">
         <f>+VLOOKUP($B27,F!$S$4:$AG$13,15,)/Q27</f>
-        <v>15.950413223140494</v>
+        <v>18.099173553719005</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
@@ -24713,17 +26266,17 @@
         <v>0</v>
       </c>
       <c r="L28" s="100"/>
-      <c r="M28" s="268"/>
-      <c r="N28" s="268"/>
-      <c r="O28" s="268"/>
-      <c r="P28" s="268"/>
-      <c r="Q28" s="274">
+      <c r="M28" s="265"/>
+      <c r="N28" s="265"/>
+      <c r="O28" s="265"/>
+      <c r="P28" s="265"/>
+      <c r="Q28" s="271">
         <f t="shared" si="1"/>
         <v>15.7</v>
       </c>
       <c r="R28" s="124">
         <f>+VLOOKUP($B28,F!$S$4:$AG$13,15,)/Q28</f>
-        <v>16.114649681528665</v>
+        <v>16.433121019108281</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
@@ -24762,13 +26315,13 @@
       <c r="N29" s="110"/>
       <c r="O29" s="110"/>
       <c r="P29" s="110"/>
-      <c r="Q29" s="276">
+      <c r="Q29" s="273">
         <f t="shared" si="1"/>
         <v>12.700000000000001</v>
       </c>
       <c r="R29" s="121">
         <f>+VLOOKUP($B29,F!$S$4:$AG$13,15,)/Q29</f>
-        <v>14.015748031496061</v>
+        <v>15.669291338582676</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
@@ -24807,13 +26360,13 @@
       <c r="N30" s="108"/>
       <c r="O30" s="108"/>
       <c r="P30" s="108"/>
-      <c r="Q30" s="275">
+      <c r="Q30" s="272">
         <f t="shared" si="1"/>
         <v>12.3</v>
       </c>
       <c r="R30" s="122">
         <f>+VLOOKUP($B30,F!$S$4:$AG$13,15,)/Q30</f>
-        <v>19.349593495934958</v>
+        <v>22.113821138211382</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
@@ -24852,13 +26405,13 @@
       <c r="N31" s="104"/>
       <c r="O31" s="104"/>
       <c r="P31" s="104"/>
-      <c r="Q31" s="277">
+      <c r="Q31" s="274">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="R31" s="208">
         <f>+VLOOKUP($B31,F!$S$4:$AG$13,15,)/Q31</f>
-        <v>23.818181818181817</v>
+        <v>26.09090909090909</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
@@ -24897,13 +26450,13 @@
       <c r="N32" s="112"/>
       <c r="O32" s="112"/>
       <c r="P32" s="112"/>
-      <c r="Q32" s="278">
+      <c r="Q32" s="275">
         <f t="shared" si="1"/>
         <v>8.1999999999999993</v>
       </c>
       <c r="R32" s="123">
         <f>+VLOOKUP($B32,F!$S$4:$AG$13,15,)/Q32</f>
-        <v>15.731707317073171</v>
+        <v>18.658536585365855</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
@@ -24942,13 +26495,13 @@
       <c r="N33" s="114"/>
       <c r="O33" s="114"/>
       <c r="P33" s="114"/>
-      <c r="Q33" s="279">
+      <c r="Q33" s="276">
         <f t="shared" si="1"/>
         <v>7.8</v>
       </c>
       <c r="R33" s="120">
         <f>+VLOOKUP($B33,F!$S$4:$AG$13,15,)/Q33</f>
-        <v>11.282051282051283</v>
+        <v>12.948717948717949</v>
       </c>
     </row>
     <row r="34" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -24987,13 +26540,13 @@
       <c r="N34" s="116"/>
       <c r="O34" s="116"/>
       <c r="P34" s="116"/>
-      <c r="Q34" s="283">
+      <c r="Q34" s="280">
         <f t="shared" si="1"/>
         <v>6.3</v>
       </c>
       <c r="R34" s="210">
         <f>+VLOOKUP($B34,F!$S$4:$AG$13,15,)/Q34</f>
-        <v>14.126984126984127</v>
+        <v>15.396825396825397</v>
       </c>
     </row>
   </sheetData>
@@ -25011,112 +26564,112 @@
   <dimension ref="B1:AF31"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AA6" sqref="AA6"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="5" width="13" style="253" hidden="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="253" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="253" customWidth="1"/>
-    <col min="10" max="14" width="10.83203125" style="253" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="253" customWidth="1"/>
-    <col min="18" max="20" width="13" style="253" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="10.83203125" style="253" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="253" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="10.83203125" style="253" customWidth="1"/>
-    <col min="26" max="26" width="13" style="253" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" style="253" customWidth="1"/>
-    <col min="28" max="29" width="10.83203125" style="253" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="253" hidden="1" customWidth="1"/>
+    <col min="3" max="5" width="13" style="250" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="250" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="250" customWidth="1"/>
+    <col min="10" max="14" width="10.83203125" style="250" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="250" customWidth="1"/>
+    <col min="18" max="20" width="13" style="250" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="10.83203125" style="250" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="250" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="250" customWidth="1"/>
+    <col min="26" max="26" width="13" style="250" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" style="250" customWidth="1"/>
+    <col min="28" max="29" width="10.83203125" style="250" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="250" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="207"/>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="402" t="s">
+      <c r="D2" s="399" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="402" t="s">
+      <c r="E2" s="399" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="399" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="402" t="s">
+      <c r="I2" s="399" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="399" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="399" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="402" t="s">
+      <c r="L2" s="399" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="402" t="s">
+      <c r="M2" s="399" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="402" t="s">
+      <c r="N2" s="399" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="402" t="s">
+      <c r="O2" s="399" t="s">
         <v>95</v>
       </c>
       <c r="Q2" s="207"/>
-      <c r="R2" s="402" t="s">
+      <c r="R2" s="399" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="402" t="s">
+      <c r="S2" s="399" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="402" t="s">
+      <c r="T2" s="399" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="402" t="s">
+      <c r="U2" s="399" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="402" t="s">
+      <c r="V2" s="399" t="s">
         <v>87</v>
       </c>
-      <c r="W2" s="402" t="s">
+      <c r="W2" s="399" t="s">
         <v>88</v>
       </c>
-      <c r="X2" s="402" t="s">
+      <c r="X2" s="399" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" s="402" t="s">
+      <c r="Y2" s="399" t="s">
         <v>90</v>
       </c>
-      <c r="Z2" s="402" t="s">
+      <c r="Z2" s="399" t="s">
         <v>91</v>
       </c>
-      <c r="AA2" s="402" t="s">
+      <c r="AA2" s="399" t="s">
         <v>92</v>
       </c>
-      <c r="AB2" s="402" t="s">
+      <c r="AB2" s="399" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" s="402" t="s">
+      <c r="AC2" s="399" t="s">
         <v>94</v>
       </c>
-      <c r="AD2" s="402" t="s">
+      <c r="AD2" s="399" t="s">
         <v>95</v>
       </c>
-      <c r="AE2" s="402" t="s">
+      <c r="AE2" s="399" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="402" t="s">
+      <c r="AF2" s="399" t="s">
         <v>96</v>
       </c>
     </row>
@@ -25206,76 +26759,76 @@
       <c r="B4" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="259">
+      <c r="C4" s="256">
         <v>324</v>
       </c>
-      <c r="D4" s="259">
+      <c r="D4" s="256">
         <v>638</v>
       </c>
-      <c r="E4" s="259">
+      <c r="E4" s="256">
         <v>904</v>
       </c>
-      <c r="F4" s="259">
+      <c r="F4" s="256">
         <v>1088</v>
       </c>
-      <c r="G4" s="259">
+      <c r="G4" s="256">
         <v>1509</v>
       </c>
-      <c r="H4" s="259">
+      <c r="H4" s="256">
         <v>1877</v>
       </c>
-      <c r="I4" s="259">
+      <c r="I4" s="256">
         <v>2225</v>
       </c>
-      <c r="J4" s="259">
+      <c r="J4" s="256">
         <v>2532</v>
       </c>
-      <c r="K4" s="259">
+      <c r="K4" s="256">
         <v>3031</v>
       </c>
-      <c r="L4" s="259">
+      <c r="L4" s="256">
         <v>3499</v>
       </c>
-      <c r="M4" s="259"/>
-      <c r="N4" s="259"/>
-      <c r="O4" s="259"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="256"/>
+      <c r="O4" s="256"/>
       <c r="Q4" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="R4" s="259">
+      <c r="R4" s="256">
         <v>324</v>
       </c>
-      <c r="S4" s="259">
+      <c r="S4" s="256">
         <v>314</v>
       </c>
-      <c r="T4" s="259">
+      <c r="T4" s="256">
         <v>266</v>
       </c>
-      <c r="U4" s="259">
+      <c r="U4" s="256">
         <v>184</v>
       </c>
-      <c r="V4" s="259">
+      <c r="V4" s="256">
         <v>421</v>
       </c>
-      <c r="W4" s="259">
+      <c r="W4" s="256">
         <v>368</v>
       </c>
-      <c r="X4" s="259">
+      <c r="X4" s="256">
         <v>348</v>
       </c>
-      <c r="Y4" s="259">
+      <c r="Y4" s="256">
         <v>307</v>
       </c>
-      <c r="Z4" s="259">
+      <c r="Z4" s="256">
         <v>499</v>
       </c>
-      <c r="AA4" s="259">
+      <c r="AA4" s="256">
         <v>468</v>
       </c>
-      <c r="AB4" s="259"/>
-      <c r="AC4" s="259"/>
-      <c r="AD4" s="259"/>
-      <c r="AE4" s="259">
+      <c r="AB4" s="256"/>
+      <c r="AC4" s="256"/>
+      <c r="AD4" s="256"/>
+      <c r="AE4" s="256">
         <f t="shared" si="0"/>
         <v>3499</v>
       </c>
@@ -25288,76 +26841,76 @@
       <c r="B5" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="259">
+      <c r="C5" s="256">
         <v>232</v>
       </c>
-      <c r="D5" s="259">
+      <c r="D5" s="256">
         <v>566</v>
       </c>
-      <c r="E5" s="259">
+      <c r="E5" s="256">
         <v>851</v>
       </c>
-      <c r="F5" s="259">
+      <c r="F5" s="256">
         <v>1136</v>
       </c>
-      <c r="G5" s="259">
+      <c r="G5" s="256">
         <v>1423</v>
       </c>
-      <c r="H5" s="259">
+      <c r="H5" s="256">
         <v>1817</v>
       </c>
-      <c r="I5" s="259">
+      <c r="I5" s="256">
         <v>2129</v>
       </c>
-      <c r="J5" s="259">
+      <c r="J5" s="256">
         <v>2486</v>
       </c>
-      <c r="K5" s="259">
+      <c r="K5" s="256">
         <v>2903</v>
       </c>
-      <c r="L5" s="259">
+      <c r="L5" s="256">
         <v>3155</v>
       </c>
-      <c r="M5" s="259"/>
-      <c r="N5" s="259"/>
-      <c r="O5" s="259"/>
+      <c r="M5" s="256"/>
+      <c r="N5" s="256"/>
+      <c r="O5" s="256"/>
       <c r="Q5" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="R5" s="259">
+      <c r="R5" s="256">
         <v>232</v>
       </c>
-      <c r="S5" s="259">
+      <c r="S5" s="256">
         <v>334</v>
       </c>
-      <c r="T5" s="259">
+      <c r="T5" s="256">
         <v>285</v>
       </c>
-      <c r="U5" s="259">
+      <c r="U5" s="256">
         <v>285</v>
       </c>
-      <c r="V5" s="259">
+      <c r="V5" s="256">
         <v>287</v>
       </c>
-      <c r="W5" s="259">
+      <c r="W5" s="256">
         <v>394</v>
       </c>
-      <c r="X5" s="259">
+      <c r="X5" s="256">
         <v>312</v>
       </c>
-      <c r="Y5" s="259">
+      <c r="Y5" s="256">
         <v>357</v>
       </c>
-      <c r="Z5" s="259">
+      <c r="Z5" s="256">
         <v>417</v>
       </c>
-      <c r="AA5" s="259">
+      <c r="AA5" s="256">
         <v>252</v>
       </c>
-      <c r="AB5" s="259"/>
-      <c r="AC5" s="259"/>
-      <c r="AD5" s="259"/>
-      <c r="AE5" s="259">
+      <c r="AB5" s="256"/>
+      <c r="AC5" s="256"/>
+      <c r="AD5" s="256"/>
+      <c r="AE5" s="256">
         <f t="shared" si="0"/>
         <v>3155</v>
       </c>
@@ -25370,76 +26923,76 @@
       <c r="B6" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="259">
+      <c r="C6" s="256">
         <v>192</v>
       </c>
-      <c r="D6" s="259">
+      <c r="D6" s="256">
         <v>499</v>
       </c>
-      <c r="E6" s="259">
+      <c r="E6" s="256">
         <v>759</v>
       </c>
-      <c r="F6" s="259">
+      <c r="F6" s="256">
         <v>1086</v>
       </c>
-      <c r="G6" s="259">
+      <c r="G6" s="256">
         <v>1409</v>
       </c>
-      <c r="H6" s="259">
+      <c r="H6" s="256">
         <v>1775</v>
       </c>
-      <c r="I6" s="259">
+      <c r="I6" s="256">
         <v>2110</v>
       </c>
-      <c r="J6" s="259">
+      <c r="J6" s="256">
         <v>2432</v>
       </c>
-      <c r="K6" s="259">
+      <c r="K6" s="256">
         <v>2789</v>
       </c>
-      <c r="L6" s="259">
+      <c r="L6" s="256">
         <v>3067</v>
       </c>
-      <c r="M6" s="259"/>
-      <c r="N6" s="259"/>
-      <c r="O6" s="259"/>
+      <c r="M6" s="256"/>
+      <c r="N6" s="256"/>
+      <c r="O6" s="256"/>
       <c r="Q6" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="R6" s="259">
+      <c r="R6" s="256">
         <v>192</v>
       </c>
-      <c r="S6" s="259">
+      <c r="S6" s="256">
         <v>307</v>
       </c>
-      <c r="T6" s="259">
+      <c r="T6" s="256">
         <v>260</v>
       </c>
-      <c r="U6" s="259">
+      <c r="U6" s="256">
         <v>327</v>
       </c>
-      <c r="V6" s="259">
+      <c r="V6" s="256">
         <v>323</v>
       </c>
-      <c r="W6" s="259">
+      <c r="W6" s="256">
         <v>366</v>
       </c>
-      <c r="X6" s="259">
+      <c r="X6" s="256">
         <v>335</v>
       </c>
-      <c r="Y6" s="259">
+      <c r="Y6" s="256">
         <v>322</v>
       </c>
-      <c r="Z6" s="259">
+      <c r="Z6" s="256">
         <v>357</v>
       </c>
-      <c r="AA6" s="259">
+      <c r="AA6" s="256">
         <v>278</v>
       </c>
-      <c r="AB6" s="259"/>
-      <c r="AC6" s="259"/>
-      <c r="AD6" s="259"/>
-      <c r="AE6" s="259">
+      <c r="AB6" s="256"/>
+      <c r="AC6" s="256"/>
+      <c r="AD6" s="256"/>
+      <c r="AE6" s="256">
         <f t="shared" si="0"/>
         <v>3067</v>
       </c>
@@ -25452,76 +27005,76 @@
       <c r="B7" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="259">
+      <c r="C7" s="256">
         <v>182</v>
       </c>
-      <c r="D7" s="259">
+      <c r="D7" s="256">
         <v>469</v>
       </c>
-      <c r="E7" s="259">
+      <c r="E7" s="256">
         <v>682</v>
       </c>
-      <c r="F7" s="259">
+      <c r="F7" s="256">
         <v>823</v>
       </c>
-      <c r="G7" s="259">
+      <c r="G7" s="256">
         <v>1092</v>
       </c>
-      <c r="H7" s="259">
+      <c r="H7" s="256">
         <v>1488</v>
       </c>
-      <c r="I7" s="259">
+      <c r="I7" s="256">
         <v>1785</v>
       </c>
-      <c r="J7" s="259">
+      <c r="J7" s="256">
         <v>2154</v>
       </c>
-      <c r="K7" s="259">
+      <c r="K7" s="256">
         <v>2491</v>
       </c>
-      <c r="L7" s="259">
+      <c r="L7" s="256">
         <v>2741</v>
       </c>
-      <c r="M7" s="259"/>
-      <c r="N7" s="259"/>
-      <c r="O7" s="259"/>
+      <c r="M7" s="256"/>
+      <c r="N7" s="256"/>
+      <c r="O7" s="256"/>
       <c r="Q7" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="R7" s="259">
+      <c r="R7" s="256">
         <v>182</v>
       </c>
-      <c r="S7" s="259">
+      <c r="S7" s="256">
         <v>287</v>
       </c>
-      <c r="T7" s="259">
+      <c r="T7" s="256">
         <v>213</v>
       </c>
-      <c r="U7" s="259">
+      <c r="U7" s="256">
         <v>141</v>
       </c>
-      <c r="V7" s="259">
+      <c r="V7" s="256">
         <v>269</v>
       </c>
-      <c r="W7" s="259">
+      <c r="W7" s="256">
         <v>396</v>
       </c>
-      <c r="X7" s="259">
+      <c r="X7" s="256">
         <v>297</v>
       </c>
-      <c r="Y7" s="259">
+      <c r="Y7" s="256">
         <v>369</v>
       </c>
-      <c r="Z7" s="259">
+      <c r="Z7" s="256">
         <v>337</v>
       </c>
-      <c r="AA7" s="259">
+      <c r="AA7" s="256">
         <v>250</v>
       </c>
-      <c r="AB7" s="259"/>
-      <c r="AC7" s="259"/>
-      <c r="AD7" s="259"/>
-      <c r="AE7" s="259">
+      <c r="AB7" s="256"/>
+      <c r="AC7" s="256"/>
+      <c r="AD7" s="256"/>
+      <c r="AE7" s="256">
         <f t="shared" si="0"/>
         <v>2741</v>
       </c>
@@ -25534,72 +27087,72 @@
       <c r="B8" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="259"/>
-      <c r="D8" s="259">
+      <c r="C8" s="256"/>
+      <c r="D8" s="256">
         <v>256</v>
       </c>
-      <c r="E8" s="259">
+      <c r="E8" s="256">
         <v>493</v>
       </c>
-      <c r="F8" s="259">
+      <c r="F8" s="256">
         <v>688</v>
       </c>
-      <c r="G8" s="259">
+      <c r="G8" s="256">
         <v>930</v>
       </c>
-      <c r="H8" s="259">
+      <c r="H8" s="256">
         <v>1208</v>
       </c>
-      <c r="I8" s="259">
+      <c r="I8" s="256">
         <v>1533</v>
       </c>
-      <c r="J8" s="259">
+      <c r="J8" s="256">
         <v>1852</v>
       </c>
-      <c r="K8" s="259">
+      <c r="K8" s="256">
         <v>2161</v>
       </c>
-      <c r="L8" s="259">
+      <c r="L8" s="256">
         <v>2391</v>
       </c>
-      <c r="M8" s="259"/>
-      <c r="N8" s="259"/>
-      <c r="O8" s="259"/>
+      <c r="M8" s="256"/>
+      <c r="N8" s="256"/>
+      <c r="O8" s="256"/>
       <c r="Q8" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="R8" s="259"/>
-      <c r="S8" s="259">
+      <c r="R8" s="256"/>
+      <c r="S8" s="256">
         <v>256</v>
       </c>
-      <c r="T8" s="259">
+      <c r="T8" s="256">
         <v>237</v>
       </c>
-      <c r="U8" s="259">
+      <c r="U8" s="256">
         <v>195</v>
       </c>
-      <c r="V8" s="259">
+      <c r="V8" s="256">
         <v>242</v>
       </c>
-      <c r="W8" s="259">
+      <c r="W8" s="256">
         <v>278</v>
       </c>
-      <c r="X8" s="259">
+      <c r="X8" s="256">
         <v>325</v>
       </c>
-      <c r="Y8" s="259">
+      <c r="Y8" s="256">
         <v>319</v>
       </c>
-      <c r="Z8" s="259">
+      <c r="Z8" s="256">
         <v>309</v>
       </c>
-      <c r="AA8" s="259">
+      <c r="AA8" s="256">
         <v>230</v>
       </c>
-      <c r="AB8" s="259"/>
-      <c r="AC8" s="259"/>
-      <c r="AD8" s="259"/>
-      <c r="AE8" s="259">
+      <c r="AB8" s="256"/>
+      <c r="AC8" s="256"/>
+      <c r="AD8" s="256"/>
+      <c r="AE8" s="256">
         <f t="shared" si="0"/>
         <v>2391</v>
       </c>
@@ -25612,76 +27165,76 @@
       <c r="B9" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="252">
+      <c r="C9" s="249">
         <v>98</v>
       </c>
-      <c r="D9" s="252">
+      <c r="D9" s="249">
         <v>331</v>
       </c>
-      <c r="E9" s="252">
+      <c r="E9" s="249">
         <v>492</v>
       </c>
-      <c r="F9" s="252">
+      <c r="F9" s="249">
         <v>692</v>
       </c>
-      <c r="G9" s="252">
+      <c r="G9" s="249">
         <v>971</v>
       </c>
-      <c r="H9" s="252">
+      <c r="H9" s="249">
         <v>1187</v>
       </c>
-      <c r="I9" s="252">
+      <c r="I9" s="249">
         <v>1412</v>
       </c>
-      <c r="J9" s="252">
+      <c r="J9" s="249">
         <v>1637</v>
       </c>
-      <c r="K9" s="252">
+      <c r="K9" s="249">
         <v>1941</v>
       </c>
-      <c r="L9" s="252">
+      <c r="L9" s="249">
         <v>2198</v>
       </c>
-      <c r="M9" s="252"/>
-      <c r="N9" s="252"/>
-      <c r="O9" s="252"/>
+      <c r="M9" s="249"/>
+      <c r="N9" s="249"/>
+      <c r="O9" s="249"/>
       <c r="Q9" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="R9" s="252">
+      <c r="R9" s="249">
         <v>98</v>
       </c>
-      <c r="S9" s="252">
+      <c r="S9" s="249">
         <v>233</v>
       </c>
-      <c r="T9" s="252">
+      <c r="T9" s="249">
         <v>161</v>
       </c>
-      <c r="U9" s="252">
+      <c r="U9" s="249">
         <v>200</v>
       </c>
-      <c r="V9" s="252">
+      <c r="V9" s="249">
         <v>279</v>
       </c>
-      <c r="W9" s="252">
+      <c r="W9" s="249">
         <v>216</v>
       </c>
-      <c r="X9" s="252">
+      <c r="X9" s="249">
         <v>225</v>
       </c>
-      <c r="Y9" s="252">
+      <c r="Y9" s="249">
         <v>225</v>
       </c>
-      <c r="Z9" s="252">
+      <c r="Z9" s="249">
         <v>304</v>
       </c>
-      <c r="AA9" s="252">
+      <c r="AA9" s="249">
         <v>257</v>
       </c>
-      <c r="AB9" s="252"/>
-      <c r="AC9" s="252"/>
-      <c r="AD9" s="252"/>
-      <c r="AE9" s="252">
+      <c r="AB9" s="249"/>
+      <c r="AC9" s="249"/>
+      <c r="AD9" s="249"/>
+      <c r="AE9" s="249">
         <f t="shared" si="0"/>
         <v>2198</v>
       </c>
@@ -25693,89 +27246,89 @@
     <row r="27" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="207"/>
-      <c r="C28" s="402" t="s">
+      <c r="C28" s="399" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="402" t="s">
+      <c r="D28" s="399" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="402" t="s">
+      <c r="E28" s="399" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="402" t="s">
+      <c r="F28" s="399" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="402" t="s">
+      <c r="G28" s="399" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="402" t="s">
+      <c r="H28" s="399" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="402" t="s">
+      <c r="I28" s="399" t="s">
         <v>89</v>
       </c>
-      <c r="J28" s="402" t="s">
+      <c r="J28" s="399" t="s">
         <v>90</v>
       </c>
-      <c r="K28" s="402" t="s">
+      <c r="K28" s="399" t="s">
         <v>91</v>
       </c>
-      <c r="L28" s="402" t="s">
+      <c r="L28" s="399" t="s">
         <v>92</v>
       </c>
-      <c r="M28" s="402" t="s">
+      <c r="M28" s="399" t="s">
         <v>93</v>
       </c>
-      <c r="N28" s="402" t="s">
+      <c r="N28" s="399" t="s">
         <v>94</v>
       </c>
-      <c r="O28" s="402" t="s">
+      <c r="O28" s="399" t="s">
         <v>95</v>
       </c>
       <c r="Q28" s="207"/>
-      <c r="R28" s="402" t="s">
+      <c r="R28" s="399" t="s">
         <v>83</v>
       </c>
-      <c r="S28" s="402" t="s">
+      <c r="S28" s="399" t="s">
         <v>84</v>
       </c>
-      <c r="T28" s="402" t="s">
+      <c r="T28" s="399" t="s">
         <v>85</v>
       </c>
-      <c r="U28" s="402" t="s">
+      <c r="U28" s="399" t="s">
         <v>86</v>
       </c>
-      <c r="V28" s="402" t="s">
+      <c r="V28" s="399" t="s">
         <v>87</v>
       </c>
-      <c r="W28" s="402" t="s">
+      <c r="W28" s="399" t="s">
         <v>88</v>
       </c>
-      <c r="X28" s="402" t="s">
+      <c r="X28" s="399" t="s">
         <v>89</v>
       </c>
-      <c r="Y28" s="402" t="s">
+      <c r="Y28" s="399" t="s">
         <v>90</v>
       </c>
-      <c r="Z28" s="402" t="s">
+      <c r="Z28" s="399" t="s">
         <v>91</v>
       </c>
-      <c r="AA28" s="402" t="s">
+      <c r="AA28" s="399" t="s">
         <v>92</v>
       </c>
-      <c r="AB28" s="402" t="s">
+      <c r="AB28" s="399" t="s">
         <v>93</v>
       </c>
-      <c r="AC28" s="402" t="s">
+      <c r="AC28" s="399" t="s">
         <v>94</v>
       </c>
-      <c r="AD28" s="402" t="s">
+      <c r="AD28" s="399" t="s">
         <v>95</v>
       </c>
-      <c r="AE28" s="402" t="s">
+      <c r="AE28" s="399" t="s">
         <v>40</v>
       </c>
-      <c r="AF28" s="402" t="s">
+      <c r="AF28" s="399" t="s">
         <v>96</v>
       </c>
     </row>
@@ -25865,76 +27418,76 @@
       <c r="B30" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="259">
+      <c r="C30" s="256">
         <v>309</v>
       </c>
-      <c r="D30" s="259">
+      <c r="D30" s="256">
         <v>743</v>
       </c>
-      <c r="E30" s="259">
+      <c r="E30" s="256">
         <v>1095</v>
       </c>
-      <c r="F30" s="259">
+      <c r="F30" s="256">
         <v>1679</v>
       </c>
-      <c r="G30" s="259">
+      <c r="G30" s="256">
         <v>2185</v>
       </c>
-      <c r="H30" s="259">
+      <c r="H30" s="256">
         <v>2708</v>
       </c>
-      <c r="I30" s="259">
+      <c r="I30" s="256">
         <v>3208</v>
       </c>
-      <c r="J30" s="259">
+      <c r="J30" s="256">
         <v>3726</v>
       </c>
-      <c r="K30" s="259">
+      <c r="K30" s="256">
         <v>4183</v>
       </c>
-      <c r="L30" s="259">
+      <c r="L30" s="256">
         <v>4575</v>
       </c>
-      <c r="M30" s="259"/>
-      <c r="N30" s="259"/>
-      <c r="O30" s="259"/>
+      <c r="M30" s="256"/>
+      <c r="N30" s="256"/>
+      <c r="O30" s="256"/>
       <c r="Q30" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="R30" s="259">
+      <c r="R30" s="256">
         <v>309</v>
       </c>
-      <c r="S30" s="259">
+      <c r="S30" s="256">
         <v>434</v>
       </c>
-      <c r="T30" s="259">
+      <c r="T30" s="256">
         <v>352</v>
       </c>
-      <c r="U30" s="259">
+      <c r="U30" s="256">
         <v>584</v>
       </c>
-      <c r="V30" s="259">
+      <c r="V30" s="256">
         <v>506</v>
       </c>
-      <c r="W30" s="259">
+      <c r="W30" s="256">
         <v>523</v>
       </c>
-      <c r="X30" s="259">
+      <c r="X30" s="256">
         <v>500</v>
       </c>
-      <c r="Y30" s="259">
+      <c r="Y30" s="256">
         <v>518</v>
       </c>
-      <c r="Z30" s="259">
+      <c r="Z30" s="256">
         <v>457</v>
       </c>
-      <c r="AA30" s="259">
+      <c r="AA30" s="256">
         <v>392</v>
       </c>
-      <c r="AB30" s="259"/>
-      <c r="AC30" s="259"/>
-      <c r="AD30" s="259"/>
-      <c r="AE30" s="259">
+      <c r="AB30" s="256"/>
+      <c r="AC30" s="256"/>
+      <c r="AD30" s="256"/>
+      <c r="AE30" s="256">
         <f>SUM(R30:AD30)</f>
         <v>4575</v>
       </c>
@@ -25947,76 +27500,76 @@
       <c r="B31" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="259">
+      <c r="C31" s="256">
         <v>397</v>
       </c>
-      <c r="D31" s="259">
+      <c r="D31" s="256">
         <v>802</v>
       </c>
-      <c r="E31" s="259">
+      <c r="E31" s="256">
         <v>1089</v>
       </c>
-      <c r="F31" s="259">
+      <c r="F31" s="256">
         <v>1425</v>
       </c>
-      <c r="G31" s="259">
+      <c r="G31" s="256">
         <v>1845</v>
       </c>
-      <c r="H31" s="259">
+      <c r="H31" s="256">
         <v>2305</v>
       </c>
-      <c r="I31" s="259">
+      <c r="I31" s="256">
         <v>2947</v>
       </c>
-      <c r="J31" s="259">
+      <c r="J31" s="256">
         <v>3318</v>
       </c>
-      <c r="K31" s="259">
+      <c r="K31" s="256">
         <v>3622</v>
       </c>
-      <c r="L31" s="259">
+      <c r="L31" s="256">
         <v>4138</v>
       </c>
-      <c r="M31" s="259"/>
-      <c r="N31" s="259"/>
-      <c r="O31" s="259"/>
+      <c r="M31" s="256"/>
+      <c r="N31" s="256"/>
+      <c r="O31" s="256"/>
       <c r="Q31" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="R31" s="259">
+      <c r="R31" s="256">
         <v>397</v>
       </c>
-      <c r="S31" s="259">
+      <c r="S31" s="256">
         <v>405</v>
       </c>
-      <c r="T31" s="259">
+      <c r="T31" s="256">
         <v>287</v>
       </c>
-      <c r="U31" s="259">
+      <c r="U31" s="256">
         <v>330</v>
       </c>
-      <c r="V31" s="259">
+      <c r="V31" s="256">
         <v>426</v>
       </c>
-      <c r="W31" s="259">
+      <c r="W31" s="256">
         <v>460</v>
       </c>
-      <c r="X31" s="259">
+      <c r="X31" s="256">
         <v>642</v>
       </c>
-      <c r="Y31" s="259">
+      <c r="Y31" s="256">
         <v>371</v>
       </c>
-      <c r="Z31" s="259">
+      <c r="Z31" s="256">
         <v>304</v>
       </c>
-      <c r="AA31" s="259">
+      <c r="AA31" s="256">
         <v>516</v>
       </c>
-      <c r="AB31" s="259"/>
-      <c r="AC31" s="259"/>
-      <c r="AD31" s="259"/>
-      <c r="AE31" s="259">
+      <c r="AB31" s="256"/>
+      <c r="AC31" s="256"/>
+      <c r="AD31" s="256"/>
+      <c r="AE31" s="256">
         <f>SUM(R31:AD31)</f>
         <v>4138</v>
       </c>
@@ -26048,21 +27601,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="253" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="253" customWidth="1"/>
-    <col min="4" max="6" width="8.1640625" style="253" customWidth="1"/>
-    <col min="11" max="11" width="32.1640625" style="253" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="250" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="250" customWidth="1"/>
+    <col min="4" max="6" width="8.1640625" style="250" customWidth="1"/>
+    <col min="11" max="11" width="32.1640625" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -26074,19 +27627,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="263" t="s">
+      <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="399" t="s">
         <v>113</v>
       </c>
     </row>
@@ -26118,7 +27671,7 @@
       <c r="I3" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="258">
+      <c r="J3" s="255">
         <v>15</v>
       </c>
       <c r="K3" s="22"/>
@@ -26219,7 +27772,7 @@
       <c r="I6" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="268">
+      <c r="J6" s="265">
         <v>12</v>
       </c>
       <c r="K6" s="4"/>
@@ -26351,7 +27904,7 @@
       <c r="I10" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="J10" s="268">
+      <c r="J10" s="265">
         <v>6</v>
       </c>
       <c r="K10" s="4"/>
@@ -26774,39 +28327,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="253" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="253" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="253" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" style="253" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="250" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="250" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="250" customWidth="1"/>
+    <col min="9" max="9" width="31.6640625" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="402" t="s">
+      <c r="D2" s="399" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="399" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="399" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="264" t="s">
+      <c r="I2" s="261" t="s">
         <v>113</v>
       </c>
     </row>
@@ -26826,16 +28379,16 @@
       <c r="E3" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="258">
+      <c r="F3" s="255">
         <v>71</v>
       </c>
-      <c r="G3" s="258">
+      <c r="G3" s="255">
         <v>29</v>
       </c>
-      <c r="H3" s="258">
+      <c r="H3" s="255">
         <v>25</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="255"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="49">
@@ -26880,16 +28433,16 @@
       <c r="E5" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="268">
+      <c r="F5" s="265">
         <v>71</v>
       </c>
-      <c r="G5" s="268">
+      <c r="G5" s="265">
         <v>24</v>
       </c>
-      <c r="H5" s="268">
+      <c r="H5" s="265">
         <v>16</v>
       </c>
-      <c r="I5" s="268" t="s">
+      <c r="I5" s="265" t="s">
         <v>166</v>
       </c>
     </row>
@@ -26938,16 +28491,16 @@
       <c r="E7" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="268">
+      <c r="F7" s="265">
         <v>71</v>
       </c>
-      <c r="G7" s="268">
+      <c r="G7" s="265">
         <v>17</v>
       </c>
-      <c r="H7" s="268">
+      <c r="H7" s="265">
         <v>10</v>
       </c>
-      <c r="I7" s="268"/>
+      <c r="I7" s="265"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="52">
@@ -27396,22 +28949,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="253" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="253" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="253" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="253" customWidth="1"/>
-    <col min="11" max="11" width="34.33203125" style="253" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="250" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="250" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="250" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="250" customWidth="1"/>
+    <col min="11" max="11" width="34.33203125" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -27423,19 +28976,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="263" t="s">
+      <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="399" t="s">
         <v>113</v>
       </c>
     </row>
@@ -27467,7 +29020,7 @@
       <c r="I3" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="J3" s="258">
+      <c r="J3" s="255">
         <v>15</v>
       </c>
       <c r="K3" s="22"/>
@@ -27533,7 +29086,7 @@
       <c r="I5" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="J5" s="268">
+      <c r="J5" s="265">
         <v>13</v>
       </c>
       <c r="K5" s="4"/>
@@ -27632,7 +29185,7 @@
       <c r="I8" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="J8" s="268">
+      <c r="J8" s="265">
         <v>8</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -28127,38 +29680,38 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.83203125" style="253" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="253" customWidth="1"/>
-    <col min="9" max="9" width="32.5" style="253" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="250" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="250" customWidth="1"/>
+    <col min="9" max="9" width="32.5" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="402" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="402" t="s">
+      <c r="D2" s="399" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="399" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="402" t="s">
+      <c r="F2" s="399" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>162</v>
       </c>
-      <c r="I2" s="264" t="s">
+      <c r="I2" s="261" t="s">
         <v>113</v>
       </c>
       <c r="J2" s="71"/>
@@ -28180,16 +29733,16 @@
       <c r="E3" s="58" t="s">
         <v>223</v>
       </c>
-      <c r="F3" s="258">
+      <c r="F3" s="255">
         <v>71</v>
       </c>
-      <c r="G3" s="258">
+      <c r="G3" s="255">
         <v>29</v>
       </c>
-      <c r="H3" s="258">
+      <c r="H3" s="255">
         <v>25</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="255"/>
       <c r="J3" s="72"/>
       <c r="K3" s="72"/>
     </row>
@@ -28298,16 +29851,16 @@
       <c r="E7" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="F7" s="268">
+      <c r="F7" s="265">
         <v>71</v>
       </c>
-      <c r="G7" s="268">
+      <c r="G7" s="265">
         <v>22</v>
       </c>
-      <c r="H7" s="268">
+      <c r="H7" s="265">
         <v>10</v>
       </c>
-      <c r="I7" s="268"/>
+      <c r="I7" s="265"/>
       <c r="J7" s="72"/>
       <c r="K7" s="72"/>
     </row>
@@ -28414,16 +29967,16 @@
       <c r="E11" s="61" t="s">
         <v>232</v>
       </c>
-      <c r="F11" s="268">
+      <c r="F11" s="265">
         <v>70</v>
       </c>
-      <c r="G11" s="268">
+      <c r="G11" s="265">
         <v>-2</v>
       </c>
-      <c r="H11" s="268">
+      <c r="H11" s="265">
         <v>3</v>
       </c>
-      <c r="I11" s="268" t="s">
+      <c r="I11" s="265" t="s">
         <v>166</v>
       </c>
       <c r="J11" s="72"/>
@@ -28781,22 +30334,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9.83203125" style="253" customWidth="1"/>
-    <col min="5" max="5" width="10" style="253" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="253" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="253" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.6640625" style="253" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="250" customWidth="1"/>
+    <col min="5" max="5" width="10" style="250" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" style="250" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="250" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="402" t="s">
+      <c r="A2" s="399" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="402" t="s">
+      <c r="B2" s="399" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="402" t="s">
+      <c r="C2" s="399" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -28808,19 +30361,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="399" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="402" t="s">
+      <c r="H2" s="399" t="s">
         <v>110</v>
       </c>
-      <c r="I2" s="263" t="s">
+      <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="402" t="s">
+      <c r="J2" s="399" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="402" t="s">
+      <c r="K2" s="399" t="s">
         <v>113</v>
       </c>
     </row>
@@ -28852,7 +30405,7 @@
       <c r="I3" s="186" t="s">
         <v>249</v>
       </c>
-      <c r="J3" s="258">
+      <c r="J3" s="255">
         <v>15</v>
       </c>
       <c r="K3" s="22"/>
@@ -29083,7 +30636,7 @@
       <c r="I10" s="196" t="s">
         <v>270</v>
       </c>
-      <c r="J10" s="268">
+      <c r="J10" s="265">
         <v>8</v>
       </c>
       <c r="K10" s="4"/>
@@ -29116,7 +30669,7 @@
       <c r="I11" s="196" t="s">
         <v>273</v>
       </c>
-      <c r="J11" s="268">
+      <c r="J11" s="265">
         <v>5</v>
       </c>
       <c r="K11" s="4"/>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3307e3c88395b6d/CSProjects/PythonProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_2FF84A5F705C127EF31D2784A9537E30876FC519" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FBACC5EC-8325-864C-B447-A73E385F333E}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_B3D6CF5406D8CA4752FDD60A7447D68B3CA95D05" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{21F419DE-F42B-D145-AA4C-E9EDF9969335}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19400" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,13 @@
     <sheet name="R9" sheetId="22" r:id="rId22"/>
     <sheet name="Q10" sheetId="23" state="hidden" r:id="rId23"/>
     <sheet name="R10" sheetId="24" r:id="rId24"/>
-    <sheet name="Q11" sheetId="25" r:id="rId25"/>
+    <sheet name="Q11" sheetId="25" state="hidden" r:id="rId25"/>
     <sheet name="R11" sheetId="26" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C'!$B$2:$Q$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">F!$B$3:$Q$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Leagues!$Q$2:$AF$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C'!$S$2:$T$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">F!$B$49:$Q$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Leagues!$B$28:$N$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">P!$B$2:$R$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Q1'!$A$2:$K$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'Q10'!$A$2:$K$22</definedName>
@@ -58,6 +58,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'Q9'!$A$2:$K$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'R1'!$A$2:$I$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'R10'!$A$2:$I$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'R11'!$A$2:$I$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'R2'!$A$2:$I$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'R3'!$A$2:$I$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'R4'!$A$2:$I$22</definedName>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2452" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="847">
   <si>
     <t>Constructor</t>
   </si>
@@ -2425,6 +2426,21 @@
     <t>1:35:22.195</t>
   </si>
   <si>
+    <t>1:36:22.237</t>
+  </si>
+  <si>
+    <t>1:36:11.546</t>
+  </si>
+  <si>
+    <t>1:26.573</t>
+  </si>
+  <si>
+    <t>1:25.971</t>
+  </si>
+  <si>
+    <t>1:25.269</t>
+  </si>
+  <si>
     <t>1:26.620</t>
   </si>
   <si>
@@ -2443,13 +2459,49 @@
     <t>1:25.562</t>
   </si>
   <si>
-    <t>1:26.573</t>
-  </si>
-  <si>
-    <t>1:25.971</t>
-  </si>
-  <si>
-    <t>1:25.269</t>
+    <t>1:26.857</t>
+  </si>
+  <si>
+    <t>1:26.240</t>
+  </si>
+  <si>
+    <t>1:26.035</t>
+  </si>
+  <si>
+    <t>1:27.126</t>
+  </si>
+  <si>
+    <t>1:26.285</t>
+  </si>
+  <si>
+    <t>1:26.047</t>
+  </si>
+  <si>
+    <t>1:26.836</t>
+  </si>
+  <si>
+    <t>1:26.096</t>
+  </si>
+  <si>
+    <t>1:26.223</t>
+  </si>
+  <si>
+    <t>1:27.086</t>
+  </si>
+  <si>
+    <t>1:26.364</t>
+  </si>
+  <si>
+    <t>1:26.242</t>
+  </si>
+  <si>
+    <t>1:26.829</t>
+  </si>
+  <si>
+    <t>1:26.316</t>
+  </si>
+  <si>
+    <t>1:26.458</t>
   </si>
   <si>
     <t>1:27.120</t>
@@ -2461,37 +2513,13 @@
     <t>1:26.704</t>
   </si>
   <si>
-    <t>1:26.836</t>
-  </si>
-  <si>
-    <t>1:26.096</t>
-  </si>
-  <si>
-    <t>1:26.223</t>
-  </si>
-  <si>
     <t>1:27.378</t>
   </si>
   <si>
     <t>1:26.361</t>
   </si>
   <si>
-    <t>1:27.086</t>
-  </si>
-  <si>
-    <t>1:26.364</t>
-  </si>
-  <si>
-    <t>1:26.242</t>
-  </si>
-  <si>
-    <t>1:26.829</t>
-  </si>
-  <si>
-    <t>1:26.316</t>
-  </si>
-  <si>
-    <t>1:26.458</t>
+    <t>1:27.107</t>
   </si>
   <si>
     <t>1:27.072</t>
@@ -2500,58 +2528,103 @@
     <t>1:26.776</t>
   </si>
   <si>
-    <t>1:27.126</t>
-  </si>
-  <si>
-    <t>1:26.285</t>
-  </si>
-  <si>
-    <t>1:26.047</t>
-  </si>
-  <si>
-    <t>1:26.857</t>
-  </si>
-  <si>
-    <t>1:26.240</t>
-  </si>
-  <si>
-    <t>1:26.035</t>
-  </si>
-  <si>
     <t>1:27.285</t>
   </si>
   <si>
     <t>1:26.848</t>
   </si>
   <si>
+    <t>1:27.532</t>
+  </si>
+  <si>
+    <t>1:26.936</t>
+  </si>
+  <si>
+    <t>1:27.231</t>
+  </si>
+  <si>
+    <t>1:27.125</t>
+  </si>
+  <si>
+    <t>1:27.552</t>
+  </si>
+  <si>
+    <t>1:27.564</t>
+  </si>
+  <si>
+    <t>1:27.812</t>
+  </si>
+  <si>
+    <t>1:27.817</t>
+  </si>
+  <si>
     <t>1:28.021</t>
   </si>
   <si>
-    <t>1:27.564</t>
-  </si>
-  <si>
-    <t>1:27.107</t>
-  </si>
-  <si>
-    <t>1:27.552</t>
-  </si>
-  <si>
-    <t>1:27.532</t>
-  </si>
-  <si>
-    <t>1:26.936</t>
-  </si>
-  <si>
-    <t>1:27.231</t>
-  </si>
-  <si>
-    <t>1:27.125</t>
-  </si>
-  <si>
-    <t>1:27.812</t>
-  </si>
-  <si>
-    <t>1:27.817</t>
+    <t>1:36:04.254</t>
+  </si>
+  <si>
+    <t>1:32.328</t>
+  </si>
+  <si>
+    <t>DNF, lost powr</t>
+  </si>
+  <si>
+    <t>1:36:30.451</t>
+  </si>
+  <si>
+    <t>1:36:44.090</t>
+  </si>
+  <si>
+    <t>1:36:31.117</t>
+  </si>
+  <si>
+    <t>1:36:28.722</t>
+  </si>
+  <si>
+    <t>1:36:12.407</t>
+  </si>
+  <si>
+    <t>1:36:05.711</t>
+  </si>
+  <si>
+    <t>1:36:20.455</t>
+  </si>
+  <si>
+    <t>1:36:39.226</t>
+  </si>
+  <si>
+    <t>1:32.330</t>
+  </si>
+  <si>
+    <t>DNF, retired</t>
+  </si>
+  <si>
+    <t>1:36:45.229</t>
+  </si>
+  <si>
+    <t>1:33.189</t>
+  </si>
+  <si>
+    <t>1:35:54.111</t>
+  </si>
+  <si>
+    <t>1:35:49.641</t>
+  </si>
+  <si>
+    <t>1:34.526</t>
+  </si>
+  <si>
+    <t>DNF, suspension failure</t>
+  </si>
+  <si>
+    <t>1:31.884</t>
+  </si>
+  <si>
+    <t>1:36:29.676</t>
+  </si>
+  <si>
+    <t>(+10, collision with ALB)</t>
   </si>
 </sst>
 </file>
@@ -3233,7 +3306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="418">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4419,6 +4492,39 @@
     <xf numFmtId="0" fontId="3" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4427,37 +4533,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="13" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="21" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4574,27 +4659,21 @@
             <c:strRef>
               <c:f>Leagues!$C$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>W11</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>W12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>W13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4604,18 +4683,18 @@
               <c:f>Leagues!$C$29:$O$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3548</c:v>
+                  <c:v>4061</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4061</c:v>
+                  <c:v>4584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4584</c:v>
+                  <c:v>5279</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5279</c:v>
+                  <c:v>5887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4623,7 +4702,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A790-FE4D-8E10-EC2DDB91F42D}"/>
+              <c16:uniqueId val="{00000000-5358-B64F-99FE-B252953B4C90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4669,27 +4748,21 @@
             <c:strRef>
               <c:f>Leagues!$C$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>W11</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>W12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>W13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4699,18 +4772,18 @@
               <c:f>Leagues!$C$30:$O$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3208</c:v>
+                  <c:v>3726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3726</c:v>
+                  <c:v>4183</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4183</c:v>
+                  <c:v>4575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4575</c:v>
+                  <c:v>5235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4718,7 +4791,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A790-FE4D-8E10-EC2DDB91F42D}"/>
+              <c16:uniqueId val="{00000001-5358-B64F-99FE-B252953B4C90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4764,27 +4837,21 @@
             <c:strRef>
               <c:f>Leagues!$C$28:$O$28</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>W11</c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v>W12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>W13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4794,18 +4861,18 @@
               <c:f>Leagues!$C$31:$O$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2947</c:v>
+                  <c:v>3318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3318</c:v>
+                  <c:v>3622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3622</c:v>
+                  <c:v>4138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4138</c:v>
+                  <c:v>4819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4813,7 +4880,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A790-FE4D-8E10-EC2DDB91F42D}"/>
+              <c16:uniqueId val="{00000002-5358-B64F-99FE-B252953B4C90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4885,8 +4952,8 @@
         <c:axId val="367988335"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5300"/>
-          <c:min val="2920"/>
+          <c:max val="5900"/>
+          <c:min val="3300"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5078,41 +5145,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$R$2:$AB$2</c:f>
+              <c:f>Leagues!$S$2:$AC$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$R$3:$AB$3</c:f>
+              <c:f>Leagues!$S$3:$AC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>339</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>346</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>379</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>438</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5120,7 +5190,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8083-D54F-BDE0-0D46C670DB5B}"/>
+              <c16:uniqueId val="{00000000-2F51-B948-AC54-A8CB4CE2A84A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5164,41 +5234,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$R$2:$AB$2</c:f>
+              <c:f>Leagues!$S$2:$AC$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$R$4:$AB$4</c:f>
+              <c:f>Leagues!$S$4:$AC$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>348</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>307</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>499</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>468</c:v>
+                  <c:v>411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5206,7 +5279,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8083-D54F-BDE0-0D46C670DB5B}"/>
+              <c16:uniqueId val="{00000001-2F51-B948-AC54-A8CB4CE2A84A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5219,7 +5292,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Omar</c:v>
+                  <c:v>Chris</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5250,41 +5323,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$R$2:$AB$2</c:f>
+              <c:f>Leagues!$S$2:$AC$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$R$5:$AB$5</c:f>
+              <c:f>Leagues!$S$5:$AC$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>312</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>417</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>252</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5292,7 +5368,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8083-D54F-BDE0-0D46C670DB5B}"/>
+              <c16:uniqueId val="{00000002-2F51-B948-AC54-A8CB4CE2A84A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5305,7 +5381,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Chris</c:v>
+                  <c:v>Omar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5336,41 +5412,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$R$2:$AB$2</c:f>
+              <c:f>Leagues!$S$2:$AC$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$R$6:$AB$6</c:f>
+              <c:f>Leagues!$S$6:$AC$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>335</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>322</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>357</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>278</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5378,7 +5457,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8083-D54F-BDE0-0D46C670DB5B}"/>
+              <c16:uniqueId val="{00000003-2F51-B948-AC54-A8CB4CE2A84A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5422,41 +5501,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$R$2:$AB$2</c:f>
+              <c:f>Leagues!$S$2:$AC$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$R$7:$AB$7</c:f>
+              <c:f>Leagues!$S$7:$AC$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>297</c:v>
+                  <c:v>369</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>369</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>337</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5464,7 +5546,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8083-D54F-BDE0-0D46C670DB5B}"/>
+              <c16:uniqueId val="{00000004-2F51-B948-AC54-A8CB4CE2A84A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5508,41 +5590,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$R$2:$AB$2</c:f>
+              <c:f>Leagues!$S$2:$AC$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$R$8:$AB$8</c:f>
+              <c:f>Leagues!$S$8:$AC$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>325</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>319</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>309</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>230</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5550,7 +5635,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8083-D54F-BDE0-0D46C670DB5B}"/>
+              <c16:uniqueId val="{00000005-2F51-B948-AC54-A8CB4CE2A84A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5600,41 +5685,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$R$2:$AB$2</c:f>
+              <c:f>Leagues!$S$2:$AC$2</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$R$9:$AB$9</c:f>
+              <c:f>Leagues!$S$9:$AC$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>225</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>304</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>257</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5642,7 +5730,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8083-D54F-BDE0-0D46C670DB5B}"/>
+              <c16:uniqueId val="{00000006-2F51-B948-AC54-A8CB4CE2A84A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5907,41 +5995,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$R$28:$AB$28</c:f>
+              <c:f>Leagues!$R$28:$AC$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$R$29:$AB$29</c:f>
+              <c:f>Leagues!$R$29:$AC$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>523</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>513</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>523</c:v>
+                  <c:v>695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>695</c:v>
+                  <c:v>608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5949,7 +6040,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D6A1-A544-BD0C-B37C8DE8F14B}"/>
+              <c16:uniqueId val="{00000000-25B7-6547-BE27-A4E6C50540E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5993,41 +6084,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$R$28:$AB$28</c:f>
+              <c:f>Leagues!$R$28:$AC$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$R$30:$AB$30</c:f>
+              <c:f>Leagues!$R$30:$AC$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>518</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>457</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>392</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6035,7 +6129,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D6A1-A544-BD0C-B37C8DE8F14B}"/>
+              <c16:uniqueId val="{00000001-25B7-6547-BE27-A4E6C50540E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6079,41 +6173,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$R$28:$AB$28</c:f>
+              <c:f>Leagues!$R$28:$AC$28</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$R$31:$AB$31</c:f>
+              <c:f>Leagues!$R$31:$AC$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>642</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>371</c:v>
+                  <c:v>304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>304</c:v>
+                  <c:v>516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>516</c:v>
+                  <c:v>681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6121,7 +6218,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D6A1-A544-BD0C-B37C8DE8F14B}"/>
+              <c16:uniqueId val="{00000002-25B7-6547-BE27-A4E6C50540E7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6386,44 +6483,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$C$2:$M$2</c:f>
+              <c:f>Leagues!$C$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>W11</c:v>
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$C$3:$M$3</c:f>
+              <c:f>Leagues!$C$3:$N$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2364</c:v>
+                  <c:v>2710</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2710</c:v>
+                  <c:v>3089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3089</c:v>
+                  <c:v>3527</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3527</c:v>
+                  <c:v>3987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6431,7 +6528,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-83B9-3E4B-BBB0-4D3D8ADE22BE}"/>
+              <c16:uniqueId val="{00000000-CE77-9E44-93A7-02E3730EFB36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6475,44 +6572,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$C$2:$M$2</c:f>
+              <c:f>Leagues!$C$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>W11</c:v>
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$C$4:$M$4</c:f>
+              <c:f>Leagues!$C$4:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2225</c:v>
+                  <c:v>2532</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2532</c:v>
+                  <c:v>3031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3031</c:v>
+                  <c:v>3499</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3499</c:v>
+                  <c:v>3910</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6520,7 +6617,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-83B9-3E4B-BBB0-4D3D8ADE22BE}"/>
+              <c16:uniqueId val="{00000001-CE77-9E44-93A7-02E3730EFB36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6533,7 +6630,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Omar</c:v>
+                  <c:v>Chris</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6564,44 +6661,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$C$2:$M$2</c:f>
+              <c:f>Leagues!$C$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>W11</c:v>
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$C$5:$M$5</c:f>
+              <c:f>Leagues!$C$5:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2129</c:v>
+                  <c:v>2432</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2486</c:v>
+                  <c:v>2789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2903</c:v>
+                  <c:v>3067</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3155</c:v>
+                  <c:v>3575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6609,7 +6706,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-83B9-3E4B-BBB0-4D3D8ADE22BE}"/>
+              <c16:uniqueId val="{00000002-CE77-9E44-93A7-02E3730EFB36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6622,7 +6719,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Chris</c:v>
+                  <c:v>Omar</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6653,44 +6750,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$C$2:$M$2</c:f>
+              <c:f>Leagues!$C$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>W11</c:v>
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$C$6:$M$6</c:f>
+              <c:f>Leagues!$C$6:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2110</c:v>
+                  <c:v>2486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2432</c:v>
+                  <c:v>2903</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2789</c:v>
+                  <c:v>3155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3067</c:v>
+                  <c:v>3475</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6698,7 +6795,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-83B9-3E4B-BBB0-4D3D8ADE22BE}"/>
+              <c16:uniqueId val="{00000003-CE77-9E44-93A7-02E3730EFB36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6742,44 +6839,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$C$2:$M$2</c:f>
+              <c:f>Leagues!$C$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>W11</c:v>
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$C$7:$M$7</c:f>
+              <c:f>Leagues!$C$7:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1785</c:v>
+                  <c:v>2154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2154</c:v>
+                  <c:v>2491</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2491</c:v>
+                  <c:v>2741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2741</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6787,7 +6884,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-83B9-3E4B-BBB0-4D3D8ADE22BE}"/>
+              <c16:uniqueId val="{00000004-CE77-9E44-93A7-02E3730EFB36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6831,44 +6928,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$C$2:$M$2</c:f>
+              <c:f>Leagues!$C$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>W11</c:v>
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$C$8:$M$8</c:f>
+              <c:f>Leagues!$C$8:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1533</c:v>
+                  <c:v>1852</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1852</c:v>
+                  <c:v>2161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2161</c:v>
+                  <c:v>2391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2391</c:v>
+                  <c:v>2739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6876,7 +6973,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-83B9-3E4B-BBB0-4D3D8ADE22BE}"/>
+              <c16:uniqueId val="{00000005-CE77-9E44-93A7-02E3730EFB36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6926,44 +7023,44 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Leagues!$C$2:$M$2</c:f>
+              <c:f>Leagues!$C$2:$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>W7</c:v>
+                  <c:v>W8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>W8</c:v>
+                  <c:v>W9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>W9</c:v>
+                  <c:v>W10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>W10</c:v>
+                  <c:v>W11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>W11</c:v>
+                  <c:v>W12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Leagues!$C$9:$M$9</c:f>
+              <c:f>Leagues!$C$9:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1412</c:v>
+                  <c:v>1637</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1637</c:v>
+                  <c:v>1941</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1941</c:v>
+                  <c:v>2198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2198</c:v>
+                  <c:v>2414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6971,7 +7068,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-83B9-3E4B-BBB0-4D3D8ADE22BE}"/>
+              <c16:uniqueId val="{00000006-CE77-9E44-93A7-02E3730EFB36}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7043,8 +7140,8 @@
         <c:axId val="686936415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3600"/>
-          <c:min val="1400"/>
+          <c:max val="4100"/>
+          <c:min val="1600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8776,10 +8873,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:W57"/>
+  <dimension ref="B1:X57"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O27" sqref="O24:O27"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8791,44 +8888,45 @@
     <col min="12" max="15" width="13" style="250" customWidth="1"/>
     <col min="16" max="16" width="13" style="250" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="250" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="250"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="399" t="s">
+    <row r="1" spans="2:24" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:24" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="410" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="399" t="s">
+      <c r="D2" s="410" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="399" t="s">
+      <c r="E2" s="410" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="399" t="s">
+      <c r="F2" s="410" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="399" t="s">
+      <c r="I2" s="410" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="399" t="s">
+      <c r="J2" s="410" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="399" t="s">
+      <c r="K2" s="410" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="399" t="s">
+      <c r="L2" s="410" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="399" t="s">
+      <c r="M2" s="410" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="261" t="s">
@@ -8846,11 +8944,11 @@
       <c r="S2" s="259" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="399" t="s">
+      <c r="T2" s="410" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="47" t="s">
         <v>17</v>
       </c>
@@ -8897,22 +8995,25 @@
         <f>+VLOOKUP($C3,'R10'!$C$3:$H$22,6,)</f>
         <v>15</v>
       </c>
-      <c r="N3" s="37"/>
+      <c r="N3" s="37">
+        <f>+VLOOKUP($C3,'R11'!$C$3:$H$22,6,)</f>
+        <v>25</v>
+      </c>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
       <c r="Q3" s="37">
-        <f t="shared" ref="Q3:Q22" si="0">SUM(D3:P3)</f>
-        <v>205</v>
+        <f>SUM(D3:P3)</f>
+        <v>230</v>
       </c>
       <c r="S3" s="38" t="s">
         <v>17</v>
       </c>
       <c r="T3" s="83">
         <f ca="1">SUMIF($B$3:$Q$22,S3,$Q$3:$Q$22)</f>
-        <v>366</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="48" t="s">
         <v>17</v>
       </c>
@@ -8959,11 +9060,14 @@
         <f>+VLOOKUP($C4,'R10'!$C$3:$H$22,6,)</f>
         <v>26</v>
       </c>
-      <c r="N4" s="27"/>
+      <c r="N4" s="27">
+        <f>+VLOOKUP($C4,'R11'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
       <c r="Q4" s="27">
-        <f t="shared" si="0"/>
+        <f>SUM(D4:P4)</f>
         <v>161</v>
       </c>
       <c r="S4" s="44" t="s">
@@ -8971,10 +9075,10 @@
       </c>
       <c r="T4" s="256">
         <f ca="1">SUMIF($B$3:$Q$22,S4,$Q$3:$Q$22)</f>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B5" s="50" t="s">
         <v>20</v>
       </c>
@@ -9021,270 +9125,279 @@
         <f>+VLOOKUP($C5,'R10'!$C$3:$H$22,6,)</f>
         <v>18</v>
       </c>
-      <c r="N5" s="29"/>
+      <c r="N5" s="29">
+        <f>+VLOOKUP($C5,'R11'!$C$3:$H$22,6,)</f>
+        <v>19</v>
+      </c>
       <c r="O5" s="29"/>
       <c r="P5" s="29"/>
       <c r="Q5" s="29">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="S5" s="39" t="s">
+        <f>SUM(D5:P5)</f>
+        <v>147</v>
+      </c>
+      <c r="S5" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="256">
+        <f ca="1">SUMIF($B$3:$Q$22,S5,$Q$3:$Q$22)-15+$X$16</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="108">
+        <f>+VLOOKUP($C6,'R1'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="108">
+        <f>+VLOOKUP($C6,'R2'!$C$3:$H$22,6,)</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="108">
+        <f>+VLOOKUP($C6,'R3'!$C$3:$H$22,6,)</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="108">
+        <f>+VLOOKUP($C6,'R4'!$C$3:$H$22,6,)</f>
+        <v>12</v>
+      </c>
+      <c r="H6" s="108">
+        <f>+VLOOKUP($C6,'R5'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="108">
+        <f>+VLOOKUP($C6,'R6'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="257">
+        <f>+VLOOKUP($C6,'R7'!$C$3:$H$22,6,)</f>
+        <v>13</v>
+      </c>
+      <c r="K6" s="108">
+        <f>+VLOOKUP($C6,'R8'!$C$3:$H$22,6,)</f>
+        <v>8</v>
+      </c>
+      <c r="L6" s="108">
+        <f>+VLOOKUP($C6,'R9'!$C$3:$H$22,6,)</f>
+        <v>12</v>
+      </c>
+      <c r="M6" s="108">
+        <f>+VLOOKUP($C6,'R10'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
+      <c r="N6" s="32">
+        <f>+VLOOKUP($C6,'R11'!$C$3:$H$22,6,)</f>
+        <v>15</v>
+      </c>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32">
+        <f>SUM(D6:P6)</f>
+        <v>78</v>
+      </c>
+      <c r="S6" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="256">
-        <f ca="1">SUMIF($B$3:$Q$22,S5,$Q$3:$Q$22)</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="224">
-        <f>+VLOOKUP($C6,'R1'!$C$3:$H$22,6,)</f>
-        <v>16</v>
-      </c>
-      <c r="E6" s="265">
-        <f>+VLOOKUP($C6,'R2'!$C$3:$H$22,6,)</f>
+      <c r="T6" s="256">
+        <f ca="1">SUMIF($B$3:$Q$22,S6,$Q$3:$Q$22)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="104">
+        <f>+VLOOKUP($C7,'R1'!$C$3:$H$22,6,)</f>
+        <v>8</v>
+      </c>
+      <c r="E7" s="104">
+        <f>+VLOOKUP($C7,'R2'!$C$3:$H$22,6,)</f>
+        <v>8</v>
+      </c>
+      <c r="F7" s="104">
+        <f>+VLOOKUP($C7,'R3'!$C$3:$H$22,6,)</f>
+        <v>6</v>
+      </c>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104">
+        <f>+VLOOKUP($C7,'R6'!$C$3:$H$22,6,)</f>
         <v>10</v>
       </c>
-      <c r="F6" s="265">
-        <f>+VLOOKUP($C6,'R3'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="265">
-        <f>+VLOOKUP($C6,'R4'!$C$3:$H$22,6,)</f>
+      <c r="J7" s="104">
+        <f>+VLOOKUP($C7,'R7'!$C$3:$H$22,6,)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="104">
+        <f>+VLOOKUP($C7,'R8'!$C$3:$H$22,6,)</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="104">
+        <f>+VLOOKUP($C7,'R9'!$C$3:$H$22,6,)</f>
         <v>10</v>
       </c>
-      <c r="H6" s="265">
-        <f>+VLOOKUP($C6,'R5'!$C$3:$H$22,6,)</f>
-        <v>2</v>
-      </c>
-      <c r="I6" s="265">
-        <f>+VLOOKUP($C6,'R6'!$C$3:$H$22,6,)</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="265">
-        <f>+VLOOKUP($C6,'R7'!$C$3:$H$22,6,)</f>
-        <v>6</v>
-      </c>
-      <c r="K6" s="265">
-        <f>+VLOOKUP($C6,'R8'!$C$3:$H$22,6,)</f>
+      <c r="M7" s="104">
+        <f>+VLOOKUP($C7,'R10'!$C$3:$H$22,6,)</f>
         <v>12</v>
       </c>
-      <c r="L6" s="265">
-        <f>+VLOOKUP($C6,'R9'!$C$3:$H$22,6,)</f>
-        <v>8</v>
-      </c>
-      <c r="M6" s="265">
-        <f>+VLOOKUP($C6,'R10'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="S6" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="256">
-        <f ca="1">SUMIF($B$3:$Q$22,S6,$Q$3:$Q$22)-15+$W$16</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="102">
-        <f>+VLOOKUP($C7,'R1'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="102">
-        <f>+VLOOKUP($C7,'R2'!$C$3:$H$22,6,)</f>
+      <c r="N7" s="31">
+        <f>+VLOOKUP($C7,'R11'!$C$3:$H$22,6,)</f>
         <v>12</v>
       </c>
-      <c r="F7" s="102">
-        <f>+VLOOKUP($C7,'R3'!$C$3:$H$22,6,)</f>
-        <v>10</v>
-      </c>
-      <c r="G7" s="102">
-        <f>+VLOOKUP($C7,'R4'!$C$3:$H$22,6,)</f>
-        <v>4</v>
-      </c>
-      <c r="H7" s="102">
-        <f>+VLOOKUP($C7,'R5'!$C$3:$H$22,6,)</f>
-        <v>10</v>
-      </c>
-      <c r="I7" s="102">
-        <f>+VLOOKUP($C7,'R6'!$C$3:$H$22,6,)</f>
-        <v>4</v>
-      </c>
-      <c r="J7" s="102">
-        <f>+VLOOKUP($C7,'R7'!$C$3:$H$22,6,)</f>
-        <v>8</v>
-      </c>
-      <c r="K7" s="102">
-        <f>+VLOOKUP($C7,'R8'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="102">
-        <f>+VLOOKUP($C7,'R9'!$C$3:$H$22,6,)</f>
-        <v>15</v>
-      </c>
-      <c r="M7" s="102">
-        <f>+VLOOKUP($C7,'R10'!$C$3:$H$22,6,)</f>
-        <v>1</v>
-      </c>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29">
-        <f t="shared" si="0"/>
-        <v>64</v>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31">
+        <f>SUM(D7:P7)</f>
+        <v>68</v>
       </c>
       <c r="S7" s="42" t="s">
         <v>26</v>
       </c>
       <c r="T7" s="256">
-        <f t="shared" ref="T7:T12" ca="1" si="1">SUMIF($B$3:$Q$22,S7,$Q$3:$Q$22)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="104">
+        <f ca="1">SUMIF($B$3:$Q$22,S7,$Q$3:$Q$22)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="224">
         <f>+VLOOKUP($C8,'R1'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="104">
+        <v>16</v>
+      </c>
+      <c r="E8" s="265">
         <f>+VLOOKUP($C8,'R2'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
+      <c r="F8" s="265">
+        <f>+VLOOKUP($C8,'R3'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="265">
+        <f>+VLOOKUP($C8,'R4'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
+      <c r="H8" s="265">
+        <f>+VLOOKUP($C8,'R5'!$C$3:$H$22,6,)</f>
+        <v>2</v>
+      </c>
+      <c r="I8" s="265">
+        <f>+VLOOKUP($C8,'R6'!$C$3:$H$22,6,)</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="265">
+        <f>+VLOOKUP($C8,'R7'!$C$3:$H$22,6,)</f>
         <v>6</v>
       </c>
-      <c r="F8" s="104">
-        <f>+VLOOKUP($C8,'R3'!$C$3:$H$22,6,)</f>
+      <c r="K8" s="265">
+        <f>+VLOOKUP($C8,'R8'!$C$3:$H$22,6,)</f>
         <v>12</v>
       </c>
-      <c r="G8" s="104">
-        <f>+VLOOKUP($C8,'R4'!$C$3:$H$22,6,)</f>
-        <v>2</v>
-      </c>
-      <c r="H8" s="104">
-        <f>+VLOOKUP($C8,'R5'!$C$3:$H$22,6,)</f>
+      <c r="L8" s="265">
+        <f>+VLOOKUP($C8,'R9'!$C$3:$H$22,6,)</f>
         <v>8</v>
       </c>
-      <c r="I8" s="104">
-        <f>+VLOOKUP($C8,'R6'!$C$3:$H$22,6,)</f>
-        <v>12</v>
-      </c>
-      <c r="J8" s="104">
-        <f>+VLOOKUP($C8,'R7'!$C$3:$H$22,6,)</f>
-        <v>2</v>
-      </c>
-      <c r="K8" s="104">
-        <f>+VLOOKUP($C8,'R8'!$C$3:$H$22,6,)</f>
-        <v>15</v>
-      </c>
-      <c r="L8" s="104">
-        <f>+VLOOKUP($C8,'R9'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="104">
+      <c r="M8" s="265">
         <f>+VLOOKUP($C8,'R10'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31">
-        <f t="shared" si="0"/>
-        <v>57</v>
+      <c r="N8" s="30">
+        <f>+VLOOKUP($C8,'R11'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30">
+        <f>SUM(D8:P8)</f>
+        <v>65</v>
       </c>
       <c r="S8" s="40" t="s">
         <v>28</v>
       </c>
       <c r="T8" s="256">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="108">
+        <f ca="1">SUMIF($B$3:$Q$22,S8,$Q$3:$Q$22)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="102">
         <f>+VLOOKUP($C9,'R1'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="108">
+      <c r="E9" s="102">
         <f>+VLOOKUP($C9,'R2'!$C$3:$H$22,6,)</f>
+        <v>12</v>
+      </c>
+      <c r="F9" s="102">
+        <f>+VLOOKUP($C9,'R3'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="102">
+        <f>+VLOOKUP($C9,'R4'!$C$3:$H$22,6,)</f>
         <v>4</v>
       </c>
-      <c r="F9" s="108">
-        <f>+VLOOKUP($C9,'R3'!$C$3:$H$22,6,)</f>
+      <c r="H9" s="102">
+        <f>+VLOOKUP($C9,'R5'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
+      <c r="I9" s="102">
+        <f>+VLOOKUP($C9,'R6'!$C$3:$H$22,6,)</f>
         <v>4</v>
       </c>
-      <c r="G9" s="108">
-        <f>+VLOOKUP($C9,'R4'!$C$3:$H$22,6,)</f>
-        <v>12</v>
-      </c>
-      <c r="H9" s="108">
-        <f>+VLOOKUP($C9,'R5'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="108">
-        <f>+VLOOKUP($C9,'R6'!$C$3:$H$22,6,)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="257">
+      <c r="J9" s="102">
         <f>+VLOOKUP($C9,'R7'!$C$3:$H$22,6,)</f>
-        <v>13</v>
-      </c>
-      <c r="K9" s="108">
+        <v>8</v>
+      </c>
+      <c r="K9" s="102">
         <f>+VLOOKUP($C9,'R8'!$C$3:$H$22,6,)</f>
-        <v>8</v>
-      </c>
-      <c r="L9" s="108">
+        <v>0</v>
+      </c>
+      <c r="L9" s="102">
         <f>+VLOOKUP($C9,'R9'!$C$3:$H$22,6,)</f>
-        <v>12</v>
-      </c>
-      <c r="M9" s="108">
+        <v>15</v>
+      </c>
+      <c r="M9" s="102">
         <f>+VLOOKUP($C9,'R10'!$C$3:$H$22,6,)</f>
-        <v>10</v>
-      </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32">
-        <f t="shared" si="0"/>
-        <v>63</v>
+        <v>1</v>
+      </c>
+      <c r="N9" s="29">
+        <f>+VLOOKUP($C9,'R11'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29">
+        <f>SUM(D9:P9)</f>
+        <v>64</v>
       </c>
       <c r="S9" s="81" t="s">
         <v>30</v>
       </c>
       <c r="T9" s="256">
-        <f t="shared" ca="1" si="1"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+        <f ca="1">SUMIF($B$3:$Q$22,S9,$Q$3:$Q$22)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="49" t="s">
         <v>28</v>
       </c>
@@ -9331,78 +9444,87 @@
         <f>+VLOOKUP($C10,'R10'!$C$3:$H$22,6,)</f>
         <v>8</v>
       </c>
-      <c r="N10" s="28"/>
+      <c r="N10" s="28">
+        <f>+VLOOKUP($C10,'R11'!$C$3:$H$22,6,)</f>
+        <v>6</v>
+      </c>
       <c r="O10" s="28"/>
       <c r="P10" s="28"/>
       <c r="Q10" s="28">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f>SUM(D10:P10)</f>
+        <v>61</v>
       </c>
       <c r="S10" s="43" t="s">
         <v>32</v>
       </c>
       <c r="T10" s="256">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+        <f ca="1">SUMIF($B$3:$Q$22,S10,$Q$3:$Q$22)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D11" s="104">
         <f>+VLOOKUP($C11,'R1'!$C$3:$H$22,6,)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E11" s="104">
         <f>+VLOOKUP($C11,'R2'!$C$3:$H$22,6,)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" s="104">
         <f>+VLOOKUP($C11,'R3'!$C$3:$H$22,6,)</f>
-        <v>6</v>
-      </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
+        <v>12</v>
+      </c>
+      <c r="G11" s="104">
+        <f>+VLOOKUP($C11,'R4'!$C$3:$H$22,6,)</f>
+        <v>2</v>
+      </c>
+      <c r="H11" s="104">
+        <f>+VLOOKUP($C11,'R5'!$C$3:$H$22,6,)</f>
+        <v>8</v>
+      </c>
       <c r="I11" s="104">
         <f>+VLOOKUP($C11,'R6'!$C$3:$H$22,6,)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J11" s="104">
         <f>+VLOOKUP($C11,'R7'!$C$3:$H$22,6,)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" s="104">
         <f>+VLOOKUP($C11,'R8'!$C$3:$H$22,6,)</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="L11" s="104">
         <f>+VLOOKUP($C11,'R9'!$C$3:$H$22,6,)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M11" s="104">
         <f>+VLOOKUP($C11,'R10'!$C$3:$H$22,6,)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31"/>
       <c r="P11" s="31"/>
       <c r="Q11" s="31">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f>SUM(D11:P11)</f>
+        <v>57</v>
       </c>
       <c r="S11" s="45" t="s">
         <v>34</v>
       </c>
       <c r="T11" s="256">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f ca="1">SUMIF($B$3:$Q$22,S11,$Q$3:$Q$22)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="77" t="s">
         <v>30</v>
       </c>
@@ -9449,22 +9571,25 @@
         <f>+VLOOKUP($C12,'R10'!$C$3:$H$22,6,)</f>
         <v>2</v>
       </c>
-      <c r="N12" s="82"/>
+      <c r="N12" s="82">
+        <f>+VLOOKUP($C12,'R11'!$C$3:$H$22,6,)</f>
+        <v>8</v>
+      </c>
       <c r="O12" s="82"/>
       <c r="P12" s="82"/>
       <c r="Q12" s="82">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f>SUM(D12:P12)</f>
+        <v>53</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>36</v>
       </c>
       <c r="T12" s="249">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <f ca="1">SUMIF($B$3:$Q$22,S12,$Q$3:$Q$22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="51" t="s">
         <v>22</v>
       </c>
@@ -9511,15 +9636,18 @@
         <f>+VLOOKUP($C13,'R10'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="30"/>
+      <c r="N13" s="30">
+        <f>+VLOOKUP($C13,'R11'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
       <c r="O13" s="30"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="30">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>SUM(D13:P13)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="53" t="s">
         <v>26</v>
       </c>
@@ -9566,15 +9694,18 @@
         <f>+VLOOKUP($C14,'R10'!$C$3:$H$22,6,)</f>
         <v>6</v>
       </c>
-      <c r="N14" s="32"/>
+      <c r="N14" s="32">
+        <f>+VLOOKUP($C14,'R11'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="32">
-        <f t="shared" si="0"/>
+        <f>SUM(D14:P14)</f>
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="49" t="s">
         <v>28</v>
       </c>
@@ -9621,30 +9752,36 @@
         <f>+VLOOKUP($C15,'R10'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="28"/>
+      <c r="N15" s="28">
+        <f>+VLOOKUP($C15,'R11'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="O15" s="28"/>
       <c r="P15" s="28"/>
       <c r="Q15" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D15:P15)</f>
         <v>17</v>
       </c>
-      <c r="S15" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="T15" s="399" t="s">
+      <c r="S15" s="410" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="U15" s="399" t="s">
+      <c r="U15" s="410" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="399" t="s">
+      <c r="V15" s="410" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="399" t="s">
+      <c r="W15" s="410" t="s">
+        <v>12</v>
+      </c>
+      <c r="X15" s="410" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="77" t="s">
         <v>30</v>
       </c>
@@ -9691,11 +9828,14 @@
         <f>+VLOOKUP($C16,'R10'!$C$3:$H$22,6,)</f>
         <v>4</v>
       </c>
-      <c r="N16" s="82"/>
+      <c r="N16" s="82">
+        <f>+VLOOKUP($C16,'R11'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="O16" s="82"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="82">
-        <f t="shared" si="0"/>
+        <f>SUM(D16:P16)</f>
         <v>14</v>
       </c>
       <c r="S16" s="52" t="s">
@@ -9712,12 +9852,16 @@
         <f>+VLOOKUP(T16,'R5'!C3:H22,6,)</f>
         <v>6</v>
       </c>
-      <c r="W16" s="104">
-        <f>SUM(U16:V16)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="234">
+        <f>+VLOOKUP(T16,'R11'!C3:H22,6,)</f>
+        <v>4</v>
+      </c>
+      <c r="X16" s="104">
+        <f>SUM(U16:W16)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" s="54" t="s">
         <v>32</v>
       </c>
@@ -9764,15 +9908,18 @@
         <f>+VLOOKUP($C17,'R10'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="33"/>
+      <c r="N17" s="33">
+        <f>+VLOOKUP($C17,'R11'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="O17" s="33"/>
       <c r="P17" s="33"/>
       <c r="Q17" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(D17:P17)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18" s="54" t="s">
         <v>32</v>
       </c>
@@ -9819,20 +9966,23 @@
         <f>+VLOOKUP($C18,'R10'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="33"/>
+      <c r="N18" s="33">
+        <f>+VLOOKUP($C18,'R11'!$C$3:$H$22,6,)</f>
+        <v>1</v>
+      </c>
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
       <c r="Q18" s="33">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+        <f>SUM(D18:P18)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B19" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="114">
         <f>+VLOOKUP($C19,'R1'!$C$3:$H$22,6,)</f>
@@ -9844,7 +9994,7 @@
       </c>
       <c r="F19" s="114">
         <f>+VLOOKUP($C19,'R3'!$C$3:$H$22,6,)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="114">
         <f>+VLOOKUP($C19,'R4'!$C$3:$H$22,6,)</f>
@@ -9874,20 +10024,23 @@
         <f>+VLOOKUP($C19,'R10'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="34"/>
+      <c r="N19" s="34">
+        <f>+VLOOKUP($C19,'R11'!$C$3:$H$22,6,)</f>
+        <v>2</v>
+      </c>
       <c r="O19" s="34"/>
       <c r="P19" s="34"/>
       <c r="Q19" s="34">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+        <f>SUM(D19:P19)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B20" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="114">
         <f>+VLOOKUP($C20,'R1'!$C$3:$H$22,6,)</f>
@@ -9899,7 +10052,7 @@
       </c>
       <c r="F20" s="114">
         <f>+VLOOKUP($C20,'R3'!$C$3:$H$22,6,)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="114">
         <f>+VLOOKUP($C20,'R4'!$C$3:$H$22,6,)</f>
@@ -9929,15 +10082,18 @@
         <f>+VLOOKUP($C20,'R10'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="34"/>
+      <c r="N20" s="34">
+        <f>+VLOOKUP($C20,'R11'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="Q20" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+        <f>SUM(D20:P20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B21" s="95" t="s">
         <v>36</v>
       </c>
@@ -9984,15 +10140,18 @@
         <f>+VLOOKUP($C21,'R10'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="35"/>
+      <c r="N21" s="35">
+        <f>+VLOOKUP($C21,'R11'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="O21" s="35"/>
       <c r="P21" s="35"/>
       <c r="Q21" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <f>SUM(D21:P21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="96" t="s">
         <v>36</v>
       </c>
@@ -10039,16 +10198,19 @@
         <f>+VLOOKUP($C22,'R10'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="36"/>
+      <c r="N22" s="36">
+        <f>+VLOOKUP($C22,'R11'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="O22" s="36"/>
       <c r="P22" s="36"/>
       <c r="Q22" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <f>SUM(D22:P22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:23" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -10065,18 +10227,19 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:22" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="2:23" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:23" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:23" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="45" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="46" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="B2:Q22" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:Q22">
-      <sortCondition descending="1" ref="Q2:Q22"/>
+  <autoFilter ref="S2:T12" xr:uid="{ABEDD0A0-B751-1C4B-ADC2-F791E40A1DE6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S3:T12">
+      <sortCondition descending="1" ref="T2:T12"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10099,28 +10262,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="399" t="s">
+      <c r="D2" s="410" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="410" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="399" t="s">
+      <c r="F2" s="410" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="261" t="s">
@@ -10704,13 +10867,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -10722,19 +10885,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="399" t="s">
+      <c r="J2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="399" t="s">
+      <c r="K2" s="410" t="s">
         <v>113</v>
       </c>
     </row>
@@ -11428,28 +11591,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="399" t="s">
+      <c r="D2" s="410" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="410" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="399" t="s">
+      <c r="F2" s="410" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="261" t="s">
@@ -12041,13 +12204,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -12059,19 +12222,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="399" t="s">
+      <c r="J2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="399" t="s">
+      <c r="K2" s="410" t="s">
         <v>113</v>
       </c>
     </row>
@@ -12763,28 +12926,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="399" t="s">
+      <c r="D2" s="410" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="410" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="399" t="s">
+      <c r="F2" s="410" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="261" t="s">
@@ -13362,13 +13525,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -13380,19 +13543,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="399" t="s">
+      <c r="J2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="399" t="s">
+      <c r="K2" s="410" t="s">
         <v>113</v>
       </c>
     </row>
@@ -14082,28 +14245,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="399" t="s">
+      <c r="D2" s="410" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="410" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="399" t="s">
+      <c r="F2" s="410" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="261" t="s">
@@ -14682,13 +14845,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -14700,19 +14863,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="399" t="s">
+      <c r="J2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="399" t="s">
+      <c r="K2" s="410" t="s">
         <v>113</v>
       </c>
     </row>
@@ -15403,28 +15566,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="399" t="s">
+      <c r="D2" s="410" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="410" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="399" t="s">
+      <c r="F2" s="410" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="261" t="s">
@@ -15999,13 +16162,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -16017,19 +16180,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="399" t="s">
+      <c r="J2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="399" t="s">
+      <c r="K2" s="410" t="s">
         <v>113</v>
       </c>
     </row>
@@ -16708,45 +16871,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AH69"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11" style="250" customWidth="1"/>
-    <col min="4" max="9" width="10.83203125" style="250" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="10.83203125" style="250" customWidth="1"/>
+    <col min="4" max="10" width="10.83203125" style="250" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="250" customWidth="1"/>
     <col min="12" max="12" width="11" style="250" customWidth="1"/>
-    <col min="13" max="15" width="13" style="250" customWidth="1"/>
-    <col min="16" max="16" width="13" style="250" hidden="1" customWidth="1"/>
+    <col min="13" max="16" width="13" style="250" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="250" customWidth="1"/>
     <col min="20" max="24" width="13" style="250" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="10.83203125" style="250" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" style="250" customWidth="1"/>
-    <col min="27" max="32" width="13" style="250" customWidth="1"/>
+    <col min="25" max="26" width="10.83203125" style="250" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="250" hidden="1" customWidth="1"/>
+    <col min="28" max="32" width="13" style="250" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="400" t="s">
+      <c r="B2" s="411" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="401"/>
-      <c r="D2" s="401"/>
-      <c r="E2" s="401"/>
-      <c r="F2" s="401"/>
-      <c r="G2" s="401"/>
-      <c r="H2" s="401"/>
-      <c r="I2" s="401"/>
-      <c r="J2" s="401"/>
-      <c r="K2" s="401"/>
-      <c r="L2" s="401"/>
-      <c r="M2" s="401"/>
-      <c r="N2" s="401"/>
-      <c r="O2" s="401"/>
-      <c r="P2" s="401"/>
-      <c r="Q2" s="402"/>
+      <c r="C2" s="412"/>
+      <c r="D2" s="412"/>
+      <c r="E2" s="412"/>
+      <c r="F2" s="412"/>
+      <c r="G2" s="412"/>
+      <c r="H2" s="412"/>
+      <c r="I2" s="412"/>
+      <c r="J2" s="412"/>
+      <c r="K2" s="412"/>
+      <c r="L2" s="412"/>
+      <c r="M2" s="412"/>
+      <c r="N2" s="412"/>
+      <c r="O2" s="412"/>
+      <c r="P2" s="412"/>
+      <c r="Q2" s="413"/>
     </row>
     <row r="3" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="285" t="s">
@@ -16797,7 +16959,7 @@
       <c r="Q3" s="248" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="399" t="s">
+      <c r="S3" s="410" t="s">
         <v>0</v>
       </c>
       <c r="T3" s="261" t="s">
@@ -16895,12 +17057,12 @@
       </c>
       <c r="N4" s="37">
         <f>+VLOOKUP($C4,'R11'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q11'!$B$3:$J$22,9,)</f>
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
       <c r="Q4" s="37">
-        <f t="shared" ref="Q4:Q23" si="0">SUM(D4:M4)</f>
+        <f>SUM(D4:M4)</f>
         <v>414</v>
       </c>
       <c r="S4" s="38" t="s">
@@ -16940,11 +17102,11 @@
       <c r="AE4" s="98"/>
       <c r="AF4" s="98"/>
       <c r="AG4" s="99">
-        <f t="shared" ref="AG4:AG13" si="1">SUM(T4:AC4)</f>
+        <f t="shared" ref="AG4:AG13" si="0">SUM(T4:AC4)</f>
         <v>644</v>
       </c>
       <c r="AH4" s="214">
-        <f t="shared" ref="AH4:AH13" si="2">AG4/COUNT(T4:AF4)</f>
+        <f t="shared" ref="AH4:AH13" si="1">AG4/COUNT(T4:AF4)</f>
         <v>64.400000000000006</v>
       </c>
     </row>
@@ -16997,12 +17159,12 @@
       </c>
       <c r="N5" s="27">
         <f>+VLOOKUP($C5,'R11'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q11'!$B$3:$J$22,9,)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O5" s="27"/>
       <c r="P5" s="27"/>
       <c r="Q5" s="27">
-        <f t="shared" si="0"/>
+        <f>SUM(D5:M5)</f>
         <v>315</v>
       </c>
       <c r="S5" s="44" t="s">
@@ -17042,11 +17204,11 @@
       <c r="AE5" s="101"/>
       <c r="AF5" s="101"/>
       <c r="AG5" s="102">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
+      <c r="AH5" s="216">
         <f t="shared" si="1"/>
-        <v>438</v>
-      </c>
-      <c r="AH5" s="216">
-        <f t="shared" si="2"/>
         <v>43.8</v>
       </c>
     </row>
@@ -17099,12 +17261,12 @@
       </c>
       <c r="N6" s="29">
         <f>+VLOOKUP($C6,'R11'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q11'!$B$3:$J$22,9,)</f>
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="O6" s="29"/>
       <c r="P6" s="29"/>
       <c r="Q6" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(D6:M6)</f>
         <v>278</v>
       </c>
       <c r="S6" s="41" t="s">
@@ -17144,11 +17306,11 @@
       <c r="AE6" s="103"/>
       <c r="AF6" s="103"/>
       <c r="AG6" s="104">
+        <f t="shared" si="0"/>
+        <v>287</v>
+      </c>
+      <c r="AH6" s="217">
         <f t="shared" si="1"/>
-        <v>287</v>
-      </c>
-      <c r="AH6" s="217">
-        <f t="shared" si="2"/>
         <v>28.7</v>
       </c>
     </row>
@@ -17200,12 +17362,12 @@
       </c>
       <c r="N7" s="30">
         <f>+VLOOKUP($C7,'R11'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q11'!$B$3:$J$22,9,)</f>
-        <v>8</v>
+        <v>-7</v>
       </c>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
       <c r="Q7" s="30">
-        <f t="shared" si="0"/>
+        <f>SUM(D7:M7)</f>
         <v>192</v>
       </c>
       <c r="S7" s="39" t="s">
@@ -17245,11 +17407,11 @@
       <c r="AE7" s="100"/>
       <c r="AF7" s="100"/>
       <c r="AG7" s="265">
+        <f t="shared" si="0"/>
+        <v>258</v>
+      </c>
+      <c r="AH7" s="215">
         <f t="shared" si="1"/>
-        <v>258</v>
-      </c>
-      <c r="AH7" s="215">
-        <f t="shared" si="2"/>
         <v>25.8</v>
       </c>
     </row>
@@ -17302,12 +17464,12 @@
       </c>
       <c r="N8" s="32">
         <f>+VLOOKUP($C8,'R11'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q11'!$B$3:$J$22,9,)</f>
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="O8" s="32"/>
       <c r="P8" s="32"/>
       <c r="Q8" s="32">
-        <f t="shared" si="0"/>
+        <f>SUM(D8:M8)</f>
         <v>181</v>
       </c>
       <c r="S8" s="40" t="s">
@@ -17347,11 +17509,11 @@
       <c r="AE8" s="105"/>
       <c r="AF8" s="105"/>
       <c r="AG8" s="106">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+      <c r="AH8" s="218">
         <f t="shared" si="1"/>
-        <v>202</v>
-      </c>
-      <c r="AH8" s="218">
-        <f t="shared" si="2"/>
         <v>20.2</v>
       </c>
     </row>
@@ -17404,12 +17566,12 @@
       </c>
       <c r="N9" s="29">
         <f>+VLOOKUP($C9,'R11'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q11'!$B$3:$J$22,9,)</f>
-        <v>9</v>
+        <v>-6</v>
       </c>
       <c r="O9" s="29"/>
       <c r="P9" s="29"/>
       <c r="Q9" s="29">
-        <f t="shared" si="0"/>
+        <f>SUM(D9:M9)</f>
         <v>165</v>
       </c>
       <c r="S9" s="42" t="s">
@@ -17449,11 +17611,11 @@
       <c r="AE9" s="107"/>
       <c r="AF9" s="107"/>
       <c r="AG9" s="108">
+        <f t="shared" si="0"/>
+        <v>272</v>
+      </c>
+      <c r="AH9" s="219">
         <f t="shared" si="1"/>
-        <v>272</v>
-      </c>
-      <c r="AH9" s="219">
-        <f t="shared" si="2"/>
         <v>27.2</v>
       </c>
     </row>
@@ -17500,12 +17662,12 @@
       </c>
       <c r="N10" s="31">
         <f>+VLOOKUP($C10,'R11'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q11'!$B$3:$J$22,9,)</f>
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
       <c r="Q10" s="31">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:M10)</f>
         <v>158</v>
       </c>
       <c r="S10" s="43" t="s">
@@ -17545,11 +17707,11 @@
       <c r="AE10" s="111"/>
       <c r="AF10" s="111"/>
       <c r="AG10" s="112">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="AH10" s="221">
         <f t="shared" si="1"/>
-        <v>153</v>
-      </c>
-      <c r="AH10" s="221">
-        <f t="shared" si="2"/>
         <v>15.3</v>
       </c>
     </row>
@@ -17604,7 +17766,7 @@
       <c r="O11" s="31"/>
       <c r="P11" s="31"/>
       <c r="Q11" s="31">
-        <f t="shared" si="0"/>
+        <f>SUM(D11:M11)</f>
         <v>135</v>
       </c>
       <c r="S11" s="81" t="s">
@@ -17644,11 +17806,11 @@
       <c r="AE11" s="109"/>
       <c r="AF11" s="109"/>
       <c r="AG11" s="110">
+        <f t="shared" si="0"/>
+        <v>199</v>
+      </c>
+      <c r="AH11" s="220">
         <f t="shared" si="1"/>
-        <v>199</v>
-      </c>
-      <c r="AH11" s="220">
-        <f t="shared" si="2"/>
         <v>19.899999999999999</v>
       </c>
     </row>
@@ -17701,12 +17863,12 @@
       </c>
       <c r="N12" s="28">
         <f>+VLOOKUP($C12,'R11'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q11'!$B$3:$J$22,9,)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D12:M12)</f>
         <v>116</v>
       </c>
       <c r="S12" s="45" t="s">
@@ -17746,11 +17908,11 @@
       <c r="AE12" s="113"/>
       <c r="AF12" s="113"/>
       <c r="AG12" s="114">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="AH12" s="222">
         <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="AH12" s="222">
-        <f t="shared" si="2"/>
         <v>10.1</v>
       </c>
     </row>
@@ -17803,12 +17965,12 @@
       </c>
       <c r="N13" s="82">
         <f>+VLOOKUP($C13,'R11'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q11'!$B$3:$J$22,9,)</f>
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="O13" s="82"/>
       <c r="P13" s="82"/>
       <c r="Q13" s="82">
-        <f t="shared" si="0"/>
+        <f>SUM(D13:M13)</f>
         <v>111</v>
       </c>
       <c r="S13" s="46" t="s">
@@ -17848,11 +18010,11 @@
       <c r="AE13" s="115"/>
       <c r="AF13" s="115"/>
       <c r="AG13" s="116">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="AH13" s="223">
         <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="AH13" s="223">
-        <f t="shared" si="2"/>
         <v>9.6999999999999993</v>
       </c>
     </row>
@@ -17905,12 +18067,12 @@
       </c>
       <c r="N14" s="32">
         <f>+VLOOKUP($C14,'R11'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q11'!$B$3:$J$22,9,)</f>
-        <v>7</v>
+        <v>-8</v>
       </c>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
       <c r="Q14" s="32">
-        <f t="shared" si="0"/>
+        <f>SUM(D14:M14)</f>
         <v>105</v>
       </c>
     </row>
@@ -17963,12 +18125,12 @@
       </c>
       <c r="N15" s="33">
         <f>+VLOOKUP($C15,'R11'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q11'!$B$3:$J$22,9,)</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O15" s="33"/>
       <c r="P15" s="33"/>
       <c r="Q15" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(D15:M15)</f>
         <v>97</v>
       </c>
       <c r="S15" s="238" t="s">
@@ -18036,30 +18198,30 @@
       </c>
       <c r="N16" s="82">
         <f>+VLOOKUP($C16,'R11'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q11'!$B$3:$J$22,9,)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" s="82"/>
       <c r="P16" s="82"/>
       <c r="Q16" s="82">
-        <f t="shared" si="0"/>
+        <f>SUM(D16:M16)</f>
         <v>95</v>
       </c>
-      <c r="S16" s="413" t="s">
+      <c r="S16" s="409" t="s">
         <v>42</v>
       </c>
-      <c r="W16" s="411">
+      <c r="W16" s="407">
         <v>-13</v>
       </c>
-      <c r="X16" s="412">
+      <c r="X16" s="408">
         <v>12</v>
       </c>
-      <c r="AD16" s="411">
-        <f>+VLOOKUP($C11,'R11'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q11'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="AG16" s="411">
-        <f>-SUM(T16:AF16)</f>
-        <v>0</v>
+      <c r="AD16" s="407">
+        <f>+VLOOKUP($S16,'R11'!$C$3:$H$22,5,)+VLOOKUP($S16,'Q11'!$B$3:$J$22,9,)</f>
+        <v>16</v>
+      </c>
+      <c r="AG16" s="407">
+        <f>SUM(T16:AF16)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
@@ -18111,12 +18273,12 @@
       </c>
       <c r="N17" s="30">
         <f>+VLOOKUP($C17,'R11'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q11'!$B$3:$J$22,9,)</f>
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30">
-        <f t="shared" si="0"/>
+        <f>SUM(D17:M17)</f>
         <v>91</v>
       </c>
     </row>
@@ -18169,12 +18331,12 @@
       </c>
       <c r="N18" s="33">
         <f>+VLOOKUP($C18,'R11'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q11'!$B$3:$J$22,9,)</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
       <c r="Q18" s="33">
-        <f t="shared" si="0"/>
+        <f>SUM(D18:M18)</f>
         <v>61</v>
       </c>
     </row>
@@ -18227,128 +18389,128 @@
       </c>
       <c r="N19" s="28">
         <f>+VLOOKUP($C19,'R11'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q11'!$B$3:$J$22,9,)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" s="28"/>
       <c r="P19" s="28"/>
       <c r="Q19" s="28">
-        <f t="shared" si="0"/>
+        <f>SUM(D19:M19)</f>
         <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="35">
+      <c r="B20" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="34">
         <f>+VLOOKUP($C20,'R1'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q1'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="E20" s="35">
+        <v>-11</v>
+      </c>
+      <c r="E20" s="34">
         <f>+VLOOKUP($C20,'R2'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q2'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="F20" s="35">
+        <v>6</v>
+      </c>
+      <c r="F20" s="34">
         <f>+VLOOKUP($C20,'R3'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="G20" s="35">
+        <v>6</v>
+      </c>
+      <c r="G20" s="34">
         <f>+VLOOKUP($C20,'R4'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q4'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="H20" s="35">
+        <v>7</v>
+      </c>
+      <c r="H20" s="34">
         <f>+VLOOKUP($C20,'R5'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q5'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="I20" s="35">
+        <v>5</v>
+      </c>
+      <c r="I20" s="34">
         <f>+VLOOKUP($C20,'R6'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q6'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="J20" s="35">
+        <v>0</v>
+      </c>
+      <c r="J20" s="34">
         <f>+VLOOKUP($C20,'R7'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q7'!$B$3:$J$22,9,)</f>
         <v>11</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="34">
         <f>+VLOOKUP($C20,'R8'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q8'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="L20" s="34">
+        <f>+VLOOKUP($C20,'R9'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q9'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="M20" s="34">
+        <f>+VLOOKUP($C20,'R10'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q10'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="N20" s="34">
+        <f>+VLOOKUP($C20,'R11'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q11'!$B$3:$J$22,9,)</f>
+        <v>17</v>
+      </c>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34">
+        <f>SUM(D20:M20)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="35">
+        <f>+VLOOKUP($C21,'R1'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q1'!$B$3:$J$22,9,)</f>
         <v>15</v>
       </c>
-      <c r="L20" s="35">
-        <f>+VLOOKUP($C20,'R9'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="M20" s="35">
-        <f>+VLOOKUP($C20,'R10'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q10'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="N20" s="35">
-        <f>+VLOOKUP($C20,'R11'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q11'!$B$3:$J$22,9,)</f>
+      <c r="E21" s="35">
+        <f>+VLOOKUP($C21,'R2'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q2'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="F21" s="35">
+        <f>+VLOOKUP($C21,'R3'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q3'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="G21" s="35">
+        <f>+VLOOKUP($C21,'R4'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q4'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="H21" s="35">
+        <f>+VLOOKUP($C21,'R5'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q5'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="34">
-        <f>+VLOOKUP($C21,'R1'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
-      </c>
-      <c r="E21" s="34">
-        <f>+VLOOKUP($C21,'R2'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q2'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="F21" s="34">
-        <f>+VLOOKUP($C21,'R3'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q3'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="G21" s="34">
-        <f>+VLOOKUP($C21,'R4'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q4'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="H21" s="34">
-        <f>+VLOOKUP($C21,'R5'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q5'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="I21" s="34">
+      <c r="I21" s="35">
         <f>+VLOOKUP($C21,'R6'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q6'!$B$3:$J$22,9,)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="34">
+        <v>4</v>
+      </c>
+      <c r="J21" s="35">
         <f>+VLOOKUP($C21,'R7'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q7'!$B$3:$J$22,9,)</f>
         <v>11</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="35">
         <f>+VLOOKUP($C21,'R8'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q8'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="L21" s="35">
+        <f>+VLOOKUP($C21,'R9'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="M21" s="35">
+        <f>+VLOOKUP($C21,'R10'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q10'!$B$3:$J$22,9,)</f>
+        <v>11</v>
+      </c>
+      <c r="N21" s="35">
+        <f>+VLOOKUP($C21,'R11'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q11'!$B$3:$J$22,9,)</f>
         <v>13</v>
       </c>
-      <c r="L21" s="34">
-        <f>+VLOOKUP($C21,'R9'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q9'!$B$3:$J$22,9,)</f>
-        <v>14</v>
-      </c>
-      <c r="M21" s="34">
-        <f>+VLOOKUP($C21,'R10'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q10'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="N21" s="34">
-        <f>+VLOOKUP($C21,'R11'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q11'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34">
-        <f t="shared" si="0"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35">
+        <f>SUM(D21:M21)</f>
         <v>54</v>
       </c>
     </row>
@@ -18401,12 +18563,12 @@
       </c>
       <c r="N22" s="35">
         <f>+VLOOKUP($C22,'R11'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q11'!$B$3:$J$22,9,)</f>
-        <v>3</v>
+        <v>-12</v>
       </c>
       <c r="O22" s="35"/>
       <c r="P22" s="35"/>
       <c r="Q22" s="35">
-        <f t="shared" si="0"/>
+        <f>SUM(D22:M22)</f>
         <v>46</v>
       </c>
     </row>
@@ -18459,41 +18621,41 @@
       </c>
       <c r="N23" s="267">
         <f>+VLOOKUP($C23,'R11'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q11'!$B$3:$J$22,9,)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O23" s="267"/>
       <c r="P23" s="267"/>
       <c r="Q23" s="267">
-        <f t="shared" si="0"/>
+        <f>SUM(D23:M23)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="400" t="s">
+      <c r="B25" s="411" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="401"/>
-      <c r="D25" s="401"/>
-      <c r="E25" s="401"/>
-      <c r="F25" s="401"/>
-      <c r="G25" s="401"/>
-      <c r="H25" s="401"/>
-      <c r="I25" s="401"/>
-      <c r="J25" s="401"/>
-      <c r="K25" s="401"/>
-      <c r="L25" s="401"/>
-      <c r="M25" s="401"/>
-      <c r="N25" s="401"/>
-      <c r="O25" s="401"/>
-      <c r="P25" s="401"/>
-      <c r="Q25" s="402"/>
+      <c r="C25" s="412"/>
+      <c r="D25" s="412"/>
+      <c r="E25" s="412"/>
+      <c r="F25" s="412"/>
+      <c r="G25" s="412"/>
+      <c r="H25" s="412"/>
+      <c r="I25" s="412"/>
+      <c r="J25" s="412"/>
+      <c r="K25" s="412"/>
+      <c r="L25" s="412"/>
+      <c r="M25" s="412"/>
+      <c r="N25" s="412"/>
+      <c r="O25" s="412"/>
+      <c r="P25" s="412"/>
+      <c r="Q25" s="413"/>
     </row>
     <row r="26" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="399" t="s">
+      <c r="C26" s="410" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="261" t="s">
@@ -18593,240 +18755,240 @@
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="37">
-        <f t="shared" ref="Q27:Q46" si="3">SUM(D27:M27)</f>
+        <f>SUM(D27:M27)</f>
         <v>149</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="29">
+        <f>+VLOOKUP($C28,'Q1'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="E28" s="29">
+        <f>+VLOOKUP($C28,'Q2'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="F28" s="29">
+        <f>+VLOOKUP($C28,'Q3'!$B$3:$J$22,9,)</f>
+        <v>9</v>
+      </c>
+      <c r="G28" s="29">
+        <f>+VLOOKUP($C28,'Q4'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="H28" s="29">
+        <f>+VLOOKUP($C28,'Q5'!$B$3:$J$22,9,)</f>
         <v>17</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="I28" s="29">
+        <f>+VLOOKUP($C28,'Q6'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="J28" s="29">
+        <f>+VLOOKUP($C28,'Q7'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="K28" s="29">
+        <f>+VLOOKUP($C28,'Q8'!$B$3:$J$22,9,)</f>
+        <v>11</v>
+      </c>
+      <c r="L28" s="29">
+        <f>+VLOOKUP($C28,'Q9'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="M28" s="29">
+        <f>+VLOOKUP($C28,'Q10'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="N28" s="29">
+        <f>+VLOOKUP($C28,'Q11'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29">
+        <f>SUM(D28:M28)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="27">
-        <f>+VLOOKUP($C28,'Q1'!$B$3:$J$22,9,)</f>
+      <c r="D29" s="27">
+        <f>+VLOOKUP($C29,'Q1'!$B$3:$J$22,9,)</f>
         <v>15</v>
       </c>
-      <c r="E28" s="27">
-        <f>+VLOOKUP($C28,'Q2'!$B$3:$J$22,9,)</f>
+      <c r="E29" s="27">
+        <f>+VLOOKUP($C29,'Q2'!$B$3:$J$22,9,)</f>
         <v>10</v>
       </c>
-      <c r="F28" s="27">
-        <f>+VLOOKUP($C28,'Q3'!$B$3:$J$22,9,)</f>
+      <c r="F29" s="27">
+        <f>+VLOOKUP($C29,'Q3'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="G28" s="27">
-        <f>+VLOOKUP($C28,'Q4'!$B$3:$J$22,9,)</f>
+      <c r="G29" s="27">
+        <f>+VLOOKUP($C29,'Q4'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="H28" s="27">
-        <f>+VLOOKUP($C28,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="H29" s="27">
+        <f>+VLOOKUP($C29,'Q5'!$B$3:$J$22,9,)</f>
         <v>20</v>
       </c>
-      <c r="I28" s="27">
-        <f>+VLOOKUP($C28,'Q6'!$B$3:$J$22,9,)</f>
+      <c r="I29" s="27">
+        <f>+VLOOKUP($C29,'Q6'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="J28" s="27">
-        <f>+VLOOKUP($C28,'Q7'!$B$3:$J$22,9,)</f>
+      <c r="J29" s="27">
+        <f>+VLOOKUP($C29,'Q7'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="K28" s="27">
-        <f>+VLOOKUP($C28,'Q8'!$B$3:$J$22,9,)</f>
+      <c r="K29" s="27">
+        <f>+VLOOKUP($C29,'Q8'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="L28" s="27">
-        <f>+VLOOKUP($C28,'Q9'!$B$3:$J$22,9,)</f>
+      <c r="L29" s="27">
+        <f>+VLOOKUP($C29,'Q9'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="M28" s="27">
-        <f>+VLOOKUP($C28,'Q10'!$B$3:$J$22,9,)</f>
+      <c r="M29" s="27">
+        <f>+VLOOKUP($C29,'Q10'!$B$3:$J$22,9,)</f>
         <v>11</v>
       </c>
-      <c r="N28" s="27">
-        <f>+VLOOKUP($C28,'Q11'!$B$3:$J$22,9,)</f>
+      <c r="N29" s="27">
+        <f>+VLOOKUP($C29,'Q11'!$B$3:$J$22,9,)</f>
         <v>15</v>
       </c>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27">
-        <f t="shared" si="3"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27">
+        <f>SUM(D29:M29)</f>
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="29">
-        <f>+VLOOKUP($C29,'Q1'!$B$3:$J$22,9,)</f>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="30">
+        <f>+VLOOKUP($C30,'Q1'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="E30" s="30">
+        <f>+VLOOKUP($C30,'Q2'!$B$3:$J$22,9,)</f>
         <v>13</v>
       </c>
-      <c r="E29" s="29">
-        <f>+VLOOKUP($C29,'Q2'!$B$3:$J$22,9,)</f>
-        <v>14</v>
-      </c>
-      <c r="F29" s="29">
-        <f>+VLOOKUP($C29,'Q3'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="G29" s="29">
-        <f>+VLOOKUP($C29,'Q4'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="H29" s="29">
-        <f>+VLOOKUP($C29,'Q5'!$B$3:$J$22,9,)</f>
-        <v>17</v>
-      </c>
-      <c r="I29" s="29">
-        <f>+VLOOKUP($C29,'Q6'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="J29" s="29">
-        <f>+VLOOKUP($C29,'Q7'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="K29" s="29">
-        <f>+VLOOKUP($C29,'Q8'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="L29" s="29">
-        <f>+VLOOKUP($C29,'Q9'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="M29" s="29">
-        <f>+VLOOKUP($C29,'Q10'!$B$3:$J$22,9,)</f>
-        <v>14</v>
-      </c>
-      <c r="N29" s="29">
-        <f>+VLOOKUP($C29,'Q11'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="31">
-        <f>+VLOOKUP($C30,'Q1'!$B$3:$J$22,9,)</f>
+      <c r="F30" s="30">
+        <f>+VLOOKUP($C30,'Q3'!$B$3:$J$22,9,)</f>
         <v>5</v>
       </c>
-      <c r="E30" s="31">
-        <f>+VLOOKUP($C30,'Q2'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="F30" s="31">
-        <f>+VLOOKUP($C30,'Q3'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="G30" s="31">
+      <c r="G30" s="30">
         <f>+VLOOKUP($C30,'Q4'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="H30" s="31">
+        <v>7</v>
+      </c>
+      <c r="H30" s="30">
         <f>+VLOOKUP($C30,'Q5'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="I30" s="31">
+        <v>2</v>
+      </c>
+      <c r="I30" s="30">
         <f>+VLOOKUP($C30,'Q6'!$B$3:$J$22,9,)</f>
         <v>9</v>
       </c>
-      <c r="J30" s="31">
+      <c r="J30" s="30">
         <f>+VLOOKUP($C30,'Q7'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="K30" s="31">
+        <v>9</v>
+      </c>
+      <c r="K30" s="30">
         <f>+VLOOKUP($C30,'Q8'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="L30" s="31">
+        <v>13</v>
+      </c>
+      <c r="L30" s="30">
         <f>+VLOOKUP($C30,'Q9'!$B$3:$J$22,9,)</f>
         <v>7</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="30">
         <f>+VLOOKUP($C30,'Q10'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="N30" s="31">
+        <v>10</v>
+      </c>
+      <c r="N30" s="30">
         <f>+VLOOKUP($C30,'Q11'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31">
-        <f t="shared" si="3"/>
-        <v>74</v>
+        <v>4</v>
+      </c>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30">
+        <f>SUM(D30:M30)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="30">
+      <c r="B31" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="32">
         <f>+VLOOKUP($C31,'Q1'!$B$3:$J$22,9,)</f>
         <v>6</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="32">
         <f>+VLOOKUP($C31,'Q2'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="F31" s="30">
+        <v>5</v>
+      </c>
+      <c r="F31" s="32">
         <f>+VLOOKUP($C31,'Q3'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="G31" s="30">
+        <v>4</v>
+      </c>
+      <c r="G31" s="32">
         <f>+VLOOKUP($C31,'Q4'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="H31" s="30">
+        <v>8</v>
+      </c>
+      <c r="H31" s="32">
         <f>+VLOOKUP($C31,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I31" s="30">
+        <v>11</v>
+      </c>
+      <c r="I31" s="32">
         <f>+VLOOKUP($C31,'Q6'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="J31" s="32">
+        <f>+VLOOKUP($C31,'Q7'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="K31" s="32">
+        <f>+VLOOKUP($C31,'Q8'!$B$3:$J$22,9,)</f>
         <v>9</v>
       </c>
-      <c r="J31" s="30">
-        <f>+VLOOKUP($C31,'Q7'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="K31" s="30">
-        <f>+VLOOKUP($C31,'Q8'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="L31" s="30">
+      <c r="L31" s="32">
         <f>+VLOOKUP($C31,'Q9'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="M31" s="30">
+        <v>8</v>
+      </c>
+      <c r="M31" s="32">
         <f>+VLOOKUP($C31,'Q10'!$B$3:$J$22,9,)</f>
+        <v>11</v>
+      </c>
+      <c r="N31" s="32">
+        <f>+VLOOKUP($C31,'Q11'!$B$3:$J$22,9,)</f>
         <v>10</v>
       </c>
-      <c r="N31" s="30">
-        <f>+VLOOKUP($C31,'Q11'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30">
-        <f t="shared" si="3"/>
-        <v>81</v>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32">
+        <f>SUM(D31:M31)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
@@ -18883,176 +19045,173 @@
       <c r="O32" s="30"/>
       <c r="P32" s="30"/>
       <c r="Q32" s="30">
-        <f t="shared" si="3"/>
+        <f>SUM(D32:M32)</f>
         <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="85" t="s">
+      <c r="B33" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="31">
+        <f>+VLOOKUP($C33,'Q1'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="E33" s="31">
+        <f>+VLOOKUP($C33,'Q2'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
+      <c r="F33" s="31">
+        <f>+VLOOKUP($C33,'Q3'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31">
+        <f>+VLOOKUP($C33,'Q6'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="J33" s="31">
+        <f>+VLOOKUP($C33,'Q7'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="K33" s="31">
+        <f>+VLOOKUP($C33,'Q8'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="L33" s="31">
+        <f>+VLOOKUP($C33,'Q9'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="M33" s="31">
+        <f>+VLOOKUP($C33,'Q10'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="N33" s="31">
+        <f>+VLOOKUP($C33,'Q11'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31">
+        <f>SUM(D33:M33)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="31">
+        <f>+VLOOKUP($C34,'Q1'!$B$3:$J$22,9,)</f>
+        <v>5</v>
+      </c>
+      <c r="E34" s="31">
+        <f>+VLOOKUP($C34,'Q2'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="F34" s="31">
+        <f>+VLOOKUP($C34,'Q3'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="G34" s="31">
+        <f>+VLOOKUP($C34,'Q4'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="H34" s="31">
+        <f>+VLOOKUP($C34,'Q5'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="I34" s="31">
+        <f>+VLOOKUP($C34,'Q6'!$B$3:$J$22,9,)</f>
+        <v>9</v>
+      </c>
+      <c r="J34" s="31">
+        <f>+VLOOKUP($C34,'Q7'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="K34" s="31">
+        <f>+VLOOKUP($C34,'Q8'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="L34" s="31">
+        <f>+VLOOKUP($C34,'Q9'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
+      <c r="M34" s="31">
+        <f>+VLOOKUP($C34,'Q10'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31">
+        <f>SUM(D34:M34)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C35" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="28">
-        <f>+VLOOKUP($C33,'Q1'!$B$3:$J$22,9,)</f>
+      <c r="D35" s="28">
+        <f>+VLOOKUP($C35,'Q1'!$B$3:$J$22,9,)</f>
         <v>9</v>
       </c>
-      <c r="E33" s="28">
-        <f>+VLOOKUP($C33,'Q2'!$B$3:$J$22,9,)</f>
+      <c r="E35" s="28">
+        <f>+VLOOKUP($C35,'Q2'!$B$3:$J$22,9,)</f>
         <v>2</v>
       </c>
-      <c r="F33" s="28">
-        <f>+VLOOKUP($C33,'Q3'!$B$3:$J$22,9,)</f>
+      <c r="F35" s="28">
+        <f>+VLOOKUP($C35,'Q3'!$B$3:$J$22,9,)</f>
         <v>8</v>
       </c>
-      <c r="G33" s="28">
-        <f>+VLOOKUP($C33,'Q4'!$B$3:$J$22,9,)</f>
+      <c r="G35" s="28">
+        <f>+VLOOKUP($C35,'Q4'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="H33" s="28">
-        <f>+VLOOKUP($C33,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="H35" s="28">
+        <f>+VLOOKUP($C35,'Q5'!$B$3:$J$22,9,)</f>
         <v>8</v>
       </c>
-      <c r="I33" s="28">
-        <f>+VLOOKUP($C33,'Q6'!$B$3:$J$22,9,)</f>
+      <c r="I35" s="28">
+        <f>+VLOOKUP($C35,'Q6'!$B$3:$J$22,9,)</f>
         <v>7</v>
       </c>
-      <c r="J33" s="28">
-        <f>+VLOOKUP($C33,'Q7'!$B$3:$J$22,9,)</f>
+      <c r="J35" s="28">
+        <f>+VLOOKUP($C35,'Q7'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="K33" s="28">
-        <f>+VLOOKUP($C33,'Q8'!$B$3:$J$22,9,)</f>
+      <c r="K35" s="28">
+        <f>+VLOOKUP($C35,'Q8'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="L33" s="28">
-        <f>+VLOOKUP($C33,'Q9'!$B$3:$J$22,9,)</f>
+      <c r="L35" s="28">
+        <f>+VLOOKUP($C35,'Q9'!$B$3:$J$22,9,)</f>
         <v>11</v>
       </c>
-      <c r="M33" s="28">
-        <f>+VLOOKUP($C33,'Q10'!$B$3:$J$22,9,)</f>
+      <c r="M35" s="28">
+        <f>+VLOOKUP($C35,'Q10'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="N33" s="28">
-        <f>+VLOOKUP($C33,'Q11'!$B$3:$J$22,9,)</f>
+      <c r="N35" s="28">
+        <f>+VLOOKUP($C35,'Q11'!$B$3:$J$22,9,)</f>
         <v>12</v>
       </c>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28">
-        <f t="shared" si="3"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28">
+        <f>SUM(D35:M35)</f>
         <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="32">
-        <f>+VLOOKUP($C34,'Q1'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="E34" s="32">
-        <f>+VLOOKUP($C34,'Q2'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="F34" s="32">
-        <f>+VLOOKUP($C34,'Q3'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="G34" s="32">
-        <f>+VLOOKUP($C34,'Q4'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="H34" s="32">
-        <f>+VLOOKUP($C34,'Q5'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="I34" s="32">
-        <f>+VLOOKUP($C34,'Q6'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="J34" s="32">
-        <f>+VLOOKUP($C34,'Q7'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="K34" s="32">
-        <f>+VLOOKUP($C34,'Q8'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="L34" s="32">
-        <f>+VLOOKUP($C34,'Q9'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="M34" s="32">
-        <f>+VLOOKUP($C34,'Q10'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="N34" s="32">
-        <f>+VLOOKUP($C34,'Q11'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="31">
-        <f>+VLOOKUP($C35,'Q1'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="E35" s="31">
-        <f>+VLOOKUP($C35,'Q2'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="F35" s="31">
-        <f>+VLOOKUP($C35,'Q3'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31">
-        <f>+VLOOKUP($C35,'Q6'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="J35" s="31">
-        <f>+VLOOKUP($C35,'Q7'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="K35" s="31">
-        <f>+VLOOKUP($C35,'Q8'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="L35" s="31">
-        <f>+VLOOKUP($C35,'Q9'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="M35" s="31">
-        <f>+VLOOKUP($C35,'Q10'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="N35" s="31">
-        <f>+VLOOKUP($C35,'Q11'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31">
-        <f t="shared" si="3"/>
-        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -19109,7 +19268,7 @@
       <c r="O36" s="29"/>
       <c r="P36" s="29"/>
       <c r="Q36" s="29">
-        <f t="shared" si="3"/>
+        <f>SUM(D36:M36)</f>
         <v>61</v>
       </c>
     </row>
@@ -19167,7 +19326,7 @@
       <c r="O37" s="82"/>
       <c r="P37" s="82"/>
       <c r="Q37" s="82">
-        <f t="shared" si="3"/>
+        <f>SUM(D37:M37)</f>
         <v>53</v>
       </c>
     </row>
@@ -19225,124 +19384,124 @@
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32">
-        <f t="shared" si="3"/>
+        <f>SUM(D38:M38)</f>
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="28">
+      <c r="B39" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="35">
         <f>+VLOOKUP($C39,'Q1'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="E39" s="28">
+        <v>3</v>
+      </c>
+      <c r="E39" s="35">
         <f>+VLOOKUP($C39,'Q2'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="F39" s="28">
+        <v>4</v>
+      </c>
+      <c r="F39" s="35">
         <f>+VLOOKUP($C39,'Q3'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="G39" s="28">
+        <v>4</v>
+      </c>
+      <c r="G39" s="35">
         <f>+VLOOKUP($C39,'Q4'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="H39" s="28">
+      <c r="H39" s="35">
         <f>+VLOOKUP($C39,'Q5'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="I39" s="35">
+        <f>+VLOOKUP($C39,'Q6'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="J39" s="35">
+        <f>+VLOOKUP($C39,'Q7'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="K39" s="35">
+        <f>+VLOOKUP($C39,'Q8'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="L39" s="35">
+        <f>+VLOOKUP($C39,'Q9'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="M39" s="35">
+        <f>+VLOOKUP($C39,'Q10'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="N39" s="35">
+        <f>+VLOOKUP($C39,'Q11'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35">
+        <f>SUM(D39:M39)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="28">
+        <f>+VLOOKUP($C40,'Q1'!$B$3:$J$22,9,)</f>
         <v>2</v>
       </c>
-      <c r="I39" s="28">
-        <f>+VLOOKUP($C39,'Q6'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="J39" s="28">
-        <f>+VLOOKUP($C39,'Q7'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="K39" s="28">
-        <f>+VLOOKUP($C39,'Q8'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="L39" s="28">
-        <f>+VLOOKUP($C39,'Q9'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="M39" s="28">
-        <f>+VLOOKUP($C39,'Q10'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="N39" s="28">
-        <f>+VLOOKUP($C39,'Q11'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28">
-        <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="35">
-        <f>+VLOOKUP($C40,'Q1'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="E40" s="35">
+      <c r="E40" s="28">
         <f>+VLOOKUP($C40,'Q2'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="F40" s="35">
+        <v>6</v>
+      </c>
+      <c r="F40" s="28">
         <f>+VLOOKUP($C40,'Q3'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="G40" s="35">
+        <v>11</v>
+      </c>
+      <c r="G40" s="28">
         <f>+VLOOKUP($C40,'Q4'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="H40" s="35">
+      <c r="H40" s="28">
         <f>+VLOOKUP($C40,'Q5'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="I40" s="35">
+        <v>2</v>
+      </c>
+      <c r="I40" s="28">
         <f>+VLOOKUP($C40,'Q6'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="J40" s="35">
+        <v>2</v>
+      </c>
+      <c r="J40" s="28">
         <f>+VLOOKUP($C40,'Q7'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="K40" s="35">
+        <v>2</v>
+      </c>
+      <c r="K40" s="28">
         <f>+VLOOKUP($C40,'Q8'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="L40" s="35">
+        <v>1</v>
+      </c>
+      <c r="L40" s="28">
         <f>+VLOOKUP($C40,'Q9'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="M40" s="35">
+        <v>2</v>
+      </c>
+      <c r="M40" s="28">
         <f>+VLOOKUP($C40,'Q10'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="N40" s="35">
+        <v>2</v>
+      </c>
+      <c r="N40" s="28">
         <f>+VLOOKUP($C40,'Q11'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35">
-        <f t="shared" si="3"/>
-        <v>36</v>
+        <v>2</v>
+      </c>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28">
+        <f>SUM(D40:M40)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
@@ -19399,7 +19558,7 @@
       <c r="O41" s="33"/>
       <c r="P41" s="33"/>
       <c r="Q41" s="33">
-        <f t="shared" si="3"/>
+        <f>SUM(D41:M41)</f>
         <v>23</v>
       </c>
     </row>
@@ -19457,182 +19616,182 @@
       <c r="O42" s="34"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="34">
-        <f t="shared" si="3"/>
+        <f>SUM(D42:M42)</f>
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="34">
+      <c r="B43" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="82">
         <f>+VLOOKUP($C43,'Q1'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="E43" s="34">
+        <v>2</v>
+      </c>
+      <c r="E43" s="82">
         <f>+VLOOKUP($C43,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-5</v>
-      </c>
-      <c r="F43" s="34">
+        <v>2</v>
+      </c>
+      <c r="F43" s="82">
         <f>+VLOOKUP($C43,'Q3'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="G43" s="34">
+      <c r="G43" s="82">
         <f>+VLOOKUP($C43,'Q4'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="H43" s="82">
+        <f>+VLOOKUP($C43,'Q5'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="H43" s="34">
-        <f>+VLOOKUP($C43,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="I43" s="82">
+        <f>+VLOOKUP($C43,'Q6'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="J43" s="82">
+        <f>+VLOOKUP($C43,'Q7'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="I43" s="34">
-        <f>+VLOOKUP($C43,'Q6'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="J43" s="34">
-        <f>+VLOOKUP($C43,'Q7'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="K43" s="34">
+      <c r="K43" s="82">
         <f>+VLOOKUP($C43,'Q8'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="L43" s="34">
+        <v>2</v>
+      </c>
+      <c r="L43" s="82">
         <f>+VLOOKUP($C43,'Q9'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="M43" s="34">
+      <c r="M43" s="82">
         <f>+VLOOKUP($C43,'Q10'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="N43" s="82">
+        <f>+VLOOKUP($C43,'Q11'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82">
+        <f>SUM(D43:M43)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="33">
+        <f>+VLOOKUP($C44,'Q1'!$B$3:$J$22,9,)</f>
         <v>3</v>
       </c>
-      <c r="N43" s="34">
-        <f>+VLOOKUP($C43,'Q11'!$B$3:$J$22,9,)</f>
+      <c r="E44" s="33">
+        <f>+VLOOKUP($C44,'Q2'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="82">
-        <f>+VLOOKUP($C44,'Q1'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="E44" s="82">
-        <f>+VLOOKUP($C44,'Q2'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="F44" s="82">
+      <c r="F44" s="33">
         <f>+VLOOKUP($C44,'Q3'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="G44" s="33">
+        <f>+VLOOKUP($C44,'Q4'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="H44" s="33">
+        <f>+VLOOKUP($C44,'Q5'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="I44" s="33">
+        <f>+VLOOKUP($C44,'Q6'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="G44" s="82">
-        <f>+VLOOKUP($C44,'Q4'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="H44" s="82">
-        <f>+VLOOKUP($C44,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="J44" s="33">
+        <f>+VLOOKUP($C44,'Q7'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="I44" s="82">
-        <f>+VLOOKUP($C44,'Q6'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="J44" s="82">
-        <f>+VLOOKUP($C44,'Q7'!$B$3:$J$22,9,)</f>
+      <c r="K44" s="33">
+        <f>+VLOOKUP($C44,'Q8'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
+      <c r="L44" s="33">
+        <f>+VLOOKUP($C44,'Q9'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
+      <c r="M44" s="33">
+        <f>+VLOOKUP($C44,'Q10'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="N44" s="33">
+        <f>+VLOOKUP($C44,'Q11'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33">
+        <f>SUM(D44:M44)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45" s="34">
+        <f>+VLOOKUP($C45,'Q1'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="K44" s="82">
-        <f>+VLOOKUP($C44,'Q8'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="L44" s="82">
-        <f>+VLOOKUP($C44,'Q9'!$B$3:$J$22,9,)</f>
+      <c r="E45" s="34">
+        <f>+VLOOKUP($C45,'Q2'!$B$3:$J$22,9,)</f>
+        <v>-5</v>
+      </c>
+      <c r="F45" s="34">
+        <f>+VLOOKUP($C45,'Q3'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
+      <c r="G45" s="34">
+        <f>+VLOOKUP($C45,'Q4'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="34">
+        <f>+VLOOKUP($C45,'Q5'!$B$3:$J$22,9,)</f>
         <v>4</v>
       </c>
-      <c r="M44" s="82">
-        <f>+VLOOKUP($C44,'Q10'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="N44" s="82">
-        <f>+VLOOKUP($C44,'Q11'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="O44" s="82"/>
-      <c r="P44" s="82"/>
-      <c r="Q44" s="82">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="33">
-        <f>+VLOOKUP($C45,'Q1'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="E45" s="33">
-        <f>+VLOOKUP($C45,'Q2'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="F45" s="33">
-        <f>+VLOOKUP($C45,'Q3'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="G45" s="33">
-        <f>+VLOOKUP($C45,'Q4'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="H45" s="33">
-        <f>+VLOOKUP($C45,'Q5'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="I45" s="33">
+      <c r="I45" s="34">
         <f>+VLOOKUP($C45,'Q6'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="J45" s="33">
+      <c r="J45" s="34">
         <f>+VLOOKUP($C45,'Q7'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="K45" s="33">
+        <v>3</v>
+      </c>
+      <c r="K45" s="34">
         <f>+VLOOKUP($C45,'Q8'!$B$3:$J$22,9,)</f>
         <v>1</v>
       </c>
-      <c r="L45" s="33">
+      <c r="L45" s="34">
         <f>+VLOOKUP($C45,'Q9'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="M45" s="33">
+        <v>4</v>
+      </c>
+      <c r="M45" s="34">
         <f>+VLOOKUP($C45,'Q10'!$B$3:$J$22,9,)</f>
         <v>3</v>
       </c>
-      <c r="N45" s="33">
+      <c r="N45" s="34">
         <f>+VLOOKUP($C45,'Q11'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34">
+        <f>SUM(D45:M45)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -19689,36 +19848,36 @@
       <c r="O46" s="36"/>
       <c r="P46" s="36"/>
       <c r="Q46" s="36">
-        <f t="shared" si="3"/>
+        <f>SUM(D46:M46)</f>
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="400" t="s">
+      <c r="B48" s="411" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="401"/>
-      <c r="D48" s="401"/>
-      <c r="E48" s="401"/>
-      <c r="F48" s="401"/>
-      <c r="G48" s="401"/>
-      <c r="H48" s="401"/>
-      <c r="I48" s="401"/>
-      <c r="J48" s="401"/>
-      <c r="K48" s="401"/>
-      <c r="L48" s="401"/>
-      <c r="M48" s="401"/>
-      <c r="N48" s="401"/>
-      <c r="O48" s="401"/>
-      <c r="P48" s="401"/>
-      <c r="Q48" s="402"/>
+      <c r="C48" s="412"/>
+      <c r="D48" s="412"/>
+      <c r="E48" s="412"/>
+      <c r="F48" s="412"/>
+      <c r="G48" s="412"/>
+      <c r="H48" s="412"/>
+      <c r="I48" s="412"/>
+      <c r="J48" s="412"/>
+      <c r="K48" s="412"/>
+      <c r="L48" s="412"/>
+      <c r="M48" s="412"/>
+      <c r="N48" s="412"/>
+      <c r="O48" s="412"/>
+      <c r="P48" s="412"/>
+      <c r="Q48" s="413"/>
     </row>
     <row r="49" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="399" t="s">
+      <c r="C49" s="410" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="261" t="s">
@@ -19813,129 +19972,129 @@
       </c>
       <c r="N50" s="37">
         <f>+VLOOKUP($C50,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O50" s="37"/>
       <c r="P50" s="37"/>
       <c r="Q50" s="37">
-        <f t="shared" ref="Q50:Q69" si="4">SUM(C50:M50)</f>
+        <f>SUM(C50:M50)</f>
         <v>265</v>
       </c>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B51" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="29">
+      <c r="B51" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="27">
         <f>+VLOOKUP($C51,'R1'!$C$3:$H$22,5,)</f>
-        <v>-15</v>
-      </c>
-      <c r="E51" s="29">
+        <v>29</v>
+      </c>
+      <c r="E51" s="27">
         <f>+VLOOKUP($C51,'R2'!$C$3:$H$22,5,)</f>
-        <v>17</v>
-      </c>
-      <c r="F51" s="29">
+        <v>23</v>
+      </c>
+      <c r="F51" s="27">
         <f>+VLOOKUP($C51,'R3'!$C$3:$H$22,5,)</f>
-        <v>32</v>
-      </c>
-      <c r="G51" s="29">
+        <v>14</v>
+      </c>
+      <c r="G51" s="27">
         <f>+VLOOKUP($C51,'R4'!$C$3:$H$22,5,)</f>
-        <v>29</v>
-      </c>
-      <c r="H51" s="29">
+        <v>-9</v>
+      </c>
+      <c r="H51" s="27">
         <f>+VLOOKUP($C51,'R5'!$C$3:$H$22,5,)</f>
-        <v>35</v>
-      </c>
-      <c r="I51" s="29">
+        <v>12</v>
+      </c>
+      <c r="I51" s="27">
         <f>+VLOOKUP($C51,'R6'!$C$3:$H$22,5,)</f>
-        <v>34</v>
-      </c>
-      <c r="J51" s="29">
+        <v>19</v>
+      </c>
+      <c r="J51" s="27">
         <f>+VLOOKUP($C51,'R7'!$C$3:$H$22,5,)</f>
         <v>19</v>
       </c>
-      <c r="K51" s="29">
+      <c r="K51" s="27">
         <f>+VLOOKUP($C51,'R8'!$C$3:$H$22,5,)</f>
+        <v>8</v>
+      </c>
+      <c r="L51" s="27">
+        <f>+VLOOKUP($C51,'R9'!$C$3:$H$22,5,)</f>
+        <v>29</v>
+      </c>
+      <c r="M51" s="27">
+        <f>+VLOOKUP($C51,'R10'!$C$3:$H$22,5,)</f>
+        <v>43</v>
+      </c>
+      <c r="N51" s="27">
+        <f>+VLOOKUP($C51,'R11'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="L51" s="29">
-        <f>+VLOOKUP($C51,'R9'!$C$3:$H$22,5,)</f>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27">
+        <f>SUM(C51:M51)</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="29">
+        <f>+VLOOKUP($C52,'R1'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="M51" s="29">
-        <f>+VLOOKUP($C51,'R10'!$C$3:$H$22,5,)</f>
-        <v>27</v>
-      </c>
-      <c r="N51" s="29">
-        <f>+VLOOKUP($C51,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29">
-        <f t="shared" si="4"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B52" s="84" t="s">
+      <c r="E52" s="29">
+        <f>+VLOOKUP($C52,'R2'!$C$3:$H$22,5,)</f>
         <v>17</v>
       </c>
-      <c r="C52" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="27">
-        <f>+VLOOKUP($C52,'R1'!$C$3:$H$22,5,)</f>
+      <c r="F52" s="29">
+        <f>+VLOOKUP($C52,'R3'!$C$3:$H$22,5,)</f>
+        <v>32</v>
+      </c>
+      <c r="G52" s="29">
+        <f>+VLOOKUP($C52,'R4'!$C$3:$H$22,5,)</f>
         <v>29</v>
       </c>
-      <c r="E52" s="27">
-        <f>+VLOOKUP($C52,'R2'!$C$3:$H$22,5,)</f>
-        <v>23</v>
-      </c>
-      <c r="F52" s="27">
-        <f>+VLOOKUP($C52,'R3'!$C$3:$H$22,5,)</f>
-        <v>14</v>
-      </c>
-      <c r="G52" s="27">
-        <f>+VLOOKUP($C52,'R4'!$C$3:$H$22,5,)</f>
-        <v>-9</v>
-      </c>
-      <c r="H52" s="27">
+      <c r="H52" s="29">
         <f>+VLOOKUP($C52,'R5'!$C$3:$H$22,5,)</f>
-        <v>12</v>
-      </c>
-      <c r="I52" s="27">
+        <v>35</v>
+      </c>
+      <c r="I52" s="29">
         <f>+VLOOKUP($C52,'R6'!$C$3:$H$22,5,)</f>
-        <v>19</v>
-      </c>
-      <c r="J52" s="27">
+        <v>34</v>
+      </c>
+      <c r="J52" s="29">
         <f>+VLOOKUP($C52,'R7'!$C$3:$H$22,5,)</f>
         <v>19</v>
       </c>
-      <c r="K52" s="27">
+      <c r="K52" s="29">
         <f>+VLOOKUP($C52,'R8'!$C$3:$H$22,5,)</f>
-        <v>8</v>
-      </c>
-      <c r="L52" s="27">
+        <v>-15</v>
+      </c>
+      <c r="L52" s="29">
         <f>+VLOOKUP($C52,'R9'!$C$3:$H$22,5,)</f>
+        <v>-15</v>
+      </c>
+      <c r="M52" s="29">
+        <f>+VLOOKUP($C52,'R10'!$C$3:$H$22,5,)</f>
+        <v>27</v>
+      </c>
+      <c r="N52" s="29">
+        <f>+VLOOKUP($C52,'R11'!$C$3:$H$22,5,)</f>
         <v>29</v>
       </c>
-      <c r="M52" s="27">
-        <f>+VLOOKUP($C52,'R10'!$C$3:$H$22,5,)</f>
-        <v>43</v>
-      </c>
-      <c r="N52" s="27">
-        <f>+VLOOKUP($C52,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27">
-        <f t="shared" si="4"/>
-        <v>187</v>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29">
+        <f>SUM(C52:M52)</f>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
@@ -19987,645 +20146,642 @@
       </c>
       <c r="N53" s="30">
         <f>+VLOOKUP($C53,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="O53" s="30"/>
       <c r="P53" s="30"/>
       <c r="Q53" s="30">
-        <f t="shared" si="4"/>
+        <f>SUM(C53:M53)</f>
         <v>116</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B54" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D54" s="31">
+      <c r="B54" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="29">
         <f>+VLOOKUP($C54,'R1'!$C$3:$H$22,5,)</f>
-        <v>-15</v>
-      </c>
-      <c r="E54" s="31">
+        <v>-6</v>
+      </c>
+      <c r="E54" s="29">
         <f>+VLOOKUP($C54,'R2'!$C$3:$H$22,5,)</f>
         <v>17</v>
       </c>
-      <c r="F54" s="31">
+      <c r="F54" s="29">
         <f>+VLOOKUP($C54,'R3'!$C$3:$H$22,5,)</f>
+        <v>21</v>
+      </c>
+      <c r="G54" s="29">
+        <f>+VLOOKUP($C54,'R4'!$C$3:$H$22,5,)</f>
+        <v>13</v>
+      </c>
+      <c r="H54" s="29">
+        <f>+VLOOKUP($C54,'R5'!$C$3:$H$22,5,)</f>
+        <v>19</v>
+      </c>
+      <c r="I54" s="29">
+        <f>+VLOOKUP($C54,'R6'!$C$3:$H$22,5,)</f>
+        <v>11</v>
+      </c>
+      <c r="J54" s="29">
+        <f>+VLOOKUP($C54,'R7'!$C$3:$H$22,5,)</f>
+        <v>7</v>
+      </c>
+      <c r="K54" s="29">
+        <f>+VLOOKUP($C54,'R8'!$C$3:$H$22,5,)</f>
+        <v>-6</v>
+      </c>
+      <c r="L54" s="29">
+        <f>+VLOOKUP($C54,'R9'!$C$3:$H$22,5,)</f>
+        <v>26</v>
+      </c>
+      <c r="M54" s="29">
+        <f>+VLOOKUP($C54,'R10'!$C$3:$H$22,5,)</f>
+        <v>2</v>
+      </c>
+      <c r="N54" s="29">
+        <f>+VLOOKUP($C54,'R11'!$C$3:$H$22,5,)</f>
+        <v>-15</v>
+      </c>
+      <c r="O54" s="29"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29">
+        <f>SUM(C54:M54)</f>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B55" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="D55" s="32">
+        <f>+VLOOKUP($C55,'R1'!$C$3:$H$22,5,)</f>
+        <v>-15</v>
+      </c>
+      <c r="E55" s="32">
+        <f>+VLOOKUP($C55,'R2'!$C$3:$H$22,5,)</f>
+        <v>8</v>
+      </c>
+      <c r="F55" s="32">
+        <f>+VLOOKUP($C55,'R3'!$C$3:$H$22,5,)</f>
         <v>14</v>
       </c>
-      <c r="G54" s="31">
-        <f>+VLOOKUP($C54,'R4'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="31">
-        <f>+VLOOKUP($C54,'R5'!$C$3:$H$22,5,)</f>
+      <c r="G55" s="32">
+        <f>+VLOOKUP($C55,'R4'!$C$3:$H$22,5,)</f>
+        <v>24</v>
+      </c>
+      <c r="H55" s="32">
+        <f>+VLOOKUP($C55,'R5'!$C$3:$H$22,5,)</f>
+        <v>-9</v>
+      </c>
+      <c r="I55" s="32">
+        <f>+VLOOKUP($C55,'R6'!$C$3:$H$22,5,)</f>
+        <v>8</v>
+      </c>
+      <c r="J55" s="32">
+        <f>+VLOOKUP($C55,'R7'!$C$3:$H$22,5,)</f>
+        <v>21</v>
+      </c>
+      <c r="K55" s="32">
+        <f>+VLOOKUP($C55,'R8'!$C$3:$H$22,5,)</f>
+        <v>14</v>
+      </c>
+      <c r="L55" s="32">
+        <f>+VLOOKUP($C55,'R9'!$C$3:$H$22,5,)</f>
+        <v>24</v>
+      </c>
+      <c r="M55" s="32">
+        <f>+VLOOKUP($C55,'R10'!$C$3:$H$22,5,)</f>
+        <v>14</v>
+      </c>
+      <c r="N55" s="32">
+        <f>+VLOOKUP($C55,'R11'!$C$3:$H$22,5,)</f>
+        <v>40</v>
+      </c>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32">
+        <f>SUM(C55:M55)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B56" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="31">
+        <f>+VLOOKUP($C56,'R1'!$C$3:$H$22,5,)</f>
         <v>12</v>
       </c>
-      <c r="I54" s="31">
-        <f>+VLOOKUP($C54,'R6'!$C$3:$H$22,5,)</f>
-        <v>28</v>
-      </c>
-      <c r="J54" s="31">
-        <f>+VLOOKUP($C54,'R7'!$C$3:$H$22,5,)</f>
+      <c r="E56" s="31">
+        <f>+VLOOKUP($C56,'R2'!$C$3:$H$22,5,)</f>
+        <v>22</v>
+      </c>
+      <c r="F56" s="31">
+        <f>+VLOOKUP($C56,'R3'!$C$3:$H$22,5,)</f>
+        <v>1</v>
+      </c>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31">
+        <f>+VLOOKUP($C56,'R6'!$C$3:$H$22,5,)</f>
+        <v>9</v>
+      </c>
+      <c r="J56" s="31">
+        <f>+VLOOKUP($C56,'R7'!$C$3:$H$22,5,)</f>
+        <v>-2</v>
+      </c>
+      <c r="K56" s="31">
+        <f>+VLOOKUP($C56,'R8'!$C$3:$H$22,5,)</f>
+        <v>-8</v>
+      </c>
+      <c r="L56" s="31">
+        <f>+VLOOKUP($C56,'R9'!$C$3:$H$22,5,)</f>
+        <v>33</v>
+      </c>
+      <c r="M56" s="31">
+        <f>+VLOOKUP($C56,'R10'!$C$3:$H$22,5,)</f>
+        <v>16</v>
+      </c>
+      <c r="N56" s="31">
+        <f>+VLOOKUP($C56,'R11'!$C$3:$H$22,5,)</f>
+        <v>26</v>
+      </c>
+      <c r="O56" s="31"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="31">
+        <f>SUM(C56:M56)</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D57" s="33">
+        <f>+VLOOKUP($C57,'R1'!$C$3:$H$22,5,)</f>
+        <v>-15</v>
+      </c>
+      <c r="E57" s="33">
+        <f>+VLOOKUP($C57,'R2'!$C$3:$H$22,5,)</f>
+        <v>14</v>
+      </c>
+      <c r="F57" s="33">
+        <f>+VLOOKUP($C57,'R3'!$C$3:$H$22,5,)</f>
+        <v>14</v>
+      </c>
+      <c r="G57" s="33">
+        <f>+VLOOKUP($C57,'R4'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="33">
+        <f>+VLOOKUP($C57,'R5'!$C$3:$H$22,5,)</f>
+        <v>14</v>
+      </c>
+      <c r="I57" s="33">
+        <f>+VLOOKUP($C57,'R6'!$C$3:$H$22,5,)</f>
+        <v>4</v>
+      </c>
+      <c r="J57" s="33">
+        <f>+VLOOKUP($C57,'R7'!$C$3:$H$22,5,)</f>
+        <v>12</v>
+      </c>
+      <c r="K57" s="33">
+        <f>+VLOOKUP($C57,'R8'!$C$3:$H$22,5,)</f>
         <v>6</v>
       </c>
-      <c r="K54" s="31">
-        <f>+VLOOKUP($C54,'R8'!$C$3:$H$22,5,)</f>
-        <v>29</v>
-      </c>
-      <c r="L54" s="31">
-        <f>+VLOOKUP($C54,'R9'!$C$3:$H$22,5,)</f>
-        <v>-15</v>
-      </c>
-      <c r="M54" s="31">
-        <f>+VLOOKUP($C54,'R10'!$C$3:$H$22,5,)</f>
-        <v>-15</v>
-      </c>
-      <c r="N54" s="31">
-        <f>+VLOOKUP($C54,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31">
-        <f t="shared" si="4"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B55" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="29">
-        <f>+VLOOKUP($C55,'R1'!$C$3:$H$22,5,)</f>
-        <v>-6</v>
-      </c>
-      <c r="E55" s="29">
-        <f>+VLOOKUP($C55,'R2'!$C$3:$H$22,5,)</f>
-        <v>17</v>
-      </c>
-      <c r="F55" s="29">
-        <f>+VLOOKUP($C55,'R3'!$C$3:$H$22,5,)</f>
-        <v>21</v>
-      </c>
-      <c r="G55" s="29">
-        <f>+VLOOKUP($C55,'R4'!$C$3:$H$22,5,)</f>
-        <v>13</v>
-      </c>
-      <c r="H55" s="29">
-        <f>+VLOOKUP($C55,'R5'!$C$3:$H$22,5,)</f>
-        <v>19</v>
-      </c>
-      <c r="I55" s="29">
-        <f>+VLOOKUP($C55,'R6'!$C$3:$H$22,5,)</f>
+      <c r="L57" s="33">
+        <f>+VLOOKUP($C57,'R9'!$C$3:$H$22,5,)</f>
+        <v>14</v>
+      </c>
+      <c r="M57" s="33">
+        <f>+VLOOKUP($C57,'R10'!$C$3:$H$22,5,)</f>
         <v>11</v>
       </c>
-      <c r="J55" s="29">
-        <f>+VLOOKUP($C55,'R7'!$C$3:$H$22,5,)</f>
-        <v>7</v>
-      </c>
-      <c r="K55" s="29">
-        <f>+VLOOKUP($C55,'R8'!$C$3:$H$22,5,)</f>
-        <v>-6</v>
-      </c>
-      <c r="L55" s="29">
-        <f>+VLOOKUP($C55,'R9'!$C$3:$H$22,5,)</f>
-        <v>26</v>
-      </c>
-      <c r="M55" s="29">
-        <f>+VLOOKUP($C55,'R10'!$C$3:$H$22,5,)</f>
-        <v>2</v>
-      </c>
-      <c r="N55" s="29">
-        <f>+VLOOKUP($C55,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29">
-        <f t="shared" si="4"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B56" s="88" t="s">
+      <c r="N57" s="33">
+        <f>+VLOOKUP($C57,'R11'!$C$3:$H$22,5,)</f>
+        <v>11</v>
+      </c>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33">
+        <f>SUM(C57:M57)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B58" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="C56" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="D56" s="82">
-        <f>+VLOOKUP($C56,'R1'!$C$3:$H$22,5,)</f>
-        <v>20</v>
-      </c>
-      <c r="E56" s="82">
-        <f>+VLOOKUP($C56,'R2'!$C$3:$H$22,5,)</f>
-        <v>-9</v>
-      </c>
-      <c r="F56" s="82">
-        <f>+VLOOKUP($C56,'R3'!$C$3:$H$22,5,)</f>
-        <v>-15</v>
-      </c>
-      <c r="G56" s="82">
-        <f>+VLOOKUP($C56,'R4'!$C$3:$H$22,5,)</f>
-        <v>18</v>
-      </c>
-      <c r="H56" s="82">
-        <f>+VLOOKUP($C56,'R5'!$C$3:$H$22,5,)</f>
-        <v>-7</v>
-      </c>
-      <c r="I56" s="82">
-        <f>+VLOOKUP($C56,'R6'!$C$3:$H$22,5,)</f>
-        <v>8</v>
-      </c>
-      <c r="J56" s="82">
-        <f>+VLOOKUP($C56,'R7'!$C$3:$H$22,5,)</f>
-        <v>16</v>
-      </c>
-      <c r="K56" s="82">
-        <f>+VLOOKUP($C56,'R8'!$C$3:$H$22,5,)</f>
-        <v>39</v>
-      </c>
-      <c r="L56" s="82">
-        <f>+VLOOKUP($C56,'R9'!$C$3:$H$22,5,)</f>
-        <v>-15</v>
-      </c>
-      <c r="M56" s="82">
-        <f>+VLOOKUP($C56,'R10'!$C$3:$H$22,5,)</f>
+      <c r="C58" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="82">
+        <f>+VLOOKUP($C58,'R1'!$C$3:$H$22,5,)</f>
         <v>3</v>
       </c>
-      <c r="N56" s="82">
-        <f>+VLOOKUP($C56,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="O56" s="82"/>
-      <c r="P56" s="82"/>
-      <c r="Q56" s="82">
-        <f t="shared" si="4"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B57" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C57" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="32">
-        <f>+VLOOKUP($C57,'R1'!$C$3:$H$22,5,)</f>
-        <v>18</v>
-      </c>
-      <c r="E57" s="32">
-        <f>+VLOOKUP($C57,'R2'!$C$3:$H$22,5,)</f>
-        <v>-15</v>
-      </c>
-      <c r="F57" s="32">
-        <f>+VLOOKUP($C57,'R3'!$C$3:$H$22,5,)</f>
-        <v>1</v>
-      </c>
-      <c r="G57" s="32">
-        <f>+VLOOKUP($C57,'R4'!$C$3:$H$22,5,)</f>
-        <v>15</v>
-      </c>
-      <c r="H57" s="32">
-        <f>+VLOOKUP($C57,'R5'!$C$3:$H$22,5,)</f>
-        <v>18</v>
-      </c>
-      <c r="I57" s="32">
-        <f>+VLOOKUP($C57,'R6'!$C$3:$H$22,5,)</f>
-        <v>5</v>
-      </c>
-      <c r="J57" s="32">
-        <f>+VLOOKUP($C57,'R7'!$C$3:$H$22,5,)</f>
-        <v>13</v>
-      </c>
-      <c r="K57" s="32">
-        <f>+VLOOKUP($C57,'R8'!$C$3:$H$22,5,)</f>
-        <v>13</v>
-      </c>
-      <c r="L57" s="32">
-        <f>+VLOOKUP($C57,'R9'!$C$3:$H$22,5,)</f>
-        <v>-15</v>
-      </c>
-      <c r="M57" s="32">
-        <f>+VLOOKUP($C57,'R10'!$C$3:$H$22,5,)</f>
-        <v>7</v>
-      </c>
-      <c r="N57" s="32">
-        <f>+VLOOKUP($C57,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B58" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="32">
-        <f>+VLOOKUP($C58,'R1'!$C$3:$H$22,5,)</f>
-        <v>-15</v>
-      </c>
-      <c r="E58" s="32">
+      <c r="E58" s="82">
         <f>+VLOOKUP($C58,'R2'!$C$3:$H$22,5,)</f>
-        <v>8</v>
-      </c>
-      <c r="F58" s="32">
+        <v>11</v>
+      </c>
+      <c r="F58" s="82">
         <f>+VLOOKUP($C58,'R3'!$C$3:$H$22,5,)</f>
         <v>14</v>
       </c>
-      <c r="G58" s="32">
+      <c r="G58" s="82">
         <f>+VLOOKUP($C58,'R4'!$C$3:$H$22,5,)</f>
+        <v>-15</v>
+      </c>
+      <c r="H58" s="82">
+        <f>+VLOOKUP($C58,'R5'!$C$3:$H$22,5,)</f>
+        <v>15</v>
+      </c>
+      <c r="I58" s="82">
+        <f>+VLOOKUP($C58,'R6'!$C$3:$H$22,5,)</f>
+        <v>1</v>
+      </c>
+      <c r="J58" s="82">
+        <f>+VLOOKUP($C58,'R7'!$C$3:$H$22,5,)</f>
+        <v>1</v>
+      </c>
+      <c r="K58" s="82">
+        <f>+VLOOKUP($C58,'R8'!$C$3:$H$22,5,)</f>
+        <v>7</v>
+      </c>
+      <c r="L58" s="82">
+        <f>+VLOOKUP($C58,'R9'!$C$3:$H$22,5,)</f>
+        <v>20</v>
+      </c>
+      <c r="M58" s="82">
+        <f>+VLOOKUP($C58,'R10'!$C$3:$H$22,5,)</f>
+        <v>16</v>
+      </c>
+      <c r="N58" s="82">
+        <f>+VLOOKUP($C58,'R11'!$C$3:$H$22,5,)</f>
+        <v>-1</v>
+      </c>
+      <c r="O58" s="82"/>
+      <c r="P58" s="82"/>
+      <c r="Q58" s="82">
+        <f>SUM(C58:M58)</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="32">
-        <f>+VLOOKUP($C58,'R5'!$C$3:$H$22,5,)</f>
-        <v>-9</v>
-      </c>
-      <c r="I58" s="32">
-        <f>+VLOOKUP($C58,'R6'!$C$3:$H$22,5,)</f>
-        <v>8</v>
-      </c>
-      <c r="J58" s="32">
-        <f>+VLOOKUP($C58,'R7'!$C$3:$H$22,5,)</f>
-        <v>21</v>
-      </c>
-      <c r="K58" s="32">
-        <f>+VLOOKUP($C58,'R8'!$C$3:$H$22,5,)</f>
-        <v>14</v>
-      </c>
-      <c r="L58" s="32">
-        <f>+VLOOKUP($C58,'R9'!$C$3:$H$22,5,)</f>
-        <v>24</v>
-      </c>
-      <c r="M58" s="32">
-        <f>+VLOOKUP($C58,'R10'!$C$3:$H$22,5,)</f>
-        <v>14</v>
-      </c>
-      <c r="N58" s="32">
-        <f>+VLOOKUP($C58,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32">
-        <f t="shared" si="4"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="2:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="33">
+      <c r="C59" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" s="31">
         <f>+VLOOKUP($C59,'R1'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="31">
         <f>+VLOOKUP($C59,'R2'!$C$3:$H$22,5,)</f>
-        <v>14</v>
-      </c>
-      <c r="F59" s="33">
+        <v>17</v>
+      </c>
+      <c r="F59" s="31">
         <f>+VLOOKUP($C59,'R3'!$C$3:$H$22,5,)</f>
         <v>14</v>
       </c>
-      <c r="G59" s="33">
+      <c r="G59" s="31">
         <f>+VLOOKUP($C59,'R4'!$C$3:$H$22,5,)</f>
         <v>0</v>
       </c>
-      <c r="H59" s="33">
+      <c r="H59" s="31">
         <f>+VLOOKUP($C59,'R5'!$C$3:$H$22,5,)</f>
-        <v>14</v>
-      </c>
-      <c r="I59" s="33">
+        <v>12</v>
+      </c>
+      <c r="I59" s="31">
         <f>+VLOOKUP($C59,'R6'!$C$3:$H$22,5,)</f>
-        <v>4</v>
-      </c>
-      <c r="J59" s="33">
+        <v>28</v>
+      </c>
+      <c r="J59" s="31">
         <f>+VLOOKUP($C59,'R7'!$C$3:$H$22,5,)</f>
-        <v>12</v>
-      </c>
-      <c r="K59" s="33">
+        <v>6</v>
+      </c>
+      <c r="K59" s="31">
         <f>+VLOOKUP($C59,'R8'!$C$3:$H$22,5,)</f>
-        <v>6</v>
-      </c>
-      <c r="L59" s="33">
+        <v>29</v>
+      </c>
+      <c r="L59" s="31">
         <f>+VLOOKUP($C59,'R9'!$C$3:$H$22,5,)</f>
-        <v>14</v>
-      </c>
-      <c r="M59" s="33">
+        <v>-15</v>
+      </c>
+      <c r="M59" s="31">
         <f>+VLOOKUP($C59,'R10'!$C$3:$H$22,5,)</f>
-        <v>11</v>
-      </c>
-      <c r="N59" s="33">
-        <f>+VLOOKUP($C59,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33">
-        <f t="shared" si="4"/>
-        <v>74</v>
+        <v>-15</v>
+      </c>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="31"/>
+      <c r="Q59" s="31">
+        <f>SUM(C59:M59)</f>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B60" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="35">
+      <c r="B60" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" s="32">
         <f>+VLOOKUP($C60,'R1'!$C$3:$H$22,5,)</f>
-        <v>14</v>
-      </c>
-      <c r="E60" s="35">
+        <v>18</v>
+      </c>
+      <c r="E60" s="32">
         <f>+VLOOKUP($C60,'R2'!$C$3:$H$22,5,)</f>
-        <v>3</v>
-      </c>
-      <c r="F60" s="35">
+        <v>-15</v>
+      </c>
+      <c r="F60" s="32">
         <f>+VLOOKUP($C60,'R3'!$C$3:$H$22,5,)</f>
-        <v>-3</v>
-      </c>
-      <c r="G60" s="35">
+        <v>1</v>
+      </c>
+      <c r="G60" s="32">
         <f>+VLOOKUP($C60,'R4'!$C$3:$H$22,5,)</f>
-        <v>7</v>
-      </c>
-      <c r="H60" s="35">
+        <v>15</v>
+      </c>
+      <c r="H60" s="32">
         <f>+VLOOKUP($C60,'R5'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="35">
+        <v>18</v>
+      </c>
+      <c r="I60" s="32">
         <f>+VLOOKUP($C60,'R6'!$C$3:$H$22,5,)</f>
-        <v>3</v>
-      </c>
-      <c r="J60" s="35">
+        <v>5</v>
+      </c>
+      <c r="J60" s="32">
         <f>+VLOOKUP($C60,'R7'!$C$3:$H$22,5,)</f>
-        <v>10</v>
-      </c>
-      <c r="K60" s="35">
+        <v>13</v>
+      </c>
+      <c r="K60" s="32">
         <f>+VLOOKUP($C60,'R8'!$C$3:$H$22,5,)</f>
-        <v>14</v>
-      </c>
-      <c r="L60" s="35">
+        <v>13</v>
+      </c>
+      <c r="L60" s="32">
         <f>+VLOOKUP($C60,'R9'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="M60" s="35">
+      <c r="M60" s="32">
         <f>+VLOOKUP($C60,'R10'!$C$3:$H$22,5,)</f>
-        <v>10</v>
-      </c>
-      <c r="N60" s="35">
+        <v>7</v>
+      </c>
+      <c r="N60" s="32">
         <f>+VLOOKUP($C60,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35">
-        <f t="shared" si="4"/>
-        <v>43</v>
+        <v>-15</v>
+      </c>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32">
+        <f>SUM(C60:M60)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B61" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" s="33">
+      <c r="B61" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="82">
         <f>+VLOOKUP($C61,'R1'!$C$3:$H$22,5,)</f>
+        <v>20</v>
+      </c>
+      <c r="E61" s="82">
+        <f>+VLOOKUP($C61,'R2'!$C$3:$H$22,5,)</f>
+        <v>-9</v>
+      </c>
+      <c r="F61" s="82">
+        <f>+VLOOKUP($C61,'R3'!$C$3:$H$22,5,)</f>
+        <v>-15</v>
+      </c>
+      <c r="G61" s="82">
+        <f>+VLOOKUP($C61,'R4'!$C$3:$H$22,5,)</f>
+        <v>18</v>
+      </c>
+      <c r="H61" s="82">
+        <f>+VLOOKUP($C61,'R5'!$C$3:$H$22,5,)</f>
+        <v>-7</v>
+      </c>
+      <c r="I61" s="82">
+        <f>+VLOOKUP($C61,'R6'!$C$3:$H$22,5,)</f>
+        <v>8</v>
+      </c>
+      <c r="J61" s="82">
+        <f>+VLOOKUP($C61,'R7'!$C$3:$H$22,5,)</f>
         <v>16</v>
       </c>
-      <c r="E61" s="33">
-        <f>+VLOOKUP($C61,'R2'!$C$3:$H$22,5,)</f>
-        <v>11</v>
-      </c>
-      <c r="F61" s="33">
-        <f>+VLOOKUP($C61,'R3'!$C$3:$H$22,5,)</f>
-        <v>5</v>
-      </c>
-      <c r="G61" s="33">
-        <f>+VLOOKUP($C61,'R4'!$C$3:$H$22,5,)</f>
-        <v>6</v>
-      </c>
-      <c r="H61" s="33">
-        <f>+VLOOKUP($C61,'R5'!$C$3:$H$22,5,)</f>
-        <v>5</v>
-      </c>
-      <c r="I61" s="33">
-        <f>+VLOOKUP($C61,'R6'!$C$3:$H$22,5,)</f>
-        <v>9</v>
-      </c>
-      <c r="J61" s="33">
-        <f>+VLOOKUP($C61,'R7'!$C$3:$H$22,5,)</f>
-        <v>-15</v>
-      </c>
-      <c r="K61" s="33">
+      <c r="K61" s="82">
         <f>+VLOOKUP($C61,'R8'!$C$3:$H$22,5,)</f>
-        <v>5</v>
-      </c>
-      <c r="L61" s="33">
+        <v>39</v>
+      </c>
+      <c r="L61" s="82">
         <f>+VLOOKUP($C61,'R9'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="M61" s="33">
+      <c r="M61" s="82">
         <f>+VLOOKUP($C61,'R10'!$C$3:$H$22,5,)</f>
+        <v>3</v>
+      </c>
+      <c r="N61" s="82">
+        <f>+VLOOKUP($C61,'R11'!$C$3:$H$22,5,)</f>
+        <v>22</v>
+      </c>
+      <c r="O61" s="82"/>
+      <c r="P61" s="82"/>
+      <c r="Q61" s="82">
+        <f>SUM(C61:M61)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B62" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62" s="28">
+        <f>+VLOOKUP($C62,'R1'!$C$3:$H$22,5,)</f>
+        <v>32</v>
+      </c>
+      <c r="E62" s="28">
+        <f>+VLOOKUP($C62,'R2'!$C$3:$H$22,5,)</f>
+        <v>-15</v>
+      </c>
+      <c r="F62" s="28">
+        <f>+VLOOKUP($C62,'R3'!$C$3:$H$22,5,)</f>
+        <v>-9</v>
+      </c>
+      <c r="G62" s="28">
+        <f>+VLOOKUP($C62,'R4'!$C$3:$H$22,5,)</f>
+        <v>21</v>
+      </c>
+      <c r="H62" s="28">
+        <f>+VLOOKUP($C62,'R5'!$C$3:$H$22,5,)</f>
+        <v>24</v>
+      </c>
+      <c r="I62" s="28">
+        <f>+VLOOKUP($C62,'R6'!$C$3:$H$22,5,)</f>
+        <v>-15</v>
+      </c>
+      <c r="J62" s="28">
+        <f>+VLOOKUP($C62,'R7'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="28">
+        <f>+VLOOKUP($C62,'R8'!$C$3:$H$22,5,)</f>
+        <v>-15</v>
+      </c>
+      <c r="L62" s="28">
+        <f>+VLOOKUP($C62,'R9'!$C$3:$H$22,5,)</f>
+        <v>2</v>
+      </c>
+      <c r="M62" s="28">
+        <f>+VLOOKUP($C62,'R10'!$C$3:$H$22,5,)</f>
+        <v>22</v>
+      </c>
+      <c r="N62" s="28">
+        <f>+VLOOKUP($C62,'R11'!$C$3:$H$22,5,)</f>
+        <v>4</v>
+      </c>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28">
+        <f>SUM(C62:M62)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B63" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="35">
+        <f>+VLOOKUP($C63,'R1'!$C$3:$H$22,5,)</f>
         <v>14</v>
       </c>
-      <c r="N61" s="33">
-        <f>+VLOOKUP($C61,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33">
-        <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B62" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="82">
-        <f>+VLOOKUP($C62,'R1'!$C$3:$H$22,5,)</f>
+      <c r="E63" s="35">
+        <f>+VLOOKUP($C63,'R2'!$C$3:$H$22,5,)</f>
         <v>3</v>
       </c>
-      <c r="E62" s="82">
-        <f>+VLOOKUP($C62,'R2'!$C$3:$H$22,5,)</f>
+      <c r="F63" s="35">
+        <f>+VLOOKUP($C63,'R3'!$C$3:$H$22,5,)</f>
+        <v>-3</v>
+      </c>
+      <c r="G63" s="35">
+        <f>+VLOOKUP($C63,'R4'!$C$3:$H$22,5,)</f>
+        <v>7</v>
+      </c>
+      <c r="H63" s="35">
+        <f>+VLOOKUP($C63,'R5'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="35">
+        <f>+VLOOKUP($C63,'R6'!$C$3:$H$22,5,)</f>
+        <v>3</v>
+      </c>
+      <c r="J63" s="35">
+        <f>+VLOOKUP($C63,'R7'!$C$3:$H$22,5,)</f>
+        <v>10</v>
+      </c>
+      <c r="K63" s="35">
+        <f>+VLOOKUP($C63,'R8'!$C$3:$H$22,5,)</f>
+        <v>14</v>
+      </c>
+      <c r="L63" s="35">
+        <f>+VLOOKUP($C63,'R9'!$C$3:$H$22,5,)</f>
+        <v>-15</v>
+      </c>
+      <c r="M63" s="35">
+        <f>+VLOOKUP($C63,'R10'!$C$3:$H$22,5,)</f>
+        <v>10</v>
+      </c>
+      <c r="N63" s="35">
+        <f>+VLOOKUP($C63,'R11'!$C$3:$H$22,5,)</f>
+        <v>12</v>
+      </c>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35">
+        <f>SUM(C63:M63)</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B64" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="33">
+        <f>+VLOOKUP($C64,'R1'!$C$3:$H$22,5,)</f>
+        <v>16</v>
+      </c>
+      <c r="E64" s="33">
+        <f>+VLOOKUP($C64,'R2'!$C$3:$H$22,5,)</f>
         <v>11</v>
       </c>
-      <c r="F62" s="82">
-        <f>+VLOOKUP($C62,'R3'!$C$3:$H$22,5,)</f>
-        <v>14</v>
-      </c>
-      <c r="G62" s="82">
-        <f>+VLOOKUP($C62,'R4'!$C$3:$H$22,5,)</f>
-        <v>-15</v>
-      </c>
-      <c r="H62" s="82">
-        <f>+VLOOKUP($C62,'R5'!$C$3:$H$22,5,)</f>
-        <v>15</v>
-      </c>
-      <c r="I62" s="82">
-        <f>+VLOOKUP($C62,'R6'!$C$3:$H$22,5,)</f>
-        <v>1</v>
-      </c>
-      <c r="J62" s="82">
-        <f>+VLOOKUP($C62,'R7'!$C$3:$H$22,5,)</f>
-        <v>1</v>
-      </c>
-      <c r="K62" s="82">
-        <f>+VLOOKUP($C62,'R8'!$C$3:$H$22,5,)</f>
-        <v>7</v>
-      </c>
-      <c r="L62" s="82">
-        <f>+VLOOKUP($C62,'R9'!$C$3:$H$22,5,)</f>
-        <v>20</v>
-      </c>
-      <c r="M62" s="82">
-        <f>+VLOOKUP($C62,'R10'!$C$3:$H$22,5,)</f>
-        <v>16</v>
-      </c>
-      <c r="N62" s="82">
-        <f>+VLOOKUP($C62,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="O62" s="82"/>
-      <c r="P62" s="82"/>
-      <c r="Q62" s="82">
-        <f t="shared" si="4"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B63" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="31">
-        <f>+VLOOKUP($C63,'R1'!$C$3:$H$22,5,)</f>
-        <v>12</v>
-      </c>
-      <c r="E63" s="31">
-        <f>+VLOOKUP($C63,'R2'!$C$3:$H$22,5,)</f>
-        <v>22</v>
-      </c>
-      <c r="F63" s="31">
-        <f>+VLOOKUP($C63,'R3'!$C$3:$H$22,5,)</f>
-        <v>1</v>
-      </c>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31">
-        <f>+VLOOKUP($C63,'R6'!$C$3:$H$22,5,)</f>
+      <c r="F64" s="33">
+        <f>+VLOOKUP($C64,'R3'!$C$3:$H$22,5,)</f>
+        <v>5</v>
+      </c>
+      <c r="G64" s="33">
+        <f>+VLOOKUP($C64,'R4'!$C$3:$H$22,5,)</f>
+        <v>6</v>
+      </c>
+      <c r="H64" s="33">
+        <f>+VLOOKUP($C64,'R5'!$C$3:$H$22,5,)</f>
+        <v>5</v>
+      </c>
+      <c r="I64" s="33">
+        <f>+VLOOKUP($C64,'R6'!$C$3:$H$22,5,)</f>
         <v>9</v>
       </c>
-      <c r="J63" s="31">
-        <f>+VLOOKUP($C63,'R7'!$C$3:$H$22,5,)</f>
-        <v>-2</v>
-      </c>
-      <c r="K63" s="31">
-        <f>+VLOOKUP($C63,'R8'!$C$3:$H$22,5,)</f>
-        <v>-8</v>
-      </c>
-      <c r="L63" s="31">
-        <f>+VLOOKUP($C63,'R9'!$C$3:$H$22,5,)</f>
-        <v>33</v>
-      </c>
-      <c r="M63" s="31">
-        <f>+VLOOKUP($C63,'R10'!$C$3:$H$22,5,)</f>
-        <v>16</v>
-      </c>
-      <c r="N63" s="31">
-        <f>+VLOOKUP($C63,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31">
-        <f t="shared" si="4"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B64" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="30">
-        <f>+VLOOKUP($C64,'R1'!$C$3:$H$22,5,)</f>
-        <v>17</v>
-      </c>
-      <c r="E64" s="30">
-        <f>+VLOOKUP($C64,'R2'!$C$3:$H$22,5,)</f>
-        <v>-2</v>
-      </c>
-      <c r="F64" s="30">
-        <f>+VLOOKUP($C64,'R3'!$C$3:$H$22,5,)</f>
-        <v>6</v>
-      </c>
-      <c r="G64" s="30">
-        <f>+VLOOKUP($C64,'R4'!$C$3:$H$22,5,)</f>
-        <v>-9</v>
-      </c>
-      <c r="H64" s="30">
-        <f>+VLOOKUP($C64,'R5'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="30">
-        <f>+VLOOKUP($C64,'R6'!$C$3:$H$22,5,)</f>
-        <v>14</v>
-      </c>
-      <c r="J64" s="30">
+      <c r="J64" s="33">
         <f>+VLOOKUP($C64,'R7'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="K64" s="30">
+      <c r="K64" s="33">
         <f>+VLOOKUP($C64,'R8'!$C$3:$H$22,5,)</f>
-        <v>24</v>
-      </c>
-      <c r="L64" s="30">
+        <v>5</v>
+      </c>
+      <c r="L64" s="33">
         <f>+VLOOKUP($C64,'R9'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="M64" s="30">
+      <c r="M64" s="33">
         <f>+VLOOKUP($C64,'R10'!$C$3:$H$22,5,)</f>
-        <v>-10</v>
-      </c>
-      <c r="N64" s="30">
+        <v>14</v>
+      </c>
+      <c r="N64" s="33">
         <f>+VLOOKUP($C64,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30">
-        <f t="shared" si="4"/>
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33">
+        <f>SUM(C64:M64)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.2">
@@ -20677,12 +20833,12 @@
       </c>
       <c r="N65" s="34">
         <f>+VLOOKUP($C65,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O65" s="34"/>
       <c r="P65" s="34"/>
       <c r="Q65" s="34">
-        <f t="shared" si="4"/>
+        <f>SUM(C65:M65)</f>
         <v>37</v>
       </c>
     </row>
@@ -20691,11 +20847,11 @@
         <v>28</v>
       </c>
       <c r="C66" s="49" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D66" s="28">
         <f>+VLOOKUP($C66,'R1'!$C$3:$H$22,5,)</f>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E66" s="28">
         <f>+VLOOKUP($C66,'R2'!$C$3:$H$22,5,)</f>
@@ -20703,23 +20859,23 @@
       </c>
       <c r="F66" s="28">
         <f>+VLOOKUP($C66,'R3'!$C$3:$H$22,5,)</f>
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="G66" s="28">
         <f>+VLOOKUP($C66,'R4'!$C$3:$H$22,5,)</f>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="H66" s="28">
         <f>+VLOOKUP($C66,'R5'!$C$3:$H$22,5,)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I66" s="28">
         <f>+VLOOKUP($C66,'R6'!$C$3:$H$22,5,)</f>
-        <v>-15</v>
+        <v>18</v>
       </c>
       <c r="J66" s="28">
         <f>+VLOOKUP($C66,'R7'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K66" s="28">
         <f>+VLOOKUP($C66,'R8'!$C$3:$H$22,5,)</f>
@@ -20727,79 +20883,79 @@
       </c>
       <c r="L66" s="28">
         <f>+VLOOKUP($C66,'R9'!$C$3:$H$22,5,)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M66" s="28">
         <f>+VLOOKUP($C66,'R10'!$C$3:$H$22,5,)</f>
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="N66" s="28">
         <f>+VLOOKUP($C66,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O66" s="28"/>
       <c r="P66" s="28"/>
       <c r="Q66" s="28">
-        <f t="shared" si="4"/>
-        <v>47</v>
+        <f>SUM(C66:M66)</f>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B67" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" s="28">
+      <c r="B67" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D67" s="30">
         <f>+VLOOKUP($C67,'R1'!$C$3:$H$22,5,)</f>
-        <v>4</v>
-      </c>
-      <c r="E67" s="28">
+        <v>17</v>
+      </c>
+      <c r="E67" s="30">
         <f>+VLOOKUP($C67,'R2'!$C$3:$H$22,5,)</f>
+        <v>-2</v>
+      </c>
+      <c r="F67" s="30">
+        <f>+VLOOKUP($C67,'R3'!$C$3:$H$22,5,)</f>
+        <v>6</v>
+      </c>
+      <c r="G67" s="30">
+        <f>+VLOOKUP($C67,'R4'!$C$3:$H$22,5,)</f>
+        <v>-9</v>
+      </c>
+      <c r="H67" s="30">
+        <f>+VLOOKUP($C67,'R5'!$C$3:$H$22,5,)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="30">
+        <f>+VLOOKUP($C67,'R6'!$C$3:$H$22,5,)</f>
+        <v>14</v>
+      </c>
+      <c r="J67" s="30">
+        <f>+VLOOKUP($C67,'R7'!$C$3:$H$22,5,)</f>
         <v>-15</v>
       </c>
-      <c r="F67" s="28">
-        <f>+VLOOKUP($C67,'R3'!$C$3:$H$22,5,)</f>
+      <c r="K67" s="30">
+        <f>+VLOOKUP($C67,'R8'!$C$3:$H$22,5,)</f>
+        <v>24</v>
+      </c>
+      <c r="L67" s="30">
+        <f>+VLOOKUP($C67,'R9'!$C$3:$H$22,5,)</f>
+        <v>-15</v>
+      </c>
+      <c r="M67" s="30">
+        <f>+VLOOKUP($C67,'R10'!$C$3:$H$22,5,)</f>
+        <v>-10</v>
+      </c>
+      <c r="N67" s="30">
+        <f>+VLOOKUP($C67,'R11'!$C$3:$H$22,5,)</f>
+        <v>24</v>
+      </c>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30">
+        <f>SUM(C67:M67)</f>
         <v>10</v>
-      </c>
-      <c r="G67" s="28">
-        <f>+VLOOKUP($C67,'R4'!$C$3:$H$22,5,)</f>
-        <v>2</v>
-      </c>
-      <c r="H67" s="28">
-        <f>+VLOOKUP($C67,'R5'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="I67" s="28">
-        <f>+VLOOKUP($C67,'R6'!$C$3:$H$22,5,)</f>
-        <v>18</v>
-      </c>
-      <c r="J67" s="28">
-        <f>+VLOOKUP($C67,'R7'!$C$3:$H$22,5,)</f>
-        <v>6</v>
-      </c>
-      <c r="K67" s="28">
-        <f>+VLOOKUP($C67,'R8'!$C$3:$H$22,5,)</f>
-        <v>-15</v>
-      </c>
-      <c r="L67" s="28">
-        <f>+VLOOKUP($C67,'R9'!$C$3:$H$22,5,)</f>
-        <v>10</v>
-      </c>
-      <c r="M67" s="28">
-        <f>+VLOOKUP($C67,'R10'!$C$3:$H$22,5,)</f>
-        <v>5</v>
-      </c>
-      <c r="N67" s="28">
-        <f>+VLOOKUP($C67,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
-      </c>
-      <c r="O67" s="28"/>
-      <c r="P67" s="28"/>
-      <c r="Q67" s="28">
-        <f t="shared" si="4"/>
-        <v>25</v>
       </c>
     </row>
     <row r="68" spans="2:17" x14ac:dyDescent="0.2">
@@ -20851,12 +21007,12 @@
       </c>
       <c r="N68" s="35">
         <f>+VLOOKUP($C68,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="O68" s="35"/>
       <c r="P68" s="35"/>
       <c r="Q68" s="35">
-        <f t="shared" si="4"/>
+        <f>SUM(C68:M68)</f>
         <v>10</v>
       </c>
     </row>
@@ -20909,19 +21065,19 @@
       </c>
       <c r="N69" s="267">
         <f>+VLOOKUP($C69,'R11'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O69" s="267"/>
       <c r="P69" s="267"/>
       <c r="Q69" s="267">
-        <f t="shared" si="4"/>
+        <f>SUM(C69:M69)</f>
         <v>-23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:Q23" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:Q23">
-      <sortCondition descending="1" ref="Q3:Q23"/>
+  <autoFilter ref="B49:Q69" xr:uid="{628A082B-BA17-B642-BFFB-F902E6FABD2B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B50:Q69">
+      <sortCondition descending="1" ref="Q49:Q69"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
@@ -20946,28 +21102,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="399" t="s">
+      <c r="D2" s="410" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="410" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="399" t="s">
+      <c r="F2" s="410" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="261" t="s">
@@ -21544,13 +21700,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -21562,19 +21718,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="399" t="s">
+      <c r="J2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="399" t="s">
+      <c r="K2" s="410" t="s">
         <v>113</v>
       </c>
     </row>
@@ -22268,28 +22424,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="399" t="s">
+      <c r="D2" s="410" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="410" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="399" t="s">
+      <c r="F2" s="410" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="261" t="s">
@@ -23992,8 +24148,8 @@
       <c r="A21" s="312">
         <v>18</v>
       </c>
-      <c r="B21" s="313" t="s">
-        <v>181</v>
+      <c r="B21" s="313">
+        <v>8</v>
       </c>
       <c r="C21" s="313" t="s">
         <v>27</v>
@@ -24001,8 +24157,12 @@
       <c r="D21" s="313" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="373"/>
-      <c r="F21" s="374"/>
+      <c r="E21" s="373" t="s">
+        <v>780</v>
+      </c>
+      <c r="F21" s="374">
+        <v>60</v>
+      </c>
       <c r="G21" s="374">
         <v>-15</v>
       </c>
@@ -24015,8 +24175,8 @@
       <c r="A22" s="395">
         <v>55</v>
       </c>
-      <c r="B22" s="396" t="s">
-        <v>181</v>
+      <c r="B22" s="396">
+        <v>5</v>
       </c>
       <c r="C22" s="396" t="s">
         <v>37</v>
@@ -24024,8 +24184,12 @@
       <c r="D22" s="396" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="397"/>
-      <c r="F22" s="398"/>
+      <c r="E22" s="397" t="s">
+        <v>781</v>
+      </c>
+      <c r="F22" s="398">
+        <v>60</v>
+      </c>
       <c r="G22" s="398">
         <v>-10</v>
       </c>
@@ -24049,8 +24213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24108,13 +24272,13 @@
       <c r="E3" s="290"/>
       <c r="F3" s="291"/>
       <c r="G3" s="292" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="H3" s="293" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="I3" s="294" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="J3" s="295">
         <v>15</v>
@@ -24135,13 +24299,13 @@
       <c r="E4" s="290"/>
       <c r="F4" s="291"/>
       <c r="G4" s="292" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="H4" s="293" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="I4" s="294" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="J4" s="295">
         <v>12</v>
@@ -24162,13 +24326,13 @@
       <c r="E5" s="298"/>
       <c r="F5" s="299"/>
       <c r="G5" s="300" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="H5" s="301" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="I5" s="302" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="J5" s="303">
         <v>13</v>
@@ -24189,13 +24353,13 @@
       <c r="E6" s="306"/>
       <c r="F6" s="307"/>
       <c r="G6" s="308" t="s">
-        <v>808</v>
+        <v>791</v>
       </c>
       <c r="H6" s="309" t="s">
-        <v>809</v>
+        <v>792</v>
       </c>
       <c r="I6" s="310" t="s">
-        <v>810</v>
+        <v>793</v>
       </c>
       <c r="J6" s="311">
         <v>12</v>
@@ -24216,13 +24380,13 @@
       <c r="E7" s="298"/>
       <c r="F7" s="299"/>
       <c r="G7" s="300" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="H7" s="301" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="I7" s="302" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="J7" s="303">
         <v>9</v>
@@ -24243,13 +24407,13 @@
       <c r="E8" s="322"/>
       <c r="F8" s="323"/>
       <c r="G8" s="324" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="H8" s="325" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="I8" s="326" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="J8" s="327">
         <v>10</v>
@@ -24270,13 +24434,13 @@
       <c r="E9" s="322"/>
       <c r="F9" s="323"/>
       <c r="G9" s="324" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="H9" s="325" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="I9" s="326" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="J9" s="327">
         <v>7</v>
@@ -24297,13 +24461,13 @@
       <c r="E10" s="330"/>
       <c r="F10" s="331"/>
       <c r="G10" s="332" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="H10" s="333" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="I10" s="334" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="J10" s="335">
         <v>8</v>
@@ -24324,13 +24488,13 @@
       <c r="E11" s="314"/>
       <c r="F11" s="315"/>
       <c r="G11" s="316" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="H11" s="317" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="I11" s="318" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="J11" s="319">
         <v>7</v>
@@ -24351,10 +24515,10 @@
       <c r="E12" s="330"/>
       <c r="F12" s="331"/>
       <c r="G12" s="332" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="H12" s="333" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="I12" s="334" t="s">
         <v>409</v>
@@ -24378,7 +24542,7 @@
       <c r="E13" s="306"/>
       <c r="F13" s="307"/>
       <c r="G13" s="308" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="H13" s="309" t="s">
         <v>388</v>
@@ -24405,10 +24569,10 @@
       <c r="E14" s="338"/>
       <c r="F14" s="339"/>
       <c r="G14" s="340" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="H14" s="341" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="I14" s="342" t="s">
         <v>145</v>
@@ -24432,10 +24596,10 @@
       <c r="E15" s="338"/>
       <c r="F15" s="339"/>
       <c r="G15" s="340" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="H15" s="341" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="I15" s="342" t="s">
         <v>145</v>
@@ -24459,10 +24623,10 @@
       <c r="E16" s="346"/>
       <c r="F16" s="347"/>
       <c r="G16" s="348" t="s">
+        <v>816</v>
+      </c>
+      <c r="H16" s="349" t="s">
         <v>817</v>
-      </c>
-      <c r="H16" s="349" t="s">
-        <v>818</v>
       </c>
       <c r="I16" s="350" t="s">
         <v>145</v>
@@ -24486,10 +24650,10 @@
       <c r="E17" s="354"/>
       <c r="F17" s="355"/>
       <c r="G17" s="356" t="s">
+        <v>818</v>
+      </c>
+      <c r="H17" s="357" t="s">
         <v>819</v>
-      </c>
-      <c r="H17" s="357" t="s">
-        <v>820</v>
       </c>
       <c r="I17" s="358" t="s">
         <v>145</v>
@@ -24513,7 +24677,7 @@
       <c r="E18" s="354"/>
       <c r="F18" s="355"/>
       <c r="G18" s="356" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="H18" s="357" t="s">
         <v>145</v>
@@ -24540,7 +24704,7 @@
       <c r="E19" s="362"/>
       <c r="F19" s="363"/>
       <c r="G19" s="364" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="H19" s="365" t="s">
         <v>145</v>
@@ -24567,7 +24731,7 @@
       <c r="E20" s="362"/>
       <c r="F20" s="363"/>
       <c r="G20" s="364" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="H20" s="365" t="s">
         <v>145</v>
@@ -24594,7 +24758,7 @@
       <c r="E21" s="346"/>
       <c r="F21" s="347"/>
       <c r="G21" s="348" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="H21" s="349" t="s">
         <v>145</v>
@@ -24608,34 +24772,34 @@
       <c r="K21" s="349"/>
     </row>
     <row r="22" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="403">
+      <c r="A22" s="399">
         <v>18</v>
       </c>
-      <c r="B22" s="404" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="404" t="s">
+      <c r="B22" s="400" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="400" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="405"/>
-      <c r="E22" s="405"/>
-      <c r="F22" s="406"/>
-      <c r="G22" s="407" t="s">
-        <v>813</v>
-      </c>
-      <c r="H22" s="408" t="s">
+      <c r="D22" s="401"/>
+      <c r="E22" s="401"/>
+      <c r="F22" s="402"/>
+      <c r="G22" s="403" t="s">
+        <v>824</v>
+      </c>
+      <c r="H22" s="404" t="s">
         <v>145</v>
       </c>
-      <c r="I22" s="409" t="s">
+      <c r="I22" s="405" t="s">
         <v>145</v>
       </c>
-      <c r="J22" s="410">
+      <c r="J22" s="406">
         <v>1</v>
       </c>
-      <c r="K22" s="408"/>
+      <c r="K22" s="404"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K22" xr:uid="{BC37E651-4148-9943-A77B-F7803F400124}">
+  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000018000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
       <sortCondition ref="I2:I22"/>
     </sortState>
@@ -24650,7 +24814,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24690,21 +24854,29 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="288">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B3" s="289">
         <v>1</v>
       </c>
       <c r="C3" s="289" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="368"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
+      <c r="E3" s="368" t="s">
+        <v>841</v>
+      </c>
+      <c r="F3" s="232">
+        <v>60</v>
+      </c>
+      <c r="G3" s="232">
+        <v>31</v>
+      </c>
+      <c r="H3" s="232">
+        <v>25</v>
+      </c>
       <c r="I3" s="232"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -24720,30 +24892,46 @@
       <c r="D4" s="297" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="369"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="370"/>
+      <c r="E4" s="369" t="s">
+        <v>840</v>
+      </c>
+      <c r="F4" s="370">
+        <v>60</v>
+      </c>
+      <c r="G4" s="370">
+        <v>29</v>
+      </c>
+      <c r="H4" s="370">
+        <v>19</v>
+      </c>
       <c r="I4" s="370"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="288">
-        <v>44</v>
-      </c>
-      <c r="B5" s="289">
+      <c r="A5" s="320">
         <v>3</v>
       </c>
-      <c r="C5" s="289" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="289" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="368"/>
-      <c r="F5" s="232"/>
-      <c r="G5" s="232"/>
-      <c r="H5" s="232"/>
-      <c r="I5" s="232"/>
+      <c r="B5" s="321">
+        <v>3</v>
+      </c>
+      <c r="C5" s="321" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="321" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="371" t="s">
+        <v>825</v>
+      </c>
+      <c r="F5" s="372">
+        <v>60</v>
+      </c>
+      <c r="G5" s="372">
+        <v>40</v>
+      </c>
+      <c r="H5" s="372">
+        <v>15</v>
+      </c>
+      <c r="I5" s="372"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="312">
@@ -24758,317 +24946,470 @@
       <c r="D6" s="313" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="373"/>
-      <c r="F6" s="374"/>
-      <c r="G6" s="374"/>
-      <c r="H6" s="374"/>
+      <c r="E6" s="373" t="s">
+        <v>833</v>
+      </c>
+      <c r="F6" s="374">
+        <v>60</v>
+      </c>
+      <c r="G6" s="374">
+        <v>26</v>
+      </c>
+      <c r="H6" s="374">
+        <v>12</v>
+      </c>
       <c r="I6" s="374"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="320">
+      <c r="A7" s="328">
+        <v>55</v>
+      </c>
+      <c r="B7" s="329">
+        <v>5</v>
+      </c>
+      <c r="C7" s="329" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="329" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="375" t="s">
+        <v>781</v>
+      </c>
+      <c r="F7" s="376">
+        <v>60</v>
+      </c>
+      <c r="G7" s="376">
+        <v>24</v>
+      </c>
+      <c r="H7" s="376">
+        <v>10</v>
+      </c>
+      <c r="I7" s="376"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="336">
+        <v>10</v>
+      </c>
+      <c r="B8" s="337">
+        <v>6</v>
+      </c>
+      <c r="C8" s="337" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="337" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="377" t="s">
+        <v>832</v>
+      </c>
+      <c r="F8" s="378">
+        <v>60</v>
+      </c>
+      <c r="G8" s="378">
+        <v>22</v>
+      </c>
+      <c r="H8" s="378">
+        <v>8</v>
+      </c>
+      <c r="I8" s="378"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="304">
+        <v>16</v>
+      </c>
+      <c r="B9" s="305">
+        <v>7</v>
+      </c>
+      <c r="C9" s="305" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="305" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="381" t="s">
+        <v>834</v>
+      </c>
+      <c r="F9" s="382">
+        <v>60</v>
+      </c>
+      <c r="G9" s="382">
+        <v>4</v>
+      </c>
+      <c r="H9" s="382">
+        <v>6</v>
+      </c>
+      <c r="I9" s="382"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="312">
+        <v>18</v>
+      </c>
+      <c r="B10" s="313">
+        <v>8</v>
+      </c>
+      <c r="C10" s="313" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="313" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="373" t="s">
+        <v>780</v>
+      </c>
+      <c r="F10" s="374">
+        <v>60</v>
+      </c>
+      <c r="G10" s="374">
+        <v>15</v>
+      </c>
+      <c r="H10" s="374">
+        <v>4</v>
+      </c>
+      <c r="I10" s="374"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="352">
+        <v>8</v>
+      </c>
+      <c r="B11" s="353">
+        <v>9</v>
+      </c>
+      <c r="C11" s="353" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="353" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="385" t="s">
+        <v>831</v>
+      </c>
+      <c r="F11" s="386">
+        <v>60</v>
+      </c>
+      <c r="G11" s="386">
+        <v>16</v>
+      </c>
+      <c r="H11" s="386">
+        <v>2</v>
+      </c>
+      <c r="I11" s="386"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="344">
+        <v>99</v>
+      </c>
+      <c r="B12" s="345">
+        <v>10</v>
+      </c>
+      <c r="C12" s="345" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="345" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="379" t="s">
+        <v>845</v>
+      </c>
+      <c r="F12" s="380">
+        <v>60</v>
+      </c>
+      <c r="G12" s="380">
+        <v>15</v>
+      </c>
+      <c r="H12" s="380">
+        <v>1</v>
+      </c>
+      <c r="I12" s="380"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="304">
+        <v>5</v>
+      </c>
+      <c r="B13" s="305">
+        <v>11</v>
+      </c>
+      <c r="C13" s="305" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="305" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="381" t="s">
+        <v>828</v>
+      </c>
+      <c r="F13" s="382">
+        <v>60</v>
+      </c>
+      <c r="G13" s="382">
+        <v>1</v>
+      </c>
+      <c r="H13" s="382">
+        <v>0</v>
+      </c>
+      <c r="I13" s="382"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="344">
+        <v>7</v>
+      </c>
+      <c r="B14" s="345">
+        <v>12</v>
+      </c>
+      <c r="C14" s="345" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="345" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="379" t="s">
+        <v>830</v>
+      </c>
+      <c r="F14" s="380">
+        <v>60</v>
+      </c>
+      <c r="G14" s="380">
+        <v>11</v>
+      </c>
+      <c r="H14" s="380">
+        <v>0</v>
+      </c>
+      <c r="I14" s="380" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="352">
+        <v>20</v>
+      </c>
+      <c r="B15" s="353">
+        <v>13</v>
+      </c>
+      <c r="C15" s="353" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="353" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="385" t="s">
+        <v>835</v>
+      </c>
+      <c r="F15" s="386">
+        <v>60</v>
+      </c>
+      <c r="G15" s="386">
         <v>3</v>
       </c>
-      <c r="B7" s="321">
-        <v>5</v>
-      </c>
-      <c r="C7" s="321" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="321" t="s">
+      <c r="H15" s="386">
+        <v>0</v>
+      </c>
+      <c r="I15" s="386"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="360">
+        <v>6</v>
+      </c>
+      <c r="B16" s="361">
+        <v>14</v>
+      </c>
+      <c r="C16" s="361" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="361" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="383" t="s">
+        <v>829</v>
+      </c>
+      <c r="F16" s="384">
+        <v>60</v>
+      </c>
+      <c r="G16" s="384">
+        <v>12</v>
+      </c>
+      <c r="H16" s="384">
+        <v>0</v>
+      </c>
+      <c r="I16" s="384"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="336">
+        <v>23</v>
+      </c>
+      <c r="B17" s="337">
+        <v>15</v>
+      </c>
+      <c r="C17" s="337" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="337" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="377" t="s">
+        <v>838</v>
+      </c>
+      <c r="F17" s="378">
+        <v>60</v>
+      </c>
+      <c r="G17" s="378">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="378">
+        <v>0</v>
+      </c>
+      <c r="I17" s="378"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="328">
+        <v>4</v>
+      </c>
+      <c r="B18" s="329" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="329" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="329" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="375" t="s">
+        <v>826</v>
+      </c>
+      <c r="F18" s="376">
+        <v>42</v>
+      </c>
+      <c r="G18" s="376">
+        <v>-15</v>
+      </c>
+      <c r="H18" s="376">
+        <v>0</v>
+      </c>
+      <c r="I18" s="376" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="296">
+        <v>23</v>
+      </c>
+      <c r="B19" s="297" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="297" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="297" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="369" t="s">
+        <v>836</v>
+      </c>
+      <c r="F19" s="370">
+        <v>23</v>
+      </c>
+      <c r="G19" s="370">
+        <v>-15</v>
+      </c>
+      <c r="H19" s="370">
+        <v>0</v>
+      </c>
+      <c r="I19" s="370" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="320">
+        <v>31</v>
+      </c>
+      <c r="B20" s="321" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="321" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="321" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="371"/>
-      <c r="F7" s="372"/>
-      <c r="G7" s="372"/>
-      <c r="H7" s="372"/>
-      <c r="I7" s="372"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="304">
-        <v>16</v>
-      </c>
-      <c r="B8" s="305">
-        <v>6</v>
-      </c>
-      <c r="C8" s="305" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="305" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="381"/>
-      <c r="F8" s="382"/>
-      <c r="G8" s="382"/>
-      <c r="H8" s="382"/>
-      <c r="I8" s="382"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="320">
-        <v>31</v>
-      </c>
-      <c r="B9" s="321">
-        <v>7</v>
-      </c>
-      <c r="C9" s="321" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="321" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="371"/>
-      <c r="F9" s="372"/>
-      <c r="G9" s="372"/>
-      <c r="H9" s="372"/>
-      <c r="I9" s="372"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="336">
-        <v>23</v>
-      </c>
-      <c r="B10" s="337">
-        <v>8</v>
-      </c>
-      <c r="C10" s="337" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="337" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="377"/>
-      <c r="F10" s="378"/>
-      <c r="G10" s="378"/>
-      <c r="H10" s="378"/>
-      <c r="I10" s="378"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="336">
-        <v>10</v>
-      </c>
-      <c r="B11" s="337">
-        <v>9</v>
-      </c>
-      <c r="C11" s="337" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="337" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="377"/>
-      <c r="F11" s="378"/>
-      <c r="G11" s="378"/>
-      <c r="H11" s="378"/>
-      <c r="I11" s="378"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="296">
-        <v>23</v>
-      </c>
-      <c r="B12" s="297">
-        <v>10</v>
-      </c>
-      <c r="C12" s="297" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="297" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="369"/>
-      <c r="F12" s="370"/>
-      <c r="G12" s="370"/>
-      <c r="H12" s="370"/>
-      <c r="I12" s="370"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="344">
-        <v>99</v>
-      </c>
-      <c r="B13" s="345">
-        <v>11</v>
-      </c>
-      <c r="C13" s="345" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="345" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="379"/>
-      <c r="F13" s="380"/>
-      <c r="G13" s="380"/>
-      <c r="H13" s="380"/>
-      <c r="I13" s="380"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="352">
-        <v>20</v>
-      </c>
-      <c r="B14" s="353">
+      <c r="E20" s="371" t="s">
+        <v>839</v>
+      </c>
+      <c r="F20" s="372">
+        <v>22</v>
+      </c>
+      <c r="G20" s="372">
+        <v>-15</v>
+      </c>
+      <c r="H20" s="372">
+        <v>0</v>
+      </c>
+      <c r="I20" s="372" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="288">
+        <v>77</v>
+      </c>
+      <c r="B21" s="289" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="289" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="289" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="368" t="s">
+        <v>844</v>
+      </c>
+      <c r="F21" s="232">
+        <v>18</v>
+      </c>
+      <c r="G21" s="232">
+        <v>-15</v>
+      </c>
+      <c r="H21" s="232">
+        <v>0</v>
+      </c>
+      <c r="I21" s="232" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="414">
+        <v>63</v>
+      </c>
+      <c r="B22" s="415" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="415" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="415" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="416" t="s">
+        <v>842</v>
+      </c>
+      <c r="F22" s="417">
         <v>12</v>
       </c>
-      <c r="C14" s="353" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="353" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="385"/>
-      <c r="F14" s="386"/>
-      <c r="G14" s="386"/>
-      <c r="H14" s="386"/>
-      <c r="I14" s="386"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="304">
-        <v>5</v>
-      </c>
-      <c r="B15" s="305">
-        <v>13</v>
-      </c>
-      <c r="C15" s="305" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="305" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="381"/>
-      <c r="F15" s="382"/>
-      <c r="G15" s="382"/>
-      <c r="H15" s="382"/>
-      <c r="I15" s="382"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="344">
-        <v>7</v>
-      </c>
-      <c r="B16" s="345">
-        <v>14</v>
-      </c>
-      <c r="C16" s="345" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="345" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="379"/>
-      <c r="F16" s="380"/>
-      <c r="G16" s="380"/>
-      <c r="H16" s="380"/>
-      <c r="I16" s="380"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="328">
-        <v>4</v>
-      </c>
-      <c r="B17" s="329">
-        <v>15</v>
-      </c>
-      <c r="C17" s="329" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="329" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="375"/>
-      <c r="F17" s="376"/>
-      <c r="G17" s="376"/>
-      <c r="H17" s="376"/>
-      <c r="I17" s="376"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="360">
-        <v>6</v>
-      </c>
-      <c r="B18" s="361">
-        <v>16</v>
-      </c>
-      <c r="C18" s="361" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="361" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="383"/>
-      <c r="F18" s="384"/>
-      <c r="G18" s="384"/>
-      <c r="H18" s="384"/>
-      <c r="I18" s="384"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="352">
-        <v>8</v>
-      </c>
-      <c r="B19" s="353">
-        <v>17</v>
-      </c>
-      <c r="C19" s="353" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="353" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="385"/>
-      <c r="F19" s="386"/>
-      <c r="G19" s="386"/>
-      <c r="H19" s="386"/>
-      <c r="I19" s="386"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="360">
-        <v>63</v>
-      </c>
-      <c r="B20" s="361">
-        <v>18</v>
-      </c>
-      <c r="C20" s="361" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="361" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="383"/>
-      <c r="F20" s="384"/>
-      <c r="G20" s="384"/>
-      <c r="H20" s="384"/>
-      <c r="I20" s="384"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="312">
-        <v>18</v>
-      </c>
-      <c r="B21" s="313" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" s="313" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="313" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="373"/>
-      <c r="F21" s="374"/>
-      <c r="G21" s="374"/>
-      <c r="H21" s="374"/>
-      <c r="I21" s="374"/>
-    </row>
-    <row r="22" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="395">
-        <v>55</v>
-      </c>
-      <c r="B22" s="396" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="396" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="396" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="397"/>
-      <c r="F22" s="398"/>
-      <c r="G22" s="398"/>
-      <c r="H22" s="398"/>
-      <c r="I22" s="398"/>
+      <c r="G22" s="417">
+        <v>-15</v>
+      </c>
+      <c r="H22" s="417">
+        <v>0</v>
+      </c>
+      <c r="I22" s="417" t="s">
+        <v>843</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I22" xr:uid="{00000000-0009-0000-0000-000019000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
+      <sortCondition descending="1" ref="F2:F22"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -25093,55 +25434,55 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="399" t="s">
+      <c r="D2" s="410" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="399" t="s">
+      <c r="E2" s="410" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="399" t="s">
+      <c r="F2" s="410" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="399" t="s">
+      <c r="I2" s="410" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="399" t="s">
+      <c r="J2" s="410" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="399" t="s">
+      <c r="K2" s="410" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="399" t="s">
+      <c r="L2" s="410" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="399" t="s">
+      <c r="M2" s="410" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="399" t="s">
+      <c r="N2" s="410" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="399" t="s">
+      <c r="O2" s="410" t="s">
         <v>79</v>
       </c>
-      <c r="P2" s="399" t="s">
+      <c r="P2" s="410" t="s">
         <v>80</v>
       </c>
-      <c r="Q2" s="399" t="s">
+      <c r="Q2" s="410" t="s">
         <v>81</v>
       </c>
-      <c r="R2" s="399" t="s">
+      <c r="R2" s="410" t="s">
         <v>82</v>
       </c>
     </row>
@@ -26047,10 +26388,10 @@
     </row>
     <row r="23" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:18" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="399" t="s">
+      <c r="B24" s="410" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="399" t="s">
+      <c r="C24" s="410" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="261" t="s">
@@ -26080,22 +26421,22 @@
       <c r="L24" s="261" t="s">
         <v>76</v>
       </c>
-      <c r="M24" s="399" t="s">
+      <c r="M24" s="410" t="s">
         <v>77</v>
       </c>
-      <c r="N24" s="399" t="s">
+      <c r="N24" s="410" t="s">
         <v>78</v>
       </c>
-      <c r="O24" s="399" t="s">
+      <c r="O24" s="410" t="s">
         <v>79</v>
       </c>
-      <c r="P24" s="399" t="s">
+      <c r="P24" s="410" t="s">
         <v>80</v>
       </c>
-      <c r="Q24" s="399" t="s">
+      <c r="Q24" s="410" t="s">
         <v>81</v>
       </c>
-      <c r="R24" s="399" t="s">
+      <c r="R24" s="410" t="s">
         <v>82</v>
       </c>
     </row>
@@ -26564,112 +26905,113 @@
   <dimension ref="B1:AF31"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="AG34" sqref="AG34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="5" width="13" style="250" hidden="1" customWidth="1"/>
     <col min="6" max="8" width="10.83203125" style="250" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="250" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="250" hidden="1" customWidth="1"/>
     <col min="10" max="14" width="10.83203125" style="250" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" style="250" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="250" hidden="1" customWidth="1"/>
     <col min="18" max="20" width="13" style="250" hidden="1" customWidth="1"/>
     <col min="21" max="22" width="10.83203125" style="250" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="13" style="250" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="10.83203125" style="250" customWidth="1"/>
     <col min="26" max="26" width="13" style="250" customWidth="1"/>
     <col min="27" max="27" width="10.6640625" style="250" customWidth="1"/>
-    <col min="28" max="29" width="10.83203125" style="250" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="10.83203125" style="250" customWidth="1"/>
     <col min="30" max="30" width="13" style="250" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="207"/>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="399" t="s">
+      <c r="D2" s="410" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="399" t="s">
+      <c r="E2" s="410" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="399" t="s">
+      <c r="F2" s="410" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="399" t="s">
+      <c r="I2" s="410" t="s">
         <v>89</v>
       </c>
-      <c r="J2" s="399" t="s">
+      <c r="J2" s="410" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="399" t="s">
+      <c r="K2" s="410" t="s">
         <v>91</v>
       </c>
-      <c r="L2" s="399" t="s">
+      <c r="L2" s="410" t="s">
         <v>92</v>
       </c>
-      <c r="M2" s="399" t="s">
+      <c r="M2" s="410" t="s">
         <v>93</v>
       </c>
-      <c r="N2" s="399" t="s">
+      <c r="N2" s="410" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="399" t="s">
+      <c r="O2" s="410" t="s">
         <v>95</v>
       </c>
       <c r="Q2" s="207"/>
-      <c r="R2" s="399" t="s">
+      <c r="R2" s="410" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="399" t="s">
+      <c r="S2" s="410" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="399" t="s">
+      <c r="T2" s="410" t="s">
         <v>85</v>
       </c>
-      <c r="U2" s="399" t="s">
+      <c r="U2" s="410" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="399" t="s">
+      <c r="V2" s="410" t="s">
         <v>87</v>
       </c>
-      <c r="W2" s="399" t="s">
+      <c r="W2" s="410" t="s">
         <v>88</v>
       </c>
-      <c r="X2" s="399" t="s">
+      <c r="X2" s="410" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" s="399" t="s">
+      <c r="Y2" s="410" t="s">
         <v>90</v>
       </c>
-      <c r="Z2" s="399" t="s">
+      <c r="Z2" s="410" t="s">
         <v>91</v>
       </c>
-      <c r="AA2" s="399" t="s">
+      <c r="AA2" s="410" t="s">
         <v>92</v>
       </c>
-      <c r="AB2" s="399" t="s">
+      <c r="AB2" s="410" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" s="399" t="s">
+      <c r="AC2" s="410" t="s">
         <v>94</v>
       </c>
-      <c r="AD2" s="399" t="s">
+      <c r="AD2" s="410" t="s">
         <v>95</v>
       </c>
-      <c r="AE2" s="399" t="s">
+      <c r="AE2" s="410" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="399" t="s">
+      <c r="AF2" s="410" t="s">
         <v>96</v>
       </c>
     </row>
@@ -26707,7 +27049,9 @@
       <c r="L3" s="83">
         <v>3527</v>
       </c>
-      <c r="M3" s="83"/>
+      <c r="M3" s="83">
+        <v>3987</v>
+      </c>
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
       <c r="Q3" s="206" t="s">
@@ -26743,16 +27087,18 @@
       <c r="AA3" s="83">
         <v>438</v>
       </c>
-      <c r="AB3" s="83"/>
+      <c r="AB3" s="83">
+        <v>460</v>
+      </c>
       <c r="AC3" s="83"/>
       <c r="AD3" s="83"/>
       <c r="AE3" s="83">
-        <f t="shared" ref="AE3:AE9" si="0">SUM(R3:AD3)</f>
-        <v>3527</v>
+        <f>SUM(R3:AD3)</f>
+        <v>3987</v>
       </c>
       <c r="AF3" s="226">
-        <f t="shared" ref="AF3:AF9" si="1">AVERAGE(R3:AD3)</f>
-        <v>352.7</v>
+        <f>AVERAGE(R3:AD3)</f>
+        <v>362.45454545454544</v>
       </c>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.2">
@@ -26789,7 +27135,9 @@
       <c r="L4" s="256">
         <v>3499</v>
       </c>
-      <c r="M4" s="256"/>
+      <c r="M4" s="256">
+        <v>3910</v>
+      </c>
       <c r="N4" s="256"/>
       <c r="O4" s="256"/>
       <c r="Q4" s="95" t="s">
@@ -26825,180 +27173,190 @@
       <c r="AA4" s="256">
         <v>468</v>
       </c>
-      <c r="AB4" s="256"/>
+      <c r="AB4" s="256">
+        <v>411</v>
+      </c>
       <c r="AC4" s="256"/>
       <c r="AD4" s="256"/>
       <c r="AE4" s="256">
-        <f t="shared" si="0"/>
-        <v>3499</v>
+        <f>SUM(R4:AD4)</f>
+        <v>3910</v>
       </c>
       <c r="AF4" s="227">
-        <f t="shared" si="1"/>
-        <v>349.9</v>
+        <f>AVERAGE(R4:AD4)</f>
+        <v>355.45454545454544</v>
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B5" s="95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="256">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="D5" s="256">
-        <v>566</v>
+        <v>499</v>
       </c>
       <c r="E5" s="256">
-        <v>851</v>
+        <v>759</v>
       </c>
       <c r="F5" s="256">
-        <v>1136</v>
+        <v>1086</v>
       </c>
       <c r="G5" s="256">
-        <v>1423</v>
+        <v>1409</v>
       </c>
       <c r="H5" s="256">
-        <v>1817</v>
+        <v>1775</v>
       </c>
       <c r="I5" s="256">
-        <v>2129</v>
+        <v>2110</v>
       </c>
       <c r="J5" s="256">
-        <v>2486</v>
+        <v>2432</v>
       </c>
       <c r="K5" s="256">
-        <v>2903</v>
+        <v>2789</v>
       </c>
       <c r="L5" s="256">
-        <v>3155</v>
-      </c>
-      <c r="M5" s="256"/>
+        <v>3067</v>
+      </c>
+      <c r="M5" s="256">
+        <v>3575</v>
+      </c>
       <c r="N5" s="256"/>
       <c r="O5" s="256"/>
       <c r="Q5" s="95" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R5" s="256">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="S5" s="256">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="T5" s="256">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="U5" s="256">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="V5" s="256">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="W5" s="256">
-        <v>394</v>
+        <v>366</v>
       </c>
       <c r="X5" s="256">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="Y5" s="256">
+        <v>322</v>
+      </c>
+      <c r="Z5" s="256">
         <v>357</v>
       </c>
-      <c r="Z5" s="256">
-        <v>417</v>
-      </c>
       <c r="AA5" s="256">
-        <v>252</v>
-      </c>
-      <c r="AB5" s="256"/>
+        <v>278</v>
+      </c>
+      <c r="AB5" s="256">
+        <v>505</v>
+      </c>
       <c r="AC5" s="256"/>
       <c r="AD5" s="256"/>
       <c r="AE5" s="256">
-        <f t="shared" si="0"/>
-        <v>3155</v>
+        <f>SUM(R5:AD5)</f>
+        <v>3572</v>
       </c>
       <c r="AF5" s="227">
-        <f t="shared" si="1"/>
-        <v>315.5</v>
+        <f>AVERAGE(R5:AD5)</f>
+        <v>324.72727272727275</v>
       </c>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B6" s="95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="256">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="D6" s="256">
-        <v>499</v>
+        <v>566</v>
       </c>
       <c r="E6" s="256">
-        <v>759</v>
+        <v>851</v>
       </c>
       <c r="F6" s="256">
-        <v>1086</v>
+        <v>1136</v>
       </c>
       <c r="G6" s="256">
-        <v>1409</v>
+        <v>1423</v>
       </c>
       <c r="H6" s="256">
-        <v>1775</v>
+        <v>1817</v>
       </c>
       <c r="I6" s="256">
-        <v>2110</v>
+        <v>2129</v>
       </c>
       <c r="J6" s="256">
-        <v>2432</v>
+        <v>2486</v>
       </c>
       <c r="K6" s="256">
-        <v>2789</v>
+        <v>2903</v>
       </c>
       <c r="L6" s="256">
-        <v>3067</v>
-      </c>
-      <c r="M6" s="256"/>
+        <v>3155</v>
+      </c>
+      <c r="M6" s="256">
+        <v>3475</v>
+      </c>
       <c r="N6" s="256"/>
       <c r="O6" s="256"/>
       <c r="Q6" s="95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R6" s="256">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="S6" s="256">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="T6" s="256">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="U6" s="256">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="V6" s="256">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="W6" s="256">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="X6" s="256">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="Y6" s="256">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="Z6" s="256">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="AA6" s="256">
-        <v>278</v>
-      </c>
-      <c r="AB6" s="256"/>
+        <v>252</v>
+      </c>
+      <c r="AB6" s="256">
+        <v>320</v>
+      </c>
       <c r="AC6" s="256"/>
       <c r="AD6" s="256"/>
       <c r="AE6" s="256">
-        <f t="shared" si="0"/>
-        <v>3067</v>
+        <f>SUM(R6:AD6)</f>
+        <v>3475</v>
       </c>
       <c r="AF6" s="227">
-        <f t="shared" si="1"/>
-        <v>306.7</v>
+        <f>AVERAGE(R6:AD6)</f>
+        <v>315.90909090909093</v>
       </c>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.2">
@@ -27035,7 +27393,9 @@
       <c r="L7" s="256">
         <v>2741</v>
       </c>
-      <c r="M7" s="256"/>
+      <c r="M7" s="256">
+        <v>3000</v>
+      </c>
       <c r="N7" s="256"/>
       <c r="O7" s="256"/>
       <c r="Q7" s="95" t="s">
@@ -27071,16 +27431,18 @@
       <c r="AA7" s="256">
         <v>250</v>
       </c>
-      <c r="AB7" s="256"/>
+      <c r="AB7" s="256">
+        <v>259</v>
+      </c>
       <c r="AC7" s="256"/>
       <c r="AD7" s="256"/>
       <c r="AE7" s="256">
-        <f t="shared" si="0"/>
-        <v>2741</v>
+        <f>SUM(R7:AD7)</f>
+        <v>3000</v>
       </c>
       <c r="AF7" s="227">
-        <f t="shared" si="1"/>
-        <v>274.10000000000002</v>
+        <f>AVERAGE(R7:AD7)</f>
+        <v>272.72727272727275</v>
       </c>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.2">
@@ -27115,7 +27477,9 @@
       <c r="L8" s="256">
         <v>2391</v>
       </c>
-      <c r="M8" s="256"/>
+      <c r="M8" s="256">
+        <v>2739</v>
+      </c>
       <c r="N8" s="256"/>
       <c r="O8" s="256"/>
       <c r="Q8" s="95" t="s">
@@ -27149,16 +27513,18 @@
       <c r="AA8" s="256">
         <v>230</v>
       </c>
-      <c r="AB8" s="256"/>
+      <c r="AB8" s="256">
+        <v>348</v>
+      </c>
       <c r="AC8" s="256"/>
       <c r="AD8" s="256"/>
       <c r="AE8" s="256">
-        <f t="shared" si="0"/>
-        <v>2391</v>
+        <f>SUM(R8:AD8)</f>
+        <v>2739</v>
       </c>
       <c r="AF8" s="227">
-        <f t="shared" si="1"/>
-        <v>265.66666666666669</v>
+        <f>AVERAGE(R8:AD8)</f>
+        <v>273.89999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -27195,7 +27561,9 @@
       <c r="L9" s="249">
         <v>2198</v>
       </c>
-      <c r="M9" s="249"/>
+      <c r="M9" s="249">
+        <v>2414</v>
+      </c>
       <c r="N9" s="249"/>
       <c r="O9" s="249"/>
       <c r="Q9" s="96" t="s">
@@ -27231,104 +27599,106 @@
       <c r="AA9" s="249">
         <v>257</v>
       </c>
-      <c r="AB9" s="249"/>
+      <c r="AB9" s="249">
+        <v>216</v>
+      </c>
       <c r="AC9" s="249"/>
       <c r="AD9" s="249"/>
       <c r="AE9" s="249">
-        <f t="shared" si="0"/>
-        <v>2198</v>
+        <f>SUM(R9:AD9)</f>
+        <v>2414</v>
       </c>
       <c r="AF9" s="228">
-        <f t="shared" si="1"/>
-        <v>219.8</v>
+        <f>AVERAGE(R9:AD9)</f>
+        <v>219.45454545454547</v>
       </c>
     </row>
     <row r="27" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="207"/>
-      <c r="C28" s="399" t="s">
+      <c r="C28" s="410" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="399" t="s">
+      <c r="D28" s="410" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="399" t="s">
+      <c r="E28" s="410" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="399" t="s">
+      <c r="F28" s="410" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="399" t="s">
+      <c r="G28" s="410" t="s">
         <v>87</v>
       </c>
-      <c r="H28" s="399" t="s">
+      <c r="H28" s="410" t="s">
         <v>88</v>
       </c>
-      <c r="I28" s="399" t="s">
+      <c r="I28" s="410" t="s">
         <v>89</v>
       </c>
-      <c r="J28" s="399" t="s">
+      <c r="J28" s="410" t="s">
         <v>90</v>
       </c>
-      <c r="K28" s="399" t="s">
+      <c r="K28" s="410" t="s">
         <v>91</v>
       </c>
-      <c r="L28" s="399" t="s">
+      <c r="L28" s="410" t="s">
         <v>92</v>
       </c>
-      <c r="M28" s="399" t="s">
+      <c r="M28" s="410" t="s">
         <v>93</v>
       </c>
-      <c r="N28" s="399" t="s">
+      <c r="N28" s="410" t="s">
         <v>94</v>
       </c>
-      <c r="O28" s="399" t="s">
+      <c r="O28" s="410" t="s">
         <v>95</v>
       </c>
       <c r="Q28" s="207"/>
-      <c r="R28" s="399" t="s">
+      <c r="R28" s="410" t="s">
         <v>83</v>
       </c>
-      <c r="S28" s="399" t="s">
+      <c r="S28" s="410" t="s">
         <v>84</v>
       </c>
-      <c r="T28" s="399" t="s">
+      <c r="T28" s="410" t="s">
         <v>85</v>
       </c>
-      <c r="U28" s="399" t="s">
+      <c r="U28" s="410" t="s">
         <v>86</v>
       </c>
-      <c r="V28" s="399" t="s">
+      <c r="V28" s="410" t="s">
         <v>87</v>
       </c>
-      <c r="W28" s="399" t="s">
+      <c r="W28" s="410" t="s">
         <v>88</v>
       </c>
-      <c r="X28" s="399" t="s">
+      <c r="X28" s="410" t="s">
         <v>89</v>
       </c>
-      <c r="Y28" s="399" t="s">
+      <c r="Y28" s="410" t="s">
         <v>90</v>
       </c>
-      <c r="Z28" s="399" t="s">
+      <c r="Z28" s="410" t="s">
         <v>91</v>
       </c>
-      <c r="AA28" s="399" t="s">
+      <c r="AA28" s="410" t="s">
         <v>92</v>
       </c>
-      <c r="AB28" s="399" t="s">
+      <c r="AB28" s="410" t="s">
         <v>93</v>
       </c>
-      <c r="AC28" s="399" t="s">
+      <c r="AC28" s="410" t="s">
         <v>94</v>
       </c>
-      <c r="AD28" s="399" t="s">
+      <c r="AD28" s="410" t="s">
         <v>95</v>
       </c>
-      <c r="AE28" s="399" t="s">
+      <c r="AE28" s="410" t="s">
         <v>40</v>
       </c>
-      <c r="AF28" s="399" t="s">
+      <c r="AF28" s="410" t="s">
         <v>96</v>
       </c>
     </row>
@@ -27366,7 +27736,9 @@
       <c r="L29" s="83">
         <v>5279</v>
       </c>
-      <c r="M29" s="83"/>
+      <c r="M29" s="83">
+        <v>5887</v>
+      </c>
       <c r="N29" s="83"/>
       <c r="O29" s="83"/>
       <c r="Q29" s="206" t="s">
@@ -27402,16 +27774,18 @@
       <c r="AA29" s="83">
         <v>695</v>
       </c>
-      <c r="AB29" s="83"/>
+      <c r="AB29" s="83">
+        <v>608</v>
+      </c>
       <c r="AC29" s="83"/>
       <c r="AD29" s="83"/>
       <c r="AE29" s="83">
         <f>SUM(R29:AD29)</f>
-        <v>5279</v>
+        <v>5887</v>
       </c>
       <c r="AF29" s="226">
         <f>AE29/COUNT(R29:AD29)</f>
-        <v>527.9</v>
+        <v>535.18181818181813</v>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.2">
@@ -27448,7 +27822,9 @@
       <c r="L30" s="256">
         <v>4575</v>
       </c>
-      <c r="M30" s="256"/>
+      <c r="M30" s="256">
+        <v>5235</v>
+      </c>
       <c r="N30" s="256"/>
       <c r="O30" s="256"/>
       <c r="Q30" s="95" t="s">
@@ -27484,16 +27860,18 @@
       <c r="AA30" s="256">
         <v>392</v>
       </c>
-      <c r="AB30" s="256"/>
+      <c r="AB30" s="256">
+        <v>660</v>
+      </c>
       <c r="AC30" s="256"/>
       <c r="AD30" s="256"/>
       <c r="AE30" s="256">
         <f>SUM(R30:AD30)</f>
-        <v>4575</v>
+        <v>5235</v>
       </c>
       <c r="AF30" s="227">
         <f>AE30/COUNT(R30:AD30)</f>
-        <v>457.5</v>
+        <v>475.90909090909093</v>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.2">
@@ -27530,7 +27908,9 @@
       <c r="L31" s="256">
         <v>4138</v>
       </c>
-      <c r="M31" s="256"/>
+      <c r="M31" s="256">
+        <v>4819</v>
+      </c>
       <c r="N31" s="256"/>
       <c r="O31" s="256"/>
       <c r="Q31" s="95" t="s">
@@ -27566,22 +27946,24 @@
       <c r="AA31" s="256">
         <v>516</v>
       </c>
-      <c r="AB31" s="256"/>
+      <c r="AB31" s="256">
+        <v>681</v>
+      </c>
       <c r="AC31" s="256"/>
       <c r="AD31" s="256"/>
       <c r="AE31" s="256">
         <f>SUM(R31:AD31)</f>
-        <v>4138</v>
+        <v>4819</v>
       </c>
       <c r="AF31" s="227">
         <f>AE31/COUNT(R31:AD31)</f>
-        <v>413.8</v>
+        <v>438.09090909090907</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="Q2:AF9" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q3:AF9">
-      <sortCondition descending="1" ref="AE2:AE9"/>
+  <autoFilter ref="B28:N31" xr:uid="{61F752F3-F037-174A-BB89-A29C5182D64F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B29:N31">
+      <sortCondition descending="1" ref="M28:M31"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27609,13 +27991,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -27627,19 +28009,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="399" t="s">
+      <c r="J2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="399" t="s">
+      <c r="K2" s="410" t="s">
         <v>113</v>
       </c>
     </row>
@@ -28335,28 +28717,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="399" t="s">
+      <c r="D2" s="410" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="410" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="399" t="s">
+      <c r="F2" s="410" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="261" t="s">
@@ -28958,13 +29340,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -28976,19 +29358,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="399" t="s">
+      <c r="J2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="399" t="s">
+      <c r="K2" s="410" t="s">
         <v>113</v>
       </c>
     </row>
@@ -29687,28 +30069,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="399" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="399" t="s">
+      <c r="D2" s="410" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="410" t="s">
         <v>160</v>
       </c>
-      <c r="F2" s="399" t="s">
+      <c r="F2" s="410" t="s">
         <v>161</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>162</v>
       </c>
       <c r="I2" s="261" t="s">
@@ -30343,13 +30725,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="399" t="s">
+      <c r="A2" s="410" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="399" t="s">
+      <c r="B2" s="410" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="399" t="s">
+      <c r="C2" s="410" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -30361,19 +30743,19 @@
       <c r="F2" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G2" s="399" t="s">
+      <c r="G2" s="410" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="399" t="s">
+      <c r="H2" s="410" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="J2" s="399" t="s">
+      <c r="J2" s="410" t="s">
         <v>112</v>
       </c>
-      <c r="K2" s="399" t="s">
+      <c r="K2" s="410" t="s">
         <v>113</v>
       </c>
     </row>

--- a/F1.xlsx
+++ b/F1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3307e3c88395b6d/CSProjects/PythonProjects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="114_{54737653-12A6-3B4A-8D41-E28719326E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1845DF2C-1E26-7945-ABE6-BEC57888F89F}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_2F569FD568EA4EA5128876485E3885C9D291D604" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C61E39CE-71D1-CE47-BAB6-857B1C7D3272}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,12 +38,12 @@
     <sheet name="R10" sheetId="23" r:id="rId23"/>
     <sheet name="Q11" sheetId="24" state="hidden" r:id="rId24"/>
     <sheet name="R11" sheetId="25" r:id="rId25"/>
-    <sheet name="Q12" sheetId="26" r:id="rId26"/>
+    <sheet name="Q12" sheetId="26" state="hidden" r:id="rId26"/>
     <sheet name="R12" sheetId="27" r:id="rId27"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'C'!$S$2:$T$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">F!$B$49:$Q$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">F!$S$3:$AH$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Leagues!$B$28:$N$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Q1'!$A$2:$K$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'Q10'!$A$2:$K$22</definedName>
@@ -60,6 +60,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'R1'!$A$2:$I$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'R10'!$A$2:$I$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'R11'!$A$2:$I$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">'R12'!$A$2:$I$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'R2'!$A$2:$I$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'R3'!$A$2:$I$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'R4'!$A$2:$I$22</definedName>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2579" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="895">
   <si>
     <t>Constructor</t>
   </si>
@@ -2577,6 +2578,15 @@
     <t>DNF, suspension failure</t>
   </si>
   <si>
+    <t>1:16.828</t>
+  </si>
+  <si>
+    <t>1:16.824</t>
+  </si>
+  <si>
+    <t>1:16.652</t>
+  </si>
+  <si>
     <t>1:16.945</t>
   </si>
   <si>
@@ -2586,15 +2596,6 @@
     <t>1:16.754</t>
   </si>
   <si>
-    <t>1:16.828</t>
-  </si>
-  <si>
-    <t>1:16.824</t>
-  </si>
-  <si>
-    <t>1:16.652</t>
-  </si>
-  <si>
     <t>1:16.879</t>
   </si>
   <si>
@@ -2613,6 +2614,15 @@
     <t>1:17.090</t>
   </si>
   <si>
+    <t>1:17.370</t>
+  </si>
+  <si>
+    <t>1:17.129</t>
+  </si>
+  <si>
+    <t>1:17.223</t>
+  </si>
+  <si>
     <t>1:17.435</t>
   </si>
   <si>
@@ -2622,43 +2632,58 @@
     <t>1:17.437</t>
   </si>
   <si>
+    <t>1:17.627</t>
+  </si>
+  <si>
+    <t>1:17.183</t>
+  </si>
+  <si>
+    <t>1:17.520</t>
+  </si>
+  <si>
+    <t>1:17.547</t>
+  </si>
+  <si>
+    <t>1:17.321</t>
+  </si>
+  <si>
+    <t>1:17.525</t>
+  </si>
+  <si>
+    <t>1:17.209</t>
+  </si>
+  <si>
+    <t>1:17.803</t>
+  </si>
+  <si>
     <t>1:17.621</t>
   </si>
   <si>
     <t>1:17.481</t>
   </si>
   <si>
+    <t>Did Not Run in Q3</t>
+  </si>
+  <si>
     <t>1:17.775</t>
   </si>
   <si>
     <t>1:17.614</t>
   </si>
   <si>
-    <t>1:17.547</t>
-  </si>
-  <si>
-    <t>1:17.321</t>
-  </si>
-  <si>
-    <t>1:17.525</t>
-  </si>
-  <si>
-    <t>1:17.370</t>
-  </si>
-  <si>
-    <t>1:17.129</t>
-  </si>
-  <si>
-    <t>1:17.223</t>
-  </si>
-  <si>
-    <t>1:17.627</t>
-  </si>
-  <si>
-    <t>1:17.183</t>
-  </si>
-  <si>
-    <t>1:17.520</t>
+    <t>1:17.626</t>
+  </si>
+  <si>
+    <t>1:17.841</t>
+  </si>
+  <si>
+    <t>1:17.728</t>
+  </si>
+  <si>
+    <t>1:17.931</t>
+  </si>
+  <si>
+    <t>1:17.788</t>
   </si>
   <si>
     <t>1:17.446</t>
@@ -2667,43 +2692,85 @@
     <t>1:17.919</t>
   </si>
   <si>
-    <t>1:17.209</t>
-  </si>
-  <si>
-    <t>1:17.803</t>
-  </si>
-  <si>
-    <t>1:17.841</t>
-  </si>
-  <si>
-    <t>1:17.728</t>
+    <t>1:18.201</t>
   </si>
   <si>
     <t>1:18.323</t>
   </si>
   <si>
+    <t>1:18.364</t>
+  </si>
+  <si>
     <t>1:18.508</t>
   </si>
   <si>
-    <t>1:18.364</t>
-  </si>
-  <si>
-    <t>1:17.931</t>
-  </si>
-  <si>
-    <t>1:17.788</t>
-  </si>
-  <si>
     <t>1:18.777</t>
   </si>
   <si>
-    <t>1:18.201</t>
-  </si>
-  <si>
-    <t>1:17.626</t>
-  </si>
-  <si>
-    <t>Did Not Run in Q3</t>
+    <t>1:29:56.828</t>
+  </si>
+  <si>
+    <t>1:30:31.336</t>
+  </si>
+  <si>
+    <t>1:30:19.151</t>
+  </si>
+  <si>
+    <t>1:30:16.886</t>
+  </si>
+  <si>
+    <t>1:30:15.280</t>
+  </si>
+  <si>
+    <t>1:30:13.864</t>
+  </si>
+  <si>
+    <t>1:31:02.140</t>
+  </si>
+  <si>
+    <t>1:12:34.495</t>
+  </si>
+  <si>
+    <t>1:31:13.472</t>
+  </si>
+  <si>
+    <t>1:31:07.621</t>
+  </si>
+  <si>
+    <t>1:30:20.291</t>
+  </si>
+  <si>
+    <t>1:30:26.810</t>
+  </si>
+  <si>
+    <t>1:31:10.875</t>
+  </si>
+  <si>
+    <t>1:30:01.078</t>
+  </si>
+  <si>
+    <t>1:30:28.169</t>
+  </si>
+  <si>
+    <t>1:30:47.438</t>
+  </si>
+  <si>
+    <t>1:30:33.049</t>
+  </si>
+  <si>
+    <t>1:30:18.457</t>
+  </si>
+  <si>
+    <t>1:30:22.420</t>
+  </si>
+  <si>
+    <t>1:30:55.041</t>
+  </si>
+  <si>
+    <t>(2 x +5, causing a collision) Retired</t>
+  </si>
+  <si>
+    <t>(+5, exceeding track limits)</t>
   </si>
 </sst>
 </file>
@@ -3384,7 +3451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="393">
+  <cellXfs count="399">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4522,6 +4589,24 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="3" fillId="21" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4530,22 +4615,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="21" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="21" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4696,13 +4781,16 @@
                 <c:pt idx="2">
                   <c:v>5887</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>6377</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F549-9B43-8B3C-BDF2D563C4A2}"/>
+              <c16:uniqueId val="{00000000-722F-2943-A798-C3D9369CBF03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4782,13 +4870,16 @@
                 <c:pt idx="2">
                   <c:v>5235</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>5691</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F549-9B43-8B3C-BDF2D563C4A2}"/>
+              <c16:uniqueId val="{00000001-722F-2943-A798-C3D9369CBF03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4868,13 +4959,16 @@
                 <c:pt idx="2">
                   <c:v>4819</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>5220</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F549-9B43-8B3C-BDF2D563C4A2}"/>
+              <c16:uniqueId val="{00000002-722F-2943-A798-C3D9369CBF03}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5172,13 +5266,16 @@
                 <c:pt idx="2">
                   <c:v>460</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>362</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8995-4240-949C-5EB29ABBA01B}"/>
+              <c16:uniqueId val="{00000000-8A41-A14F-910F-89E156932392}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5255,13 +5352,16 @@
                 <c:pt idx="2">
                   <c:v>411</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>313</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8995-4240-949C-5EB29ABBA01B}"/>
+              <c16:uniqueId val="{00000001-8A41-A14F-910F-89E156932392}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5338,13 +5438,16 @@
                 <c:pt idx="2">
                   <c:v>505</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>343</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8995-4240-949C-5EB29ABBA01B}"/>
+              <c16:uniqueId val="{00000002-8A41-A14F-910F-89E156932392}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5421,13 +5524,16 @@
                 <c:pt idx="2">
                   <c:v>320</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>277</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8995-4240-949C-5EB29ABBA01B}"/>
+              <c16:uniqueId val="{00000003-8A41-A14F-910F-89E156932392}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5504,13 +5610,16 @@
                 <c:pt idx="2">
                   <c:v>259</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>382</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8995-4240-949C-5EB29ABBA01B}"/>
+              <c16:uniqueId val="{00000004-8A41-A14F-910F-89E156932392}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5587,13 +5696,16 @@
                 <c:pt idx="2">
                   <c:v>348</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>197</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8995-4240-949C-5EB29ABBA01B}"/>
+              <c16:uniqueId val="{00000005-8A41-A14F-910F-89E156932392}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5676,13 +5788,16 @@
                 <c:pt idx="2">
                   <c:v>216</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>244</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8995-4240-949C-5EB29ABBA01B}"/>
+              <c16:uniqueId val="{00000006-8A41-A14F-910F-89E156932392}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5755,7 +5870,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="510"/>
-          <c:min val="200"/>
+          <c:min val="195"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5980,13 +6095,16 @@
                 <c:pt idx="2">
                   <c:v>608</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>490</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9449-F94D-B409-D6CDC2D96CDB}"/>
+              <c16:uniqueId val="{00000000-D34B-3F44-B887-E16B90B0356D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6063,13 +6181,16 @@
                 <c:pt idx="2">
                   <c:v>660</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>456</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9449-F94D-B409-D6CDC2D96CDB}"/>
+              <c16:uniqueId val="{00000001-D34B-3F44-B887-E16B90B0356D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6146,13 +6267,16 @@
                 <c:pt idx="2">
                   <c:v>681</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>401</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9449-F94D-B409-D6CDC2D96CDB}"/>
+              <c16:uniqueId val="{00000002-D34B-3F44-B887-E16B90B0356D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6450,13 +6574,16 @@
                 <c:pt idx="2">
                   <c:v>3987</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>4349</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8687-6140-A2F4-2D4E2390ABBC}"/>
+              <c16:uniqueId val="{00000000-A3B4-BE4B-A46A-60AB88CAD2AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6533,13 +6660,16 @@
                 <c:pt idx="2">
                   <c:v>3910</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>4223</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8687-6140-A2F4-2D4E2390ABBC}"/>
+              <c16:uniqueId val="{00000001-A3B4-BE4B-A46A-60AB88CAD2AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6616,13 +6746,16 @@
                 <c:pt idx="2">
                   <c:v>3575</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3915</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8687-6140-A2F4-2D4E2390ABBC}"/>
+              <c16:uniqueId val="{00000002-A3B4-BE4B-A46A-60AB88CAD2AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6699,13 +6832,16 @@
                 <c:pt idx="2">
                   <c:v>3475</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3752</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-8687-6140-A2F4-2D4E2390ABBC}"/>
+              <c16:uniqueId val="{00000003-A3B4-BE4B-A46A-60AB88CAD2AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6782,13 +6918,16 @@
                 <c:pt idx="2">
                   <c:v>3000</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3382</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8687-6140-A2F4-2D4E2390ABBC}"/>
+              <c16:uniqueId val="{00000004-A3B4-BE4B-A46A-60AB88CAD2AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6865,13 +7004,16 @@
                 <c:pt idx="2">
                   <c:v>2739</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>2936</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-8687-6140-A2F4-2D4E2390ABBC}"/>
+              <c16:uniqueId val="{00000005-A3B4-BE4B-A46A-60AB88CAD2AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6954,13 +7096,16 @@
                 <c:pt idx="2">
                   <c:v>2414</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>2658</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-8687-6140-A2F4-2D4E2390ABBC}"/>
+              <c16:uniqueId val="{00000006-A3B4-BE4B-A46A-60AB88CAD2AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7032,8 +7177,8 @@
         <c:axId val="686936415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4100"/>
-          <c:min val="1600"/>
+          <c:max val="4400"/>
+          <c:min val="1900"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8876,7 +9021,7 @@
   <dimension ref="B1:X57"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8892,40 +9037,40 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:24" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="383" t="s">
+      <c r="D2" s="389" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="383" t="s">
+      <c r="E2" s="389" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="383" t="s">
+      <c r="F2" s="389" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="383" t="s">
+      <c r="I2" s="389" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="383" t="s">
+      <c r="J2" s="389" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="383" t="s">
+      <c r="K2" s="389" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="383" t="s">
+      <c r="L2" s="389" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="383" t="s">
+      <c r="M2" s="389" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="247" t="s">
@@ -8943,7 +9088,7 @@
       <c r="S2" s="245" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="383" t="s">
+      <c r="T2" s="389" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8998,18 +9143,21 @@
         <f>+VLOOKUP($C3,'R11'!$C$3:$H$22,6,)</f>
         <v>25</v>
       </c>
-      <c r="O3" s="37"/>
+      <c r="O3" s="398">
+        <f>+VLOOKUP($C3,'R12'!$C$3:$H$22,6,)</f>
+        <v>26</v>
+      </c>
       <c r="P3" s="37"/>
       <c r="Q3" s="37">
         <f t="shared" ref="Q3:Q22" si="0">SUM(D3:P3)</f>
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="S3" s="38" t="s">
         <v>17</v>
       </c>
       <c r="T3" s="83">
         <f ca="1">SUMIF($B$3:$Q$22,S3,$Q$3:$Q$22)</f>
-        <v>391</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
@@ -9063,18 +9211,21 @@
         <f>+VLOOKUP($C4,'R11'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="27"/>
+      <c r="O4" s="27">
+        <f>+VLOOKUP($C4,'R12'!$C$3:$H$22,6,)</f>
+        <v>18</v>
+      </c>
       <c r="P4" s="27"/>
       <c r="Q4" s="27">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="S4" s="44" t="s">
         <v>20</v>
       </c>
       <c r="T4" s="242">
         <f ca="1">SUMIF($B$3:$Q$22,S4,$Q$3:$Q$22)</f>
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
@@ -9124,22 +9275,25 @@
         <f>+VLOOKUP($C5,'R10'!$C$3:$H$22,6,)</f>
         <v>18</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="395">
         <f>+VLOOKUP($C5,'R11'!$C$3:$H$22,6,)</f>
         <v>19</v>
       </c>
-      <c r="O5" s="29"/>
+      <c r="O5" s="29">
+        <f>+VLOOKUP($C5,'R12'!$C$3:$H$22,6,)</f>
+        <v>15</v>
+      </c>
       <c r="P5" s="29"/>
       <c r="Q5" s="29">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="S5" s="41" t="s">
         <v>22</v>
       </c>
       <c r="T5" s="242">
         <f ca="1">SUMIF($B$3:$Q$22,S5,$Q$3:$Q$22)-15+$X$16</f>
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
@@ -9193,18 +9347,21 @@
         <f>+VLOOKUP($C6,'R11'!$C$3:$H$22,6,)</f>
         <v>15</v>
       </c>
-      <c r="O6" s="32"/>
+      <c r="O6" s="32">
+        <f>+VLOOKUP($C6,'R12'!$C$3:$H$22,6,)</f>
+        <v>2</v>
+      </c>
       <c r="P6" s="32"/>
       <c r="Q6" s="32">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="S6" s="39" t="s">
         <v>25</v>
       </c>
       <c r="T6" s="242">
         <f t="shared" ref="T6:T12" ca="1" si="1">SUMIF($B$3:$Q$22,S6,$Q$3:$Q$22)</f>
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
@@ -9252,18 +9409,21 @@
         <f>+VLOOKUP($C7,'R11'!$C$3:$H$22,6,)</f>
         <v>12</v>
       </c>
-      <c r="O7" s="31"/>
+      <c r="O7" s="31">
+        <f>+VLOOKUP($C7,'R12'!$C$3:$H$22,6,)</f>
+        <v>6</v>
+      </c>
       <c r="P7" s="31"/>
       <c r="Q7" s="31">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="S7" s="42" t="s">
         <v>23</v>
       </c>
       <c r="T7" s="242">
         <f t="shared" ca="1" si="1"/>
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.2">
@@ -9317,7 +9477,10 @@
         <f>+VLOOKUP($C8,'R11'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="30"/>
+      <c r="O8" s="30">
+        <f>+VLOOKUP($C8,'R12'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="P8" s="30"/>
       <c r="Q8" s="30">
         <f t="shared" si="0"/>
@@ -9328,7 +9491,7 @@
       </c>
       <c r="T8" s="242">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
@@ -9382,7 +9545,10 @@
         <f>+VLOOKUP($C9,'R11'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="29"/>
+      <c r="O9" s="29">
+        <f>+VLOOKUP($C9,'R12'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="P9" s="29"/>
       <c r="Q9" s="29">
         <f t="shared" si="0"/>
@@ -9393,7 +9559,7 @@
       </c>
       <c r="T9" s="242">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.2">
@@ -9447,11 +9613,14 @@
         <f>+VLOOKUP($C10,'R11'!$C$3:$H$22,6,)</f>
         <v>6</v>
       </c>
-      <c r="O10" s="28"/>
+      <c r="O10" s="28">
+        <f>+VLOOKUP($C10,'R12'!$C$3:$H$22,6,)</f>
+        <v>12</v>
+      </c>
       <c r="P10" s="28"/>
       <c r="Q10" s="28">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="S10" s="43" t="s">
         <v>32</v>
@@ -9509,7 +9678,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="O11" s="31">
+        <f>+VLOOKUP($C11,'R12'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="P11" s="31"/>
       <c r="Q11" s="31">
         <f t="shared" si="0"/>
@@ -9574,11 +9746,14 @@
         <f>+VLOOKUP($C12,'R11'!$C$3:$H$22,6,)</f>
         <v>8</v>
       </c>
-      <c r="O12" s="82"/>
+      <c r="O12" s="82">
+        <f>+VLOOKUP($C12,'R12'!$C$3:$H$22,6,)</f>
+        <v>10</v>
+      </c>
       <c r="P12" s="82"/>
       <c r="Q12" s="82">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="S12" s="46" t="s">
         <v>36</v>
@@ -9639,11 +9814,14 @@
         <f>+VLOOKUP($C13,'R11'!$C$3:$H$22,6,)</f>
         <v>10</v>
       </c>
-      <c r="O13" s="30"/>
+      <c r="O13" s="30">
+        <f>+VLOOKUP($C13,'R12'!$C$3:$H$22,6,)</f>
+        <v>8</v>
+      </c>
       <c r="P13" s="30"/>
       <c r="Q13" s="30">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="2:24" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9697,11 +9875,14 @@
         <f>+VLOOKUP($C14,'R11'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="32"/>
+      <c r="O14" s="32">
+        <f>+VLOOKUP($C14,'R12'!$C$3:$H$22,6,)</f>
+        <v>4</v>
+      </c>
       <c r="P14" s="32"/>
       <c r="Q14" s="32">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:24" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -9755,28 +9936,31 @@
         <f>+VLOOKUP($C15,'R11'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="28"/>
+      <c r="O15" s="28">
+        <f>+VLOOKUP($C15,'R12'!$C$3:$H$22,6,)</f>
+        <v>1</v>
+      </c>
       <c r="P15" s="28"/>
       <c r="Q15" s="28">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="S15" s="383" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="T15" s="383" t="s">
+      <c r="T15" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="U15" s="383" t="s">
+      <c r="U15" s="389" t="s">
         <v>5</v>
       </c>
-      <c r="V15" s="383" t="s">
+      <c r="V15" s="389" t="s">
         <v>6</v>
       </c>
-      <c r="W15" s="383" t="s">
+      <c r="W15" s="389" t="s">
         <v>12</v>
       </c>
-      <c r="X15" s="383" t="s">
+      <c r="X15" s="389" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9831,7 +10015,10 @@
         <f>+VLOOKUP($C16,'R11'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="82"/>
+      <c r="O16" s="82">
+        <f>+VLOOKUP($C16,'R12'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="P16" s="82"/>
       <c r="Q16" s="82">
         <f t="shared" si="0"/>
@@ -9911,7 +10098,10 @@
         <f>+VLOOKUP($C17,'R11'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="33"/>
+      <c r="O17" s="33">
+        <f>+VLOOKUP($C17,'R12'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="P17" s="33"/>
       <c r="Q17" s="33">
         <f t="shared" si="0"/>
@@ -9969,7 +10159,10 @@
         <f>+VLOOKUP($C18,'R11'!$C$3:$H$22,6,)</f>
         <v>1</v>
       </c>
-      <c r="O18" s="33"/>
+      <c r="O18" s="33">
+        <f>+VLOOKUP($C18,'R12'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="P18" s="33"/>
       <c r="Q18" s="33">
         <f t="shared" si="0"/>
@@ -10027,7 +10220,10 @@
         <f>+VLOOKUP($C19,'R11'!$C$3:$H$22,6,)</f>
         <v>2</v>
       </c>
-      <c r="O19" s="34"/>
+      <c r="O19" s="34">
+        <f>+VLOOKUP($C19,'R12'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="P19" s="34"/>
       <c r="Q19" s="34">
         <f t="shared" si="0"/>
@@ -10085,7 +10281,10 @@
         <f>+VLOOKUP($C20,'R11'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="34"/>
+      <c r="O20" s="34">
+        <f>+VLOOKUP($C20,'R12'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="P20" s="34"/>
       <c r="Q20" s="34">
         <f t="shared" si="0"/>
@@ -10143,7 +10342,10 @@
         <f>+VLOOKUP($C21,'R11'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="35"/>
+      <c r="O21" s="35">
+        <f>+VLOOKUP($C21,'R12'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="35">
         <f t="shared" si="0"/>
@@ -10201,7 +10403,10 @@
         <f>+VLOOKUP($C22,'R11'!$C$3:$H$22,6,)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="36"/>
+      <c r="O22" s="36">
+        <f>+VLOOKUP($C22,'R12'!$C$3:$H$22,6,)</f>
+        <v>0</v>
+      </c>
       <c r="P22" s="36"/>
       <c r="Q22" s="36">
         <f t="shared" si="0"/>
@@ -10261,13 +10466,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -10279,19 +10484,19 @@
       <c r="F2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>93</v>
       </c>
       <c r="I2" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="383" t="s">
+      <c r="J2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="383" t="s">
+      <c r="K2" s="389" t="s">
         <v>96</v>
       </c>
     </row>
@@ -10985,28 +11190,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="383" t="s">
+      <c r="D2" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="383" t="s">
+      <c r="E2" s="389" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="383" t="s">
+      <c r="F2" s="389" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>145</v>
       </c>
       <c r="I2" s="247" t="s">
@@ -11598,13 +11803,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -11616,19 +11821,19 @@
       <c r="F2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>93</v>
       </c>
       <c r="I2" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="383" t="s">
+      <c r="J2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="383" t="s">
+      <c r="K2" s="389" t="s">
         <v>96</v>
       </c>
     </row>
@@ -12320,28 +12525,28 @@
   <sheetData>
     <row r="1" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="383" t="s">
+      <c r="D2" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="383" t="s">
+      <c r="E2" s="389" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="383" t="s">
+      <c r="F2" s="389" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>145</v>
       </c>
       <c r="I2" s="247" t="s">
@@ -12919,13 +13124,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -12937,19 +13142,19 @@
       <c r="F2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>93</v>
       </c>
       <c r="I2" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="383" t="s">
+      <c r="J2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="383" t="s">
+      <c r="K2" s="389" t="s">
         <v>96</v>
       </c>
     </row>
@@ -13639,28 +13844,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="383" t="s">
+      <c r="D2" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="383" t="s">
+      <c r="E2" s="389" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="383" t="s">
+      <c r="F2" s="389" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>145</v>
       </c>
       <c r="I2" s="247" t="s">
@@ -14239,13 +14444,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -14257,19 +14462,19 @@
       <c r="F2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>93</v>
       </c>
       <c r="I2" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="383" t="s">
+      <c r="J2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="383" t="s">
+      <c r="K2" s="389" t="s">
         <v>96</v>
       </c>
     </row>
@@ -14960,28 +15165,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="383" t="s">
+      <c r="D2" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="383" t="s">
+      <c r="E2" s="389" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="383" t="s">
+      <c r="F2" s="389" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>145</v>
       </c>
       <c r="I2" s="247" t="s">
@@ -15556,13 +15761,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -15574,19 +15779,19 @@
       <c r="F2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>93</v>
       </c>
       <c r="I2" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="383" t="s">
+      <c r="J2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="383" t="s">
+      <c r="K2" s="389" t="s">
         <v>96</v>
       </c>
     </row>
@@ -16273,28 +16478,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="383" t="s">
+      <c r="D2" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="383" t="s">
+      <c r="E2" s="389" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="383" t="s">
+      <c r="F2" s="389" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>145</v>
       </c>
       <c r="I2" s="247" t="s">
@@ -16859,43 +17064,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AH69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AD21" sqref="AD21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF23" sqref="AF23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11" style="236" customWidth="1"/>
     <col min="4" max="11" width="10.83203125" style="236" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="236" customWidth="1"/>
+    <col min="12" max="12" width="11" style="236" hidden="1" customWidth="1"/>
     <col min="13" max="16" width="13" style="236" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="236" customWidth="1"/>
     <col min="20" max="24" width="13" style="236" hidden="1" customWidth="1"/>
     <col min="25" max="26" width="10.83203125" style="236" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="236" hidden="1" customWidth="1"/>
-    <col min="28" max="32" width="13" style="236" customWidth="1"/>
+    <col min="27" max="28" width="13" style="236" hidden="1" customWidth="1"/>
+    <col min="29" max="32" width="13" style="236" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="384" t="s">
+      <c r="B2" s="390" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="385"/>
-      <c r="D2" s="385"/>
-      <c r="E2" s="385"/>
-      <c r="F2" s="385"/>
-      <c r="G2" s="385"/>
-      <c r="H2" s="385"/>
-      <c r="I2" s="385"/>
-      <c r="J2" s="385"/>
-      <c r="K2" s="385"/>
-      <c r="L2" s="385"/>
-      <c r="M2" s="385"/>
-      <c r="N2" s="385"/>
-      <c r="O2" s="385"/>
-      <c r="P2" s="385"/>
-      <c r="Q2" s="386"/>
+      <c r="C2" s="391"/>
+      <c r="D2" s="391"/>
+      <c r="E2" s="391"/>
+      <c r="F2" s="391"/>
+      <c r="G2" s="391"/>
+      <c r="H2" s="391"/>
+      <c r="I2" s="391"/>
+      <c r="J2" s="391"/>
+      <c r="K2" s="391"/>
+      <c r="L2" s="391"/>
+      <c r="M2" s="391"/>
+      <c r="N2" s="391"/>
+      <c r="O2" s="391"/>
+      <c r="P2" s="391"/>
+      <c r="Q2" s="392"/>
     </row>
     <row r="3" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="254" t="s">
@@ -16946,7 +17151,7 @@
       <c r="Q3" s="234" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="383" t="s">
+      <c r="S3" s="389" t="s">
         <v>0</v>
       </c>
       <c r="T3" s="247" t="s">
@@ -17048,11 +17253,11 @@
       </c>
       <c r="O4" s="37">
         <f>+VLOOKUP($C4,'R12'!$C$3:$H$22,5,)+VLOOKUP($C4,'Q12'!$B$3:$J$22,9,)</f>
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="P4" s="37"/>
       <c r="Q4" s="37">
-        <f t="shared" ref="Q4:Q23" si="0">SUM(D4:M4)</f>
+        <f>SUM(D4:M4)</f>
         <v>414</v>
       </c>
       <c r="S4" s="38" t="s">
@@ -17091,76 +17296,78 @@
       <c r="AD4" s="98">
         <v>53</v>
       </c>
-      <c r="AE4" s="98"/>
+      <c r="AE4" s="98">
+        <v>75</v>
+      </c>
       <c r="AF4" s="98"/>
       <c r="AG4" s="99">
-        <f>SUM(T4:AD4)</f>
-        <v>697</v>
+        <f>SUM(T4:AE4)</f>
+        <v>772</v>
       </c>
       <c r="AH4" s="203">
-        <f t="shared" ref="AH4:AH13" si="1">AG4/COUNT(T4:AF4)</f>
-        <v>63.363636363636367</v>
+        <f>AG4/COUNT(T4:AF4)</f>
+        <v>64.333333333333329</v>
       </c>
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B5" s="84" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="27">
+      <c r="B5" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="29">
         <f>+VLOOKUP($C5,'R1'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q1'!$B$3:$J$22,9,)</f>
-        <v>44</v>
-      </c>
-      <c r="E5" s="27">
+        <v>-2</v>
+      </c>
+      <c r="E5" s="29">
         <f>+VLOOKUP($C5,'R2'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q2'!$B$3:$J$22,9,)</f>
-        <v>33</v>
-      </c>
-      <c r="F5" s="27">
+        <v>31</v>
+      </c>
+      <c r="F5" s="29">
         <f>+VLOOKUP($C5,'R3'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q3'!$B$3:$J$22,9,)</f>
-        <v>26</v>
-      </c>
-      <c r="G5" s="27">
+        <v>41</v>
+      </c>
+      <c r="G5" s="29">
         <f>+VLOOKUP($C5,'R4'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q4'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="H5" s="27">
+        <v>42</v>
+      </c>
+      <c r="H5" s="29">
         <f>+VLOOKUP($C5,'R5'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q5'!$B$3:$J$22,9,)</f>
+        <v>52</v>
+      </c>
+      <c r="I5" s="29">
+        <f>+VLOOKUP($C5,'R6'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q6'!$B$3:$J$22,9,)</f>
+        <v>47</v>
+      </c>
+      <c r="J5" s="29">
+        <f>+VLOOKUP($C5,'R7'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q7'!$B$3:$J$22,9,)</f>
         <v>32</v>
       </c>
-      <c r="I5" s="27">
-        <f>+VLOOKUP($C5,'R6'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q6'!$B$3:$J$22,9,)</f>
-        <v>31</v>
-      </c>
-      <c r="J5" s="27">
-        <f>+VLOOKUP($C5,'R7'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q7'!$B$3:$J$22,9,)</f>
-        <v>31</v>
-      </c>
-      <c r="K5" s="27">
+      <c r="K5" s="29">
         <f>+VLOOKUP($C5,'R8'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q8'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="L5" s="27">
+        <v>-4</v>
+      </c>
+      <c r="L5" s="29">
         <f>+VLOOKUP($C5,'R9'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-2</v>
+      </c>
+      <c r="M5" s="29">
+        <f>+VLOOKUP($C5,'R10'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q10'!$B$3:$J$22,9,)</f>
         <v>41</v>
       </c>
-      <c r="M5" s="27">
-        <f>+VLOOKUP($C5,'R10'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q10'!$B$3:$J$22,9,)</f>
-        <v>54</v>
-      </c>
-      <c r="N5" s="27">
+      <c r="N5" s="29">
         <f>+VLOOKUP($C5,'R11'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q11'!$B$3:$J$22,9,)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="27">
+        <v>42</v>
+      </c>
+      <c r="O5" s="29">
         <f>+VLOOKUP($C5,'R12'!$C$3:$H$22,5,)+VLOOKUP($C5,'Q12'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27">
-        <f t="shared" si="0"/>
-        <v>315</v>
+        <v>32</v>
+      </c>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29">
+        <f>SUM(D5:M5)</f>
+        <v>278</v>
       </c>
       <c r="S5" s="44" t="s">
         <v>20</v>
@@ -17195,77 +17402,81 @@
       <c r="AC5" s="101">
         <v>52</v>
       </c>
-      <c r="AD5" s="101"/>
-      <c r="AE5" s="101"/>
+      <c r="AD5" s="101">
+        <v>41</v>
+      </c>
+      <c r="AE5" s="101">
+        <v>26</v>
+      </c>
       <c r="AF5" s="101"/>
       <c r="AG5" s="102">
-        <f t="shared" ref="AG4:AG13" si="2">SUM(T5:AC5)</f>
-        <v>438</v>
+        <f>SUM(T5:AE5)</f>
+        <v>505</v>
       </c>
       <c r="AH5" s="205">
-        <f t="shared" si="1"/>
-        <v>43.8</v>
+        <f>AG5/COUNT(T5:AF5)</f>
+        <v>42.083333333333336</v>
       </c>
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="27">
+        <f>+VLOOKUP($C6,'R1'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q1'!$B$3:$J$22,9,)</f>
+        <v>44</v>
+      </c>
+      <c r="E6" s="27">
+        <f>+VLOOKUP($C6,'R2'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q2'!$B$3:$J$22,9,)</f>
+        <v>33</v>
+      </c>
+      <c r="F6" s="27">
+        <f>+VLOOKUP($C6,'R3'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q3'!$B$3:$J$22,9,)</f>
+        <v>26</v>
+      </c>
+      <c r="G6" s="27">
+        <f>+VLOOKUP($C6,'R4'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q4'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="27">
+        <f>+VLOOKUP($C6,'R5'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q5'!$B$3:$J$22,9,)</f>
+        <v>32</v>
+      </c>
+      <c r="I6" s="27">
+        <f>+VLOOKUP($C6,'R6'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q6'!$B$3:$J$22,9,)</f>
+        <v>31</v>
+      </c>
+      <c r="J6" s="27">
+        <f>+VLOOKUP($C6,'R7'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q7'!$B$3:$J$22,9,)</f>
+        <v>31</v>
+      </c>
+      <c r="K6" s="27">
+        <f>+VLOOKUP($C6,'R8'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q8'!$B$3:$J$22,9,)</f>
         <v>20</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="29">
-        <f>+VLOOKUP($C6,'R1'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-2</v>
-      </c>
-      <c r="E6" s="29">
-        <f>+VLOOKUP($C6,'R2'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q2'!$B$3:$J$22,9,)</f>
+      <c r="L6" s="27">
+        <f>+VLOOKUP($C6,'R9'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q9'!$B$3:$J$22,9,)</f>
+        <v>41</v>
+      </c>
+      <c r="M6" s="27">
+        <f>+VLOOKUP($C6,'R10'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q10'!$B$3:$J$22,9,)</f>
+        <v>54</v>
+      </c>
+      <c r="N6" s="27">
+        <f>+VLOOKUP($C6,'R11'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q11'!$B$3:$J$22,9,)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="27">
+        <f>+VLOOKUP($C6,'R12'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q12'!$B$3:$J$22,9,)</f>
         <v>31</v>
       </c>
-      <c r="F6" s="29">
-        <f>+VLOOKUP($C6,'R3'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q3'!$B$3:$J$22,9,)</f>
-        <v>41</v>
-      </c>
-      <c r="G6" s="29">
-        <f>+VLOOKUP($C6,'R4'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q4'!$B$3:$J$22,9,)</f>
-        <v>42</v>
-      </c>
-      <c r="H6" s="29">
-        <f>+VLOOKUP($C6,'R5'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q5'!$B$3:$J$22,9,)</f>
-        <v>52</v>
-      </c>
-      <c r="I6" s="29">
-        <f>+VLOOKUP($C6,'R6'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q6'!$B$3:$J$22,9,)</f>
-        <v>47</v>
-      </c>
-      <c r="J6" s="29">
-        <f>+VLOOKUP($C6,'R7'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q7'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="K6" s="29">
-        <f>+VLOOKUP($C6,'R8'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q8'!$B$3:$J$22,9,)</f>
-        <v>-4</v>
-      </c>
-      <c r="L6" s="29">
-        <f>+VLOOKUP($C6,'R9'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-2</v>
-      </c>
-      <c r="M6" s="29">
-        <f>+VLOOKUP($C6,'R10'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q10'!$B$3:$J$22,9,)</f>
-        <v>41</v>
-      </c>
-      <c r="N6" s="29">
-        <f>+VLOOKUP($C6,'R11'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q11'!$B$3:$J$22,9,)</f>
-        <v>42</v>
-      </c>
-      <c r="O6" s="29">
-        <f>+VLOOKUP($C6,'R12'!$C$3:$H$22,5,)+VLOOKUP($C6,'Q12'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29">
-        <f t="shared" si="0"/>
-        <v>278</v>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27">
+        <f>SUM(D6:M6)</f>
+        <v>315</v>
       </c>
       <c r="S6" s="41" t="s">
         <v>22</v>
@@ -17300,330 +17511,347 @@
       <c r="AC6" s="103">
         <v>25</v>
       </c>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
+      <c r="AD6" s="103">
+        <v>44</v>
+      </c>
+      <c r="AE6" s="103">
+        <v>14</v>
+      </c>
       <c r="AF6" s="103"/>
       <c r="AG6" s="104">
-        <f t="shared" si="2"/>
-        <v>287</v>
+        <f>SUM(T6:AE6)</f>
+        <v>345</v>
       </c>
       <c r="AH6" s="206">
-        <f t="shared" si="1"/>
-        <v>28.7</v>
+        <f>AG6/COUNT(T6:AF6)</f>
+        <v>28.75</v>
       </c>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="82">
+        <f>+VLOOKUP($C7,'R1'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q1'!$B$3:$J$22,9,)</f>
+        <v>24</v>
+      </c>
+      <c r="E7" s="82">
+        <f>+VLOOKUP($C7,'R2'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q2'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="F7" s="82">
+        <f>+VLOOKUP($C7,'R3'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q3'!$B$3:$J$22,9,)</f>
+        <v>-9</v>
+      </c>
+      <c r="G7" s="82">
+        <f>+VLOOKUP($C7,'R4'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q4'!$B$3:$J$22,9,)</f>
+        <v>22</v>
+      </c>
+      <c r="H7" s="82">
+        <f>+VLOOKUP($C7,'R5'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q5'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="82">
+        <f>+VLOOKUP($C7,'R6'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q6'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="J7" s="82">
+        <f>+VLOOKUP($C7,'R7'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q7'!$B$3:$J$22,9,)</f>
+        <v>18</v>
+      </c>
+      <c r="K7" s="82">
+        <f>+VLOOKUP($C7,'R8'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q8'!$B$3:$J$22,9,)</f>
+        <v>45</v>
+      </c>
+      <c r="L7" s="82">
+        <f>+VLOOKUP($C7,'R9'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="M7" s="82">
+        <f>+VLOOKUP($C7,'R10'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q10'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="N7" s="82">
+        <f>+VLOOKUP($C7,'R11'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q11'!$B$3:$J$22,9,)</f>
+        <v>26</v>
+      </c>
+      <c r="O7" s="82">
+        <f>+VLOOKUP($C7,'R12'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q12'!$B$3:$J$22,9,)</f>
+        <v>29</v>
+      </c>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82">
+        <f>SUM(D7:M7)</f>
+        <v>111</v>
+      </c>
+      <c r="S7" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="T7" s="107">
+        <v>21</v>
+      </c>
+      <c r="U7" s="107">
+        <v>19</v>
+      </c>
+      <c r="V7" s="107">
+        <v>16</v>
+      </c>
+      <c r="W7" s="107">
+        <v>47</v>
+      </c>
+      <c r="X7" s="107">
+        <v>17</v>
+      </c>
+      <c r="Y7" s="107">
+        <v>14</v>
+      </c>
+      <c r="Z7" s="107">
+        <v>44</v>
+      </c>
+      <c r="AA7" s="107">
+        <v>33</v>
+      </c>
+      <c r="AB7" s="107">
+        <v>27</v>
+      </c>
+      <c r="AC7" s="107">
+        <v>34</v>
+      </c>
+      <c r="AD7" s="107">
+        <v>42</v>
+      </c>
+      <c r="AE7" s="107">
+        <v>22</v>
+      </c>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="108">
+        <f>SUM(T7:AE7)</f>
+        <v>336</v>
+      </c>
+      <c r="AH7" s="208">
+        <f>AG7/COUNT(T7:AF7)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B8" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="28">
+        <f>+VLOOKUP($C8,'R1'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q1'!$B$3:$J$22,9,)</f>
+        <v>41</v>
+      </c>
+      <c r="E8" s="28">
+        <f>+VLOOKUP($C8,'R2'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q2'!$B$3:$J$22,9,)</f>
+        <v>-13</v>
+      </c>
+      <c r="F8" s="28">
+        <f>+VLOOKUP($C8,'R3'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q3'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="G8" s="28">
+        <f>+VLOOKUP($C8,'R4'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q4'!$B$3:$J$22,9,)</f>
+        <v>33</v>
+      </c>
+      <c r="H8" s="28">
+        <f>+VLOOKUP($C8,'R5'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q5'!$B$3:$J$22,9,)</f>
+        <v>32</v>
+      </c>
+      <c r="I8" s="28">
+        <f>+VLOOKUP($C8,'R6'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q6'!$B$3:$J$22,9,)</f>
+        <v>-8</v>
+      </c>
+      <c r="J8" s="28">
+        <f>+VLOOKUP($C8,'R7'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q7'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="K8" s="28">
+        <f>+VLOOKUP($C8,'R8'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q8'!$B$3:$J$22,9,)</f>
+        <v>-11</v>
+      </c>
+      <c r="L8" s="28">
+        <f>+VLOOKUP($C8,'R9'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q9'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="M8" s="28">
+        <f>+VLOOKUP($C8,'R10'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q10'!$B$3:$J$22,9,)</f>
+        <v>26</v>
+      </c>
+      <c r="N8" s="28">
+        <f>+VLOOKUP($C8,'R11'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q11'!$B$3:$J$22,9,)</f>
+        <v>16</v>
+      </c>
+      <c r="O8" s="28">
+        <f>+VLOOKUP($C8,'R12'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q12'!$B$3:$J$22,9,)</f>
+        <v>28</v>
+      </c>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28">
+        <f>SUM(D8:M8)</f>
+        <v>116</v>
+      </c>
+      <c r="S8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="30">
-        <f>+VLOOKUP($C7,'R1'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q1'!$B$3:$J$22,9,)</f>
-        <v>36</v>
-      </c>
-      <c r="E7" s="30">
-        <f>+VLOOKUP($C7,'R2'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q2'!$B$3:$J$22,9,)</f>
-        <v>30</v>
-      </c>
-      <c r="F7" s="30">
-        <f>+VLOOKUP($C7,'R3'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="G7" s="30">
-        <f>+VLOOKUP($C7,'R4'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q4'!$B$3:$J$22,9,)</f>
+      <c r="T8" s="100">
+        <v>49</v>
+      </c>
+      <c r="U8" s="100">
+        <v>31</v>
+      </c>
+      <c r="V8" s="100">
+        <v>10</v>
+      </c>
+      <c r="W8" s="100">
+        <v>18</v>
+      </c>
+      <c r="X8" s="100">
+        <v>11</v>
+      </c>
+      <c r="Y8" s="100">
+        <v>22</v>
+      </c>
+      <c r="Z8" s="100">
+        <v>24</v>
+      </c>
+      <c r="AA8" s="100">
+        <v>62</v>
+      </c>
+      <c r="AB8" s="100">
+        <v>26</v>
+      </c>
+      <c r="AC8" s="100">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="100">
+        <v>31</v>
+      </c>
+      <c r="AE8" s="100">
+        <v>20</v>
+      </c>
+      <c r="AF8" s="100"/>
+      <c r="AG8" s="251">
+        <f>SUM(T8:AE8)</f>
+        <v>309</v>
+      </c>
+      <c r="AH8" s="204">
+        <f>AG8/COUNT(T8:AF8)</f>
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B9" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="30">
-        <f>+VLOOKUP($C7,'R5'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q5'!$B$3:$J$22,9,)</f>
-        <v>19</v>
-      </c>
-      <c r="I7" s="30">
-        <f>+VLOOKUP($C7,'R6'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q6'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="J7" s="30">
-        <f>+VLOOKUP($C7,'R7'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q7'!$B$3:$J$22,9,)</f>
+      <c r="C9" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="30">
+        <f>+VLOOKUP($C9,'R1'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q1'!$B$3:$J$22,9,)</f>
+        <v>23</v>
+      </c>
+      <c r="E9" s="30">
+        <f>+VLOOKUP($C9,'R2'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q2'!$B$3:$J$22,9,)</f>
+        <v>11</v>
+      </c>
+      <c r="F9" s="30">
+        <f>+VLOOKUP($C9,'R3'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q3'!$B$3:$J$22,9,)</f>
+        <v>11</v>
+      </c>
+      <c r="G9" s="30">
+        <f>+VLOOKUP($C9,'R4'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q4'!$B$3:$J$22,9,)</f>
+        <v>-2</v>
+      </c>
+      <c r="H9" s="30">
+        <f>+VLOOKUP($C9,'R5'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q5'!$B$3:$J$22,9,)</f>
+        <v>2</v>
+      </c>
+      <c r="I9" s="30">
+        <f>+VLOOKUP($C9,'R6'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q6'!$B$3:$J$22,9,)</f>
+        <v>23</v>
+      </c>
+      <c r="J9" s="30">
+        <f>+VLOOKUP($C9,'R7'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q7'!$B$3:$J$22,9,)</f>
+        <v>-6</v>
+      </c>
+      <c r="K9" s="30">
+        <f>+VLOOKUP($C9,'R8'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q8'!$B$3:$J$22,9,)</f>
+        <v>37</v>
+      </c>
+      <c r="L9" s="30">
+        <f>+VLOOKUP($C9,'R9'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-8</v>
+      </c>
+      <c r="M9" s="30">
+        <f>+VLOOKUP($C9,'R10'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q10'!$B$3:$J$22,9,)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="30">
+        <f>+VLOOKUP($C9,'R11'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q11'!$B$3:$J$22,9,)</f>
+        <v>28</v>
+      </c>
+      <c r="O9" s="30">
+        <f>+VLOOKUP($C9,'R12'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q12'!$B$3:$J$22,9,)</f>
+        <v>23</v>
+      </c>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30">
+        <f>SUM(D9:M9)</f>
+        <v>91</v>
+      </c>
+      <c r="S9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="105">
+        <v>42</v>
+      </c>
+      <c r="U9" s="105">
+        <v>6</v>
+      </c>
+      <c r="V9" s="105">
+        <v>15</v>
+      </c>
+      <c r="W9" s="105">
+        <v>34</v>
+      </c>
+      <c r="X9" s="105">
+        <v>29</v>
+      </c>
+      <c r="Y9" s="105">
+        <v>22</v>
+      </c>
+      <c r="Z9" s="105">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="105">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="105">
         <v>20</v>
       </c>
-      <c r="K7" s="30">
-        <f>+VLOOKUP($C7,'R8'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q8'!$B$3:$J$22,9,)</f>
-        <v>35</v>
-      </c>
-      <c r="L7" s="30">
-        <f>+VLOOKUP($C7,'R9'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q9'!$B$3:$J$22,9,)</f>
+      <c r="AC9" s="105">
         <v>24</v>
       </c>
-      <c r="M7" s="30">
-        <v>0</v>
-      </c>
-      <c r="N7" s="30">
-        <f>+VLOOKUP($C7,'R11'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q11'!$B$3:$J$22,9,)</f>
-        <v>-7</v>
-      </c>
-      <c r="O7" s="30">
-        <f>+VLOOKUP($C7,'R12'!$C$3:$H$22,5,)+VLOOKUP($C7,'Q12'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-      <c r="S7" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="T7" s="100">
-        <v>49</v>
-      </c>
-      <c r="U7" s="100">
-        <v>31</v>
-      </c>
-      <c r="V7" s="100">
-        <v>10</v>
-      </c>
-      <c r="W7" s="100">
-        <v>18</v>
-      </c>
-      <c r="X7" s="100">
-        <v>11</v>
-      </c>
-      <c r="Y7" s="100">
-        <v>22</v>
-      </c>
-      <c r="Z7" s="100">
-        <v>24</v>
-      </c>
-      <c r="AA7" s="100">
-        <v>62</v>
-      </c>
-      <c r="AB7" s="100">
-        <v>26</v>
-      </c>
-      <c r="AC7" s="100">
-        <v>5</v>
-      </c>
-      <c r="AD7" s="100"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="251">
-        <f t="shared" si="2"/>
-        <v>258</v>
-      </c>
-      <c r="AH7" s="204">
-        <f t="shared" si="1"/>
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B8" s="89" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="32">
-        <f>+VLOOKUP($C8,'R1'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-9</v>
-      </c>
-      <c r="E8" s="32">
-        <f>+VLOOKUP($C8,'R2'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q2'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="F8" s="32">
-        <f>+VLOOKUP($C8,'R3'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q3'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="G8" s="32">
-        <f>+VLOOKUP($C8,'R4'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q4'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="H8" s="32">
-        <f>+VLOOKUP($C8,'R5'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I8" s="32">
-        <f>+VLOOKUP($C8,'R6'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q6'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="J8" s="32">
-        <f>+VLOOKUP($C8,'R7'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q7'!$B$3:$J$22,9,)</f>
-        <v>33</v>
-      </c>
-      <c r="K8" s="32">
-        <f>+VLOOKUP($C8,'R8'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q8'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="L8" s="32">
-        <f>+VLOOKUP($C8,'R9'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q9'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="M8" s="32">
-        <f>+VLOOKUP($C8,'R10'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q10'!$B$3:$J$22,9,)</f>
-        <v>25</v>
-      </c>
-      <c r="N8" s="32">
-        <f>+VLOOKUP($C8,'R11'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q11'!$B$3:$J$22,9,)</f>
-        <v>50</v>
-      </c>
-      <c r="O8" s="32">
-        <f>+VLOOKUP($C8,'R12'!$C$3:$H$22,5,)+VLOOKUP($C8,'Q12'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32">
-        <f t="shared" si="0"/>
-        <v>181</v>
-      </c>
-      <c r="S8" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="105">
-        <v>42</v>
-      </c>
-      <c r="U8" s="105">
-        <v>6</v>
-      </c>
-      <c r="V8" s="105">
-        <v>15</v>
-      </c>
-      <c r="W8" s="105">
-        <v>34</v>
-      </c>
-      <c r="X8" s="105">
-        <v>29</v>
-      </c>
-      <c r="Y8" s="105">
-        <v>22</v>
-      </c>
-      <c r="Z8" s="105">
-        <v>7</v>
-      </c>
-      <c r="AA8" s="105">
-        <v>3</v>
-      </c>
-      <c r="AB8" s="105">
-        <v>20</v>
-      </c>
-      <c r="AC8" s="105">
-        <v>24</v>
-      </c>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="106">
-        <f t="shared" si="2"/>
-        <v>202</v>
-      </c>
-      <c r="AH8" s="207">
-        <f t="shared" si="1"/>
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B9" s="91" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="29">
-        <f>+VLOOKUP($C9,'R1'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q1'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="E9" s="29">
-        <f>+VLOOKUP($C9,'R2'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q2'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="F9" s="29">
-        <f>+VLOOKUP($C9,'R3'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q3'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="G9" s="29">
-        <f>+VLOOKUP($C9,'R4'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q4'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="H9" s="29">
-        <f>+VLOOKUP($C9,'R5'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q5'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="I9" s="29">
-        <f>+VLOOKUP($C9,'R6'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q6'!$B$3:$J$22,9,)</f>
-        <v>19</v>
-      </c>
-      <c r="J9" s="29">
-        <f>+VLOOKUP($C9,'R7'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q7'!$B$3:$J$22,9,)</f>
-        <v>16</v>
-      </c>
-      <c r="K9" s="29">
-        <f>+VLOOKUP($C9,'R8'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q8'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="L9" s="29">
-        <f>+VLOOKUP($C9,'R9'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q9'!$B$3:$J$22,9,)</f>
-        <v>36</v>
-      </c>
-      <c r="M9" s="29">
-        <f>+VLOOKUP($C9,'R10'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q10'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="N9" s="29">
-        <f>+VLOOKUP($C9,'R11'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q11'!$B$3:$J$22,9,)</f>
-        <v>-6</v>
-      </c>
-      <c r="O9" s="29">
-        <f>+VLOOKUP($C9,'R12'!$C$3:$H$22,5,)+VLOOKUP($C9,'Q12'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="S9" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="107">
-        <v>21</v>
-      </c>
-      <c r="U9" s="107">
-        <v>19</v>
-      </c>
-      <c r="V9" s="107">
-        <v>16</v>
-      </c>
-      <c r="W9" s="107">
-        <v>47</v>
-      </c>
-      <c r="X9" s="107">
-        <v>17</v>
-      </c>
-      <c r="Y9" s="107">
+      <c r="AD9" s="105">
         <v>14</v>
       </c>
-      <c r="Z9" s="107">
-        <v>44</v>
-      </c>
-      <c r="AA9" s="107">
-        <v>33</v>
-      </c>
-      <c r="AB9" s="107">
-        <v>27</v>
-      </c>
-      <c r="AC9" s="107">
-        <v>34</v>
-      </c>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="107"/>
-      <c r="AG9" s="108">
-        <f t="shared" si="2"/>
-        <v>272</v>
-      </c>
-      <c r="AH9" s="208">
-        <f t="shared" si="1"/>
-        <v>27.2</v>
+      <c r="AE9" s="105">
+        <v>37</v>
+      </c>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="106">
+        <f>SUM(T9:AE9)</f>
+        <v>253</v>
+      </c>
+      <c r="AH9" s="207">
+        <f>AG9/COUNT(T9:AF9)</f>
+        <v>21.083333333333332</v>
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.2">
@@ -17673,219 +17901,230 @@
       </c>
       <c r="O10" s="31">
         <f>+VLOOKUP($C10,'R12'!$C$3:$H$22,5,)+VLOOKUP($C10,'Q12'!$B$3:$J$22,9,)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P10" s="31"/>
       <c r="Q10" s="31">
-        <f t="shared" si="0"/>
+        <f>SUM(D10:M10)</f>
         <v>158</v>
       </c>
-      <c r="S10" s="43" t="s">
+      <c r="S10" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="109">
+        <v>24</v>
+      </c>
+      <c r="U10" s="109">
+        <v>7</v>
+      </c>
+      <c r="V10" s="109">
+        <v>16</v>
+      </c>
+      <c r="W10" s="109">
+        <v>19</v>
+      </c>
+      <c r="X10" s="109">
+        <v>13</v>
+      </c>
+      <c r="Y10" s="109">
+        <v>12</v>
+      </c>
+      <c r="Z10" s="109">
+        <v>18</v>
+      </c>
+      <c r="AA10" s="109">
+        <v>49</v>
+      </c>
+      <c r="AB10" s="109">
+        <v>20</v>
+      </c>
+      <c r="AC10" s="109">
+        <v>21</v>
+      </c>
+      <c r="AD10" s="109">
+        <v>22</v>
+      </c>
+      <c r="AE10" s="109">
+        <v>22</v>
+      </c>
+      <c r="AF10" s="109"/>
+      <c r="AG10" s="110">
+        <f>SUM(T10:AE10)</f>
+        <v>243</v>
+      </c>
+      <c r="AH10" s="209">
+        <f>AG10/COUNT(T10:AF10)</f>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B11" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="111">
+      <c r="C11" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="33">
+        <f>+VLOOKUP($C11,'R1'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q1'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="E11" s="33">
+        <f>+VLOOKUP($C11,'R2'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q2'!$B$3:$J$22,9,)</f>
+        <v>17</v>
+      </c>
+      <c r="F11" s="33">
+        <f>+VLOOKUP($C11,'R3'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q3'!$B$3:$J$22,9,)</f>
         <v>15</v>
       </c>
-      <c r="U10" s="111">
+      <c r="G11" s="33">
+        <f>+VLOOKUP($C11,'R4'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q4'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
+      <c r="H11" s="33">
+        <f>+VLOOKUP($C11,'R5'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q5'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="I11" s="33">
+        <f>+VLOOKUP($C11,'R6'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q6'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="J11" s="33">
+        <f>+VLOOKUP($C11,'R7'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q7'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="K11" s="33">
+        <f>+VLOOKUP($C11,'R8'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q8'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="L11" s="33">
+        <f>+VLOOKUP($C11,'R9'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q9'!$B$3:$J$22,9,)</f>
+        <v>18</v>
+      </c>
+      <c r="M11" s="33">
+        <f>+VLOOKUP($C11,'R10'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q10'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="N11" s="33">
+        <f>+VLOOKUP($C11,'R11'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q11'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="O11" s="33">
+        <f>+VLOOKUP($C11,'R12'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q12'!$B$3:$J$22,9,)</f>
+        <v>17</v>
+      </c>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33">
+        <f>SUM(D11:M11)</f>
+        <v>97</v>
+      </c>
+      <c r="S11" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="111">
+        <v>15</v>
+      </c>
+      <c r="U11" s="111">
         <v>24</v>
       </c>
-      <c r="V10" s="111">
+      <c r="V11" s="111">
         <v>18</v>
       </c>
-      <c r="W10" s="111">
+      <c r="W11" s="111">
         <v>5</v>
       </c>
-      <c r="X10" s="111">
+      <c r="X11" s="111">
         <v>18</v>
       </c>
-      <c r="Y10" s="111">
+      <c r="Y11" s="111">
         <v>13</v>
       </c>
-      <c r="Z10" s="111">
+      <c r="Z11" s="111">
         <v>11</v>
       </c>
-      <c r="AA10" s="111">
+      <c r="AA11" s="111">
         <v>11</v>
       </c>
-      <c r="AB10" s="111">
+      <c r="AB11" s="111">
         <v>14</v>
       </c>
-      <c r="AC10" s="111">
+      <c r="AC11" s="111">
         <v>24</v>
       </c>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="111"/>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="112">
-        <f t="shared" si="2"/>
-        <v>153</v>
-      </c>
-      <c r="AH10" s="210">
-        <f t="shared" si="1"/>
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B11" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="31">
-        <f>+VLOOKUP($C11,'R1'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-10</v>
-      </c>
-      <c r="E11" s="31">
-        <f>+VLOOKUP($C11,'R2'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q2'!$B$3:$J$22,9,)</f>
+      <c r="AD11" s="111">
+        <v>24</v>
+      </c>
+      <c r="AE11" s="111">
+        <v>18</v>
+      </c>
+      <c r="AF11" s="111"/>
+      <c r="AG11" s="112">
+        <f>SUM(T11:AE11)</f>
+        <v>195</v>
+      </c>
+      <c r="AH11" s="210">
+        <f>AG11/COUNT(T11:AF11)</f>
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B12" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="32">
+        <f>+VLOOKUP($C12,'R1'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q1'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="E12" s="32">
+        <f>+VLOOKUP($C12,'R2'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q2'!$B$3:$J$22,9,)</f>
+        <v>-4</v>
+      </c>
+      <c r="F12" s="32">
+        <f>+VLOOKUP($C12,'R3'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q3'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="G12" s="32">
+        <f>+VLOOKUP($C12,'R4'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q4'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="H12" s="32">
+        <f>+VLOOKUP($C12,'R5'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q5'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="I12" s="32">
+        <f>+VLOOKUP($C12,'R6'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q6'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
+      <c r="J12" s="32">
+        <f>+VLOOKUP($C12,'R7'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q7'!$B$3:$J$22,9,)</f>
         <v>21</v>
       </c>
-      <c r="F11" s="31">
-        <f>+VLOOKUP($C11,'R3'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q3'!$B$3:$J$22,9,)</f>
-        <v>27</v>
-      </c>
-      <c r="G11" s="31">
-        <f>+VLOOKUP($C11,'R4'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q4'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="H11" s="31">
-        <f>+VLOOKUP($C11,'R5'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q5'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="I11" s="31">
-        <f>+VLOOKUP($C11,'R6'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q6'!$B$3:$J$22,9,)</f>
-        <v>37</v>
-      </c>
-      <c r="J11" s="31">
-        <f>+VLOOKUP($C11,'R7'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q7'!$B$3:$J$22,9,)</f>
+      <c r="K12" s="32">
+        <f>+VLOOKUP($C12,'R8'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q8'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="L12" s="32">
+        <f>+VLOOKUP($C12,'R9'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-11</v>
+      </c>
+      <c r="M12" s="32">
+        <f>+VLOOKUP($C12,'R10'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q10'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="N12" s="32">
+        <f>+VLOOKUP($C12,'R11'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q11'!$B$3:$J$22,9,)</f>
+        <v>-8</v>
+      </c>
+      <c r="O12" s="32">
+        <f>+VLOOKUP($C12,'R12'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q12'!$B$3:$J$22,9,)</f>
         <v>16</v>
       </c>
-      <c r="K11" s="31">
-        <f>+VLOOKUP($C11,'R8'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q8'!$B$3:$J$22,9,)</f>
-        <v>35</v>
-      </c>
-      <c r="L11" s="31">
-        <f>+VLOOKUP($C11,'R9'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-8</v>
-      </c>
-      <c r="M11" s="31">
-        <f>+VLOOKUP($C11,'R10'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q10'!$B$3:$J$22,9,)</f>
-        <v>-13</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31">
-        <f>+VLOOKUP($C11,'R12'!$C$3:$H$22,5,)+VLOOKUP($C11,'Q12'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="S11" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="T11" s="109">
-        <v>24</v>
-      </c>
-      <c r="U11" s="109">
-        <v>7</v>
-      </c>
-      <c r="V11" s="109">
-        <v>16</v>
-      </c>
-      <c r="W11" s="109">
-        <v>19</v>
-      </c>
-      <c r="X11" s="109">
-        <v>13</v>
-      </c>
-      <c r="Y11" s="109">
-        <v>12</v>
-      </c>
-      <c r="Z11" s="109">
-        <v>18</v>
-      </c>
-      <c r="AA11" s="109">
-        <v>49</v>
-      </c>
-      <c r="AB11" s="109">
-        <v>20</v>
-      </c>
-      <c r="AC11" s="109">
-        <v>21</v>
-      </c>
-      <c r="AD11" s="109"/>
-      <c r="AE11" s="109"/>
-      <c r="AF11" s="109"/>
-      <c r="AG11" s="110">
-        <f t="shared" si="2"/>
-        <v>199</v>
-      </c>
-      <c r="AH11" s="209">
-        <f t="shared" si="1"/>
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B12" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="28">
-        <f>+VLOOKUP($C12,'R1'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q1'!$B$3:$J$22,9,)</f>
-        <v>41</v>
-      </c>
-      <c r="E12" s="28">
-        <f>+VLOOKUP($C12,'R2'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-13</v>
-      </c>
-      <c r="F12" s="28">
-        <f>+VLOOKUP($C12,'R3'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="G12" s="28">
-        <f>+VLOOKUP($C12,'R4'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q4'!$B$3:$J$22,9,)</f>
-        <v>33</v>
-      </c>
-      <c r="H12" s="28">
-        <f>+VLOOKUP($C12,'R5'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q5'!$B$3:$J$22,9,)</f>
-        <v>32</v>
-      </c>
-      <c r="I12" s="28">
-        <f>+VLOOKUP($C12,'R6'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q6'!$B$3:$J$22,9,)</f>
-        <v>-8</v>
-      </c>
-      <c r="J12" s="28">
-        <f>+VLOOKUP($C12,'R7'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q7'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="K12" s="28">
-        <f>+VLOOKUP($C12,'R8'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q8'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
-      </c>
-      <c r="L12" s="28">
-        <f>+VLOOKUP($C12,'R9'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q9'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="M12" s="28">
-        <f>+VLOOKUP($C12,'R10'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q10'!$B$3:$J$22,9,)</f>
-        <v>26</v>
-      </c>
-      <c r="N12" s="28">
-        <f>+VLOOKUP($C12,'R11'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q11'!$B$3:$J$22,9,)</f>
-        <v>16</v>
-      </c>
-      <c r="O12" s="28">
-        <f>+VLOOKUP($C12,'R12'!$C$3:$H$22,5,)+VLOOKUP($C12,'Q12'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28">
-        <f t="shared" si="0"/>
-        <v>116</v>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32">
+        <f>SUM(D12:M12)</f>
+        <v>105</v>
       </c>
       <c r="S12" s="45" t="s">
         <v>34</v>
@@ -17920,77 +18159,81 @@
       <c r="AC12" s="113">
         <v>13</v>
       </c>
-      <c r="AD12" s="113"/>
-      <c r="AE12" s="113"/>
+      <c r="AD12" s="113">
+        <v>12</v>
+      </c>
+      <c r="AE12" s="113">
+        <v>21</v>
+      </c>
       <c r="AF12" s="113"/>
       <c r="AG12" s="114">
-        <f t="shared" si="2"/>
-        <v>101</v>
+        <f>SUM(T12:AE12)</f>
+        <v>134</v>
       </c>
       <c r="AH12" s="211">
-        <f t="shared" si="1"/>
-        <v>10.1</v>
+        <f>AG12/COUNT(T12:AF12)</f>
+        <v>11.166666666666666</v>
       </c>
     </row>
     <row r="13" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="82">
+      <c r="B13" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="28">
         <f>+VLOOKUP($C13,'R1'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q1'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="E13" s="82">
+        <v>6</v>
+      </c>
+      <c r="E13" s="28">
         <f>+VLOOKUP($C13,'R2'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="F13" s="82">
+        <v>-9</v>
+      </c>
+      <c r="F13" s="28">
         <f>+VLOOKUP($C13,'R3'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-9</v>
-      </c>
-      <c r="G13" s="82">
+        <v>21</v>
+      </c>
+      <c r="G13" s="28">
         <f>+VLOOKUP($C13,'R4'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q4'!$B$3:$J$22,9,)</f>
-        <v>22</v>
-      </c>
-      <c r="H13" s="82">
+        <v>6</v>
+      </c>
+      <c r="H13" s="28">
         <f>+VLOOKUP($C13,'R5'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q5'!$B$3:$J$22,9,)</f>
         <v>2</v>
       </c>
-      <c r="I13" s="82">
+      <c r="I13" s="28">
         <f>+VLOOKUP($C13,'R6'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q6'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="J13" s="28">
+        <f>+VLOOKUP($C13,'R7'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q7'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="K13" s="28">
+        <f>+VLOOKUP($C13,'R8'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q8'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="L13" s="28">
+        <f>+VLOOKUP($C13,'R9'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q9'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="M13" s="28">
+        <f>+VLOOKUP($C13,'R10'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q10'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
+      <c r="N13" s="28">
+        <f>+VLOOKUP($C13,'R11'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q11'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="O13" s="28">
+        <f>+VLOOKUP($C13,'R12'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q12'!$B$3:$J$22,9,)</f>
         <v>14</v>
       </c>
-      <c r="J13" s="82">
-        <f>+VLOOKUP($C13,'R7'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q7'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="K13" s="82">
-        <f>+VLOOKUP($C13,'R8'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q8'!$B$3:$J$22,9,)</f>
-        <v>45</v>
-      </c>
-      <c r="L13" s="82">
-        <f>+VLOOKUP($C13,'R9'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="M13" s="82">
-        <f>+VLOOKUP($C13,'R10'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q10'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="N13" s="82">
-        <f>+VLOOKUP($C13,'R11'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q11'!$B$3:$J$22,9,)</f>
-        <v>26</v>
-      </c>
-      <c r="O13" s="82">
-        <f>+VLOOKUP($C13,'R12'!$C$3:$H$22,5,)+VLOOKUP($C13,'Q12'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82">
-        <f t="shared" si="0"/>
-        <v>111</v>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28">
+        <f>SUM(D13:M13)</f>
+        <v>59</v>
       </c>
       <c r="S13" s="46" t="s">
         <v>36</v>
@@ -18025,16 +18268,20 @@
       <c r="AC13" s="115">
         <v>8</v>
       </c>
-      <c r="AD13" s="115"/>
-      <c r="AE13" s="115"/>
+      <c r="AD13" s="115">
+        <v>11</v>
+      </c>
+      <c r="AE13" s="115">
+        <v>9</v>
+      </c>
       <c r="AF13" s="115"/>
       <c r="AG13" s="116">
-        <f t="shared" si="2"/>
-        <v>97</v>
+        <f>SUM(T13:AE13)</f>
+        <v>117</v>
       </c>
       <c r="AH13" s="212">
-        <f t="shared" si="1"/>
-        <v>9.6999999999999993</v>
+        <f>AG13/COUNT(T13:AF13)</f>
+        <v>9.75</v>
       </c>
     </row>
     <row r="14" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -18042,121 +18289,121 @@
         <v>23</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D14" s="32">
         <f>+VLOOKUP($C14,'R1'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q1'!$B$3:$J$22,9,)</f>
-        <v>20</v>
+        <v>-9</v>
       </c>
       <c r="E14" s="32">
         <f>+VLOOKUP($C14,'R2'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-4</v>
+        <v>13</v>
       </c>
       <c r="F14" s="32">
         <f>+VLOOKUP($C14,'R3'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q3'!$B$3:$J$22,9,)</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G14" s="32">
         <f>+VLOOKUP($C14,'R4'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q4'!$B$3:$J$22,9,)</f>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H14" s="32">
         <f>+VLOOKUP($C14,'R5'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q5'!$B$3:$J$22,9,)</f>
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I14" s="32">
         <f>+VLOOKUP($C14,'R6'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q6'!$B$3:$J$22,9,)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J14" s="32">
         <f>+VLOOKUP($C14,'R7'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q7'!$B$3:$J$22,9,)</f>
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K14" s="32">
         <f>+VLOOKUP($C14,'R8'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q8'!$B$3:$J$22,9,)</f>
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L14" s="32">
         <f>+VLOOKUP($C14,'R9'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
+        <v>32</v>
       </c>
       <c r="M14" s="32">
         <f>+VLOOKUP($C14,'R10'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q10'!$B$3:$J$22,9,)</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N14" s="32">
         <f>+VLOOKUP($C14,'R11'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q11'!$B$3:$J$22,9,)</f>
-        <v>-8</v>
+        <v>50</v>
       </c>
       <c r="O14" s="32">
         <f>+VLOOKUP($C14,'R12'!$C$3:$H$22,5,)+VLOOKUP($C14,'Q12'!$B$3:$J$22,9,)</f>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="P14" s="32"/>
       <c r="Q14" s="32">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <f>SUM(D14:M14)</f>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="33">
+      <c r="B15" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="34">
         <f>+VLOOKUP($C15,'R1'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q1'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="34">
         <f>+VLOOKUP($C15,'R2'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q2'!$B$3:$J$22,9,)</f>
-        <v>17</v>
-      </c>
-      <c r="F15" s="33">
+        <v>14</v>
+      </c>
+      <c r="F15" s="34">
         <f>+VLOOKUP($C15,'R3'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q3'!$B$3:$J$22,9,)</f>
+        <v>18</v>
+      </c>
+      <c r="G15" s="34">
+        <f>+VLOOKUP($C15,'R4'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q4'!$B$3:$J$22,9,)</f>
+        <v>-12</v>
+      </c>
+      <c r="H15" s="34">
+        <f>+VLOOKUP($C15,'R5'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q5'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="I15" s="34">
+        <f>+VLOOKUP($C15,'R6'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q6'!$B$3:$J$22,9,)</f>
+        <v>9</v>
+      </c>
+      <c r="J15" s="34">
+        <f>+VLOOKUP($C15,'R7'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q7'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="K15" s="34">
+        <f>+VLOOKUP($C15,'R8'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q8'!$B$3:$J$22,9,)</f>
+        <v>-11</v>
+      </c>
+      <c r="L15" s="34">
+        <f>+VLOOKUP($C15,'R9'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="M15" s="34">
+        <f>+VLOOKUP($C15,'R10'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q10'!$B$3:$J$22,9,)</f>
         <v>15</v>
       </c>
-      <c r="G15" s="33">
-        <f>+VLOOKUP($C15,'R4'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q4'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="33">
-        <f>+VLOOKUP($C15,'R5'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q5'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="I15" s="33">
-        <f>+VLOOKUP($C15,'R6'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q6'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="J15" s="33">
-        <f>+VLOOKUP($C15,'R7'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q7'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="K15" s="33">
-        <f>+VLOOKUP($C15,'R8'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q8'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="L15" s="33">
-        <f>+VLOOKUP($C15,'R9'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q9'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="M15" s="33">
-        <f>+VLOOKUP($C15,'R10'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q10'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="N15" s="33">
+      <c r="N15" s="34">
         <f>+VLOOKUP($C15,'R11'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q11'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="O15" s="33">
+        <v>7</v>
+      </c>
+      <c r="O15" s="34">
         <f>+VLOOKUP($C15,'R12'!$C$3:$H$22,5,)+VLOOKUP($C15,'Q12'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33">
-        <f t="shared" si="0"/>
-        <v>97</v>
+        <v>11</v>
+      </c>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34">
+        <f>SUM(D15:M15)</f>
+        <v>-1</v>
       </c>
       <c r="S15" s="225" t="s">
         <v>1</v>
@@ -18175,64 +18422,64 @@
       </c>
     </row>
     <row r="16" spans="2:34" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="88" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="82">
+      <c r="B16" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="35">
         <f>+VLOOKUP($C16,'R1'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q1'!$B$3:$J$22,9,)</f>
+        <v>-12</v>
+      </c>
+      <c r="E16" s="35">
+        <f>+VLOOKUP($C16,'R2'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q2'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="F16" s="35">
+        <f>+VLOOKUP($C16,'R3'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q3'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="G16" s="35">
+        <f>+VLOOKUP($C16,'R4'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q4'!$B$3:$J$22,9,)</f>
+        <v>18</v>
+      </c>
+      <c r="H16" s="35">
+        <f>+VLOOKUP($C16,'R5'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q5'!$B$3:$J$22,9,)</f>
         <v>5</v>
       </c>
-      <c r="E16" s="82">
-        <f>+VLOOKUP($C16,'R2'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q2'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="F16" s="82">
-        <f>+VLOOKUP($C16,'R3'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q3'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="G16" s="82">
-        <f>+VLOOKUP($C16,'R4'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q4'!$B$3:$J$22,9,)</f>
-        <v>-13</v>
-      </c>
-      <c r="H16" s="82">
-        <f>+VLOOKUP($C16,'R5'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q5'!$B$3:$J$22,9,)</f>
-        <v>16</v>
-      </c>
-      <c r="I16" s="82">
+      <c r="I16" s="35">
         <f>+VLOOKUP($C16,'R6'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q6'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="J16" s="82">
+        <v>9</v>
+      </c>
+      <c r="J16" s="35">
         <f>+VLOOKUP($C16,'R7'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q7'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="K16" s="82">
+        <v>-11</v>
+      </c>
+      <c r="K16" s="35">
         <f>+VLOOKUP($C16,'R8'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q8'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="L16" s="82">
+        <v>14</v>
+      </c>
+      <c r="L16" s="35">
         <f>+VLOOKUP($C16,'R9'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q9'!$B$3:$J$22,9,)</f>
-        <v>24</v>
-      </c>
-      <c r="M16" s="82">
+        <v>17</v>
+      </c>
+      <c r="M16" s="35">
         <f>+VLOOKUP($C16,'R10'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q10'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="N16" s="82">
+        <v>0</v>
+      </c>
+      <c r="N16" s="35">
         <f>+VLOOKUP($C16,'R11'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q11'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="O16" s="82">
+        <v>-12</v>
+      </c>
+      <c r="O16" s="35">
         <f>+VLOOKUP($C16,'R12'!$C$3:$H$22,5,)+VLOOKUP($C16,'Q12'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82">
-        <f t="shared" si="0"/>
-        <v>95</v>
+        <v>8</v>
+      </c>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35">
+        <f>SUM(D16:M16)</f>
+        <v>46</v>
       </c>
       <c r="S16" s="378" t="s">
         <v>42</v>
@@ -18253,458 +18500,454 @@
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="30">
+      <c r="B17" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="33">
         <f>+VLOOKUP($C17,'R1'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q1'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="E17" s="30">
+        <v>19</v>
+      </c>
+      <c r="E17" s="33">
         <f>+VLOOKUP($C17,'R2'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q2'!$B$3:$J$22,9,)</f>
+        <v>12</v>
+      </c>
+      <c r="F17" s="33">
+        <f>+VLOOKUP($C17,'R3'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q3'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="G17" s="33">
+        <f>+VLOOKUP($C17,'R4'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q4'!$B$3:$J$22,9,)</f>
+        <v>9</v>
+      </c>
+      <c r="H17" s="33">
+        <f>+VLOOKUP($C17,'R5'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q5'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="I17" s="33">
+        <f>+VLOOKUP($C17,'R6'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q6'!$B$3:$J$22,9,)</f>
+        <v>10</v>
+      </c>
+      <c r="J17" s="33">
+        <f>+VLOOKUP($C17,'R7'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q7'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="K17" s="33">
+        <f>+VLOOKUP($C17,'R8'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q8'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="L17" s="33">
+        <f>+VLOOKUP($C17,'R9'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q9'!$B$3:$J$22,9,)</f>
+        <v>-14</v>
+      </c>
+      <c r="M17" s="33">
+        <f>+VLOOKUP($C17,'R10'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q10'!$B$3:$J$22,9,)</f>
+        <v>17</v>
+      </c>
+      <c r="N17" s="33">
+        <f>+VLOOKUP($C17,'R11'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q11'!$B$3:$J$22,9,)</f>
+        <v>18</v>
+      </c>
+      <c r="O17" s="33">
+        <f>+VLOOKUP($C17,'R12'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q12'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33">
+        <f>SUM(D17:M17)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="34">
+        <f>+VLOOKUP($C18,'R1'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q1'!$B$3:$J$22,9,)</f>
+        <v>-11</v>
+      </c>
+      <c r="E18" s="34">
+        <f>+VLOOKUP($C18,'R2'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q2'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="34">
+        <f>+VLOOKUP($C18,'R3'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q3'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="G18" s="34">
+        <f>+VLOOKUP($C18,'R4'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q4'!$B$3:$J$22,9,)</f>
+        <v>7</v>
+      </c>
+      <c r="H18" s="34">
+        <f>+VLOOKUP($C18,'R5'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q5'!$B$3:$J$22,9,)</f>
+        <v>5</v>
+      </c>
+      <c r="I18" s="34">
+        <f>+VLOOKUP($C18,'R6'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q6'!$B$3:$J$22,9,)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="34">
+        <f>+VLOOKUP($C18,'R7'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q7'!$B$3:$J$22,9,)</f>
         <v>11</v>
       </c>
-      <c r="F17" s="30">
-        <f>+VLOOKUP($C17,'R3'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q3'!$B$3:$J$22,9,)</f>
+      <c r="K18" s="34">
+        <f>+VLOOKUP($C18,'R8'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q8'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="L18" s="34">
+        <f>+VLOOKUP($C18,'R9'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q9'!$B$3:$J$22,9,)</f>
+        <v>14</v>
+      </c>
+      <c r="M18" s="34">
+        <f>+VLOOKUP($C18,'R10'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q10'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="N18" s="34">
+        <f>+VLOOKUP($C18,'R11'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q11'!$B$3:$J$22,9,)</f>
+        <v>17</v>
+      </c>
+      <c r="O18" s="34">
+        <f>+VLOOKUP($C18,'R12'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q12'!$B$3:$J$22,9,)</f>
+        <v>6</v>
+      </c>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34">
+        <f>SUM(D18:M18)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="35">
+        <f>+VLOOKUP($C19,'R1'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q1'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="E19" s="35">
+        <f>+VLOOKUP($C19,'R2'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q2'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="F19" s="35">
+        <f>+VLOOKUP($C19,'R3'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q3'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="G19" s="35">
+        <f>+VLOOKUP($C19,'R4'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q4'!$B$3:$J$22,9,)</f>
+        <v>8</v>
+      </c>
+      <c r="H19" s="35">
+        <f>+VLOOKUP($C19,'R5'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q5'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="35">
+        <f>+VLOOKUP($C19,'R6'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q6'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="J19" s="35">
+        <f>+VLOOKUP($C19,'R7'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q7'!$B$3:$J$22,9,)</f>
         <v>11</v>
       </c>
-      <c r="G17" s="30">
-        <f>+VLOOKUP($C17,'R4'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q4'!$B$3:$J$22,9,)</f>
-        <v>-2</v>
-      </c>
-      <c r="H17" s="30">
-        <f>+VLOOKUP($C17,'R5'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I17" s="30">
-        <f>+VLOOKUP($C17,'R6'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q6'!$B$3:$J$22,9,)</f>
-        <v>23</v>
-      </c>
-      <c r="J17" s="30">
-        <f>+VLOOKUP($C17,'R7'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q7'!$B$3:$J$22,9,)</f>
-        <v>-6</v>
-      </c>
-      <c r="K17" s="30">
-        <f>+VLOOKUP($C17,'R8'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q8'!$B$3:$J$22,9,)</f>
-        <v>37</v>
-      </c>
-      <c r="L17" s="30">
-        <f>+VLOOKUP($C17,'R9'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-8</v>
-      </c>
-      <c r="M17" s="30">
-        <f>+VLOOKUP($C17,'R10'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q10'!$B$3:$J$22,9,)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="30">
-        <f>+VLOOKUP($C17,'R11'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q11'!$B$3:$J$22,9,)</f>
-        <v>28</v>
-      </c>
-      <c r="O17" s="30">
-        <f>+VLOOKUP($C17,'R12'!$C$3:$H$22,5,)+VLOOKUP($C17,'Q12'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30">
-        <f t="shared" si="0"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="33">
-        <f>+VLOOKUP($C18,'R1'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q1'!$B$3:$J$22,9,)</f>
-        <v>19</v>
-      </c>
-      <c r="E18" s="33">
-        <f>+VLOOKUP($C18,'R2'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q2'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="F18" s="33">
-        <f>+VLOOKUP($C18,'R3'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q3'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="G18" s="33">
-        <f>+VLOOKUP($C18,'R4'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q4'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="H18" s="33">
-        <f>+VLOOKUP($C18,'R5'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q5'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="I18" s="33">
-        <f>+VLOOKUP($C18,'R6'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q6'!$B$3:$J$22,9,)</f>
-        <v>10</v>
-      </c>
-      <c r="J18" s="33">
-        <f>+VLOOKUP($C18,'R7'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q7'!$B$3:$J$22,9,)</f>
+      <c r="K19" s="35">
+        <f>+VLOOKUP($C19,'R8'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q8'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="L19" s="35">
+        <f>+VLOOKUP($C19,'R9'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q9'!$B$3:$J$22,9,)</f>
         <v>-14</v>
       </c>
-      <c r="K18" s="33">
-        <f>+VLOOKUP($C18,'R8'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q8'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="L18" s="33">
-        <f>+VLOOKUP($C18,'R9'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="M18" s="33">
-        <f>+VLOOKUP($C18,'R10'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q10'!$B$3:$J$22,9,)</f>
-        <v>17</v>
-      </c>
-      <c r="N18" s="33">
-        <f>+VLOOKUP($C18,'R11'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q11'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="O18" s="33">
-        <f>+VLOOKUP($C18,'R12'!$C$3:$H$22,5,)+VLOOKUP($C18,'Q12'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="28">
-        <f>+VLOOKUP($C19,'R1'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q1'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="E19" s="28">
-        <f>+VLOOKUP($C19,'R2'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q2'!$B$3:$J$22,9,)</f>
-        <v>-9</v>
-      </c>
-      <c r="F19" s="28">
-        <f>+VLOOKUP($C19,'R3'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q3'!$B$3:$J$22,9,)</f>
-        <v>21</v>
-      </c>
-      <c r="G19" s="28">
-        <f>+VLOOKUP($C19,'R4'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q4'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="H19" s="28">
-        <f>+VLOOKUP($C19,'R5'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q5'!$B$3:$J$22,9,)</f>
-        <v>2</v>
-      </c>
-      <c r="I19" s="28">
-        <f>+VLOOKUP($C19,'R6'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q6'!$B$3:$J$22,9,)</f>
-        <v>20</v>
-      </c>
-      <c r="J19" s="28">
-        <f>+VLOOKUP($C19,'R7'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q7'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="K19" s="28">
-        <f>+VLOOKUP($C19,'R8'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q8'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="L19" s="28">
-        <f>+VLOOKUP($C19,'R9'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q9'!$B$3:$J$22,9,)</f>
-        <v>12</v>
-      </c>
-      <c r="M19" s="28">
+      <c r="M19" s="35">
         <f>+VLOOKUP($C19,'R10'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q10'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="N19" s="28">
+        <v>11</v>
+      </c>
+      <c r="N19" s="35">
         <f>+VLOOKUP($C19,'R11'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q11'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="O19" s="28">
+        <v>13</v>
+      </c>
+      <c r="O19" s="35">
         <f>+VLOOKUP($C19,'R12'!$C$3:$H$22,5,)+VLOOKUP($C19,'Q12'!$B$3:$J$22,9,)</f>
         <v>2</v>
       </c>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28">
-        <f t="shared" si="0"/>
-        <v>59</v>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35">
+        <f>SUM(D19:M19)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="34">
+      <c r="B20" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="29">
         <f>+VLOOKUP($C20,'R1'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
-      </c>
-      <c r="E20" s="34">
+        <v>3</v>
+      </c>
+      <c r="E20" s="29">
         <f>+VLOOKUP($C20,'R2'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q2'!$B$3:$J$22,9,)</f>
+        <v>24</v>
+      </c>
+      <c r="F20" s="29">
+        <f>+VLOOKUP($C20,'R3'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q3'!$B$3:$J$22,9,)</f>
+        <v>23</v>
+      </c>
+      <c r="G20" s="29">
+        <f>+VLOOKUP($C20,'R4'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q4'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="H20" s="29">
+        <f>+VLOOKUP($C20,'R5'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q5'!$B$3:$J$22,9,)</f>
+        <v>24</v>
+      </c>
+      <c r="I20" s="29">
+        <f>+VLOOKUP($C20,'R6'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q6'!$B$3:$J$22,9,)</f>
+        <v>19</v>
+      </c>
+      <c r="J20" s="29">
+        <f>+VLOOKUP($C20,'R7'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q7'!$B$3:$J$22,9,)</f>
+        <v>16</v>
+      </c>
+      <c r="K20" s="29">
+        <f>+VLOOKUP($C20,'R8'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q8'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="L20" s="29">
+        <f>+VLOOKUP($C20,'R9'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q9'!$B$3:$J$22,9,)</f>
+        <v>36</v>
+      </c>
+      <c r="M20" s="29">
+        <f>+VLOOKUP($C20,'R10'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q10'!$B$3:$J$22,9,)</f>
         <v>6</v>
       </c>
-      <c r="F20" s="34">
-        <f>+VLOOKUP($C20,'R3'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q3'!$B$3:$J$22,9,)</f>
-        <v>6</v>
-      </c>
-      <c r="G20" s="34">
-        <f>+VLOOKUP($C20,'R4'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q4'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="H20" s="34">
-        <f>+VLOOKUP($C20,'R5'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q5'!$B$3:$J$22,9,)</f>
+      <c r="N20" s="29">
+        <f>+VLOOKUP($C20,'R11'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q11'!$B$3:$J$22,9,)</f>
+        <v>-6</v>
+      </c>
+      <c r="O20" s="29">
+        <f>+VLOOKUP($C20,'R12'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q12'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29">
+        <f>SUM(D20:M20)</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="88" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="82">
+        <f>+VLOOKUP($C21,'R1'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q1'!$B$3:$J$22,9,)</f>
         <v>5</v>
       </c>
-      <c r="I20" s="34">
-        <f>+VLOOKUP($C20,'R6'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q6'!$B$3:$J$22,9,)</f>
+      <c r="E21" s="82">
+        <f>+VLOOKUP($C21,'R2'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q2'!$B$3:$J$22,9,)</f>
+        <v>13</v>
+      </c>
+      <c r="F21" s="82">
+        <f>+VLOOKUP($C21,'R3'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q3'!$B$3:$J$22,9,)</f>
+        <v>15</v>
+      </c>
+      <c r="G21" s="82">
+        <f>+VLOOKUP($C21,'R4'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q4'!$B$3:$J$22,9,)</f>
+        <v>-13</v>
+      </c>
+      <c r="H21" s="82">
+        <f>+VLOOKUP($C21,'R5'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q5'!$B$3:$J$22,9,)</f>
+        <v>16</v>
+      </c>
+      <c r="I21" s="82">
+        <f>+VLOOKUP($C21,'R6'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q6'!$B$3:$J$22,9,)</f>
+        <v>3</v>
+      </c>
+      <c r="J21" s="82">
+        <f>+VLOOKUP($C21,'R7'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q7'!$B$3:$J$22,9,)</f>
+        <v>5</v>
+      </c>
+      <c r="K21" s="82">
+        <f>+VLOOKUP($C21,'R8'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q8'!$B$3:$J$22,9,)</f>
+        <v>9</v>
+      </c>
+      <c r="L21" s="82">
+        <f>+VLOOKUP($C21,'R9'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q9'!$B$3:$J$22,9,)</f>
+        <v>24</v>
+      </c>
+      <c r="M21" s="82">
+        <f>+VLOOKUP($C21,'R10'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q10'!$B$3:$J$22,9,)</f>
+        <v>18</v>
+      </c>
+      <c r="N21" s="82">
+        <f>+VLOOKUP($C21,'R11'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q11'!$B$3:$J$22,9,)</f>
+        <v>1</v>
+      </c>
+      <c r="O21" s="82">
+        <f>+VLOOKUP($C21,'R12'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q12'!$B$3:$J$22,9,)</f>
+        <v>-2</v>
+      </c>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82">
+        <f>SUM(D21:M21)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="30">
+        <f>+VLOOKUP($C22,'R1'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q1'!$B$3:$J$22,9,)</f>
+        <v>36</v>
+      </c>
+      <c r="E22" s="30">
+        <f>+VLOOKUP($C22,'R2'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q2'!$B$3:$J$22,9,)</f>
+        <v>30</v>
+      </c>
+      <c r="F22" s="30">
+        <f>+VLOOKUP($C22,'R3'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q3'!$B$3:$J$22,9,)</f>
+        <v>-1</v>
+      </c>
+      <c r="G22" s="30">
+        <f>+VLOOKUP($C22,'R4'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q4'!$B$3:$J$22,9,)</f>
+        <v>25</v>
+      </c>
+      <c r="H22" s="30">
+        <f>+VLOOKUP($C22,'R5'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q5'!$B$3:$J$22,9,)</f>
+        <v>19</v>
+      </c>
+      <c r="I22" s="30">
+        <f>+VLOOKUP($C22,'R6'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q6'!$B$3:$J$22,9,)</f>
+        <v>4</v>
+      </c>
+      <c r="J22" s="30">
+        <f>+VLOOKUP($C22,'R7'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q7'!$B$3:$J$22,9,)</f>
+        <v>20</v>
+      </c>
+      <c r="K22" s="30">
+        <f>+VLOOKUP($C22,'R8'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q8'!$B$3:$J$22,9,)</f>
+        <v>35</v>
+      </c>
+      <c r="L22" s="30">
+        <f>+VLOOKUP($C22,'R9'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q9'!$B$3:$J$22,9,)</f>
+        <v>24</v>
+      </c>
+      <c r="M22" s="30">
         <v>0</v>
       </c>
-      <c r="J20" s="34">
-        <f>+VLOOKUP($C20,'R7'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q7'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="K20" s="34">
-        <f>+VLOOKUP($C20,'R8'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q8'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="L20" s="34">
-        <f>+VLOOKUP($C20,'R9'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q9'!$B$3:$J$22,9,)</f>
-        <v>14</v>
-      </c>
-      <c r="M20" s="34">
-        <f>+VLOOKUP($C20,'R10'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q10'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="N20" s="34">
-        <f>+VLOOKUP($C20,'R11'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q11'!$B$3:$J$22,9,)</f>
-        <v>17</v>
-      </c>
-      <c r="O20" s="34">
-        <f>+VLOOKUP($C20,'R12'!$C$3:$H$22,5,)+VLOOKUP($C20,'Q12'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="35">
-        <f>+VLOOKUP($C21,'R1'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q1'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="E21" s="35">
-        <f>+VLOOKUP($C21,'R2'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q2'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="F21" s="35">
-        <f>+VLOOKUP($C21,'R3'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q3'!$B$3:$J$22,9,)</f>
-        <v>-1</v>
-      </c>
-      <c r="G21" s="35">
-        <f>+VLOOKUP($C21,'R4'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q4'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="H21" s="35">
-        <f>+VLOOKUP($C21,'R5'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q5'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="I21" s="35">
-        <f>+VLOOKUP($C21,'R6'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q6'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="J21" s="35">
-        <f>+VLOOKUP($C21,'R7'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q7'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="K21" s="35">
-        <f>+VLOOKUP($C21,'R8'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q8'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="L21" s="35">
-        <f>+VLOOKUP($C21,'R9'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="M21" s="35">
-        <f>+VLOOKUP($C21,'R10'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q10'!$B$3:$J$22,9,)</f>
-        <v>11</v>
-      </c>
-      <c r="N21" s="35">
-        <f>+VLOOKUP($C21,'R11'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q11'!$B$3:$J$22,9,)</f>
-        <v>13</v>
-      </c>
-      <c r="O21" s="35">
-        <f>+VLOOKUP($C21,'R12'!$C$3:$H$22,5,)+VLOOKUP($C21,'Q12'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="93" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="35">
-        <f>+VLOOKUP($C22,'R1'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-12</v>
-      </c>
-      <c r="E22" s="35">
-        <f>+VLOOKUP($C22,'R2'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q2'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="F22" s="35">
-        <f>+VLOOKUP($C22,'R3'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q3'!$B$3:$J$22,9,)</f>
-        <v>3</v>
-      </c>
-      <c r="G22" s="35">
-        <f>+VLOOKUP($C22,'R4'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q4'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="H22" s="35">
-        <f>+VLOOKUP($C22,'R5'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q5'!$B$3:$J$22,9,)</f>
-        <v>5</v>
-      </c>
-      <c r="I22" s="35">
-        <f>+VLOOKUP($C22,'R6'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q6'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="J22" s="35">
-        <f>+VLOOKUP($C22,'R7'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q7'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
-      </c>
-      <c r="K22" s="35">
-        <f>+VLOOKUP($C22,'R8'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q8'!$B$3:$J$22,9,)</f>
-        <v>14</v>
-      </c>
-      <c r="L22" s="35">
-        <f>+VLOOKUP($C22,'R9'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q9'!$B$3:$J$22,9,)</f>
-        <v>17</v>
-      </c>
-      <c r="M22" s="35">
-        <f>+VLOOKUP($C22,'R10'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q10'!$B$3:$J$22,9,)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="35">
+      <c r="N22" s="30">
         <f>+VLOOKUP($C22,'R11'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q11'!$B$3:$J$22,9,)</f>
-        <v>-12</v>
-      </c>
-      <c r="O22" s="35">
+        <v>-7</v>
+      </c>
+      <c r="O22" s="30">
         <f>+VLOOKUP($C22,'R12'!$C$3:$H$22,5,)+VLOOKUP($C22,'Q12'!$B$3:$J$22,9,)</f>
-        <v>4</v>
-      </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <v>-3</v>
+      </c>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30">
+        <f>SUM(D22:M22)</f>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="252" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="253">
+      <c r="B23" s="396" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="222" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="397">
         <f>+VLOOKUP($C23,'R1'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q1'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="E23" s="253">
+        <v>-10</v>
+      </c>
+      <c r="E23" s="397">
         <f>+VLOOKUP($C23,'R2'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q2'!$B$3:$J$22,9,)</f>
-        <v>14</v>
-      </c>
-      <c r="F23" s="253">
+        <v>21</v>
+      </c>
+      <c r="F23" s="397">
         <f>+VLOOKUP($C23,'R3'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q3'!$B$3:$J$22,9,)</f>
-        <v>18</v>
-      </c>
-      <c r="G23" s="253">
+        <v>27</v>
+      </c>
+      <c r="G23" s="397">
         <f>+VLOOKUP($C23,'R4'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q4'!$B$3:$J$22,9,)</f>
-        <v>-12</v>
-      </c>
-      <c r="H23" s="253">
+        <v>10</v>
+      </c>
+      <c r="H23" s="397">
         <f>+VLOOKUP($C23,'R5'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q5'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="I23" s="253">
+        <v>20</v>
+      </c>
+      <c r="I23" s="397">
         <f>+VLOOKUP($C23,'R6'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q6'!$B$3:$J$22,9,)</f>
-        <v>9</v>
-      </c>
-      <c r="J23" s="253">
+        <v>37</v>
+      </c>
+      <c r="J23" s="397">
         <f>+VLOOKUP($C23,'R7'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q7'!$B$3:$J$22,9,)</f>
-        <v>8</v>
-      </c>
-      <c r="K23" s="253">
+        <v>16</v>
+      </c>
+      <c r="K23" s="397">
         <f>+VLOOKUP($C23,'R8'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q8'!$B$3:$J$22,9,)</f>
-        <v>-11</v>
-      </c>
-      <c r="L23" s="253">
+        <v>35</v>
+      </c>
+      <c r="L23" s="397">
         <f>+VLOOKUP($C23,'R9'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q9'!$B$3:$J$22,9,)</f>
-        <v>-14</v>
-      </c>
-      <c r="M23" s="253">
+        <v>-8</v>
+      </c>
+      <c r="M23" s="397">
         <f>+VLOOKUP($C23,'R10'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q10'!$B$3:$J$22,9,)</f>
-        <v>15</v>
-      </c>
-      <c r="N23" s="253">
-        <f>+VLOOKUP($C23,'R11'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q11'!$B$3:$J$22,9,)</f>
-        <v>7</v>
-      </c>
-      <c r="O23" s="253">
+        <v>-13</v>
+      </c>
+      <c r="N23" s="397"/>
+      <c r="O23" s="397">
         <f>+VLOOKUP($C23,'R12'!$C$3:$H$22,5,)+VLOOKUP($C23,'Q12'!$B$3:$J$22,9,)</f>
-        <v>1</v>
-      </c>
-      <c r="P23" s="253"/>
-      <c r="Q23" s="253">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-13</v>
+      </c>
+      <c r="P23" s="397"/>
+      <c r="Q23" s="397">
+        <f>SUM(D23:M23)</f>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="384" t="s">
+      <c r="B25" s="390" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="385"/>
-      <c r="D25" s="385"/>
-      <c r="E25" s="385"/>
-      <c r="F25" s="385"/>
-      <c r="G25" s="385"/>
-      <c r="H25" s="385"/>
-      <c r="I25" s="385"/>
-      <c r="J25" s="385"/>
-      <c r="K25" s="385"/>
-      <c r="L25" s="385"/>
-      <c r="M25" s="385"/>
-      <c r="N25" s="385"/>
-      <c r="O25" s="385"/>
-      <c r="P25" s="385"/>
-      <c r="Q25" s="386"/>
+      <c r="C25" s="391"/>
+      <c r="D25" s="391"/>
+      <c r="E25" s="391"/>
+      <c r="F25" s="391"/>
+      <c r="G25" s="391"/>
+      <c r="H25" s="391"/>
+      <c r="I25" s="391"/>
+      <c r="J25" s="391"/>
+      <c r="K25" s="391"/>
+      <c r="L25" s="391"/>
+      <c r="M25" s="391"/>
+      <c r="N25" s="391"/>
+      <c r="O25" s="391"/>
+      <c r="P25" s="391"/>
+      <c r="Q25" s="392"/>
     </row>
     <row r="26" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="383" t="s">
+      <c r="C26" s="389" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="247" t="s">
@@ -18807,7 +19050,7 @@
       </c>
       <c r="P27" s="37"/>
       <c r="Q27" s="37">
-        <f t="shared" ref="Q27:Q46" si="3">SUM(D27:M27)</f>
+        <f t="shared" ref="Q27:Q46" si="0">SUM(D27:M27)</f>
         <v>149</v>
       </c>
     </row>
@@ -18868,7 +19111,7 @@
       </c>
       <c r="P28" s="29"/>
       <c r="Q28" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
     </row>
@@ -18929,7 +19172,7 @@
       </c>
       <c r="P29" s="27"/>
       <c r="Q29" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
@@ -18990,7 +19233,7 @@
       </c>
       <c r="P30" s="30"/>
       <c r="Q30" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
@@ -19051,7 +19294,7 @@
       </c>
       <c r="P31" s="32"/>
       <c r="Q31" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
@@ -19112,7 +19355,7 @@
       </c>
       <c r="P32" s="30"/>
       <c r="Q32" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
@@ -19167,7 +19410,7 @@
       </c>
       <c r="P33" s="31"/>
       <c r="Q33" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
     </row>
@@ -19225,7 +19468,7 @@
       </c>
       <c r="P34" s="31"/>
       <c r="Q34" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
@@ -19286,7 +19529,7 @@
       </c>
       <c r="P35" s="28"/>
       <c r="Q35" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
     </row>
@@ -19347,7 +19590,7 @@
       </c>
       <c r="P36" s="29"/>
       <c r="Q36" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
@@ -19408,7 +19651,7 @@
       </c>
       <c r="P37" s="82"/>
       <c r="Q37" s="82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
@@ -19469,7 +19712,7 @@
       </c>
       <c r="P38" s="32"/>
       <c r="Q38" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
@@ -19530,7 +19773,7 @@
       </c>
       <c r="P39" s="35"/>
       <c r="Q39" s="35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -19591,7 +19834,7 @@
       </c>
       <c r="P40" s="28"/>
       <c r="Q40" s="28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
@@ -19652,7 +19895,7 @@
       </c>
       <c r="P41" s="33"/>
       <c r="Q41" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -19713,7 +19956,7 @@
       </c>
       <c r="P42" s="34"/>
       <c r="Q42" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -19774,7 +20017,7 @@
       </c>
       <c r="P43" s="82"/>
       <c r="Q43" s="82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
@@ -19835,7 +20078,7 @@
       </c>
       <c r="P44" s="33"/>
       <c r="Q44" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
@@ -19896,7 +20139,7 @@
       </c>
       <c r="P45" s="34"/>
       <c r="Q45" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -19957,36 +20200,36 @@
       </c>
       <c r="P46" s="36"/>
       <c r="Q46" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="47" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="384" t="s">
+      <c r="B48" s="390" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="385"/>
-      <c r="D48" s="385"/>
-      <c r="E48" s="385"/>
-      <c r="F48" s="385"/>
-      <c r="G48" s="385"/>
-      <c r="H48" s="385"/>
-      <c r="I48" s="385"/>
-      <c r="J48" s="385"/>
-      <c r="K48" s="385"/>
-      <c r="L48" s="385"/>
-      <c r="M48" s="385"/>
-      <c r="N48" s="385"/>
-      <c r="O48" s="385"/>
-      <c r="P48" s="385"/>
-      <c r="Q48" s="386"/>
+      <c r="C48" s="391"/>
+      <c r="D48" s="391"/>
+      <c r="E48" s="391"/>
+      <c r="F48" s="391"/>
+      <c r="G48" s="391"/>
+      <c r="H48" s="391"/>
+      <c r="I48" s="391"/>
+      <c r="J48" s="391"/>
+      <c r="K48" s="391"/>
+      <c r="L48" s="391"/>
+      <c r="M48" s="391"/>
+      <c r="N48" s="391"/>
+      <c r="O48" s="391"/>
+      <c r="P48" s="391"/>
+      <c r="Q48" s="392"/>
     </row>
     <row r="49" spans="2:17" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="383" t="s">
+      <c r="C49" s="389" t="s">
         <v>1</v>
       </c>
       <c r="D49" s="247" t="s">
@@ -20085,11 +20328,11 @@
       </c>
       <c r="O50" s="37">
         <f>+VLOOKUP($C50,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="P50" s="37"/>
       <c r="Q50" s="37">
-        <f t="shared" ref="Q50:Q69" si="4">SUM(C50:M50)</f>
+        <f t="shared" ref="Q50:Q69" si="1">SUM(C50:M50)</f>
         <v>265</v>
       </c>
     </row>
@@ -20146,11 +20389,11 @@
       </c>
       <c r="O51" s="27">
         <f>+VLOOKUP($C51,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P51" s="27"/>
       <c r="Q51" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>187</v>
       </c>
     </row>
@@ -20207,11 +20450,11 @@
       </c>
       <c r="O52" s="29">
         <f>+VLOOKUP($C52,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P52" s="29"/>
       <c r="Q52" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
     </row>
@@ -20268,11 +20511,11 @@
       </c>
       <c r="O53" s="30">
         <f>+VLOOKUP($C53,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="P53" s="30"/>
       <c r="Q53" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
@@ -20329,11 +20572,11 @@
       </c>
       <c r="O54" s="29">
         <f>+VLOOKUP($C54,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="P54" s="29"/>
       <c r="Q54" s="29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
     </row>
@@ -20390,11 +20633,11 @@
       </c>
       <c r="O55" s="32">
         <f>+VLOOKUP($C55,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P55" s="32"/>
       <c r="Q55" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
     </row>
@@ -20445,11 +20688,11 @@
       </c>
       <c r="O56" s="31">
         <f>+VLOOKUP($C56,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P56" s="31"/>
       <c r="Q56" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
@@ -20506,11 +20749,11 @@
       </c>
       <c r="O57" s="33">
         <f>+VLOOKUP($C57,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P57" s="33"/>
       <c r="Q57" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
     </row>
@@ -20567,11 +20810,11 @@
       </c>
       <c r="O58" s="82">
         <f>+VLOOKUP($C58,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="P58" s="82"/>
       <c r="Q58" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
     </row>
@@ -20625,11 +20868,11 @@
       <c r="N59" s="31"/>
       <c r="O59" s="31">
         <f>+VLOOKUP($C59,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="P59" s="31"/>
       <c r="Q59" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
     </row>
@@ -20686,11 +20929,11 @@
       </c>
       <c r="O60" s="32">
         <f>+VLOOKUP($C60,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P60" s="32"/>
       <c r="Q60" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
@@ -20747,11 +20990,11 @@
       </c>
       <c r="O61" s="82">
         <f>+VLOOKUP($C61,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P61" s="82"/>
       <c r="Q61" s="82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
     </row>
@@ -20808,11 +21051,11 @@
       </c>
       <c r="O62" s="28">
         <f>+VLOOKUP($C62,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P62" s="28"/>
       <c r="Q62" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
     </row>
@@ -20869,11 +21112,11 @@
       </c>
       <c r="O63" s="35">
         <f>+VLOOKUP($C63,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="35"/>
       <c r="Q63" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
     </row>
@@ -20930,11 +21173,11 @@
       </c>
       <c r="O64" s="33">
         <f>+VLOOKUP($C64,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P64" s="33"/>
       <c r="Q64" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
     </row>
@@ -20991,11 +21234,11 @@
       </c>
       <c r="O65" s="34">
         <f>+VLOOKUP($C65,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P65" s="34"/>
       <c r="Q65" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
     </row>
@@ -21052,11 +21295,11 @@
       </c>
       <c r="O66" s="28">
         <f>+VLOOKUP($C66,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P66" s="28"/>
       <c r="Q66" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
@@ -21113,11 +21356,11 @@
       </c>
       <c r="O67" s="30">
         <f>+VLOOKUP($C67,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P67" s="30"/>
       <c r="Q67" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -21174,11 +21417,11 @@
       </c>
       <c r="O68" s="35">
         <f>+VLOOKUP($C68,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P68" s="35"/>
       <c r="Q68" s="35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -21235,18 +21478,18 @@
       </c>
       <c r="O69" s="253">
         <f>+VLOOKUP($C69,'R12'!$C$3:$H$22,5,)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P69" s="253"/>
       <c r="Q69" s="253">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B49:Q69" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B50:Q69">
-      <sortCondition descending="1" ref="Q49:Q69"/>
+  <autoFilter ref="S3:AH13" xr:uid="{CA167CEB-A8D1-574D-A270-7F0BA79D2D2E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S4:AH13">
+      <sortCondition descending="1" ref="AG3:AG13"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
@@ -21275,13 +21518,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -21293,19 +21536,19 @@
       <c r="F2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>93</v>
       </c>
       <c r="I2" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="383" t="s">
+      <c r="J2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="383" t="s">
+      <c r="K2" s="389" t="s">
         <v>96</v>
       </c>
     </row>
@@ -21999,28 +22242,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="383" t="s">
+      <c r="D2" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="383" t="s">
+      <c r="E2" s="389" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="383" t="s">
+      <c r="F2" s="389" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>145</v>
       </c>
       <c r="I2" s="247" t="s">
@@ -24995,13 +25238,13 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" customWidth="1"/>
+    <col min="4" max="6" width="0" style="236" hidden="1"/>
+    <col min="11" max="11" width="21.83203125" style="236" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -25054,13 +25297,13 @@
       <c r="E3" s="259"/>
       <c r="F3" s="260"/>
       <c r="G3" s="261" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="H3" s="262" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="I3" s="263" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="J3" s="264">
         <v>15</v>
@@ -25081,13 +25324,13 @@
       <c r="E4" s="259"/>
       <c r="F4" s="260"/>
       <c r="G4" s="261" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="H4" s="262" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="I4" s="263" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="J4" s="264">
         <v>12</v>
@@ -25162,13 +25405,13 @@
       <c r="E7" s="283"/>
       <c r="F7" s="284"/>
       <c r="G7" s="285" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="H7" s="286" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="I7" s="287" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="J7" s="288">
         <v>11</v>
@@ -25189,13 +25432,13 @@
       <c r="E8" s="267"/>
       <c r="F8" s="268"/>
       <c r="G8" s="269" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="H8" s="270" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="I8" s="271" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="J8" s="272">
         <v>8</v>
@@ -25216,13 +25459,13 @@
       <c r="E9" s="299"/>
       <c r="F9" s="300"/>
       <c r="G9" s="301" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="H9" s="302" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="I9" s="303" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="J9" s="304">
         <v>9</v>
@@ -25243,13 +25486,13 @@
       <c r="E10" s="299"/>
       <c r="F10" s="300"/>
       <c r="G10" s="301" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="H10" s="302" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="I10" s="303" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="J10" s="304">
         <v>6</v>
@@ -25270,13 +25513,13 @@
       <c r="E11" s="307"/>
       <c r="F11" s="308"/>
       <c r="G11" s="309" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="H11" s="310" t="s">
         <v>840</v>
       </c>
       <c r="I11" s="311" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="J11" s="312">
         <v>7</v>
@@ -25297,10 +25540,10 @@
       <c r="E12" s="291"/>
       <c r="F12" s="292"/>
       <c r="G12" s="293" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="H12" s="294" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="I12" s="295" t="s">
         <v>128</v>
@@ -25309,7 +25552,7 @@
         <v>6</v>
       </c>
       <c r="K12" s="294" t="s">
-        <v>872</v>
+        <v>858</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -25326,10 +25569,10 @@
       <c r="E13" s="291"/>
       <c r="F13" s="292"/>
       <c r="G13" s="293" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
       <c r="H13" s="294" t="s">
-        <v>848</v>
+        <v>860</v>
       </c>
       <c r="I13" s="295" t="s">
         <v>128</v>
@@ -25356,7 +25599,7 @@
         <v>470</v>
       </c>
       <c r="H14" s="286" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="I14" s="287" t="s">
         <v>128</v>
@@ -25407,10 +25650,10 @@
       <c r="E16" s="331"/>
       <c r="F16" s="332"/>
       <c r="G16" s="333" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="H16" s="334" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="I16" s="335" t="s">
         <v>128</v>
@@ -25434,10 +25677,10 @@
       <c r="E17" s="275"/>
       <c r="F17" s="276"/>
       <c r="G17" s="277" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="H17" s="278" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="I17" s="279" t="s">
         <v>128</v>
@@ -25461,7 +25704,7 @@
       <c r="E18" s="315"/>
       <c r="F18" s="316"/>
       <c r="G18" s="317" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H18" s="318" t="s">
         <v>128</v>
@@ -25488,7 +25731,7 @@
       <c r="E19" s="315"/>
       <c r="F19" s="316"/>
       <c r="G19" s="317" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="H19" s="318" t="s">
         <v>128</v>
@@ -25515,7 +25758,7 @@
       <c r="E20" s="323"/>
       <c r="F20" s="324"/>
       <c r="G20" s="325" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="H20" s="326" t="s">
         <v>128</v>
@@ -25542,7 +25785,7 @@
       <c r="E21" s="323"/>
       <c r="F21" s="324"/>
       <c r="G21" s="325" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="H21" s="326" t="s">
         <v>128</v>
@@ -25565,25 +25808,25 @@
       <c r="C22" s="380" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="387"/>
-      <c r="E22" s="387"/>
-      <c r="F22" s="388"/>
-      <c r="G22" s="389" t="s">
-        <v>869</v>
-      </c>
-      <c r="H22" s="390" t="s">
+      <c r="D22" s="383"/>
+      <c r="E22" s="383"/>
+      <c r="F22" s="384"/>
+      <c r="G22" s="385" t="s">
+        <v>872</v>
+      </c>
+      <c r="H22" s="386" t="s">
         <v>128</v>
       </c>
-      <c r="I22" s="391" t="s">
+      <c r="I22" s="387" t="s">
         <v>128</v>
       </c>
-      <c r="J22" s="392">
+      <c r="J22" s="388">
         <v>1</v>
       </c>
-      <c r="K22" s="390"/>
+      <c r="K22" s="386"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K22" xr:uid="{793B7335-F745-814E-9E03-9816819570CE}">
+  <autoFilter ref="A2:K22" xr:uid="{00000000-0009-0000-0000-000019000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K22">
       <sortCondition ref="I2:I22"/>
     </sortState>
@@ -25598,12 +25841,12 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="21.6640625" style="236" customWidth="1"/>
+    <col min="9" max="9" width="29" style="236" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -25640,343 +25883,552 @@
       <c r="A3" s="257">
         <v>44</v>
       </c>
-      <c r="B3" s="258"/>
+      <c r="B3" s="258">
+        <v>1</v>
+      </c>
       <c r="C3" s="258" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="337"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
+      <c r="E3" s="337" t="s">
+        <v>873</v>
+      </c>
+      <c r="F3" s="219">
+        <v>66</v>
+      </c>
+      <c r="G3" s="219">
+        <v>34</v>
+      </c>
+      <c r="H3" s="219">
+        <v>26</v>
+      </c>
       <c r="I3" s="219"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="265">
+      <c r="A4" s="257">
+        <v>77</v>
+      </c>
+      <c r="B4" s="258">
+        <v>2</v>
+      </c>
+      <c r="C4" s="258" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="258" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="337" t="s">
+        <v>891</v>
+      </c>
+      <c r="F4" s="219">
+        <v>66</v>
+      </c>
+      <c r="G4" s="219">
+        <v>19</v>
+      </c>
+      <c r="H4" s="219">
+        <v>18</v>
+      </c>
+      <c r="I4" s="219"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="265">
         <v>33</v>
       </c>
-      <c r="B4" s="266"/>
-      <c r="C4" s="266" t="s">
+      <c r="B5" s="266">
+        <v>3</v>
+      </c>
+      <c r="C5" s="266" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="266" t="s">
+      <c r="D5" s="266" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="338"/>
-      <c r="F4" s="339"/>
-      <c r="G4" s="339"/>
-      <c r="H4" s="339"/>
-      <c r="I4" s="339"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="289">
+      <c r="E5" s="338" t="s">
+        <v>874</v>
+      </c>
+      <c r="F5" s="339">
+        <v>66</v>
+      </c>
+      <c r="G5" s="339">
+        <v>19</v>
+      </c>
+      <c r="H5" s="339">
+        <v>15</v>
+      </c>
+      <c r="I5" s="339"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="273">
+        <v>16</v>
+      </c>
+      <c r="B6" s="274">
+        <v>4</v>
+      </c>
+      <c r="C6" s="274" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="350" t="s">
+        <v>879</v>
+      </c>
+      <c r="F6" s="351">
+        <v>66</v>
+      </c>
+      <c r="G6" s="351">
+        <v>16</v>
+      </c>
+      <c r="H6" s="351">
+        <v>12</v>
+      </c>
+      <c r="I6" s="351"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="305">
+        <v>10</v>
+      </c>
+      <c r="B7" s="306">
+        <v>5</v>
+      </c>
+      <c r="C7" s="306" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="306" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="346" t="s">
+        <v>878</v>
+      </c>
+      <c r="F7" s="347">
+        <v>65</v>
+      </c>
+      <c r="G7" s="347">
+        <v>22</v>
+      </c>
+      <c r="H7" s="347">
+        <v>10</v>
+      </c>
+      <c r="I7" s="347"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="297">
+        <v>55</v>
+      </c>
+      <c r="B8" s="298">
+        <v>6</v>
+      </c>
+      <c r="C8" s="298" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="298" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="344" t="s">
+        <v>877</v>
+      </c>
+      <c r="F8" s="345">
+        <v>65</v>
+      </c>
+      <c r="G8" s="345">
+        <v>14</v>
+      </c>
+      <c r="H8" s="345">
+        <v>8</v>
+      </c>
+      <c r="I8" s="345"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="281">
+        <v>11</v>
+      </c>
+      <c r="B9" s="282">
+        <v>7</v>
+      </c>
+      <c r="C9" s="282" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="282" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="342" t="s">
+        <v>876</v>
+      </c>
+      <c r="F9" s="343">
+        <v>65</v>
+      </c>
+      <c r="G9" s="343">
+        <v>6</v>
+      </c>
+      <c r="H9" s="343">
+        <v>6</v>
+      </c>
+      <c r="I9" s="343"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="289">
+        <v>31</v>
+      </c>
+      <c r="B10" s="290">
+        <v>8</v>
+      </c>
+      <c r="C10" s="290" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="290" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="340" t="s">
+        <v>890</v>
+      </c>
+      <c r="F10" s="341">
+        <v>65</v>
+      </c>
+      <c r="G10" s="341">
+        <v>14</v>
+      </c>
+      <c r="H10" s="341">
+        <v>4</v>
+      </c>
+      <c r="I10" s="341"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="289">
         <v>3</v>
       </c>
-      <c r="B5" s="290"/>
-      <c r="C5" s="290" t="s">
+      <c r="B11" s="290">
+        <v>9</v>
+      </c>
+      <c r="C11" s="290" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="290" t="s">
+      <c r="D11" s="290" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="340"/>
-      <c r="F5" s="341"/>
-      <c r="G5" s="341"/>
-      <c r="H5" s="341"/>
-      <c r="I5" s="341"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="281">
+      <c r="E11" s="340" t="s">
+        <v>875</v>
+      </c>
+      <c r="F11" s="341">
+        <v>65</v>
+      </c>
+      <c r="G11" s="341">
+        <v>5</v>
+      </c>
+      <c r="H11" s="341">
+        <v>2</v>
+      </c>
+      <c r="I11" s="341"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="273">
+        <v>5</v>
+      </c>
+      <c r="B12" s="274">
+        <v>10</v>
+      </c>
+      <c r="C12" s="274" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="350" t="s">
+        <v>883</v>
+      </c>
+      <c r="F12" s="351">
+        <v>65</v>
+      </c>
+      <c r="G12" s="351">
+        <v>12</v>
+      </c>
+      <c r="H12" s="351">
+        <v>1</v>
+      </c>
+      <c r="I12" s="351"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="313">
+        <v>7</v>
+      </c>
+      <c r="B13" s="314">
         <v>11</v>
       </c>
-      <c r="B6" s="282"/>
-      <c r="C6" s="282" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="282" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="342"/>
-      <c r="F6" s="343"/>
-      <c r="G6" s="343"/>
-      <c r="H6" s="343"/>
-      <c r="I6" s="343"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="297">
-        <v>55</v>
-      </c>
-      <c r="B7" s="298"/>
-      <c r="C7" s="298" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="298" t="s">
+      <c r="C13" s="314" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="314" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="348" t="s">
+        <v>884</v>
+      </c>
+      <c r="F13" s="349">
+        <v>65</v>
+      </c>
+      <c r="G13" s="349">
+        <v>14</v>
+      </c>
+      <c r="H13" s="349">
+        <v>0</v>
+      </c>
+      <c r="I13" s="349"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="265">
+        <v>23</v>
+      </c>
+      <c r="B14" s="266">
+        <v>12</v>
+      </c>
+      <c r="C14" s="266" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="266" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="338" t="s">
+        <v>889</v>
+      </c>
+      <c r="F14" s="339">
+        <v>65</v>
+      </c>
+      <c r="G14" s="339">
+        <v>-9</v>
+      </c>
+      <c r="H14" s="339">
+        <v>0</v>
+      </c>
+      <c r="I14" s="339"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="297">
+        <v>4</v>
+      </c>
+      <c r="B15" s="298">
+        <v>13</v>
+      </c>
+      <c r="C15" s="298" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="298" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="344"/>
-      <c r="F7" s="345"/>
-      <c r="G7" s="345"/>
-      <c r="H7" s="345"/>
-      <c r="I7" s="345"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="305">
-        <v>10</v>
-      </c>
-      <c r="B8" s="306"/>
-      <c r="C8" s="306" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="306" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="346"/>
-      <c r="F8" s="347"/>
-      <c r="G8" s="347"/>
-      <c r="H8" s="347"/>
-      <c r="I8" s="347"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="273">
-        <v>16</v>
-      </c>
-      <c r="B9" s="274"/>
-      <c r="C9" s="274" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="274" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="350"/>
-      <c r="F9" s="351"/>
-      <c r="G9" s="351"/>
-      <c r="H9" s="351"/>
-      <c r="I9" s="351"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="281">
-        <v>18</v>
-      </c>
-      <c r="B10" s="282"/>
-      <c r="C10" s="282" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="282" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="342"/>
-      <c r="F10" s="343"/>
-      <c r="G10" s="343"/>
-      <c r="H10" s="343"/>
-      <c r="I10" s="343"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="321">
-        <v>8</v>
-      </c>
-      <c r="B11" s="322"/>
-      <c r="C11" s="322" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="322" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="354"/>
-      <c r="F11" s="355"/>
-      <c r="G11" s="355"/>
-      <c r="H11" s="355"/>
-      <c r="I11" s="355"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="313">
-        <v>99</v>
-      </c>
-      <c r="B12" s="314"/>
-      <c r="C12" s="314" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="314" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="348"/>
-      <c r="F12" s="349"/>
-      <c r="G12" s="349"/>
-      <c r="H12" s="349"/>
-      <c r="I12" s="349"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="273">
-        <v>5</v>
-      </c>
-      <c r="B13" s="274"/>
-      <c r="C13" s="274" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="274" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="350"/>
-      <c r="F13" s="351"/>
-      <c r="G13" s="351"/>
-      <c r="H13" s="351"/>
-      <c r="I13" s="351"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="313">
-        <v>7</v>
-      </c>
-      <c r="B14" s="314"/>
-      <c r="C14" s="314" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="314" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="348"/>
-      <c r="F14" s="349"/>
-      <c r="G14" s="349"/>
-      <c r="H14" s="349"/>
-      <c r="I14" s="349"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="321">
-        <v>20</v>
-      </c>
-      <c r="B15" s="322"/>
-      <c r="C15" s="322" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="322" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="354"/>
-      <c r="F15" s="355"/>
-      <c r="G15" s="355"/>
-      <c r="H15" s="355"/>
-      <c r="I15" s="355"/>
+      <c r="E15" s="344" t="s">
+        <v>888</v>
+      </c>
+      <c r="F15" s="345">
+        <v>65</v>
+      </c>
+      <c r="G15" s="345">
+        <v>-9</v>
+      </c>
+      <c r="H15" s="345">
+        <v>0</v>
+      </c>
+      <c r="I15" s="345"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="329">
-        <v>6</v>
-      </c>
-      <c r="B16" s="330"/>
+        <v>63</v>
+      </c>
+      <c r="B16" s="330">
+        <v>14</v>
+      </c>
       <c r="C16" s="330" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="330" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="352"/>
-      <c r="F16" s="353"/>
-      <c r="G16" s="353"/>
-      <c r="H16" s="353"/>
+      <c r="E16" s="352" t="s">
+        <v>892</v>
+      </c>
+      <c r="F16" s="353">
+        <v>65</v>
+      </c>
+      <c r="G16" s="353">
+        <v>4</v>
+      </c>
+      <c r="H16" s="353">
+        <v>0</v>
+      </c>
       <c r="I16" s="353"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="305">
+      <c r="A17" s="313">
+        <v>99</v>
+      </c>
+      <c r="B17" s="314">
+        <v>15</v>
+      </c>
+      <c r="C17" s="314" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="314" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="348" t="s">
+        <v>882</v>
+      </c>
+      <c r="F17" s="349">
+        <v>65</v>
+      </c>
+      <c r="G17" s="349">
+        <v>5</v>
+      </c>
+      <c r="H17" s="349">
+        <v>0</v>
+      </c>
+      <c r="I17" s="349"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="321">
+        <v>20</v>
+      </c>
+      <c r="B18" s="322">
+        <v>16</v>
+      </c>
+      <c r="C18" s="322" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="322" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="354" t="s">
+        <v>885</v>
+      </c>
+      <c r="F18" s="355">
+        <v>65</v>
+      </c>
+      <c r="G18" s="355">
+        <v>10</v>
+      </c>
+      <c r="H18" s="355">
+        <v>0</v>
+      </c>
+      <c r="I18" s="355"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="321">
+        <v>8</v>
+      </c>
+      <c r="B19" s="322">
+        <v>17</v>
+      </c>
+      <c r="C19" s="322" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="322" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="354" t="s">
+        <v>881</v>
+      </c>
+      <c r="F19" s="355">
+        <v>65</v>
+      </c>
+      <c r="G19" s="355">
+        <v>3</v>
+      </c>
+      <c r="H19" s="355">
+        <v>0</v>
+      </c>
+      <c r="I19" s="355" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="329">
+        <v>6</v>
+      </c>
+      <c r="B20" s="330">
+        <v>18</v>
+      </c>
+      <c r="C20" s="330" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="330" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="352" t="s">
+        <v>886</v>
+      </c>
+      <c r="F20" s="353">
+        <v>64</v>
+      </c>
+      <c r="G20" s="353">
+        <v>1</v>
+      </c>
+      <c r="H20" s="353">
+        <v>0</v>
+      </c>
+      <c r="I20" s="353"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="305">
         <v>23</v>
       </c>
-      <c r="B17" s="306"/>
-      <c r="C17" s="306" t="s">
+      <c r="B21" s="306">
+        <v>19</v>
+      </c>
+      <c r="C21" s="306" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="306" t="s">
+      <c r="D21" s="306" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="346"/>
-      <c r="F17" s="347"/>
-      <c r="G17" s="347"/>
-      <c r="H17" s="347"/>
-      <c r="I17" s="347"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="297">
-        <v>4</v>
-      </c>
-      <c r="B18" s="298"/>
-      <c r="C18" s="298" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="298" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="344"/>
-      <c r="F18" s="345"/>
-      <c r="G18" s="345"/>
-      <c r="H18" s="345"/>
-      <c r="I18" s="345"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="265">
-        <v>23</v>
-      </c>
-      <c r="B19" s="266"/>
-      <c r="C19" s="266" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="266" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="338"/>
-      <c r="F19" s="339"/>
-      <c r="G19" s="339"/>
-      <c r="H19" s="339"/>
-      <c r="I19" s="339"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="289">
-        <v>31</v>
-      </c>
-      <c r="B20" s="290"/>
-      <c r="C20" s="290" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="290" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="340"/>
-      <c r="F20" s="341"/>
-      <c r="G20" s="341"/>
-      <c r="H20" s="341"/>
-      <c r="I20" s="341"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="257">
-        <v>77</v>
-      </c>
-      <c r="B21" s="258"/>
-      <c r="C21" s="258" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="258" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="337"/>
-      <c r="F21" s="219"/>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
+      <c r="E21" s="346" t="s">
+        <v>887</v>
+      </c>
+      <c r="F21" s="347">
+        <v>64</v>
+      </c>
+      <c r="G21" s="347">
+        <v>-4</v>
+      </c>
+      <c r="H21" s="347">
+        <v>0</v>
+      </c>
+      <c r="I21" s="347"/>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="379">
-        <v>63</v>
-      </c>
-      <c r="B22" s="380"/>
-      <c r="C22" s="380" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="380" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="381"/>
-      <c r="F22" s="382"/>
-      <c r="G22" s="382"/>
-      <c r="H22" s="382"/>
-      <c r="I22" s="382"/>
+      <c r="A22" s="368">
+        <v>18</v>
+      </c>
+      <c r="B22" s="369" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="369" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="369" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="393" t="s">
+        <v>880</v>
+      </c>
+      <c r="F22" s="394">
+        <v>51</v>
+      </c>
+      <c r="G22" s="394">
+        <v>-15</v>
+      </c>
+      <c r="H22" s="394">
+        <v>0</v>
+      </c>
+      <c r="I22" s="394" t="s">
+        <v>893</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:I22" xr:uid="{1E3052E2-AABD-F943-8595-D9963230109F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I22">
+      <sortCondition ref="B2:B22"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -25987,7 +26439,7 @@
   <dimension ref="B1:AF31"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+      <selection activeCell="AD27" sqref="AD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26011,89 +26463,89 @@
     <row r="1" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="199"/>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="383" t="s">
+      <c r="D2" s="389" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="383" t="s">
+      <c r="E2" s="389" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="383" t="s">
+      <c r="F2" s="389" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="383" t="s">
+      <c r="I2" s="389" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="383" t="s">
+      <c r="J2" s="389" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="383" t="s">
+      <c r="K2" s="389" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="383" t="s">
+      <c r="L2" s="389" t="s">
         <v>75</v>
       </c>
-      <c r="M2" s="383" t="s">
+      <c r="M2" s="389" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="383" t="s">
+      <c r="N2" s="389" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="383" t="s">
+      <c r="O2" s="389" t="s">
         <v>78</v>
       </c>
       <c r="Q2" s="199"/>
-      <c r="R2" s="383" t="s">
+      <c r="R2" s="389" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="383" t="s">
+      <c r="S2" s="389" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="383" t="s">
+      <c r="T2" s="389" t="s">
         <v>68</v>
       </c>
-      <c r="U2" s="383" t="s">
+      <c r="U2" s="389" t="s">
         <v>69</v>
       </c>
-      <c r="V2" s="383" t="s">
+      <c r="V2" s="389" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="383" t="s">
+      <c r="W2" s="389" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="383" t="s">
+      <c r="X2" s="389" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="383" t="s">
+      <c r="Y2" s="389" t="s">
         <v>73</v>
       </c>
-      <c r="Z2" s="383" t="s">
+      <c r="Z2" s="389" t="s">
         <v>74</v>
       </c>
-      <c r="AA2" s="383" t="s">
+      <c r="AA2" s="389" t="s">
         <v>75</v>
       </c>
-      <c r="AB2" s="383" t="s">
+      <c r="AB2" s="389" t="s">
         <v>76</v>
       </c>
-      <c r="AC2" s="383" t="s">
+      <c r="AC2" s="389" t="s">
         <v>77</v>
       </c>
-      <c r="AD2" s="383" t="s">
+      <c r="AD2" s="389" t="s">
         <v>78</v>
       </c>
-      <c r="AE2" s="383" t="s">
+      <c r="AE2" s="389" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" s="383" t="s">
+      <c r="AF2" s="389" t="s">
         <v>79</v>
       </c>
     </row>
@@ -26134,7 +26586,9 @@
       <c r="M3" s="83">
         <v>3987</v>
       </c>
-      <c r="N3" s="83"/>
+      <c r="N3" s="83">
+        <v>4349</v>
+      </c>
       <c r="O3" s="83"/>
       <c r="Q3" s="198" t="s">
         <v>80</v>
@@ -26172,15 +26626,17 @@
       <c r="AB3" s="83">
         <v>460</v>
       </c>
-      <c r="AC3" s="83"/>
+      <c r="AC3" s="83">
+        <v>362</v>
+      </c>
       <c r="AD3" s="83"/>
       <c r="AE3" s="83">
         <f t="shared" ref="AE3:AE9" si="0">SUM(R3:AD3)</f>
-        <v>3987</v>
+        <v>4349</v>
       </c>
       <c r="AF3" s="215">
         <f t="shared" ref="AF3:AF9" si="1">AVERAGE(R3:AD3)</f>
-        <v>362.45454545454544</v>
+        <v>362.41666666666669</v>
       </c>
     </row>
     <row r="4" spans="2:32" x14ac:dyDescent="0.2">
@@ -26220,7 +26676,9 @@
       <c r="M4" s="242">
         <v>3910</v>
       </c>
-      <c r="N4" s="242"/>
+      <c r="N4" s="242">
+        <v>4223</v>
+      </c>
       <c r="O4" s="242"/>
       <c r="Q4" s="95" t="s">
         <v>81</v>
@@ -26258,15 +26716,17 @@
       <c r="AB4" s="242">
         <v>411</v>
       </c>
-      <c r="AC4" s="242"/>
+      <c r="AC4" s="242">
+        <v>313</v>
+      </c>
       <c r="AD4" s="242"/>
       <c r="AE4" s="242">
         <f t="shared" si="0"/>
-        <v>3910</v>
+        <v>4223</v>
       </c>
       <c r="AF4" s="216">
         <f t="shared" si="1"/>
-        <v>355.45454545454544</v>
+        <v>351.91666666666669</v>
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.2">
@@ -26306,7 +26766,9 @@
       <c r="M5" s="242">
         <v>3575</v>
       </c>
-      <c r="N5" s="242"/>
+      <c r="N5" s="242">
+        <v>3915</v>
+      </c>
       <c r="O5" s="242"/>
       <c r="Q5" s="95" t="s">
         <v>82</v>
@@ -26344,15 +26806,17 @@
       <c r="AB5" s="242">
         <v>505</v>
       </c>
-      <c r="AC5" s="242"/>
+      <c r="AC5" s="242">
+        <v>343</v>
+      </c>
       <c r="AD5" s="242"/>
       <c r="AE5" s="242">
         <f t="shared" si="0"/>
-        <v>3572</v>
+        <v>3915</v>
       </c>
       <c r="AF5" s="216">
         <f t="shared" si="1"/>
-        <v>324.72727272727275</v>
+        <v>326.25</v>
       </c>
     </row>
     <row r="6" spans="2:32" x14ac:dyDescent="0.2">
@@ -26392,7 +26856,9 @@
       <c r="M6" s="242">
         <v>3475</v>
       </c>
-      <c r="N6" s="242"/>
+      <c r="N6" s="242">
+        <v>3752</v>
+      </c>
       <c r="O6" s="242"/>
       <c r="Q6" s="95" t="s">
         <v>83</v>
@@ -26430,15 +26896,17 @@
       <c r="AB6" s="242">
         <v>320</v>
       </c>
-      <c r="AC6" s="242"/>
+      <c r="AC6" s="242">
+        <v>277</v>
+      </c>
       <c r="AD6" s="242"/>
       <c r="AE6" s="242">
         <f t="shared" si="0"/>
-        <v>3475</v>
+        <v>3752</v>
       </c>
       <c r="AF6" s="216">
         <f t="shared" si="1"/>
-        <v>315.90909090909093</v>
+        <v>312.66666666666669</v>
       </c>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.2">
@@ -26478,7 +26946,9 @@
       <c r="M7" s="242">
         <v>3000</v>
       </c>
-      <c r="N7" s="242"/>
+      <c r="N7" s="242">
+        <v>3382</v>
+      </c>
       <c r="O7" s="242"/>
       <c r="Q7" s="95" t="s">
         <v>84</v>
@@ -26516,15 +26986,17 @@
       <c r="AB7" s="242">
         <v>259</v>
       </c>
-      <c r="AC7" s="242"/>
+      <c r="AC7" s="242">
+        <v>382</v>
+      </c>
       <c r="AD7" s="242"/>
       <c r="AE7" s="242">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>3382</v>
       </c>
       <c r="AF7" s="216">
         <f t="shared" si="1"/>
-        <v>272.72727272727275</v>
+        <v>281.83333333333331</v>
       </c>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.2">
@@ -26562,7 +27034,9 @@
       <c r="M8" s="242">
         <v>2739</v>
       </c>
-      <c r="N8" s="242"/>
+      <c r="N8" s="242">
+        <v>2936</v>
+      </c>
       <c r="O8" s="242"/>
       <c r="Q8" s="95" t="s">
         <v>85</v>
@@ -26598,15 +27072,17 @@
       <c r="AB8" s="242">
         <v>348</v>
       </c>
-      <c r="AC8" s="242"/>
+      <c r="AC8" s="242">
+        <v>197</v>
+      </c>
       <c r="AD8" s="242"/>
       <c r="AE8" s="242">
         <f t="shared" si="0"/>
-        <v>2739</v>
+        <v>2936</v>
       </c>
       <c r="AF8" s="216">
         <f t="shared" si="1"/>
-        <v>273.89999999999998</v>
+        <v>266.90909090909093</v>
       </c>
     </row>
     <row r="9" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -26646,7 +27122,9 @@
       <c r="M9" s="235">
         <v>2414</v>
       </c>
-      <c r="N9" s="235"/>
+      <c r="N9" s="235">
+        <v>2658</v>
+      </c>
       <c r="O9" s="235"/>
       <c r="Q9" s="96" t="s">
         <v>86</v>
@@ -26684,103 +27162,105 @@
       <c r="AB9" s="235">
         <v>216</v>
       </c>
-      <c r="AC9" s="235"/>
+      <c r="AC9" s="235">
+        <v>244</v>
+      </c>
       <c r="AD9" s="235"/>
       <c r="AE9" s="235">
         <f t="shared" si="0"/>
-        <v>2414</v>
+        <v>2658</v>
       </c>
       <c r="AF9" s="217">
         <f t="shared" si="1"/>
-        <v>219.45454545454547</v>
+        <v>221.5</v>
       </c>
     </row>
     <row r="27" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:32" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="199"/>
-      <c r="C28" s="383" t="s">
+      <c r="C28" s="389" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="383" t="s">
+      <c r="D28" s="389" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="383" t="s">
+      <c r="E28" s="389" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="383" t="s">
+      <c r="F28" s="389" t="s">
         <v>69</v>
       </c>
-      <c r="G28" s="383" t="s">
+      <c r="G28" s="389" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="383" t="s">
+      <c r="H28" s="389" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="383" t="s">
+      <c r="I28" s="389" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="383" t="s">
+      <c r="J28" s="389" t="s">
         <v>73</v>
       </c>
-      <c r="K28" s="383" t="s">
+      <c r="K28" s="389" t="s">
         <v>74</v>
       </c>
-      <c r="L28" s="383" t="s">
+      <c r="L28" s="389" t="s">
         <v>75</v>
       </c>
-      <c r="M28" s="383" t="s">
+      <c r="M28" s="389" t="s">
         <v>76</v>
       </c>
-      <c r="N28" s="383" t="s">
+      <c r="N28" s="389" t="s">
         <v>77</v>
       </c>
-      <c r="O28" s="383" t="s">
+      <c r="O28" s="389" t="s">
         <v>78</v>
       </c>
       <c r="Q28" s="199"/>
-      <c r="R28" s="383" t="s">
+      <c r="R28" s="389" t="s">
         <v>66</v>
       </c>
-      <c r="S28" s="383" t="s">
+      <c r="S28" s="389" t="s">
         <v>67</v>
       </c>
-      <c r="T28" s="383" t="s">
+      <c r="T28" s="389" t="s">
         <v>68</v>
       </c>
-      <c r="U28" s="383" t="s">
+      <c r="U28" s="389" t="s">
         <v>69</v>
       </c>
-      <c r="V28" s="383" t="s">
+      <c r="V28" s="389" t="s">
         <v>70</v>
       </c>
-      <c r="W28" s="383" t="s">
+      <c r="W28" s="389" t="s">
         <v>71</v>
       </c>
-      <c r="X28" s="383" t="s">
+      <c r="X28" s="389" t="s">
         <v>72</v>
       </c>
-      <c r="Y28" s="383" t="s">
+      <c r="Y28" s="389" t="s">
         <v>73</v>
       </c>
-      <c r="Z28" s="383" t="s">
+      <c r="Z28" s="389" t="s">
         <v>74</v>
       </c>
-      <c r="AA28" s="383" t="s">
+      <c r="AA28" s="389" t="s">
         <v>75</v>
       </c>
-      <c r="AB28" s="383" t="s">
+      <c r="AB28" s="389" t="s">
         <v>76</v>
       </c>
-      <c r="AC28" s="383" t="s">
+      <c r="AC28" s="389" t="s">
         <v>77</v>
       </c>
-      <c r="AD28" s="383" t="s">
+      <c r="AD28" s="389" t="s">
         <v>78</v>
       </c>
-      <c r="AE28" s="383" t="s">
+      <c r="AE28" s="389" t="s">
         <v>40</v>
       </c>
-      <c r="AF28" s="383" t="s">
+      <c r="AF28" s="389" t="s">
         <v>79</v>
       </c>
     </row>
@@ -26821,7 +27301,9 @@
       <c r="M29" s="83">
         <v>5887</v>
       </c>
-      <c r="N29" s="83"/>
+      <c r="N29" s="83">
+        <v>6377</v>
+      </c>
       <c r="O29" s="83"/>
       <c r="Q29" s="198" t="s">
         <v>80</v>
@@ -26859,15 +27341,17 @@
       <c r="AB29" s="83">
         <v>608</v>
       </c>
-      <c r="AC29" s="83"/>
+      <c r="AC29" s="83">
+        <v>490</v>
+      </c>
       <c r="AD29" s="83"/>
       <c r="AE29" s="83">
         <f>SUM(R29:AD29)</f>
-        <v>5887</v>
+        <v>6377</v>
       </c>
       <c r="AF29" s="215">
         <f>AE29/COUNT(R29:AD29)</f>
-        <v>535.18181818181813</v>
+        <v>531.41666666666663</v>
       </c>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.2">
@@ -26907,7 +27391,9 @@
       <c r="M30" s="242">
         <v>5235</v>
       </c>
-      <c r="N30" s="242"/>
+      <c r="N30" s="242">
+        <v>5691</v>
+      </c>
       <c r="O30" s="242"/>
       <c r="Q30" s="95" t="s">
         <v>82</v>
@@ -26945,15 +27431,17 @@
       <c r="AB30" s="242">
         <v>660</v>
       </c>
-      <c r="AC30" s="242"/>
+      <c r="AC30" s="242">
+        <v>456</v>
+      </c>
       <c r="AD30" s="242"/>
       <c r="AE30" s="242">
         <f>SUM(R30:AD30)</f>
-        <v>5235</v>
+        <v>5691</v>
       </c>
       <c r="AF30" s="216">
         <f>AE30/COUNT(R30:AD30)</f>
-        <v>475.90909090909093</v>
+        <v>474.25</v>
       </c>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.2">
@@ -26993,7 +27481,9 @@
       <c r="M31" s="242">
         <v>4819</v>
       </c>
-      <c r="N31" s="242"/>
+      <c r="N31" s="242">
+        <v>5220</v>
+      </c>
       <c r="O31" s="242"/>
       <c r="Q31" s="95" t="s">
         <v>87</v>
@@ -27031,15 +27521,17 @@
       <c r="AB31" s="242">
         <v>681</v>
       </c>
-      <c r="AC31" s="242"/>
+      <c r="AC31" s="242">
+        <v>401</v>
+      </c>
       <c r="AD31" s="242"/>
       <c r="AE31" s="242">
         <f>SUM(R31:AD31)</f>
-        <v>4819</v>
+        <v>5220</v>
       </c>
       <c r="AF31" s="216">
         <f>AE31/COUNT(R31:AD31)</f>
-        <v>438.09090909090907</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -27073,13 +27565,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -27091,19 +27583,19 @@
       <c r="F2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>93</v>
       </c>
       <c r="I2" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="383" t="s">
+      <c r="J2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="383" t="s">
+      <c r="K2" s="389" t="s">
         <v>96</v>
       </c>
     </row>
@@ -27799,28 +28291,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="383" t="s">
+      <c r="D2" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="383" t="s">
+      <c r="E2" s="389" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="383" t="s">
+      <c r="F2" s="389" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>145</v>
       </c>
       <c r="I2" s="247" t="s">
@@ -28422,13 +28914,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -28440,19 +28932,19 @@
       <c r="F2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>93</v>
       </c>
       <c r="I2" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="383" t="s">
+      <c r="J2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="383" t="s">
+      <c r="K2" s="389" t="s">
         <v>96</v>
       </c>
     </row>
@@ -29151,28 +29643,28 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="383" t="s">
+      <c r="D2" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="383" t="s">
+      <c r="E2" s="389" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="383" t="s">
+      <c r="F2" s="389" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>145</v>
       </c>
       <c r="I2" s="247" t="s">
@@ -29807,13 +30299,13 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -29825,19 +30317,19 @@
       <c r="F2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>93</v>
       </c>
       <c r="I2" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="383" t="s">
+      <c r="J2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="K2" s="383" t="s">
+      <c r="K2" s="389" t="s">
         <v>96</v>
       </c>
     </row>
@@ -30530,28 +31022,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383" t="s">
+      <c r="A2" s="389" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="383" t="s">
+      <c r="B2" s="389" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="383" t="s">
+      <c r="C2" s="389" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="383" t="s">
+      <c r="D2" s="389" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="383" t="s">
+      <c r="E2" s="389" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="383" t="s">
+      <c r="F2" s="389" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="383" t="s">
+      <c r="G2" s="389" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="383" t="s">
+      <c r="H2" s="389" t="s">
         <v>145</v>
       </c>
       <c r="I2" s="247" t="s">
